--- a/data/BAN.MI.xlsx
+++ b/data/BAN.MI.xlsx
@@ -38,61 +38,61 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74278831481934</t>
+    <t xml:space="preserve">3.74278903007507</t>
   </si>
   <si>
     <t xml:space="preserve">BAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75724577903748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66247153282166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53235673904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48737955093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42473173141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51468753814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53396368026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5211124420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50023007392883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45203924179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47774124145508</t>
+    <t xml:space="preserve">3.75724530220032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66247081756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53235745429993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48737931251526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42473149299622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51468706130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53396320343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52111220359802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50023031234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45203995704651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47774171829224</t>
   </si>
   <si>
     <t xml:space="preserve">3.1789608001709</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30586290359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35726523399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27694797515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33316993713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25767207145691</t>
+    <t xml:space="preserve">3.30586242675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35726547241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27694773674011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33317017555237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25767183303833</t>
   </si>
   <si>
     <t xml:space="preserve">3.19663095474243</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">3.29301142692566</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23036360740662</t>
+    <t xml:space="preserve">3.2303638458252</t>
   </si>
   <si>
     <t xml:space="preserve">3.23678946495056</t>
@@ -113,10 +113,10 @@
     <t xml:space="preserve">3.21269416809082</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11149430274963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98780536651611</t>
+    <t xml:space="preserve">3.11149477958679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98780560493469</t>
   </si>
   <si>
     <t xml:space="preserve">2.97174215316772</t>
@@ -125,16 +125,16 @@
     <t xml:space="preserve">2.89142465591431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88339304924011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80789494514465</t>
+    <t xml:space="preserve">2.88339281082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80789470672607</t>
   </si>
   <si>
     <t xml:space="preserve">2.80950117111206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81110715866089</t>
+    <t xml:space="preserve">2.81110739707947</t>
   </si>
   <si>
     <t xml:space="preserve">2.95246624946594</t>
@@ -146,31 +146,31 @@
     <t xml:space="preserve">3.02153873443604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05366563796997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12113237380981</t>
+    <t xml:space="preserve">3.05366587638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12113213539124</t>
   </si>
   <si>
     <t xml:space="preserve">3.17253565788269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13077068328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02314519882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05205941200256</t>
+    <t xml:space="preserve">3.13077020645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314496040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05205965042114</t>
   </si>
   <si>
     <t xml:space="preserve">3.06812310218811</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0359959602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12434482574463</t>
+    <t xml:space="preserve">3.03599619865417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12434506416321</t>
   </si>
   <si>
     <t xml:space="preserve">3.18056726455688</t>
@@ -179,25 +179,25 @@
     <t xml:space="preserve">3.24482107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16450357437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19984364509583</t>
+    <t xml:space="preserve">3.16450381278992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19984340667725</t>
   </si>
   <si>
     <t xml:space="preserve">3.29783058166504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40545582771301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37332844734192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30907464027405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3074688911438</t>
+    <t xml:space="preserve">3.40545606613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3733286857605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30907487869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30746865272522</t>
   </si>
   <si>
     <t xml:space="preserve">3.18859887123108</t>
@@ -206,76 +206,76 @@
     <t xml:space="preserve">3.26088452339172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26730990409851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16610980033875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1757481098175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20466232299805</t>
+    <t xml:space="preserve">3.26730966567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1661102771759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17574834823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20466256141663</t>
   </si>
   <si>
     <t xml:space="preserve">3.10828137397766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06009149551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01993250846863</t>
+    <t xml:space="preserve">3.06009125709534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01993227005005</t>
   </si>
   <si>
     <t xml:space="preserve">3.15647196769714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02796411514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92033863067627</t>
+    <t xml:space="preserve">3.0279643535614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92033910751343</t>
   </si>
   <si>
     <t xml:space="preserve">2.93158364295959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96852922439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04563426971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06169772148132</t>
+    <t xml:space="preserve">2.96852970123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04563403129578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06169748306274</t>
   </si>
   <si>
     <t xml:space="preserve">3.07615447044373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98619890213013</t>
+    <t xml:space="preserve">2.98619914054871</t>
   </si>
   <si>
     <t xml:space="preserve">2.97977375984192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91551995277405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87054204940796</t>
+    <t xml:space="preserve">2.91552019119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8705415725708</t>
   </si>
   <si>
     <t xml:space="preserve">2.89785027503967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85769152641296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78379917144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70508861541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73560881614685</t>
+    <t xml:space="preserve">2.85769176483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78379964828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7050883769989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73560905456543</t>
   </si>
   <si>
     <t xml:space="preserve">2.76934218406677</t>
@@ -284,16 +284,16 @@
     <t xml:space="preserve">2.81913876533508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83520293235779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77898073196411</t>
+    <t xml:space="preserve">2.83520245552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77898049354553</t>
   </si>
   <si>
     <t xml:space="preserve">2.64244103431702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58621883392334</t>
+    <t xml:space="preserve">2.58621907234192</t>
   </si>
   <si>
     <t xml:space="preserve">2.54445385932922</t>
@@ -302,34 +302,34 @@
     <t xml:space="preserve">2.52999663352966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57015538215637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65803790092468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63979816436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61160969734192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61326766014099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66135454177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64477300643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63316535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65306377410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77576804161072</t>
+    <t xml:space="preserve">2.57015585899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65803813934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63979840278625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61160945892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61326718330383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66135430335999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64477276802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63316559791565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65306353569031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77576780319214</t>
   </si>
   <si>
     <t xml:space="preserve">2.87691593170166</t>
@@ -338,100 +338,97 @@
     <t xml:space="preserve">2.86033415794373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73597192764282</t>
+    <t xml:space="preserve">2.73597168922424</t>
   </si>
   <si>
     <t xml:space="preserve">2.76913499832153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49553823471069</t>
+    <t xml:space="preserve">2.49553775787354</t>
   </si>
   <si>
     <t xml:space="preserve">2.44579291343689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55357384681702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52538466453552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57015514373779</t>
+    <t xml:space="preserve">2.55357360839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52538514137268</t>
   </si>
   <si>
     <t xml:space="preserve">2.57844591140747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55854797363281</t>
+    <t xml:space="preserve">2.55854845046997</t>
   </si>
   <si>
     <t xml:space="preserve">2.45408391952515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23852252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2799768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34132885932922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31977224349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40433859825134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42092084884644</t>
+    <t xml:space="preserve">2.23852229118347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27997636795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34132862091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31977272033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4043390750885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42092037200928</t>
   </si>
   <si>
     <t xml:space="preserve">2.33801221847534</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2368643283844</t>
+    <t xml:space="preserve">2.23686408996582</t>
   </si>
   <si>
     <t xml:space="preserve">2.27002763748169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32972168922424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35127735137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37780833244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38278293609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37946629524231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36620092391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42921161651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58673691749573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59502840042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61990022659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95484972000122</t>
+    <t xml:space="preserve">2.32972145080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35127758979797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37780809402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38278269767761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37946605682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36620116233826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42921113967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58673667907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59502792358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6199004650116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95484924316406</t>
   </si>
   <si>
     <t xml:space="preserve">2.89515566825867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86862516403198</t>
+    <t xml:space="preserve">2.8686249256134</t>
   </si>
   <si>
     <t xml:space="preserve">2.64808893203735</t>
@@ -440,7 +437,7 @@
     <t xml:space="preserve">2.6281909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62487459182739</t>
+    <t xml:space="preserve">2.62487483024597</t>
   </si>
   <si>
     <t xml:space="preserve">2.61824226379395</t>
@@ -449,31 +446,31 @@
     <t xml:space="preserve">2.58342051506042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5883948802948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68954300880432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68291068077087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69949221611023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70612478256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69120144844055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69451785087585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74592089653015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81224703788757</t>
+    <t xml:space="preserve">2.58839511871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6895432472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68291020393372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69949197769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70612502098083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69120192527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69451761245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74592065811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81224751472473</t>
   </si>
   <si>
     <t xml:space="preserve">2.84872698783875</t>
@@ -482,10 +479,10 @@
     <t xml:space="preserve">2.81888008117676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78571701049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70778322219849</t>
+    <t xml:space="preserve">2.78571653366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70778298377991</t>
   </si>
   <si>
     <t xml:space="preserve">2.71109938621521</t>
@@ -494,19 +491,19 @@
     <t xml:space="preserve">2.79732370376587</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82385444641113</t>
+    <t xml:space="preserve">2.82385492324829</t>
   </si>
   <si>
     <t xml:space="preserve">2.76084423065186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78240060806274</t>
+    <t xml:space="preserve">2.78240036964417</t>
   </si>
   <si>
     <t xml:space="preserve">2.7956657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82551264762878</t>
+    <t xml:space="preserve">2.82551288604736</t>
   </si>
   <si>
     <t xml:space="preserve">2.857017993927</t>
@@ -521,7 +518,7 @@
     <t xml:space="preserve">2.7011501789093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67793607711792</t>
+    <t xml:space="preserve">2.67793583869934</t>
   </si>
   <si>
     <t xml:space="preserve">2.64974737167358</t>
@@ -530,10 +527,10 @@
     <t xml:space="preserve">2.66964530944824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71938991546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68622732162476</t>
+    <t xml:space="preserve">2.71939015388489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6862268447876</t>
   </si>
   <si>
     <t xml:space="preserve">2.74260449409485</t>
@@ -545,19 +542,19 @@
     <t xml:space="preserve">2.73099732398987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76416063308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8105890750885</t>
+    <t xml:space="preserve">2.76416087150574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81058931350708</t>
   </si>
   <si>
     <t xml:space="preserve">2.78074240684509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77742624282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88520669937134</t>
+    <t xml:space="preserve">2.77742600440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88520693778992</t>
   </si>
   <si>
     <t xml:space="preserve">2.79898190498352</t>
@@ -566,55 +563,55 @@
     <t xml:space="preserve">2.81722187995911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79400753974915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75918626785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74426293373108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66467070579529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78737497329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72933888435364</t>
+    <t xml:space="preserve">2.79400706291199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7591860294342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7442626953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66467094421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78737473487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72933912277222</t>
   </si>
   <si>
     <t xml:space="preserve">2.67627787590027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6464307308197</t>
+    <t xml:space="preserve">2.64643096923828</t>
   </si>
   <si>
     <t xml:space="preserve">2.60497689247131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60166072845459</t>
+    <t xml:space="preserve">2.60166049003601</t>
   </si>
   <si>
     <t xml:space="preserve">2.56352257728577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51709389686584</t>
+    <t xml:space="preserve">2.51709413528442</t>
   </si>
   <si>
     <t xml:space="preserve">2.55191564559937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63648176193237</t>
+    <t xml:space="preserve">2.63648200035095</t>
   </si>
   <si>
     <t xml:space="preserve">2.68456864356995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70944094657898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72270607948303</t>
+    <t xml:space="preserve">2.70944118499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72270655632019</t>
   </si>
   <si>
     <t xml:space="preserve">2.77908396720886</t>
@@ -626,61 +623,61 @@
     <t xml:space="preserve">2.82717108726501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83380389213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75421190261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82882905006409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82053828239441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77245163917542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80064010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83546185493469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80229830741882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65637969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67959427833557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70280861854553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74757885932922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75255346298218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98137998580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94324207305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05931425094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03444147109985</t>
+    <t xml:space="preserve">2.83380341529846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75421166419983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82882881164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82053804397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77245140075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80064034461975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83546161651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8022985458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65638017654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67959403991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70280838012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74757862091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75255298614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98138022422791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94324231147766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05931377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03444170951843</t>
   </si>
   <si>
     <t xml:space="preserve">3.0294668674469</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02283406257629</t>
+    <t xml:space="preserve">3.02283430099487</t>
   </si>
   <si>
     <t xml:space="preserve">3.00127816200256</t>
@@ -689,58 +686,58 @@
     <t xml:space="preserve">2.99298691749573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95650792121887</t>
+    <t xml:space="preserve">2.95650768280029</t>
   </si>
   <si>
     <t xml:space="preserve">2.94987511634827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93660998344421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93329381942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90178799629211</t>
+    <t xml:space="preserve">2.93660974502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93329334259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90178823471069</t>
   </si>
   <si>
     <t xml:space="preserve">2.87857389450073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90676259994507</t>
+    <t xml:space="preserve">2.90676283836365</t>
   </si>
   <si>
     <t xml:space="preserve">2.97806358337402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98469614982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05102276802063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97308945655823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97474765777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01786017417908</t>
+    <t xml:space="preserve">2.98469662666321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05102300643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97308921813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97474718093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0178599357605</t>
   </si>
   <si>
     <t xml:space="preserve">3.01620173454285</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01122713088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11071729660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11734962463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05599761009216</t>
+    <t xml:space="preserve">3.01122736930847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11071705818176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11734986305237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05599784851074</t>
   </si>
   <si>
     <t xml:space="preserve">3.03941583633423</t>
@@ -749,22 +746,22 @@
     <t xml:space="preserve">3.06760478019714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15862154960632</t>
+    <t xml:space="preserve">3.15862202644348</t>
   </si>
   <si>
     <t xml:space="preserve">3.1788477897644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23278379440308</t>
+    <t xml:space="preserve">3.2327835559845</t>
   </si>
   <si>
     <t xml:space="preserve">3.20244455337524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20750069618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25300979614258</t>
+    <t xml:space="preserve">3.20750093460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.253009557724</t>
   </si>
   <si>
     <t xml:space="preserve">3.24458193778992</t>
@@ -776,16 +773,16 @@
     <t xml:space="preserve">3.281662940979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23109841346741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21761417388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23446917533875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1383957862854</t>
+    <t xml:space="preserve">3.23109793663025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21761393547058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23446893692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13839554786682</t>
   </si>
   <si>
     <t xml:space="preserve">3.13671016693115</t>
@@ -797,7 +794,7 @@
     <t xml:space="preserve">3.11985516548157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12659692764282</t>
+    <t xml:space="preserve">3.1265971660614</t>
   </si>
   <si>
     <t xml:space="preserve">3.0945725440979</t>
@@ -806,52 +803,52 @@
     <t xml:space="preserve">3.0861451625824</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0541205406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05074954032898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05917739868164</t>
+    <t xml:space="preserve">3.05412077903748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05074977874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05917763710022</t>
   </si>
   <si>
     <t xml:space="preserve">2.99681401252747</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01535439491272</t>
+    <t xml:space="preserve">3.01535415649414</t>
   </si>
   <si>
     <t xml:space="preserve">3.14176654815674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15019416809082</t>
+    <t xml:space="preserve">3.15019392967224</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850878715515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17042016983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17379093170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21087217330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22772669792175</t>
+    <t xml:space="preserve">3.17041993141174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17379140853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21087169647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22772693634033</t>
   </si>
   <si>
     <t xml:space="preserve">3.269864320755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27829194068909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29514718055725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29851794242859</t>
+    <t xml:space="preserve">3.27829170227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29514694213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29851770401001</t>
   </si>
   <si>
     <t xml:space="preserve">3.31874370574951</t>
@@ -866,13 +863,13 @@
     <t xml:space="preserve">3.33728432655334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36256670951843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28840494155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31537270545959</t>
+    <t xml:space="preserve">3.36256694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28840470314026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31537318229675</t>
   </si>
   <si>
     <t xml:space="preserve">3.25806593894958</t>
@@ -881,34 +878,34 @@
     <t xml:space="preserve">3.32885670661926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16030716896057</t>
+    <t xml:space="preserve">3.16030693054199</t>
   </si>
   <si>
     <t xml:space="preserve">3.22267055511475</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23615431785583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23783993721008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21424269676208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11311292648315</t>
+    <t xml:space="preserve">3.23615455627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23784041404724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21424317359924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11311316490173</t>
   </si>
   <si>
     <t xml:space="preserve">3.1181697845459</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1468231678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1906464099884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09288716316223</t>
+    <t xml:space="preserve">3.14682292938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19064617156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09288740158081</t>
   </si>
   <si>
     <t xml:space="preserve">3.15693616867065</t>
@@ -917,10 +914,10 @@
     <t xml:space="preserve">3.1350245475769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15356492996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19401669502258</t>
+    <t xml:space="preserve">3.15356516838074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19401717185974</t>
   </si>
   <si>
     <t xml:space="preserve">3.17210555076599</t>
@@ -929,16 +926,16 @@
     <t xml:space="preserve">3.16704893112183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18390393257141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19907379150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20918679237366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19233179092407</t>
+    <t xml:space="preserve">3.18390417098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19907355308533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20918655395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19233131408691</t>
   </si>
   <si>
     <t xml:space="preserve">3.20413017272949</t>
@@ -953,7 +950,7 @@
     <t xml:space="preserve">3.16873455047607</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14345192909241</t>
+    <t xml:space="preserve">3.14345216751099</t>
   </si>
   <si>
     <t xml:space="preserve">3.16367793083191</t>
@@ -962,7 +959,7 @@
     <t xml:space="preserve">3.16536355018616</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18558955192566</t>
+    <t xml:space="preserve">3.18558931350708</t>
   </si>
   <si>
     <t xml:space="preserve">3.15187978744507</t>
@@ -974,49 +971,49 @@
     <t xml:space="preserve">2.99175715446472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89399862289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93950653076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96647500991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96984577178955</t>
+    <t xml:space="preserve">2.89399838447571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93950700759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96647477149963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96984601020813</t>
   </si>
   <si>
     <t xml:space="preserve">3.00524163246155</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00018501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02546715736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94287824630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89736914634705</t>
+    <t xml:space="preserve">3.0001847743988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02546739578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94287776947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8973696231842</t>
   </si>
   <si>
     <t xml:space="preserve">2.88557100296021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86871576309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93782138824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80635237693787</t>
+    <t xml:space="preserve">2.86871600151062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93782162666321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80635261535645</t>
   </si>
   <si>
     <t xml:space="preserve">2.8653450012207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84848999977112</t>
+    <t xml:space="preserve">2.8484902381897</t>
   </si>
   <si>
     <t xml:space="preserve">2.87040162086487</t>
@@ -1025,13 +1022,13 @@
     <t xml:space="preserve">2.91591000556946</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03389477729797</t>
+    <t xml:space="preserve">3.03389501571655</t>
   </si>
   <si>
     <t xml:space="preserve">3.03052401542664</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07603240013123</t>
+    <t xml:space="preserve">3.07603216171265</t>
   </si>
   <si>
     <t xml:space="preserve">3.11648416519165</t>
@@ -1043,52 +1040,52 @@
     <t xml:space="preserve">3.13165378570557</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12491178512573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08445978164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0979437828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08951616287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11479878425598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14008092880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17294836044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13081097602844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21929955482483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28250527381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2403678894043</t>
+    <t xml:space="preserve">3.12491154670715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08446002006531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09794402122498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08951592445374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1147985458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14008116722107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17294859886169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13081049919128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21929931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28250575065613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24036812782288</t>
   </si>
   <si>
     <t xml:space="preserve">3.25722312927246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32042956352234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28671956062317</t>
+    <t xml:space="preserve">3.32042908668518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28671979904175</t>
   </si>
   <si>
     <t xml:space="preserve">3.02125382423401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03810834884644</t>
+    <t xml:space="preserve">3.03810811042786</t>
   </si>
   <si>
     <t xml:space="preserve">2.98332977294922</t>
@@ -1097,7 +1094,7 @@
     <t xml:space="preserve">2.93276524543762</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1982307434082</t>
+    <t xml:space="preserve">3.19823098182678</t>
   </si>
   <si>
     <t xml:space="preserve">3.13923811912537</t>
@@ -1109,7 +1106,7 @@
     <t xml:space="preserve">3.09710097312927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97911620140076</t>
+    <t xml:space="preserve">2.97911643981934</t>
   </si>
   <si>
     <t xml:space="preserve">3.14766573905945</t>
@@ -1118,82 +1115,85 @@
     <t xml:space="preserve">3.08024597167969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08867359161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10974216461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10552859306335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21508550643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40470433235168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31621551513672</t>
+    <t xml:space="preserve">3.08867335319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1097424030304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10552835464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21508574485779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40470409393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31621599197388</t>
   </si>
   <si>
     <t xml:space="preserve">3.34149813652039</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34992551803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31200170516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24879574775696</t>
+    <t xml:space="preserve">3.34992527961731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31200218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24879550933838</t>
   </si>
   <si>
     <t xml:space="preserve">3.30885672569275</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26605176925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27461266517639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25320959091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2874538898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22752666473389</t>
+    <t xml:space="preserve">3.26605153083801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27461242675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25320982933044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28745412826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22752642631531</t>
   </si>
   <si>
     <t xml:space="preserve">3.15047693252563</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18472123146057</t>
+    <t xml:space="preserve">3.18472099304199</t>
   </si>
   <si>
     <t xml:space="preserve">3.20612382888794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2703320980072</t>
+    <t xml:space="preserve">3.27033185958862</t>
   </si>
   <si>
     <t xml:space="preserve">3.32169842720032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31313729286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16759943962097</t>
+    <t xml:space="preserve">3.31313753128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16759920120239</t>
   </si>
   <si>
     <t xml:space="preserve">3.13335490226746</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24892926216125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17616033554077</t>
+    <t xml:space="preserve">3.24892950057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24036836624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17616009712219</t>
   </si>
   <si>
     <t xml:space="preserve">3.18900156021118</t>
@@ -1202,13 +1202,13 @@
     <t xml:space="preserve">3.20184350013733</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21040439605713</t>
+    <t xml:space="preserve">3.21040415763855</t>
   </si>
   <si>
     <t xml:space="preserve">3.21896553039551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23608779907227</t>
+    <t xml:space="preserve">3.23608732223511</t>
   </si>
   <si>
     <t xml:space="preserve">3.14619636535645</t>
@@ -1217,22 +1217,22 @@
     <t xml:space="preserve">3.19756269454956</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2318069934845</t>
+    <t xml:space="preserve">3.23180723190308</t>
   </si>
   <si>
     <t xml:space="preserve">3.171879529953</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2232460975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25749039649963</t>
+    <t xml:space="preserve">3.22324633598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25749063491821</t>
   </si>
   <si>
     <t xml:space="preserve">3.278892993927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30029582977295</t>
+    <t xml:space="preserve">3.30029559135437</t>
   </si>
   <si>
     <t xml:space="preserve">3.33025932312012</t>
@@ -1244,22 +1244,22 @@
     <t xml:space="preserve">3.37734532356262</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34310126304626</t>
+    <t xml:space="preserve">3.34310102462769</t>
   </si>
   <si>
     <t xml:space="preserve">3.42443132400513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49292016029358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56140851974487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50148153305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61277532577515</t>
+    <t xml:space="preserve">3.492919921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56140828132629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50148129463196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61277484893799</t>
   </si>
   <si>
     <t xml:space="preserve">3.51860356330872</t>
@@ -1271,34 +1271,34 @@
     <t xml:space="preserve">3.58709192276001</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54428672790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52716398239136</t>
+    <t xml:space="preserve">3.54428648948669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52716469764709</t>
   </si>
   <si>
     <t xml:space="preserve">3.45439505577087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44583415985107</t>
+    <t xml:space="preserve">3.44583439826965</t>
   </si>
   <si>
     <t xml:space="preserve">3.54000616073608</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36878442764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.385906457901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36450362205505</t>
+    <t xml:space="preserve">3.3687846660614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38590621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36450409889221</t>
   </si>
   <si>
     <t xml:space="preserve">3.40730929374695</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33882069587708</t>
+    <t xml:space="preserve">3.33882093429565</t>
   </si>
   <si>
     <t xml:space="preserve">3.34738183021545</t>
@@ -1307,106 +1307,106 @@
     <t xml:space="preserve">3.46723699569702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6470193862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65986084938049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62133622169495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65130019187927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65558075904846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73691034317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62989687919617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63845801353455</t>
+    <t xml:space="preserve">3.64701962471008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65986108779907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62133574485779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65129995346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6555802822113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73691058158875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62989735603333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63845825195312</t>
   </si>
   <si>
     <t xml:space="preserve">3.69410538673401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85676622390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96377921104431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79683756828308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83964323997498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87388801574707</t>
+    <t xml:space="preserve">3.85676574707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96377897262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79683828353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83964395523071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831294059753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87388777732849</t>
   </si>
   <si>
     <t xml:space="preserve">3.90385174751282</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87816834449768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91669321060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99802327156067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98946261405945</t>
+    <t xml:space="preserve">3.87816858291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91669297218323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99802350997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98946213722229</t>
   </si>
   <si>
     <t xml:space="preserve">4.02370691299438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14784240722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10075712203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00658512115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94665694236755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89529061317444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93809580802917</t>
+    <t xml:space="preserve">4.1478419303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10075616836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00658464431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94665718078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8952910900116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9380955696106</t>
   </si>
   <si>
     <t xml:space="preserve">3.86960768699646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94237613677979</t>
+    <t xml:space="preserve">3.94237661361694</t>
   </si>
   <si>
     <t xml:space="preserve">3.95521807670593</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80967998504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92097401618958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76687479019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98090100288391</t>
+    <t xml:space="preserve">3.80967950820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.920973777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76687455177307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98090171813965</t>
   </si>
   <si>
     <t xml:space="preserve">4.03226804733276</t>
@@ -1415,16 +1415,16 @@
     <t xml:space="preserve">4.07079315185547</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08363485336304</t>
+    <t xml:space="preserve">4.08363437652588</t>
   </si>
   <si>
     <t xml:space="preserve">3.99374294281006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95093774795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9295346736908</t>
+    <t xml:space="preserve">3.9509379863739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92953562736511</t>
   </si>
   <si>
     <t xml:space="preserve">3.74119114875793</t>
@@ -1433,19 +1433,19 @@
     <t xml:space="preserve">3.74975252151489</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66414165496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60421442985535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7797155380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71550846099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85248565673828</t>
+    <t xml:space="preserve">3.66414189338684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60421395301819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77971625328064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71550798416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85248517990112</t>
   </si>
   <si>
     <t xml:space="preserve">3.79255747795105</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">3.71978855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77543520927429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75403332710266</t>
+    <t xml:space="preserve">3.77543568611145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7540328502655</t>
   </si>
   <si>
     <t xml:space="preserve">3.88244915008545</t>
@@ -1466,22 +1466,22 @@
     <t xml:space="preserve">3.86104607582092</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77115559577942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80539989471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82252144813538</t>
+    <t xml:space="preserve">3.771155834198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80539917945862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82252192497253</t>
   </si>
   <si>
     <t xml:space="preserve">3.72406911849976</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73263025283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93381500244141</t>
+    <t xml:space="preserve">3.73263072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93381571769714</t>
   </si>
   <si>
     <t xml:space="preserve">3.97234034538269</t>
@@ -1493,31 +1493,31 @@
     <t xml:space="preserve">4.08791494369507</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16924571990967</t>
+    <t xml:space="preserve">4.16924524307251</t>
   </si>
   <si>
     <t xml:space="preserve">4.19492864608765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25485610961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28053903579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32334518432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27197790145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18208646774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17780590057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16068410873413</t>
+    <t xml:space="preserve">4.25485563278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28053951263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32334470748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27197742462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18208694458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17780637741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16068363189697</t>
   </si>
   <si>
     <t xml:space="preserve">4.229172706604</t>
@@ -1529,37 +1529,37 @@
     <t xml:space="preserve">4.16496419906616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14356231689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34902811050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4860053062439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61442089080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58873796463013</t>
+    <t xml:space="preserve">4.14356184005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34902715682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48600482940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61442184448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58873748779297</t>
   </si>
   <si>
     <t xml:space="preserve">4.67434883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57161617279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71715402603149</t>
+    <t xml:space="preserve">4.57161569595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71715450286865</t>
   </si>
   <si>
     <t xml:space="preserve">4.76852083206177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7942042350769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77708148956299</t>
+    <t xml:space="preserve">4.79420375823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77708196640015</t>
   </si>
   <si>
     <t xml:space="preserve">4.75995969772339</t>
@@ -1577,73 +1577,73 @@
     <t xml:space="preserve">4.56305503845215</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58017683029175</t>
+    <t xml:space="preserve">4.58017730712891</t>
   </si>
   <si>
     <t xml:space="preserve">4.6401047706604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69147062301636</t>
+    <t xml:space="preserve">4.69147109985352</t>
   </si>
   <si>
     <t xml:space="preserve">4.70859336853027</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70003223419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49456644058228</t>
+    <t xml:space="preserve">4.70003128051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49456596374512</t>
   </si>
   <si>
     <t xml:space="preserve">4.62298250198364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85413122177124</t>
+    <t xml:space="preserve">4.8541316986084</t>
   </si>
   <si>
     <t xml:space="preserve">4.90549850463867</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83700895309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78564262390137</t>
+    <t xml:space="preserve">4.83700942993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78564310073853</t>
   </si>
   <si>
     <t xml:space="preserve">4.75139856338501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59729909896851</t>
+    <t xml:space="preserve">4.59729957580566</t>
   </si>
   <si>
     <t xml:space="preserve">4.63154315948486</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55449438095093</t>
+    <t xml:space="preserve">4.55449342727661</t>
   </si>
   <si>
     <t xml:space="preserve">4.50312757492065</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47744369506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46888303756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43463802337646</t>
+    <t xml:space="preserve">4.47744464874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46888256072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43463850021362</t>
   </si>
   <si>
     <t xml:space="preserve">4.55733585357666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60992097854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48722267150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46093082427979</t>
+    <t xml:space="preserve">4.60992050170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48722314834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46093130111694</t>
   </si>
   <si>
     <t xml:space="preserve">4.39081811904907</t>
@@ -1658,88 +1658,88 @@
     <t xml:space="preserve">4.39958190917969</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46969509124756</t>
+    <t xml:space="preserve">4.46969556808472</t>
   </si>
   <si>
     <t xml:space="preserve">4.5310435295105</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54857158660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44340229034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47845935821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53980731964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50475072860718</t>
+    <t xml:space="preserve">4.54857206344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44340324401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47845888137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53980779647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50475168228149</t>
   </si>
   <si>
     <t xml:space="preserve">4.31632328033447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35137939453125</t>
+    <t xml:space="preserve">4.35137987136841</t>
   </si>
   <si>
     <t xml:space="preserve">4.21553611755371</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12789440155029</t>
+    <t xml:space="preserve">4.12789487838745</t>
   </si>
   <si>
     <t xml:space="preserve">4.16733360290527</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06216478347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11474847793579</t>
+    <t xml:space="preserve">4.06216430664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11474895477295</t>
   </si>
   <si>
     <t xml:space="preserve">4.02710723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07092761993408</t>
+    <t xml:space="preserve">4.0709285736084</t>
   </si>
   <si>
     <t xml:space="preserve">4.06654596328735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02272510528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04463577270508</t>
+    <t xml:space="preserve">4.0227255821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04463529586792</t>
   </si>
   <si>
     <t xml:space="preserve">4.04025363922119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09283828735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00519752502441</t>
+    <t xml:space="preserve">4.09283876419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00519704818726</t>
   </si>
   <si>
     <t xml:space="preserve">4.15418720245361</t>
   </si>
   <si>
-    <t xml:space="preserve">4.171715259552</t>
+    <t xml:space="preserve">4.17171573638916</t>
   </si>
   <si>
     <t xml:space="preserve">4.19362497329712</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34699773788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40834712982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38205337524414</t>
+    <t xml:space="preserve">4.34699821472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40834665298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3820538520813</t>
   </si>
   <si>
     <t xml:space="preserve">4.11036682128906</t>
@@ -1748,37 +1748,37 @@
     <t xml:space="preserve">3.91755604743958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95261240005493</t>
+    <t xml:space="preserve">3.95261335372925</t>
   </si>
   <si>
     <t xml:space="preserve">3.96575880050659</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08407402038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10160255432129</t>
+    <t xml:space="preserve">4.0840744972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10160207748413</t>
   </si>
   <si>
     <t xml:space="preserve">4.01396131515503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9438488483429</t>
+    <t xml:space="preserve">3.94384813308716</t>
   </si>
   <si>
     <t xml:space="preserve">3.84744310379028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79047703742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77733016014099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75103831291199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75980234146118</t>
+    <t xml:space="preserve">3.79047656059265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77733039855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75103855133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7598021030426</t>
   </si>
   <si>
     <t xml:space="preserve">3.78171253204346</t>
@@ -1787,31 +1787,31 @@
     <t xml:space="preserve">3.73789215087891</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73350977897644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79485845565796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89126396179199</t>
+    <t xml:space="preserve">3.7335102558136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79485869407654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89126420021057</t>
   </si>
   <si>
     <t xml:space="preserve">4.03148937225342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93508362770081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8605899810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92193794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85620784759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76856684684753</t>
+    <t xml:space="preserve">3.93508434295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86058950424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92193818092346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85620737075806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76856660842896</t>
   </si>
   <si>
     <t xml:space="preserve">3.80800485610962</t>
@@ -1829,22 +1829,22 @@
     <t xml:space="preserve">3.72474551200867</t>
   </si>
   <si>
-    <t xml:space="preserve">3.799241065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86497116088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72036361694336</t>
+    <t xml:space="preserve">3.79924058914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86497163772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72036385536194</t>
   </si>
   <si>
     <t xml:space="preserve">3.74227428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74665594100952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68968963623047</t>
+    <t xml:space="preserve">3.74665641784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68968939781189</t>
   </si>
   <si>
     <t xml:space="preserve">3.64586877822876</t>
@@ -1856,28 +1856,28 @@
     <t xml:space="preserve">3.72912764549255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70283532142639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04901790618896</t>
+    <t xml:space="preserve">3.70283555984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04901742935181</t>
   </si>
   <si>
     <t xml:space="preserve">4.0358715057373</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97890496253967</t>
+    <t xml:space="preserve">3.97890472412109</t>
   </si>
   <si>
     <t xml:space="preserve">4.00957918167114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0972204208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18048000335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22430038452148</t>
+    <t xml:space="preserve">4.09722089767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18047952651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22429990768433</t>
   </si>
   <si>
     <t xml:space="preserve">4.32946920394897</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">4.52227926254272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51351594924927</t>
+    <t xml:space="preserve">4.51351547241211</t>
   </si>
   <si>
     <t xml:space="preserve">4.68003416061401</t>
@@ -1898,22 +1898,22 @@
     <t xml:space="preserve">4.67126941680908</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58362817764282</t>
+    <t xml:space="preserve">4.58362770080566</t>
   </si>
   <si>
     <t xml:space="preserve">4.64497709274292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57486438751221</t>
+    <t xml:space="preserve">4.57486391067505</t>
   </si>
   <si>
     <t xml:space="preserve">4.62744903564453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68879747390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87284421920776</t>
+    <t xml:space="preserve">4.68879795074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87284374237061</t>
   </si>
   <si>
     <t xml:space="preserve">4.90790033340454</t>
@@ -1922,34 +1922,34 @@
     <t xml:space="preserve">4.79396677017212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74138164520264</t>
+    <t xml:space="preserve">4.74138212203979</t>
   </si>
   <si>
     <t xml:space="preserve">4.82025957107544</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81149530410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7852029800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77643871307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80273056030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76767492294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65374135971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5923924446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63621282577515</t>
+    <t xml:space="preserve">4.81149482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78520250320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77643823623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80273103713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76767444610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65374088287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59239196777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63621377944946</t>
   </si>
   <si>
     <t xml:space="preserve">4.60115671157837</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">4.75891017913818</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70632600784302</t>
+    <t xml:space="preserve">4.70632553100586</t>
   </si>
   <si>
     <t xml:space="preserve">4.82902336120605</t>
@@ -1973,64 +1973,64 @@
     <t xml:space="preserve">4.73261833190918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3207049369812</t>
+    <t xml:space="preserve">4.32070446014404</t>
   </si>
   <si>
     <t xml:space="preserve">4.24182844161987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28564882278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45216703414917</t>
+    <t xml:space="preserve">4.28564929962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45216655731201</t>
   </si>
   <si>
     <t xml:space="preserve">4.69756174087524</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19800806045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82553267478943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54069948196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43114829063416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37856364250183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22957372665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28654026985168</t>
+    <t xml:space="preserve">4.19800710678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82553243637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54069972038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43114805221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37856388092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22957348823547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28654050827026</t>
   </si>
   <si>
     <t xml:space="preserve">2.86148118972778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97541475296021</t>
+    <t xml:space="preserve">2.97541451454163</t>
   </si>
   <si>
     <t xml:space="preserve">2.92283010482788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94474029541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78698658943176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72125554084778</t>
+    <t xml:space="preserve">2.944739818573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78698635101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7212553024292</t>
   </si>
   <si>
     <t xml:space="preserve">2.8570990562439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66428852081299</t>
+    <t xml:space="preserve">2.66428875923157</t>
   </si>
   <si>
     <t xml:space="preserve">2.77822208404541</t>
@@ -2039,10 +2039,10 @@
     <t xml:space="preserve">2.97979664802551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87024521827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75631165504456</t>
+    <t xml:space="preserve">2.87024545669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75631189346313</t>
   </si>
   <si>
     <t xml:space="preserve">2.71249151229858</t>
@@ -2051,22 +2051,22 @@
     <t xml:space="preserve">2.90091967582703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82204270362854</t>
+    <t xml:space="preserve">2.82204294204712</t>
   </si>
   <si>
     <t xml:space="preserve">2.84395289421082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76069402694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76507616043091</t>
+    <t xml:space="preserve">2.7606942653656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76507592201233</t>
   </si>
   <si>
     <t xml:space="preserve">2.90968370437622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94912242889404</t>
+    <t xml:space="preserve">2.94912219047546</t>
   </si>
   <si>
     <t xml:space="preserve">2.98856091499329</t>
@@ -2084,82 +2084,82 @@
     <t xml:space="preserve">3.00170683860779</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04114556312561</t>
+    <t xml:space="preserve">3.04114532470703</t>
   </si>
   <si>
     <t xml:space="preserve">3.07182002067566</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00608921051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03676342964172</t>
+    <t xml:space="preserve">3.00608897209167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03676319122314</t>
   </si>
   <si>
     <t xml:space="preserve">3.01047086715698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16822504997253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10249400138855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11125826835632</t>
+    <t xml:space="preserve">3.16822481155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10249423980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11125802993774</t>
   </si>
   <si>
     <t xml:space="preserve">3.14631462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19451713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09372997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15507888793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25586581230164</t>
+    <t xml:space="preserve">3.1945173740387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09373021125793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15507864952087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25586605072021</t>
   </si>
   <si>
     <t xml:space="preserve">3.31283283233643</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22519159317017</t>
+    <t xml:space="preserve">3.22519183158875</t>
   </si>
   <si>
     <t xml:space="preserve">3.21204543113708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24710178375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19889974594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18137121200562</t>
+    <t xml:space="preserve">3.24710202217102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.198899269104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18137145042419</t>
   </si>
   <si>
     <t xml:space="preserve">3.37418127059937</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45305871963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50564312934875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55384540557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53193545341492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54946374893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38294553756714</t>
+    <t xml:space="preserve">3.45305848121643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50564289093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55384564399719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53193521499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54946398735046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38294577598572</t>
   </si>
   <si>
     <t xml:space="preserve">3.36103534698486</t>
@@ -2168,16 +2168,16 @@
     <t xml:space="preserve">3.2602481842041</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44867634773254</t>
+    <t xml:space="preserve">3.44867658615112</t>
   </si>
   <si>
     <t xml:space="preserve">3.44429421424866</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41800212860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43991231918335</t>
+    <t xml:space="preserve">3.4180018901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43991208076477</t>
   </si>
   <si>
     <t xml:space="preserve">3.49687910079956</t>
@@ -2189,10 +2189,10 @@
     <t xml:space="preserve">3.51440739631653</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83402919769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78892278671265</t>
+    <t xml:space="preserve">3.83402895927429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78892254829407</t>
   </si>
   <si>
     <t xml:space="preserve">3.70322108268738</t>
@@ -2201,37 +2201,37 @@
     <t xml:space="preserve">3.65360450744629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59045577049255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57241296768188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50024342536926</t>
+    <t xml:space="preserve">3.59045553207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57241320610046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50024318695068</t>
   </si>
   <si>
     <t xml:space="preserve">3.51828575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42807292938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45513677597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48671102523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38747787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40551996231079</t>
+    <t xml:space="preserve">3.4280731678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45513701438904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48671126365662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38747763633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40552020072937</t>
   </si>
   <si>
     <t xml:space="preserve">3.38296675682068</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33786082267761</t>
+    <t xml:space="preserve">3.33786058425903</t>
   </si>
   <si>
     <t xml:space="preserve">3.34688210487366</t>
@@ -2249,10 +2249,10 @@
     <t xml:space="preserve">3.31981825828552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27020144462585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22960567474365</t>
+    <t xml:space="preserve">3.27020120620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22960591316223</t>
   </si>
   <si>
     <t xml:space="preserve">3.22058439254761</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">3.16645693778992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16194653511047</t>
+    <t xml:space="preserve">3.16194677352905</t>
   </si>
   <si>
     <t xml:space="preserve">3.10330843925476</t>
@@ -2279,31 +2279,31 @@
     <t xml:space="preserve">3.12135100364685</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04015970230103</t>
+    <t xml:space="preserve">3.04015946388245</t>
   </si>
   <si>
     <t xml:space="preserve">3.02211713790894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00407433509827</t>
+    <t xml:space="preserve">3.00407457351685</t>
   </si>
   <si>
     <t xml:space="preserve">2.9950532913208</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15292525291443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1303722858429</t>
+    <t xml:space="preserve">3.15292501449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13037180900574</t>
   </si>
   <si>
     <t xml:space="preserve">3.11684012413025</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04467034339905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9634792804718</t>
+    <t xml:space="preserve">3.04467010498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96347904205322</t>
   </si>
   <si>
     <t xml:space="preserve">2.89130902290344</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">2.86875605583191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90484118461609</t>
+    <t xml:space="preserve">2.90484094619751</t>
   </si>
   <si>
     <t xml:space="preserve">2.886798620224</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">2.85522413253784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86424517631531</t>
+    <t xml:space="preserve">2.86424541473389</t>
   </si>
   <si>
     <t xml:space="preserve">2.81462836265564</t>
@@ -2348,10 +2348,10 @@
     <t xml:space="preserve">2.77854347229004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76952242851257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73794794082642</t>
+    <t xml:space="preserve">2.76952219009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.737948179245</t>
   </si>
   <si>
     <t xml:space="preserve">2.68833088874817</t>
@@ -2366,16 +2366,16 @@
     <t xml:space="preserve">2.59811878204346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61616134643555</t>
+    <t xml:space="preserve">2.61616110801697</t>
   </si>
   <si>
     <t xml:space="preserve">2.6026291847229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54399085044861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62518239021301</t>
+    <t xml:space="preserve">2.54399108886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62518262863159</t>
   </si>
   <si>
     <t xml:space="preserve">3.0311381816864</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">3.06271266937256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24313759803772</t>
+    <t xml:space="preserve">3.2431378364563</t>
   </si>
   <si>
     <t xml:space="preserve">3.23411655426025</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">3.25666952133179</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35590291023254</t>
+    <t xml:space="preserve">3.3559033870697</t>
   </si>
   <si>
     <t xml:space="preserve">3.36492466926575</t>
@@ -2405,10 +2405,10 @@
     <t xml:space="preserve">3.54986000061035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48220062255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55437064170837</t>
+    <t xml:space="preserve">3.48220038414001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55437040328979</t>
   </si>
   <si>
     <t xml:space="preserve">3.52730703353882</t>
@@ -2420,13 +2420,13 @@
     <t xml:space="preserve">3.58143424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51377487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49573278427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62654042243958</t>
+    <t xml:space="preserve">3.51377511024475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49573254585266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62654066085815</t>
   </si>
   <si>
     <t xml:space="preserve">3.75283789634705</t>
@@ -2441,103 +2441,103 @@
     <t xml:space="preserve">3.8791356086731</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73028516769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73479557037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72577428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69871044158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68066811561584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61751937866211</t>
+    <t xml:space="preserve">3.73028492927551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73479533195496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72577452659607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69871068000793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68066787719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61751961708069</t>
   </si>
   <si>
     <t xml:space="preserve">3.60849809646606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64458298683167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57692384719849</t>
+    <t xml:space="preserve">3.64458274841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57692360877991</t>
   </si>
   <si>
     <t xml:space="preserve">3.66262555122375</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64909362792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8204972743988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8159863948822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80696558952332</t>
+    <t xml:space="preserve">3.64909386634827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82049751281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81598663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80696511268616</t>
   </si>
   <si>
     <t xml:space="preserve">3.77990174293518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85207200050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91522073745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734853744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8430507183075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8565821647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83853983879089</t>
+    <t xml:space="preserve">3.85207152366638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9152204990387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734877586365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84305095672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85658240318298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83853960037231</t>
   </si>
   <si>
     <t xml:space="preserve">3.84756112098694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79343342781067</t>
+    <t xml:space="preserve">3.79343366622925</t>
   </si>
   <si>
     <t xml:space="preserve">3.76185917854309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6716468334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73930597305298</t>
+    <t xml:space="preserve">3.67164707183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73930621147156</t>
   </si>
   <si>
     <t xml:space="preserve">3.78441262245178</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86109280586243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00543308258057</t>
+    <t xml:space="preserve">3.86109328269958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00543260574341</t>
   </si>
   <si>
     <t xml:space="preserve">4.01896476745605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07760238647461</t>
+    <t xml:space="preserve">4.07760286331177</t>
   </si>
   <si>
     <t xml:space="preserve">4.09131669998169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17817115783691</t>
+    <t xml:space="preserve">4.17817163467407</t>
   </si>
   <si>
     <t xml:space="preserve">4.25588369369507</t>
@@ -2555,13 +2555,13 @@
     <t xml:space="preserve">4.22388458251953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1873140335083</t>
+    <t xml:space="preserve">4.18731355667114</t>
   </si>
   <si>
     <t xml:space="preserve">4.15074348449707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.114173412323</t>
+    <t xml:space="preserve">4.11417293548584</t>
   </si>
   <si>
     <t xml:space="preserve">4.05931758880615</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">4.1096019744873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13702964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16902828216553</t>
+    <t xml:space="preserve">4.13703012466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16902923583984</t>
   </si>
   <si>
     <t xml:space="preserve">4.05474615097046</t>
@@ -2591,22 +2591,22 @@
     <t xml:space="preserve">4.06845998764038</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03188943862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04560327529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12331581115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15988636016846</t>
+    <t xml:space="preserve">4.03188991546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04560375213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12331628799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1598858833313</t>
   </si>
   <si>
     <t xml:space="preserve">4.20102787017822</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2604546546936</t>
+    <t xml:space="preserve">4.26045513153076</t>
   </si>
   <si>
     <t xml:space="preserve">4.19645690917969</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">4.19188499450684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1416015625</t>
+    <t xml:space="preserve">4.14160108566284</t>
   </si>
   <si>
     <t xml:space="preserve">4.27873992919922</t>
@@ -2624,22 +2624,22 @@
     <t xml:space="preserve">4.29702472686768</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23302745819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20559930801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11874437332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10045957565308</t>
+    <t xml:space="preserve">4.23302698135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20559883117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11874485015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10045909881592</t>
   </si>
   <si>
     <t xml:space="preserve">4.14617204666138</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29245376586914</t>
+    <t xml:space="preserve">4.2924542427063</t>
   </si>
   <si>
     <t xml:space="preserve">4.31531047821045</t>
@@ -2651,31 +2651,31 @@
     <t xml:space="preserve">4.28788280487061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00446176528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98617672920227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95874857902527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95417714118958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88560795783997</t>
+    <t xml:space="preserve">4.00446224212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98617696762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95874881744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95417737960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88560771942139</t>
   </si>
   <si>
     <t xml:space="preserve">3.78961062431335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73932647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9084644317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01360464096069</t>
+    <t xml:space="preserve">3.7393262386322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90846467018127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01360416412354</t>
   </si>
   <si>
     <t xml:space="preserve">4.02274703979492</t>
@@ -2684,31 +2684,31 @@
     <t xml:space="preserve">4.12788677215576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07303094863892</t>
+    <t xml:space="preserve">4.07303142547607</t>
   </si>
   <si>
     <t xml:space="preserve">4.06388902664185</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10503053665161</t>
+    <t xml:space="preserve">4.10503005981445</t>
   </si>
   <si>
     <t xml:space="preserve">3.931321144104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00903367996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05017423629761</t>
+    <t xml:space="preserve">4.009033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05017471313477</t>
   </si>
   <si>
     <t xml:space="preserve">4.18274259567261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23759889602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17359972000122</t>
+    <t xml:space="preserve">4.23759841918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17360019683838</t>
   </si>
   <si>
     <t xml:space="preserve">4.31073951721191</t>
@@ -2717,13 +2717,13 @@
     <t xml:space="preserve">4.35188102722168</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32902479171753</t>
+    <t xml:space="preserve">4.32902431488037</t>
   </si>
   <si>
     <t xml:space="preserve">4.2147421836853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21017074584961</t>
+    <t xml:space="preserve">4.21017026901245</t>
   </si>
   <si>
     <t xml:space="preserve">4.33359575271606</t>
@@ -2735,13 +2735,13 @@
     <t xml:space="preserve">4.37930870056152</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49359130859375</t>
+    <t xml:space="preserve">4.49359083175659</t>
   </si>
   <si>
     <t xml:space="preserve">4.52558994293213</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5713038444519</t>
+    <t xml:space="preserve">4.57130336761475</t>
   </si>
   <si>
     <t xml:space="preserve">4.62615919113159</t>
@@ -2750,13 +2750,13 @@
     <t xml:space="preserve">4.64444446563721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65358686447144</t>
+    <t xml:space="preserve">4.65358734130859</t>
   </si>
   <si>
     <t xml:space="preserve">4.59873151779175</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5438756942749</t>
+    <t xml:space="preserve">4.54387521743774</t>
   </si>
   <si>
     <t xml:space="preserve">4.52101898193359</t>
@@ -2768,10 +2768,10 @@
     <t xml:space="preserve">4.58044624328613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60787343978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72672748565674</t>
+    <t xml:space="preserve">4.60787391662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7267279624939</t>
   </si>
   <si>
     <t xml:space="preserve">4.69015741348267</t>
@@ -2780,19 +2780,19 @@
     <t xml:space="preserve">4.56673192977905</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66272974014282</t>
+    <t xml:space="preserve">4.66272926330566</t>
   </si>
   <si>
     <t xml:space="preserve">4.70844268798828</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73586988449097</t>
+    <t xml:space="preserve">4.73587036132812</t>
   </si>
   <si>
     <t xml:space="preserve">4.47987747192383</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53930473327637</t>
+    <t xml:space="preserve">4.53930425643921</t>
   </si>
   <si>
     <t xml:space="preserve">4.36102390289307</t>
@@ -2813,10 +2813,10 @@
     <t xml:space="preserve">4.85472393035889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86386680603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99186372756958</t>
+    <t xml:space="preserve">4.86386728286743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99186325073242</t>
   </si>
   <si>
     <t xml:space="preserve">5.01929092407227</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">4.98272085189819</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1564302444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11985969543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24785614013672</t>
+    <t xml:space="preserve">5.15642976760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11986017227173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24785566329956</t>
   </si>
   <si>
     <t xml:space="preserve">5.42156600952148</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">5.25699901580811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36671018600464</t>
+    <t xml:space="preserve">5.3667106628418</t>
   </si>
   <si>
     <t xml:space="preserve">5.3849949836731</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">5.28442716598511</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17471504211426</t>
+    <t xml:space="preserve">5.17471551895142</t>
   </si>
   <si>
     <t xml:space="preserve">5.19300031661987</t>
@@ -2891,31 +2891,31 @@
     <t xml:space="preserve">4.9004373550415</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02843379974365</t>
+    <t xml:space="preserve">5.02843427658081</t>
   </si>
   <si>
     <t xml:space="preserve">4.93700790405273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07414674758911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00100564956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96443557739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13814544677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05586194992065</t>
+    <t xml:space="preserve">5.07414722442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00100612640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96443510055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13814496994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0558614730835</t>
   </si>
   <si>
     <t xml:space="preserve">4.89129495620728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83643913269043</t>
+    <t xml:space="preserve">4.83643960952759</t>
   </si>
   <si>
     <t xml:space="preserve">4.7998685836792</t>
@@ -2930,13 +2930,13 @@
     <t xml:space="preserve">4.45244979858398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32445335388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95529270172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0101490020752</t>
+    <t xml:space="preserve">4.32445287704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95529317855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01014852523804</t>
   </si>
   <si>
     <t xml:space="preserve">5.06500434875488</t>
@@ -2945,22 +2945,22 @@
     <t xml:space="preserve">5.22042846679688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33014011383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4124231338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53127717971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39413785934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5404200553894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66841650009155</t>
+    <t xml:space="preserve">5.33013963699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41242361068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53127765655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39413833618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54041957855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66841602325439</t>
   </si>
   <si>
     <t xml:space="preserve">5.74155759811401</t>
@@ -2972,13 +2972,13 @@
     <t xml:space="preserve">5.73241424560547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65013074874878</t>
+    <t xml:space="preserve">5.65013122558594</t>
   </si>
   <si>
     <t xml:space="preserve">5.4823055267334</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58486557006836</t>
+    <t xml:space="preserve">5.5848650932312</t>
   </si>
   <si>
     <t xml:space="preserve">5.57554197311401</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">5.73404407501221</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51959991455078</t>
+    <t xml:space="preserve">5.51960039138794</t>
   </si>
   <si>
     <t xml:space="preserve">5.51027631759644</t>
@@ -3032,19 +3032,19 @@
     <t xml:space="preserve">6.09766626358032</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07901906967163</t>
+    <t xml:space="preserve">6.07901859283447</t>
   </si>
   <si>
     <t xml:space="preserve">6.1629319190979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9951057434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20022630691528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03240060806274</t>
+    <t xml:space="preserve">5.99510622024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20022678375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03240013122559</t>
   </si>
   <si>
     <t xml:space="preserve">5.79930925369263</t>
@@ -3053,7 +3053,7 @@
     <t xml:space="preserve">5.90186977386475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84592771530151</t>
+    <t xml:space="preserve">5.84592723846436</t>
   </si>
   <si>
     <t xml:space="preserve">5.78998565673828</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">5.78066205978394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53824758529663</t>
+    <t xml:space="preserve">5.53824710845947</t>
   </si>
   <si>
     <t xml:space="preserve">5.52892351150513</t>
@@ -3080,16 +3080,16 @@
     <t xml:space="preserve">5.4543342590332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41703939437866</t>
+    <t xml:space="preserve">5.41703987121582</t>
   </si>
   <si>
     <t xml:space="preserve">5.50095272064209</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47298145294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38906955718994</t>
+    <t xml:space="preserve">5.47298192977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38906908035278</t>
   </si>
   <si>
     <t xml:space="preserve">5.33312702178955</t>
@@ -3098,13 +3098,13 @@
     <t xml:space="preserve">5.32380342483521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25853776931763</t>
+    <t xml:space="preserve">5.25853729248047</t>
   </si>
   <si>
     <t xml:space="preserve">5.20259571075439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2119197845459</t>
+    <t xml:space="preserve">5.21191930770874</t>
   </si>
   <si>
     <t xml:space="preserve">5.1839485168457</t>
@@ -3116,34 +3116,34 @@
     <t xml:space="preserve">5.11868286132812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22124290466309</t>
+    <t xml:space="preserve">5.22124338150024</t>
   </si>
   <si>
     <t xml:space="preserve">5.23989057540894</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17462491989136</t>
+    <t xml:space="preserve">5.17462539672852</t>
   </si>
   <si>
     <t xml:space="preserve">5.12800693511963</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14665365219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09071254730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10935974121094</t>
+    <t xml:space="preserve">5.14665412902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09071207046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10935926437378</t>
   </si>
   <si>
     <t xml:space="preserve">5.15597772598267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55689477920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26786136627197</t>
+    <t xml:space="preserve">5.55689430236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26786184310913</t>
   </si>
   <si>
     <t xml:space="preserve">5.24921417236328</t>
@@ -3158,7 +3158,7 @@
     <t xml:space="preserve">4.99747562408447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97882843017578</t>
+    <t xml:space="preserve">4.97882890701294</t>
   </si>
   <si>
     <t xml:space="preserve">4.95085716247559</t>
@@ -3176,10 +3176,10 @@
     <t xml:space="preserve">4.79235553741455</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67114782333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81100273132324</t>
+    <t xml:space="preserve">4.6711483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81100225448608</t>
   </si>
   <si>
     <t xml:space="preserve">4.7737078666687</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">4.78303194046021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76438474655151</t>
+    <t xml:space="preserve">4.76438426971436</t>
   </si>
   <si>
     <t xml:space="preserve">4.73641347885132</t>
@@ -3209,7 +3209,7 @@
     <t xml:space="preserve">4.72708988189697</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65250015258789</t>
+    <t xml:space="preserve">4.65250062942505</t>
   </si>
   <si>
     <t xml:space="preserve">4.68047142028809</t>
@@ -3236,7 +3236,7 @@
     <t xml:space="preserve">4.49399900436401</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52196979522705</t>
+    <t xml:space="preserve">4.52196931838989</t>
   </si>
   <si>
     <t xml:space="preserve">4.54527902603149</t>
@@ -3245,25 +3245,25 @@
     <t xml:space="preserve">4.45670413970947</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3774528503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28887844085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56858825683594</t>
+    <t xml:space="preserve">4.37745332717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28887796401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56858777999878</t>
   </si>
   <si>
     <t xml:space="preserve">4.57324981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89491510391235</t>
+    <t xml:space="preserve">4.89491558074951</t>
   </si>
   <si>
     <t xml:space="preserve">4.96950435638428</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93220996856689</t>
+    <t xml:space="preserve">4.93221044540405</t>
   </si>
   <si>
     <t xml:space="preserve">5.27718496322632</t>
@@ -3275,7 +3275,7 @@
     <t xml:space="preserve">5.29583215713501</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36109828948975</t>
+    <t xml:space="preserve">5.36109781265259</t>
   </si>
   <si>
     <t xml:space="preserve">5.49162864685059</t>
@@ -3293,16 +3293,16 @@
     <t xml:space="preserve">5.10003566741943</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06274127960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19327211380005</t>
+    <t xml:space="preserve">5.06274080276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19327259063721</t>
   </si>
   <si>
     <t xml:space="preserve">5.08138847351074</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02544641494751</t>
+    <t xml:space="preserve">5.02544689178467</t>
   </si>
   <si>
     <t xml:space="preserve">5.16530132293701</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">5.40771627426147</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30515623092651</t>
+    <t xml:space="preserve">5.30515575408936</t>
   </si>
   <si>
     <t xml:space="preserve">5.23056697845459</t>
@@ -3323,7 +3323,7 @@
     <t xml:space="preserve">5.37974548339844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42636346817017</t>
+    <t xml:space="preserve">5.42636394500732</t>
   </si>
   <si>
     <t xml:space="preserve">5.37825775146484</t>
@@ -3641,9 +3641,6 @@
     <t xml:space="preserve">4.45943212509155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52196931838989</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.44499969482422</t>
   </si>
   <si>
@@ -3813,6 +3810,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.64000010490417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63000011444092</t>
   </si>
 </sst>
 </file>
@@ -7292,7 +7292,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G121" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -7318,7 +7318,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -7344,7 +7344,7 @@
         <v>3.08599996566772</v>
       </c>
       <c r="G123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -7370,7 +7370,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -7396,7 +7396,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -7422,7 +7422,7 @@
         <v>2.75</v>
       </c>
       <c r="G126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -7448,7 +7448,7 @@
         <v>2.82399988174438</v>
       </c>
       <c r="G127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -7474,7 +7474,7 @@
         <v>2.79800009727478</v>
       </c>
       <c r="G128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -7500,7 +7500,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -7552,7 +7552,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -7578,7 +7578,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -7604,7 +7604,7 @@
         <v>2.73799991607666</v>
       </c>
       <c r="G133" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -7630,7 +7630,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7656,7 +7656,7 @@
         <v>2.83599996566772</v>
       </c>
       <c r="G135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -7682,7 +7682,7 @@
         <v>2.86800003051758</v>
       </c>
       <c r="G136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7708,7 +7708,7 @@
         <v>2.87400007247925</v>
       </c>
       <c r="G137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -7734,7 +7734,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -7760,7 +7760,7 @@
         <v>2.85400009155273</v>
       </c>
       <c r="G139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7786,7 +7786,7 @@
         <v>2.85400009155273</v>
       </c>
       <c r="G140" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7812,7 +7812,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G141" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -7838,7 +7838,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G142" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -7864,7 +7864,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G143" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -7890,7 +7890,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -7942,7 +7942,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G146" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -7968,7 +7968,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G147" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8020,7 +8020,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G149" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8046,7 +8046,7 @@
         <v>3.19400000572205</v>
       </c>
       <c r="G150" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8072,7 +8072,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G151" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8176,7 +8176,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8202,7 +8202,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G156" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8228,7 +8228,7 @@
         <v>3.16599988937378</v>
       </c>
       <c r="G157" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8254,7 +8254,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G158" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8280,7 +8280,7 @@
         <v>3.15799999237061</v>
       </c>
       <c r="G159" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8306,7 +8306,7 @@
         <v>3.1159999370575</v>
       </c>
       <c r="G160" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8332,7 +8332,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G161" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8358,7 +8358,7 @@
         <v>3.12199997901917</v>
       </c>
       <c r="G162" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8384,7 +8384,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G163" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8410,7 +8410,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G164" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8436,7 +8436,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G165" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8462,7 +8462,7 @@
         <v>3.24399995803833</v>
       </c>
       <c r="G166" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8488,7 +8488,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G167" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8514,7 +8514,7 @@
         <v>3.24399995803833</v>
       </c>
       <c r="G168" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8540,7 +8540,7 @@
         <v>3.25600004196167</v>
       </c>
       <c r="G169" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8566,7 +8566,7 @@
         <v>3.26399993896484</v>
       </c>
       <c r="G170" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         <v>3.24600005149841</v>
       </c>
       <c r="G171" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8618,7 +8618,7 @@
         <v>3.25</v>
       </c>
       <c r="G172" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8644,7 +8644,7 @@
         <v>3.31200003623962</v>
       </c>
       <c r="G173" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -8670,7 +8670,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G174" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8696,7 +8696,7 @@
         <v>3.43600010871887</v>
       </c>
       <c r="G175" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -8722,7 +8722,7 @@
         <v>3.43600010871887</v>
       </c>
       <c r="G176" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8774,7 +8774,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G178" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8800,7 +8800,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G179" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8826,7 +8826,7 @@
         <v>3.26600003242493</v>
       </c>
       <c r="G180" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -8852,7 +8852,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G181" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -8878,7 +8878,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G182" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -8904,7 +8904,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G183" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -8930,7 +8930,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G184" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -8956,7 +8956,7 @@
         <v>3.35599994659424</v>
       </c>
       <c r="G185" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -8982,7 +8982,7 @@
         <v>3.37199997901917</v>
       </c>
       <c r="G186" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9008,7 +9008,7 @@
         <v>3.40799999237061</v>
       </c>
       <c r="G187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9034,7 +9034,7 @@
         <v>3.44600009918213</v>
       </c>
       <c r="G188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9060,7 +9060,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G189" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9086,7 +9086,7 @@
         <v>3.31599998474121</v>
       </c>
       <c r="G190" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9112,7 +9112,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G191" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9138,7 +9138,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G192" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9164,7 +9164,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G193" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9190,7 +9190,7 @@
         <v>3.19600009918213</v>
       </c>
       <c r="G194" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9242,7 +9242,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G196" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9320,7 +9320,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G199" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9346,7 +9346,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9372,7 +9372,7 @@
         <v>3.30800008773804</v>
       </c>
       <c r="G201" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9398,7 +9398,7 @@
         <v>3.20199990272522</v>
       </c>
       <c r="G202" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9424,7 +9424,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G203" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9450,7 +9450,7 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G204" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9476,7 +9476,7 @@
         <v>3.33400011062622</v>
       </c>
       <c r="G205" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9502,7 +9502,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G206" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9528,7 +9528,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G207" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9554,7 +9554,7 @@
         <v>3.35400009155273</v>
       </c>
       <c r="G208" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9580,7 +9580,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G209" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9606,7 +9606,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G210" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9632,7 +9632,7 @@
         <v>3.37599992752075</v>
       </c>
       <c r="G211" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9658,7 +9658,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G212" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9684,7 +9684,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G213" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9710,7 +9710,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G214" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9736,7 +9736,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G215" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9762,7 +9762,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G216" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9788,7 +9788,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G217" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9814,7 +9814,7 @@
         <v>3.25</v>
       </c>
       <c r="G218" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9840,7 +9840,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G219" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -9866,7 +9866,7 @@
         <v>3.21399998664856</v>
       </c>
       <c r="G220" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -9892,7 +9892,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G221" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -9918,7 +9918,7 @@
         <v>3.36199998855591</v>
       </c>
       <c r="G222" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -9970,7 +9970,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G224" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -9996,7 +9996,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G225" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10022,7 +10022,7 @@
         <v>3.2279999256134</v>
       </c>
       <c r="G226" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10048,7 +10048,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G227" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10074,7 +10074,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G228" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10152,7 +10152,7 @@
         <v>3.14199995994568</v>
       </c>
       <c r="G231" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10178,7 +10178,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G232" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10204,7 +10204,7 @@
         <v>3.13800001144409</v>
       </c>
       <c r="G233" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10230,7 +10230,7 @@
         <v>3.09200000762939</v>
       </c>
       <c r="G234" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10256,7 +10256,7 @@
         <v>3.03600001335144</v>
       </c>
       <c r="G235" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10282,7 +10282,7 @@
         <v>3.03600001335144</v>
       </c>
       <c r="G236" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10308,7 +10308,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G237" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10334,7 +10334,7 @@
         <v>3.07800006866455</v>
       </c>
       <c r="G238" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10386,7 +10386,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G240" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10438,7 +10438,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G242" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10464,7 +10464,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G243" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10490,7 +10490,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G244" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10516,7 +10516,7 @@
         <v>3.23799991607666</v>
       </c>
       <c r="G245" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10542,7 +10542,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G246" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10568,7 +10568,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G247" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10594,7 +10594,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G248" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10620,7 +10620,7 @@
         <v>3.25</v>
       </c>
       <c r="G249" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -10672,7 +10672,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G251" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10698,7 +10698,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G252" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -10724,7 +10724,7 @@
         <v>3.26799988746643</v>
       </c>
       <c r="G253" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -10750,7 +10750,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G254" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10776,7 +10776,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G255" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -10802,7 +10802,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G256" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -10828,7 +10828,7 @@
         <v>3.35199999809265</v>
       </c>
       <c r="G257" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -10854,7 +10854,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G258" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -10880,7 +10880,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G259" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -10906,7 +10906,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G260" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -10932,7 +10932,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G261" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -10958,7 +10958,7 @@
         <v>3.41799998283386</v>
       </c>
       <c r="G262" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -10984,7 +10984,7 @@
         <v>3.32200002670288</v>
       </c>
       <c r="G263" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11010,7 +11010,7 @@
         <v>3.35199999809265</v>
       </c>
       <c r="G264" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11036,7 +11036,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G265" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11062,7 +11062,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G266" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11088,7 +11088,7 @@
         <v>3.41199994087219</v>
       </c>
       <c r="G267" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11114,7 +11114,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G268" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11140,7 +11140,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G269" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11166,7 +11166,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G270" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11218,7 +11218,7 @@
         <v>3.30800008773804</v>
       </c>
       <c r="G272" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11322,7 +11322,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G276" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11348,7 +11348,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G277" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11374,7 +11374,7 @@
         <v>3.25</v>
       </c>
       <c r="G278" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11400,7 +11400,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G279" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11426,7 +11426,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G280" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11504,7 +11504,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G283" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11530,7 +11530,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G284" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11556,7 +11556,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G285" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11582,7 +11582,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G286" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11608,7 +11608,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G287" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11634,7 +11634,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G288" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11660,7 +11660,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G289" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11686,7 +11686,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G290" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11738,7 +11738,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G292" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11764,7 +11764,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G293" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11790,7 +11790,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G294" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11816,7 +11816,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G295" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11842,7 +11842,7 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G296" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -11894,7 +11894,7 @@
         <v>3.24600005149841</v>
       </c>
       <c r="G298" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -11946,7 +11946,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G300" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11972,7 +11972,7 @@
         <v>3.23200011253357</v>
       </c>
       <c r="G301" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -11998,7 +11998,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G302" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12024,7 +12024,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G303" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12050,7 +12050,7 @@
         <v>3.25</v>
       </c>
       <c r="G304" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12076,7 +12076,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G305" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12102,7 +12102,7 @@
         <v>3.31399989128113</v>
       </c>
       <c r="G306" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12128,7 +12128,7 @@
         <v>3.31599998474121</v>
       </c>
       <c r="G307" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12154,7 +12154,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G308" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12180,7 +12180,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G309" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12206,7 +12206,7 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G310" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12232,7 +12232,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G311" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12258,7 +12258,7 @@
         <v>3.35400009155273</v>
       </c>
       <c r="G312" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12310,7 +12310,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G314" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12336,7 +12336,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G315" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12362,7 +12362,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G316" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12388,7 +12388,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G317" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12414,7 +12414,7 @@
         <v>3.65400004386902</v>
       </c>
       <c r="G318" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12440,7 +12440,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G319" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12466,7 +12466,7 @@
         <v>3.64599990844727</v>
       </c>
       <c r="G320" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12492,7 +12492,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G321" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12518,7 +12518,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G322" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12544,7 +12544,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G323" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12570,7 +12570,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G324" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12596,7 +12596,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G325" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12622,7 +12622,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G326" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12648,7 +12648,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G327" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12674,7 +12674,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G328" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12700,7 +12700,7 @@
         <v>3.54200005531311</v>
       </c>
       <c r="G329" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12726,7 +12726,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G330" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12752,7 +12752,7 @@
         <v>3.5</v>
       </c>
       <c r="G331" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12778,7 +12778,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G332" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12804,7 +12804,7 @@
         <v>3.50600004196167</v>
       </c>
       <c r="G333" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12830,7 +12830,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G334" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -12856,7 +12856,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G335" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -12882,7 +12882,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G336" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12908,7 +12908,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G337" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -12934,7 +12934,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G338" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12960,7 +12960,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G339" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12986,7 +12986,7 @@
         <v>3.58599996566772</v>
       </c>
       <c r="G340" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13012,7 +13012,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G341" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13038,7 +13038,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G342" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13064,7 +13064,7 @@
         <v>3.58800005912781</v>
       </c>
       <c r="G343" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13090,7 +13090,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G344" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13116,7 +13116,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G345" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13142,7 +13142,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G346" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13168,7 +13168,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G347" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13194,7 +13194,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G348" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13220,7 +13220,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G349" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13246,7 +13246,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G350" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13272,7 +13272,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G351" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13298,7 +13298,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G352" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13324,7 +13324,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G353" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13350,7 +13350,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G354" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13376,7 +13376,7 @@
         <v>3.74799990653992</v>
       </c>
       <c r="G355" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13402,7 +13402,7 @@
         <v>3.7720000743866</v>
       </c>
       <c r="G356" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13428,7 +13428,7 @@
         <v>3.83599996566772</v>
       </c>
       <c r="G357" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13454,7 +13454,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G358" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13480,7 +13480,7 @@
         <v>3.80599999427795</v>
       </c>
       <c r="G359" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13506,7 +13506,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G360" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13532,7 +13532,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G361" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13558,7 +13558,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G362" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13584,7 +13584,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G363" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13610,7 +13610,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G364" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13636,7 +13636,7 @@
         <v>3.93199992179871</v>
       </c>
       <c r="G365" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13662,7 +13662,7 @@
         <v>3.89400005340576</v>
       </c>
       <c r="G366" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13688,7 +13688,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G367" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13714,7 +13714,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G368" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13740,7 +13740,7 @@
         <v>3.81800007820129</v>
       </c>
       <c r="G369" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13766,7 +13766,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G370" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13792,7 +13792,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G371" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13818,7 +13818,7 @@
         <v>3.72399997711182</v>
       </c>
       <c r="G372" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -13844,7 +13844,7 @@
         <v>3.72199988365173</v>
       </c>
       <c r="G373" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -13870,7 +13870,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G374" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13896,7 +13896,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G375" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -13922,7 +13922,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G376" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13948,7 +13948,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G377" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13974,7 +13974,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G378" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14000,7 +14000,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G379" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14026,7 +14026,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G380" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14052,7 +14052,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G381" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14078,7 +14078,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G382" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14104,7 +14104,7 @@
         <v>3.55599999427795</v>
       </c>
       <c r="G383" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14130,7 +14130,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G384" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14156,7 +14156,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G385" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14182,7 +14182,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G386" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14208,7 +14208,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G387" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14234,7 +14234,7 @@
         <v>3.76200008392334</v>
       </c>
       <c r="G388" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14260,7 +14260,7 @@
         <v>3.76600003242493</v>
       </c>
       <c r="G389" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14286,7 +14286,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G390" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14312,7 +14312,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G391" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14338,7 +14338,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G392" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14364,7 +14364,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G393" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14390,7 +14390,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G394" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14416,7 +14416,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G395" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14442,7 +14442,7 @@
         <v>3.93799996376038</v>
       </c>
       <c r="G396" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14468,7 +14468,7 @@
         <v>3.98799991607666</v>
       </c>
       <c r="G397" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14494,7 +14494,7 @@
         <v>4.00400018692017</v>
       </c>
       <c r="G398" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14520,7 +14520,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G399" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14546,7 +14546,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G400" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14572,7 +14572,7 @@
         <v>3.90199995040894</v>
       </c>
       <c r="G401" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14598,7 +14598,7 @@
         <v>3.93400001525879</v>
       </c>
       <c r="G402" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14624,7 +14624,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G403" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14650,7 +14650,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G404" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14676,7 +14676,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G405" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14702,7 +14702,7 @@
         <v>3.75</v>
       </c>
       <c r="G406" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14728,7 +14728,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G407" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14754,7 +14754,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G408" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14780,7 +14780,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G409" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14806,7 +14806,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G410" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14832,7 +14832,7 @@
         <v>3.75</v>
       </c>
       <c r="G411" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14858,7 +14858,7 @@
         <v>3.75</v>
       </c>
       <c r="G412" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -14884,7 +14884,7 @@
         <v>3.69400000572205</v>
       </c>
       <c r="G413" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14910,7 +14910,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G414" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14936,7 +14936,7 @@
         <v>3.73399996757507</v>
       </c>
       <c r="G415" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14962,7 +14962,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G416" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14988,7 +14988,7 @@
         <v>3.78600001335144</v>
       </c>
       <c r="G417" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15014,7 +15014,7 @@
         <v>3.7720000743866</v>
       </c>
       <c r="G418" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15040,7 +15040,7 @@
         <v>3.76600003242493</v>
       </c>
       <c r="G419" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15066,7 +15066,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G420" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15092,7 +15092,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15118,7 +15118,7 @@
         <v>3.69400000572205</v>
       </c>
       <c r="G422" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15144,7 +15144,7 @@
         <v>3.74600005149841</v>
       </c>
       <c r="G423" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15170,7 +15170,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G424" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15196,7 +15196,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G425" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15222,7 +15222,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G426" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15248,7 +15248,7 @@
         <v>3.75</v>
       </c>
       <c r="G427" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15274,7 +15274,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G428" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15300,7 +15300,7 @@
         <v>3.76399993896484</v>
       </c>
       <c r="G429" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15326,7 +15326,7 @@
         <v>3.75799989700317</v>
       </c>
       <c r="G430" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15352,7 +15352,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G431" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15378,7 +15378,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G432" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15404,7 +15404,7 @@
         <v>3.7960000038147</v>
       </c>
       <c r="G433" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15430,7 +15430,7 @@
         <v>3.80800008773804</v>
       </c>
       <c r="G434" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15456,7 +15456,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G435" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15482,7 +15482,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G436" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15508,7 +15508,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G437" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15534,7 +15534,7 @@
         <v>3.82200002670288</v>
       </c>
       <c r="G438" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15560,7 +15560,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G439" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15586,7 +15586,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G440" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15612,7 +15612,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G441" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15638,7 +15638,7 @@
         <v>3.81800007820129</v>
       </c>
       <c r="G442" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15664,7 +15664,7 @@
         <v>3.85400009155273</v>
       </c>
       <c r="G443" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15690,7 +15690,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G444" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15716,7 +15716,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G445" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15742,7 +15742,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G446" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15768,7 +15768,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G447" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15794,7 +15794,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G448" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15820,7 +15820,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G449" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15846,7 +15846,7 @@
         <v>3.75399994850159</v>
       </c>
       <c r="G450" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15872,7 +15872,7 @@
         <v>3.75600004196167</v>
       </c>
       <c r="G451" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15898,7 +15898,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G452" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15924,7 +15924,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G453" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15950,7 +15950,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G454" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15976,7 +15976,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G455" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16002,7 +16002,7 @@
         <v>3.73399996757507</v>
       </c>
       <c r="G456" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16028,7 +16028,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G457" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16054,7 +16054,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G458" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16080,7 +16080,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G459" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16106,7 +16106,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G460" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16132,7 +16132,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G461" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16158,7 +16158,7 @@
         <v>3.75</v>
       </c>
       <c r="G462" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16184,7 +16184,7 @@
         <v>3.75</v>
       </c>
       <c r="G463" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16210,7 +16210,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G464" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16236,7 +16236,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G465" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16262,7 +16262,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G466" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16288,7 +16288,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G467" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16314,7 +16314,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G468" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16340,7 +16340,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G469" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16366,7 +16366,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16392,7 +16392,7 @@
         <v>3.5239999294281</v>
       </c>
       <c r="G471" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16418,7 +16418,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G472" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16444,7 +16444,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G473" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16470,7 +16470,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G474" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16496,7 +16496,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G475" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16522,7 +16522,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G476" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16548,7 +16548,7 @@
         <v>3.43799996376038</v>
       </c>
       <c r="G477" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16574,7 +16574,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G478" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16600,7 +16600,7 @@
         <v>3.40400004386902</v>
       </c>
       <c r="G479" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16626,7 +16626,7 @@
         <v>3.48600006103516</v>
       </c>
       <c r="G480" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16652,7 +16652,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16678,7 +16678,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G482" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16704,7 +16704,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G483" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16730,7 +16730,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G484" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16756,7 +16756,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G485" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16782,7 +16782,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G486" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16808,7 +16808,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G487" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16834,7 +16834,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G488" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16860,7 +16860,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G489" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16886,7 +16886,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G490" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16912,7 +16912,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G491" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16938,7 +16938,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16964,7 +16964,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G493" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16990,7 +16990,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G494" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17016,7 +17016,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G495" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17042,7 +17042,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G496" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17068,7 +17068,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G497" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17094,7 +17094,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G498" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17120,7 +17120,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G499" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17146,7 +17146,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G500" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17172,7 +17172,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G501" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17198,7 +17198,7 @@
         <v>3.70799994468689</v>
       </c>
       <c r="G502" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17224,7 +17224,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G503" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17250,7 +17250,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G504" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17276,7 +17276,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G505" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17302,7 +17302,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G506" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17328,7 +17328,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G507" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17354,7 +17354,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G508" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17380,7 +17380,7 @@
         <v>3.69600009918213</v>
       </c>
       <c r="G509" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17406,7 +17406,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G510" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17432,7 +17432,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G511" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17458,7 +17458,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G512" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17484,7 +17484,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G513" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17510,7 +17510,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G514" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17536,7 +17536,7 @@
         <v>3.76500010490417</v>
       </c>
       <c r="G515" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17562,7 +17562,7 @@
         <v>3.71499991416931</v>
       </c>
       <c r="G516" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17588,7 +17588,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G517" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17614,7 +17614,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G518" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17640,7 +17640,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G519" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17666,7 +17666,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G520" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17692,7 +17692,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G521" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17718,7 +17718,7 @@
         <v>3.89499998092651</v>
       </c>
       <c r="G522" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17744,7 +17744,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G523" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17770,7 +17770,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G524" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17796,7 +17796,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G525" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17822,7 +17822,7 @@
         <v>3.84500002861023</v>
       </c>
       <c r="G526" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17848,7 +17848,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G527" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17874,7 +17874,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G528" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -17900,7 +17900,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G529" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17926,7 +17926,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G530" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17952,7 +17952,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G531" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17978,7 +17978,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G532" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18004,7 +18004,7 @@
         <v>3.75</v>
       </c>
       <c r="G533" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18030,7 +18030,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G534" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18056,7 +18056,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G535" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18082,7 +18082,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G536" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18108,7 +18108,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G537" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18134,7 +18134,7 @@
         <v>3.60500001907349</v>
       </c>
       <c r="G538" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18160,7 +18160,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G539" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18186,7 +18186,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G540" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18212,7 +18212,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G541" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18238,7 +18238,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18264,7 +18264,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18290,7 +18290,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G544" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18316,7 +18316,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G545" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18342,7 +18342,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G546" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18368,7 +18368,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G547" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18394,7 +18394,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G548" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18420,7 +18420,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G549" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18446,7 +18446,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G550" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18472,7 +18472,7 @@
         <v>3.6949999332428</v>
       </c>
       <c r="G551" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18498,7 +18498,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G552" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18524,7 +18524,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G553" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18550,7 +18550,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G554" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18576,7 +18576,7 @@
         <v>3.53500008583069</v>
       </c>
       <c r="G555" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18602,7 +18602,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G556" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18628,7 +18628,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G557" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18654,7 +18654,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G558" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18680,7 +18680,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G559" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18706,7 +18706,7 @@
         <v>3.73499989509583</v>
       </c>
       <c r="G560" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18732,7 +18732,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18758,7 +18758,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G562" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18784,7 +18784,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G563" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18810,7 +18810,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G564" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18836,7 +18836,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G565" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18862,7 +18862,7 @@
         <v>3.71499991416931</v>
       </c>
       <c r="G566" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18888,7 +18888,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G567" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18914,7 +18914,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G568" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18940,7 +18940,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G569" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18966,7 +18966,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G570" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18992,7 +18992,7 @@
         <v>3.68499994277954</v>
       </c>
       <c r="G571" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19018,7 +19018,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G572" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19044,7 +19044,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G573" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19070,7 +19070,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G574" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19096,7 +19096,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G575" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19122,7 +19122,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G576" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19148,7 +19148,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G577" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19174,7 +19174,7 @@
         <v>3.73499989509583</v>
       </c>
       <c r="G578" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19200,7 +19200,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G579" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19226,7 +19226,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G580" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19252,7 +19252,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G581" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19278,7 +19278,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G582" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19304,7 +19304,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G583" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19330,7 +19330,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G584" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19356,7 +19356,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G585" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19382,7 +19382,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G586" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19408,7 +19408,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G587" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19434,7 +19434,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G588" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19460,7 +19460,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G589" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19486,7 +19486,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G590" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19512,7 +19512,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G591" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19538,7 +19538,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G592" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19564,7 +19564,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G593" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19590,7 +19590,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G594" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19616,7 +19616,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G595" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19642,7 +19642,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G596" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19668,7 +19668,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G597" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19694,7 +19694,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G598" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19720,7 +19720,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G599" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19746,7 +19746,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G600" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19772,7 +19772,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G601" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19798,7 +19798,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G602" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19824,7 +19824,7 @@
         <v>3.97499990463257</v>
       </c>
       <c r="G603" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19850,7 +19850,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G604" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19876,7 +19876,7 @@
         <v>3.85500001907349</v>
       </c>
       <c r="G605" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19902,7 +19902,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G606" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19928,7 +19928,7 @@
         <v>3.84500002861023</v>
       </c>
       <c r="G607" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19954,7 +19954,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G608" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19980,7 +19980,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G609" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20006,7 +20006,7 @@
         <v>3.82500004768372</v>
       </c>
       <c r="G610" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20032,7 +20032,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G611" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20058,7 +20058,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G612" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20084,7 +20084,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G613" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20110,7 +20110,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G614" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20136,7 +20136,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G615" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20162,7 +20162,7 @@
         <v>3.74499988555908</v>
       </c>
       <c r="G616" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20188,7 +20188,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G617" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20214,7 +20214,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G618" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20240,7 +20240,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G619" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20266,7 +20266,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G620" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20292,7 +20292,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G621" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20318,7 +20318,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G622" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20344,7 +20344,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20370,7 +20370,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20396,7 +20396,7 @@
         <v>3.78500008583069</v>
       </c>
       <c r="G625" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20630,7 +20630,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G634" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20890,7 +20890,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G644" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20968,7 +20968,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G647" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21020,7 +21020,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G649" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -56926,7 +56926,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2030" t="s">
-        <v>1209</v>
+        <v>1074</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56952,7 +56952,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2031" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57004,7 +57004,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2033" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57134,7 +57134,7 @@
         <v>4.61499977111816</v>
       </c>
       <c r="G2038" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57160,7 +57160,7 @@
         <v>4.55499982833862</v>
       </c>
       <c r="G2039" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57186,7 +57186,7 @@
         <v>4.88500022888184</v>
       </c>
       <c r="G2040" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57238,7 +57238,7 @@
         <v>4.75</v>
       </c>
       <c r="G2042" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57290,7 +57290,7 @@
         <v>4.75</v>
       </c>
       <c r="G2044" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57368,7 +57368,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57394,7 +57394,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G2048" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57420,7 +57420,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57472,7 +57472,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2051" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57784,7 +57784,7 @@
         <v>4.5</v>
       </c>
       <c r="G2063" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57810,7 +57810,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G2064" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57862,7 +57862,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2066" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57888,7 +57888,7 @@
         <v>4.5</v>
       </c>
       <c r="G2067" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57914,7 +57914,7 @@
         <v>4.49499988555908</v>
       </c>
       <c r="G2068" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57992,7 +57992,7 @@
         <v>4.45499992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58018,7 +58018,7 @@
         <v>4.375</v>
       </c>
       <c r="G2072" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58044,7 +58044,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G2073" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58096,7 +58096,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G2075" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58200,7 +58200,7 @@
         <v>4.16499996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58252,7 +58252,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58278,7 +58278,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2082" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58356,7 +58356,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2085" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58382,7 +58382,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G2086" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58434,7 +58434,7 @@
         <v>4.30499982833862</v>
       </c>
       <c r="G2088" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58460,7 +58460,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2089" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58486,7 +58486,7 @@
         <v>4.13500022888184</v>
       </c>
       <c r="G2090" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58512,7 +58512,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2091" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58538,7 +58538,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2092" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58564,7 +58564,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G2093" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58590,7 +58590,7 @@
         <v>4.15500020980835</v>
       </c>
       <c r="G2094" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58616,7 +58616,7 @@
         <v>4.15500020980835</v>
       </c>
       <c r="G2095" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58642,7 +58642,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G2096" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58668,7 +58668,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G2097" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58694,7 +58694,7 @@
         <v>4.11499977111816</v>
       </c>
       <c r="G2098" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58720,7 +58720,7 @@
         <v>4.07499980926514</v>
       </c>
       <c r="G2099" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58746,7 +58746,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2100" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58772,7 +58772,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2101" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58798,7 +58798,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G2102" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58824,7 +58824,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G2103" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58850,7 +58850,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G2104" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58876,7 +58876,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G2105" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58902,7 +58902,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2106" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58928,7 +58928,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G2107" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58954,7 +58954,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G2108" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58980,7 +58980,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G2109" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59006,7 +59006,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G2110" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59032,7 +59032,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G2111" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59058,7 +59058,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G2112" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59084,7 +59084,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G2113" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59110,7 +59110,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G2114" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59136,7 +59136,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59162,7 +59162,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G2116" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59188,7 +59188,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G2117" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59214,7 +59214,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G2118" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59240,7 +59240,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G2119" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59266,7 +59266,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G2120" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59292,7 +59292,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G2121" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59318,7 +59318,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G2122" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59344,7 +59344,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G2123" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59370,7 +59370,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G2124" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59396,7 +59396,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59422,7 +59422,7 @@
         <v>3.75</v>
       </c>
       <c r="G2126" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59448,7 +59448,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G2127" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59474,7 +59474,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2128" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59500,7 +59500,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59526,7 +59526,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G2130" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59552,7 +59552,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2131" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59578,7 +59578,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G2132" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59604,7 +59604,7 @@
         <v>3.75</v>
       </c>
       <c r="G2133" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59630,7 +59630,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2134" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59656,7 +59656,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G2135" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59682,7 +59682,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59708,7 +59708,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2137" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59734,7 +59734,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2138" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59760,7 +59760,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2139" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59786,7 +59786,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2140" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59812,7 +59812,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G2141" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59838,7 +59838,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59864,7 +59864,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G2143" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59890,7 +59890,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2144" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59916,7 +59916,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G2145" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59942,7 +59942,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G2146" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59968,7 +59968,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2147" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59994,7 +59994,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2148" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60020,7 +60020,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2149" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60046,7 +60046,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2150" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60072,7 +60072,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G2151" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60098,7 +60098,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2152" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60124,7 +60124,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G2153" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60132,7 +60132,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6493634259</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>5286</v>
@@ -60150,9 +60150,35 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G2154" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6495601852</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>13225</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>3.71000003814697</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>3.63000011444092</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>3.6800000667572</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>3.63000011444092</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BAN.MI.xlsx
+++ b/data/BAN.MI.xlsx
@@ -38,67 +38,67 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74278879165649</t>
+    <t xml:space="preserve">3.74278831481934</t>
   </si>
   <si>
     <t xml:space="preserve">BAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75724577903748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6624710559845</t>
+    <t xml:space="preserve">3.7572455406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66247081756592</t>
   </si>
   <si>
     <t xml:space="preserve">3.53235721588135</t>
   </si>
   <si>
-    <t xml:space="preserve">3.487380027771</t>
+    <t xml:space="preserve">3.48737931251526</t>
   </si>
   <si>
     <t xml:space="preserve">3.42473220825195</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51468729972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53396320343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52111268043518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50023007392883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45203971862793</t>
+    <t xml:space="preserve">3.51468753814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53396391868591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5211124420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50022983551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45203995704651</t>
   </si>
   <si>
     <t xml:space="preserve">3.47774124145508</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17896103858948</t>
+    <t xml:space="preserve">3.1789608001709</t>
   </si>
   <si>
     <t xml:space="preserve">3.30586242675781</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35726547241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27694821357727</t>
+    <t xml:space="preserve">3.35726499557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27694773674011</t>
   </si>
   <si>
     <t xml:space="preserve">3.33317017555237</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25767207145691</t>
+    <t xml:space="preserve">3.25767183303833</t>
   </si>
   <si>
     <t xml:space="preserve">3.19663071632385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29301118850708</t>
+    <t xml:space="preserve">3.29301142692566</t>
   </si>
   <si>
     <t xml:space="preserve">3.2303638458252</t>
@@ -107,25 +107,25 @@
     <t xml:space="preserve">3.23678946495056</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13237738609314</t>
+    <t xml:space="preserve">3.1323766708374</t>
   </si>
   <si>
     <t xml:space="preserve">3.21269416809082</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11149430274963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98780584335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97174215316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89142489433289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88339281082153</t>
+    <t xml:space="preserve">3.11149454116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98780536651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9717423915863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89142441749573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88339304924011</t>
   </si>
   <si>
     <t xml:space="preserve">2.80789494514465</t>
@@ -140,97 +140,97 @@
     <t xml:space="preserve">2.95246624946594</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04242134094238</t>
+    <t xml:space="preserve">3.04242157936096</t>
   </si>
   <si>
     <t xml:space="preserve">3.02153873443604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05366563796997</t>
+    <t xml:space="preserve">3.05366587638855</t>
   </si>
   <si>
     <t xml:space="preserve">3.12113261222839</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17253565788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13077044487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0231454372406</t>
+    <t xml:space="preserve">3.17253541946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13077020645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314519882202</t>
   </si>
   <si>
     <t xml:space="preserve">3.05205941200256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06812310218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03599643707275</t>
+    <t xml:space="preserve">3.06812286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0359959602356</t>
   </si>
   <si>
     <t xml:space="preserve">3.12434506416321</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18056774139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24482083320618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1645040512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19984340667725</t>
+    <t xml:space="preserve">3.18056702613831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24482107162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16450381278992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19984316825867</t>
   </si>
   <si>
     <t xml:space="preserve">3.29783058166504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40545558929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3733286857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30907511711121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30746841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18859910964966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26088452339172</t>
+    <t xml:space="preserve">3.40545535087585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37332844734192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30907464027405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3074688911438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18859887123108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2608847618103</t>
   </si>
   <si>
     <t xml:space="preserve">3.26730990409851</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1661102771759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17574787139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20466256141663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10828185081482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06009101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01993250846863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1564724445343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02796387672424</t>
+    <t xml:space="preserve">3.16611003875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1757481098175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20466279983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10828137397766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06009125709534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01993227005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15647220611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0279643535614</t>
   </si>
   <si>
     <t xml:space="preserve">2.92033910751343</t>
@@ -239,49 +239,49 @@
     <t xml:space="preserve">2.93158316612244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96852970123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0456337928772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06169772148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0761547088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98619937896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97977352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91552042961121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87054228782654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89785003662109</t>
+    <t xml:space="preserve">2.96852946281433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04563426971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06169748306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07615423202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98619914054871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9797739982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91552019119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87054204940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89785027503967</t>
   </si>
   <si>
     <t xml:space="preserve">2.85769176483154</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78379940986633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7050883769989</t>
+    <t xml:space="preserve">2.78379964828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70508861541748</t>
   </si>
   <si>
     <t xml:space="preserve">2.73560905456543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76934194564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81913924217224</t>
+    <t xml:space="preserve">2.76934218406677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81913900375366</t>
   </si>
   <si>
     <t xml:space="preserve">2.83520245552063</t>
@@ -293,61 +293,61 @@
     <t xml:space="preserve">2.64244079589844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58621907234192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54445385932922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52999663352966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57015538215637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65803813934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63979816436768</t>
+    <t xml:space="preserve">2.58621859550476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54445338249207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52999687194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57015562057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65803837776184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63979840278625</t>
   </si>
   <si>
     <t xml:space="preserve">2.61160945892334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61326742172241</t>
+    <t xml:space="preserve">2.61326766014099</t>
   </si>
   <si>
     <t xml:space="preserve">2.66135430335999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64477300643921</t>
+    <t xml:space="preserve">2.64477276802063</t>
   </si>
   <si>
     <t xml:space="preserve">2.63316559791565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65306353569031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77576780319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87691593170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86033391952515</t>
+    <t xml:space="preserve">2.65306377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77576756477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87691569328308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86033415794373</t>
   </si>
   <si>
     <t xml:space="preserve">2.73597168922424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76913499832153</t>
+    <t xml:space="preserve">2.76913523674011</t>
   </si>
   <si>
     <t xml:space="preserve">2.49553775787354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44579267501831</t>
+    <t xml:space="preserve">2.44579291343689</t>
   </si>
   <si>
     <t xml:space="preserve">2.55357360839844</t>
@@ -356,19 +356,22 @@
     <t xml:space="preserve">2.5253849029541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57844614982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55854845046997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45408391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23852252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27997660636902</t>
+    <t xml:space="preserve">2.57015514373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57844591140747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55854797363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45408344268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23852276802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27997636795044</t>
   </si>
   <si>
     <t xml:space="preserve">2.34132862091064</t>
@@ -377,19 +380,19 @@
     <t xml:space="preserve">2.31977248191833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4043390750885</t>
+    <t xml:space="preserve">2.40433883666992</t>
   </si>
   <si>
     <t xml:space="preserve">2.42092061042786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3380126953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2368643283844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27002739906311</t>
+    <t xml:space="preserve">2.33801221847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23686408996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27002716064453</t>
   </si>
   <si>
     <t xml:space="preserve">2.32972145080566</t>
@@ -398,13 +401,13 @@
     <t xml:space="preserve">2.35127735137939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37780833244324</t>
+    <t xml:space="preserve">2.37780857086182</t>
   </si>
   <si>
     <t xml:space="preserve">2.38278293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37946605682373</t>
+    <t xml:space="preserve">2.37946629524231</t>
   </si>
   <si>
     <t xml:space="preserve">2.36620092391968</t>
@@ -413,109 +416,109 @@
     <t xml:space="preserve">2.42921113967896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58673667907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59502792358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6199004650116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95484924316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89515590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86862516403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64808869361877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62819075584412</t>
+    <t xml:space="preserve">2.58673691749573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59502816200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61990022659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95484948158264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89515566825867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8686249256134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64808917045593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62819123268127</t>
   </si>
   <si>
     <t xml:space="preserve">2.62487459182739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61824250221252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.583420753479</t>
+    <t xml:space="preserve">2.61824202537537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58342051506042</t>
   </si>
   <si>
     <t xml:space="preserve">2.58839511871338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68954348564148</t>
+    <t xml:space="preserve">2.68954300880432</t>
   </si>
   <si>
     <t xml:space="preserve">2.68291068077087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69949197769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70612454414368</t>
+    <t xml:space="preserve">2.69949221611023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70612502098083</t>
   </si>
   <si>
     <t xml:space="preserve">2.69120144844055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69451713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74592065811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81224751472473</t>
+    <t xml:space="preserve">2.69451761245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74592089653015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81224727630615</t>
   </si>
   <si>
     <t xml:space="preserve">2.84872722625732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81888031959534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78571677207947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70778250694275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71109914779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79732418060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82385468482971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76084399223328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78240060806274</t>
+    <t xml:space="preserve">2.81887984275818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78571653366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70778298377991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71109938621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79732394218445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82385420799255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76084446907043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78240036964417</t>
   </si>
   <si>
     <t xml:space="preserve">2.7956657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82551288604736</t>
+    <t xml:space="preserve">2.82551264762878</t>
   </si>
   <si>
     <t xml:space="preserve">2.857017993927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74923753738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72104787826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70114994049072</t>
+    <t xml:space="preserve">2.74923706054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72104835510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70115065574646</t>
   </si>
   <si>
     <t xml:space="preserve">2.67793607711792</t>
@@ -524,16 +527,16 @@
     <t xml:space="preserve">2.64974737167358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66964530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71938991546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6862268447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74260449409485</t>
+    <t xml:space="preserve">2.66964507102966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71939015388489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68622708320618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74260473251343</t>
   </si>
   <si>
     <t xml:space="preserve">2.65472173690796</t>
@@ -551,22 +554,22 @@
     <t xml:space="preserve">2.78074216842651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77742600440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88520693778992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7989821434021</t>
+    <t xml:space="preserve">2.77742552757263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88520669937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79898190498352</t>
   </si>
   <si>
     <t xml:space="preserve">2.81722187995911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79400706291199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75918579101562</t>
+    <t xml:space="preserve">2.79400730133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7591860294342</t>
   </si>
   <si>
     <t xml:space="preserve">2.7442626953125</t>
@@ -575,22 +578,22 @@
     <t xml:space="preserve">2.66467070579529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78737473487854</t>
+    <t xml:space="preserve">2.7873752117157</t>
   </si>
   <si>
     <t xml:space="preserve">2.72933912277222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67627787590027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64643049240112</t>
+    <t xml:space="preserve">2.67627763748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64643096923828</t>
   </si>
   <si>
     <t xml:space="preserve">2.60497689247131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60166049003601</t>
+    <t xml:space="preserve">2.60166025161743</t>
   </si>
   <si>
     <t xml:space="preserve">2.56352257728577</t>
@@ -599,46 +602,46 @@
     <t xml:space="preserve">2.51709413528442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55191588401794</t>
+    <t xml:space="preserve">2.55191564559937</t>
   </si>
   <si>
     <t xml:space="preserve">2.63648200035095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68456864356995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70944094657898</t>
+    <t xml:space="preserve">2.68456840515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70944118499756</t>
   </si>
   <si>
     <t xml:space="preserve">2.72270631790161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77908396720886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83877801895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82717084884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83380341529846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75421190261841</t>
+    <t xml:space="preserve">2.77908420562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83877825737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82717108726501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83380365371704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75421166419983</t>
   </si>
   <si>
     <t xml:space="preserve">2.82882905006409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82053804397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77245116233826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80064034461975</t>
+    <t xml:space="preserve">2.82053828239441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77245163917542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80064010620117</t>
   </si>
   <si>
     <t xml:space="preserve">2.83546185493469</t>
@@ -653,13 +656,13 @@
     <t xml:space="preserve">2.67959403991699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70280861854553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7475790977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75255346298218</t>
+    <t xml:space="preserve">2.70280838012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74757862091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7525532245636</t>
   </si>
   <si>
     <t xml:space="preserve">2.98138022422791</t>
@@ -668,10 +671,10 @@
     <t xml:space="preserve">2.94324231147766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05931401252747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03444123268127</t>
+    <t xml:space="preserve">3.05931377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03444147109985</t>
   </si>
   <si>
     <t xml:space="preserve">3.02946710586548</t>
@@ -680,10 +683,10 @@
     <t xml:space="preserve">3.02283430099487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00127816200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99298691749573</t>
+    <t xml:space="preserve">3.00127792358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99298715591431</t>
   </si>
   <si>
     <t xml:space="preserve">2.95650768280029</t>
@@ -692,49 +695,49 @@
     <t xml:space="preserve">2.94987535476685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93660998344421</t>
+    <t xml:space="preserve">2.93660974502563</t>
   </si>
   <si>
     <t xml:space="preserve">2.93329334259033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90178847312927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87857437133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90676236152649</t>
+    <t xml:space="preserve">2.90178823471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87857365608215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90676283836365</t>
   </si>
   <si>
     <t xml:space="preserve">2.9780638217926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98469638824463</t>
+    <t xml:space="preserve">2.98469614982605</t>
   </si>
   <si>
     <t xml:space="preserve">3.05102324485779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97308897972107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97474765777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0178599357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01620173454285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01122736930847</t>
+    <t xml:space="preserve">2.97308921813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9747474193573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01786017417908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01620149612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01122689247131</t>
   </si>
   <si>
     <t xml:space="preserve">3.11071729660034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11734962463379</t>
+    <t xml:space="preserve">3.11734938621521</t>
   </si>
   <si>
     <t xml:space="preserve">3.05599761009216</t>
@@ -746,16 +749,16 @@
     <t xml:space="preserve">3.06760501861572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1586217880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17884802818298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2327835559845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20244431495667</t>
+    <t xml:space="preserve">3.15862154960632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17884755134583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23278331756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20244455337524</t>
   </si>
   <si>
     <t xml:space="preserve">3.20750117301941</t>
@@ -764,7 +767,7 @@
     <t xml:space="preserve">3.253009557724</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24458169937134</t>
+    <t xml:space="preserve">3.2445821762085</t>
   </si>
   <si>
     <t xml:space="preserve">3.31368732452393</t>
@@ -776,82 +779,82 @@
     <t xml:space="preserve">3.23109793663025</t>
   </si>
   <si>
-    <t xml:space="preserve">3.217613697052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23446917533875</t>
+    <t xml:space="preserve">3.21761393547058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23446893692017</t>
   </si>
   <si>
     <t xml:space="preserve">3.13839554786682</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13671016693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0423219203949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11985540390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12659740447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09457278251648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08614540100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05412077903748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05075001716614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05917763710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99681377410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01535415649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14176654815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15019416809082</t>
+    <t xml:space="preserve">3.13670992851257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04232215881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11985492706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1265971660614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0945725440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0861451625824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05412101745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05074954032898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05917739868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99681401252747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01535439491272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14176678657532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15019392967224</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850878715515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17042016983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17379117012024</t>
+    <t xml:space="preserve">3.17041993141174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17379093170166</t>
   </si>
   <si>
     <t xml:space="preserve">3.21087193489075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22772693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.269864320755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27829170227051</t>
+    <t xml:space="preserve">3.22772669792175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26986455917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27829194068909</t>
   </si>
   <si>
     <t xml:space="preserve">3.29514694213867</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29851770401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31874346733093</t>
+    <t xml:space="preserve">3.29851794242859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31874394416809</t>
   </si>
   <si>
     <t xml:space="preserve">3.36088132858276</t>
@@ -866,43 +869,43 @@
     <t xml:space="preserve">3.36256694793701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28840494155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31537294387817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25806570053101</t>
+    <t xml:space="preserve">3.28840470314026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31537270545959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25806593894958</t>
   </si>
   <si>
     <t xml:space="preserve">3.32885670661926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16030740737915</t>
+    <t xml:space="preserve">3.16030716896057</t>
   </si>
   <si>
     <t xml:space="preserve">3.22267031669617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23615455627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23784017562866</t>
+    <t xml:space="preserve">3.23615431785583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23783993721008</t>
   </si>
   <si>
     <t xml:space="preserve">3.21424293518066</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11311340332031</t>
+    <t xml:space="preserve">3.11311316490173</t>
   </si>
   <si>
     <t xml:space="preserve">3.11817002296448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1468231678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19064569473267</t>
+    <t xml:space="preserve">3.14682340621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19064617156982</t>
   </si>
   <si>
     <t xml:space="preserve">3.09288740158081</t>
@@ -911,16 +914,16 @@
     <t xml:space="preserve">3.15693616867065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13502502441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15356540679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19401717185974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17210578918457</t>
+    <t xml:space="preserve">3.1350245475769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15356516838074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19401693344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17210555076599</t>
   </si>
   <si>
     <t xml:space="preserve">3.16704893112183</t>
@@ -929,28 +932,28 @@
     <t xml:space="preserve">3.18390417098999</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19907379150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20918679237366</t>
+    <t xml:space="preserve">3.19907355308533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20918655395508</t>
   </si>
   <si>
     <t xml:space="preserve">3.19233179092407</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20412993431091</t>
+    <t xml:space="preserve">3.20413017272949</t>
   </si>
   <si>
     <t xml:space="preserve">3.22098517417908</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24795293807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16873455047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14345192909241</t>
+    <t xml:space="preserve">3.24795317649841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1687343120575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14345216751099</t>
   </si>
   <si>
     <t xml:space="preserve">3.16367793083191</t>
@@ -959,10 +962,10 @@
     <t xml:space="preserve">3.16536355018616</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18559002876282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15187978744507</t>
+    <t xml:space="preserve">3.18558955192566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15187954902649</t>
   </si>
   <si>
     <t xml:space="preserve">3.00861239433289</t>
@@ -971,16 +974,16 @@
     <t xml:space="preserve">2.9917573928833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89399838447571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9395067691803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96647477149963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96984577178955</t>
+    <t xml:space="preserve">2.89399862289429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93950724601746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96647500991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96984601020813</t>
   </si>
   <si>
     <t xml:space="preserve">3.00524139404297</t>
@@ -995,10 +998,10 @@
     <t xml:space="preserve">2.94287800788879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89736986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88557100296021</t>
+    <t xml:space="preserve">2.8973696231842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88557124137878</t>
   </si>
   <si>
     <t xml:space="preserve">2.8687162399292</t>
@@ -1007,94 +1010,94 @@
     <t xml:space="preserve">2.93782162666321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80635237693787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86534523963928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8484902381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87040162086487</t>
+    <t xml:space="preserve">2.80635285377502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8653450012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84849047660828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87040138244629</t>
   </si>
   <si>
     <t xml:space="preserve">2.91591000556946</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03389477729797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03052401542664</t>
+    <t xml:space="preserve">3.03389453887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03052377700806</t>
   </si>
   <si>
     <t xml:space="preserve">3.07603216171265</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11648392677307</t>
+    <t xml:space="preserve">3.11648440361023</t>
   </si>
   <si>
     <t xml:space="preserve">3.10131478309631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13165402412415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12491202354431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08446002006531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09794425964355</t>
+    <t xml:space="preserve">3.13165378570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12491154670715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08445978164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09794402122498</t>
   </si>
   <si>
     <t xml:space="preserve">3.08951592445374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1147985458374</t>
+    <t xml:space="preserve">3.11479878425598</t>
   </si>
   <si>
     <t xml:space="preserve">3.14008116722107</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17294836044312</t>
+    <t xml:space="preserve">3.17294812202454</t>
   </si>
   <si>
     <t xml:space="preserve">3.13081073760986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21929955482483</t>
+    <t xml:space="preserve">3.21929931640625</t>
   </si>
   <si>
     <t xml:space="preserve">3.28250575065613</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24036836624146</t>
+    <t xml:space="preserve">3.24036812782288</t>
   </si>
   <si>
     <t xml:space="preserve">3.25722312927246</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32042956352234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28671979904175</t>
+    <t xml:space="preserve">3.32042932510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28671932220459</t>
   </si>
   <si>
     <t xml:space="preserve">3.02125358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03810882568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9833300113678</t>
+    <t xml:space="preserve">3.03810858726501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98332977294922</t>
   </si>
   <si>
     <t xml:space="preserve">2.93276500701904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1982307434082</t>
+    <t xml:space="preserve">3.19823098182678</t>
   </si>
   <si>
     <t xml:space="preserve">3.13923835754395</t>
@@ -1103,52 +1106,52 @@
     <t xml:space="preserve">3.11395573616028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09710073471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97911667823792</t>
+    <t xml:space="preserve">3.09710097312927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97911643981934</t>
   </si>
   <si>
     <t xml:space="preserve">3.14766573905945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08024621009827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08867335319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1097424030304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10552883148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21508574485779</t>
+    <t xml:space="preserve">3.08024573326111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08867359161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10974192619324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10552835464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21508598327637</t>
   </si>
   <si>
     <t xml:space="preserve">3.40470409393311</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3162157535553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34149837493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34992551803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31200194358826</t>
+    <t xml:space="preserve">3.31621551513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34149813652039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34992527961731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31200218200684</t>
   </si>
   <si>
     <t xml:space="preserve">3.24879574775696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30885672569275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26605153083801</t>
+    <t xml:space="preserve">3.30885648727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26605129241943</t>
   </si>
   <si>
     <t xml:space="preserve">3.27461242675781</t>
@@ -1157,61 +1160,58 @@
     <t xml:space="preserve">3.25320959091187</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28745412826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22752642631531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15047693252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18472146987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20612382888794</t>
+    <t xml:space="preserve">3.2874538898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22752666473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15047669410706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18472123146057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20612406730652</t>
   </si>
   <si>
     <t xml:space="preserve">3.2703320980072</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32169842720032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31313753128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16759943962097</t>
+    <t xml:space="preserve">3.3216986656189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31313729286194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16759920120239</t>
   </si>
   <si>
     <t xml:space="preserve">3.13335490226746</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24892926216125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24036812782288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17616033554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18900179862976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20184350013733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21040463447571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21896553039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23608803749084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14619612693787</t>
+    <t xml:space="preserve">3.24892950057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17616009712219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1890013217926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20184326171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21040415763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21896529197693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23608779907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14619636535645</t>
   </si>
   <si>
     <t xml:space="preserve">3.19756269454956</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">3.23180723190308</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17187929153442</t>
+    <t xml:space="preserve">3.171879529953</t>
   </si>
   <si>
     <t xml:space="preserve">3.2232460975647</t>
@@ -1229,22 +1229,22 @@
     <t xml:space="preserve">3.25749063491821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.278892993927</t>
+    <t xml:space="preserve">3.27889323234558</t>
   </si>
   <si>
     <t xml:space="preserve">3.30029582977295</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33025932312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39018702507019</t>
+    <t xml:space="preserve">3.3302595615387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39018750190735</t>
   </si>
   <si>
     <t xml:space="preserve">3.37734532356262</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34310126304626</t>
+    <t xml:space="preserve">3.34310102462769</t>
   </si>
   <si>
     <t xml:space="preserve">3.42443132400513</t>
@@ -1253,34 +1253,34 @@
     <t xml:space="preserve">3.492919921875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56140828132629</t>
+    <t xml:space="preserve">3.56140851974487</t>
   </si>
   <si>
     <t xml:space="preserve">3.50148129463196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61277461051941</t>
+    <t xml:space="preserve">3.61277508735657</t>
   </si>
   <si>
     <t xml:space="preserve">3.51860332489014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55284786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58709168434143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54428625106812</t>
+    <t xml:space="preserve">3.55284762382507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58709216117859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54428648948669</t>
   </si>
   <si>
     <t xml:space="preserve">3.52716422080994</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45439505577087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44583415985107</t>
+    <t xml:space="preserve">3.45439529418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4458339214325</t>
   </si>
   <si>
     <t xml:space="preserve">3.5400059223175</t>
@@ -1289,10 +1289,10 @@
     <t xml:space="preserve">3.36878442764282</t>
   </si>
   <si>
-    <t xml:space="preserve">3.385906457901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36450386047363</t>
+    <t xml:space="preserve">3.38590621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36450362205505</t>
   </si>
   <si>
     <t xml:space="preserve">3.40730929374695</t>
@@ -1301,10 +1301,10 @@
     <t xml:space="preserve">3.33882093429565</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34738183021545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46723699569702</t>
+    <t xml:space="preserve">3.34738159179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46723675727844</t>
   </si>
   <si>
     <t xml:space="preserve">3.64701962471008</t>
@@ -1313,31 +1313,31 @@
     <t xml:space="preserve">3.65986084938049</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62133646011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65130019187927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65558004379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73691082000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62989664077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63845825195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69410562515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85676574707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96377921104431</t>
+    <t xml:space="preserve">3.62133598327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65129995346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65558075904846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73691058158875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62989711761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63845801353455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69410538673401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85676622390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96377968788147</t>
   </si>
   <si>
     <t xml:space="preserve">3.79683804512024</t>
@@ -1352,19 +1352,19 @@
     <t xml:space="preserve">3.87388801574707</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90385127067566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87816882133484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91669273376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99802327156067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98946309089661</t>
+    <t xml:space="preserve">3.90385150909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87816905975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91669321060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99802350997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98946237564087</t>
   </si>
   <si>
     <t xml:space="preserve">4.02370691299438</t>
@@ -1373,121 +1373,121 @@
     <t xml:space="preserve">4.14784240722656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10075664520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00658512115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94665741920471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8952910900116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93809628486633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8696072101593</t>
+    <t xml:space="preserve">4.10075712203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00658464431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94665718078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89529085159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93809580802917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86960768699646</t>
   </si>
   <si>
     <t xml:space="preserve">3.94237661361694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95521807670593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80967998504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92097401618958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76687407493591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98090100288391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03226804733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07079315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08363437652588</t>
+    <t xml:space="preserve">3.95521831512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80967950820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.920973777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76687455177307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98090147972107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03226757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07079267501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08363389968872</t>
   </si>
   <si>
     <t xml:space="preserve">3.99374294281006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95093727111816</t>
+    <t xml:space="preserve">3.95093774795532</t>
   </si>
   <si>
     <t xml:space="preserve">3.9295346736908</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74119162559509</t>
+    <t xml:space="preserve">3.74119138717651</t>
   </si>
   <si>
     <t xml:space="preserve">3.74975204467773</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66414141654968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60421442985535</t>
+    <t xml:space="preserve">3.66414165496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60421395301819</t>
   </si>
   <si>
     <t xml:space="preserve">3.77971601486206</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71550798416138</t>
+    <t xml:space="preserve">3.71550822257996</t>
   </si>
   <si>
     <t xml:space="preserve">3.85248517990112</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79255747795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71978855133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77543568611145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75403332710266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88244867324829</t>
+    <t xml:space="preserve">3.79255771636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71978831291199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77543544769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75403308868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88244891166687</t>
   </si>
   <si>
     <t xml:space="preserve">3.86104607582092</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77115511894226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80539989471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82252144813538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72406911849976</t>
+    <t xml:space="preserve">3.77115535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80539965629578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82252168655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72406888008118</t>
   </si>
   <si>
     <t xml:space="preserve">3.73263025283813</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93381500244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97233986854553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01514577865601</t>
+    <t xml:space="preserve">3.93381524085999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97234034538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01514625549316</t>
   </si>
   <si>
     <t xml:space="preserve">4.08791494369507</t>
@@ -1496,40 +1496,40 @@
     <t xml:space="preserve">4.16924524307251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1949291229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25485610961914</t>
+    <t xml:space="preserve">4.19492816925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25485563278198</t>
   </si>
   <si>
     <t xml:space="preserve">4.28053903579712</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32334518432617</t>
+    <t xml:space="preserve">4.32334470748901</t>
   </si>
   <si>
     <t xml:space="preserve">4.27197790145874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18208646774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17780590057373</t>
+    <t xml:space="preserve">4.18208694458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17780637741089</t>
   </si>
   <si>
     <t xml:space="preserve">4.16068410873413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.229172706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1735258102417</t>
+    <t xml:space="preserve">4.22917318344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17352628707886</t>
   </si>
   <si>
     <t xml:space="preserve">4.16496419906616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14356279373169</t>
+    <t xml:space="preserve">4.14356231689453</t>
   </si>
   <si>
     <t xml:space="preserve">4.34902763366699</t>
@@ -1538,19 +1538,19 @@
     <t xml:space="preserve">4.4860053062439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61442041397095</t>
+    <t xml:space="preserve">4.61442136764526</t>
   </si>
   <si>
     <t xml:space="preserve">4.58873796463013</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67434930801392</t>
+    <t xml:space="preserve">4.67434883117676</t>
   </si>
   <si>
     <t xml:space="preserve">4.57161617279053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71715402603149</t>
+    <t xml:space="preserve">4.71715450286865</t>
   </si>
   <si>
     <t xml:space="preserve">4.76852083206177</t>
@@ -1559,13 +1559,13 @@
     <t xml:space="preserve">4.79420375823975</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77708148956299</t>
+    <t xml:space="preserve">4.77708196640015</t>
   </si>
   <si>
     <t xml:space="preserve">4.75995969772339</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72571563720703</t>
+    <t xml:space="preserve">4.72571516036987</t>
   </si>
   <si>
     <t xml:space="preserve">4.53737211227417</t>
@@ -1574,16 +1574,16 @@
     <t xml:space="preserve">4.52881050109863</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56305503845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58017730712891</t>
+    <t xml:space="preserve">4.56305408477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58017683029175</t>
   </si>
   <si>
     <t xml:space="preserve">4.6401047706604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69147109985352</t>
+    <t xml:space="preserve">4.69147062301636</t>
   </si>
   <si>
     <t xml:space="preserve">4.70859289169312</t>
@@ -1592,34 +1592,34 @@
     <t xml:space="preserve">4.70003175735474</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49456596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6229829788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8541316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90549802780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83700942993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78564310073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75139808654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59729862213135</t>
+    <t xml:space="preserve">4.49456644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62298250198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85413122177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90549850463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83700895309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78564262390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75139856338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59729909896851</t>
   </si>
   <si>
     <t xml:space="preserve">4.63154315948486</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55449390411377</t>
+    <t xml:space="preserve">4.55449438095093</t>
   </si>
   <si>
     <t xml:space="preserve">4.50312757492065</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">4.43463802337646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5573353767395</t>
+    <t xml:space="preserve">4.55733585357666</t>
   </si>
   <si>
     <t xml:space="preserve">4.60992097854614</t>
@@ -1643,19 +1643,19 @@
     <t xml:space="preserve">4.48722267150879</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46093082427979</t>
+    <t xml:space="preserve">4.46093130111694</t>
   </si>
   <si>
     <t xml:space="preserve">4.39081811904907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35576152801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41710996627808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39958143234253</t>
+    <t xml:space="preserve">4.35576105117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41711044311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39958190917969</t>
   </si>
   <si>
     <t xml:space="preserve">4.46969509124756</t>
@@ -1673,13 +1673,13 @@
     <t xml:space="preserve">4.44340229034424</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47845935821533</t>
+    <t xml:space="preserve">4.47845983505249</t>
   </si>
   <si>
     <t xml:space="preserve">4.53980731964111</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50475072860718</t>
+    <t xml:space="preserve">4.50475120544434</t>
   </si>
   <si>
     <t xml:space="preserve">4.31632328033447</t>
@@ -1688,19 +1688,19 @@
     <t xml:space="preserve">4.35137939453125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21553564071655</t>
+    <t xml:space="preserve">4.21553611755371</t>
   </si>
   <si>
     <t xml:space="preserve">4.12789440155029</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16733360290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06216430664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11474800109863</t>
+    <t xml:space="preserve">4.16733312606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06216478347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11474847793579</t>
   </si>
   <si>
     <t xml:space="preserve">4.02710723876953</t>
@@ -1715,16 +1715,16 @@
     <t xml:space="preserve">4.02272510528564</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04463529586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04025411605835</t>
+    <t xml:space="preserve">4.04463577270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04025363922119</t>
   </si>
   <si>
     <t xml:space="preserve">4.09283828735352</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00519752502441</t>
+    <t xml:space="preserve">4.00519800186157</t>
   </si>
   <si>
     <t xml:space="preserve">4.15418720245361</t>
@@ -1739,16 +1739,16 @@
     <t xml:space="preserve">4.34699773788452</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40834712982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38205337524414</t>
+    <t xml:space="preserve">4.40834617614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3820538520813</t>
   </si>
   <si>
     <t xml:space="preserve">4.11036682128906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91755652427673</t>
+    <t xml:space="preserve">3.91755604743958</t>
   </si>
   <si>
     <t xml:space="preserve">3.95261240005493</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">3.96575880050659</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0840744972229</t>
+    <t xml:space="preserve">4.08407402038574</t>
   </si>
   <si>
     <t xml:space="preserve">4.10160255432129</t>
@@ -1772,22 +1772,22 @@
     <t xml:space="preserve">3.84744310379028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79047632217407</t>
+    <t xml:space="preserve">3.79047679901123</t>
   </si>
   <si>
     <t xml:space="preserve">3.77733039855957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75103807449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75980257987976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78171277046204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73789215087891</t>
+    <t xml:space="preserve">3.75103831291199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7598021030426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78171253204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73789191246033</t>
   </si>
   <si>
     <t xml:space="preserve">3.73351001739502</t>
@@ -1796,748 +1796,748 @@
     <t xml:space="preserve">3.79485821723938</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89126348495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03148984909058</t>
+    <t xml:space="preserve">3.89126396179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03148937225342</t>
   </si>
   <si>
     <t xml:space="preserve">3.93508410453796</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86058950424194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92193841934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8562068939209</t>
+    <t xml:space="preserve">3.86058974266052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92193794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85620737075806</t>
   </si>
   <si>
     <t xml:space="preserve">3.76856660842896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80800485610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78609418869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67216110229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82991552352905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72474575042725</t>
+    <t xml:space="preserve">3.80800461769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78609490394592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6721613407135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82991528511047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72474551200867</t>
   </si>
   <si>
     <t xml:space="preserve">3.79924082756042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86497163772583</t>
+    <t xml:space="preserve">3.86497139930725</t>
   </si>
   <si>
     <t xml:space="preserve">3.72036361694336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74227356910706</t>
+    <t xml:space="preserve">3.74227428436279</t>
   </si>
   <si>
     <t xml:space="preserve">3.74665594100952</t>
   </si>
   <si>
+    <t xml:space="preserve">3.68968939781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64586877822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71598148345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72912812232971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70283532142639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04901790618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0358715057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97890448570251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00957918167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0972204208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18047904968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22429990768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32946968078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33385181427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52227926254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51351594924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68003368377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67126893997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58362817764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64497756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57486438751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62744903564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68879747390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87284421920776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90790033340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79396724700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74138212203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82025909423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81149482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7852029800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77643871307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80273056030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76767444610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65374088287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5923924446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63621282577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60115671157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61868476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86407995223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75891017913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70632600784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82902383804321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73261833190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32070541381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24182844161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28564882278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45216655731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69756174087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19800806045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82553291320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54069948196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43114829063416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37856364250183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22957348823547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28654026985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86148118972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97541451454163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92283010482788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94474029541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78698635101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7212553024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8570990562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66428852081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77822208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97979664802551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87024521827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75631189346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71249151229858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90091967582703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82204270362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84395265579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76069402694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76507616043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90968370437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94912219047546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98856091499329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06743741035461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02361702919006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99732494354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00170660018921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04114556312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07181978225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00608944892883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03676342964172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01047110557556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16822504997253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10249423980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11125826835632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14631462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19451713562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09372997283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15507888793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25586581230164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31283283233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22519159317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21204566955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24710178375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19889950752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18137097358704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37418127059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45305848121643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50564312934875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55384564399719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5319356918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54946374893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38294553756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36103534698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2602481842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44867634773254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44429421424866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41800236701965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43991255760193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49687910079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51002526283264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51440763473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83402872085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78892278671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70322108268738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65360450744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59045577049255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57241320610046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50024342536926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51828598976135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42807292938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45513701438904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48671102523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38747787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40551996231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38296675682068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33786082267761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34688186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29275465011597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15743565559387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24764823913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31981825828552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27020144462585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22960567474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22058439254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20254182815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1664571762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16194629669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10330843925476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1078188419342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13939309120178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12135100364685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04015946388245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02211689949036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00407457351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9950532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15292525291443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1303722858429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11684012413025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04467010498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96347904205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89130902290344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92739391326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85973477363586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83267092704773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86875605583191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90484094619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.886798620224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85071349143982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97701096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87777733802795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85522413253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86424541473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81462836265564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77854323387146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76952242851257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73794794082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68833112716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67028856277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63420367240906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59811878204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61616110801697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6026291847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54399085044861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62518239021301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0311381816864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01309585571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06271266937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24313759803772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23411655426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25666952133179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35590314865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36492466926575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54986000061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48220062255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55437064170837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52730703353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56339192390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58143424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51377487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49573278427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62654042243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75283789634705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79794430732727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82500767707825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791356086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73028492927551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73479533195496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72577428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69871044158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68066787719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61751961708069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60849809646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64458298683167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57692360877991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66262555122375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64909362792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8204972743988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81598663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80696558952332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77990174293518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85207200050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91522073745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734877586365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8430507183075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8565821647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83854007720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84756112098694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79343366622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76185917854309</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.68968963623047</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64586853981018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71598124504089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72912812232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70283579826355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04901790618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03587198257446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97890543937683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00957870483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09721994400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18047952651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22430038452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32946920394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33385133743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52227926254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51351594924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68003416061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67126941680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58362817764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64497756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57486438751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62744903564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68879795074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87284421920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90789985656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79396677017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74138164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82025909423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81149482727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7852029800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77643823623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80273103713989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76767444610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65374088287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5923924446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63621282577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60115623474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61868524551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86407947540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75891017913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70632553100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82902336120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73261880874634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32070541381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24182891845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28564882278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45216655731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69756174087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19800758361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82553315162659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54069948196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43114805221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37856364250183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22957396507263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28654050827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86148118972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97541475296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9228298664093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94474029541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78698635101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72125554084778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8570990562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66428875923157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77822208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97979664802551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87024545669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75631189346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71249127388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90091967582703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82204270362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84395289421082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76069378852844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76507616043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90968370437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94912219047546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98856091499329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06743788719177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02361702919006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99732518196106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00170660018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04114556312561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07182002067566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00608921051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03676319122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01047086715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16822504997253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10249423980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11125826835632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14631462097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19451713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09372997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15507864952087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25586581230164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.312833070755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22519159317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21204543113708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24710154533386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.198899269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18137121200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37418127059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45305871963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50564312934875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55384540557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5319356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54946374893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38294553756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36103510856628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26024842262268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44867634773254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44429445266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41800236701965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43991231918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49687910079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51002526283264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51440739631653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83402919769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78892278671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70322108268738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65360450744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59045577049255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57241320610046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50024342536926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51828598976135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42807292938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45513677597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48671102523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38747763633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40552020072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38296699523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33786082267761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34688210487366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29275441169739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15743589401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24764800071716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31981825828552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27020144462585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22960567474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22058439254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20254182815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1664571762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16194653511047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10330843925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10781908035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13939332962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12135100364685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04015946388245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02211713790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00407433509827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9950532913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15292501449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1303722858429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11684012413025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04467034339905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9634792804718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89130902290344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92739391326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85973477363586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83267116546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86875605583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90484118461609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.886798620224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85071349143982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97701096534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87777733802795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85522413253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86424517631531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81462836265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77854347229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76952242851257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.737948179245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68833112716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67028856277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63420343399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59811854362488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61616134643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60262942314148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54399108886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62518239021301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0311381816864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01309585571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06271290779114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24313759803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23411631584167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25666928291321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35590314865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36492443084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54986000061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48220062255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55437064170837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52730703353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56339192390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58143424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51377487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49573254585266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62654042243958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75283765792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79794454574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82500767707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791356086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73028516769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73479509353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72577428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69871044158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68066787719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61751937866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60849809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64458298683167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57692384719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66262531280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64909362792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82049775123596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81598687171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80696511268616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7799015045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85207152366638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91522073745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734829902649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8430507183075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8565821647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83853983879089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84756112098694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79343342781067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76185917854309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68968939781189</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.6716468334198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73930621147156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7844123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86109280586243</t>
+    <t xml:space="preserve">3.7393057346344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78441262245178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86109304428101</t>
   </si>
   <si>
     <t xml:space="preserve">4.00543308258057</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0189642906189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07760238647461</t>
+    <t xml:space="preserve">4.01896476745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07760286331177</t>
   </si>
   <si>
     <t xml:space="preserve">4.09131669998169</t>
@@ -2552,16 +2552,16 @@
     <t xml:space="preserve">4.24674081802368</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21931266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28331136703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22388458251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1873140335083</t>
+    <t xml:space="preserve">4.21931314468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28331089019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22388410568237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18731355667114</t>
   </si>
   <si>
     <t xml:space="preserve">4.15074348449707</t>
@@ -2573,13 +2573,13 @@
     <t xml:space="preserve">4.05931758880615</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1096019744873</t>
+    <t xml:space="preserve">4.10960149765015</t>
   </si>
   <si>
     <t xml:space="preserve">4.13702964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16902828216553</t>
+    <t xml:space="preserve">4.16902875900269</t>
   </si>
   <si>
     <t xml:space="preserve">4.05474615097046</t>
@@ -2600,10 +2600,10 @@
     <t xml:space="preserve">4.03188943862915</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04560327529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12331581115723</t>
+    <t xml:space="preserve">4.04560375213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12331628799438</t>
   </si>
   <si>
     <t xml:space="preserve">4.15988636016846</t>
@@ -2621,16 +2621,16 @@
     <t xml:space="preserve">4.19188499450684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1416015625</t>
+    <t xml:space="preserve">4.14160108566284</t>
   </si>
   <si>
     <t xml:space="preserve">4.27873992919922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29702472686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23302745819092</t>
+    <t xml:space="preserve">4.29702520370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23302698135376</t>
   </si>
   <si>
     <t xml:space="preserve">4.20559930801392</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">4.10045957565308</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14617204666138</t>
+    <t xml:space="preserve">4.14617252349854</t>
   </si>
   <si>
     <t xml:space="preserve">4.29245376586914</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">3.95874857902527</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95417714118958</t>
+    <t xml:space="preserve">3.95417761802673</t>
   </si>
   <si>
     <t xml:space="preserve">3.88560795783997</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">3.78961062431335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73932647705078</t>
+    <t xml:space="preserve">3.73932671546936</t>
   </si>
   <si>
     <t xml:space="preserve">3.9084644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01360464096069</t>
+    <t xml:space="preserve">4.01360416412354</t>
   </si>
   <si>
     <t xml:space="preserve">4.02274703979492</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">4.07303094863892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06388902664185</t>
+    <t xml:space="preserve">4.06388854980469</t>
   </si>
   <si>
     <t xml:space="preserve">4.10503053665161</t>
@@ -2705,16 +2705,16 @@
     <t xml:space="preserve">4.00903367996216</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05017423629761</t>
+    <t xml:space="preserve">4.05017471313477</t>
   </si>
   <si>
     <t xml:space="preserve">4.18274259567261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23759889602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17359972000122</t>
+    <t xml:space="preserve">4.23759841918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17360019683838</t>
   </si>
   <si>
     <t xml:space="preserve">4.31073951721191</t>
@@ -2723,10 +2723,10 @@
     <t xml:space="preserve">4.35188102722168</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32902479171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2147421836853</t>
+    <t xml:space="preserve">4.32902431488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21474170684814</t>
   </si>
   <si>
     <t xml:space="preserve">4.21017074584961</t>
@@ -2741,13 +2741,13 @@
     <t xml:space="preserve">4.37930870056152</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49359130859375</t>
+    <t xml:space="preserve">4.49359083175659</t>
   </si>
   <si>
     <t xml:space="preserve">4.52558994293213</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5713038444519</t>
+    <t xml:space="preserve">4.57130336761475</t>
   </si>
   <si>
     <t xml:space="preserve">4.62615919113159</t>
@@ -2756,10 +2756,10 @@
     <t xml:space="preserve">4.64444446563721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65358686447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59873151779175</t>
+    <t xml:space="preserve">4.65358734130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59873104095459</t>
   </si>
   <si>
     <t xml:space="preserve">4.5438756942749</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">4.69015741348267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56673192977905</t>
+    <t xml:space="preserve">4.56673240661621</t>
   </si>
   <si>
     <t xml:space="preserve">4.66272974014282</t>
@@ -2801,22 +2801,22 @@
     <t xml:space="preserve">4.53930473327637</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36102390289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68101453781128</t>
+    <t xml:space="preserve">4.36102342605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68101501464844</t>
   </si>
   <si>
     <t xml:space="preserve">4.75415563583374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74501323699951</t>
+    <t xml:space="preserve">4.74501276016235</t>
   </si>
   <si>
     <t xml:space="preserve">4.80901145935059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85472393035889</t>
+    <t xml:space="preserve">4.85472440719604</t>
   </si>
   <si>
     <t xml:space="preserve">4.86386680603027</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">4.99186372756958</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01929092407227</t>
+    <t xml:space="preserve">5.01929140090942</t>
   </si>
   <si>
     <t xml:space="preserve">4.98272085189819</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1564302444458</t>
+    <t xml:space="preserve">5.15642976760864</t>
   </si>
   <si>
     <t xml:space="preserve">5.11985969543457</t>
@@ -2861,7 +2861,7 @@
     <t xml:space="preserve">5.36671018600464</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3849949836731</t>
+    <t xml:space="preserve">5.38499546051025</t>
   </si>
   <si>
     <t xml:space="preserve">5.62270355224609</t>
@@ -2879,13 +2879,13 @@
     <t xml:space="preserve">5.30271196365356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28442716598511</t>
+    <t xml:space="preserve">5.28442668914795</t>
   </si>
   <si>
     <t xml:space="preserve">5.17471504211426</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19300031661987</t>
+    <t xml:space="preserve">5.19300079345703</t>
   </si>
   <si>
     <t xml:space="preserve">5.09243249893188</t>
@@ -2906,13 +2906,13 @@
     <t xml:space="preserve">5.07414674758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00100564956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96443557739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13814544677734</t>
+    <t xml:space="preserve">5.00100612640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96443510055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13814496994019</t>
   </si>
   <si>
     <t xml:space="preserve">5.05586194992065</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">4.7998685836792</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61701679229736</t>
+    <t xml:space="preserve">4.61701631546021</t>
   </si>
   <si>
     <t xml:space="preserve">4.50730514526367</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">5.06500434875488</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22042846679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33014011383057</t>
+    <t xml:space="preserve">5.22042894363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33013963699341</t>
   </si>
   <si>
     <t xml:space="preserve">5.4124231338501</t>
@@ -2960,16 +2960,16 @@
     <t xml:space="preserve">5.53127717971802</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39413785934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5404200553894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66841650009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74155759811401</t>
+    <t xml:space="preserve">5.39413833618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54041957855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66841602325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74155712127686</t>
   </si>
   <si>
     <t xml:space="preserve">5.63184547424316</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">5.73241424560547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65013074874878</t>
+    <t xml:space="preserve">5.65013122558594</t>
   </si>
   <si>
     <t xml:space="preserve">5.4823055267334</t>
@@ -7301,7 +7301,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G121" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -7327,7 +7327,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G122" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -7353,7 +7353,7 @@
         <v>3.08599996566772</v>
       </c>
       <c r="G123" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -7379,7 +7379,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G124" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -7405,7 +7405,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G125" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -7431,7 +7431,7 @@
         <v>2.75</v>
       </c>
       <c r="G126" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -7457,7 +7457,7 @@
         <v>2.82399988174438</v>
       </c>
       <c r="G127" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -7483,7 +7483,7 @@
         <v>2.79800009727478</v>
       </c>
       <c r="G128" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -7509,7 +7509,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G129" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -7535,7 +7535,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G130" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -7561,7 +7561,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G131" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -7587,7 +7587,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G132" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -7613,7 +7613,7 @@
         <v>2.73799991607666</v>
       </c>
       <c r="G133" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -7639,7 +7639,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G134" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7665,7 +7665,7 @@
         <v>2.83599996566772</v>
       </c>
       <c r="G135" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -7691,7 +7691,7 @@
         <v>2.86800003051758</v>
       </c>
       <c r="G136" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7717,7 +7717,7 @@
         <v>2.87400007247925</v>
       </c>
       <c r="G137" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -7743,7 +7743,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G138" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -7769,7 +7769,7 @@
         <v>2.85400009155273</v>
       </c>
       <c r="G139" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7795,7 +7795,7 @@
         <v>2.85400009155273</v>
       </c>
       <c r="G140" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7821,7 +7821,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -7847,7 +7847,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G142" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -7873,7 +7873,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G143" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -7899,7 +7899,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G144" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -7951,7 +7951,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G146" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -7977,7 +7977,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G147" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8029,7 +8029,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G149" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8055,7 +8055,7 @@
         <v>3.19400000572205</v>
       </c>
       <c r="G150" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8081,7 +8081,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G151" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8185,7 +8185,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G155" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8211,7 +8211,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G156" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8237,7 +8237,7 @@
         <v>3.16599988937378</v>
       </c>
       <c r="G157" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8263,7 +8263,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G158" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8289,7 +8289,7 @@
         <v>3.15799999237061</v>
       </c>
       <c r="G159" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8315,7 +8315,7 @@
         <v>3.1159999370575</v>
       </c>
       <c r="G160" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8341,7 +8341,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G161" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8367,7 +8367,7 @@
         <v>3.12199997901917</v>
       </c>
       <c r="G162" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8393,7 +8393,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G163" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8419,7 +8419,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G164" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8445,7 +8445,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G165" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8471,7 +8471,7 @@
         <v>3.24399995803833</v>
       </c>
       <c r="G166" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8497,7 +8497,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G167" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8523,7 +8523,7 @@
         <v>3.24399995803833</v>
       </c>
       <c r="G168" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8549,7 +8549,7 @@
         <v>3.25600004196167</v>
       </c>
       <c r="G169" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8575,7 +8575,7 @@
         <v>3.26399993896484</v>
       </c>
       <c r="G170" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8601,7 +8601,7 @@
         <v>3.24600005149841</v>
       </c>
       <c r="G171" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8627,7 +8627,7 @@
         <v>3.25</v>
       </c>
       <c r="G172" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8653,7 +8653,7 @@
         <v>3.31200003623962</v>
       </c>
       <c r="G173" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -8679,7 +8679,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G174" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8705,7 +8705,7 @@
         <v>3.43600010871887</v>
       </c>
       <c r="G175" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -8731,7 +8731,7 @@
         <v>3.43600010871887</v>
       </c>
       <c r="G176" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8783,7 +8783,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G178" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8809,7 +8809,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G179" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8835,7 +8835,7 @@
         <v>3.26600003242493</v>
       </c>
       <c r="G180" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -8861,7 +8861,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G181" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -8887,7 +8887,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G182" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -8913,7 +8913,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G183" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -8939,7 +8939,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G184" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -8965,7 +8965,7 @@
         <v>3.35599994659424</v>
       </c>
       <c r="G185" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -8991,7 +8991,7 @@
         <v>3.37199997901917</v>
       </c>
       <c r="G186" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9017,7 +9017,7 @@
         <v>3.40799999237061</v>
       </c>
       <c r="G187" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9043,7 +9043,7 @@
         <v>3.44600009918213</v>
       </c>
       <c r="G188" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9069,7 +9069,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G189" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9095,7 +9095,7 @@
         <v>3.31599998474121</v>
       </c>
       <c r="G190" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9121,7 +9121,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G191" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9147,7 +9147,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G192" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9173,7 +9173,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G193" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9199,7 +9199,7 @@
         <v>3.19600009918213</v>
       </c>
       <c r="G194" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9251,7 +9251,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G196" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9329,7 +9329,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G199" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9355,7 +9355,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G200" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9381,7 +9381,7 @@
         <v>3.30800008773804</v>
       </c>
       <c r="G201" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9407,7 +9407,7 @@
         <v>3.20199990272522</v>
       </c>
       <c r="G202" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9433,7 +9433,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G203" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9459,7 +9459,7 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G204" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9485,7 +9485,7 @@
         <v>3.33400011062622</v>
       </c>
       <c r="G205" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9511,7 +9511,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G206" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9537,7 +9537,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G207" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9563,7 +9563,7 @@
         <v>3.35400009155273</v>
       </c>
       <c r="G208" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9589,7 +9589,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G209" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9615,7 +9615,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G210" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9641,7 +9641,7 @@
         <v>3.37599992752075</v>
       </c>
       <c r="G211" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9667,7 +9667,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G212" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9693,7 +9693,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G213" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9719,7 +9719,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G214" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9745,7 +9745,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G215" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9771,7 +9771,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G216" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9797,7 +9797,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G217" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9823,7 +9823,7 @@
         <v>3.25</v>
       </c>
       <c r="G218" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9849,7 +9849,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G219" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -9875,7 +9875,7 @@
         <v>3.21399998664856</v>
       </c>
       <c r="G220" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -9901,7 +9901,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G221" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -9927,7 +9927,7 @@
         <v>3.36199998855591</v>
       </c>
       <c r="G222" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -9979,7 +9979,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G224" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10005,7 +10005,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G225" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10031,7 +10031,7 @@
         <v>3.2279999256134</v>
       </c>
       <c r="G226" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10057,7 +10057,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G227" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10083,7 +10083,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G228" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10161,7 +10161,7 @@
         <v>3.14199995994568</v>
       </c>
       <c r="G231" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10187,7 +10187,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G232" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10213,7 +10213,7 @@
         <v>3.13800001144409</v>
       </c>
       <c r="G233" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10239,7 +10239,7 @@
         <v>3.09200000762939</v>
       </c>
       <c r="G234" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10265,7 +10265,7 @@
         <v>3.03600001335144</v>
       </c>
       <c r="G235" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10291,7 +10291,7 @@
         <v>3.03600001335144</v>
       </c>
       <c r="G236" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10317,7 +10317,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G237" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10343,7 +10343,7 @@
         <v>3.07800006866455</v>
       </c>
       <c r="G238" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10395,7 +10395,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G240" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10447,7 +10447,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G242" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10473,7 +10473,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G243" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10499,7 +10499,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G244" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10525,7 +10525,7 @@
         <v>3.23799991607666</v>
       </c>
       <c r="G245" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10551,7 +10551,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G246" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10577,7 +10577,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G247" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10603,7 +10603,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G248" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10629,7 +10629,7 @@
         <v>3.25</v>
       </c>
       <c r="G249" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -10681,7 +10681,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G251" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10707,7 +10707,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G252" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -10733,7 +10733,7 @@
         <v>3.26799988746643</v>
       </c>
       <c r="G253" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -10759,7 +10759,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G254" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10785,7 +10785,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G255" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -10811,7 +10811,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G256" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -10837,7 +10837,7 @@
         <v>3.35199999809265</v>
       </c>
       <c r="G257" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -10863,7 +10863,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G258" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -10889,7 +10889,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G259" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -10915,7 +10915,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G260" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -10941,7 +10941,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G261" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -10967,7 +10967,7 @@
         <v>3.41799998283386</v>
       </c>
       <c r="G262" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -10993,7 +10993,7 @@
         <v>3.32200002670288</v>
       </c>
       <c r="G263" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11019,7 +11019,7 @@
         <v>3.35199999809265</v>
       </c>
       <c r="G264" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11045,7 +11045,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G265" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11071,7 +11071,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G266" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11097,7 +11097,7 @@
         <v>3.41199994087219</v>
       </c>
       <c r="G267" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11123,7 +11123,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G268" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11149,7 +11149,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G269" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11175,7 +11175,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G270" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11227,7 +11227,7 @@
         <v>3.30800008773804</v>
       </c>
       <c r="G272" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11331,7 +11331,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G276" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11357,7 +11357,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G277" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11383,7 +11383,7 @@
         <v>3.25</v>
       </c>
       <c r="G278" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11409,7 +11409,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G279" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11435,7 +11435,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G280" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11513,7 +11513,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G283" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11539,7 +11539,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G284" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11565,7 +11565,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G285" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11591,7 +11591,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G286" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11617,7 +11617,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G287" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11643,7 +11643,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G288" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11669,7 +11669,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G289" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11695,7 +11695,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G290" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11747,7 +11747,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G292" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11773,7 +11773,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G293" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11799,7 +11799,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G294" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11825,7 +11825,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G295" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11851,7 +11851,7 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G296" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -11903,7 +11903,7 @@
         <v>3.24600005149841</v>
       </c>
       <c r="G298" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -11955,7 +11955,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G300" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -11981,7 +11981,7 @@
         <v>3.23200011253357</v>
       </c>
       <c r="G301" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12007,7 +12007,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G302" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12033,7 +12033,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G303" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12059,7 +12059,7 @@
         <v>3.25</v>
       </c>
       <c r="G304" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12085,7 +12085,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G305" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12111,7 +12111,7 @@
         <v>3.31399989128113</v>
       </c>
       <c r="G306" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12137,7 +12137,7 @@
         <v>3.31599998474121</v>
       </c>
       <c r="G307" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12163,7 +12163,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G308" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12189,7 +12189,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G309" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12215,7 +12215,7 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G310" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12241,7 +12241,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G311" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12267,7 +12267,7 @@
         <v>3.35400009155273</v>
       </c>
       <c r="G312" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12319,7 +12319,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G314" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12345,7 +12345,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G315" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12371,7 +12371,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G316" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12397,7 +12397,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G317" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12423,7 +12423,7 @@
         <v>3.65400004386902</v>
       </c>
       <c r="G318" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12449,7 +12449,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G319" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12475,7 +12475,7 @@
         <v>3.64599990844727</v>
       </c>
       <c r="G320" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12501,7 +12501,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G321" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12527,7 +12527,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G322" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12553,7 +12553,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G323" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12579,7 +12579,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G324" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12605,7 +12605,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G325" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12631,7 +12631,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G326" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12657,7 +12657,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G327" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12683,7 +12683,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G328" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12709,7 +12709,7 @@
         <v>3.54200005531311</v>
       </c>
       <c r="G329" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12735,7 +12735,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G330" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12761,7 +12761,7 @@
         <v>3.5</v>
       </c>
       <c r="G331" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12787,7 +12787,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G332" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12813,7 +12813,7 @@
         <v>3.50600004196167</v>
       </c>
       <c r="G333" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12839,7 +12839,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G334" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -12865,7 +12865,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G335" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -12891,7 +12891,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G336" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -12917,7 +12917,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G337" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -12943,7 +12943,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G338" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -12969,7 +12969,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G339" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -12995,7 +12995,7 @@
         <v>3.58599996566772</v>
       </c>
       <c r="G340" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13021,7 +13021,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G341" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13047,7 +13047,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G342" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13073,7 +13073,7 @@
         <v>3.58800005912781</v>
       </c>
       <c r="G343" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13099,7 +13099,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G344" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13125,7 +13125,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G345" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13151,7 +13151,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G346" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13177,7 +13177,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G347" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13203,7 +13203,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G348" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13229,7 +13229,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G349" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13255,7 +13255,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G350" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13281,7 +13281,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G351" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13307,7 +13307,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G352" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13333,7 +13333,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G353" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13359,7 +13359,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G354" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13385,7 +13385,7 @@
         <v>3.74799990653992</v>
       </c>
       <c r="G355" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13411,7 +13411,7 @@
         <v>3.7720000743866</v>
       </c>
       <c r="G356" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13437,7 +13437,7 @@
         <v>3.83599996566772</v>
       </c>
       <c r="G357" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13463,7 +13463,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G358" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13489,7 +13489,7 @@
         <v>3.80599999427795</v>
       </c>
       <c r="G359" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13515,7 +13515,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G360" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13541,7 +13541,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G361" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13567,7 +13567,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G362" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13593,7 +13593,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G363" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13619,7 +13619,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G364" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13645,7 +13645,7 @@
         <v>3.93199992179871</v>
       </c>
       <c r="G365" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13671,7 +13671,7 @@
         <v>3.89400005340576</v>
       </c>
       <c r="G366" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13697,7 +13697,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G367" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13723,7 +13723,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G368" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13749,7 +13749,7 @@
         <v>3.81800007820129</v>
       </c>
       <c r="G369" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13775,7 +13775,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G370" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13801,7 +13801,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G371" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13827,7 +13827,7 @@
         <v>3.72399997711182</v>
       </c>
       <c r="G372" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -13853,7 +13853,7 @@
         <v>3.72199988365173</v>
       </c>
       <c r="G373" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -13879,7 +13879,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G374" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13905,7 +13905,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G375" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -13931,7 +13931,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G376" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -13957,7 +13957,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G377" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13983,7 +13983,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G378" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14009,7 +14009,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G379" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14035,7 +14035,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G380" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14061,7 +14061,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G381" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14087,7 +14087,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G382" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14113,7 +14113,7 @@
         <v>3.55599999427795</v>
       </c>
       <c r="G383" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14139,7 +14139,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G384" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14165,7 +14165,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G385" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14191,7 +14191,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G386" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14217,7 +14217,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G387" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14243,7 +14243,7 @@
         <v>3.76200008392334</v>
       </c>
       <c r="G388" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14269,7 +14269,7 @@
         <v>3.76600003242493</v>
       </c>
       <c r="G389" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14295,7 +14295,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G390" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14321,7 +14321,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G391" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14347,7 +14347,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G392" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14373,7 +14373,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G393" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14399,7 +14399,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G394" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14425,7 +14425,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G395" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14451,7 +14451,7 @@
         <v>3.93799996376038</v>
       </c>
       <c r="G396" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14477,7 +14477,7 @@
         <v>3.98799991607666</v>
       </c>
       <c r="G397" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14503,7 +14503,7 @@
         <v>4.00400018692017</v>
       </c>
       <c r="G398" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14529,7 +14529,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G399" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14555,7 +14555,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G400" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14581,7 +14581,7 @@
         <v>3.90199995040894</v>
       </c>
       <c r="G401" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14607,7 +14607,7 @@
         <v>3.93400001525879</v>
       </c>
       <c r="G402" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14633,7 +14633,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G403" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14659,7 +14659,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G404" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14685,7 +14685,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G405" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14711,7 +14711,7 @@
         <v>3.75</v>
       </c>
       <c r="G406" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14737,7 +14737,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G407" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14763,7 +14763,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G408" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14789,7 +14789,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G409" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14815,7 +14815,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G410" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14841,7 +14841,7 @@
         <v>3.75</v>
       </c>
       <c r="G411" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14867,7 +14867,7 @@
         <v>3.75</v>
       </c>
       <c r="G412" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -14893,7 +14893,7 @@
         <v>3.69400000572205</v>
       </c>
       <c r="G413" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14919,7 +14919,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G414" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14945,7 +14945,7 @@
         <v>3.73399996757507</v>
       </c>
       <c r="G415" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14971,7 +14971,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G416" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14997,7 +14997,7 @@
         <v>3.78600001335144</v>
       </c>
       <c r="G417" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15023,7 +15023,7 @@
         <v>3.7720000743866</v>
       </c>
       <c r="G418" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15049,7 +15049,7 @@
         <v>3.76600003242493</v>
       </c>
       <c r="G419" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15075,7 +15075,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G420" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15101,7 +15101,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15127,7 +15127,7 @@
         <v>3.69400000572205</v>
       </c>
       <c r="G422" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15153,7 +15153,7 @@
         <v>3.74600005149841</v>
       </c>
       <c r="G423" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15179,7 +15179,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G424" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15205,7 +15205,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G425" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15231,7 +15231,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G426" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15257,7 +15257,7 @@
         <v>3.75</v>
       </c>
       <c r="G427" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15283,7 +15283,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G428" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15309,7 +15309,7 @@
         <v>3.76399993896484</v>
       </c>
       <c r="G429" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15335,7 +15335,7 @@
         <v>3.75799989700317</v>
       </c>
       <c r="G430" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15361,7 +15361,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G431" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15387,7 +15387,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G432" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15413,7 +15413,7 @@
         <v>3.7960000038147</v>
       </c>
       <c r="G433" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15439,7 +15439,7 @@
         <v>3.80800008773804</v>
       </c>
       <c r="G434" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15465,7 +15465,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G435" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15491,7 +15491,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G436" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15517,7 +15517,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G437" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15543,7 +15543,7 @@
         <v>3.82200002670288</v>
       </c>
       <c r="G438" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15569,7 +15569,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G439" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15595,7 +15595,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G440" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15621,7 +15621,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G441" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15647,7 +15647,7 @@
         <v>3.81800007820129</v>
       </c>
       <c r="G442" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15673,7 +15673,7 @@
         <v>3.85400009155273</v>
       </c>
       <c r="G443" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15699,7 +15699,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G444" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15725,7 +15725,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G445" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15751,7 +15751,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G446" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15777,7 +15777,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G447" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15803,7 +15803,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G448" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15829,7 +15829,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G449" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15855,7 +15855,7 @@
         <v>3.75399994850159</v>
       </c>
       <c r="G450" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15881,7 +15881,7 @@
         <v>3.75600004196167</v>
       </c>
       <c r="G451" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15907,7 +15907,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G452" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15933,7 +15933,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G453" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15959,7 +15959,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G454" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15985,7 +15985,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G455" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16011,7 +16011,7 @@
         <v>3.73399996757507</v>
       </c>
       <c r="G456" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16037,7 +16037,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G457" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16063,7 +16063,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G458" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16089,7 +16089,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G459" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16115,7 +16115,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G460" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16141,7 +16141,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G461" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16167,7 +16167,7 @@
         <v>3.75</v>
       </c>
       <c r="G462" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16193,7 +16193,7 @@
         <v>3.75</v>
       </c>
       <c r="G463" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16219,7 +16219,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G464" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16245,7 +16245,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G465" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16271,7 +16271,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G466" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16297,7 +16297,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G467" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16323,7 +16323,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G468" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16349,7 +16349,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G469" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16375,7 +16375,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16401,7 +16401,7 @@
         <v>3.5239999294281</v>
       </c>
       <c r="G471" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16427,7 +16427,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G472" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16453,7 +16453,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G473" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16479,7 +16479,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G474" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16505,7 +16505,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G475" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16531,7 +16531,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G476" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16557,7 +16557,7 @@
         <v>3.43799996376038</v>
       </c>
       <c r="G477" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16583,7 +16583,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G478" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16609,7 +16609,7 @@
         <v>3.40400004386902</v>
       </c>
       <c r="G479" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16635,7 +16635,7 @@
         <v>3.48600006103516</v>
       </c>
       <c r="G480" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16661,7 +16661,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16687,7 +16687,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G482" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16713,7 +16713,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G483" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16739,7 +16739,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G484" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16765,7 +16765,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G485" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16791,7 +16791,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G486" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16817,7 +16817,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G487" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16843,7 +16843,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G488" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16869,7 +16869,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G489" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16895,7 +16895,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G490" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16921,7 +16921,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G491" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16947,7 +16947,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16973,7 +16973,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G493" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16999,7 +16999,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G494" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17025,7 +17025,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G495" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17051,7 +17051,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G496" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17077,7 +17077,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G497" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17103,7 +17103,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G498" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17129,7 +17129,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G499" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17155,7 +17155,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G500" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17181,7 +17181,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G501" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17207,7 +17207,7 @@
         <v>3.70799994468689</v>
       </c>
       <c r="G502" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17233,7 +17233,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G503" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17259,7 +17259,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G504" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17285,7 +17285,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G505" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17311,7 +17311,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G506" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17337,7 +17337,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G507" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17363,7 +17363,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G508" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17389,7 +17389,7 @@
         <v>3.69600009918213</v>
       </c>
       <c r="G509" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17415,7 +17415,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G510" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17441,7 +17441,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G511" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17467,7 +17467,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G512" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17493,7 +17493,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G513" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17519,7 +17519,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G514" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17545,7 +17545,7 @@
         <v>3.76500010490417</v>
       </c>
       <c r="G515" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17571,7 +17571,7 @@
         <v>3.71499991416931</v>
       </c>
       <c r="G516" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17597,7 +17597,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G517" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17623,7 +17623,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G518" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17649,7 +17649,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G519" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17675,7 +17675,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G520" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17701,7 +17701,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G521" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17727,7 +17727,7 @@
         <v>3.89499998092651</v>
       </c>
       <c r="G522" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17753,7 +17753,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G523" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17779,7 +17779,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G524" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17805,7 +17805,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G525" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17831,7 +17831,7 @@
         <v>3.84500002861023</v>
       </c>
       <c r="G526" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17857,7 +17857,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G527" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17883,7 +17883,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G528" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -17909,7 +17909,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G529" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17935,7 +17935,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G530" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17961,7 +17961,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G531" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17987,7 +17987,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G532" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18013,7 +18013,7 @@
         <v>3.75</v>
       </c>
       <c r="G533" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18039,7 +18039,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G534" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18065,7 +18065,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G535" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18091,7 +18091,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G536" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18117,7 +18117,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G537" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18143,7 +18143,7 @@
         <v>3.60500001907349</v>
       </c>
       <c r="G538" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18169,7 +18169,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G539" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18195,7 +18195,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G540" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18221,7 +18221,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G541" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18247,7 +18247,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18273,7 +18273,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18299,7 +18299,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G544" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18325,7 +18325,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G545" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18351,7 +18351,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G546" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18377,7 +18377,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G547" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18403,7 +18403,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G548" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18429,7 +18429,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G549" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18455,7 +18455,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G550" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18481,7 +18481,7 @@
         <v>3.6949999332428</v>
       </c>
       <c r="G551" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18507,7 +18507,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G552" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18533,7 +18533,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G553" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18559,7 +18559,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G554" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18585,7 +18585,7 @@
         <v>3.53500008583069</v>
       </c>
       <c r="G555" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18611,7 +18611,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G556" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18637,7 +18637,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G557" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18663,7 +18663,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G558" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18689,7 +18689,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G559" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18715,7 +18715,7 @@
         <v>3.73499989509583</v>
       </c>
       <c r="G560" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18741,7 +18741,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18767,7 +18767,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G562" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18793,7 +18793,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G563" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18819,7 +18819,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G564" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18845,7 +18845,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G565" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18871,7 +18871,7 @@
         <v>3.71499991416931</v>
       </c>
       <c r="G566" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18897,7 +18897,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G567" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18923,7 +18923,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G568" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18949,7 +18949,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G569" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18975,7 +18975,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G570" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19001,7 +19001,7 @@
         <v>3.68499994277954</v>
       </c>
       <c r="G571" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19027,7 +19027,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G572" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19053,7 +19053,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G573" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19079,7 +19079,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G574" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19105,7 +19105,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G575" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19131,7 +19131,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G576" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19157,7 +19157,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G577" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19183,7 +19183,7 @@
         <v>3.73499989509583</v>
       </c>
       <c r="G578" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19209,7 +19209,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G579" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19235,7 +19235,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G580" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19261,7 +19261,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G581" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19287,7 +19287,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G582" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19313,7 +19313,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G583" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19339,7 +19339,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G584" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19365,7 +19365,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G585" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19391,7 +19391,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G586" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19417,7 +19417,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G587" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19443,7 +19443,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G588" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19469,7 +19469,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G589" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19495,7 +19495,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G590" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19521,7 +19521,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G591" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19547,7 +19547,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G592" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19573,7 +19573,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G593" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19599,7 +19599,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G594" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19625,7 +19625,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G595" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19651,7 +19651,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G596" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19677,7 +19677,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G597" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19703,7 +19703,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G598" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19729,7 +19729,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G599" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19755,7 +19755,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G600" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19781,7 +19781,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G601" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19807,7 +19807,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G602" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19833,7 +19833,7 @@
         <v>3.97499990463257</v>
       </c>
       <c r="G603" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19859,7 +19859,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G604" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19885,7 +19885,7 @@
         <v>3.85500001907349</v>
       </c>
       <c r="G605" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19911,7 +19911,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G606" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19937,7 +19937,7 @@
         <v>3.84500002861023</v>
       </c>
       <c r="G607" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19963,7 +19963,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G608" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19989,7 +19989,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G609" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20015,7 +20015,7 @@
         <v>3.82500004768372</v>
       </c>
       <c r="G610" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20041,7 +20041,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G611" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20067,7 +20067,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G612" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20093,7 +20093,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G613" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20119,7 +20119,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G614" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20145,7 +20145,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G615" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20171,7 +20171,7 @@
         <v>3.74499988555908</v>
       </c>
       <c r="G616" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20197,7 +20197,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G617" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20223,7 +20223,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G618" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20249,7 +20249,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G619" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20275,7 +20275,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G620" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20301,7 +20301,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G621" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20327,7 +20327,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G622" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20353,7 +20353,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20379,7 +20379,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20405,7 +20405,7 @@
         <v>3.78500008583069</v>
       </c>
       <c r="G625" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20639,7 +20639,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G634" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20899,7 +20899,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G644" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20977,7 +20977,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G647" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21029,7 +21029,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G649" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -60193,7 +60193,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6496180556</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>15418</v>
@@ -60214,6 +60214,32 @@
         <v>1265</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6495949074</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>19133</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>3.6800000667572</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>3.59999990463257</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>3.65000009536743</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>3.63000011444092</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BAN.MI.xlsx
+++ b/data/BAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1271">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,58 +44,58 @@
     <t xml:space="preserve">BAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7572455406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66247081756592</t>
+    <t xml:space="preserve">3.75724625587463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66247177124023</t>
   </si>
   <si>
     <t xml:space="preserve">3.53235721588135</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48737931251526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42473220825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51468753814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53396391868591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5211124420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50022983551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45203995704651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47774124145508</t>
+    <t xml:space="preserve">3.48737978935242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42473173141479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51468706130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53396320343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52111220359802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50023007392883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45203971862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4777410030365</t>
   </si>
   <si>
     <t xml:space="preserve">3.1789608001709</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30586242675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35726499557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27694773674011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33317017555237</t>
+    <t xml:space="preserve">3.30586266517639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35726547241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27694797515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33317041397095</t>
   </si>
   <si>
     <t xml:space="preserve">3.25767183303833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19663071632385</t>
+    <t xml:space="preserve">3.19663095474243</t>
   </si>
   <si>
     <t xml:space="preserve">3.29301142692566</t>
@@ -107,37 +107,37 @@
     <t xml:space="preserve">3.23678946495056</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1323766708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21269416809082</t>
+    <t xml:space="preserve">3.13237690925598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21269392967224</t>
   </si>
   <si>
     <t xml:space="preserve">3.11149454116821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98780536651611</t>
+    <t xml:space="preserve">2.98780512809753</t>
   </si>
   <si>
     <t xml:space="preserve">2.9717423915863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89142441749573</t>
+    <t xml:space="preserve">2.89142489433289</t>
   </si>
   <si>
     <t xml:space="preserve">2.88339304924011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80789494514465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80950093269348</t>
+    <t xml:space="preserve">2.80789470672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8095006942749</t>
   </si>
   <si>
     <t xml:space="preserve">2.81110739707947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95246624946594</t>
+    <t xml:space="preserve">2.95246601104736</t>
   </si>
   <si>
     <t xml:space="preserve">3.04242157936096</t>
@@ -149,13 +149,13 @@
     <t xml:space="preserve">3.05366587638855</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12113261222839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17253541946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13077020645142</t>
+    <t xml:space="preserve">3.12113213539124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17253565788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13077044487</t>
   </si>
   <si>
     <t xml:space="preserve">3.02314519882202</t>
@@ -164,103 +164,103 @@
     <t xml:space="preserve">3.05205941200256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06812286376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0359959602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12434506416321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18056702613831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24482107162476</t>
+    <t xml:space="preserve">3.06812262535095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03599619865417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12434554100037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18056726455688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24482131004333</t>
   </si>
   <si>
     <t xml:space="preserve">3.16450381278992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19984316825867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29783058166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40545535087585</t>
+    <t xml:space="preserve">3.19984340667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29783034324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40545558929443</t>
   </si>
   <si>
     <t xml:space="preserve">3.37332844734192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30907464027405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3074688911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18859887123108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2608847618103</t>
+    <t xml:space="preserve">3.30907487869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30746912956238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18859910964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26088452339172</t>
   </si>
   <si>
     <t xml:space="preserve">3.26730990409851</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16611003875732</t>
+    <t xml:space="preserve">3.16610980033875</t>
   </si>
   <si>
     <t xml:space="preserve">3.1757481098175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20466279983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10828137397766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06009125709534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01993227005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15647220611572</t>
+    <t xml:space="preserve">3.20466232299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10828185081482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06009101867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01993274688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15647172927856</t>
   </si>
   <si>
     <t xml:space="preserve">3.0279643535614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92033910751343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93158316612244</t>
+    <t xml:space="preserve">2.92033886909485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93158340454102</t>
   </si>
   <si>
     <t xml:space="preserve">2.96852946281433</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04563426971436</t>
+    <t xml:space="preserve">3.04563403129578</t>
   </si>
   <si>
     <t xml:space="preserve">3.06169748306274</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07615423202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98619914054871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9797739982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91552019119263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87054204940796</t>
+    <t xml:space="preserve">3.07615447044373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98619890213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97977375984192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91551995277405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87054181098938</t>
   </si>
   <si>
     <t xml:space="preserve">2.89785027503967</t>
@@ -284,16 +284,16 @@
     <t xml:space="preserve">2.81913900375366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83520245552063</t>
+    <t xml:space="preserve">2.83520269393921</t>
   </si>
   <si>
     <t xml:space="preserve">2.77898049354553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64244079589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58621859550476</t>
+    <t xml:space="preserve">2.64244103431702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58621883392334</t>
   </si>
   <si>
     <t xml:space="preserve">2.54445338249207</t>
@@ -302,85 +302,85 @@
     <t xml:space="preserve">2.52999687194824</t>
   </si>
   <si>
+    <t xml:space="preserve">2.57015585899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65803813934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63979816436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61160922050476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61326718330383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66135430335999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64477276802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63316559791565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65306353569031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77576780319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87691569328308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86033415794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73597192764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76913475990295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49553751945496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44579291343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55357360839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5253849029541</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.57015562057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65803837776184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63979840278625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61160945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61326766014099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66135430335999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64477276802063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63316559791565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65306377410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77576756477356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87691569328308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86033415794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73597168922424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76913523674011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49553775787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44579291343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55357360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5253849029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57015514373779</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.57844591140747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55854797363281</t>
+    <t xml:space="preserve">2.55854821205139</t>
   </si>
   <si>
     <t xml:space="preserve">2.45408344268799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23852276802063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27997636795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34132862091064</t>
+    <t xml:space="preserve">2.23852229118347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2799768447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34132838249207</t>
   </si>
   <si>
     <t xml:space="preserve">2.31977248191833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40433883666992</t>
+    <t xml:space="preserve">2.4043390750885</t>
   </si>
   <si>
     <t xml:space="preserve">2.42092061042786</t>
@@ -389,40 +389,40 @@
     <t xml:space="preserve">2.33801221847534</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23686408996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27002716064453</t>
+    <t xml:space="preserve">2.2368643283844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27002763748169</t>
   </si>
   <si>
     <t xml:space="preserve">2.32972145080566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35127735137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37780857086182</t>
+    <t xml:space="preserve">2.35127758979797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37780809402466</t>
   </si>
   <si>
     <t xml:space="preserve">2.38278293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37946629524231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36620092391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42921113967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58673691749573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59502816200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61990022659302</t>
+    <t xml:space="preserve">2.37946605682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36620116233826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42921137809753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58673667907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59502768516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61990070343018</t>
   </si>
   <si>
     <t xml:space="preserve">2.95484948158264</t>
@@ -431,28 +431,28 @@
     <t xml:space="preserve">2.89515566825867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8686249256134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64808917045593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62819123268127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62487459182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61824202537537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58342051506042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58839511871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68954300880432</t>
+    <t xml:space="preserve">2.86862540245056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64808893203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6281909942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62487483024597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61824250221252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.583420753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5883948802948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6895432472229</t>
   </si>
   <si>
     <t xml:space="preserve">2.68291068077087</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">2.69949221611023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70612502098083</t>
+    <t xml:space="preserve">2.70612478256226</t>
   </si>
   <si>
     <t xml:space="preserve">2.69120144844055</t>
@@ -473,37 +473,37 @@
     <t xml:space="preserve">2.74592089653015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81224727630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84872722625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81887984275818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78571653366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70778298377991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71109938621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79732394218445</t>
+    <t xml:space="preserve">2.81224751472473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84872698783875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81888008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78571677207947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70778274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71109914779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79732370376587</t>
   </si>
   <si>
     <t xml:space="preserve">2.82385420799255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76084446907043</t>
+    <t xml:space="preserve">2.76084423065186</t>
   </si>
   <si>
     <t xml:space="preserve">2.78240036964417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7956657409668</t>
+    <t xml:space="preserve">2.79566550254822</t>
   </si>
   <si>
     <t xml:space="preserve">2.82551264762878</t>
@@ -515,28 +515,28 @@
     <t xml:space="preserve">2.74923706054688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72104835510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70115065574646</t>
+    <t xml:space="preserve">2.72104811668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70114994049072</t>
   </si>
   <si>
     <t xml:space="preserve">2.67793607711792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64974737167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66964507102966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71939015388489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68622708320618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74260473251343</t>
+    <t xml:space="preserve">2.64974784851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66964554786682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71938991546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6862268447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74260449409485</t>
   </si>
   <si>
     <t xml:space="preserve">2.65472173690796</t>
@@ -554,10 +554,10 @@
     <t xml:space="preserve">2.78074216842651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77742552757263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88520669937134</t>
+    <t xml:space="preserve">2.77742600440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88520693778992</t>
   </si>
   <si>
     <t xml:space="preserve">2.79898190498352</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">2.79400730133057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7591860294342</t>
+    <t xml:space="preserve">2.75918626785278</t>
   </si>
   <si>
     <t xml:space="preserve">2.7442626953125</t>
@@ -578,55 +578,55 @@
     <t xml:space="preserve">2.66467070579529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7873752117157</t>
+    <t xml:space="preserve">2.78737473487854</t>
   </si>
   <si>
     <t xml:space="preserve">2.72933912277222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67627763748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64643096923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60497689247131</t>
+    <t xml:space="preserve">2.67627811431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6464307308197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60497641563416</t>
   </si>
   <si>
     <t xml:space="preserve">2.60166025161743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56352257728577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51709413528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55191564559937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63648200035095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68456840515137</t>
+    <t xml:space="preserve">2.56352281570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.517094373703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55191588401794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63648223876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68456864356995</t>
   </si>
   <si>
     <t xml:space="preserve">2.70944118499756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72270631790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77908420562744</t>
+    <t xml:space="preserve">2.72270655632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77908396720886</t>
   </si>
   <si>
     <t xml:space="preserve">2.83877825737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82717108726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83380365371704</t>
+    <t xml:space="preserve">2.82717084884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83380341529846</t>
   </si>
   <si>
     <t xml:space="preserve">2.75421166419983</t>
@@ -635,67 +635,67 @@
     <t xml:space="preserve">2.82882905006409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82053828239441</t>
+    <t xml:space="preserve">2.82053804397583</t>
   </si>
   <si>
     <t xml:space="preserve">2.77245163917542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80064010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83546185493469</t>
+    <t xml:space="preserve">2.80064058303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83546161651611</t>
   </si>
   <si>
     <t xml:space="preserve">2.80229878425598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65637993812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67959403991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70280838012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74757862091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7525532245636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98138022422791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94324231147766</t>
+    <t xml:space="preserve">2.65638017654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67959427833557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70280861854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74757885932922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75255370140076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98137998580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94324207305908</t>
   </si>
   <si>
     <t xml:space="preserve">3.05931377410889</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03444147109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02946710586548</t>
+    <t xml:space="preserve">3.03444170951843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02946662902832</t>
   </si>
   <si>
     <t xml:space="preserve">3.02283430099487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00127792358398</t>
+    <t xml:space="preserve">3.00127816200256</t>
   </si>
   <si>
     <t xml:space="preserve">2.99298715591431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95650768280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94987535476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93660974502563</t>
+    <t xml:space="preserve">2.95650744438171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94987487792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93660998344421</t>
   </si>
   <si>
     <t xml:space="preserve">2.93329334259033</t>
@@ -704,28 +704,28 @@
     <t xml:space="preserve">2.90178823471069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87857365608215</t>
+    <t xml:space="preserve">2.87857389450073</t>
   </si>
   <si>
     <t xml:space="preserve">2.90676283836365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9780638217926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98469614982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05102324485779</t>
+    <t xml:space="preserve">2.97806406021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98469686508179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05102300643921</t>
   </si>
   <si>
     <t xml:space="preserve">2.97308921813965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9747474193573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01786017417908</t>
+    <t xml:space="preserve">2.97474765777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0178599357605</t>
   </si>
   <si>
     <t xml:space="preserve">3.01620149612427</t>
@@ -734,22 +734,22 @@
     <t xml:space="preserve">3.01122689247131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11071729660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11734938621521</t>
+    <t xml:space="preserve">3.11071705818176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11734986305237</t>
   </si>
   <si>
     <t xml:space="preserve">3.05599761009216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03941559791565</t>
+    <t xml:space="preserve">3.03941583633423</t>
   </si>
   <si>
     <t xml:space="preserve">3.06760501861572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15862154960632</t>
+    <t xml:space="preserve">3.1586217880249</t>
   </si>
   <si>
     <t xml:space="preserve">3.17884755134583</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">3.20244455337524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20750117301941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.253009557724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2445821762085</t>
+    <t xml:space="preserve">3.20750093460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25300931930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24458193778992</t>
   </si>
   <si>
     <t xml:space="preserve">3.31368732452393</t>
@@ -779,28 +779,28 @@
     <t xml:space="preserve">3.23109793663025</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21761393547058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23446893692017</t>
+    <t xml:space="preserve">3.21761417388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23446917533875</t>
   </si>
   <si>
     <t xml:space="preserve">3.13839554786682</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13670992851257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04232215881348</t>
+    <t xml:space="preserve">3.13671016693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04232239723206</t>
   </si>
   <si>
     <t xml:space="preserve">3.11985492706299</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1265971660614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0945725440979</t>
+    <t xml:space="preserve">3.12659740447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09457230567932</t>
   </si>
   <si>
     <t xml:space="preserve">3.0861451625824</t>
@@ -812,49 +812,49 @@
     <t xml:space="preserve">3.05074954032898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05917739868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99681401252747</t>
+    <t xml:space="preserve">3.05917716026306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99681377410889</t>
   </si>
   <si>
     <t xml:space="preserve">3.01535439491272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14176678657532</t>
+    <t xml:space="preserve">3.14176654815674</t>
   </si>
   <si>
     <t xml:space="preserve">3.15019392967224</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14850878715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17041993141174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17379093170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21087193489075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22772669792175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26986455917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27829194068909</t>
+    <t xml:space="preserve">3.14850854873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17042016983032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17379117012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21087169647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22772693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.269864320755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27829217910767</t>
   </si>
   <si>
     <t xml:space="preserve">3.29514694213867</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29851794242859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31874394416809</t>
+    <t xml:space="preserve">3.29851770401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31874370574951</t>
   </si>
   <si>
     <t xml:space="preserve">3.36088132858276</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">3.37436532974243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33728432655334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36256694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28840470314026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31537270545959</t>
+    <t xml:space="preserve">3.33728456497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36256670951843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28840494155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31537294387817</t>
   </si>
   <si>
     <t xml:space="preserve">3.25806593894958</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">3.23615431785583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23783993721008</t>
+    <t xml:space="preserve">3.2378396987915</t>
   </si>
   <si>
     <t xml:space="preserve">3.21424293518066</t>
@@ -899,16 +899,16 @@
     <t xml:space="preserve">3.11311316490173</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11817002296448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14682340621948</t>
+    <t xml:space="preserve">3.1181697845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1468231678009</t>
   </si>
   <si>
     <t xml:space="preserve">3.19064617156982</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09288740158081</t>
+    <t xml:space="preserve">3.09288716316223</t>
   </si>
   <si>
     <t xml:space="preserve">3.15693616867065</t>
@@ -920,19 +920,19 @@
     <t xml:space="preserve">3.15356516838074</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19401693344116</t>
+    <t xml:space="preserve">3.19401717185974</t>
   </si>
   <si>
     <t xml:space="preserve">3.17210555076599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16704893112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18390417098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19907355308533</t>
+    <t xml:space="preserve">3.16704916954041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18390393257141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19907379150391</t>
   </si>
   <si>
     <t xml:space="preserve">3.20918655395508</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">3.19233179092407</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20413017272949</t>
+    <t xml:space="preserve">3.20412993431091</t>
   </si>
   <si>
     <t xml:space="preserve">3.22098517417908</t>
@@ -950,22 +950,22 @@
     <t xml:space="preserve">3.24795317649841</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1687343120575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14345216751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16367793083191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16536355018616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18558955192566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15187954902649</t>
+    <t xml:space="preserve">3.16873455047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14345192909241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16367769241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16536378860474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18558979034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15187978744507</t>
   </si>
   <si>
     <t xml:space="preserve">3.00861239433289</t>
@@ -977,40 +977,40 @@
     <t xml:space="preserve">2.89399862289429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93950724601746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96647500991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96984601020813</t>
+    <t xml:space="preserve">2.93950700759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96647477149963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96984577178955</t>
   </si>
   <si>
     <t xml:space="preserve">3.00524139404297</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00018501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02546739578247</t>
+    <t xml:space="preserve">3.00018453598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02546715736389</t>
   </si>
   <si>
     <t xml:space="preserve">2.94287800788879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8973696231842</t>
+    <t xml:space="preserve">2.89736986160278</t>
   </si>
   <si>
     <t xml:space="preserve">2.88557124137878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8687162399292</t>
+    <t xml:space="preserve">2.86871647834778</t>
   </si>
   <si>
     <t xml:space="preserve">2.93782162666321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80635285377502</t>
+    <t xml:space="preserve">2.80635237693787</t>
   </si>
   <si>
     <t xml:space="preserve">2.8653450012207</t>
@@ -1019,28 +1019,28 @@
     <t xml:space="preserve">2.84849047660828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87040138244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91591000556946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03389453887939</t>
+    <t xml:space="preserve">2.87040162086487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91591024398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03389477729797</t>
   </si>
   <si>
     <t xml:space="preserve">3.03052377700806</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07603216171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11648440361023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10131478309631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13165378570557</t>
+    <t xml:space="preserve">3.07603240013123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11648392677307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10131502151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13165402412415</t>
   </si>
   <si>
     <t xml:space="preserve">3.12491154670715</t>
@@ -1061,16 +1061,16 @@
     <t xml:space="preserve">3.14008116722107</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17294812202454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13081073760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21929931640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28250575065613</t>
+    <t xml:space="preserve">3.17294836044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13081097602844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21929979324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28250551223755</t>
   </si>
   <si>
     <t xml:space="preserve">3.24036812782288</t>
@@ -1082,22 +1082,22 @@
     <t xml:space="preserve">3.32042932510376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28671932220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02125358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03810858726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98332977294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93276500701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19823098182678</t>
+    <t xml:space="preserve">3.28671956062317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02125334739685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03810882568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9833300113678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93276476860046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1982307434082</t>
   </si>
   <si>
     <t xml:space="preserve">3.13923835754395</t>
@@ -1112,19 +1112,19 @@
     <t xml:space="preserve">2.97911643981934</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14766573905945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08024573326111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08867359161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10974192619324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10552835464478</t>
+    <t xml:space="preserve">3.14766550064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08024597167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08867335319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10974216461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10552859306335</t>
   </si>
   <si>
     <t xml:space="preserve">3.21508598327637</t>
@@ -1139,79 +1139,79 @@
     <t xml:space="preserve">3.34149813652039</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34992527961731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31200218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24879574775696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30885648727417</t>
+    <t xml:space="preserve">3.34992551803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31200194358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24879598617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30885672569275</t>
   </si>
   <si>
     <t xml:space="preserve">3.26605129241943</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27461242675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25320959091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2874538898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22752666473389</t>
+    <t xml:space="preserve">3.27461266517639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25320982933044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28745412826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22752642631531</t>
   </si>
   <si>
     <t xml:space="preserve">3.15047669410706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18472123146057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20612406730652</t>
+    <t xml:space="preserve">3.18472146987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20612382888794</t>
   </si>
   <si>
     <t xml:space="preserve">3.2703320980072</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3216986656189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31313729286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16759920120239</t>
+    <t xml:space="preserve">3.32169842720032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31313753128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16759896278381</t>
   </si>
   <si>
     <t xml:space="preserve">3.13335490226746</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24892950057983</t>
+    <t xml:space="preserve">3.24892902374268</t>
   </si>
   <si>
     <t xml:space="preserve">3.17616009712219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1890013217926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20184326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21040415763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21896529197693</t>
+    <t xml:space="preserve">3.18900179862976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20184350013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21040439605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21896553039551</t>
   </si>
   <si>
     <t xml:space="preserve">3.23608779907227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14619636535645</t>
+    <t xml:space="preserve">3.14619612693787</t>
   </si>
   <si>
     <t xml:space="preserve">3.19756269454956</t>
@@ -1220,16 +1220,16 @@
     <t xml:space="preserve">3.23180723190308</t>
   </si>
   <si>
-    <t xml:space="preserve">3.171879529953</t>
+    <t xml:space="preserve">3.17187929153442</t>
   </si>
   <si>
     <t xml:space="preserve">3.2232460975647</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25749063491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27889323234558</t>
+    <t xml:space="preserve">3.25749039649963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.278892993927</t>
   </si>
   <si>
     <t xml:space="preserve">3.30029582977295</t>
@@ -1238,46 +1238,46 @@
     <t xml:space="preserve">3.3302595615387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39018750190735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37734532356262</t>
+    <t xml:space="preserve">3.39018726348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3773455619812</t>
   </si>
   <si>
     <t xml:space="preserve">3.34310102462769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42443132400513</t>
+    <t xml:space="preserve">3.42443108558655</t>
   </si>
   <si>
     <t xml:space="preserve">3.492919921875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56140851974487</t>
+    <t xml:space="preserve">3.56140828132629</t>
   </si>
   <si>
     <t xml:space="preserve">3.50148129463196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61277508735657</t>
+    <t xml:space="preserve">3.61277461051941</t>
   </si>
   <si>
     <t xml:space="preserve">3.51860332489014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55284762382507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58709216117859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54428648948669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52716422080994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45439529418945</t>
+    <t xml:space="preserve">3.55284786224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58709192276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54428601264954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52716445922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45439481735229</t>
   </si>
   <si>
     <t xml:space="preserve">3.4458339214325</t>
@@ -1295,10 +1295,10 @@
     <t xml:space="preserve">3.36450362205505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40730929374695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33882093429565</t>
+    <t xml:space="preserve">3.40730905532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33882069587708</t>
   </si>
   <si>
     <t xml:space="preserve">3.34738159179688</t>
@@ -1307,46 +1307,46 @@
     <t xml:space="preserve">3.46723675727844</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64701962471008</t>
+    <t xml:space="preserve">3.64701986312866</t>
   </si>
   <si>
     <t xml:space="preserve">3.65986084938049</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62133598327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65129995346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65558075904846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73691058158875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62989711761475</t>
+    <t xml:space="preserve">3.62133622169495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65130019187927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6555802822113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7369110584259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62989687919617</t>
   </si>
   <si>
     <t xml:space="preserve">3.63845801353455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69410538673401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85676622390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96377968788147</t>
+    <t xml:space="preserve">3.69410562515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85676598548889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96377921104431</t>
   </si>
   <si>
     <t xml:space="preserve">3.79683804512024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83964371681213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831317901611</t>
+    <t xml:space="preserve">3.83964395523071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831341743469</t>
   </si>
   <si>
     <t xml:space="preserve">3.87388801574707</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">3.87816905975342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91669321060181</t>
+    <t xml:space="preserve">3.91669273376465</t>
   </si>
   <si>
     <t xml:space="preserve">3.99802350997925</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98946237564087</t>
+    <t xml:space="preserve">3.98946285247803</t>
   </si>
   <si>
     <t xml:space="preserve">4.02370691299438</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">4.14784240722656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10075712203979</t>
+    <t xml:space="preserve">4.10075664520264</t>
   </si>
   <si>
     <t xml:space="preserve">4.00658464431763</t>
@@ -1382,28 +1382,28 @@
     <t xml:space="preserve">3.94665718078613</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89529085159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93809580802917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86960768699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94237661361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95521831512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80967950820923</t>
+    <t xml:space="preserve">3.8952910900116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93809628486633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86960697174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94237685203552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95521783828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80967974662781</t>
   </si>
   <si>
     <t xml:space="preserve">3.920973777771</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76687455177307</t>
+    <t xml:space="preserve">3.76687407493591</t>
   </si>
   <si>
     <t xml:space="preserve">3.98090147972107</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">4.03226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07079267501831</t>
+    <t xml:space="preserve">4.07079315185547</t>
   </si>
   <si>
     <t xml:space="preserve">4.08363389968872</t>
@@ -1421,43 +1421,43 @@
     <t xml:space="preserve">3.99374294281006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95093774795532</t>
+    <t xml:space="preserve">3.95093679428101</t>
   </si>
   <si>
     <t xml:space="preserve">3.9295346736908</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74119138717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74975204467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66414165496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60421395301819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77971601486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71550822257996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85248517990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79255771636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71978831291199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77543544769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75403308868408</t>
+    <t xml:space="preserve">3.74119162559509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74975228309631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66414141654968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60421419143677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77971625328064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71550798416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8524854183197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79255747795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71978855133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77543568611145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75403332710266</t>
   </si>
   <si>
     <t xml:space="preserve">3.88244891166687</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">3.86104607582092</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77115535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80539965629578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82252168655396</t>
+    <t xml:space="preserve">3.77115511894226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80539989471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82252144813538</t>
   </si>
   <si>
     <t xml:space="preserve">3.72406888008118</t>
@@ -1490,16 +1490,16 @@
     <t xml:space="preserve">4.01514625549316</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08791494369507</t>
+    <t xml:space="preserve">4.08791446685791</t>
   </si>
   <si>
     <t xml:space="preserve">4.16924524307251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19492816925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25485563278198</t>
+    <t xml:space="preserve">4.1949291229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25485610961914</t>
   </si>
   <si>
     <t xml:space="preserve">4.28053903579712</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">4.16068410873413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22917318344116</t>
+    <t xml:space="preserve">4.229172706604</t>
   </si>
   <si>
     <t xml:space="preserve">4.17352628707886</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">4.4860053062439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61442136764526</t>
+    <t xml:space="preserve">4.61442089080811</t>
   </si>
   <si>
     <t xml:space="preserve">4.58873796463013</t>
@@ -1547,10 +1547,10 @@
     <t xml:space="preserve">4.67434883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57161617279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71715450286865</t>
+    <t xml:space="preserve">4.57161664962769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71715402603149</t>
   </si>
   <si>
     <t xml:space="preserve">4.76852083206177</t>
@@ -1562,82 +1562,82 @@
     <t xml:space="preserve">4.77708196640015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75995969772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72571516036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53737211227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52881050109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56305408477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58017683029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6401047706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69147062301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70859289169312</t>
+    <t xml:space="preserve">4.75995922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72571563720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53737258911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52881097793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56305456161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58017730712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64010429382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69147109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70859336853027</t>
   </si>
   <si>
     <t xml:space="preserve">4.70003175735474</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49456644058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62298250198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85413122177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90549850463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83700895309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78564262390137</t>
+    <t xml:space="preserve">4.49456596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6229829788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8541316986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90549802780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83700942993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78564310073853</t>
   </si>
   <si>
     <t xml:space="preserve">4.75139856338501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59729909896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63154315948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55449438095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50312757492065</t>
+    <t xml:space="preserve">4.59729862213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63154268264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55449390411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5031270980835</t>
   </si>
   <si>
     <t xml:space="preserve">4.47744369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46888303756714</t>
+    <t xml:space="preserve">4.46888256072998</t>
   </si>
   <si>
     <t xml:space="preserve">4.43463802337646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55733585357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60992097854614</t>
+    <t xml:space="preserve">4.5573353767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60992050170898</t>
   </si>
   <si>
     <t xml:space="preserve">4.48722267150879</t>
@@ -1646,16 +1646,16 @@
     <t xml:space="preserve">4.46093130111694</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39081811904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35576105117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41711044311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39958190917969</t>
+    <t xml:space="preserve">4.39081764221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35576152801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41710996627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39958143234253</t>
   </si>
   <si>
     <t xml:space="preserve">4.46969509124756</t>
@@ -1670,10 +1670,10 @@
     <t xml:space="preserve">4.54857206344604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44340229034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47845983505249</t>
+    <t xml:space="preserve">4.4434027671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47845935821533</t>
   </si>
   <si>
     <t xml:space="preserve">4.53980731964111</t>
@@ -1688,16 +1688,16 @@
     <t xml:space="preserve">4.35137939453125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21553611755371</t>
+    <t xml:space="preserve">4.21553516387939</t>
   </si>
   <si>
     <t xml:space="preserve">4.12789440155029</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16733312606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06216478347778</t>
+    <t xml:space="preserve">4.16733360290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06216430664062</t>
   </si>
   <si>
     <t xml:space="preserve">4.11474847793579</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">4.02710723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07092761993408</t>
+    <t xml:space="preserve">4.07092809677124</t>
   </si>
   <si>
     <t xml:space="preserve">4.06654596328735</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">4.02272510528564</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04463577270508</t>
+    <t xml:space="preserve">4.04463481903076</t>
   </si>
   <si>
     <t xml:space="preserve">4.04025363922119</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">4.09283828735352</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00519800186157</t>
+    <t xml:space="preserve">4.00519704818726</t>
   </si>
   <si>
     <t xml:space="preserve">4.15418720245361</t>
@@ -1736,10 +1736,10 @@
     <t xml:space="preserve">4.19362545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34699773788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40834617614746</t>
+    <t xml:space="preserve">4.34699726104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40834665298462</t>
   </si>
   <si>
     <t xml:space="preserve">4.3820538520813</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">4.11036682128906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91755604743958</t>
+    <t xml:space="preserve">3.91755628585815</t>
   </si>
   <si>
     <t xml:space="preserve">3.95261240005493</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">3.96575880050659</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08407402038574</t>
+    <t xml:space="preserve">4.0840744972229</t>
   </si>
   <si>
     <t xml:space="preserve">4.10160255432129</t>
@@ -1766,784 +1766,784 @@
     <t xml:space="preserve">4.01396131515503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94384837150574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84744310379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79047679901123</t>
+    <t xml:space="preserve">3.94384860992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84744334220886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79047608375549</t>
   </si>
   <si>
     <t xml:space="preserve">3.77733039855957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75103831291199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7598021030426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78171253204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73789191246033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73351001739502</t>
+    <t xml:space="preserve">3.75103807449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75980257987976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78171277046204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73789215087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7335102558136</t>
   </si>
   <si>
     <t xml:space="preserve">3.79485821723938</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89126396179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03148937225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93508410453796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86058974266052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92193794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85620737075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76856660842896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80800461769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78609490394592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6721613407135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82991528511047</t>
+    <t xml:space="preserve">3.89126372337341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03148984909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93508434295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86058950424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92193841934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8562068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76856637001038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80800485610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78609442710876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67216110229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82991552352905</t>
   </si>
   <si>
     <t xml:space="preserve">3.72474551200867</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79924082756042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86497139930725</t>
+    <t xml:space="preserve">3.79924058914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86497163772583</t>
   </si>
   <si>
     <t xml:space="preserve">3.72036361694336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74227428436279</t>
+    <t xml:space="preserve">3.74227380752563</t>
   </si>
   <si>
     <t xml:space="preserve">3.74665594100952</t>
   </si>
   <si>
+    <t xml:space="preserve">3.68968963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64586853981018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71598124504089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72912788391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70283555984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04901742935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03587198257446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97890520095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00957870483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0972204208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18047904968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22429990768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32946920394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33385133743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52227926254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51351594924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68003416061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67126941680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58362817764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64497804641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57486391067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62744903564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68879795074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87284374237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90790033340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79396629333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74138164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82025957107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81149482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7852029800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77643823623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80273103713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76767444610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65374088287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5923924446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6362133026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60115623474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61868476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86407995223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75891017913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70632553100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82902336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73261880874634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32070541381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24182844161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28564882278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45216655731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69756174087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19800758361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82553339004517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54069972038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43114805221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37856364250183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22957372665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28654050827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86148118972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97541475296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9228298664093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94474005699158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78698635101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7212553024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8570990562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66428875923157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77822208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97979688644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87024545669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75631189346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71249127388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90091967582703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82204294204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84395289421082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76069402694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76507592201233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9096839427948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94912219047546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98856091499329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06743788719177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02361726760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99732518196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00170683860779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04114556312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07182002067566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00608897209167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03676295280457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01047086715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16822504997253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10249423980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11125826835632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14631462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1945173740387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09372997283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15507864952087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25586605072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31283283233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22519159317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21204543113708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24710154533386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.198899269104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18137121200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37418150901794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45305871963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50564289093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55384564399719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5319356918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54946374893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38294553756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36103534698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26024842262268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44867658615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44429421424866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41800212860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43991208076477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49687910079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51002526283264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51440715789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83402919769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78892278671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70322108268738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65360426902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59045577049255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57241344451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50024342536926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51828598976135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4280731678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45513677597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48671126365662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3874773979187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40552020072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38296699523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33786082267761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34688186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29275441169739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15743613243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24764823913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31981825828552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27020144462585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22960591316223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22058439254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20254182815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16645693778992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16194653511047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10330843925476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10781908035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13939332962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12135100364685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04015922546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02211713790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00407433509827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9950532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15292501449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13037204742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11684012413025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04467034339905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9634792804718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89130902290344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92739391326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85973453521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83267116546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86875605583191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90484118461609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.886798620224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8507137298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97701096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87777733802795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85522413253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86424541473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81462836265564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77854347229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76952219009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.737948179245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68833112716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67028856277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63420367240906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59811854362488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61616110801697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6026291847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54399132728577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62518215179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0311381816864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01309585571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06271290779114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24313759803772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23411631584167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25666928291321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3559033870697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36492443084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54986000061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48220062255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55437088012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52730703353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56339192390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58143424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51377487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49573230743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62654042243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75283765792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79794454574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82500767707825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791356086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73028492927551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73479533195496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72577428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69871044158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68066787719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61751937866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60849809646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64458298683167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57692384719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66262555122375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64909386634827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82049775123596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81598687171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80696511268616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7799015045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8520712852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9152204990387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734853744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8430507183075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8565821647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83853983879089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84756112098694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79343366622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76185917854309</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.68968939781189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64586877822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71598148345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72912812232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70283532142639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04901790618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0358715057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97890448570251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00957918167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0972204208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18047904968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22429990768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32946968078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33385181427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52227926254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51351594924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68003368377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67126893997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58362817764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64497756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57486438751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62744903564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68879747390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87284421920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90790033340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79396724700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74138212203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82025909423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81149482727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7852029800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77643871307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80273056030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76767444610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65374088287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5923924446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63621282577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60115671157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61868476867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86407995223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75891017913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70632600784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82902383804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73261833190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32070541381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24182844161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28564882278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45216655731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69756174087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19800806045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82553291320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54069948196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43114829063416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37856364250183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22957348823547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28654026985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86148118972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97541451454163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92283010482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94474029541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78698635101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7212553024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8570990562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66428852081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77822208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97979664802551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87024521827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75631189346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71249151229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90091967582703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82204270362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84395265579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76069402694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76507616043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90968370437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94912219047546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98856091499329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06743741035461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02361702919006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99732494354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00170660018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04114556312561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07181978225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00608944892883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03676342964172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01047110557556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16822504997253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10249423980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11125826835632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14631462097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19451713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09372997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15507888793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25586581230164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31283283233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22519159317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21204566955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24710178375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19889950752258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18137097358704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37418127059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45305848121643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50564312934875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55384564399719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5319356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54946374893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38294553756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36103534698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2602481842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44867634773254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44429421424866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41800236701965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43991255760193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49687910079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51002526283264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51440763473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83402872085571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78892278671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70322108268738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65360450744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59045577049255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57241320610046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50024342536926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51828598976135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42807292938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45513701438904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48671102523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38747787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40551996231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38296675682068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33786082267761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34688186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29275465011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15743565559387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24764823913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31981825828552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27020144462585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22960567474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22058439254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20254182815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1664571762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16194629669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10330843925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1078188419342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13939309120178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12135100364685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04015946388245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02211689949036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00407457351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9950532913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15292525291443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1303722858429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11684012413025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04467010498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96347904205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89130902290344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92739391326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85973477363586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83267092704773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86875605583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90484094619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.886798620224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85071349143982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97701096534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87777733802795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85522413253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86424541473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81462836265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77854323387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76952242851257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73794794082642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68833112716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67028856277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63420367240906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59811878204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61616110801697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6026291847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54399085044861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62518239021301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0311381816864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01309585571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06271266937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24313759803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23411655426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25666952133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35590314865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36492466926575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54986000061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48220062255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55437064170837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52730703353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56339192390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58143424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51377487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49573278427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62654042243958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75283789634705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79794430732727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82500767707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791356086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73028492927551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73479533195496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72577428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69871044158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68066787719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61751961708069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60849809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64458298683167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57692360877991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66262555122375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64909362792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8204972743988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81598663330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80696558952332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77990174293518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85207200050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91522073745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734877586365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8430507183075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8565821647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83854007720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84756112098694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79343366622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76185917854309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68968963623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6716468334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7393057346344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78441262245178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86109304428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00543308258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01896476745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07760286331177</t>
+    <t xml:space="preserve">3.67164707183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73930621147156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7844123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86109280586243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00543260574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0189642906189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07760238647461</t>
   </si>
   <si>
     <t xml:space="preserve">4.09131669998169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17817115783691</t>
+    <t xml:space="preserve">4.17817163467407</t>
   </si>
   <si>
     <t xml:space="preserve">4.25588369369507</t>
@@ -2552,16 +2552,16 @@
     <t xml:space="preserve">4.24674081802368</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21931314468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28331089019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22388410568237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18731355667114</t>
+    <t xml:space="preserve">4.21931266784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28331136703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22388458251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1873140335083</t>
   </si>
   <si>
     <t xml:space="preserve">4.15074348449707</t>
@@ -2573,10 +2573,10 @@
     <t xml:space="preserve">4.05931758880615</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10960149765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13702964782715</t>
+    <t xml:space="preserve">4.1096019744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13703012466431</t>
   </si>
   <si>
     <t xml:space="preserve">4.16902875900269</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">4.08217430114746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09588813781738</t>
+    <t xml:space="preserve">4.09588766098022</t>
   </si>
   <si>
     <t xml:space="preserve">4.04103231430054</t>
@@ -2600,10 +2600,10 @@
     <t xml:space="preserve">4.03188943862915</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04560375213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12331628799438</t>
+    <t xml:space="preserve">4.04560327529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12331581115723</t>
   </si>
   <si>
     <t xml:space="preserve">4.15988636016846</t>
@@ -2621,16 +2621,16 @@
     <t xml:space="preserve">4.19188499450684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14160108566284</t>
+    <t xml:space="preserve">4.1416015625</t>
   </si>
   <si>
     <t xml:space="preserve">4.27873992919922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29702520370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23302698135376</t>
+    <t xml:space="preserve">4.29702472686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23302745819092</t>
   </si>
   <si>
     <t xml:space="preserve">4.20559930801392</t>
@@ -2639,16 +2639,16 @@
     <t xml:space="preserve">4.11874437332153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10045957565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14617252349854</t>
+    <t xml:space="preserve">4.10045909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14617204666138</t>
   </si>
   <si>
     <t xml:space="preserve">4.29245376586914</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31531047821045</t>
+    <t xml:space="preserve">4.31531000137329</t>
   </si>
   <si>
     <t xml:space="preserve">4.34273815155029</t>
@@ -2660,13 +2660,13 @@
     <t xml:space="preserve">4.00446176528931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98617672920227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95874857902527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95417761802673</t>
+    <t xml:space="preserve">3.98617696762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95874881744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95417737960815</t>
   </si>
   <si>
     <t xml:space="preserve">3.88560795783997</t>
@@ -2675,16 +2675,16 @@
     <t xml:space="preserve">3.78961062431335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73932671546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9084644317627</t>
+    <t xml:space="preserve">3.7393262386322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90846467018127</t>
   </si>
   <si>
     <t xml:space="preserve">4.01360416412354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02274703979492</t>
+    <t xml:space="preserve">4.02274656295776</t>
   </si>
   <si>
     <t xml:space="preserve">4.12788677215576</t>
@@ -2693,25 +2693,25 @@
     <t xml:space="preserve">4.07303094863892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06388854980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10503053665161</t>
+    <t xml:space="preserve">4.06388902664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10503005981445</t>
   </si>
   <si>
     <t xml:space="preserve">3.931321144104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00903367996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05017471313477</t>
+    <t xml:space="preserve">4.009033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05017423629761</t>
   </si>
   <si>
     <t xml:space="preserve">4.18274259567261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23759841918945</t>
+    <t xml:space="preserve">4.23759889602661</t>
   </si>
   <si>
     <t xml:space="preserve">4.17360019683838</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">4.32902431488037</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21474170684814</t>
+    <t xml:space="preserve">4.2147421836853</t>
   </si>
   <si>
     <t xml:space="preserve">4.21017074584961</t>
@@ -2735,13 +2735,13 @@
     <t xml:space="preserve">4.33359575271606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27416896820068</t>
+    <t xml:space="preserve">4.27416849136353</t>
   </si>
   <si>
     <t xml:space="preserve">4.37930870056152</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49359083175659</t>
+    <t xml:space="preserve">4.49359130859375</t>
   </si>
   <si>
     <t xml:space="preserve">4.52558994293213</t>
@@ -2756,13 +2756,13 @@
     <t xml:space="preserve">4.64444446563721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65358734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59873104095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5438756942749</t>
+    <t xml:space="preserve">4.65358686447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59873151779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54387521743774</t>
   </si>
   <si>
     <t xml:space="preserve">4.52101898193359</t>
@@ -2771,67 +2771,67 @@
     <t xml:space="preserve">4.58958864212036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58044624328613</t>
+    <t xml:space="preserve">4.58044576644897</t>
   </si>
   <si>
     <t xml:space="preserve">4.60787343978882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72672748565674</t>
+    <t xml:space="preserve">4.7267279624939</t>
   </si>
   <si>
     <t xml:space="preserve">4.69015741348267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56673240661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66272974014282</t>
+    <t xml:space="preserve">4.56673192977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66272926330566</t>
   </si>
   <si>
     <t xml:space="preserve">4.70844268798828</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73586988449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47987747192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53930473327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36102342605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68101501464844</t>
+    <t xml:space="preserve">4.73587036132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47987794876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53930425643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36102390289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68101453781128</t>
   </si>
   <si>
     <t xml:space="preserve">4.75415563583374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74501276016235</t>
+    <t xml:space="preserve">4.74501323699951</t>
   </si>
   <si>
     <t xml:space="preserve">4.80901145935059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85472440719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86386680603027</t>
+    <t xml:space="preserve">4.85472393035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86386728286743</t>
   </si>
   <si>
     <t xml:space="preserve">4.99186372756958</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01929140090942</t>
+    <t xml:space="preserve">5.01929092407227</t>
   </si>
   <si>
     <t xml:space="preserve">4.98272085189819</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15642976760864</t>
+    <t xml:space="preserve">5.1564302444458</t>
   </si>
   <si>
     <t xml:space="preserve">5.11985969543457</t>
@@ -2855,13 +2855,13 @@
     <t xml:space="preserve">5.14728784561157</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25699901580811</t>
+    <t xml:space="preserve">5.25699949264526</t>
   </si>
   <si>
     <t xml:space="preserve">5.36671018600464</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38499546051025</t>
+    <t xml:space="preserve">5.3849949836731</t>
   </si>
   <si>
     <t xml:space="preserve">5.62270355224609</t>
@@ -2879,16 +2879,16 @@
     <t xml:space="preserve">5.30271196365356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28442668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17471504211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19300079345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09243249893188</t>
+    <t xml:space="preserve">5.28442764282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17471551895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19300031661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09243202209473</t>
   </si>
   <si>
     <t xml:space="preserve">4.84558200836182</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">4.9004373550415</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02843379974365</t>
+    <t xml:space="preserve">5.02843427658081</t>
   </si>
   <si>
     <t xml:space="preserve">4.93700790405273</t>
@@ -2909,13 +2909,13 @@
     <t xml:space="preserve">5.00100612640381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96443510055542</t>
+    <t xml:space="preserve">4.96443557739258</t>
   </si>
   <si>
     <t xml:space="preserve">5.13814496994019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05586194992065</t>
+    <t xml:space="preserve">5.0558614730835</t>
   </si>
   <si>
     <t xml:space="preserve">4.89129495620728</t>
@@ -2924,22 +2924,22 @@
     <t xml:space="preserve">4.83643913269043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7998685836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61701631546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50730514526367</t>
+    <t xml:space="preserve">4.79986810684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61701679229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50730562210083</t>
   </si>
   <si>
     <t xml:space="preserve">4.45244979858398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32445335388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95529270172119</t>
+    <t xml:space="preserve">4.32445287704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95529317855835</t>
   </si>
   <si>
     <t xml:space="preserve">5.0101490020752</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">5.06500434875488</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22042894363403</t>
+    <t xml:space="preserve">5.22042846679688</t>
   </si>
   <si>
     <t xml:space="preserve">5.33013963699341</t>
@@ -2957,28 +2957,28 @@
     <t xml:space="preserve">5.4124231338501</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53127717971802</t>
+    <t xml:space="preserve">5.53127765655518</t>
   </si>
   <si>
     <t xml:space="preserve">5.39413833618164</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54041957855225</t>
+    <t xml:space="preserve">5.5404200553894</t>
   </si>
   <si>
     <t xml:space="preserve">5.66841602325439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74155712127686</t>
+    <t xml:space="preserve">5.74155759811401</t>
   </si>
   <si>
     <t xml:space="preserve">5.63184547424316</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73241424560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65013122558594</t>
+    <t xml:space="preserve">5.73241472244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65013074874878</t>
   </si>
   <si>
     <t xml:space="preserve">5.4823055267334</t>
@@ -3822,6 +3822,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.63000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59999990463257</t>
   </si>
 </sst>
 </file>
@@ -60219,7 +60222,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6495949074</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>19133</v>
@@ -60240,6 +60243,32 @@
         <v>1269</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6495601852</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>20224</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>3.67000007629395</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>3.58999991416931</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>3.63000011444092</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>3.59999990463257</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BAN.MI.xlsx
+++ b/data/BAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1282">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,85 +38,85 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74278879165649</t>
+    <t xml:space="preserve">3.74278855323792</t>
   </si>
   <si>
     <t xml:space="preserve">BAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75724601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66247129440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53235721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.487380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42473173141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51468729972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53396368026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52111196517944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50022983551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45203995704651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47774147987366</t>
+    <t xml:space="preserve">3.7572455406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6624710559845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53235745429993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48737931251526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42473196983337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51468753814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53396344184875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52111220359802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50023055076599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45203971862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47774124145508</t>
   </si>
   <si>
     <t xml:space="preserve">3.17896103858948</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30586266517639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35726523399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27694797515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33317041397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25767207145691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19663095474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29301142692566</t>
+    <t xml:space="preserve">3.30586218833923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35726571083069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27694773674011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33317065238953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25767254829407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19663071632385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29301166534424</t>
   </si>
   <si>
     <t xml:space="preserve">3.2303638458252</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23678922653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13237643241882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21269392967224</t>
+    <t xml:space="preserve">3.23678946495056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13237690925598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21269416809082</t>
   </si>
   <si>
     <t xml:space="preserve">3.11149430274963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98780512809753</t>
+    <t xml:space="preserve">2.98780584335327</t>
   </si>
   <si>
     <t xml:space="preserve">2.9717423915863</t>
@@ -128,25 +128,25 @@
     <t xml:space="preserve">2.88339304924011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80789470672607</t>
+    <t xml:space="preserve">2.8078944683075</t>
   </si>
   <si>
     <t xml:space="preserve">2.8095006942749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81110763549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95246601104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04242157936096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02153897285461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05366563796997</t>
+    <t xml:space="preserve">2.81110715866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95246624946594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04242134094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02153873443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05366539955139</t>
   </si>
   <si>
     <t xml:space="preserve">3.12113237380981</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">3.17253565788269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13077020645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02314519882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05205941200256</t>
+    <t xml:space="preserve">3.13077044487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314496040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05205965042114</t>
   </si>
   <si>
     <t xml:space="preserve">3.06812286376953</t>
@@ -170,127 +170,127 @@
     <t xml:space="preserve">3.0359959602356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12434554100037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18056726455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24482131004333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16450381278992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19984340667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29783034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40545558929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37332892417908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30907511711121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3074688911438</t>
+    <t xml:space="preserve">3.12434482574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18056750297546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24482107162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16450357437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19984292984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29783058166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40545535087585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37332844734192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30907487869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30746841430664</t>
   </si>
   <si>
     <t xml:space="preserve">3.18859910964966</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26088452339172</t>
+    <t xml:space="preserve">3.26088428497314</t>
   </si>
   <si>
     <t xml:space="preserve">3.26730966567993</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16610980033875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17574787139893</t>
+    <t xml:space="preserve">3.1661102771759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17574834823608</t>
   </si>
   <si>
     <t xml:space="preserve">3.20466256141663</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10828113555908</t>
+    <t xml:space="preserve">3.10828185081482</t>
   </si>
   <si>
     <t xml:space="preserve">3.06009101867676</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01993250846863</t>
+    <t xml:space="preserve">3.01993274688721</t>
   </si>
   <si>
     <t xml:space="preserve">3.15647196769714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02796411514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92033910751343</t>
+    <t xml:space="preserve">3.02796459197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92033886909485</t>
   </si>
   <si>
     <t xml:space="preserve">2.93158340454102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96852922439575</t>
+    <t xml:space="preserve">2.96852970123291</t>
   </si>
   <si>
     <t xml:space="preserve">3.04563403129578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06169772148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0761547088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98619890213013</t>
+    <t xml:space="preserve">3.06169748306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07615447044373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98619914054871</t>
   </si>
   <si>
     <t xml:space="preserve">2.97977423667908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91552019119263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87054228782654</t>
+    <t xml:space="preserve">2.91551995277405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87054181098938</t>
   </si>
   <si>
     <t xml:space="preserve">2.89785003662109</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85769176483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78379940986633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70508861541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73560929298401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76934242248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81913876533508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83520269393921</t>
+    <t xml:space="preserve">2.85769128799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78379988670349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7050883769989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73560905456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76934218406677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81913900375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83520245552063</t>
   </si>
   <si>
     <t xml:space="preserve">2.77898025512695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64244079589844</t>
+    <t xml:space="preserve">2.64244103431702</t>
   </si>
   <si>
     <t xml:space="preserve">2.58621907234192</t>
@@ -299,91 +299,91 @@
     <t xml:space="preserve">2.54445385932922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52999639511108</t>
+    <t xml:space="preserve">2.52999663352966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57015562057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65803790092468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63979840278625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61160945892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61326718330383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66135454177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64477276802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63316559791565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65306377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77576780319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87691617012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86033415794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73597192764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76913499832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49553799629211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44579291343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55357360839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5253849029541</t>
   </si>
   <si>
     <t xml:space="preserve">2.57015538215637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65803790092468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63979816436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61160969734192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61326742172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66135406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64477276802063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63316583633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65306353569031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77576780319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87691593170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8603343963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7359721660614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76913475990295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49553799629211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44579291343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55357336997986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5253849029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57015514373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57844614982605</t>
+    <t xml:space="preserve">2.57844638824463</t>
   </si>
   <si>
     <t xml:space="preserve">2.55854821205139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45408368110657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23852252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27997660636902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34132862091064</t>
+    <t xml:space="preserve">2.45408391952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23852229118347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27997636795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34132838249207</t>
   </si>
   <si>
     <t xml:space="preserve">2.31977248191833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40433883666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42092061042786</t>
+    <t xml:space="preserve">2.4043390750885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42092037200928</t>
   </si>
   <si>
     <t xml:space="preserve">2.33801221847534</t>
@@ -404,46 +404,46 @@
     <t xml:space="preserve">2.37780833244324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38278293609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37946653366089</t>
+    <t xml:space="preserve">2.38278269767761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37946605682373</t>
   </si>
   <si>
     <t xml:space="preserve">2.36620116233826</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42921161651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58673715591431</t>
+    <t xml:space="preserve">2.42921113967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58673691749573</t>
   </si>
   <si>
     <t xml:space="preserve">2.59502768516541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6199004650116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95484972000122</t>
+    <t xml:space="preserve">2.61990070343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95484948158264</t>
   </si>
   <si>
     <t xml:space="preserve">2.89515590667725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8686249256134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64808917045593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6281909942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62487483024597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61824226379395</t>
+    <t xml:space="preserve">2.86862468719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64808893203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62819147109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62487459182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61824202537537</t>
   </si>
   <si>
     <t xml:space="preserve">2.58342051506042</t>
@@ -452,19 +452,19 @@
     <t xml:space="preserve">2.58839511871338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68954300880432</t>
+    <t xml:space="preserve">2.68954348564148</t>
   </si>
   <si>
     <t xml:space="preserve">2.68291068077087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69949197769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70612478256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69120121002197</t>
+    <t xml:space="preserve">2.69949221611023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70612502098083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69120168685913</t>
   </si>
   <si>
     <t xml:space="preserve">2.69451761245728</t>
@@ -473,19 +473,19 @@
     <t xml:space="preserve">2.74592089653015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81224727630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84872722625732</t>
+    <t xml:space="preserve">2.81224751472473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84872698783875</t>
   </si>
   <si>
     <t xml:space="preserve">2.81887984275818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78571653366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70778322219849</t>
+    <t xml:space="preserve">2.78571629524231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70778298377991</t>
   </si>
   <si>
     <t xml:space="preserve">2.71109938621521</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">2.82385444641113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76084399223328</t>
+    <t xml:space="preserve">2.76084423065186</t>
   </si>
   <si>
     <t xml:space="preserve">2.78240036964417</t>
@@ -506,37 +506,37 @@
     <t xml:space="preserve">2.7956657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82551264762878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.857017993927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74923706054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72104811668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7011501789093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67793607711792</t>
+    <t xml:space="preserve">2.82551288604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85701775550842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74923729896545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72104835510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70115041732788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6779363155365</t>
   </si>
   <si>
     <t xml:space="preserve">2.64974737167358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66964507102966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71939015388489</t>
+    <t xml:space="preserve">2.66964530944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71938991546631</t>
   </si>
   <si>
     <t xml:space="preserve">2.6862268447876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74260497093201</t>
+    <t xml:space="preserve">2.74260449409485</t>
   </si>
   <si>
     <t xml:space="preserve">2.65472173690796</t>
@@ -545,73 +545,73 @@
     <t xml:space="preserve">2.73099708557129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76416087150574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8105890750885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78074216842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77742600440979</t>
+    <t xml:space="preserve">2.76416039466858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81058955192566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78074240684509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77742576599121</t>
   </si>
   <si>
     <t xml:space="preserve">2.88520646095276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79898166656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81722187995911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79400730133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7591860294342</t>
+    <t xml:space="preserve">2.79898190498352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81722211837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79400777816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75918650627136</t>
   </si>
   <si>
     <t xml:space="preserve">2.7442626953125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66467094421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78737473487854</t>
+    <t xml:space="preserve">2.66467070579529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78737497329712</t>
   </si>
   <si>
     <t xml:space="preserve">2.7293393611908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67627811431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64643096923828</t>
+    <t xml:space="preserve">2.67627763748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6464307308197</t>
   </si>
   <si>
     <t xml:space="preserve">2.60497689247131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60166025161743</t>
+    <t xml:space="preserve">2.60166072845459</t>
   </si>
   <si>
     <t xml:space="preserve">2.56352257728577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51709413528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55191564559937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63648223876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6845691204071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7094407081604</t>
+    <t xml:space="preserve">2.517094373703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55191540718079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63648200035095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68456840515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70944118499756</t>
   </si>
   <si>
     <t xml:space="preserve">2.72270655632019</t>
@@ -620,40 +620,40 @@
     <t xml:space="preserve">2.77908420562744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83877825737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82717084884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83380341529846</t>
+    <t xml:space="preserve">2.83877801895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82717061042786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83380365371704</t>
   </si>
   <si>
     <t xml:space="preserve">2.75421166419983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82882928848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82053780555725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77245140075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80064034461975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83546209335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80229878425598</t>
+    <t xml:space="preserve">2.82882905006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82053828239441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77245187759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80064010620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83546185493469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80229830741882</t>
   </si>
   <si>
     <t xml:space="preserve">2.65637993812561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67959451675415</t>
+    <t xml:space="preserve">2.67959427833557</t>
   </si>
   <si>
     <t xml:space="preserve">2.70280838012695</t>
@@ -662,10 +662,10 @@
     <t xml:space="preserve">2.74757862091064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75255346298218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98138046264648</t>
+    <t xml:space="preserve">2.75255370140076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98137998580933</t>
   </si>
   <si>
     <t xml:space="preserve">2.94324231147766</t>
@@ -674,25 +674,25 @@
     <t xml:space="preserve">3.05931401252747</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03444147109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02946710586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02283406257629</t>
+    <t xml:space="preserve">3.03444170951843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0294668674469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02283453941345</t>
   </si>
   <si>
     <t xml:space="preserve">3.00127792358398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99298715591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95650768280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94987487792969</t>
+    <t xml:space="preserve">2.99298739433289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95650792121887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94987511634827</t>
   </si>
   <si>
     <t xml:space="preserve">2.93660950660706</t>
@@ -701,49 +701,49 @@
     <t xml:space="preserve">2.93329334259033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90178823471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87857365608215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90676259994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9780638217926</t>
+    <t xml:space="preserve">2.90178799629211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87857389450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90676307678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97806406021118</t>
   </si>
   <si>
     <t xml:space="preserve">2.98469662666321</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05102324485779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97308945655823</t>
+    <t xml:space="preserve">3.05102300643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97308969497681</t>
   </si>
   <si>
     <t xml:space="preserve">2.9747474193573</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01786017417908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01620173454285</t>
+    <t xml:space="preserve">3.0178599357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01620149612427</t>
   </si>
   <si>
     <t xml:space="preserve">3.01122713088989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11071729660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11734962463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05599737167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03941559791565</t>
+    <t xml:space="preserve">3.11071705818176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11734986305237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05599784851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03941583633423</t>
   </si>
   <si>
     <t xml:space="preserve">3.06760501861572</t>
@@ -752,22 +752,22 @@
     <t xml:space="preserve">3.15862154960632</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17884802818298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23278331756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20244455337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20750069618225</t>
+    <t xml:space="preserve">3.1788477897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2327835559845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20244431495667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20750117301941</t>
   </si>
   <si>
     <t xml:space="preserve">3.25300931930542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24458169937134</t>
+    <t xml:space="preserve">3.24458193778992</t>
   </si>
   <si>
     <t xml:space="preserve">3.31368732452393</t>
@@ -779,46 +779,46 @@
     <t xml:space="preserve">3.23109817504883</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21761441230774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23446917533875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13839554786682</t>
+    <t xml:space="preserve">3.21761393547058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23446893692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13839530944824</t>
   </si>
   <si>
     <t xml:space="preserve">3.13671016693115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0423219203949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11985516548157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1265971660614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09457230567932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08614540100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05412077903748</t>
+    <t xml:space="preserve">3.04232215881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11985492706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12659740447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09457278251648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08614492416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05412101745605</t>
   </si>
   <si>
     <t xml:space="preserve">3.05074977874756</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05917739868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99681401252747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01535415649414</t>
+    <t xml:space="preserve">3.05917716026306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99681377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01535439491272</t>
   </si>
   <si>
     <t xml:space="preserve">3.14176654815674</t>
@@ -830,10 +830,10 @@
     <t xml:space="preserve">3.14850854873657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1704204082489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17379140853882</t>
+    <t xml:space="preserve">3.17041993141174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17379093170166</t>
   </si>
   <si>
     <t xml:space="preserve">3.21087193489075</t>
@@ -842,22 +842,22 @@
     <t xml:space="preserve">3.22772693634033</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26986479759216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27829170227051</t>
+    <t xml:space="preserve">3.26986455917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27829194068909</t>
   </si>
   <si>
     <t xml:space="preserve">3.29514694213867</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29851794242859</t>
+    <t xml:space="preserve">3.29851770401001</t>
   </si>
   <si>
     <t xml:space="preserve">3.31874370574951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36088132858276</t>
+    <t xml:space="preserve">3.36088109016418</t>
   </si>
   <si>
     <t xml:space="preserve">3.37436532974243</t>
@@ -866,49 +866,49 @@
     <t xml:space="preserve">3.33728432655334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36256694793701</t>
+    <t xml:space="preserve">3.36256670951843</t>
   </si>
   <si>
     <t xml:space="preserve">3.28840494155884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31537318229675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25806593894958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32885670661926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16030693054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22267079353333</t>
+    <t xml:space="preserve">3.31537294387817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25806546211243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32885694503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16030716896057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22267031669617</t>
   </si>
   <si>
     <t xml:space="preserve">3.23615431785583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23783993721008</t>
+    <t xml:space="preserve">3.2378396987915</t>
   </si>
   <si>
     <t xml:space="preserve">3.21424293518066</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11311340332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1181697845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14682292938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19064617156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09288740158081</t>
+    <t xml:space="preserve">3.11311316490173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11817002296448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1468231678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19064593315125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09288716316223</t>
   </si>
   <si>
     <t xml:space="preserve">3.15693616867065</t>
@@ -917,16 +917,16 @@
     <t xml:space="preserve">3.13502478599548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15356516838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19401717185974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17210555076599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16704893112183</t>
+    <t xml:space="preserve">3.15356492996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19401693344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17210531234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16704916954041</t>
   </si>
   <si>
     <t xml:space="preserve">3.18390417098999</t>
@@ -935,10 +935,10 @@
     <t xml:space="preserve">3.19907379150391</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20918655395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19233179092407</t>
+    <t xml:space="preserve">3.20918703079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19233131408691</t>
   </si>
   <si>
     <t xml:space="preserve">3.20412969589233</t>
@@ -947,28 +947,28 @@
     <t xml:space="preserve">3.2209849357605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24795293807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16873455047607</t>
+    <t xml:space="preserve">3.24795317649841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16873478889465</t>
   </si>
   <si>
     <t xml:space="preserve">3.14345216751099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16367793083191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16536378860474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18558955192566</t>
+    <t xml:space="preserve">3.16367816925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16536331176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18558931350708</t>
   </si>
   <si>
     <t xml:space="preserve">3.15187954902649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00861215591431</t>
+    <t xml:space="preserve">3.00861263275146</t>
   </si>
   <si>
     <t xml:space="preserve">2.9917573928833</t>
@@ -977,88 +977,88 @@
     <t xml:space="preserve">2.89399838447571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93950700759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96647477149963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96984577178955</t>
+    <t xml:space="preserve">2.9395067691803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96647453308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96984624862671</t>
   </si>
   <si>
     <t xml:space="preserve">3.00524163246155</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00018501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02546739578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94287800788879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8973696231842</t>
+    <t xml:space="preserve">3.0001847743988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02546715736389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94287848472595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89736938476562</t>
   </si>
   <si>
     <t xml:space="preserve">2.88557100296021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86871647834778</t>
+    <t xml:space="preserve">2.8687162399292</t>
   </si>
   <si>
     <t xml:space="preserve">2.93782138824463</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80635237693787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8653450012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8484902381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87040162086487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91591024398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03389453887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03052401542664</t>
+    <t xml:space="preserve">2.80635261535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86534476280212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84848999977112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87040138244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91590976715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03389501571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03052353858948</t>
   </si>
   <si>
     <t xml:space="preserve">3.07603240013123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11648392677307</t>
+    <t xml:space="preserve">3.11648440361023</t>
   </si>
   <si>
     <t xml:space="preserve">3.10131478309631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13165378570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12491178512573</t>
+    <t xml:space="preserve">3.13165354728699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12491154670715</t>
   </si>
   <si>
     <t xml:space="preserve">3.08445978164673</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09794425964355</t>
+    <t xml:space="preserve">3.0979437828064</t>
   </si>
   <si>
     <t xml:space="preserve">3.08951616287231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11479878425598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14008116722107</t>
+    <t xml:space="preserve">3.11479902267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14008140563965</t>
   </si>
   <si>
     <t xml:space="preserve">3.17294836044312</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">3.28250551223755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24036836624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25722360610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32042932510376</t>
+    <t xml:space="preserve">3.24036860466003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25722336769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32042908668518</t>
   </si>
   <si>
     <t xml:space="preserve">3.28671956062317</t>
@@ -1091,16 +1091,16 @@
     <t xml:space="preserve">3.03810858726501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98333024978638</t>
+    <t xml:space="preserve">2.98332977294922</t>
   </si>
   <si>
     <t xml:space="preserve">2.93276476860046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19823050498962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13923859596252</t>
+    <t xml:space="preserve">3.1982307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13923811912537</t>
   </si>
   <si>
     <t xml:space="preserve">3.11395597457886</t>
@@ -1112,10 +1112,10 @@
     <t xml:space="preserve">2.97911620140076</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14766597747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08024573326111</t>
+    <t xml:space="preserve">3.14766550064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08024621009827</t>
   </si>
   <si>
     <t xml:space="preserve">3.08867335319519</t>
@@ -1124,13 +1124,13 @@
     <t xml:space="preserve">3.10974216461182</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10552859306335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21508598327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40470385551453</t>
+    <t xml:space="preserve">3.10552835464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21508550643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40470409393311</t>
   </si>
   <si>
     <t xml:space="preserve">3.31621551513672</t>
@@ -1139,28 +1139,28 @@
     <t xml:space="preserve">3.34149813652039</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34992575645447</t>
+    <t xml:space="preserve">3.34992551803589</t>
   </si>
   <si>
     <t xml:space="preserve">3.31200194358826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24879598617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30885720252991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26605153083801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27461266517639</t>
+    <t xml:space="preserve">3.24879574775696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30885672569275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26605129241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27461242675781</t>
   </si>
   <si>
     <t xml:space="preserve">3.25320982933044</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2874538898468</t>
+    <t xml:space="preserve">3.28745412826538</t>
   </si>
   <si>
     <t xml:space="preserve">3.22752642631531</t>
@@ -1169,34 +1169,34 @@
     <t xml:space="preserve">3.15047693252563</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18472146987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20612359046936</t>
+    <t xml:space="preserve">3.18472099304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20612382888794</t>
   </si>
   <si>
     <t xml:space="preserve">3.27033185958862</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3216986656189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31313753128052</t>
+    <t xml:space="preserve">3.32169842720032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31313729286194</t>
   </si>
   <si>
     <t xml:space="preserve">3.16759920120239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13335466384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24892902374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17616009712219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18900179862976</t>
+    <t xml:space="preserve">3.13335490226746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24892926216125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17616033554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18900156021118</t>
   </si>
   <si>
     <t xml:space="preserve">3.20184350013733</t>
@@ -1208,13 +1208,13 @@
     <t xml:space="preserve">3.21896553039551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23608779907227</t>
+    <t xml:space="preserve">3.23608732223511</t>
   </si>
   <si>
     <t xml:space="preserve">3.14619636535645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19756269454956</t>
+    <t xml:space="preserve">3.19756293296814</t>
   </si>
   <si>
     <t xml:space="preserve">3.23180723190308</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">3.25749039649963</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27889323234558</t>
+    <t xml:space="preserve">3.278892993927</t>
   </si>
   <si>
     <t xml:space="preserve">3.30029582977295</t>
@@ -1241,52 +1241,52 @@
     <t xml:space="preserve">3.39018726348877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37734508514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34310102462769</t>
+    <t xml:space="preserve">3.37734532356262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34310150146484</t>
   </si>
   <si>
     <t xml:space="preserve">3.42443132400513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.492919921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56140851974487</t>
+    <t xml:space="preserve">3.49292016029358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56140828132629</t>
   </si>
   <si>
     <t xml:space="preserve">3.50148105621338</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61277461051941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51860356330872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55284762382507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58709168434143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54428648948669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52716422080994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45439481735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4458339214325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54000616073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36878442764282</t>
+    <t xml:space="preserve">3.61277484893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51860308647156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55284786224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58709192276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54428625106812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52716445922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45439505577087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44583415985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5400059223175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3687846660614</t>
   </si>
   <si>
     <t xml:space="preserve">3.385906457901</t>
@@ -1304,97 +1304,97 @@
     <t xml:space="preserve">3.34738183021545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46723675727844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64701986312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65986108779907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62133622169495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65129995346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65558052062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73691082000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62989664077759</t>
+    <t xml:space="preserve">3.46723699569702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6470193862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65986061096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62133598327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65129971504211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6555802822113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73691058158875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62989687919617</t>
   </si>
   <si>
     <t xml:space="preserve">3.6384584903717</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69410586357117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85676574707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96377921104431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79683828353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83964395523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87388825416565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90385127067566</t>
+    <t xml:space="preserve">3.69410538673401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85676550865173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96377944946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79683804512024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83964371681213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831270217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87388849258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90385174751282</t>
   </si>
   <si>
     <t xml:space="preserve">3.87816905975342</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91669344902039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99802327156067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98946237564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02370643615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14784240722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10075664520264</t>
+    <t xml:space="preserve">3.91669321060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99802374839783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98946261405945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02370691299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1478419303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10075616836548</t>
   </si>
   <si>
     <t xml:space="preserve">4.00658464431763</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94665813446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8952910900116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93809580802917</t>
+    <t xml:space="preserve">3.94665741920471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89529085159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9380955696106</t>
   </si>
   <si>
     <t xml:space="preserve">3.86960768699646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94237685203552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95521831512451</t>
+    <t xml:space="preserve">3.94237613677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95521807670593</t>
   </si>
   <si>
     <t xml:space="preserve">3.80967974662781</t>
@@ -1403,70 +1403,70 @@
     <t xml:space="preserve">3.92097425460815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76687407493591</t>
+    <t xml:space="preserve">3.76687455177307</t>
   </si>
   <si>
     <t xml:space="preserve">3.98090171813965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03226757049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07079315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08363485336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99374222755432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95093750953674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92953515052795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74119162559509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74975180625916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66414189338684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60421419143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77971625328064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71550846099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85248589515686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79255747795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71978878974915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77543544769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75403308868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88244843482971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8610463142395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7711546421051</t>
+    <t xml:space="preserve">4.03226804733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07079362869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08363437652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99374318122864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95093727111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92953491210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74119091033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74975204467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66414165496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60421371459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7797167301178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71550798416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85248517990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79255771636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71978855133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77543592453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7540328502655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88244915008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86104607582092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77115535736084</t>
   </si>
   <si>
     <t xml:space="preserve">3.8053994178772</t>
@@ -1475,22 +1475,22 @@
     <t xml:space="preserve">3.82252168655396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72406911849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73263049125671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93381547927856</t>
+    <t xml:space="preserve">3.72406935691833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73263025283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93381500244141</t>
   </si>
   <si>
     <t xml:space="preserve">3.97234034538269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01514625549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08791446685791</t>
+    <t xml:space="preserve">4.01514577865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08791542053223</t>
   </si>
   <si>
     <t xml:space="preserve">4.16924524307251</t>
@@ -1505,46 +1505,46 @@
     <t xml:space="preserve">4.28053903579712</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32334470748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27197790145874</t>
+    <t xml:space="preserve">4.32334518432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2719783782959</t>
   </si>
   <si>
     <t xml:space="preserve">4.18208694458008</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17780637741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16068458557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22917318344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17352628707886</t>
+    <t xml:space="preserve">4.17780685424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16068410873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22917222976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1735258102417</t>
   </si>
   <si>
     <t xml:space="preserve">4.16496467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14356231689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34902811050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4860053062439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61442041397095</t>
+    <t xml:space="preserve">4.14356184005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34902715682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48600482940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61442136764526</t>
   </si>
   <si>
     <t xml:space="preserve">4.58873796463013</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67434883117676</t>
+    <t xml:space="preserve">4.67434930801392</t>
   </si>
   <si>
     <t xml:space="preserve">4.57161617279053</t>
@@ -1562,13 +1562,13 @@
     <t xml:space="preserve">4.77708148956299</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75995969772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72571468353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53737163543701</t>
+    <t xml:space="preserve">4.75995922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72571563720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53737115859985</t>
   </si>
   <si>
     <t xml:space="preserve">4.52881050109863</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">4.56305456161499</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58017683029175</t>
+    <t xml:space="preserve">4.58017730712891</t>
   </si>
   <si>
     <t xml:space="preserve">4.6401047706604</t>
@@ -1586,31 +1586,31 @@
     <t xml:space="preserve">4.69147109985352</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70859289169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70003223419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49456548690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6229829788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85413217544556</t>
+    <t xml:space="preserve">4.70859336853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70003175735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49456644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62298250198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8541316986084</t>
   </si>
   <si>
     <t xml:space="preserve">4.90549802780151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83700895309448</t>
+    <t xml:space="preserve">4.8370099067688</t>
   </si>
   <si>
     <t xml:space="preserve">4.78564310073853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75139808654785</t>
+    <t xml:space="preserve">4.75139856338501</t>
   </si>
   <si>
     <t xml:space="preserve">4.59729909896851</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">4.50312757492065</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47744417190552</t>
+    <t xml:space="preserve">4.47744369506836</t>
   </si>
   <si>
     <t xml:space="preserve">4.46888303756714</t>
@@ -1637,16 +1637,16 @@
     <t xml:space="preserve">4.55733585357666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60992097854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48722267150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46093082427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39081764221191</t>
+    <t xml:space="preserve">4.60992050170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48722314834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46093130111694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39081811904907</t>
   </si>
   <si>
     <t xml:space="preserve">4.35576152801514</t>
@@ -1658,19 +1658,19 @@
     <t xml:space="preserve">4.39958190917969</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4696946144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53104400634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54857206344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4434027671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47845935821533</t>
+    <t xml:space="preserve">4.46969509124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53104448318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54857158660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44340229034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47845888137817</t>
   </si>
   <si>
     <t xml:space="preserve">4.53980779647827</t>
@@ -1679,49 +1679,49 @@
     <t xml:space="preserve">4.50475120544434</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31632375717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35137891769409</t>
+    <t xml:space="preserve">4.31632328033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35137987136841</t>
   </si>
   <si>
     <t xml:space="preserve">4.21553564071655</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12789440155029</t>
+    <t xml:space="preserve">4.12789487838745</t>
   </si>
   <si>
     <t xml:space="preserve">4.16733360290527</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06216478347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11474800109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02710771560669</t>
+    <t xml:space="preserve">4.06216382980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11474847793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02710723876953</t>
   </si>
   <si>
     <t xml:space="preserve">4.07092809677124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06654596328735</t>
+    <t xml:space="preserve">4.06654644012451</t>
   </si>
   <si>
     <t xml:space="preserve">4.0227255821228</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04463529586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04025459289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09283781051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00519752502441</t>
+    <t xml:space="preserve">4.04463577270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04025363922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09283828735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00519800186157</t>
   </si>
   <si>
     <t xml:space="preserve">4.15418672561646</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">4.171715259552</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19362545013428</t>
+    <t xml:space="preserve">4.19362497329712</t>
   </si>
   <si>
     <t xml:space="preserve">4.34699726104736</t>
@@ -1742,28 +1742,28 @@
     <t xml:space="preserve">4.3820538520813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11036682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91755604743958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95261263847351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96575903892517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0840744972229</t>
+    <t xml:space="preserve">4.1103663444519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.917555809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95261287689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96575880050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08407402038574</t>
   </si>
   <si>
     <t xml:space="preserve">4.10160207748413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01396179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9438488483429</t>
+    <t xml:space="preserve">4.01396131515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94384837150574</t>
   </si>
   <si>
     <t xml:space="preserve">3.84744310379028</t>
@@ -1772,100 +1772,100 @@
     <t xml:space="preserve">3.79047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77733039855957</t>
+    <t xml:space="preserve">3.77733016014099</t>
   </si>
   <si>
     <t xml:space="preserve">3.75103855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75980257987976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78171300888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73789191246033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73351049423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79485869407654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89126372337341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03148937225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93508386611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86058902740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92193841934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85620713233948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76856660842896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8080050945282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78609466552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67216086387634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82991552352905</t>
+    <t xml:space="preserve">3.7598021030426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78171253204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73789167404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7335102558136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79485845565796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89126348495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03148984909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9350848197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86058950424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92193794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85620737075806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76856637001038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80800461769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7860951423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6721613407135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82991480827332</t>
   </si>
   <si>
     <t xml:space="preserve">3.72474575042725</t>
   </si>
   <si>
-    <t xml:space="preserve">3.799241065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86497139930725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72036361694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74227380752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7466561794281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68968939781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64586853981018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71598124504089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72912788391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70283555984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04901790618896</t>
+    <t xml:space="preserve">3.79924058914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86497116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72036385536194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74227356910706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74665641784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68968915939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64586877822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71598172187805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72912812232971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70283532142639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04901742935181</t>
   </si>
   <si>
     <t xml:space="preserve">4.03587198257446</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97890448570251</t>
+    <t xml:space="preserve">3.97890472412109</t>
   </si>
   <si>
     <t xml:space="preserve">4.00957918167114</t>
@@ -1874,28 +1874,28 @@
     <t xml:space="preserve">4.0972204208374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18048000335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22429990768433</t>
+    <t xml:space="preserve">4.18047952651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22429943084717</t>
   </si>
   <si>
     <t xml:space="preserve">4.32946920394897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33385181427002</t>
+    <t xml:space="preserve">4.33385133743286</t>
   </si>
   <si>
     <t xml:space="preserve">4.52227973937988</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51351594924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68003368377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67126893997192</t>
+    <t xml:space="preserve">4.51351499557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6800332069397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67126989364624</t>
   </si>
   <si>
     <t xml:space="preserve">4.58362817764282</t>
@@ -1904,13 +1904,13 @@
     <t xml:space="preserve">4.64497709274292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57486438751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62744855880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68879795074463</t>
+    <t xml:space="preserve">4.57486343383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62744903564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68879699707031</t>
   </si>
   <si>
     <t xml:space="preserve">4.87284421920776</t>
@@ -1922,22 +1922,22 @@
     <t xml:space="preserve">4.79396677017212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74138164520264</t>
+    <t xml:space="preserve">4.74138212203979</t>
   </si>
   <si>
     <t xml:space="preserve">4.82025909423828</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81149482727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7852029800415</t>
+    <t xml:space="preserve">4.81149435043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78520250320435</t>
   </si>
   <si>
     <t xml:space="preserve">4.77643871307373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80273151397705</t>
+    <t xml:space="preserve">4.80273103713989</t>
   </si>
   <si>
     <t xml:space="preserve">4.76767492294312</t>
@@ -1949,55 +1949,55 @@
     <t xml:space="preserve">4.5923924446106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63621282577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60115623474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61868476867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86407947540283</t>
+    <t xml:space="preserve">4.6362133026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60115718841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6186842918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86407995223999</t>
   </si>
   <si>
     <t xml:space="preserve">4.75891065597534</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70632553100586</t>
+    <t xml:space="preserve">4.70632648468018</t>
   </si>
   <si>
     <t xml:space="preserve">4.82902383804321</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73261880874634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32070541381836</t>
+    <t xml:space="preserve">4.73261833190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3207049369812</t>
   </si>
   <si>
     <t xml:space="preserve">4.24182844161987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28564882278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45216703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69756174087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19800758361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82553315162659</t>
+    <t xml:space="preserve">4.28564834594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45216655731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6975622177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19800806045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82553267478943</t>
   </si>
   <si>
     <t xml:space="preserve">3.54069924354553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.431147813797</t>
+    <t xml:space="preserve">3.43114852905273</t>
   </si>
   <si>
     <t xml:space="preserve">3.37856364250183</t>
@@ -2006,25 +2006,25 @@
     <t xml:space="preserve">3.22957372665405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28654026985168</t>
+    <t xml:space="preserve">3.28654050827026</t>
   </si>
   <si>
     <t xml:space="preserve">2.86148118972778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97541475296021</t>
+    <t xml:space="preserve">2.97541451454163</t>
   </si>
   <si>
     <t xml:space="preserve">2.9228298664093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94474005699158</t>
+    <t xml:space="preserve">2.94474029541016</t>
   </si>
   <si>
     <t xml:space="preserve">2.78698635101318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72125554084778</t>
+    <t xml:space="preserve">2.7212553024292</t>
   </si>
   <si>
     <t xml:space="preserve">2.85709929466248</t>
@@ -2036,10 +2036,10 @@
     <t xml:space="preserve">2.77822232246399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97979664802551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87024545669556</t>
+    <t xml:space="preserve">2.97979640960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87024521827698</t>
   </si>
   <si>
     <t xml:space="preserve">2.75631189346313</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">2.71249127388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90091967582703</t>
+    <t xml:space="preserve">2.90091943740845</t>
   </si>
   <si>
     <t xml:space="preserve">2.82204270362854</t>
@@ -2063,70 +2063,70 @@
     <t xml:space="preserve">2.76507592201233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90968370437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94912242889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98856067657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06743788719177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02361726760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99732518196106</t>
+    <t xml:space="preserve">2.9096839427948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94912219047546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98856091499329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06743741035461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02361750602722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9973247051239</t>
   </si>
   <si>
     <t xml:space="preserve">3.00170683860779</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04114508628845</t>
+    <t xml:space="preserve">3.04114556312561</t>
   </si>
   <si>
     <t xml:space="preserve">3.07181978225708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00608897209167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03676295280457</t>
+    <t xml:space="preserve">3.00608921051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03676342964172</t>
   </si>
   <si>
     <t xml:space="preserve">3.01047110557556</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16822481155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10249447822571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11125826835632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14631462097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19451713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09372997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15507888793945</t>
+    <t xml:space="preserve">3.16822528839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10249400138855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1112585067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14631485939026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1945173740387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09373021125793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15507864952087</t>
   </si>
   <si>
     <t xml:space="preserve">3.25586605072021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31283259391785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22519159317017</t>
+    <t xml:space="preserve">3.31283283233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22519183158875</t>
   </si>
   <si>
     <t xml:space="preserve">3.21204543113708</t>
@@ -2135,28 +2135,28 @@
     <t xml:space="preserve">3.24710178375244</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19889950752258</t>
+    <t xml:space="preserve">3.198899269104</t>
   </si>
   <si>
     <t xml:space="preserve">3.18137121200562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37418127059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45305848121643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50564312934875</t>
+    <t xml:space="preserve">3.37418150901794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45305824279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50564289093018</t>
   </si>
   <si>
     <t xml:space="preserve">3.55384564399719</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53193545341492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54946351051331</t>
+    <t xml:space="preserve">3.5319356918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54946398735046</t>
   </si>
   <si>
     <t xml:space="preserve">3.38294553756714</t>
@@ -2168,22 +2168,22 @@
     <t xml:space="preserve">3.2602481842041</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44867634773254</t>
+    <t xml:space="preserve">3.44867658615112</t>
   </si>
   <si>
     <t xml:space="preserve">3.44429445266724</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41800212860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43991231918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49687933921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51002550125122</t>
+    <t xml:space="preserve">3.4180018901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43991208076477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49687910079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51002502441406</t>
   </si>
   <si>
     <t xml:space="preserve">3.51440739631653</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">3.70322108268738</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65360426902771</t>
+    <t xml:space="preserve">3.65360450744629</t>
   </si>
   <si>
     <t xml:space="preserve">3.59045577049255</t>
@@ -2213,10 +2213,10 @@
     <t xml:space="preserve">3.51828575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4280731678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45513701438904</t>
+    <t xml:space="preserve">3.42807292938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45513677597046</t>
   </si>
   <si>
     <t xml:space="preserve">3.4867115020752</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">3.24764823913574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31981825828552</t>
+    <t xml:space="preserve">3.3198184967041</t>
   </si>
   <si>
     <t xml:space="preserve">3.27020120620728</t>
@@ -2276,37 +2276,37 @@
     <t xml:space="preserve">3.13939309120178</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12135100364685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04015946388245</t>
+    <t xml:space="preserve">3.12135076522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04015922546387</t>
   </si>
   <si>
     <t xml:space="preserve">3.02211713790894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00407433509827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9950532913208</t>
+    <t xml:space="preserve">3.00407457351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99505352973938</t>
   </si>
   <si>
     <t xml:space="preserve">3.15292501449585</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13037180900574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11684012413025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04467010498047</t>
+    <t xml:space="preserve">3.13037204742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11684036254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04467034339905</t>
   </si>
   <si>
     <t xml:space="preserve">2.9634792804718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89130902290344</t>
+    <t xml:space="preserve">2.89130878448486</t>
   </si>
   <si>
     <t xml:space="preserve">2.92739391326904</t>
@@ -2327,25 +2327,25 @@
     <t xml:space="preserve">2.88679838180542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8507137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97701096534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87777733802795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85522413253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86424541473389</t>
+    <t xml:space="preserve">2.85071349143982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97701120376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87777709960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85522437095642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86424517631531</t>
   </si>
   <si>
     <t xml:space="preserve">2.81462836265564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77854347229004</t>
+    <t xml:space="preserve">2.77854323387146</t>
   </si>
   <si>
     <t xml:space="preserve">2.76952219009399</t>
@@ -2354,13 +2354,13 @@
     <t xml:space="preserve">2.73794794082642</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68833112716675</t>
+    <t xml:space="preserve">2.68833136558533</t>
   </si>
   <si>
     <t xml:space="preserve">2.67028856277466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63420343399048</t>
+    <t xml:space="preserve">2.63420367240906</t>
   </si>
   <si>
     <t xml:space="preserve">2.59811878204346</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">2.6026291847229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54399132728577</t>
+    <t xml:space="preserve">2.54399108886719</t>
   </si>
   <si>
     <t xml:space="preserve">2.62518239021301</t>
@@ -2387,28 +2387,28 @@
     <t xml:space="preserve">3.06271290779114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2431378364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23411655426025</t>
+    <t xml:space="preserve">3.24313759803772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23411631584167</t>
   </si>
   <si>
     <t xml:space="preserve">3.25666928291321</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3559033870697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36492466926575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54986000061035</t>
+    <t xml:space="preserve">3.35590314865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36492443084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54985976219177</t>
   </si>
   <si>
     <t xml:space="preserve">3.48220062255859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55437064170837</t>
+    <t xml:space="preserve">3.55437088012695</t>
   </si>
   <si>
     <t xml:space="preserve">3.52730703353882</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">3.56339192390442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58143424987793</t>
+    <t xml:space="preserve">3.58143448829651</t>
   </si>
   <si>
     <t xml:space="preserve">3.51377487182617</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">3.72577428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69871044158936</t>
+    <t xml:space="preserve">3.69871020317078</t>
   </si>
   <si>
     <t xml:space="preserve">3.68066787719727</t>
@@ -2459,13 +2459,13 @@
     <t xml:space="preserve">3.61751961708069</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60849809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64458274841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57692384719849</t>
+    <t xml:space="preserve">3.60849833488464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64458298683167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57692360877991</t>
   </si>
   <si>
     <t xml:space="preserve">3.66262531280518</t>
@@ -2474,10 +2474,10 @@
     <t xml:space="preserve">3.64909386634827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82049775123596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81598663330078</t>
+    <t xml:space="preserve">3.82049751281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81598687171936</t>
   </si>
   <si>
     <t xml:space="preserve">3.80696511268616</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">3.85207152366638</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91522073745728</t>
+    <t xml:space="preserve">3.91522097587585</t>
   </si>
   <si>
     <t xml:space="preserve">3.75734853744507</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">3.76185917854309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67164707183838</t>
+    <t xml:space="preserve">3.6716468334198</t>
   </si>
   <si>
     <t xml:space="preserve">3.73930621147156</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">3.86109328269958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00543260574341</t>
+    <t xml:space="preserve">4.00543308258057</t>
   </si>
   <si>
     <t xml:space="preserve">4.0189642906189</t>
@@ -3855,6 +3855,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.54999995231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53999996185303</t>
   </si>
 </sst>
 </file>
@@ -60720,7 +60723,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6493402778</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>12271</v>
@@ -60741,6 +60744,32 @@
         <v>1280</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.5857986111</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>2312</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>3.55999994277954</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>3.49000000953674</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>3.55999994277954</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>3.53999996185303</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BAN.MI.xlsx
+++ b/data/BAN.MI.xlsx
@@ -44,52 +44,52 @@
     <t xml:space="preserve">BAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75724601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66247153282166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53235650062561</t>
+    <t xml:space="preserve">3.7572455406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66247129440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53235673904419</t>
   </si>
   <si>
     <t xml:space="preserve">3.48737955093384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42473196983337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51468729972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53396368026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5211124420166</t>
+    <t xml:space="preserve">3.42473149299622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51468753814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53396344184875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52111220359802</t>
   </si>
   <si>
     <t xml:space="preserve">3.50023007392883</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45204019546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47774124145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17896127700806</t>
+    <t xml:space="preserve">3.45203995704651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47774147987366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17896056175232</t>
   </si>
   <si>
     <t xml:space="preserve">3.30586266517639</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35726523399353</t>
+    <t xml:space="preserve">3.35726547241211</t>
   </si>
   <si>
     <t xml:space="preserve">3.27694797515869</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33316993713379</t>
+    <t xml:space="preserve">3.33317041397095</t>
   </si>
   <si>
     <t xml:space="preserve">3.25767207145691</t>
@@ -98,82 +98,82 @@
     <t xml:space="preserve">3.19663071632385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2930109500885</t>
+    <t xml:space="preserve">3.29301118850708</t>
   </si>
   <si>
     <t xml:space="preserve">3.2303638458252</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23678922653198</t>
+    <t xml:space="preserve">3.23678946495056</t>
   </si>
   <si>
     <t xml:space="preserve">3.13237714767456</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21269392967224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11149406433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98780560493469</t>
+    <t xml:space="preserve">3.21269416809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11149430274963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98780536651611</t>
   </si>
   <si>
     <t xml:space="preserve">2.97174215316772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89142465591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88339304924011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80789494514465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80950117111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81110715866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95246624946594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04242134094238</t>
+    <t xml:space="preserve">2.89142489433289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88339328765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80789470672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80950093269348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81110739707947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95246648788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04242181777954</t>
   </si>
   <si>
     <t xml:space="preserve">3.02153897285461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05366587638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12113237380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17253565788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13077020645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02314519882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05205965042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06812310218811</t>
+    <t xml:space="preserve">3.05366539955139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12113261222839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17253589630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13076996803284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314496040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05205941200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06812286376953</t>
   </si>
   <si>
     <t xml:space="preserve">3.03599619865417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12434554100037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18056702613831</t>
+    <t xml:space="preserve">3.12434506416321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18056750297546</t>
   </si>
   <si>
     <t xml:space="preserve">3.24482107162476</t>
@@ -182,55 +182,55 @@
     <t xml:space="preserve">3.1645040512085</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19984340667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29783034324646</t>
+    <t xml:space="preserve">3.19984316825867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29783058166504</t>
   </si>
   <si>
     <t xml:space="preserve">3.40545535087585</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37332892417908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30907464027405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3074688911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18859887123108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26088452339172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26730966567993</t>
+    <t xml:space="preserve">3.37332844734192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30907511711121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30746865272522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18859934806824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26088428497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26731014251709</t>
   </si>
   <si>
     <t xml:space="preserve">3.16611003875732</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17574787139893</t>
+    <t xml:space="preserve">3.1757481098175</t>
   </si>
   <si>
     <t xml:space="preserve">3.20466256141663</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10828185081482</t>
+    <t xml:space="preserve">3.10828161239624</t>
   </si>
   <si>
     <t xml:space="preserve">3.06009125709534</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01993227005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15647220611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02796459197998</t>
+    <t xml:space="preserve">3.01993274688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15647196769714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02796387672424</t>
   </si>
   <si>
     <t xml:space="preserve">2.92033910751343</t>
@@ -239,19 +239,19 @@
     <t xml:space="preserve">2.93158340454102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96852922439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0456337928772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06169748306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0761547088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98619937896729</t>
+    <t xml:space="preserve">2.96852946281433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04563426971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06169772148132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07615494728088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98619914054871</t>
   </si>
   <si>
     <t xml:space="preserve">2.9797739982605</t>
@@ -263,67 +263,67 @@
     <t xml:space="preserve">2.87054228782654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89785051345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85769128799438</t>
+    <t xml:space="preserve">2.89785003662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85769176483154</t>
   </si>
   <si>
     <t xml:space="preserve">2.78379964828491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70508885383606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73560905456543</t>
+    <t xml:space="preserve">2.70508861541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73560881614685</t>
   </si>
   <si>
     <t xml:space="preserve">2.76934218406677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81913900375366</t>
+    <t xml:space="preserve">2.81913876533508</t>
   </si>
   <si>
     <t xml:space="preserve">2.83520245552063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77898073196411</t>
+    <t xml:space="preserve">2.77898049354553</t>
   </si>
   <si>
     <t xml:space="preserve">2.64244103431702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58621883392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54445338249207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52999687194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57015514373779</t>
+    <t xml:space="preserve">2.58621907234192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54445385932922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52999663352966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57015538215637</t>
   </si>
   <si>
     <t xml:space="preserve">2.65803813934326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63979816436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61160945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61326766014099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66135430335999</t>
+    <t xml:space="preserve">2.63979840278625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61160969734192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61326718330383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66135406494141</t>
   </si>
   <si>
     <t xml:space="preserve">2.64477276802063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63316583633423</t>
+    <t xml:space="preserve">2.63316535949707</t>
   </si>
   <si>
     <t xml:space="preserve">2.65306329727173</t>
@@ -332,10 +332,10 @@
     <t xml:space="preserve">2.77576780319214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87691617012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86033415794373</t>
+    <t xml:space="preserve">2.87691593170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8603343963623</t>
   </si>
   <si>
     <t xml:space="preserve">2.73597168922424</t>
@@ -344,46 +344,43 @@
     <t xml:space="preserve">2.76913499832153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49553751945496</t>
+    <t xml:space="preserve">2.49553775787354</t>
   </si>
   <si>
     <t xml:space="preserve">2.44579291343689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55357336997986</t>
+    <t xml:space="preserve">2.55357360839844</t>
   </si>
   <si>
     <t xml:space="preserve">2.5253849029541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57015490531921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57844567298889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55854821205139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45408368110657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23852252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27997636795044</t>
+    <t xml:space="preserve">2.57844614982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55854845046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45408391952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23852229118347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27997660636902</t>
   </si>
   <si>
     <t xml:space="preserve">2.34132862091064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31977295875549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40433883666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42092061042786</t>
+    <t xml:space="preserve">2.31977248191833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4043390750885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4209201335907</t>
   </si>
   <si>
     <t xml:space="preserve">2.33801221847534</t>
@@ -395,34 +392,34 @@
     <t xml:space="preserve">2.27002739906311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32972145080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35127758979797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37780809402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38278317451477</t>
+    <t xml:space="preserve">2.32972168922424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35127735137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37780833244324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38278293609619</t>
   </si>
   <si>
     <t xml:space="preserve">2.37946629524231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36620092391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42921137809753</t>
+    <t xml:space="preserve">2.36620116233826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42921161651611</t>
   </si>
   <si>
     <t xml:space="preserve">2.58673691749573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59502768516541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61990022659302</t>
+    <t xml:space="preserve">2.59502792358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6199004650116</t>
   </si>
   <si>
     <t xml:space="preserve">2.95484948158264</t>
@@ -434,37 +431,37 @@
     <t xml:space="preserve">2.86862516403198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64808917045593</t>
+    <t xml:space="preserve">2.64808893203735</t>
   </si>
   <si>
     <t xml:space="preserve">2.62819123268127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62487435340881</t>
+    <t xml:space="preserve">2.62487459182739</t>
   </si>
   <si>
     <t xml:space="preserve">2.61824226379395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58342027664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58839511871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68954300880432</t>
+    <t xml:space="preserve">2.583420753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5883948802948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6895432472229</t>
   </si>
   <si>
     <t xml:space="preserve">2.68291068077087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69949221611023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70612502098083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69120168685913</t>
+    <t xml:space="preserve">2.69949197769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70612478256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69120144844055</t>
   </si>
   <si>
     <t xml:space="preserve">2.69451761245728</t>
@@ -473,13 +470,13 @@
     <t xml:space="preserve">2.74592089653015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81224727630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84872770309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81888008117676</t>
+    <t xml:space="preserve">2.81224751472473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84872722625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81887984275818</t>
   </si>
   <si>
     <t xml:space="preserve">2.78571653366089</t>
@@ -488,49 +485,49 @@
     <t xml:space="preserve">2.70778274536133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71109938621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79732441902161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82385420799255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76084423065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78240036964417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79566550254822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82551288604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.857017993927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74923706054688</t>
+    <t xml:space="preserve">2.71109914779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79732418060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82385444641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76084399223328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78240060806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79566597938538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82551264762878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85701823234558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74923729896545</t>
   </si>
   <si>
     <t xml:space="preserve">2.72104811668396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70115041732788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67793607711792</t>
+    <t xml:space="preserve">2.7011501789093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67793583869934</t>
   </si>
   <si>
     <t xml:space="preserve">2.64974737167358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66964507102966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71939039230347</t>
+    <t xml:space="preserve">2.66964530944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71938991546631</t>
   </si>
   <si>
     <t xml:space="preserve">2.6862268447876</t>
@@ -539,13 +536,13 @@
     <t xml:space="preserve">2.74260473251343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65472197532654</t>
+    <t xml:space="preserve">2.65472149848938</t>
   </si>
   <si>
     <t xml:space="preserve">2.73099708557129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76416087150574</t>
+    <t xml:space="preserve">2.76416063308716</t>
   </si>
   <si>
     <t xml:space="preserve">2.81058955192566</t>
@@ -554,46 +551,46 @@
     <t xml:space="preserve">2.78074193000793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77742600440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88520693778992</t>
+    <t xml:space="preserve">2.77742576599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88520669937134</t>
   </si>
   <si>
     <t xml:space="preserve">2.79898190498352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81722211837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79400753974915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7591860294342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74426245689392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66467070579529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78737473487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72933912277222</t>
+    <t xml:space="preserve">2.81722187995911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79400730133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75918579101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7442626953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66467094421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78737497329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7293393611908</t>
   </si>
   <si>
     <t xml:space="preserve">2.67627787590027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64643096923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60497713088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60166025161743</t>
+    <t xml:space="preserve">2.6464307308197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60497689247131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60166049003601</t>
   </si>
   <si>
     <t xml:space="preserve">2.56352257728577</t>
@@ -602,22 +599,22 @@
     <t xml:space="preserve">2.517094373703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55191540718079</t>
+    <t xml:space="preserve">2.55191588401794</t>
   </si>
   <si>
     <t xml:space="preserve">2.63648200035095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68456840515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70944118499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72270655632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77908420562744</t>
+    <t xml:space="preserve">2.68456888198853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70944142341614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72270631790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77908396720886</t>
   </si>
   <si>
     <t xml:space="preserve">2.83877801895142</t>
@@ -626,67 +623,67 @@
     <t xml:space="preserve">2.82717084884644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83380365371704</t>
+    <t xml:space="preserve">2.83380317687988</t>
   </si>
   <si>
     <t xml:space="preserve">2.75421166419983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82882905006409</t>
+    <t xml:space="preserve">2.82882881164551</t>
   </si>
   <si>
     <t xml:space="preserve">2.82053828239441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77245140075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80063986778259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83546209335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8022985458374</t>
+    <t xml:space="preserve">2.77245163917542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80064010620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83546185493469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80229878425598</t>
   </si>
   <si>
     <t xml:space="preserve">2.65637993812561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67959403991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70280838012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74757933616638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75255346298218</t>
+    <t xml:space="preserve">2.67959427833557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70280861854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74757862091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7525532245636</t>
   </si>
   <si>
     <t xml:space="preserve">2.98137998580933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9432418346405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05931401252747</t>
+    <t xml:space="preserve">2.94324254989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05931377410889</t>
   </si>
   <si>
     <t xml:space="preserve">3.03444147109985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02946662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02283453941345</t>
+    <t xml:space="preserve">3.0294668674469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02283406257629</t>
   </si>
   <si>
     <t xml:space="preserve">3.00127792358398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99298715591431</t>
+    <t xml:space="preserve">2.99298691749573</t>
   </si>
   <si>
     <t xml:space="preserve">2.95650768280029</t>
@@ -695,85 +692,85 @@
     <t xml:space="preserve">2.94987535476685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93660998344421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93329358100891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90178799629211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87857389450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90676283836365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97806406021118</t>
+    <t xml:space="preserve">2.93660974502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93329310417175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90178847312927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87857413291931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90676236152649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9780638217926</t>
   </si>
   <si>
     <t xml:space="preserve">2.98469638824463</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05102348327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97308945655823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97474718093872</t>
+    <t xml:space="preserve">3.05102300643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97308897972107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97474765777588</t>
   </si>
   <si>
     <t xml:space="preserve">3.0178599357605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01620149612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01122713088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11071729660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11734938621521</t>
+    <t xml:space="preserve">3.01620173454285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01122689247131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11071705818176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11734986305237</t>
   </si>
   <si>
     <t xml:space="preserve">3.05599784851074</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03941583633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06760454177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15862154960632</t>
+    <t xml:space="preserve">3.03941535949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06760478019714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1586217880249</t>
   </si>
   <si>
     <t xml:space="preserve">3.17884755134583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23278331756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20244455337524</t>
+    <t xml:space="preserve">3.2327835559845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20244431495667</t>
   </si>
   <si>
     <t xml:space="preserve">3.20750093460083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25300931930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24458169937134</t>
+    <t xml:space="preserve">3.253009557724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24458193778992</t>
   </si>
   <si>
     <t xml:space="preserve">3.31368732452393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28166270256042</t>
+    <t xml:space="preserve">3.281662940979</t>
   </si>
   <si>
     <t xml:space="preserve">3.23109793663025</t>
@@ -785,19 +782,19 @@
     <t xml:space="preserve">3.23446917533875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13839554786682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13670992851257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04232215881348</t>
+    <t xml:space="preserve">3.1383957862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13671016693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0423219203949</t>
   </si>
   <si>
     <t xml:space="preserve">3.11985492706299</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1265971660614</t>
+    <t xml:space="preserve">3.12659740447998</t>
   </si>
   <si>
     <t xml:space="preserve">3.0945725440979</t>
@@ -809,10 +806,10 @@
     <t xml:space="preserve">3.05412077903748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05074954032898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05917739868164</t>
+    <t xml:space="preserve">3.05074977874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05917716026306</t>
   </si>
   <si>
     <t xml:space="preserve">2.99681425094604</t>
@@ -821,16 +818,16 @@
     <t xml:space="preserve">3.01535439491272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14176678657532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15019416809082</t>
+    <t xml:space="preserve">3.14176654815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15019392967224</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850878715515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17042016983032</t>
+    <t xml:space="preserve">3.17041993141174</t>
   </si>
   <si>
     <t xml:space="preserve">3.17379117012024</t>
@@ -845,10 +842,10 @@
     <t xml:space="preserve">3.26986455917358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27829241752625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29514694213867</t>
+    <t xml:space="preserve">3.27829217910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29514670372009</t>
   </si>
   <si>
     <t xml:space="preserve">3.29851794242859</t>
@@ -857,28 +854,28 @@
     <t xml:space="preserve">3.31874370574951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36088109016418</t>
+    <t xml:space="preserve">3.36088132858276</t>
   </si>
   <si>
     <t xml:space="preserve">3.37436532974243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33728432655334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36256670951843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28840470314026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31537270545959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25806593894958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32885670661926</t>
+    <t xml:space="preserve">3.33728456497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36256694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28840494155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31537294387817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25806570053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32885694503784</t>
   </si>
   <si>
     <t xml:space="preserve">3.16030716896057</t>
@@ -887,13 +884,13 @@
     <t xml:space="preserve">3.22267055511475</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23615455627441</t>
+    <t xml:space="preserve">3.23615431785583</t>
   </si>
   <si>
     <t xml:space="preserve">3.23783993721008</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21424317359924</t>
+    <t xml:space="preserve">3.21424293518066</t>
   </si>
   <si>
     <t xml:space="preserve">3.11311316490173</t>
@@ -902,10 +899,10 @@
     <t xml:space="preserve">3.11816954612732</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1468231678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1906464099884</t>
+    <t xml:space="preserve">3.14682292938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19064593315125</t>
   </si>
   <si>
     <t xml:space="preserve">3.09288740158081</t>
@@ -914,46 +911,46 @@
     <t xml:space="preserve">3.15693616867065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1350245475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15356516838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19401717185974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17210555076599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16704916954041</t>
+    <t xml:space="preserve">3.13502478599548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15356540679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19401693344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17210531234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16704893112183</t>
   </si>
   <si>
     <t xml:space="preserve">3.18390393257141</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19907379150391</t>
+    <t xml:space="preserve">3.19907355308533</t>
   </si>
   <si>
     <t xml:space="preserve">3.20918679237366</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19233155250549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20413017272949</t>
+    <t xml:space="preserve">3.19233179092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20412993431091</t>
   </si>
   <si>
     <t xml:space="preserve">3.2209849357605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24795317649841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1687343120575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14345216751099</t>
+    <t xml:space="preserve">3.24795293807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16873478889465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14345192909241</t>
   </si>
   <si>
     <t xml:space="preserve">3.16367793083191</t>
@@ -962,7 +959,7 @@
     <t xml:space="preserve">3.16536378860474</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18558979034424</t>
+    <t xml:space="preserve">3.18559002876282</t>
   </si>
   <si>
     <t xml:space="preserve">3.15187954902649</t>
@@ -971,10 +968,10 @@
     <t xml:space="preserve">3.00861239433289</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99175691604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89399862289429</t>
+    <t xml:space="preserve">2.99175763130188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89399814605713</t>
   </si>
   <si>
     <t xml:space="preserve">2.93950700759888</t>
@@ -992,28 +989,28 @@
     <t xml:space="preserve">3.0001847743988</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02546739578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94287800788879</t>
+    <t xml:space="preserve">3.02546763420105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94287824630737</t>
   </si>
   <si>
     <t xml:space="preserve">2.89736938476562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88557100296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86871600151062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93782186508179</t>
+    <t xml:space="preserve">2.88557124137878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8687162399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93782162666321</t>
   </si>
   <si>
     <t xml:space="preserve">2.80635261535645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86534523963928</t>
+    <t xml:space="preserve">2.86534476280212</t>
   </si>
   <si>
     <t xml:space="preserve">2.8484902381897</t>
@@ -1028,46 +1025,46 @@
     <t xml:space="preserve">3.03389477729797</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03052353858948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07603216171265</t>
+    <t xml:space="preserve">3.03052377700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07603240013123</t>
   </si>
   <si>
     <t xml:space="preserve">3.11648416519165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10131502151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13165354728699</t>
+    <t xml:space="preserve">3.10131454467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13165378570557</t>
   </si>
   <si>
     <t xml:space="preserve">3.12491154670715</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08445978164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0979437828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08951616287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11479878425598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14008116722107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17294859886169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13081097602844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21929931640625</t>
+    <t xml:space="preserve">3.08446025848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09794402122498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08951592445374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1147985458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14008140563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17294836044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13081073760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21929955482483</t>
   </si>
   <si>
     <t xml:space="preserve">3.28250551223755</t>
@@ -1076,55 +1073,55 @@
     <t xml:space="preserve">3.24036812782288</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25722289085388</t>
+    <t xml:space="preserve">3.25722312927246</t>
   </si>
   <si>
     <t xml:space="preserve">3.32042932510376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28671956062317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02125382423401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03810882568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98332977294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93276524543762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1982307434082</t>
+    <t xml:space="preserve">3.28671979904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02125334739685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03810834884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9833300113678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93276500701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19823050498962</t>
   </si>
   <si>
     <t xml:space="preserve">3.13923811912537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11395597457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09710121154785</t>
+    <t xml:space="preserve">3.11395573616028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09710073471069</t>
   </si>
   <si>
     <t xml:space="preserve">2.97911620140076</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14766550064087</t>
+    <t xml:space="preserve">3.14766573905945</t>
   </si>
   <si>
     <t xml:space="preserve">3.08024597167969</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08867359161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10974216461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1055281162262</t>
+    <t xml:space="preserve">3.08867335319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1097424030304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10552883148193</t>
   </si>
   <si>
     <t xml:space="preserve">3.21508574485779</t>
@@ -1133,7 +1130,7 @@
     <t xml:space="preserve">3.40470409393311</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31621551513672</t>
+    <t xml:space="preserve">3.3162157535553</t>
   </si>
   <si>
     <t xml:space="preserve">3.34149813652039</t>
@@ -1142,37 +1139,37 @@
     <t xml:space="preserve">3.34992551803589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31200218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24879574775696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30885648727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26605129241943</t>
+    <t xml:space="preserve">3.31200170516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24879598617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30885672569275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26605153083801</t>
   </si>
   <si>
     <t xml:space="preserve">3.27461242675781</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25321006774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28745412826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22752666473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15047693252563</t>
+    <t xml:space="preserve">3.25320959091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2874538898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22752642631531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15047669410706</t>
   </si>
   <si>
     <t xml:space="preserve">3.18472123146057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20612359046936</t>
+    <t xml:space="preserve">3.20612382888794</t>
   </si>
   <si>
     <t xml:space="preserve">3.2703320980072</t>
@@ -1181,19 +1178,22 @@
     <t xml:space="preserve">3.3216986656189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31313753128052</t>
+    <t xml:space="preserve">3.31313729286194</t>
   </si>
   <si>
     <t xml:space="preserve">3.16759896278381</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13335490226746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24892926216125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17616009712219</t>
+    <t xml:space="preserve">3.13335514068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24892902374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24036836624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17616033554077</t>
   </si>
   <si>
     <t xml:space="preserve">3.18900156021118</t>
@@ -1202,43 +1202,43 @@
     <t xml:space="preserve">3.20184326171875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21040415763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21896553039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23608779907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14619636535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19756245613098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23180747032166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17187976837158</t>
+    <t xml:space="preserve">3.21040439605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21896576881409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23608803749084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14619612693787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19756269454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23180723190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17187929153442</t>
   </si>
   <si>
     <t xml:space="preserve">3.2232460975647</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25749015808105</t>
+    <t xml:space="preserve">3.25749063491821</t>
   </si>
   <si>
     <t xml:space="preserve">3.278892993927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30029559135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33026003837585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39018702507019</t>
+    <t xml:space="preserve">3.30029606819153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33025979995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39018726348877</t>
   </si>
   <si>
     <t xml:space="preserve">3.37734532356262</t>
@@ -1247,19 +1247,19 @@
     <t xml:space="preserve">3.34310102462769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42443108558655</t>
+    <t xml:space="preserve">3.42443132400513</t>
   </si>
   <si>
     <t xml:space="preserve">3.49292016029358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56140828132629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50148153305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61277508735657</t>
+    <t xml:space="preserve">3.56140804290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50148129463196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61277484893799</t>
   </si>
   <si>
     <t xml:space="preserve">3.51860332489014</t>
@@ -1268,22 +1268,22 @@
     <t xml:space="preserve">3.55284762382507</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58709192276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54428648948669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52716422080994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45439505577087</t>
+    <t xml:space="preserve">3.58709216117859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54428625106812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52716445922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45439481735229</t>
   </si>
   <si>
     <t xml:space="preserve">3.44583415985107</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54000616073608</t>
+    <t xml:space="preserve">3.5400059223175</t>
   </si>
   <si>
     <t xml:space="preserve">3.36878442764282</t>
@@ -1292,46 +1292,46 @@
     <t xml:space="preserve">3.385906457901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36450386047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40730905532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33882069587708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34738183021545</t>
+    <t xml:space="preserve">3.36450362205505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40730929374695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33882093429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34738159179688</t>
   </si>
   <si>
     <t xml:space="preserve">3.46723675727844</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64702010154724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65986084938049</t>
+    <t xml:space="preserve">3.64701962471008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65986108779907</t>
   </si>
   <si>
     <t xml:space="preserve">3.62133622169495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65129971504211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65558075904846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73691034317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62989711761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63845825195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69410514831543</t>
+    <t xml:space="preserve">3.65129995346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6555802822113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73691058158875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62989664077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6384584903717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69410562515259</t>
   </si>
   <si>
     <t xml:space="preserve">3.85676574707031</t>
@@ -1340,40 +1340,40 @@
     <t xml:space="preserve">3.96377968788147</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79683828353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83964395523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87388801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90385174751282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87816882133484</t>
+    <t xml:space="preserve">3.7968385219574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83964371681213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831365585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87388777732849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90385150909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87816905975342</t>
   </si>
   <si>
     <t xml:space="preserve">3.91669321060181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99802350997925</t>
+    <t xml:space="preserve">3.99802398681641</t>
   </si>
   <si>
     <t xml:space="preserve">3.98946237564087</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02370691299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14784288406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10075664520264</t>
+    <t xml:space="preserve">4.02370643615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14784240722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10075712203979</t>
   </si>
   <si>
     <t xml:space="preserve">4.00658416748047</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">3.94665718078613</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8952910900116</t>
+    <t xml:space="preserve">3.89529085159302</t>
   </si>
   <si>
     <t xml:space="preserve">3.93809628486633</t>
@@ -1394,100 +1394,100 @@
     <t xml:space="preserve">3.94237685203552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95521783828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80967974662781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92097330093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76687479019165</t>
+    <t xml:space="preserve">3.95521831512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80967998504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92097425460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76687455177307</t>
   </si>
   <si>
     <t xml:space="preserve">3.98090147972107</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03226804733276</t>
+    <t xml:space="preserve">4.03226757049561</t>
   </si>
   <si>
     <t xml:space="preserve">4.07079315185547</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08363389968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99374294281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95093774795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92953562736511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74119114875793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74975252151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66414213180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60421395301819</t>
+    <t xml:space="preserve">4.08363485336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9937424659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95093727111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92953515052795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74119138717651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74975228309631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66414165496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60421419143677</t>
   </si>
   <si>
     <t xml:space="preserve">3.77971601486206</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71550822257996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8524854183197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79255747795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71978855133057</t>
+    <t xml:space="preserve">3.71550846099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85248517990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79255723953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71978878974915</t>
   </si>
   <si>
     <t xml:space="preserve">3.77543544769287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75403332710266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88244915008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86104702949524</t>
+    <t xml:space="preserve">3.75403356552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88244891166687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86104607582092</t>
   </si>
   <si>
     <t xml:space="preserve">3.77115511894226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80539917945862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82252168655396</t>
+    <t xml:space="preserve">3.80539965629578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8225212097168</t>
   </si>
   <si>
     <t xml:space="preserve">3.72406888008118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73263049125671</t>
+    <t xml:space="preserve">3.73263025283813</t>
   </si>
   <si>
     <t xml:space="preserve">3.93381524085999</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97234082221985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01514577865601</t>
+    <t xml:space="preserve">3.97234034538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01514625549316</t>
   </si>
   <si>
     <t xml:space="preserve">4.08791494369507</t>
@@ -1496,52 +1496,52 @@
     <t xml:space="preserve">4.16924524307251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19492864608765</t>
+    <t xml:space="preserve">4.19492816925049</t>
   </si>
   <si>
     <t xml:space="preserve">4.25485610961914</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28053903579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32334423065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27197742462158</t>
+    <t xml:space="preserve">4.28053951263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32334470748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27197790145874</t>
   </si>
   <si>
     <t xml:space="preserve">4.18208694458008</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17780685424805</t>
+    <t xml:space="preserve">4.17780590057373</t>
   </si>
   <si>
     <t xml:space="preserve">4.16068458557129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.229172706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1735258102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16496467590332</t>
+    <t xml:space="preserve">4.22917222976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17352628707886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16496419906616</t>
   </si>
   <si>
     <t xml:space="preserve">4.14356231689453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34902811050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48600482940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61442136764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58873796463013</t>
+    <t xml:space="preserve">4.34902763366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4860053062439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61442184448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58873748779297</t>
   </si>
   <si>
     <t xml:space="preserve">4.67434883117676</t>
@@ -1565,85 +1565,85 @@
     <t xml:space="preserve">4.75995922088623</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72571563720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53737163543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52881097793579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56305503845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58017730712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64010381698608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69147157669067</t>
+    <t xml:space="preserve">4.72571516036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53737211227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52881050109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56305408477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58017683029175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64010429382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69147109985352</t>
   </si>
   <si>
     <t xml:space="preserve">4.70859289169312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70003223419189</t>
+    <t xml:space="preserve">4.70003175735474</t>
   </si>
   <si>
     <t xml:space="preserve">4.49456644058228</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62298250198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85413122177124</t>
+    <t xml:space="preserve">4.6229829788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8541316986084</t>
   </si>
   <si>
     <t xml:space="preserve">4.90549802780151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83700847625732</t>
+    <t xml:space="preserve">4.83700895309448</t>
   </si>
   <si>
     <t xml:space="preserve">4.78564310073853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75139856338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59729909896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63154315948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55449342727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5031270980835</t>
+    <t xml:space="preserve">4.75139808654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59729862213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63154268264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55449390411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50312757492065</t>
   </si>
   <si>
     <t xml:space="preserve">4.47744369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46888208389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43463802337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55733585357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60992050170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48722314834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46093130111694</t>
+    <t xml:space="preserve">4.46888303756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43463850021362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55733633041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60992097854614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48722267150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46093034744263</t>
   </si>
   <si>
     <t xml:space="preserve">4.39081811904907</t>
@@ -1655,10 +1655,10 @@
     <t xml:space="preserve">4.41710996627808</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39958238601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46969556808472</t>
+    <t xml:space="preserve">4.39958190917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46969509124756</t>
   </si>
   <si>
     <t xml:space="preserve">4.43463897705078</t>
@@ -1667,37 +1667,37 @@
     <t xml:space="preserve">4.5310435295105</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54857158660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4434027671814</t>
+    <t xml:space="preserve">4.5485725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44340229034424</t>
   </si>
   <si>
     <t xml:space="preserve">4.47845935821533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53980731964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50475120544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31632280349731</t>
+    <t xml:space="preserve">4.53980779647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50475072860718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31632328033447</t>
   </si>
   <si>
     <t xml:space="preserve">4.35137987136841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21553516387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12789487838745</t>
+    <t xml:space="preserve">4.21553611755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12789440155029</t>
   </si>
   <si>
     <t xml:space="preserve">4.16733360290527</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06216382980347</t>
+    <t xml:space="preserve">4.06216478347778</t>
   </si>
   <si>
     <t xml:space="preserve">4.11474847793579</t>
@@ -1706,28 +1706,28 @@
     <t xml:space="preserve">4.02710723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07092809677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06654644012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02272605895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04463577270508</t>
+    <t xml:space="preserve">4.07092761993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06654596328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0227255821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04463529586792</t>
   </si>
   <si>
     <t xml:space="preserve">4.04025363922119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09283828735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00519704818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15418720245361</t>
+    <t xml:space="preserve">4.09283876419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00519752502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15418672561646</t>
   </si>
   <si>
     <t xml:space="preserve">4.171715259552</t>
@@ -1739,22 +1739,22 @@
     <t xml:space="preserve">4.34699773788452</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4083456993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3820538520813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1103663444519</t>
+    <t xml:space="preserve">4.40834665298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38205432891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11036682128906</t>
   </si>
   <si>
     <t xml:space="preserve">3.91755604743958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95261335372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96575880050659</t>
+    <t xml:space="preserve">3.95261240005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96575856208801</t>
   </si>
   <si>
     <t xml:space="preserve">4.08407402038574</t>
@@ -1763,76 +1763,76 @@
     <t xml:space="preserve">4.10160207748413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01396083831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94384860992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84744310379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79047656059265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77733039855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75103878974915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7598021030426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78171229362488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73789167404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73351049423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79485845565796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89126372337341</t>
+    <t xml:space="preserve">4.01396179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94384837150574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84744358062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79047632217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77733063697815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75103831291199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75980281829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78171277046204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73789191246033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73351001739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79485821723938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89126396179199</t>
   </si>
   <si>
     <t xml:space="preserve">4.03148984909058</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93508434295654</t>
+    <t xml:space="preserve">3.93508410453796</t>
   </si>
   <si>
     <t xml:space="preserve">3.86058950424194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92193841934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85620760917664</t>
+    <t xml:space="preserve">3.92193794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85620737075806</t>
   </si>
   <si>
     <t xml:space="preserve">3.76856660842896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80800485610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7860951423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67216110229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82991504669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72474575042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.799241065979</t>
+    <t xml:space="preserve">3.8080050945282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78609442710876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6721613407135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82991528511047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72474598884583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79924058914185</t>
   </si>
   <si>
     <t xml:space="preserve">3.86497139930725</t>
@@ -1841,694 +1841,694 @@
     <t xml:space="preserve">3.72036361694336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74227428436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74665594100952</t>
+    <t xml:space="preserve">3.74227380752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7466561794281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68968963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6458683013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71598100662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72912812232971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70283555984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04901790618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03587198257446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97890496253967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00957918167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0972204208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18048000335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22430038452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32946872711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33385133743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52227926254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51351547241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68003368377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67126893997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58362817764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64497756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57486438751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62744855880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68879747390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87284374237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90790033340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79396629333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74138164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82025909423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81149482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7852029800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77643871307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80273103713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76767492294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65374088287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5923924446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63621282577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60115671157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61868476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86407947540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75891065597534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70632553100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82902383804321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73261880874634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32070541381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24182844161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28564834594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45216655731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69756126403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19800806045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82553291320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54069948196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43114805221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37856388092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22957396507263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28654050827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86148118972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97541475296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92283010482788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94474029541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78698635101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7212553024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85709929466248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66428852081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77822208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97979640960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87024545669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75631189346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71249151229858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90091967582703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82204294204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84395289421082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76069402694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76507616043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90968370437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94912219047546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98856067657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06743764877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02361726760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99732494354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00170683860779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04114532470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07181978225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00608921051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03676319122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01047110557556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16822504997253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10249423980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1112585067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14631485939026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1945173740387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09372973442078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15507864952087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25586581230164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.312833070755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22519159317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21204543113708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24710154533386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19889950752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18137097358704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37418150901794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45305848121643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50564312934875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55384540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53193545341492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54946374893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38294577598572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36103510856628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2602481842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44867634773254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44429421424866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41800236701965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43991255760193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49687910079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51002526283264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51440739631653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83402943611145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78892278671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70322108268738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65360450744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59045577049255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57241320610046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50024342536926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51828598976135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42807292938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45513701438904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48671126365662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38747763633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40551996231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38296675682068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33786082267761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34688210487366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29275441169739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15743589401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24764800071716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31981825828552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27020120620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22960567474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22058439254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2025420665741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1664571762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16194629669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10330843925476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1078188419342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13939332962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12135100364685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04015946388245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02211689949036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00407457351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9950532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15292525291443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13037204742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11684012413025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04467010498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96347904205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89130902290344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92739415168762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85973477363586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83267116546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86875605583191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90484118461609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88679838180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85071325302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97701096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87777733802795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85522413253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86424541473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81462860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77854347229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76952242851257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73794794082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68833112716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67028856277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63420343399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59811878204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61616134643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6026291847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54399108886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62518239021301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0311381816864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01309609413147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06271266937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24313759803772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23411631584167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25666928291321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35590314865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36492443084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54986000061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48220062255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55437064170837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52730703353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.563392162323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58143424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51377487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49573254585266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62654042243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75283765792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79794454574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82500743865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791356086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73028492927551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73479533195496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72577428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69871044158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68066787719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61751937866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60849809646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64458298683167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57692360877991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66262531280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64909386634827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82049751281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81598687171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80696511268616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7799015045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85207152366638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91522097587585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734829902649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8430507183075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8565821647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83854007720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84756112098694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79343342781067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76185941696167</t>
   </si>
   <si>
     <t xml:space="preserve">3.68968939781189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64586853981018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71598148345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72912812232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70283532142639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04901742935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03587198257446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97890472412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00957918167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0972204208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18047904968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22429990768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32946920394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3338508605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52227926254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51351547241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68003368377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67126989364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58362817764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64497709274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57486343383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62744903564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68879795074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87284374237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90790033340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79396724700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74138212203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82025909423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81149530410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7852029800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77643871307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80273151397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76767444610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65374135971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59239196777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6362133026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60115671157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61868476867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86407995223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75891017913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70632600784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82902383804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73261833190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3207049369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24182844161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28564834594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45216703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69756174087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19800758361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82553267478943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54069924354553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43114829063416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37856340408325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22957372665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28654026985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8614809513092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97541475296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9228298664093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94474029541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78698635101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72125554084778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85709929466248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66428875923157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77822208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97979688644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87024545669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75631213188171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71249151229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90091967582703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82204270362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84395313262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76069402694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76507616043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90968370437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94912219047546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98856091499329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06743741035461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02361726760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99732494354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00170683860779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04114580154419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07181978225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00608897209167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03676342964172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01047086715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16822481155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10249400138855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11125802993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14631485939026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1945173740387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09372997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15507864952087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25586605072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31283283233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22519183158875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21204566955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2471022605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.198899269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18137121200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37418127059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45305848121643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50564289093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55384540557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5319356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54946374893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38294553756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36103534698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2602481842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44867634773254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44429445266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41800212860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43991208076477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49687886238098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51002526283264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51440763473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83402919769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78892278671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70322132110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65360450744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59045577049255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57241320610046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50024318695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51828575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4280731678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45513677597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48671126365662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3874773979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40552043914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38296675682068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33786082267761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34688186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29275465011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15743565559387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24764823913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3198184967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27020120620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22960591316223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22058439254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20254182815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16645693778992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16194653511047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10330820083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1078188419342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13939332962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12135100364685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04015946388245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02211713790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00407457351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9950532913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15292525291443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1303722858429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11684036254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04467034339905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9634792804718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89130878448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92739391326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85973477363586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83267092704773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86875605583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90484094619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88679838180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8507137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97701096534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87777733802795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85522437095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86424517631531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81462836265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77854323387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76952219009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73794794082642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68833136558533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67028856277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63420367240906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59811878204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61616110801697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6026291847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54399085044861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62518262863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0311381816864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01309585571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06271290779114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24313759803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23411655426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25666952133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35590314865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36492443084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54985976219177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48220038414001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55437064170837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52730703353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56339192390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58143448829651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51377487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49573254585266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62654066085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75283765792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79794430732727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82500767707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791356086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73028516769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73479557037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72577452659607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69871020317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68066811561584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61751985549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60849809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64458298683167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57692360877991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66262531280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64909362792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8204972743988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81598687171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80696535110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77990174293518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85207200050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9152204990387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734829902649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84305095672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8565821647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83854007720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84756064414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79343390464783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76185917854309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68968963623047</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.6716468334198</t>
   </si>
   <si>
     <t xml:space="preserve">3.73930621147156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78441286087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86109352111816</t>
+    <t xml:space="preserve">3.78441262245178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86109304428101</t>
   </si>
   <si>
     <t xml:space="preserve">4.00543308258057</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">4.0189642906189</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07760286331177</t>
+    <t xml:space="preserve">4.07760238647461</t>
   </si>
   <si>
     <t xml:space="preserve">4.09131669998169</t>
@@ -2552,16 +2552,16 @@
     <t xml:space="preserve">4.24674081802368</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21931314468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28331089019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22388410568237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18731355667114</t>
+    <t xml:space="preserve">4.21931266784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28331136703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22388458251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1873140335083</t>
   </si>
   <si>
     <t xml:space="preserve">4.15074348449707</t>
@@ -2573,13 +2573,13 @@
     <t xml:space="preserve">4.05931758880615</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10960149765015</t>
+    <t xml:space="preserve">4.1096019744873</t>
   </si>
   <si>
     <t xml:space="preserve">4.13702964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16902875900269</t>
+    <t xml:space="preserve">4.16902828216553</t>
   </si>
   <si>
     <t xml:space="preserve">4.05474615097046</t>
@@ -2600,10 +2600,10 @@
     <t xml:space="preserve">4.03188943862915</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04560375213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12331628799438</t>
+    <t xml:space="preserve">4.04560327529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12331581115723</t>
   </si>
   <si>
     <t xml:space="preserve">4.15988636016846</t>
@@ -2621,16 +2621,16 @@
     <t xml:space="preserve">4.19188499450684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14160108566284</t>
+    <t xml:space="preserve">4.1416015625</t>
   </si>
   <si>
     <t xml:space="preserve">4.27873992919922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29702520370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23302698135376</t>
+    <t xml:space="preserve">4.29702472686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23302745819092</t>
   </si>
   <si>
     <t xml:space="preserve">4.20559930801392</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">4.10045957565308</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14617252349854</t>
+    <t xml:space="preserve">4.14617204666138</t>
   </si>
   <si>
     <t xml:space="preserve">4.29245376586914</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">3.95874857902527</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95417761802673</t>
+    <t xml:space="preserve">3.95417714118958</t>
   </si>
   <si>
     <t xml:space="preserve">3.88560795783997</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">3.78961062431335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73932671546936</t>
+    <t xml:space="preserve">3.73932647705078</t>
   </si>
   <si>
     <t xml:space="preserve">3.9084644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01360416412354</t>
+    <t xml:space="preserve">4.01360464096069</t>
   </si>
   <si>
     <t xml:space="preserve">4.02274703979492</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">4.07303094863892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06388854980469</t>
+    <t xml:space="preserve">4.06388902664185</t>
   </si>
   <si>
     <t xml:space="preserve">4.10503053665161</t>
@@ -2705,16 +2705,16 @@
     <t xml:space="preserve">4.00903367996216</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05017471313477</t>
+    <t xml:space="preserve">4.05017423629761</t>
   </si>
   <si>
     <t xml:space="preserve">4.18274259567261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23759841918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17360019683838</t>
+    <t xml:space="preserve">4.23759889602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17359972000122</t>
   </si>
   <si>
     <t xml:space="preserve">4.31073951721191</t>
@@ -2723,10 +2723,10 @@
     <t xml:space="preserve">4.35188102722168</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32902431488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21474170684814</t>
+    <t xml:space="preserve">4.32902479171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2147421836853</t>
   </si>
   <si>
     <t xml:space="preserve">4.21017074584961</t>
@@ -2741,13 +2741,13 @@
     <t xml:space="preserve">4.37930870056152</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49359083175659</t>
+    <t xml:space="preserve">4.49359130859375</t>
   </si>
   <si>
     <t xml:space="preserve">4.52558994293213</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57130336761475</t>
+    <t xml:space="preserve">4.5713038444519</t>
   </si>
   <si>
     <t xml:space="preserve">4.62615919113159</t>
@@ -2756,10 +2756,10 @@
     <t xml:space="preserve">4.64444446563721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65358734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59873104095459</t>
+    <t xml:space="preserve">4.65358686447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59873151779175</t>
   </si>
   <si>
     <t xml:space="preserve">4.5438756942749</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">4.69015741348267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56673240661621</t>
+    <t xml:space="preserve">4.56673192977905</t>
   </si>
   <si>
     <t xml:space="preserve">4.66272974014282</t>
@@ -2801,22 +2801,22 @@
     <t xml:space="preserve">4.53930473327637</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36102342605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68101501464844</t>
+    <t xml:space="preserve">4.36102390289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68101453781128</t>
   </si>
   <si>
     <t xml:space="preserve">4.75415563583374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74501276016235</t>
+    <t xml:space="preserve">4.74501323699951</t>
   </si>
   <si>
     <t xml:space="preserve">4.80901145935059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85472440719604</t>
+    <t xml:space="preserve">4.85472393035889</t>
   </si>
   <si>
     <t xml:space="preserve">4.86386680603027</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">4.99186372756958</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01929140090942</t>
+    <t xml:space="preserve">5.01929092407227</t>
   </si>
   <si>
     <t xml:space="preserve">4.98272085189819</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15642976760864</t>
+    <t xml:space="preserve">5.1564302444458</t>
   </si>
   <si>
     <t xml:space="preserve">5.11985969543457</t>
@@ -2861,7 +2861,7 @@
     <t xml:space="preserve">5.36671018600464</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38499546051025</t>
+    <t xml:space="preserve">5.3849949836731</t>
   </si>
   <si>
     <t xml:space="preserve">5.62270355224609</t>
@@ -2879,13 +2879,13 @@
     <t xml:space="preserve">5.30271196365356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28442668914795</t>
+    <t xml:space="preserve">5.28442716598511</t>
   </si>
   <si>
     <t xml:space="preserve">5.17471504211426</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19300079345703</t>
+    <t xml:space="preserve">5.19300031661987</t>
   </si>
   <si>
     <t xml:space="preserve">5.09243249893188</t>
@@ -2906,13 +2906,13 @@
     <t xml:space="preserve">5.07414674758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00100612640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96443510055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13814496994019</t>
+    <t xml:space="preserve">5.00100564956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96443557739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13814544677734</t>
   </si>
   <si>
     <t xml:space="preserve">5.05586194992065</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">4.7998685836792</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61701631546021</t>
+    <t xml:space="preserve">4.61701679229736</t>
   </si>
   <si>
     <t xml:space="preserve">4.50730514526367</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">5.06500434875488</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22042894363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33013963699341</t>
+    <t xml:space="preserve">5.22042846679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33014011383057</t>
   </si>
   <si>
     <t xml:space="preserve">5.4124231338501</t>
@@ -2960,16 +2960,16 @@
     <t xml:space="preserve">5.53127717971802</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39413833618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54041957855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66841602325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74155712127686</t>
+    <t xml:space="preserve">5.39413785934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5404200553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66841650009155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74155759811401</t>
   </si>
   <si>
     <t xml:space="preserve">5.63184547424316</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">5.73241424560547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65013122558594</t>
+    <t xml:space="preserve">5.65013074874878</t>
   </si>
   <si>
     <t xml:space="preserve">5.4823055267334</t>
@@ -7385,7 +7385,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G121" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -7411,7 +7411,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -7437,7 +7437,7 @@
         <v>3.08599996566772</v>
       </c>
       <c r="G123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -7463,7 +7463,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -7489,7 +7489,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -7515,7 +7515,7 @@
         <v>2.75</v>
       </c>
       <c r="G126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -7541,7 +7541,7 @@
         <v>2.82399988174438</v>
       </c>
       <c r="G127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -7567,7 +7567,7 @@
         <v>2.79800009727478</v>
       </c>
       <c r="G128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -7593,7 +7593,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -7619,7 +7619,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -7645,7 +7645,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -7671,7 +7671,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -7697,7 +7697,7 @@
         <v>2.73799991607666</v>
       </c>
       <c r="G133" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -7723,7 +7723,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7749,7 +7749,7 @@
         <v>2.83599996566772</v>
       </c>
       <c r="G135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -7775,7 +7775,7 @@
         <v>2.86800003051758</v>
       </c>
       <c r="G136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7801,7 +7801,7 @@
         <v>2.87400007247925</v>
       </c>
       <c r="G137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -7827,7 +7827,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -7853,7 +7853,7 @@
         <v>2.85400009155273</v>
       </c>
       <c r="G139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7879,7 +7879,7 @@
         <v>2.85400009155273</v>
       </c>
       <c r="G140" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7905,7 +7905,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G141" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -7931,7 +7931,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G142" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -7957,7 +7957,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G143" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -7983,7 +7983,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8035,7 +8035,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G146" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8061,7 +8061,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G147" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8113,7 +8113,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G149" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8139,7 +8139,7 @@
         <v>3.19400000572205</v>
       </c>
       <c r="G150" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8165,7 +8165,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G151" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8269,7 +8269,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8295,7 +8295,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G156" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8321,7 +8321,7 @@
         <v>3.16599988937378</v>
       </c>
       <c r="G157" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8347,7 +8347,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G158" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8373,7 +8373,7 @@
         <v>3.15799999237061</v>
       </c>
       <c r="G159" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8399,7 +8399,7 @@
         <v>3.1159999370575</v>
       </c>
       <c r="G160" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8425,7 +8425,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G161" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8451,7 +8451,7 @@
         <v>3.12199997901917</v>
       </c>
       <c r="G162" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8477,7 +8477,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G163" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8503,7 +8503,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G164" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8529,7 +8529,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G165" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8555,7 +8555,7 @@
         <v>3.24399995803833</v>
       </c>
       <c r="G166" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8581,7 +8581,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G167" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8607,7 +8607,7 @@
         <v>3.24399995803833</v>
       </c>
       <c r="G168" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8633,7 +8633,7 @@
         <v>3.25600004196167</v>
       </c>
       <c r="G169" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8659,7 +8659,7 @@
         <v>3.26399993896484</v>
       </c>
       <c r="G170" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8685,7 +8685,7 @@
         <v>3.24600005149841</v>
       </c>
       <c r="G171" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8711,7 +8711,7 @@
         <v>3.25</v>
       </c>
       <c r="G172" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8737,7 +8737,7 @@
         <v>3.31200003623962</v>
       </c>
       <c r="G173" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -8763,7 +8763,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G174" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8789,7 +8789,7 @@
         <v>3.43600010871887</v>
       </c>
       <c r="G175" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -8815,7 +8815,7 @@
         <v>3.43600010871887</v>
       </c>
       <c r="G176" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8867,7 +8867,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G178" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8893,7 +8893,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G179" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8919,7 +8919,7 @@
         <v>3.26600003242493</v>
       </c>
       <c r="G180" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -8945,7 +8945,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G181" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -8971,7 +8971,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G182" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -8997,7 +8997,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G183" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9023,7 +9023,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G184" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9049,7 +9049,7 @@
         <v>3.35599994659424</v>
       </c>
       <c r="G185" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9075,7 +9075,7 @@
         <v>3.37199997901917</v>
       </c>
       <c r="G186" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9101,7 +9101,7 @@
         <v>3.40799999237061</v>
       </c>
       <c r="G187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9127,7 +9127,7 @@
         <v>3.44600009918213</v>
       </c>
       <c r="G188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9153,7 +9153,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G189" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9179,7 +9179,7 @@
         <v>3.31599998474121</v>
       </c>
       <c r="G190" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9205,7 +9205,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G191" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9231,7 +9231,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G192" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9257,7 +9257,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G193" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9283,7 +9283,7 @@
         <v>3.19600009918213</v>
       </c>
       <c r="G194" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9335,7 +9335,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G196" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9413,7 +9413,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G199" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9439,7 +9439,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9465,7 +9465,7 @@
         <v>3.30800008773804</v>
       </c>
       <c r="G201" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9491,7 +9491,7 @@
         <v>3.20199990272522</v>
       </c>
       <c r="G202" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9517,7 +9517,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G203" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9543,7 +9543,7 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G204" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9569,7 +9569,7 @@
         <v>3.33400011062622</v>
       </c>
       <c r="G205" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9595,7 +9595,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G206" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9621,7 +9621,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G207" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9647,7 +9647,7 @@
         <v>3.35400009155273</v>
       </c>
       <c r="G208" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9673,7 +9673,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G209" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9699,7 +9699,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G210" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9725,7 +9725,7 @@
         <v>3.37599992752075</v>
       </c>
       <c r="G211" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9751,7 +9751,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G212" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9777,7 +9777,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G213" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9803,7 +9803,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G214" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9829,7 +9829,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G215" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9855,7 +9855,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G216" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9881,7 +9881,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G217" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9907,7 +9907,7 @@
         <v>3.25</v>
       </c>
       <c r="G218" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9933,7 +9933,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G219" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -9959,7 +9959,7 @@
         <v>3.21399998664856</v>
       </c>
       <c r="G220" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -9985,7 +9985,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G221" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10011,7 +10011,7 @@
         <v>3.36199998855591</v>
       </c>
       <c r="G222" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10063,7 +10063,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G224" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10089,7 +10089,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G225" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10115,7 +10115,7 @@
         <v>3.2279999256134</v>
       </c>
       <c r="G226" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10141,7 +10141,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G227" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10167,7 +10167,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G228" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10245,7 +10245,7 @@
         <v>3.14199995994568</v>
       </c>
       <c r="G231" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10271,7 +10271,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G232" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10297,7 +10297,7 @@
         <v>3.13800001144409</v>
       </c>
       <c r="G233" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10323,7 +10323,7 @@
         <v>3.09200000762939</v>
       </c>
       <c r="G234" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10349,7 +10349,7 @@
         <v>3.03600001335144</v>
       </c>
       <c r="G235" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10375,7 +10375,7 @@
         <v>3.03600001335144</v>
       </c>
       <c r="G236" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10401,7 +10401,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G237" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10427,7 +10427,7 @@
         <v>3.07800006866455</v>
       </c>
       <c r="G238" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10479,7 +10479,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G240" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10531,7 +10531,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G242" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10557,7 +10557,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G243" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10583,7 +10583,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G244" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10609,7 +10609,7 @@
         <v>3.23799991607666</v>
       </c>
       <c r="G245" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10635,7 +10635,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G246" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10661,7 +10661,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G247" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10687,7 +10687,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G248" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10713,7 +10713,7 @@
         <v>3.25</v>
       </c>
       <c r="G249" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -10765,7 +10765,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G251" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10791,7 +10791,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G252" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -10817,7 +10817,7 @@
         <v>3.26799988746643</v>
       </c>
       <c r="G253" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -10843,7 +10843,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G254" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10869,7 +10869,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G255" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -10895,7 +10895,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G256" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -10921,7 +10921,7 @@
         <v>3.35199999809265</v>
       </c>
       <c r="G257" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -10947,7 +10947,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G258" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -10973,7 +10973,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G259" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -10999,7 +10999,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G260" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11025,7 +11025,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G261" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11051,7 +11051,7 @@
         <v>3.41799998283386</v>
       </c>
       <c r="G262" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11077,7 +11077,7 @@
         <v>3.32200002670288</v>
       </c>
       <c r="G263" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11103,7 +11103,7 @@
         <v>3.35199999809265</v>
       </c>
       <c r="G264" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11129,7 +11129,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G265" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11155,7 +11155,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G266" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11181,7 +11181,7 @@
         <v>3.41199994087219</v>
       </c>
       <c r="G267" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11207,7 +11207,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G268" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11233,7 +11233,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G269" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11259,7 +11259,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G270" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11311,7 +11311,7 @@
         <v>3.30800008773804</v>
       </c>
       <c r="G272" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11415,7 +11415,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G276" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11441,7 +11441,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G277" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11467,7 +11467,7 @@
         <v>3.25</v>
       </c>
       <c r="G278" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11493,7 +11493,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G279" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11519,7 +11519,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G280" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11597,7 +11597,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G283" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11623,7 +11623,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G284" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11649,7 +11649,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G285" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11675,7 +11675,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G286" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11701,7 +11701,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G287" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11727,7 +11727,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G288" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11753,7 +11753,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G289" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11779,7 +11779,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G290" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11831,7 +11831,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G292" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11857,7 +11857,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G293" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11883,7 +11883,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G294" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11909,7 +11909,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G295" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11935,7 +11935,7 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G296" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -11987,7 +11987,7 @@
         <v>3.24600005149841</v>
       </c>
       <c r="G298" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12039,7 +12039,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G300" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12065,7 +12065,7 @@
         <v>3.23200011253357</v>
       </c>
       <c r="G301" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12091,7 +12091,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G302" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12117,7 +12117,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G303" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12143,7 +12143,7 @@
         <v>3.25</v>
       </c>
       <c r="G304" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12169,7 +12169,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G305" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12195,7 +12195,7 @@
         <v>3.31399989128113</v>
       </c>
       <c r="G306" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12221,7 +12221,7 @@
         <v>3.31599998474121</v>
       </c>
       <c r="G307" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12247,7 +12247,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G308" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12273,7 +12273,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G309" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12299,7 +12299,7 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G310" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12325,7 +12325,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G311" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12351,7 +12351,7 @@
         <v>3.35400009155273</v>
       </c>
       <c r="G312" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12403,7 +12403,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G314" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12429,7 +12429,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G315" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12455,7 +12455,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G316" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12481,7 +12481,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G317" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12507,7 +12507,7 @@
         <v>3.65400004386902</v>
       </c>
       <c r="G318" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12533,7 +12533,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G319" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12559,7 +12559,7 @@
         <v>3.64599990844727</v>
       </c>
       <c r="G320" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12585,7 +12585,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G321" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12611,7 +12611,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G322" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12637,7 +12637,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G323" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12663,7 +12663,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G324" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12689,7 +12689,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G325" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12715,7 +12715,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G326" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12741,7 +12741,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G327" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12767,7 +12767,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G328" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12793,7 +12793,7 @@
         <v>3.54200005531311</v>
       </c>
       <c r="G329" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12819,7 +12819,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G330" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12845,7 +12845,7 @@
         <v>3.5</v>
       </c>
       <c r="G331" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12871,7 +12871,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G332" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12897,7 +12897,7 @@
         <v>3.50600004196167</v>
       </c>
       <c r="G333" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12923,7 +12923,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G334" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -12949,7 +12949,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G335" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -12975,7 +12975,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G336" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13001,7 +13001,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G337" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13027,7 +13027,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G338" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13053,7 +13053,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G339" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13079,7 +13079,7 @@
         <v>3.58599996566772</v>
       </c>
       <c r="G340" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13105,7 +13105,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G341" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13131,7 +13131,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G342" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13157,7 +13157,7 @@
         <v>3.58800005912781</v>
       </c>
       <c r="G343" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13183,7 +13183,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G344" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13209,7 +13209,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G345" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13235,7 +13235,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G346" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13261,7 +13261,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G347" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13287,7 +13287,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G348" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13313,7 +13313,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G349" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13339,7 +13339,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G350" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13365,7 +13365,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G351" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13391,7 +13391,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G352" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13417,7 +13417,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G353" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13443,7 +13443,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G354" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13469,7 +13469,7 @@
         <v>3.74799990653992</v>
       </c>
       <c r="G355" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13495,7 +13495,7 @@
         <v>3.7720000743866</v>
       </c>
       <c r="G356" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13521,7 +13521,7 @@
         <v>3.83599996566772</v>
       </c>
       <c r="G357" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13547,7 +13547,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G358" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13573,7 +13573,7 @@
         <v>3.80599999427795</v>
       </c>
       <c r="G359" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13599,7 +13599,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G360" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13625,7 +13625,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G361" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13651,7 +13651,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G362" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13677,7 +13677,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G363" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13703,7 +13703,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G364" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13729,7 +13729,7 @@
         <v>3.93199992179871</v>
       </c>
       <c r="G365" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13755,7 +13755,7 @@
         <v>3.89400005340576</v>
       </c>
       <c r="G366" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13781,7 +13781,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G367" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13807,7 +13807,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G368" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13833,7 +13833,7 @@
         <v>3.81800007820129</v>
       </c>
       <c r="G369" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13859,7 +13859,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G370" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13885,7 +13885,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G371" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13911,7 +13911,7 @@
         <v>3.72399997711182</v>
       </c>
       <c r="G372" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -13937,7 +13937,7 @@
         <v>3.72199988365173</v>
       </c>
       <c r="G373" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -13963,7 +13963,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G374" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13989,7 +13989,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G375" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14015,7 +14015,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G376" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14041,7 +14041,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G377" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14067,7 +14067,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G378" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14093,7 +14093,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G379" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14119,7 +14119,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G380" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14145,7 +14145,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G381" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14171,7 +14171,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G382" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14197,7 +14197,7 @@
         <v>3.55599999427795</v>
       </c>
       <c r="G383" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14223,7 +14223,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G384" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14249,7 +14249,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G385" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14275,7 +14275,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G386" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14301,7 +14301,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G387" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14327,7 +14327,7 @@
         <v>3.76200008392334</v>
       </c>
       <c r="G388" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14353,7 +14353,7 @@
         <v>3.76600003242493</v>
       </c>
       <c r="G389" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14379,7 +14379,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G390" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14405,7 +14405,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G391" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14431,7 +14431,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G392" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14457,7 +14457,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G393" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14483,7 +14483,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G394" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14509,7 +14509,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G395" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14535,7 +14535,7 @@
         <v>3.93799996376038</v>
       </c>
       <c r="G396" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14561,7 +14561,7 @@
         <v>3.98799991607666</v>
       </c>
       <c r="G397" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14587,7 +14587,7 @@
         <v>4.00400018692017</v>
       </c>
       <c r="G398" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14613,7 +14613,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G399" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14639,7 +14639,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G400" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14665,7 +14665,7 @@
         <v>3.90199995040894</v>
       </c>
       <c r="G401" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14691,7 +14691,7 @@
         <v>3.93400001525879</v>
       </c>
       <c r="G402" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14717,7 +14717,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G403" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14743,7 +14743,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G404" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14769,7 +14769,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G405" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14795,7 +14795,7 @@
         <v>3.75</v>
       </c>
       <c r="G406" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14821,7 +14821,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G407" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14847,7 +14847,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G408" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14873,7 +14873,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G409" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14899,7 +14899,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G410" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14925,7 +14925,7 @@
         <v>3.75</v>
       </c>
       <c r="G411" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14951,7 +14951,7 @@
         <v>3.75</v>
       </c>
       <c r="G412" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -14977,7 +14977,7 @@
         <v>3.69400000572205</v>
       </c>
       <c r="G413" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15003,7 +15003,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G414" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15029,7 +15029,7 @@
         <v>3.73399996757507</v>
       </c>
       <c r="G415" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15055,7 +15055,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G416" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15081,7 +15081,7 @@
         <v>3.78600001335144</v>
       </c>
       <c r="G417" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15107,7 +15107,7 @@
         <v>3.7720000743866</v>
       </c>
       <c r="G418" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15133,7 +15133,7 @@
         <v>3.76600003242493</v>
       </c>
       <c r="G419" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15159,7 +15159,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G420" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15185,7 +15185,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15211,7 +15211,7 @@
         <v>3.69400000572205</v>
       </c>
       <c r="G422" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15237,7 +15237,7 @@
         <v>3.74600005149841</v>
       </c>
       <c r="G423" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15263,7 +15263,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G424" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15289,7 +15289,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G425" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15315,7 +15315,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G426" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15341,7 +15341,7 @@
         <v>3.75</v>
       </c>
       <c r="G427" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15367,7 +15367,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G428" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15393,7 +15393,7 @@
         <v>3.76399993896484</v>
       </c>
       <c r="G429" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15419,7 +15419,7 @@
         <v>3.75799989700317</v>
       </c>
       <c r="G430" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15445,7 +15445,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G431" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15471,7 +15471,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G432" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15497,7 +15497,7 @@
         <v>3.7960000038147</v>
       </c>
       <c r="G433" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15523,7 +15523,7 @@
         <v>3.80800008773804</v>
       </c>
       <c r="G434" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15549,7 +15549,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G435" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15575,7 +15575,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G436" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15601,7 +15601,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G437" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15627,7 +15627,7 @@
         <v>3.82200002670288</v>
       </c>
       <c r="G438" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15653,7 +15653,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G439" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15679,7 +15679,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G440" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15705,7 +15705,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G441" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15731,7 +15731,7 @@
         <v>3.81800007820129</v>
       </c>
       <c r="G442" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15757,7 +15757,7 @@
         <v>3.85400009155273</v>
       </c>
       <c r="G443" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15783,7 +15783,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G444" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15809,7 +15809,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G445" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15835,7 +15835,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G446" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15861,7 +15861,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G447" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15887,7 +15887,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G448" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15913,7 +15913,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G449" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15939,7 +15939,7 @@
         <v>3.75399994850159</v>
       </c>
       <c r="G450" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15965,7 +15965,7 @@
         <v>3.75600004196167</v>
       </c>
       <c r="G451" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15991,7 +15991,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G452" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16017,7 +16017,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G453" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16043,7 +16043,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G454" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16069,7 +16069,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G455" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16095,7 +16095,7 @@
         <v>3.73399996757507</v>
       </c>
       <c r="G456" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16121,7 +16121,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G457" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16147,7 +16147,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G458" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16173,7 +16173,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G459" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16199,7 +16199,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G460" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16225,7 +16225,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G461" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16251,7 +16251,7 @@
         <v>3.75</v>
       </c>
       <c r="G462" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16277,7 +16277,7 @@
         <v>3.75</v>
       </c>
       <c r="G463" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16303,7 +16303,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G464" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16329,7 +16329,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G465" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16355,7 +16355,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G466" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16381,7 +16381,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G467" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16407,7 +16407,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G468" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16433,7 +16433,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G469" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16459,7 +16459,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16485,7 +16485,7 @@
         <v>3.5239999294281</v>
       </c>
       <c r="G471" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16511,7 +16511,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G472" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16537,7 +16537,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G473" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16563,7 +16563,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G474" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16589,7 +16589,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G475" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16615,7 +16615,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G476" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16641,7 +16641,7 @@
         <v>3.43799996376038</v>
       </c>
       <c r="G477" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16667,7 +16667,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G478" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16693,7 +16693,7 @@
         <v>3.40400004386902</v>
       </c>
       <c r="G479" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16719,7 +16719,7 @@
         <v>3.48600006103516</v>
       </c>
       <c r="G480" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16745,7 +16745,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16771,7 +16771,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G482" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16797,7 +16797,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G483" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16823,7 +16823,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G484" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16849,7 +16849,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G485" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16875,7 +16875,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G486" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16901,7 +16901,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G487" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16927,7 +16927,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G488" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16953,7 +16953,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G489" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16979,7 +16979,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G490" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17005,7 +17005,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G491" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17031,7 +17031,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17057,7 +17057,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G493" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17083,7 +17083,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G494" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17109,7 +17109,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G495" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17135,7 +17135,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G496" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17161,7 +17161,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G497" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17187,7 +17187,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G498" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17213,7 +17213,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G499" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17239,7 +17239,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G500" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17265,7 +17265,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G501" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17291,7 +17291,7 @@
         <v>3.70799994468689</v>
       </c>
       <c r="G502" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17317,7 +17317,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G503" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17343,7 +17343,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G504" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17369,7 +17369,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G505" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17395,7 +17395,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G506" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17421,7 +17421,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G507" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17447,7 +17447,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G508" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17473,7 +17473,7 @@
         <v>3.69600009918213</v>
       </c>
       <c r="G509" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17499,7 +17499,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G510" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17525,7 +17525,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G511" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17551,7 +17551,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G512" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17577,7 +17577,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G513" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17603,7 +17603,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G514" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17629,7 +17629,7 @@
         <v>3.76500010490417</v>
       </c>
       <c r="G515" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17655,7 +17655,7 @@
         <v>3.71499991416931</v>
       </c>
       <c r="G516" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17681,7 +17681,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G517" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17707,7 +17707,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G518" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17733,7 +17733,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G519" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17759,7 +17759,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G520" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17785,7 +17785,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G521" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17811,7 +17811,7 @@
         <v>3.89499998092651</v>
       </c>
       <c r="G522" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17837,7 +17837,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G523" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17863,7 +17863,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G524" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17889,7 +17889,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G525" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17915,7 +17915,7 @@
         <v>3.84500002861023</v>
       </c>
       <c r="G526" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17941,7 +17941,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G527" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17967,7 +17967,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G528" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -17993,7 +17993,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G529" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18019,7 +18019,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G530" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18045,7 +18045,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G531" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18071,7 +18071,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G532" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18097,7 +18097,7 @@
         <v>3.75</v>
       </c>
       <c r="G533" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18123,7 +18123,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G534" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18149,7 +18149,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G535" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18175,7 +18175,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G536" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18201,7 +18201,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G537" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18227,7 +18227,7 @@
         <v>3.60500001907349</v>
       </c>
       <c r="G538" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18253,7 +18253,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G539" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18279,7 +18279,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G540" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18305,7 +18305,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G541" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18331,7 +18331,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18357,7 +18357,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18383,7 +18383,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G544" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18409,7 +18409,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G545" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18435,7 +18435,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G546" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18461,7 +18461,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G547" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18487,7 +18487,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G548" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18513,7 +18513,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G549" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18539,7 +18539,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G550" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18565,7 +18565,7 @@
         <v>3.6949999332428</v>
       </c>
       <c r="G551" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18591,7 +18591,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G552" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18617,7 +18617,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G553" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18643,7 +18643,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G554" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18669,7 +18669,7 @@
         <v>3.53500008583069</v>
       </c>
       <c r="G555" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18695,7 +18695,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G556" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18721,7 +18721,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G557" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18747,7 +18747,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G558" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18773,7 +18773,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G559" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18799,7 +18799,7 @@
         <v>3.73499989509583</v>
       </c>
       <c r="G560" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18825,7 +18825,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18851,7 +18851,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G562" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18877,7 +18877,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G563" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18903,7 +18903,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G564" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18929,7 +18929,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G565" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18955,7 +18955,7 @@
         <v>3.71499991416931</v>
       </c>
       <c r="G566" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18981,7 +18981,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G567" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19007,7 +19007,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G568" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19033,7 +19033,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G569" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19059,7 +19059,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G570" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19085,7 +19085,7 @@
         <v>3.68499994277954</v>
       </c>
       <c r="G571" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19111,7 +19111,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G572" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19137,7 +19137,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G573" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19163,7 +19163,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G574" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19189,7 +19189,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G575" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19215,7 +19215,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G576" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19241,7 +19241,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G577" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19267,7 +19267,7 @@
         <v>3.73499989509583</v>
       </c>
       <c r="G578" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19293,7 +19293,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G579" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19319,7 +19319,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G580" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19345,7 +19345,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G581" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19371,7 +19371,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G582" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19397,7 +19397,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G583" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19423,7 +19423,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G584" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19449,7 +19449,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G585" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19475,7 +19475,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G586" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19501,7 +19501,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G587" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19527,7 +19527,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G588" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19553,7 +19553,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G589" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19579,7 +19579,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G590" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19605,7 +19605,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G591" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19631,7 +19631,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G592" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19657,7 +19657,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G593" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19683,7 +19683,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G594" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19709,7 +19709,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G595" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19735,7 +19735,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G596" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19761,7 +19761,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G597" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19787,7 +19787,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G598" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19813,7 +19813,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G599" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19839,7 +19839,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G600" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19865,7 +19865,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G601" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19891,7 +19891,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G602" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19917,7 +19917,7 @@
         <v>3.97499990463257</v>
       </c>
       <c r="G603" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19943,7 +19943,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G604" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19969,7 +19969,7 @@
         <v>3.85500001907349</v>
       </c>
       <c r="G605" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19995,7 +19995,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G606" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20021,7 +20021,7 @@
         <v>3.84500002861023</v>
       </c>
       <c r="G607" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20047,7 +20047,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G608" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20073,7 +20073,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G609" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20099,7 +20099,7 @@
         <v>3.82500004768372</v>
       </c>
       <c r="G610" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20125,7 +20125,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G611" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20151,7 +20151,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G612" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20177,7 +20177,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G613" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20203,7 +20203,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G614" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20229,7 +20229,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G615" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20255,7 +20255,7 @@
         <v>3.74499988555908</v>
       </c>
       <c r="G616" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20281,7 +20281,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G617" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20307,7 +20307,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G618" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20333,7 +20333,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G619" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20359,7 +20359,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G620" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20385,7 +20385,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G621" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20411,7 +20411,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G622" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20437,7 +20437,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20463,7 +20463,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20489,7 +20489,7 @@
         <v>3.78500008583069</v>
       </c>
       <c r="G625" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20723,7 +20723,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G634" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20983,7 +20983,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G644" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21061,7 +21061,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G647" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21113,7 +21113,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G649" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -61447,7 +61447,7 @@
     </row>
     <row r="2201">
       <c r="A2201" s="1" t="n">
-        <v>45527.6494328704</v>
+        <v>45527.2916666667</v>
       </c>
       <c r="B2201" t="n">
         <v>6363</v>
@@ -61468,6 +61468,32 @@
         <v>1297</v>
       </c>
       <c r="H2201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" s="1" t="n">
+        <v>45530.6427893519</v>
+      </c>
+      <c r="B2202" t="n">
+        <v>36333</v>
+      </c>
+      <c r="C2202" t="n">
+        <v>3.22000002861023</v>
+      </c>
+      <c r="D2202" t="n">
+        <v>3.10999989509583</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>3.13000011444092</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="G2202" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H2202" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BAN.MI.xlsx
+++ b/data/BAN.MI.xlsx
@@ -44,40 +44,40 @@
     <t xml:space="preserve">BAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75724601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66247129440308</t>
+    <t xml:space="preserve">3.75724577903748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66247177124023</t>
   </si>
   <si>
     <t xml:space="preserve">3.53235721588135</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48737955093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42473196983337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51468682289124</t>
+    <t xml:space="preserve">3.48737978935242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42473220825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51468753814697</t>
   </si>
   <si>
     <t xml:space="preserve">3.53396344184875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52111268043518</t>
+    <t xml:space="preserve">3.5211124420166</t>
   </si>
   <si>
     <t xml:space="preserve">3.50023031234741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45203948020935</t>
+    <t xml:space="preserve">3.45203995704651</t>
   </si>
   <si>
     <t xml:space="preserve">3.47774124145508</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17896103858948</t>
+    <t xml:space="preserve">3.1789608001709</t>
   </si>
   <si>
     <t xml:space="preserve">3.30586242675781</t>
@@ -86,190 +86,190 @@
     <t xml:space="preserve">3.35726523399353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27694773674011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33317017555237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25767207145691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19663071632385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29301166534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23036408424377</t>
+    <t xml:space="preserve">3.27694797515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33317041397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25767183303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19663095474243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2930109500885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23036360740662</t>
   </si>
   <si>
     <t xml:space="preserve">3.23678970336914</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1323766708374</t>
+    <t xml:space="preserve">3.13237714767456</t>
   </si>
   <si>
     <t xml:space="preserve">3.21269416809082</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11149477958679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98780560493469</t>
+    <t xml:space="preserve">3.11149430274963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98780536651611</t>
   </si>
   <si>
     <t xml:space="preserve">2.97174215316772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89142465591431</t>
+    <t xml:space="preserve">2.89142489433289</t>
   </si>
   <si>
     <t xml:space="preserve">2.88339281082153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80789470672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80950093269348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81110763549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95246624946594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04242134094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02153873443604</t>
+    <t xml:space="preserve">2.80789494514465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80950117111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81110739707947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95246601104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04242157936096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02153897285461</t>
   </si>
   <si>
     <t xml:space="preserve">3.05366587638855</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12113213539124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17253565788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13077044487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02314496040344</t>
+    <t xml:space="preserve">3.12113237380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17253589630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13077020645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314519882202</t>
   </si>
   <si>
     <t xml:space="preserve">3.05205917358398</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06812262535095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03599572181702</t>
+    <t xml:space="preserve">3.06812334060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03599619865417</t>
   </si>
   <si>
     <t xml:space="preserve">3.12434506416321</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18056726455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24482083320618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16450381278992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19984364509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29783082008362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40545558929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37332844734192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30907511711121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30746865272522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18859910964966</t>
+    <t xml:space="preserve">3.18056750297546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24482107162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1645040512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19984340667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29783058166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40545582771301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37332892417908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30907487869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3074688911438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18859887123108</t>
   </si>
   <si>
     <t xml:space="preserve">3.26088428497314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26730966567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16611003875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17574834823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20466232299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10828113555908</t>
+    <t xml:space="preserve">3.26730990409851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1661102771759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1757481098175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20466256141663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10828161239624</t>
   </si>
   <si>
     <t xml:space="preserve">3.06009125709534</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01993274688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15647220611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02796459197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92033910751343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93158364295959</t>
+    <t xml:space="preserve">3.01993250846863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15647196769714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0279643535614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92033886909485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93158340454102</t>
   </si>
   <si>
     <t xml:space="preserve">2.96852922439575</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04563403129578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0616979598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07615447044373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98619961738586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97977375984192</t>
+    <t xml:space="preserve">3.04563426971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06169748306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07615494728088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98619914054871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97977352142334</t>
   </si>
   <si>
     <t xml:space="preserve">2.91551995277405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87054181098938</t>
+    <t xml:space="preserve">2.87054228782654</t>
   </si>
   <si>
     <t xml:space="preserve">2.89785027503967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85769176483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78379940986633</t>
+    <t xml:space="preserve">2.85769128799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78379964828491</t>
   </si>
   <si>
     <t xml:space="preserve">2.7050883769989</t>
@@ -281,25 +281,25 @@
     <t xml:space="preserve">2.76934218406677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81913900375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83520293235779</t>
+    <t xml:space="preserve">2.81913876533508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83520269393921</t>
   </si>
   <si>
     <t xml:space="preserve">2.77898049354553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6424412727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58621907234192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54445362091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52999663352966</t>
+    <t xml:space="preserve">2.64244079589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58621883392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54445385932922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52999687194824</t>
   </si>
   <si>
     <t xml:space="preserve">2.57015538215637</t>
@@ -308,73 +308,73 @@
     <t xml:space="preserve">2.65803813934326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63979840278625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61160945892334</t>
+    <t xml:space="preserve">2.63979816436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61160969734192</t>
   </si>
   <si>
     <t xml:space="preserve">2.61326766014099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66135478019714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64477276802063</t>
+    <t xml:space="preserve">2.66135430335999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64477300643921</t>
   </si>
   <si>
     <t xml:space="preserve">2.63316559791565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65306377410889</t>
+    <t xml:space="preserve">2.65306353569031</t>
   </si>
   <si>
     <t xml:space="preserve">2.77576804161072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87691593170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8603343963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73597168922424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76913523674011</t>
+    <t xml:space="preserve">2.87691569328308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86033415794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73597192764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76913475990295</t>
   </si>
   <si>
     <t xml:space="preserve">2.49553823471069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44579315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55357360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52538514137268</t>
+    <t xml:space="preserve">2.44579291343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55357336997986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5253849029541</t>
   </si>
   <si>
     <t xml:space="preserve">2.57844591140747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55854821205139</t>
+    <t xml:space="preserve">2.55854845046997</t>
   </si>
   <si>
     <t xml:space="preserve">2.45408391952515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23852252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27997660636902</t>
+    <t xml:space="preserve">2.23852205276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27997636795044</t>
   </si>
   <si>
     <t xml:space="preserve">2.34132862091064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31977248191833</t>
+    <t xml:space="preserve">2.31977224349976</t>
   </si>
   <si>
     <t xml:space="preserve">2.40433883666992</t>
@@ -386,61 +386,61 @@
     <t xml:space="preserve">2.33801221847534</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23686408996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27002763748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32972145080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35127758979797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37780809402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38278269767761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37946653366089</t>
+    <t xml:space="preserve">2.2368643283844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27002739906311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32972121238708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35127711296082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37780833244324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38278245925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37946605682373</t>
   </si>
   <si>
     <t xml:space="preserve">2.36620092391968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42921137809753</t>
+    <t xml:space="preserve">2.42921185493469</t>
   </si>
   <si>
     <t xml:space="preserve">2.58673667907715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59502816200256</t>
+    <t xml:space="preserve">2.59502792358398</t>
   </si>
   <si>
     <t xml:space="preserve">2.6199004650116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95484972000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89515590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86862516403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64808917045593</t>
+    <t xml:space="preserve">2.95484948158264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89515566825867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8686249256134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64808893203735</t>
   </si>
   <si>
     <t xml:space="preserve">2.62819123268127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62487459182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61824250221252</t>
+    <t xml:space="preserve">2.62487483024597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61824226379395</t>
   </si>
   <si>
     <t xml:space="preserve">2.583420753479</t>
@@ -455,61 +455,61 @@
     <t xml:space="preserve">2.68291068077087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69949245452881</t>
+    <t xml:space="preserve">2.69949221611023</t>
   </si>
   <si>
     <t xml:space="preserve">2.70612502098083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69120144844055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69451785087585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74592089653015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81224679946899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84872722625732</t>
+    <t xml:space="preserve">2.69120121002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69451761245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74592065811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81224727630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84872698783875</t>
   </si>
   <si>
     <t xml:space="preserve">2.81888008117676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78571677207947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70778274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71109938621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79732394218445</t>
+    <t xml:space="preserve">2.78571653366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70778298377991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71109962463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79732418060303</t>
   </si>
   <si>
     <t xml:space="preserve">2.82385444641113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76084399223328</t>
+    <t xml:space="preserve">2.76084423065186</t>
   </si>
   <si>
     <t xml:space="preserve">2.78240013122559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79566550254822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82551288604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85701847076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74923706054688</t>
+    <t xml:space="preserve">2.7956657409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82551240921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85701775550842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7492368221283</t>
   </si>
   <si>
     <t xml:space="preserve">2.72104835510254</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">2.7011501789093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67793583869934</t>
+    <t xml:space="preserve">2.6779363155365</t>
   </si>
   <si>
     <t xml:space="preserve">2.64974761009216</t>
@@ -530,67 +530,67 @@
     <t xml:space="preserve">2.71938991546631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68622708320618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74260449409485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65472149848938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73099732398987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76416063308716</t>
+    <t xml:space="preserve">2.6862268447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74260473251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65472173690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73099756240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76416110992432</t>
   </si>
   <si>
     <t xml:space="preserve">2.81058931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78074240684509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77742576599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88520646095276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79898190498352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81722164154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79400753974915</t>
+    <t xml:space="preserve">2.78074216842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77742600440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88520693778992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7989821434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81722187995911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79400730133057</t>
   </si>
   <si>
     <t xml:space="preserve">2.75918626785278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74426245689392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66467070579529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78737473487854</t>
+    <t xml:space="preserve">2.74426293373108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66467094421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78737497329712</t>
   </si>
   <si>
     <t xml:space="preserve">2.72933912277222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67627787590027</t>
+    <t xml:space="preserve">2.67627763748169</t>
   </si>
   <si>
     <t xml:space="preserve">2.64643096923828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60497689247131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60166025161743</t>
+    <t xml:space="preserve">2.60497665405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60166049003601</t>
   </si>
   <si>
     <t xml:space="preserve">2.56352281570435</t>
@@ -602,10 +602,10 @@
     <t xml:space="preserve">2.55191564559937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63648176193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68456864356995</t>
+    <t xml:space="preserve">2.63648223876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68456840515137</t>
   </si>
   <si>
     <t xml:space="preserve">2.70944118499756</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">2.83877825737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82717084884644</t>
+    <t xml:space="preserve">2.82717061042786</t>
   </si>
   <si>
     <t xml:space="preserve">2.83380365371704</t>
@@ -629,10 +629,10 @@
     <t xml:space="preserve">2.75421142578125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82882905006409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82053804397583</t>
+    <t xml:space="preserve">2.82882928848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82053828239441</t>
   </si>
   <si>
     <t xml:space="preserve">2.77245163917542</t>
@@ -641,43 +641,43 @@
     <t xml:space="preserve">2.80064034461975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83546185493469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8022985458374</t>
+    <t xml:space="preserve">2.83546161651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80229830741882</t>
   </si>
   <si>
     <t xml:space="preserve">2.65637993812561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67959427833557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70280838012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7475790977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7525532245636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98138046264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94324254989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05931401252747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03444147109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0294668674469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02283430099487</t>
+    <t xml:space="preserve">2.67959451675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70280861854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74757885932922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75255346298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98137998580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94324207305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05931377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03444170951843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02946662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02283406257629</t>
   </si>
   <si>
     <t xml:space="preserve">3.00127816200256</t>
@@ -686,16 +686,16 @@
     <t xml:space="preserve">2.99298739433289</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95650792121887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94987535476685</t>
+    <t xml:space="preserve">2.95650744438171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94987487792969</t>
   </si>
   <si>
     <t xml:space="preserve">2.93660974502563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93329358100891</t>
+    <t xml:space="preserve">2.93329334259033</t>
   </si>
   <si>
     <t xml:space="preserve">2.90178823471069</t>
@@ -704,16 +704,16 @@
     <t xml:space="preserve">2.87857365608215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90676259994507</t>
+    <t xml:space="preserve">2.90676283836365</t>
   </si>
   <si>
     <t xml:space="preserve">2.9780638217926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98469638824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05102300643921</t>
+    <t xml:space="preserve">2.98469662666321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05102276802063</t>
   </si>
   <si>
     <t xml:space="preserve">2.97308921813965</t>
@@ -722,13 +722,13 @@
     <t xml:space="preserve">2.9747474193573</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01785969734192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01620197296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01122713088989</t>
+    <t xml:space="preserve">3.0178599357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01620173454285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01122689247131</t>
   </si>
   <si>
     <t xml:space="preserve">3.11071729660034</t>
@@ -737,22 +737,22 @@
     <t xml:space="preserve">3.11734962463379</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05599761009216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03941559791565</t>
+    <t xml:space="preserve">3.05599737167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03941583633423</t>
   </si>
   <si>
     <t xml:space="preserve">3.06760478019714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1586217880249</t>
+    <t xml:space="preserve">3.15862154960632</t>
   </si>
   <si>
     <t xml:space="preserve">3.1788477897644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23278331756592</t>
+    <t xml:space="preserve">3.2327835559845</t>
   </si>
   <si>
     <t xml:space="preserve">3.20244455337524</t>
@@ -764,13 +764,13 @@
     <t xml:space="preserve">3.25300931930542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24458193778992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31368708610535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.281662940979</t>
+    <t xml:space="preserve">3.24458169937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3136875629425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28166317939758</t>
   </si>
   <si>
     <t xml:space="preserve">3.23109817504883</t>
@@ -791,19 +791,19 @@
     <t xml:space="preserve">3.04232215881348</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11985516548157</t>
+    <t xml:space="preserve">3.11985492706299</t>
   </si>
   <si>
     <t xml:space="preserve">3.12659692764282</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0945725440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08614540100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0541205406189</t>
+    <t xml:space="preserve">3.09457230567932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0861451625824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05412077903748</t>
   </si>
   <si>
     <t xml:space="preserve">3.05074977874756</t>
@@ -815,28 +815,28 @@
     <t xml:space="preserve">2.99681377410889</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01535439491272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14176678657532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15019392967224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14850878715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17041993141174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17379140853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21087193489075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22772669792175</t>
+    <t xml:space="preserve">3.01535415649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14176630973816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1501944065094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14850854873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17042064666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17379117012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21087241172791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22772693634033</t>
   </si>
   <si>
     <t xml:space="preserve">3.26986455917358</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">3.27829194068909</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29514741897583</t>
+    <t xml:space="preserve">3.29514718055725</t>
   </si>
   <si>
     <t xml:space="preserve">3.29851794242859</t>
@@ -854,16 +854,16 @@
     <t xml:space="preserve">3.31874370574951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36088085174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37436509132385</t>
+    <t xml:space="preserve">3.36088132858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37436556816101</t>
   </si>
   <si>
     <t xml:space="preserve">3.33728432655334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36256694793701</t>
+    <t xml:space="preserve">3.36256670951843</t>
   </si>
   <si>
     <t xml:space="preserve">3.28840470314026</t>
@@ -872,31 +872,31 @@
     <t xml:space="preserve">3.31537294387817</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25806570053101</t>
+    <t xml:space="preserve">3.25806593894958</t>
   </si>
   <si>
     <t xml:space="preserve">3.32885694503784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16030693054199</t>
+    <t xml:space="preserve">3.16030716896057</t>
   </si>
   <si>
     <t xml:space="preserve">3.22267031669617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23615431785583</t>
+    <t xml:space="preserve">3.23615407943726</t>
   </si>
   <si>
     <t xml:space="preserve">3.23783993721008</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21424293518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11311364173889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11817002296448</t>
+    <t xml:space="preserve">3.21424317359924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11311292648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1181697845459</t>
   </si>
   <si>
     <t xml:space="preserve">3.14682292938232</t>
@@ -905,31 +905,31 @@
     <t xml:space="preserve">3.1906464099884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09288740158081</t>
+    <t xml:space="preserve">3.09288692474365</t>
   </si>
   <si>
     <t xml:space="preserve">3.15693616867065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13502478599548</t>
+    <t xml:space="preserve">3.13502430915833</t>
   </si>
   <si>
     <t xml:space="preserve">3.15356540679932</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19401693344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17210531234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16704893112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18390393257141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19907355308533</t>
+    <t xml:space="preserve">3.19401717185974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17210555076599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16704916954041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18390440940857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19907379150391</t>
   </si>
   <si>
     <t xml:space="preserve">3.20918655395508</t>
@@ -944,43 +944,43 @@
     <t xml:space="preserve">3.2209849357605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24795269966125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16873478889465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14345216751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16367793083191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16536355018616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18558931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15187978744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00861263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9917573928833</t>
+    <t xml:space="preserve">3.24795317649841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16873455047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14345192909241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16367840766907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16536378860474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18558979034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15187954902649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00861239433289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99175715446472</t>
   </si>
   <si>
     <t xml:space="preserve">2.89399838447571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93950724601746</t>
+    <t xml:space="preserve">2.93950700759888</t>
   </si>
   <si>
     <t xml:space="preserve">2.96647477149963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96984601020813</t>
+    <t xml:space="preserve">2.96984577178955</t>
   </si>
   <si>
     <t xml:space="preserve">3.00524139404297</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">3.0001847743988</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02546763420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94287824630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89736938476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88557100296021</t>
+    <t xml:space="preserve">3.02546715736389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94287800788879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89736914634705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88557124137878</t>
   </si>
   <si>
     <t xml:space="preserve">2.86871600151062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93782138824463</t>
+    <t xml:space="preserve">2.93782162666321</t>
   </si>
   <si>
     <t xml:space="preserve">2.80635261535645</t>
@@ -1013,19 +1013,19 @@
     <t xml:space="preserve">2.86534523963928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8484902381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87040162086487</t>
+    <t xml:space="preserve">2.84848999977112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87040138244629</t>
   </si>
   <si>
     <t xml:space="preserve">2.91591000556946</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03389453887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03052377700806</t>
+    <t xml:space="preserve">3.03389477729797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03052353858948</t>
   </si>
   <si>
     <t xml:space="preserve">3.07603240013123</t>
@@ -1034,10 +1034,10 @@
     <t xml:space="preserve">3.11648392677307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10131478309631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13165354728699</t>
+    <t xml:space="preserve">3.10131454467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13165378570557</t>
   </si>
   <si>
     <t xml:space="preserve">3.12491154670715</t>
@@ -1046,16 +1046,16 @@
     <t xml:space="preserve">3.08446002006531</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09794402122498</t>
+    <t xml:space="preserve">3.0979437828064</t>
   </si>
   <si>
     <t xml:space="preserve">3.08951616287231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1147985458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14008116722107</t>
+    <t xml:space="preserve">3.11479878425598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14008092880249</t>
   </si>
   <si>
     <t xml:space="preserve">3.17294836044312</t>
@@ -1064,142 +1064,142 @@
     <t xml:space="preserve">3.13081097602844</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21929931640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28250527381897</t>
+    <t xml:space="preserve">3.21929979324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28250575065613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24036836624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25722312927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32042956352234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28671979904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02125358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03810834884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98332953453064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93276500701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19823098182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13923835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1139554977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09710073471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97911620140076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14766597747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08024573326111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08867335319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10974216461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10552835464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21508598327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40470433235168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31621551513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34149837493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34992551803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31200194358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24879598617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30885696411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26605153083801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27461242675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25320982933044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2874538898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22752690315247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15047669410706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18472099304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20612382888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2703320980072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32169842720032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31313729286194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16759896278381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13335490226746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24892950057983</t>
   </si>
   <si>
     <t xml:space="preserve">3.24036812782288</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25722312927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32042932510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28671956062317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02125382423401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03810858726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98332977294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93276500701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19823098182678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13923835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11395573616028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09710073471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97911643981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14766597747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08024573326111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08867311477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10974216461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10552835464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21508598327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40470409393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3162157535553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34149813652039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34992575645447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31200218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24879574775696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30885672569275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26605153083801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27461266517639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25320982933044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2874538898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22752666473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15047669410706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18472123146057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20612382888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27033185958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32169842720032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31313705444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16759920120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13335490226746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24892950057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24036836624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17616009712219</t>
+    <t xml:space="preserve">3.17615985870361</t>
   </si>
   <si>
     <t xml:space="preserve">3.18900156021118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20184373855591</t>
+    <t xml:space="preserve">3.20184326171875</t>
   </si>
   <si>
     <t xml:space="preserve">3.21040439605713</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">3.21896553039551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23608756065369</t>
+    <t xml:space="preserve">3.23608803749084</t>
   </si>
   <si>
     <t xml:space="preserve">3.14619636535645</t>
@@ -1220,19 +1220,19 @@
     <t xml:space="preserve">3.2318069934845</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17187929153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22324633598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25749039649963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27889275550842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30029559135437</t>
+    <t xml:space="preserve">3.17187976837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2232460975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25749063491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.278892993927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30029582977295</t>
   </si>
   <si>
     <t xml:space="preserve">3.3302595615387</t>
@@ -1241,13 +1241,13 @@
     <t xml:space="preserve">3.39018726348877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3773455619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34310126304626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42443156242371</t>
+    <t xml:space="preserve">3.37734508514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34310102462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42443132400513</t>
   </si>
   <si>
     <t xml:space="preserve">3.49292016029358</t>
@@ -1256,25 +1256,25 @@
     <t xml:space="preserve">3.56140851974487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50148105621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61277461051941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51860332489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55284762382507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58709216117859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54428648948669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52716445922852</t>
+    <t xml:space="preserve">3.50148129463196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61277508735657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51860356330872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55284738540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58709239959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54428672790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52716422080994</t>
   </si>
   <si>
     <t xml:space="preserve">3.45439505577087</t>
@@ -1283,67 +1283,67 @@
     <t xml:space="preserve">3.44583415985107</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54000639915466</t>
+    <t xml:space="preserve">3.54000616073608</t>
   </si>
   <si>
     <t xml:space="preserve">3.36878442764282</t>
   </si>
   <si>
-    <t xml:space="preserve">3.385906457901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36450409889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40730929374695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33882069587708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34738183021545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46723699569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64701962471008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65986084938049</t>
+    <t xml:space="preserve">3.38590621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36450386047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40730953216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33882093429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34738206863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46723675727844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64701986312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65986132621765</t>
   </si>
   <si>
     <t xml:space="preserve">3.62133622169495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65129971504211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6555802822113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73691034317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62989711761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63845825195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69410514831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85676598548889</t>
+    <t xml:space="preserve">3.65129995346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65558075904846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73691058158875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62989735603333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6384584903717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69410562515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85676622390747</t>
   </si>
   <si>
     <t xml:space="preserve">3.96377921104431</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79683828353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83964419364929</t>
+    <t xml:space="preserve">3.79683804512024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83964371681213</t>
   </si>
   <si>
     <t xml:space="preserve">3.75831341743469</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">3.90385174751282</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87816858291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91669297218323</t>
+    <t xml:space="preserve">3.87816905975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91669344902039</t>
   </si>
   <si>
     <t xml:space="preserve">3.99802374839783</t>
@@ -1376,22 +1376,22 @@
     <t xml:space="preserve">4.10075664520264</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00658464431763</t>
+    <t xml:space="preserve">4.00658512115479</t>
   </si>
   <si>
     <t xml:space="preserve">3.94665718078613</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89529061317444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93809580802917</t>
+    <t xml:space="preserve">3.8952910900116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93809628486633</t>
   </si>
   <si>
     <t xml:space="preserve">3.86960768699646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94237637519836</t>
+    <t xml:space="preserve">3.94237685203552</t>
   </si>
   <si>
     <t xml:space="preserve">3.95521831512451</t>
@@ -1412,64 +1412,64 @@
     <t xml:space="preserve">4.03226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07079315185547</t>
+    <t xml:space="preserve">4.07079267501831</t>
   </si>
   <si>
     <t xml:space="preserve">4.08363485336304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99374270439148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95093750953674</t>
+    <t xml:space="preserve">3.9937436580658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9509379863739</t>
   </si>
   <si>
     <t xml:space="preserve">3.92953515052795</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74119091033936</t>
+    <t xml:space="preserve">3.74119114875793</t>
   </si>
   <si>
     <t xml:space="preserve">3.74975275993347</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66414141654968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60421395301819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77971649169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7155077457428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85248517990112</t>
+    <t xml:space="preserve">3.66414189338684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60421419143677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77971601486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71550846099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8524854183197</t>
   </si>
   <si>
     <t xml:space="preserve">3.79255795478821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71978807449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77543568611145</t>
+    <t xml:space="preserve">3.71978878974915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77543544769287</t>
   </si>
   <si>
     <t xml:space="preserve">3.75403308868408</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88244891166687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86104679107666</t>
+    <t xml:space="preserve">3.88244938850403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86104655265808</t>
   </si>
   <si>
     <t xml:space="preserve">3.771155834198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8053994178772</t>
+    <t xml:space="preserve">3.80539989471436</t>
   </si>
   <si>
     <t xml:space="preserve">3.82252192497253</t>
@@ -1478,28 +1478,28 @@
     <t xml:space="preserve">3.72406911849976</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73263025283813</t>
+    <t xml:space="preserve">3.73263049125671</t>
   </si>
   <si>
     <t xml:space="preserve">3.93381547927856</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97234034538269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01514530181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08791494369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16924571990967</t>
+    <t xml:space="preserve">3.97234082221985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01514625549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08791446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16924524307251</t>
   </si>
   <si>
     <t xml:space="preserve">4.19492864608765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25485515594482</t>
+    <t xml:space="preserve">4.25485563278198</t>
   </si>
   <si>
     <t xml:space="preserve">4.28053951263428</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">4.17780637741089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16068410873413</t>
+    <t xml:space="preserve">4.16068458557129</t>
   </si>
   <si>
     <t xml:space="preserve">4.22917318344116</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">4.17352628707886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16496467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14356231689453</t>
+    <t xml:space="preserve">4.16496419906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14356184005737</t>
   </si>
   <si>
     <t xml:space="preserve">4.34902763366699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4860053062439</t>
+    <t xml:space="preserve">4.48600482940674</t>
   </si>
   <si>
     <t xml:space="preserve">4.61442136764526</t>
@@ -1550,34 +1550,34 @@
     <t xml:space="preserve">4.57161617279053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71715402603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76852130889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7942042350769</t>
+    <t xml:space="preserve">4.71715450286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76852083206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79420375823975</t>
   </si>
   <si>
     <t xml:space="preserve">4.77708196640015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75995969772339</t>
+    <t xml:space="preserve">4.75995922088623</t>
   </si>
   <si>
     <t xml:space="preserve">4.72571516036987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53737211227417</t>
+    <t xml:space="preserve">4.53737163543701</t>
   </si>
   <si>
     <t xml:space="preserve">4.52881050109863</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56305503845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58017683029175</t>
+    <t xml:space="preserve">4.56305456161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58017635345459</t>
   </si>
   <si>
     <t xml:space="preserve">4.64010429382324</t>
@@ -1586,40 +1586,40 @@
     <t xml:space="preserve">4.6914701461792</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70859336853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70003175735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49456644058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62298250198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8541316986084</t>
+    <t xml:space="preserve">4.70859289169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70003223419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49456596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62298202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85413122177124</t>
   </si>
   <si>
     <t xml:space="preserve">4.90549802780151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83700942993164</t>
+    <t xml:space="preserve">4.83700895309448</t>
   </si>
   <si>
     <t xml:space="preserve">4.78564262390137</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75139904022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59729862213135</t>
+    <t xml:space="preserve">4.75139808654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59729909896851</t>
   </si>
   <si>
     <t xml:space="preserve">4.63154363632202</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55449342727661</t>
+    <t xml:space="preserve">4.55449438095093</t>
   </si>
   <si>
     <t xml:space="preserve">4.5031270980835</t>
@@ -1628,22 +1628,22 @@
     <t xml:space="preserve">4.47744417190552</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46888303756714</t>
+    <t xml:space="preserve">4.46888256072998</t>
   </si>
   <si>
     <t xml:space="preserve">4.43463850021362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5573353767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60992097854614</t>
+    <t xml:space="preserve">4.55733585357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60992050170898</t>
   </si>
   <si>
     <t xml:space="preserve">4.48722314834595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46093130111694</t>
+    <t xml:space="preserve">4.46093082427979</t>
   </si>
   <si>
     <t xml:space="preserve">4.39081811904907</t>
@@ -1658,13 +1658,16 @@
     <t xml:space="preserve">4.39958190917969</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4696946144104</t>
+    <t xml:space="preserve">4.46969509124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43463802337646</t>
   </si>
   <si>
     <t xml:space="preserve">4.53104400634766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54857206344604</t>
+    <t xml:space="preserve">4.54857158660889</t>
   </si>
   <si>
     <t xml:space="preserve">4.4434027671814</t>
@@ -1673,40 +1676,40 @@
     <t xml:space="preserve">4.47845935821533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53980731964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50475120544434</t>
+    <t xml:space="preserve">4.53980779647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50475072860718</t>
   </si>
   <si>
     <t xml:space="preserve">4.31632328033447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35137987136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21553564071655</t>
+    <t xml:space="preserve">4.35137939453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21553611755371</t>
   </si>
   <si>
     <t xml:space="preserve">4.12789440155029</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16733312606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06216430664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11474847793579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02710771560669</t>
+    <t xml:space="preserve">4.16733360290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06216478347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11474895477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02710723876953</t>
   </si>
   <si>
     <t xml:space="preserve">4.07092809677124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0665454864502</t>
+    <t xml:space="preserve">4.06654596328735</t>
   </si>
   <si>
     <t xml:space="preserve">4.02272510528564</t>
@@ -1721,22 +1724,22 @@
     <t xml:space="preserve">4.09283828735352</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00519704818726</t>
+    <t xml:space="preserve">4.00519752502441</t>
   </si>
   <si>
     <t xml:space="preserve">4.15418720245361</t>
   </si>
   <si>
-    <t xml:space="preserve">4.171715259552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19362592697144</t>
+    <t xml:space="preserve">4.17171573638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19362545013428</t>
   </si>
   <si>
     <t xml:space="preserve">4.34699726104736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40834665298462</t>
+    <t xml:space="preserve">4.40834617614746</t>
   </si>
   <si>
     <t xml:space="preserve">4.3820538520813</t>
@@ -1745,7 +1748,7 @@
     <t xml:space="preserve">4.11036682128906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91755604743958</t>
+    <t xml:space="preserve">3.91755652427673</t>
   </si>
   <si>
     <t xml:space="preserve">3.95261263847351</t>
@@ -1760,100 +1763,100 @@
     <t xml:space="preserve">4.10160255432129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01396179199219</t>
+    <t xml:space="preserve">4.01396131515503</t>
   </si>
   <si>
     <t xml:space="preserve">3.94384837150574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84744334220886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79047632217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77733016014099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75103807449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75980234146118</t>
+    <t xml:space="preserve">3.84744358062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79047679901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77733063697815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75103855133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7598021030426</t>
   </si>
   <si>
     <t xml:space="preserve">3.78171277046204</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73789191246033</t>
+    <t xml:space="preserve">3.73789215087891</t>
   </si>
   <si>
     <t xml:space="preserve">3.7335102558136</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79485821723938</t>
+    <t xml:space="preserve">3.79485869407654</t>
   </si>
   <si>
     <t xml:space="preserve">3.89126396179199</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03148937225342</t>
+    <t xml:space="preserve">4.03148984909058</t>
   </si>
   <si>
     <t xml:space="preserve">3.93508434295654</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86058926582336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9219388961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85620713233948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76856660842896</t>
+    <t xml:space="preserve">3.86059021949768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92193841934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85620784759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76856708526611</t>
   </si>
   <si>
     <t xml:space="preserve">3.80800485610962</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78609466552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67216086387634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82991528511047</t>
+    <t xml:space="preserve">3.78609490394592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67216157913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82991504669189</t>
   </si>
   <si>
     <t xml:space="preserve">3.72474575042725</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79924058914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86497163772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72036361694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74227380752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74665594100952</t>
+    <t xml:space="preserve">3.79924082756042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86497139930725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72036385536194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74227428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74665641784668</t>
   </si>
   <si>
     <t xml:space="preserve">3.68968963623047</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64586853981018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71598148345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72912788391113</t>
+    <t xml:space="preserve">3.64586877822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71598196029663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72912812232971</t>
   </si>
   <si>
     <t xml:space="preserve">3.70283555984497</t>
@@ -1871,7 +1874,7 @@
     <t xml:space="preserve">4.00957918167114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09722089767456</t>
+    <t xml:space="preserve">4.0972204208374</t>
   </si>
   <si>
     <t xml:space="preserve">4.18047952651978</t>
@@ -1880,10 +1883,10 @@
     <t xml:space="preserve">4.22429990768433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32946872711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33385133743286</t>
+    <t xml:space="preserve">4.32946920394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33385181427002</t>
   </si>
   <si>
     <t xml:space="preserve">4.52227973937988</t>
@@ -1892,19 +1895,19 @@
     <t xml:space="preserve">4.51351547241211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68003368377686</t>
+    <t xml:space="preserve">4.6800332069397</t>
   </si>
   <si>
     <t xml:space="preserve">4.67126893997192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58362817764282</t>
+    <t xml:space="preserve">4.58362865447998</t>
   </si>
   <si>
     <t xml:space="preserve">4.64497709274292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57486438751221</t>
+    <t xml:space="preserve">4.57486391067505</t>
   </si>
   <si>
     <t xml:space="preserve">4.62744903564453</t>
@@ -1913,7 +1916,7 @@
     <t xml:space="preserve">4.68879747390747</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87284421920776</t>
+    <t xml:space="preserve">4.87284374237061</t>
   </si>
   <si>
     <t xml:space="preserve">4.9079008102417</t>
@@ -1928,19 +1931,19 @@
     <t xml:space="preserve">4.82025909423828</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81149435043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78520345687866</t>
+    <t xml:space="preserve">4.81149482727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78520250320435</t>
   </si>
   <si>
     <t xml:space="preserve">4.77643823623657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80273151397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76767444610596</t>
+    <t xml:space="preserve">4.80273103713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76767492294312</t>
   </si>
   <si>
     <t xml:space="preserve">4.65374135971069</t>
@@ -1955,31 +1958,31 @@
     <t xml:space="preserve">4.60115623474121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61868524551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86408042907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75891065597534</t>
+    <t xml:space="preserve">4.6186842918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86407995223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75891017913818</t>
   </si>
   <si>
     <t xml:space="preserve">4.70632553100586</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82902383804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73261833190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32070541381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24182844161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28564834594727</t>
+    <t xml:space="preserve">4.82902336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73261785507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3207049369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24182796478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28564882278442</t>
   </si>
   <si>
     <t xml:space="preserve">4.45216655731201</t>
@@ -1997,13 +2000,13 @@
     <t xml:space="preserve">3.54069948196411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.431147813797</t>
+    <t xml:space="preserve">3.43114829063416</t>
   </si>
   <si>
     <t xml:space="preserve">3.37856340408325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22957372665405</t>
+    <t xml:space="preserve">3.22957348823547</t>
   </si>
   <si>
     <t xml:space="preserve">3.28654050827026</t>
@@ -2012,19 +2015,19 @@
     <t xml:space="preserve">2.86148142814636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97541475296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9228298664093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94474005699158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78698635101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72125554084778</t>
+    <t xml:space="preserve">2.97541451454163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92283010482788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94474029541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78698658943176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7212553024292</t>
   </si>
   <si>
     <t xml:space="preserve">2.8570990562439</t>
@@ -2033,13 +2036,13 @@
     <t xml:space="preserve">2.66428852081299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77822232246399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97979664802551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87024545669556</t>
+    <t xml:space="preserve">2.77822208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97979688644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87024521827698</t>
   </si>
   <si>
     <t xml:space="preserve">2.75631189346313</t>
@@ -2048,16 +2051,16 @@
     <t xml:space="preserve">2.71249127388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90091943740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82204294204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84395289421082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76069402694702</t>
+    <t xml:space="preserve">2.90091967582703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82204270362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84395313262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7606942653656</t>
   </si>
   <si>
     <t xml:space="preserve">2.76507592201233</t>
@@ -2069,46 +2072,46 @@
     <t xml:space="preserve">2.94912242889404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98856091499329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06743788719177</t>
+    <t xml:space="preserve">2.98856067657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06743764877319</t>
   </si>
   <si>
     <t xml:space="preserve">3.02361702919006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99732518196106</t>
+    <t xml:space="preserve">2.9973247051239</t>
   </si>
   <si>
     <t xml:space="preserve">3.00170683860779</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04114556312561</t>
+    <t xml:space="preserve">3.04114532470703</t>
   </si>
   <si>
     <t xml:space="preserve">3.07181978225708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0060887336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03676295280457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01047110557556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16822504997253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10249447822571</t>
+    <t xml:space="preserve">3.00608897209167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03676319122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01047086715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16822481155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10249400138855</t>
   </si>
   <si>
     <t xml:space="preserve">3.11125802993774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14631485939026</t>
+    <t xml:space="preserve">3.1463143825531</t>
   </si>
   <si>
     <t xml:space="preserve">3.19451713562012</t>
@@ -2117,7 +2120,7 @@
     <t xml:space="preserve">3.09372997283936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15507864952087</t>
+    <t xml:space="preserve">3.15507888793945</t>
   </si>
   <si>
     <t xml:space="preserve">3.25586605072021</t>
@@ -2126,25 +2129,25 @@
     <t xml:space="preserve">3.31283283233643</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22519159317017</t>
+    <t xml:space="preserve">3.22519135475159</t>
   </si>
   <si>
     <t xml:space="preserve">3.21204543113708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24710178375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.198899269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18137121200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37418150901794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45305848121643</t>
+    <t xml:space="preserve">3.24710202217102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19889950752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18137097358704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37418127059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45305871963501</t>
   </si>
   <si>
     <t xml:space="preserve">3.50564312934875</t>
@@ -2159,25 +2162,25 @@
     <t xml:space="preserve">3.54946374893188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38294553756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36103534698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26024794578552</t>
+    <t xml:space="preserve">3.38294577598572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36103558540344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26024770736694</t>
   </si>
   <si>
     <t xml:space="preserve">3.44867634773254</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44429469108582</t>
+    <t xml:space="preserve">3.44429445266724</t>
   </si>
   <si>
     <t xml:space="preserve">3.41800236701965</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43991231918335</t>
+    <t xml:space="preserve">3.43991255760193</t>
   </si>
   <si>
     <t xml:space="preserve">3.49687933921814</t>
@@ -2207,19 +2210,19 @@
     <t xml:space="preserve">3.57241320610046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50024342536926</t>
+    <t xml:space="preserve">3.50024318695068</t>
   </si>
   <si>
     <t xml:space="preserve">3.51828598976135</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42807292938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45513677597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48671102523804</t>
+    <t xml:space="preserve">3.4280731678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45513701438904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48671126365662</t>
   </si>
   <si>
     <t xml:space="preserve">3.38747763633728</t>
@@ -2231,22 +2234,22 @@
     <t xml:space="preserve">3.38296699523926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33786082267761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34688210487366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29275441169739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15743589401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24764800071716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31981825828552</t>
+    <t xml:space="preserve">3.33786058425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34688186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29275465011597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15743565559387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24764823913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31981801986694</t>
   </si>
   <si>
     <t xml:space="preserve">3.27020144462585</t>
@@ -2261,7 +2264,7 @@
     <t xml:space="preserve">3.20254182815552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1664571762085</t>
+    <t xml:space="preserve">3.16645669937134</t>
   </si>
   <si>
     <t xml:space="preserve">3.16194653511047</t>
@@ -2270,13 +2273,13 @@
     <t xml:space="preserve">3.10330843925476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10781908035278</t>
+    <t xml:space="preserve">3.10781860351562</t>
   </si>
   <si>
     <t xml:space="preserve">3.13939332962036</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12135100364685</t>
+    <t xml:space="preserve">3.12135076522827</t>
   </si>
   <si>
     <t xml:space="preserve">3.04015946388245</t>
@@ -2285,19 +2288,19 @@
     <t xml:space="preserve">3.02211713790894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00407433509827</t>
+    <t xml:space="preserve">3.00407457351685</t>
   </si>
   <si>
     <t xml:space="preserve">2.9950532913208</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15292501449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1303722858429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11684012413025</t>
+    <t xml:space="preserve">3.15292525291443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13037204742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11684036254883</t>
   </si>
   <si>
     <t xml:space="preserve">3.04467034339905</t>
@@ -2306,25 +2309,25 @@
     <t xml:space="preserve">2.9634792804718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89130902290344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92739391326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85973477363586</t>
+    <t xml:space="preserve">2.89130926132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92739415168762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85973453521729</t>
   </si>
   <si>
     <t xml:space="preserve">2.83267116546631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86875605583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90484118461609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.886798620224</t>
+    <t xml:space="preserve">2.86875629425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90484094619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88679838180542</t>
   </si>
   <si>
     <t xml:space="preserve">2.85071349143982</t>
@@ -2339,7 +2342,7 @@
     <t xml:space="preserve">2.85522413253784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86424517631531</t>
+    <t xml:space="preserve">2.86424541473389</t>
   </si>
   <si>
     <t xml:space="preserve">2.81462836265564</t>
@@ -2348,7 +2351,7 @@
     <t xml:space="preserve">2.77854347229004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76952242851257</t>
+    <t xml:space="preserve">2.76952219009399</t>
   </si>
   <si>
     <t xml:space="preserve">2.737948179245</t>
@@ -2357,7 +2360,7 @@
     <t xml:space="preserve">2.68833112716675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67028856277466</t>
+    <t xml:space="preserve">2.67028880119324</t>
   </si>
   <si>
     <t xml:space="preserve">2.63420343399048</t>
@@ -2366,37 +2369,37 @@
     <t xml:space="preserve">2.59811854362488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61616134643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60262942314148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54399108886719</t>
+    <t xml:space="preserve">2.61616110801697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60262894630432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54399085044861</t>
   </si>
   <si>
     <t xml:space="preserve">2.62518239021301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0311381816864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01309585571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06271290779114</t>
+    <t xml:space="preserve">3.03113842010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01309561729431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06271266937256</t>
   </si>
   <si>
     <t xml:space="preserve">3.24313759803772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23411631584167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25666928291321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35590314865112</t>
+    <t xml:space="preserve">3.23411655426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25666952133179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35590291023254</t>
   </si>
   <si>
     <t xml:space="preserve">3.36492443084717</t>
@@ -2405,10 +2408,10 @@
     <t xml:space="preserve">3.54986000061035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48220062255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55437064170837</t>
+    <t xml:space="preserve">3.48220086097717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55437088012695</t>
   </si>
   <si>
     <t xml:space="preserve">3.52730703353882</t>
@@ -2420,40 +2423,40 @@
     <t xml:space="preserve">3.58143424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51377487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49573254585266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62654042243958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75283765792847</t>
+    <t xml:space="preserve">3.51377511024475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49573278427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62654066085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75283789634705</t>
   </si>
   <si>
     <t xml:space="preserve">3.79794454574585</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82500767707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791356086731</t>
+    <t xml:space="preserve">3.82500815391541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87913608551025</t>
   </si>
   <si>
     <t xml:space="preserve">3.73028516769409</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73479509353638</t>
+    <t xml:space="preserve">3.73479557037354</t>
   </si>
   <si>
     <t xml:space="preserve">3.72577428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69871044158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68066787719727</t>
+    <t xml:space="preserve">3.69871020317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68066811561584</t>
   </si>
   <si>
     <t xml:space="preserve">3.61751937866211</t>
@@ -2468,82 +2471,79 @@
     <t xml:space="preserve">3.57692384719849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66262531280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64909362792969</t>
+    <t xml:space="preserve">3.66262555122375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64909386634827</t>
   </si>
   <si>
     <t xml:space="preserve">3.82049775123596</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81598687171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80696511268616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7799015045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85207152366638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91522073745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734829902649</t>
+    <t xml:space="preserve">3.81598663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80696558952332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77990221977234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85207200050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91522097587585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734853744507</t>
   </si>
   <si>
     <t xml:space="preserve">3.8430507183075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8565821647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83853983879089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84756112098694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79343342781067</t>
+    <t xml:space="preserve">3.85658264160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83854007720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84756135940552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79343366622925</t>
   </si>
   <si>
     <t xml:space="preserve">3.76185917854309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68968939781189</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.6716468334198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73930621147156</t>
+    <t xml:space="preserve">3.73930597305298</t>
   </si>
   <si>
     <t xml:space="preserve">3.7844123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86109280586243</t>
+    <t xml:space="preserve">3.86109328269958</t>
   </si>
   <si>
     <t xml:space="preserve">4.00543308258057</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0189642906189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07760238647461</t>
+    <t xml:space="preserve">4.01896524429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07760286331177</t>
   </si>
   <si>
     <t xml:space="preserve">4.09131669998169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17817115783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25588369369507</t>
+    <t xml:space="preserve">4.17817163467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25588417053223</t>
   </si>
   <si>
     <t xml:space="preserve">4.24674081802368</t>
@@ -2558,13 +2558,13 @@
     <t xml:space="preserve">4.22388458251953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1873140335083</t>
+    <t xml:space="preserve">4.18731355667114</t>
   </si>
   <si>
     <t xml:space="preserve">4.15074348449707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.114173412323</t>
+    <t xml:space="preserve">4.11417293548584</t>
   </si>
   <si>
     <t xml:space="preserve">4.05931758880615</t>
@@ -2573,16 +2573,16 @@
     <t xml:space="preserve">4.1096019744873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13702964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16902828216553</t>
+    <t xml:space="preserve">4.13703012466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16902875900269</t>
   </si>
   <si>
     <t xml:space="preserve">4.05474615097046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08217430114746</t>
+    <t xml:space="preserve">4.0821738243103</t>
   </si>
   <si>
     <t xml:space="preserve">4.09588813781738</t>
@@ -2591,16 +2591,16 @@
     <t xml:space="preserve">4.04103231430054</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06845998764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03188943862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04560327529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12331581115723</t>
+    <t xml:space="preserve">4.06845951080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03188991546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04560375213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12331628799438</t>
   </si>
   <si>
     <t xml:space="preserve">4.15988636016846</t>
@@ -2615,34 +2615,34 @@
     <t xml:space="preserve">4.19645690917969</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19188499450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1416015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27873992919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29702472686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23302745819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20559930801392</t>
+    <t xml:space="preserve">4.19188547134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14160060882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27873945236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29702520370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23302698135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20559883117676</t>
   </si>
   <si>
     <t xml:space="preserve">4.11874437332153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10045957565308</t>
+    <t xml:space="preserve">4.10045909881592</t>
   </si>
   <si>
     <t xml:space="preserve">4.14617204666138</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29245376586914</t>
+    <t xml:space="preserve">4.2924542427063</t>
   </si>
   <si>
     <t xml:space="preserve">4.31531047821045</t>
@@ -2654,16 +2654,16 @@
     <t xml:space="preserve">4.28788280487061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00446176528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98617672920227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95874857902527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95417714118958</t>
+    <t xml:space="preserve">4.00446224212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98617696762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95874905586243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95417737960815</t>
   </si>
   <si>
     <t xml:space="preserve">3.88560795783997</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">3.78961062431335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73932647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9084644317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01360464096069</t>
+    <t xml:space="preserve">3.7393262386322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90846467018127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01360416412354</t>
   </si>
   <si>
     <t xml:space="preserve">4.02274703979492</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">4.12788677215576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07303094863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06388902664185</t>
+    <t xml:space="preserve">4.07303142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.063889503479</t>
   </si>
   <si>
     <t xml:space="preserve">4.10503053665161</t>
@@ -2699,37 +2699,37 @@
     <t xml:space="preserve">3.931321144104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00903367996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05017423629761</t>
+    <t xml:space="preserve">4.009033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05017518997192</t>
   </si>
   <si>
     <t xml:space="preserve">4.18274259567261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23759889602661</t>
+    <t xml:space="preserve">4.23759841918945</t>
   </si>
   <si>
     <t xml:space="preserve">4.17359972000122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31073951721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35188102722168</t>
+    <t xml:space="preserve">4.31073904037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35188150405884</t>
   </si>
   <si>
     <t xml:space="preserve">4.32902479171753</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2147421836853</t>
+    <t xml:space="preserve">4.21474170684814</t>
   </si>
   <si>
     <t xml:space="preserve">4.21017074584961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33359575271606</t>
+    <t xml:space="preserve">4.33359527587891</t>
   </si>
   <si>
     <t xml:space="preserve">4.27416896820068</t>
@@ -2744,37 +2744,37 @@
     <t xml:space="preserve">4.52558994293213</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5713038444519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62615919113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64444446563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65358686447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59873151779175</t>
+    <t xml:space="preserve">4.57130336761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62615966796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64444398880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65358734130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59873104095459</t>
   </si>
   <si>
     <t xml:space="preserve">4.5438756942749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52101898193359</t>
+    <t xml:space="preserve">4.52101945877075</t>
   </si>
   <si>
     <t xml:space="preserve">4.58958864212036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58044624328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60787343978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72672748565674</t>
+    <t xml:space="preserve">4.58044672012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60787391662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7267279624939</t>
   </si>
   <si>
     <t xml:space="preserve">4.69015741348267</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">4.56673192977905</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66272974014282</t>
+    <t xml:space="preserve">4.66272926330566</t>
   </si>
   <si>
     <t xml:space="preserve">4.70844268798828</t>
@@ -2795,13 +2795,13 @@
     <t xml:space="preserve">4.47987747192383</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53930473327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36102390289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68101453781128</t>
+    <t xml:space="preserve">4.53930425643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36102342605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68101501464844</t>
   </si>
   <si>
     <t xml:space="preserve">4.75415563583374</t>
@@ -2819,13 +2819,13 @@
     <t xml:space="preserve">4.86386680603027</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99186372756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01929092407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98272085189819</t>
+    <t xml:space="preserve">4.99186325073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01929140090942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98272037506104</t>
   </si>
   <si>
     <t xml:space="preserve">5.1564302444458</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">5.11985969543457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24785614013672</t>
+    <t xml:space="preserve">5.24785566329956</t>
   </si>
   <si>
     <t xml:space="preserve">5.42156600952148</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">5.48556423187256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46727895736694</t>
+    <t xml:space="preserve">5.4672794342041</t>
   </si>
   <si>
     <t xml:space="preserve">5.26614189147949</t>
@@ -2864,7 +2864,7 @@
     <t xml:space="preserve">5.62270355224609</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58613300323486</t>
+    <t xml:space="preserve">5.58613252639771</t>
   </si>
   <si>
     <t xml:space="preserve">5.61356067657471</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">5.40328073501587</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30271196365356</t>
+    <t xml:space="preserve">5.30271244049072</t>
   </si>
   <si>
     <t xml:space="preserve">5.28442716598511</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">4.93700790405273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07414674758911</t>
+    <t xml:space="preserve">5.07414722442627</t>
   </si>
   <si>
     <t xml:space="preserve">5.00100564956665</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">5.13814544677734</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05586194992065</t>
+    <t xml:space="preserve">5.0558614730835</t>
   </si>
   <si>
     <t xml:space="preserve">4.89129495620728</t>
@@ -2930,13 +2930,13 @@
     <t xml:space="preserve">4.50730514526367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45244979858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32445335388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95529270172119</t>
+    <t xml:space="preserve">4.45244932174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32445287704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95529317855835</t>
   </si>
   <si>
     <t xml:space="preserve">5.0101490020752</t>
@@ -2951,10 +2951,10 @@
     <t xml:space="preserve">5.33014011383057</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4124231338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53127717971802</t>
+    <t xml:space="preserve">5.41242361068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53127765655518</t>
   </si>
   <si>
     <t xml:space="preserve">5.39413785934448</t>
@@ -2972,7 +2972,7 @@
     <t xml:space="preserve">5.63184547424316</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73241424560547</t>
+    <t xml:space="preserve">5.73241472244263</t>
   </si>
   <si>
     <t xml:space="preserve">5.65013074874878</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">5.4823055267334</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58486557006836</t>
+    <t xml:space="preserve">5.5848650932312</t>
   </si>
   <si>
     <t xml:space="preserve">5.57554197311401</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">5.73404407501221</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51959991455078</t>
+    <t xml:space="preserve">5.51960039138794</t>
   </si>
   <si>
     <t xml:space="preserve">5.51027631759644</t>
@@ -3035,19 +3035,19 @@
     <t xml:space="preserve">6.09766626358032</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07901906967163</t>
+    <t xml:space="preserve">6.07901859283447</t>
   </si>
   <si>
     <t xml:space="preserve">6.1629319190979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9951057434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20022630691528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03240060806274</t>
+    <t xml:space="preserve">5.99510622024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20022678375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03240013122559</t>
   </si>
   <si>
     <t xml:space="preserve">5.79930925369263</t>
@@ -3056,7 +3056,7 @@
     <t xml:space="preserve">5.90186977386475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84592771530151</t>
+    <t xml:space="preserve">5.84592723846436</t>
   </si>
   <si>
     <t xml:space="preserve">5.78998565673828</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">5.78066205978394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53824758529663</t>
+    <t xml:space="preserve">5.53824710845947</t>
   </si>
   <si>
     <t xml:space="preserve">5.52892351150513</t>
@@ -3083,16 +3083,16 @@
     <t xml:space="preserve">5.4543342590332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41703939437866</t>
+    <t xml:space="preserve">5.41703987121582</t>
   </si>
   <si>
     <t xml:space="preserve">5.50095272064209</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47298145294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38906955718994</t>
+    <t xml:space="preserve">5.47298192977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38906908035278</t>
   </si>
   <si>
     <t xml:space="preserve">5.33312702178955</t>
@@ -3101,13 +3101,13 @@
     <t xml:space="preserve">5.32380342483521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25853776931763</t>
+    <t xml:space="preserve">5.25853729248047</t>
   </si>
   <si>
     <t xml:space="preserve">5.20259571075439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2119197845459</t>
+    <t xml:space="preserve">5.21191930770874</t>
   </si>
   <si>
     <t xml:space="preserve">5.1839485168457</t>
@@ -3119,34 +3119,34 @@
     <t xml:space="preserve">5.11868286132812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22124290466309</t>
+    <t xml:space="preserve">5.22124338150024</t>
   </si>
   <si>
     <t xml:space="preserve">5.23989057540894</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17462491989136</t>
+    <t xml:space="preserve">5.17462539672852</t>
   </si>
   <si>
     <t xml:space="preserve">5.12800693511963</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14665365219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09071254730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10935974121094</t>
+    <t xml:space="preserve">5.14665412902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09071207046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10935926437378</t>
   </si>
   <si>
     <t xml:space="preserve">5.15597772598267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55689477920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26786136627197</t>
+    <t xml:space="preserve">5.55689430236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26786184310913</t>
   </si>
   <si>
     <t xml:space="preserve">5.24921417236328</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">4.99747562408447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97882843017578</t>
+    <t xml:space="preserve">4.97882890701294</t>
   </si>
   <si>
     <t xml:space="preserve">4.95085716247559</t>
@@ -3179,10 +3179,10 @@
     <t xml:space="preserve">4.79235553741455</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67114782333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81100273132324</t>
+    <t xml:space="preserve">4.6711483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81100225448608</t>
   </si>
   <si>
     <t xml:space="preserve">4.7737078666687</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">4.78303194046021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76438474655151</t>
+    <t xml:space="preserve">4.76438426971436</t>
   </si>
   <si>
     <t xml:space="preserve">4.73641347885132</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">4.72708988189697</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65250015258789</t>
+    <t xml:space="preserve">4.65250062942505</t>
   </si>
   <si>
     <t xml:space="preserve">4.68047142028809</t>
@@ -3239,7 +3239,7 @@
     <t xml:space="preserve">4.49399900436401</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52196979522705</t>
+    <t xml:space="preserve">4.52196931838989</t>
   </si>
   <si>
     <t xml:space="preserve">4.54527902603149</t>
@@ -3248,25 +3248,25 @@
     <t xml:space="preserve">4.45670413970947</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3774528503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28887844085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56858825683594</t>
+    <t xml:space="preserve">4.37745332717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28887796401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56858777999878</t>
   </si>
   <si>
     <t xml:space="preserve">4.57324981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89491510391235</t>
+    <t xml:space="preserve">4.89491558074951</t>
   </si>
   <si>
     <t xml:space="preserve">4.96950435638428</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93220996856689</t>
+    <t xml:space="preserve">4.93221044540405</t>
   </si>
   <si>
     <t xml:space="preserve">5.27718496322632</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">5.29583215713501</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36109828948975</t>
+    <t xml:space="preserve">5.36109781265259</t>
   </si>
   <si>
     <t xml:space="preserve">5.49162864685059</t>
@@ -3296,16 +3296,16 @@
     <t xml:space="preserve">5.10003566741943</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06274127960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19327211380005</t>
+    <t xml:space="preserve">5.06274080276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19327259063721</t>
   </si>
   <si>
     <t xml:space="preserve">5.08138847351074</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02544641494751</t>
+    <t xml:space="preserve">5.02544689178467</t>
   </si>
   <si>
     <t xml:space="preserve">5.16530132293701</t>
@@ -3314,7 +3314,7 @@
     <t xml:space="preserve">5.40771627426147</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30515623092651</t>
+    <t xml:space="preserve">5.30515575408936</t>
   </si>
   <si>
     <t xml:space="preserve">5.23056697845459</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">5.37974548339844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42636346817017</t>
+    <t xml:space="preserve">5.42636394500732</t>
   </si>
   <si>
     <t xml:space="preserve">5.37825775146484</t>
@@ -3644,9 +3644,6 @@
     <t xml:space="preserve">4.45943212509155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52196931838989</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.44499969482422</t>
   </si>
   <si>
@@ -3915,6 +3912,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.9300000667572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90000009536743</t>
   </si>
 </sst>
 </file>
@@ -26868,7 +26868,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G870" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26894,7 +26894,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G871" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26920,7 +26920,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G872" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27024,7 +27024,7 @@
         <v>5.07000017166138</v>
       </c>
       <c r="G876" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27050,7 +27050,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G877" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27076,7 +27076,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G878" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27128,7 +27128,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G880" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27154,7 +27154,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G881" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27206,7 +27206,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G883" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27232,7 +27232,7 @@
         <v>4.92500019073486</v>
       </c>
       <c r="G884" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27258,7 +27258,7 @@
         <v>4.96500015258789</v>
       </c>
       <c r="G885" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27284,7 +27284,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G886" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27310,7 +27310,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G887" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27336,7 +27336,7 @@
         <v>4.75500011444092</v>
       </c>
       <c r="G888" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27362,7 +27362,7 @@
         <v>4.63500022888184</v>
       </c>
       <c r="G889" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27388,7 +27388,7 @@
         <v>4.69500017166138</v>
       </c>
       <c r="G890" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27414,7 +27414,7 @@
         <v>4.59499979019165</v>
       </c>
       <c r="G891" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27440,7 +27440,7 @@
         <v>4.64499998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27466,7 +27466,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G893" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27492,7 +27492,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G894" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27518,7 +27518,7 @@
         <v>4.61499977111816</v>
       </c>
       <c r="G895" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27544,7 +27544,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G896" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27570,7 +27570,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G897" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27596,7 +27596,7 @@
         <v>4.64499998092651</v>
       </c>
       <c r="G898" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -27622,7 +27622,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G899" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -27648,7 +27648,7 @@
         <v>4.59499979019165</v>
       </c>
       <c r="G900" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -27674,7 +27674,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G901" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -27700,7 +27700,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G902" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -27726,7 +27726,7 @@
         <v>4.78499984741211</v>
       </c>
       <c r="G903" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -27778,7 +27778,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -27804,7 +27804,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G906" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27830,7 +27830,7 @@
         <v>5</v>
       </c>
       <c r="G907" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27856,7 +27856,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G908" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27882,7 +27882,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G909" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27908,7 +27908,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G910" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27934,7 +27934,7 @@
         <v>4.52500009536743</v>
       </c>
       <c r="G911" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27960,7 +27960,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G912" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -27986,7 +27986,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G913" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28012,7 +28012,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G914" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28038,7 +28038,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G915" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28064,7 +28064,7 @@
         <v>4.52500009536743</v>
       </c>
       <c r="G916" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28090,7 +28090,7 @@
         <v>4.5</v>
       </c>
       <c r="G917" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28116,7 +28116,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G918" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28142,7 +28142,7 @@
         <v>4.32499980926514</v>
       </c>
       <c r="G919" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28168,7 +28168,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G920" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28194,7 +28194,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G921" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28220,7 +28220,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28246,7 +28246,7 @@
         <v>4.31500005722046</v>
       </c>
       <c r="G923" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28272,7 +28272,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G924" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28298,7 +28298,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G925" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28324,7 +28324,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G926" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28350,7 +28350,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G927" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -28376,7 +28376,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G928" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28402,7 +28402,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G929" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28428,7 +28428,7 @@
         <v>4.40500020980835</v>
       </c>
       <c r="G930" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28454,7 +28454,7 @@
         <v>4.47499990463257</v>
       </c>
       <c r="G931" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28480,7 +28480,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G932" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -28506,7 +28506,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G933" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28532,7 +28532,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G934" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -28558,7 +28558,7 @@
         <v>4.34499979019165</v>
       </c>
       <c r="G935" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28584,7 +28584,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G936" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28610,7 +28610,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G937" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28636,7 +28636,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G938" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -28662,7 +28662,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G939" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -28688,7 +28688,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G940" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -28714,7 +28714,7 @@
         <v>4.25</v>
       </c>
       <c r="G941" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -28740,7 +28740,7 @@
         <v>4.25</v>
       </c>
       <c r="G942" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28766,7 +28766,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G943" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -28792,7 +28792,7 @@
         <v>4.33500003814697</v>
       </c>
       <c r="G944" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -28818,7 +28818,7 @@
         <v>4.47499990463257</v>
       </c>
       <c r="G945" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -28844,7 +28844,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G946" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28870,7 +28870,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G947" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28896,7 +28896,7 @@
         <v>4.24499988555908</v>
       </c>
       <c r="G948" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28922,7 +28922,7 @@
         <v>4.25</v>
       </c>
       <c r="G949" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -28948,7 +28948,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G950" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -28974,7 +28974,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G951" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29000,7 +29000,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G952" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29026,7 +29026,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G953" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29052,7 +29052,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G954" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29078,7 +29078,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G955" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29104,7 +29104,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G956" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29130,7 +29130,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G957" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29156,7 +29156,7 @@
         <v>4.25500011444092</v>
       </c>
       <c r="G958" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29182,7 +29182,7 @@
         <v>4.33500003814697</v>
       </c>
       <c r="G959" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29208,7 +29208,7 @@
         <v>4.22499990463257</v>
       </c>
       <c r="G960" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29234,7 +29234,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G961" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29260,7 +29260,7 @@
         <v>4.34499979019165</v>
       </c>
       <c r="G962" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29286,7 +29286,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G963" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29312,7 +29312,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G964" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29338,7 +29338,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G965" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29364,7 +29364,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G966" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29390,7 +29390,7 @@
         <v>4.60500001907349</v>
       </c>
       <c r="G967" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29416,7 +29416,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G968" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29442,7 +29442,7 @@
         <v>4.57499980926514</v>
       </c>
       <c r="G969" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29468,7 +29468,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G970" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29494,7 +29494,7 @@
         <v>4.61499977111816</v>
       </c>
       <c r="G971" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29520,7 +29520,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G972" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29546,7 +29546,7 @@
         <v>4.67500019073486</v>
       </c>
       <c r="G973" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29572,7 +29572,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G974" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -29598,7 +29598,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G975" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -29624,7 +29624,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G976" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -29650,7 +29650,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G977" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -29676,7 +29676,7 @@
         <v>4.94500017166138</v>
       </c>
       <c r="G978" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -29702,7 +29702,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G979" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -29728,7 +29728,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G980" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -29780,7 +29780,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G982" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -29832,7 +29832,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G984" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29858,7 +29858,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G985" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29884,7 +29884,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G986" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29962,7 +29962,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G989" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29988,7 +29988,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G990" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30014,7 +30014,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G991" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30040,7 +30040,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G992" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30066,7 +30066,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G993" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30092,7 +30092,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G994" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30118,7 +30118,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G995" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30144,7 +30144,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G996" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30170,7 +30170,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G997" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30196,7 +30196,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G998" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30222,7 +30222,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G999" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30248,7 +30248,7 @@
         <v>5.5</v>
       </c>
       <c r="G1000" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30274,7 +30274,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G1001" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30300,7 +30300,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1002" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30326,7 +30326,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30352,7 +30352,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G1004" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30378,7 +30378,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1005" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30404,7 +30404,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G1006" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30430,7 +30430,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G1007" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30456,7 +30456,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1008" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30482,7 +30482,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1009" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30508,7 +30508,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1010" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30534,7 +30534,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G1011" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30560,7 +30560,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1012" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30586,7 +30586,7 @@
         <v>5.25</v>
       </c>
       <c r="G1013" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -30612,7 +30612,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1014" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -30664,7 +30664,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1016" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -30690,7 +30690,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -30716,7 +30716,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1018" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -30742,7 +30742,7 @@
         <v>5.26999998092651</v>
       </c>
       <c r="G1019" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -30794,7 +30794,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1021" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30820,7 +30820,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1022" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -30846,7 +30846,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1023" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30872,7 +30872,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1024" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30898,7 +30898,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1025" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30924,7 +30924,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G1026" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30950,7 +30950,7 @@
         <v>5.5</v>
       </c>
       <c r="G1027" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -30976,7 +30976,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1028" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31002,7 +31002,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G1029" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31028,7 +31028,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G1030" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31054,7 +31054,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1031" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31080,7 +31080,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1032" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31106,7 +31106,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1033" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31132,7 +31132,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1034" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31158,7 +31158,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1035" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31184,7 +31184,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1036" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31210,7 +31210,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G1037" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31236,7 +31236,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G1038" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31262,7 +31262,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G1039" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31314,7 +31314,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G1041" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31340,7 +31340,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G1042" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31366,7 +31366,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1043" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31418,7 +31418,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1045" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31444,7 +31444,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1046" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31470,7 +31470,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1047" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31496,7 +31496,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1048" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31522,7 +31522,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1049" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31548,7 +31548,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G1050" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31574,7 +31574,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1051" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -31600,7 +31600,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1052" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -31626,7 +31626,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1053" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -31652,7 +31652,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1054" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -31678,7 +31678,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1055" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -31704,7 +31704,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G1056" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -31730,7 +31730,7 @@
         <v>4.5</v>
       </c>
       <c r="G1057" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -31756,7 +31756,7 @@
         <v>4.5</v>
       </c>
       <c r="G1058" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -31782,7 +31782,7 @@
         <v>4.36499977111816</v>
       </c>
       <c r="G1059" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -31808,7 +31808,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G1060" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -31834,7 +31834,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1061" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -31860,7 +31860,7 @@
         <v>3.91499996185303</v>
       </c>
       <c r="G1062" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -31886,7 +31886,7 @@
         <v>3.85500001907349</v>
       </c>
       <c r="G1063" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -31912,7 +31912,7 @@
         <v>3.68499994277954</v>
       </c>
       <c r="G1064" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31938,7 +31938,7 @@
         <v>3.75</v>
       </c>
       <c r="G1065" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31964,7 +31964,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G1066" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -31990,7 +31990,7 @@
         <v>3.39499998092651</v>
       </c>
       <c r="G1067" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32016,7 +32016,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G1068" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32042,7 +32042,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1069" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32068,7 +32068,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1070" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32094,7 +32094,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G1071" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32120,7 +32120,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1072" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32146,7 +32146,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1073" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32172,7 +32172,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1074" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32198,7 +32198,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1075" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32224,7 +32224,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G1076" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32250,7 +32250,7 @@
         <v>3.14499998092651</v>
       </c>
       <c r="G1077" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32276,7 +32276,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G1078" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32302,7 +32302,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1079" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32328,7 +32328,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1080" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32354,7 +32354,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G1081" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32380,7 +32380,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1082" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32406,7 +32406,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G1083" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32432,7 +32432,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1084" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32458,7 +32458,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G1085" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32484,7 +32484,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1086" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32510,7 +32510,7 @@
         <v>3.5</v>
       </c>
       <c r="G1087" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32536,7 +32536,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1088" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32562,7 +32562,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1089" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -32588,7 +32588,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1090" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -32614,7 +32614,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G1091" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -32640,7 +32640,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1092" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -32666,7 +32666,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1093" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -32692,7 +32692,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1094" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -32718,7 +32718,7 @@
         <v>3.50500011444092</v>
       </c>
       <c r="G1095" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -32744,7 +32744,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G1096" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -32770,7 +32770,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1097" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -32796,7 +32796,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1098" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -32822,7 +32822,7 @@
         <v>3.46499991416931</v>
       </c>
       <c r="G1099" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -32848,7 +32848,7 @@
         <v>3.43499994277954</v>
       </c>
       <c r="G1100" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32874,7 +32874,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G1101" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32900,7 +32900,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G1102" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32926,7 +32926,7 @@
         <v>3.61500000953674</v>
       </c>
       <c r="G1103" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32952,7 +32952,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1104" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32978,7 +32978,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1105" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33004,7 +33004,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1106" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33030,7 +33030,7 @@
         <v>3.64499998092651</v>
       </c>
       <c r="G1107" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33056,7 +33056,7 @@
         <v>3.5</v>
       </c>
       <c r="G1108" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33082,7 +33082,7 @@
         <v>3.5</v>
       </c>
       <c r="G1109" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33108,7 +33108,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1110" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33134,7 +33134,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1111" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33160,7 +33160,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1112" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33186,7 +33186,7 @@
         <v>3.71499991416931</v>
       </c>
       <c r="G1113" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33212,7 +33212,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1114" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33238,7 +33238,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1115" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33264,7 +33264,7 @@
         <v>3.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33290,7 +33290,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G1117" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33316,7 +33316,7 @@
         <v>3.70499992370605</v>
       </c>
       <c r="G1118" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33342,7 +33342,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1119" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33368,7 +33368,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1120" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33394,7 +33394,7 @@
         <v>3.75</v>
       </c>
       <c r="G1121" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33420,7 +33420,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1122" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33446,7 +33446,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1123" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33472,7 +33472,7 @@
         <v>4</v>
       </c>
       <c r="G1124" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33498,7 +33498,7 @@
         <v>4.05499982833862</v>
       </c>
       <c r="G1125" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33524,7 +33524,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1126" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33550,7 +33550,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1127" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33576,7 +33576,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1128" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -33602,7 +33602,7 @@
         <v>3.83500003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -33628,7 +33628,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1130" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -33654,7 +33654,7 @@
         <v>3.91499996185303</v>
       </c>
       <c r="G1131" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -33680,7 +33680,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G1132" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -33706,7 +33706,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1133" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -33732,7 +33732,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1134" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -33758,7 +33758,7 @@
         <v>3.92499995231628</v>
       </c>
       <c r="G1135" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -33784,7 +33784,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1136" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -33810,7 +33810,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G1137" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -33836,7 +33836,7 @@
         <v>3.91499996185303</v>
       </c>
       <c r="G1138" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -33862,7 +33862,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1139" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33888,7 +33888,7 @@
         <v>4.00500011444092</v>
       </c>
       <c r="G1140" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33914,7 +33914,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1141" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33940,7 +33940,7 @@
         <v>4</v>
       </c>
       <c r="G1142" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33966,7 +33966,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1143" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33992,7 +33992,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34018,7 +34018,7 @@
         <v>4.25</v>
       </c>
       <c r="G1145" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34044,7 +34044,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1146" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34070,7 +34070,7 @@
         <v>4.10500001907349</v>
       </c>
       <c r="G1147" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34096,7 +34096,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1148" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34122,7 +34122,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1149" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34148,7 +34148,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1150" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34174,7 +34174,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1151" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34200,7 +34200,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1152" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34226,7 +34226,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1153" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34252,7 +34252,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1154" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34278,7 +34278,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1155" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34304,7 +34304,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G1156" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34330,7 +34330,7 @@
         <v>3.75500011444092</v>
       </c>
       <c r="G1157" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34356,7 +34356,7 @@
         <v>3.77500009536743</v>
       </c>
       <c r="G1158" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34382,7 +34382,7 @@
         <v>3.75</v>
       </c>
       <c r="G1159" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34408,7 +34408,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1160" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34434,7 +34434,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1161" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34460,7 +34460,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1162" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34486,7 +34486,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1163" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34512,7 +34512,7 @@
         <v>3.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34538,7 +34538,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1165" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34564,7 +34564,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1166" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -34590,7 +34590,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1167" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -34616,7 +34616,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1168" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -34642,7 +34642,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1169" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -34668,7 +34668,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1170" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -34694,7 +34694,7 @@
         <v>3.625</v>
       </c>
       <c r="G1171" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -34720,7 +34720,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1172" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -34746,7 +34746,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1173" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -34772,7 +34772,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1174" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -34798,7 +34798,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1175" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -34824,7 +34824,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1176" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -34850,7 +34850,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1177" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34876,7 +34876,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1178" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34902,7 +34902,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1179" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34928,7 +34928,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1180" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34954,7 +34954,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1181" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34980,7 +34980,7 @@
         <v>3.50500011444092</v>
       </c>
       <c r="G1182" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35006,7 +35006,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1183" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35032,7 +35032,7 @@
         <v>3.5</v>
       </c>
       <c r="G1184" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35058,7 +35058,7 @@
         <v>3.4449999332428</v>
       </c>
       <c r="G1185" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35084,7 +35084,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1186" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35110,7 +35110,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1187" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35136,7 +35136,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1188" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35162,7 +35162,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1189" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35188,7 +35188,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1190" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35214,7 +35214,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1191" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35240,7 +35240,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1192" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35266,7 +35266,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1193" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35292,7 +35292,7 @@
         <v>3.49499988555908</v>
       </c>
       <c r="G1194" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35318,7 +35318,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1195" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35344,7 +35344,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1196" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35370,7 +35370,7 @@
         <v>3.45499992370605</v>
       </c>
       <c r="G1197" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35396,7 +35396,7 @@
         <v>3.375</v>
       </c>
       <c r="G1198" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35422,7 +35422,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G1199" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35448,7 +35448,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G1200" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35474,7 +35474,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G1201" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35500,7 +35500,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G1202" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35526,7 +35526,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1203" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35552,7 +35552,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1204" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35578,7 +35578,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1205" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -35604,7 +35604,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1206" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -35630,7 +35630,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1207" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -35656,7 +35656,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -35682,7 +35682,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1209" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -35708,7 +35708,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1210" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -35734,7 +35734,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1211" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -35760,7 +35760,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1212" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -35786,7 +35786,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1213" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -35812,7 +35812,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1214" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -35838,7 +35838,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1215" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35864,7 +35864,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1216" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35890,7 +35890,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1217" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35916,7 +35916,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1218" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35942,7 +35942,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1219" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35968,7 +35968,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35994,7 +35994,7 @@
         <v>3.17499995231628</v>
       </c>
       <c r="G1221" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36020,7 +36020,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1222" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36046,7 +36046,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1223" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36072,7 +36072,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1224" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36098,7 +36098,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G1225" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36124,7 +36124,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1226" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36150,7 +36150,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1227" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36176,7 +36176,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1228" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36202,7 +36202,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1229" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36228,7 +36228,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1230" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36254,7 +36254,7 @@
         <v>2.88499999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36280,7 +36280,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1232" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36306,7 +36306,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1233" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36332,7 +36332,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1234" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36358,7 +36358,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36384,7 +36384,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1236" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36410,7 +36410,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1237" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36436,7 +36436,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1238" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36462,7 +36462,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1239" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36488,7 +36488,7 @@
         <v>3.39499998092651</v>
       </c>
       <c r="G1240" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36514,7 +36514,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1241" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36540,7 +36540,7 @@
         <v>3.625</v>
       </c>
       <c r="G1242" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36566,7 +36566,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1243" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -36592,7 +36592,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1244" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -36618,7 +36618,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1245" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -36644,7 +36644,7 @@
         <v>3.59500002861023</v>
       </c>
       <c r="G1246" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -36670,7 +36670,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1247" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -36696,7 +36696,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G1248" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -36722,7 +36722,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G1249" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -36748,7 +36748,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1250" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -36774,7 +36774,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1251" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -36800,7 +36800,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1252" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -36826,7 +36826,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1253" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -36852,7 +36852,7 @@
         <v>3.75</v>
       </c>
       <c r="G1254" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -36878,7 +36878,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1255" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -36904,7 +36904,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G1256" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -36930,7 +36930,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1257" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -36956,7 +36956,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1258" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -36982,7 +36982,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1259" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -37008,7 +37008,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1260" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37034,7 +37034,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1261" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37060,7 +37060,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1262" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37086,7 +37086,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1263" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37112,7 +37112,7 @@
         <v>3.89499998092651</v>
       </c>
       <c r="G1264" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37138,7 +37138,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1265" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37164,7 +37164,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1266" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37190,7 +37190,7 @@
         <v>3.875</v>
       </c>
       <c r="G1267" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37216,7 +37216,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1268" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37242,7 +37242,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1269" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37268,7 +37268,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1270" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37294,7 +37294,7 @@
         <v>4.25</v>
       </c>
       <c r="G1271" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37320,7 +37320,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1272" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37346,7 +37346,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1273" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37372,7 +37372,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1274" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37398,7 +37398,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1275" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37424,7 +37424,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1276" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37450,7 +37450,7 @@
         <v>4.13500022888184</v>
       </c>
       <c r="G1277" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37476,7 +37476,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1278" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37502,7 +37502,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1279" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37528,7 +37528,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1280" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37554,7 +37554,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1281" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37580,7 +37580,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1282" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -37606,7 +37606,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1283" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -37632,7 +37632,7 @@
         <v>4</v>
       </c>
       <c r="G1284" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -37658,7 +37658,7 @@
         <v>4</v>
       </c>
       <c r="G1285" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -37684,7 +37684,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1286" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -37710,7 +37710,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1287" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -37736,7 +37736,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1288" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -37762,7 +37762,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1289" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -37788,7 +37788,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1290" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -37814,7 +37814,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1291" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -37840,7 +37840,7 @@
         <v>4</v>
       </c>
       <c r="G1292" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -37866,7 +37866,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1293" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -37892,7 +37892,7 @@
         <v>4</v>
       </c>
       <c r="G1294" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -37918,7 +37918,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G1295" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -37944,7 +37944,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1296" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -37970,7 +37970,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1297" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -37996,7 +37996,7 @@
         <v>4.04500007629395</v>
       </c>
       <c r="G1298" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38022,7 +38022,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1299" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38048,7 +38048,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1300" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38074,7 +38074,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1301" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38100,7 +38100,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1302" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38126,7 +38126,7 @@
         <v>4</v>
       </c>
       <c r="G1303" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38152,7 +38152,7 @@
         <v>4.04500007629395</v>
       </c>
       <c r="G1304" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38178,7 +38178,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1305" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38204,7 +38204,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1306" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38230,7 +38230,7 @@
         <v>4.2350001335144</v>
       </c>
       <c r="G1307" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38256,7 +38256,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1308" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38282,7 +38282,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1309" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38308,7 +38308,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1310" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38334,7 +38334,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1311" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38360,7 +38360,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1312" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38386,7 +38386,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1313" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38412,7 +38412,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1314" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38438,7 +38438,7 @@
         <v>4.16499996185303</v>
       </c>
       <c r="G1315" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38464,7 +38464,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1316" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38490,7 +38490,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1317" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38516,7 +38516,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1318" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38542,7 +38542,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G1319" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38568,7 +38568,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G1320" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38594,7 +38594,7 @@
         <v>4.25500011444092</v>
       </c>
       <c r="G1321" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -38620,7 +38620,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G1322" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -38646,7 +38646,7 @@
         <v>4.20499992370605</v>
       </c>
       <c r="G1323" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -38672,7 +38672,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1324" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -38698,7 +38698,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1325" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -38724,7 +38724,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1326" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -38750,7 +38750,7 @@
         <v>4.25500011444092</v>
       </c>
       <c r="G1327" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -38776,7 +38776,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1328" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -38802,7 +38802,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1329" t="s">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -38828,7 +38828,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1330" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -38854,7 +38854,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1331" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -38906,7 +38906,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1333" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -38932,7 +38932,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1334" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -38984,7 +38984,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1336" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -39036,7 +39036,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1338" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39088,7 +39088,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1340" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -57028,7 +57028,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2030" t="s">
-        <v>1210</v>
+        <v>1075</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57054,7 +57054,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2031" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57106,7 +57106,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2033" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57236,7 +57236,7 @@
         <v>4.61499977111816</v>
       </c>
       <c r="G2038" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57262,7 +57262,7 @@
         <v>4.55499982833862</v>
       </c>
       <c r="G2039" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57288,7 +57288,7 @@
         <v>4.88500022888184</v>
       </c>
       <c r="G2040" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57340,7 +57340,7 @@
         <v>4.75</v>
       </c>
       <c r="G2042" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57392,7 +57392,7 @@
         <v>4.75</v>
       </c>
       <c r="G2044" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57470,7 +57470,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57496,7 +57496,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G2048" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57522,7 +57522,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57574,7 +57574,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2051" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57886,7 +57886,7 @@
         <v>4.5</v>
       </c>
       <c r="G2063" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57912,7 +57912,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G2064" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57964,7 +57964,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2066" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57990,7 +57990,7 @@
         <v>4.5</v>
       </c>
       <c r="G2067" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58016,7 +58016,7 @@
         <v>4.49499988555908</v>
       </c>
       <c r="G2068" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58094,7 +58094,7 @@
         <v>4.45499992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58120,7 +58120,7 @@
         <v>4.375</v>
       </c>
       <c r="G2072" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58146,7 +58146,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G2073" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58198,7 +58198,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G2075" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58302,7 +58302,7 @@
         <v>4.16499996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58354,7 +58354,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58380,7 +58380,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2082" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58458,7 +58458,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2085" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58484,7 +58484,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G2086" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58536,7 +58536,7 @@
         <v>4.30499982833862</v>
       </c>
       <c r="G2088" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58562,7 +58562,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2089" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58588,7 +58588,7 @@
         <v>4.13500022888184</v>
       </c>
       <c r="G2090" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58614,7 +58614,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2091" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58640,7 +58640,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2092" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58666,7 +58666,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G2093" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58692,7 +58692,7 @@
         <v>4.15500020980835</v>
       </c>
       <c r="G2094" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58718,7 +58718,7 @@
         <v>4.15500020980835</v>
       </c>
       <c r="G2095" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58744,7 +58744,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G2096" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58770,7 +58770,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G2097" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58796,7 +58796,7 @@
         <v>4.11499977111816</v>
       </c>
       <c r="G2098" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58822,7 +58822,7 @@
         <v>4.07499980926514</v>
       </c>
       <c r="G2099" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58848,7 +58848,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2100" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58874,7 +58874,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2101" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58900,7 +58900,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G2102" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58926,7 +58926,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G2103" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58952,7 +58952,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G2104" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58978,7 +58978,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G2105" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59004,7 +59004,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2106" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59030,7 +59030,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G2107" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59056,7 +59056,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G2108" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59082,7 +59082,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G2109" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59108,7 +59108,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G2110" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59134,7 +59134,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G2111" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59160,7 +59160,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G2112" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59186,7 +59186,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G2113" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59212,7 +59212,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G2114" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59238,7 +59238,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59264,7 +59264,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G2116" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59290,7 +59290,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G2117" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59316,7 +59316,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G2118" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59342,7 +59342,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G2119" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59368,7 +59368,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G2120" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59394,7 +59394,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G2121" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59420,7 +59420,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G2122" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59446,7 +59446,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G2123" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59472,7 +59472,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G2124" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59498,7 +59498,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59524,7 +59524,7 @@
         <v>3.75</v>
       </c>
       <c r="G2126" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59550,7 +59550,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G2127" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59576,7 +59576,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2128" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59602,7 +59602,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59628,7 +59628,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G2130" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59654,7 +59654,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2131" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59680,7 +59680,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G2132" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59706,7 +59706,7 @@
         <v>3.75</v>
       </c>
       <c r="G2133" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59732,7 +59732,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2134" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59758,7 +59758,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G2135" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59784,7 +59784,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59810,7 +59810,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2137" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59836,7 +59836,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2138" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59862,7 +59862,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2139" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59888,7 +59888,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2140" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59914,7 +59914,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G2141" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59940,7 +59940,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59966,7 +59966,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G2143" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59992,7 +59992,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2144" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60018,7 +60018,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G2145" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60044,7 +60044,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G2146" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60070,7 +60070,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2147" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60096,7 +60096,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2148" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60122,7 +60122,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2149" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60148,7 +60148,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2150" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60174,7 +60174,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G2151" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60200,7 +60200,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2152" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60226,7 +60226,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G2153" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60252,7 +60252,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G2154" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60278,7 +60278,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G2155" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60304,7 +60304,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G2156" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60330,7 +60330,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G2157" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60356,7 +60356,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G2158" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60382,7 +60382,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G2159" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60408,7 +60408,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G2160" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -60434,7 +60434,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G2161" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -60460,7 +60460,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G2162" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -60486,7 +60486,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G2163" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -60512,7 +60512,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G2164" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -60538,7 +60538,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G2165" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -60564,7 +60564,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G2166" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -60590,7 +60590,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G2167" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -60616,7 +60616,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G2168" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -60642,7 +60642,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G2169" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -60668,7 +60668,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G2170" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -60694,7 +60694,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G2171" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -60720,7 +60720,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G2172" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -60746,7 +60746,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G2173" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -60772,7 +60772,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G2174" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -60798,7 +60798,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G2175" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -60824,7 +60824,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G2176" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -60850,7 +60850,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G2177" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -60876,7 +60876,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G2178" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -60902,7 +60902,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G2179" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -60928,7 +60928,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G2180" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -60954,7 +60954,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G2181" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -60980,7 +60980,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G2182" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -61006,7 +61006,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G2183" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -61032,7 +61032,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2184" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -61058,7 +61058,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2185" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -61084,7 +61084,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G2186" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -61110,7 +61110,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2187" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -61136,7 +61136,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G2188" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -61162,7 +61162,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G2189" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -61188,7 +61188,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2190" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -61214,7 +61214,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2191" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -61240,7 +61240,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2192" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -61266,7 +61266,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2193" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -61292,7 +61292,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2194" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -61318,7 +61318,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G2195" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -61344,7 +61344,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2196" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -61370,7 +61370,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2197" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -61396,7 +61396,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2198" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -61422,7 +61422,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2199" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H2199" t="s">
         <v>9</v>
@@ -61448,7 +61448,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2200" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H2200" t="s">
         <v>9</v>
@@ -61474,7 +61474,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2201" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H2201" t="s">
         <v>9</v>
@@ -61500,7 +61500,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2202" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H2202" t="s">
         <v>9</v>
@@ -61526,7 +61526,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2203" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H2203" t="s">
         <v>9</v>
@@ -61552,7 +61552,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2204" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H2204" t="s">
         <v>9</v>
@@ -61578,7 +61578,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G2205" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H2205" t="s">
         <v>9</v>
@@ -61604,7 +61604,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2206" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H2206" t="s">
         <v>9</v>
@@ -61630,7 +61630,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2207" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H2207" t="s">
         <v>9</v>
@@ -61656,7 +61656,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G2208" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H2208" t="s">
         <v>9</v>
@@ -61682,7 +61682,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2209" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H2209" t="s">
         <v>9</v>
@@ -61708,7 +61708,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2210" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H2210" t="s">
         <v>9</v>
@@ -61734,7 +61734,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2211" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H2211" t="s">
         <v>9</v>
@@ -61760,7 +61760,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2212" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H2212" t="s">
         <v>9</v>
@@ -61786,7 +61786,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2213" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H2213" t="s">
         <v>9</v>
@@ -61812,7 +61812,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2214" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H2214" t="s">
         <v>9</v>
@@ -61820,7 +61820,7 @@
     </row>
     <row r="2215">
       <c r="A2215" s="1" t="n">
-        <v>45547.6495949074</v>
+        <v>45547.2916666667</v>
       </c>
       <c r="B2215" t="n">
         <v>56143</v>
@@ -61838,9 +61838,35 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G2215" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H2215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" s="1" t="n">
+        <v>45548.6494097222</v>
+      </c>
+      <c r="B2216" t="n">
+        <v>73110</v>
+      </c>
+      <c r="C2216" t="n">
+        <v>3.01999998092651</v>
+      </c>
+      <c r="D2216" t="n">
+        <v>2.83999991416931</v>
+      </c>
+      <c r="E2216" t="n">
+        <v>2.98000001907349</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>2.90000009536743</v>
+      </c>
+      <c r="G2216" t="s">
         <v>1300</v>
       </c>
-      <c r="H2215" t="s">
+      <c r="H2216" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BAN.MI.xlsx
+++ b/data/BAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1307">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,94 +38,94 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74278879165649</t>
+    <t xml:space="preserve">3.74278831481934</t>
   </si>
   <si>
     <t xml:space="preserve">BAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75724601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66247153282166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53235721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48737978935242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42473244667053</t>
+    <t xml:space="preserve">3.7572455406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66247129440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53235697746277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48737931251526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42473196983337</t>
   </si>
   <si>
     <t xml:space="preserve">3.51468753814697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53396391868591</t>
+    <t xml:space="preserve">3.53396320343018</t>
   </si>
   <si>
     <t xml:space="preserve">3.5211124420166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50023031234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45203995704651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47774147987366</t>
+    <t xml:space="preserve">3.50023007392883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45203924179077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47774124145508</t>
   </si>
   <si>
     <t xml:space="preserve">3.1789608001709</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30586266517639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35726499557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27694821357727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33317041397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25767183303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19663071632385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29301118850708</t>
+    <t xml:space="preserve">3.30586290359497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35726523399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27694773674011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33317017555237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25767207145691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19663095474243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29301142692566</t>
   </si>
   <si>
     <t xml:space="preserve">3.2303638458252</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23678970336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13237690925598</t>
+    <t xml:space="preserve">3.23678946495056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13237714767456</t>
   </si>
   <si>
     <t xml:space="preserve">3.21269392967224</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11149406433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98780512809753</t>
+    <t xml:space="preserve">3.11149454116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98780536651611</t>
   </si>
   <si>
     <t xml:space="preserve">2.97174215316772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89142489433289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88339233398438</t>
+    <t xml:space="preserve">2.89142465591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88339281082153</t>
   </si>
   <si>
     <t xml:space="preserve">2.80789470672607</t>
@@ -134,13 +134,13 @@
     <t xml:space="preserve">2.8095006942749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81110763549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95246601104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04242157936096</t>
+    <t xml:space="preserve">2.81110739707947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95246624946594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04242134094238</t>
   </si>
   <si>
     <t xml:space="preserve">3.02153921127319</t>
@@ -149,55 +149,55 @@
     <t xml:space="preserve">3.05366587638855</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12113237380981</t>
+    <t xml:space="preserve">3.12113261222839</t>
   </si>
   <si>
     <t xml:space="preserve">3.17253541946411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13077044487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0231454372406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05205941200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06812286376953</t>
+    <t xml:space="preserve">3.13077068328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314519882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05205965042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06812310218811</t>
   </si>
   <si>
     <t xml:space="preserve">3.0359959602356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12434554100037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18056750297546</t>
+    <t xml:space="preserve">3.12434506416321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18056726455688</t>
   </si>
   <si>
     <t xml:space="preserve">3.24482131004333</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1645040512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19984364509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29783034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40545606613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37332916259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30907487869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30746865272522</t>
+    <t xml:space="preserve">3.16450381278992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19984340667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29783082008362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40545558929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37332892417908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30907511711121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3074688911438</t>
   </si>
   <si>
     <t xml:space="preserve">3.18859910964966</t>
@@ -215,22 +215,22 @@
     <t xml:space="preserve">3.17574834823608</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20466279983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10828137397766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06009149551392</t>
+    <t xml:space="preserve">3.20466232299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10828161239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06009125709534</t>
   </si>
   <si>
     <t xml:space="preserve">3.01993250846863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15647196769714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02796459197998</t>
+    <t xml:space="preserve">3.15647172927856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02796387672424</t>
   </si>
   <si>
     <t xml:space="preserve">2.92033886909485</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">2.93158364295959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96852922439575</t>
+    <t xml:space="preserve">2.96852970123291</t>
   </si>
   <si>
     <t xml:space="preserve">3.04563426971436</t>
@@ -248,46 +248,46 @@
     <t xml:space="preserve">3.06169772148132</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0761547088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98619890213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97977375984192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91551995277405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87054204940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89785003662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85769152641296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78379940986633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70508861541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73560905456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76934218406677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8191385269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83520269393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77898025512695</t>
+    <t xml:space="preserve">3.07615518569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98619914054871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9797739982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91551971435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87054228782654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89785027503967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85769128799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78379964828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7050883769989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73560881614685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76934242248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81913924217224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83520245552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77898049354553</t>
   </si>
   <si>
     <t xml:space="preserve">2.64244079589844</t>
@@ -296,37 +296,37 @@
     <t xml:space="preserve">2.58621907234192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54445385932922</t>
+    <t xml:space="preserve">2.54445338249207</t>
   </si>
   <si>
     <t xml:space="preserve">2.52999663352966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57015490531921</t>
+    <t xml:space="preserve">2.57015538215637</t>
   </si>
   <si>
     <t xml:space="preserve">2.65803813934326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63979840278625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61160969734192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61326742172241</t>
+    <t xml:space="preserve">2.63979864120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61160945892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61326766014099</t>
   </si>
   <si>
     <t xml:space="preserve">2.66135430335999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64477276802063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63316583633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65306353569031</t>
+    <t xml:space="preserve">2.64477300643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63316559791565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65306377410889</t>
   </si>
   <si>
     <t xml:space="preserve">2.77576780319214</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">2.87691569328308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86033415794373</t>
+    <t xml:space="preserve">2.8603343963623</t>
   </si>
   <si>
     <t xml:space="preserve">2.73597192764282</t>
@@ -353,31 +353,31 @@
     <t xml:space="preserve">2.55357360839844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5253849029541</t>
+    <t xml:space="preserve">2.52538466453552</t>
   </si>
   <si>
     <t xml:space="preserve">2.57015514373779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57844638824463</t>
+    <t xml:space="preserve">2.57844614982605</t>
   </si>
   <si>
     <t xml:space="preserve">2.55854821205139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45408391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23852229118347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27997660636902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34132862091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31977224349976</t>
+    <t xml:space="preserve">2.45408368110657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23852252960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27997636795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34132885932922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31977248191833</t>
   </si>
   <si>
     <t xml:space="preserve">2.40433883666992</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">2.33801221847534</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23686385154724</t>
+    <t xml:space="preserve">2.2368643283844</t>
   </si>
   <si>
     <t xml:space="preserve">2.27002763748169</t>
@@ -398,13 +398,13 @@
     <t xml:space="preserve">2.32972121238708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35127735137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37780833244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38278269767761</t>
+    <t xml:space="preserve">2.35127758979797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37780809402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38278317451477</t>
   </si>
   <si>
     <t xml:space="preserve">2.37946629524231</t>
@@ -416,49 +416,49 @@
     <t xml:space="preserve">2.42921161651611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58673691749573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59502768516541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6199004650116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95484948158264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89515566825867</t>
+    <t xml:space="preserve">2.58673667907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59502792358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61990022659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95484972000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89515542984009</t>
   </si>
   <si>
     <t xml:space="preserve">2.8686249256134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64808893203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62819075584412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62487459182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61824226379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.583420753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58839511871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68954277038574</t>
+    <t xml:space="preserve">2.64808917045593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62819123268127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62487483024597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61824178695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58342051506042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58839535713196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6895432472229</t>
   </si>
   <si>
     <t xml:space="preserve">2.68291068077087</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69949197769165</t>
+    <t xml:space="preserve">2.69949221611023</t>
   </si>
   <si>
     <t xml:space="preserve">2.70612454414368</t>
@@ -467,16 +467,16 @@
     <t xml:space="preserve">2.69120144844055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6945173740387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74592089653015</t>
+    <t xml:space="preserve">2.69451761245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74592113494873</t>
   </si>
   <si>
     <t xml:space="preserve">2.81224727630615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84872722625732</t>
+    <t xml:space="preserve">2.84872698783875</t>
   </si>
   <si>
     <t xml:space="preserve">2.81888008117676</t>
@@ -485,52 +485,52 @@
     <t xml:space="preserve">2.78571677207947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70778346061707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71109962463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79732394218445</t>
+    <t xml:space="preserve">2.70778274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71109914779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79732418060303</t>
   </si>
   <si>
     <t xml:space="preserve">2.82385444641113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76084423065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78240013122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7956657409668</t>
+    <t xml:space="preserve">2.76084446907043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78240060806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79566550254822</t>
   </si>
   <si>
     <t xml:space="preserve">2.82551264762878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85701775550842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74923706054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72104835510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7011501789093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67793607711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64974761009216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66964507102966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71939015388489</t>
+    <t xml:space="preserve">2.857017993927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74923729896545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72104811668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70115041732788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67793583869934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.649747133255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66964530944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71938967704773</t>
   </si>
   <si>
     <t xml:space="preserve">2.68622708320618</t>
@@ -545,28 +545,28 @@
     <t xml:space="preserve">2.73099732398987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76416087150574</t>
+    <t xml:space="preserve">2.76416039466858</t>
   </si>
   <si>
     <t xml:space="preserve">2.81058931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78074216842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77742600440979</t>
+    <t xml:space="preserve">2.78074240684509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77742576599121</t>
   </si>
   <si>
     <t xml:space="preserve">2.88520669937134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79898190498352</t>
+    <t xml:space="preserve">2.7989821434021</t>
   </si>
   <si>
     <t xml:space="preserve">2.81722187995911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79400730133057</t>
+    <t xml:space="preserve">2.79400753974915</t>
   </si>
   <si>
     <t xml:space="preserve">2.75918626785278</t>
@@ -575,16 +575,16 @@
     <t xml:space="preserve">2.7442626953125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66467094421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78737497329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72933912277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67627787590027</t>
+    <t xml:space="preserve">2.66467070579529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78737473487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7293393611908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67627763748169</t>
   </si>
   <si>
     <t xml:space="preserve">2.64643096923828</t>
@@ -593,52 +593,52 @@
     <t xml:space="preserve">2.60497689247131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60166025161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56352281570435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51709413528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55191564559937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63648223876953</t>
+    <t xml:space="preserve">2.60166072845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56352257728577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51709389686584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55191588401794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63648176193237</t>
   </si>
   <si>
     <t xml:space="preserve">2.68456888198853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70944094657898</t>
+    <t xml:space="preserve">2.70944118499756</t>
   </si>
   <si>
     <t xml:space="preserve">2.72270607948303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77908396720886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83877849578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82717084884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83380341529846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75421142578125</t>
+    <t xml:space="preserve">2.77908420562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83877801895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82717108726501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83380365371704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75421166419983</t>
   </si>
   <si>
     <t xml:space="preserve">2.82882905006409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82053828239441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77245163917542</t>
+    <t xml:space="preserve">2.82053780555725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77245140075684</t>
   </si>
   <si>
     <t xml:space="preserve">2.80064034461975</t>
@@ -647,28 +647,28 @@
     <t xml:space="preserve">2.83546161651611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80229830741882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65637993812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67959451675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70280838012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74757862091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7525532245636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98137998580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94324207305908</t>
+    <t xml:space="preserve">2.8022985458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65638017654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67959427833557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70280885696411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74757885932922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75255346298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98137974739075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94324231147766</t>
   </si>
   <si>
     <t xml:space="preserve">3.05931401252747</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">3.03444147109985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02946662902832</t>
+    <t xml:space="preserve">3.0294668674469</t>
   </si>
   <si>
     <t xml:space="preserve">3.02283406257629</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">3.00127792358398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99298739433289</t>
+    <t xml:space="preserve">2.99298691749573</t>
   </si>
   <si>
     <t xml:space="preserve">2.95650768280029</t>
@@ -695,10 +695,10 @@
     <t xml:space="preserve">2.94987487792969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93660950660706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93329334259033</t>
+    <t xml:space="preserve">2.93660974502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93329358100891</t>
   </si>
   <si>
     <t xml:space="preserve">2.90178823471069</t>
@@ -707,31 +707,31 @@
     <t xml:space="preserve">2.87857389450073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90676259994507</t>
+    <t xml:space="preserve">2.90676283836365</t>
   </si>
   <si>
     <t xml:space="preserve">2.9780638217926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98469662666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05102300643921</t>
+    <t xml:space="preserve">2.98469638824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05102324485779</t>
   </si>
   <si>
     <t xml:space="preserve">2.97308945655823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9747474193573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0178599357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01620149612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01122689247131</t>
+    <t xml:space="preserve">2.97474765777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01786041259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01620197296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01122713088989</t>
   </si>
   <si>
     <t xml:space="preserve">3.11071705818176</t>
@@ -740,52 +740,52 @@
     <t xml:space="preserve">3.11734962463379</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05599737167358</t>
+    <t xml:space="preserve">3.05599761009216</t>
   </si>
   <si>
     <t xml:space="preserve">3.03941559791565</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06760454177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15862154960632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17884802818298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2327835559845</t>
+    <t xml:space="preserve">3.06760478019714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15862131118774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17884755134583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23278331756592</t>
   </si>
   <si>
     <t xml:space="preserve">3.20244455337524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20750093460083</t>
+    <t xml:space="preserve">3.20750069618225</t>
   </si>
   <si>
     <t xml:space="preserve">3.253009557724</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24458169937134</t>
+    <t xml:space="preserve">3.24458193778992</t>
   </si>
   <si>
     <t xml:space="preserve">3.31368732452393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28166317939758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23109817504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21761417388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23446917533875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13839554786682</t>
+    <t xml:space="preserve">3.28166270256042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23109793663025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21761441230774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23446893692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1383957862854</t>
   </si>
   <si>
     <t xml:space="preserve">3.13671016693115</t>
@@ -794,13 +794,13 @@
     <t xml:space="preserve">3.04232215881348</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11985516548157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12659692764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09457230567932</t>
+    <t xml:space="preserve">3.11985540390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1265971660614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09457278251648</t>
   </si>
   <si>
     <t xml:space="preserve">3.0861451625824</t>
@@ -809,49 +809,49 @@
     <t xml:space="preserve">3.05412077903748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05074954032898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05917716026306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99681377410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01535439491272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14176654815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1501944065094</t>
+    <t xml:space="preserve">3.05074977874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05917739868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99681401252747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01535415649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14176678657532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15019416809082</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850854873657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1704204082489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17379140853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21087241172791</t>
+    <t xml:space="preserve">3.17042016983032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17379117012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21087169647217</t>
   </si>
   <si>
     <t xml:space="preserve">3.22772693634033</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26986455917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27829194068909</t>
+    <t xml:space="preserve">3.269864320755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27829170227051</t>
   </si>
   <si>
     <t xml:space="preserve">3.29514694213867</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29851794242859</t>
+    <t xml:space="preserve">3.29851818084717</t>
   </si>
   <si>
     <t xml:space="preserve">3.31874370574951</t>
@@ -860,13 +860,13 @@
     <t xml:space="preserve">3.36088132858276</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37436556816101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33728432655334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36256694793701</t>
+    <t xml:space="preserve">3.37436532974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33728456497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36256670951843</t>
   </si>
   <si>
     <t xml:space="preserve">3.28840494155884</t>
@@ -881,10 +881,10 @@
     <t xml:space="preserve">3.32885670661926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16030716896057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22267055511475</t>
+    <t xml:space="preserve">3.16030693054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22267031669617</t>
   </si>
   <si>
     <t xml:space="preserve">3.23615431785583</t>
@@ -896,31 +896,31 @@
     <t xml:space="preserve">3.21424293518066</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11311316490173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11816954612732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14682292938232</t>
+    <t xml:space="preserve">3.11311292648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1181697845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1468231678009</t>
   </si>
   <si>
     <t xml:space="preserve">3.1906464099884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09288740158081</t>
+    <t xml:space="preserve">3.09288716316223</t>
   </si>
   <si>
     <t xml:space="preserve">3.15693616867065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13502430915833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15356516838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19401717185974</t>
+    <t xml:space="preserve">3.1350245475769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15356540679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19401693344116</t>
   </si>
   <si>
     <t xml:space="preserve">3.17210555076599</t>
@@ -929,13 +929,13 @@
     <t xml:space="preserve">3.16704893112183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18390440940857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19907379150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20918655395508</t>
+    <t xml:space="preserve">3.18390393257141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19907355308533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20918679237366</t>
   </si>
   <si>
     <t xml:space="preserve">3.19233155250549</t>
@@ -944,22 +944,22 @@
     <t xml:space="preserve">3.20413017272949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2209849357605</t>
+    <t xml:space="preserve">3.22098517417908</t>
   </si>
   <si>
     <t xml:space="preserve">3.24795293807983</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16873455047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14345192909241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16367816925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16536378860474</t>
+    <t xml:space="preserve">3.16873478889465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14345240592957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16367769241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16536355018616</t>
   </si>
   <si>
     <t xml:space="preserve">3.18558979034424</t>
@@ -968,19 +968,19 @@
     <t xml:space="preserve">3.15187954902649</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00861215591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99175715446472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89399862289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93950700759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96647500991821</t>
+    <t xml:space="preserve">3.00861239433289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9917573928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89399838447571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9395067691803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96647477149963</t>
   </si>
   <si>
     <t xml:space="preserve">2.96984577178955</t>
@@ -992,43 +992,43 @@
     <t xml:space="preserve">3.00018501281738</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02546715736389</t>
+    <t xml:space="preserve">3.02546739578247</t>
   </si>
   <si>
     <t xml:space="preserve">2.94287800788879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89736938476562</t>
+    <t xml:space="preserve">2.8973696231842</t>
   </si>
   <si>
     <t xml:space="preserve">2.88557124137878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86871600151062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93782138824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80635261535645</t>
+    <t xml:space="preserve">2.86871576309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93782162666321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80635237693787</t>
   </si>
   <si>
     <t xml:space="preserve">2.86534523963928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84848999977112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87040162086487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91591000556946</t>
+    <t xml:space="preserve">2.84849047660828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87040138244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91590976715088</t>
   </si>
   <si>
     <t xml:space="preserve">3.03389453887939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03052353858948</t>
+    <t xml:space="preserve">3.03052377700806</t>
   </si>
   <si>
     <t xml:space="preserve">3.07603240013123</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">3.09794402122498</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08951616287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1147985458374</t>
+    <t xml:space="preserve">3.08951592445374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11479878425598</t>
   </si>
   <si>
     <t xml:space="preserve">3.14008092880249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17294836044312</t>
+    <t xml:space="preserve">3.17294859886169</t>
   </si>
   <si>
     <t xml:space="preserve">3.13081073760986</t>
@@ -1073,19 +1073,19 @@
     <t xml:space="preserve">3.28250551223755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24036836624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25722336769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32042956352234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28671979904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02125358581543</t>
+    <t xml:space="preserve">3.24036812782288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25722312927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32042980194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28671956062317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02125406265259</t>
   </si>
   <si>
     <t xml:space="preserve">3.03810834884644</t>
@@ -1094,19 +1094,19 @@
     <t xml:space="preserve">2.98332977294922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93276500701904</t>
+    <t xml:space="preserve">2.93276524543762</t>
   </si>
   <si>
     <t xml:space="preserve">3.19823098182678</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13923835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1139554977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09710073471069</t>
+    <t xml:space="preserve">3.13923811912537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11395573616028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09710121154785</t>
   </si>
   <si>
     <t xml:space="preserve">2.97911620140076</t>
@@ -1115,13 +1115,13 @@
     <t xml:space="preserve">3.14766597747803</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08024573326111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08867335319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10974216461182</t>
+    <t xml:space="preserve">3.08024621009827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08867359161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1097424030304</t>
   </si>
   <si>
     <t xml:space="preserve">3.10552835464478</t>
@@ -1130,19 +1130,19 @@
     <t xml:space="preserve">3.21508598327637</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40470409393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31621551513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34149813652039</t>
+    <t xml:space="preserve">3.40470433235168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3162157535553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34149789810181</t>
   </si>
   <si>
     <t xml:space="preserve">3.34992551803589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31200194358826</t>
+    <t xml:space="preserve">3.31200170516968</t>
   </si>
   <si>
     <t xml:space="preserve">3.24879574775696</t>
@@ -1163,13 +1163,13 @@
     <t xml:space="preserve">3.2874538898468</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22752690315247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15047669410706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18472099304199</t>
+    <t xml:space="preserve">3.22752666473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15047693252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18472123146057</t>
   </si>
   <si>
     <t xml:space="preserve">3.20612382888794</t>
@@ -1181,61 +1181,61 @@
     <t xml:space="preserve">3.32169842720032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31313753128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16759896278381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13335466384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24892950057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24036812782288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17615985870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18900156021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20184350013733</t>
+    <t xml:space="preserve">3.31313729286194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16759920120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13335490226746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24892973899841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2403678894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17616009712219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18900179862976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20184326171875</t>
   </si>
   <si>
     <t xml:space="preserve">3.21040439605713</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21896553039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23608803749084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14619636535645</t>
+    <t xml:space="preserve">3.21896576881409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23608756065369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14619660377502</t>
   </si>
   <si>
     <t xml:space="preserve">3.19756269454956</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23180723190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17187976837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2232460975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25749063491821</t>
+    <t xml:space="preserve">3.2318069934845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.171879529953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22324633598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25749039649963</t>
   </si>
   <si>
     <t xml:space="preserve">3.27889323234558</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30029559135437</t>
+    <t xml:space="preserve">3.30029582977295</t>
   </si>
   <si>
     <t xml:space="preserve">3.3302595615387</t>
@@ -1244,49 +1244,49 @@
     <t xml:space="preserve">3.39018726348877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37734508514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34310102462769</t>
+    <t xml:space="preserve">3.37734532356262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34310126304626</t>
   </si>
   <si>
     <t xml:space="preserve">3.42443132400513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49292016029358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56140875816345</t>
+    <t xml:space="preserve">3.492919921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56140851974487</t>
   </si>
   <si>
     <t xml:space="preserve">3.50148129463196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61277508735657</t>
+    <t xml:space="preserve">3.61277532577515</t>
   </si>
   <si>
     <t xml:space="preserve">3.51860356330872</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55284762382507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58709239959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54428672790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52716422080994</t>
+    <t xml:space="preserve">3.55284738540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58709192276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54428648948669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52716398239136</t>
   </si>
   <si>
     <t xml:space="preserve">3.45439481735229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44583415985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54000616073608</t>
+    <t xml:space="preserve">3.44583439826965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54000639915466</t>
   </si>
   <si>
     <t xml:space="preserve">3.36878442764282</t>
@@ -1295,25 +1295,25 @@
     <t xml:space="preserve">3.385906457901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36450386047363</t>
+    <t xml:space="preserve">3.36450362205505</t>
   </si>
   <si>
     <t xml:space="preserve">3.40730929374695</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33882093429565</t>
+    <t xml:space="preserve">3.33882069587708</t>
   </si>
   <si>
     <t xml:space="preserve">3.34738183021545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46723699569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64701962471008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65986132621765</t>
+    <t xml:space="preserve">3.46723675727844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6470193862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65986108779907</t>
   </si>
   <si>
     <t xml:space="preserve">3.62133622169495</t>
@@ -1325,52 +1325,52 @@
     <t xml:space="preserve">3.65558075904846</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73691058158875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62989735603333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6384584903717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69410562515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85676646232605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96377921104431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79683828353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83964395523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831365585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87388825416565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90385174751282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87816858291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91669344902039</t>
+    <t xml:space="preserve">3.73691034317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62989687919617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63845825195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69410514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85676598548889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96377968788147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79683780670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83964371681213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831341743469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87388801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90385222434998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87816834449768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91669321060181</t>
   </si>
   <si>
     <t xml:space="preserve">3.99802374839783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98946237564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02370643615723</t>
+    <t xml:space="preserve">3.98946213722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02370691299438</t>
   </si>
   <si>
     <t xml:space="preserve">4.14784240722656</t>
@@ -1379,109 +1379,109 @@
     <t xml:space="preserve">4.10075664520264</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00658512115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94665765762329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8952910900116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93809628486633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86960768699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94237685203552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95521831512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80967974662781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.920973777771</t>
+    <t xml:space="preserve">4.00658464431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94665741920471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89529061317444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93809580802917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86960744857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94237661361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95521807670593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80967998504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92097353935242</t>
   </si>
   <si>
     <t xml:space="preserve">3.76687479019165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98090171813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03226757049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07079315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08363437652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99374318122864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95093750953674</t>
+    <t xml:space="preserve">3.98090100288391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03226804733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07079267501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08363485336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99374341964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95093727111816</t>
   </si>
   <si>
     <t xml:space="preserve">3.9295346736908</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74119114875793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74975228309631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66414189338684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60421442985535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77971625328064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71550869941711</t>
+    <t xml:space="preserve">3.74119091033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74975252151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66414165496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60421419143677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77971601486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71550798416138</t>
   </si>
   <si>
     <t xml:space="preserve">3.8524854183197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79255795478821</t>
+    <t xml:space="preserve">3.79255747795105</t>
   </si>
   <si>
     <t xml:space="preserve">3.71978855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77543544769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7540328502655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88244938850403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8610463142395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.771155834198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80539989471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82252168655396</t>
+    <t xml:space="preserve">3.77543497085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75403332710266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88244915008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86104607582092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77115535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8053994178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8225212097168</t>
   </si>
   <si>
     <t xml:space="preserve">3.72406911849976</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73263049125671</t>
+    <t xml:space="preserve">3.73263025283813</t>
   </si>
   <si>
     <t xml:space="preserve">3.93381500244141</t>
@@ -1496,16 +1496,16 @@
     <t xml:space="preserve">4.08791446685791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16924524307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19492864608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25485610961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28053903579712</t>
+    <t xml:space="preserve">4.16924571990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19492816925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25485563278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28053951263428</t>
   </si>
   <si>
     <t xml:space="preserve">4.32334470748901</t>
@@ -1517,40 +1517,40 @@
     <t xml:space="preserve">4.18208694458008</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17780590057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16068458557129</t>
+    <t xml:space="preserve">4.17780637741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16068410873413</t>
   </si>
   <si>
     <t xml:space="preserve">4.22917318344116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17352628707886</t>
+    <t xml:space="preserve">4.1735258102417</t>
   </si>
   <si>
     <t xml:space="preserve">4.16496419906616</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14356184005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34902763366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4860053062439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61442089080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58873844146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6743483543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57161569595337</t>
+    <t xml:space="preserve">4.14356231689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34902858734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48600482940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61442136764526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58873796463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67434930801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57161617279053</t>
   </si>
   <si>
     <t xml:space="preserve">4.71715402603149</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">4.76852083206177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7942042350769</t>
+    <t xml:space="preserve">4.79420471191406</t>
   </si>
   <si>
     <t xml:space="preserve">4.77708148956299</t>
@@ -1577,28 +1577,28 @@
     <t xml:space="preserve">4.52881050109863</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56305456161499</t>
+    <t xml:space="preserve">4.56305503845215</t>
   </si>
   <si>
     <t xml:space="preserve">4.58017635345459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6401047706604</t>
+    <t xml:space="preserve">4.64010429382324</t>
   </si>
   <si>
     <t xml:space="preserve">4.69147062301636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70859289169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70003223419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49456596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62298202514648</t>
+    <t xml:space="preserve">4.70859336853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70003175735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49456644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62298250198364</t>
   </si>
   <si>
     <t xml:space="preserve">4.8541316986084</t>
@@ -1613,25 +1613,25 @@
     <t xml:space="preserve">4.78564262390137</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75139856338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59729909896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63154363632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55449390411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5031270980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47744464874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46888256072998</t>
+    <t xml:space="preserve">4.75139904022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59729957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63154315948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55449438095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50312757492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47744417190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46888303756714</t>
   </si>
   <si>
     <t xml:space="preserve">4.43463850021362</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">4.55733585357666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60992050170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48722314834595</t>
+    <t xml:space="preserve">4.60992097854614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48722267150879</t>
   </si>
   <si>
     <t xml:space="preserve">4.46093082427979</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">4.39081811904907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35576200485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41711044311523</t>
+    <t xml:space="preserve">4.35576152801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41710996627808</t>
   </si>
   <si>
     <t xml:space="preserve">4.39958190917969</t>
@@ -1667,19 +1667,19 @@
     <t xml:space="preserve">4.43463802337646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53104400634766</t>
+    <t xml:space="preserve">4.5310435295105</t>
   </si>
   <si>
     <t xml:space="preserve">4.54857158660889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4434027671814</t>
+    <t xml:space="preserve">4.44340229034424</t>
   </si>
   <si>
     <t xml:space="preserve">4.47845935821533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53980779647827</t>
+    <t xml:space="preserve">4.53980731964111</t>
   </si>
   <si>
     <t xml:space="preserve">4.50475072860718</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">4.06216478347778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11474895477295</t>
+    <t xml:space="preserve">4.11474847793579</t>
   </si>
   <si>
     <t xml:space="preserve">4.02710723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07092809677124</t>
+    <t xml:space="preserve">4.07092761993408</t>
   </si>
   <si>
     <t xml:space="preserve">4.06654596328735</t>
@@ -1718,10 +1718,10 @@
     <t xml:space="preserve">4.02272510528564</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04463529586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04025411605835</t>
+    <t xml:space="preserve">4.04463577270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04025363922119</t>
   </si>
   <si>
     <t xml:space="preserve">4.09283828735352</t>
@@ -1733,34 +1733,34 @@
     <t xml:space="preserve">4.15418720245361</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17171573638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19362545013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34699726104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40834617614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3820538520813</t>
+    <t xml:space="preserve">4.171715259552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19362497329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34699773788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40834712982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38205337524414</t>
   </si>
   <si>
     <t xml:space="preserve">4.11036682128906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91755652427673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95261263847351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96575903892517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0840744972229</t>
+    <t xml:space="preserve">3.91755604743958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95261240005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96575880050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08407402038574</t>
   </si>
   <si>
     <t xml:space="preserve">4.10160255432129</t>
@@ -1769,85 +1769,85 @@
     <t xml:space="preserve">4.01396131515503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94384837150574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84744358062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79047679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77733063697815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75103855133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7598021030426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78171277046204</t>
+    <t xml:space="preserve">3.9438488483429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84744310379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79047703742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77733016014099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75103831291199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75980234146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78171253204346</t>
   </si>
   <si>
     <t xml:space="preserve">3.73789215087891</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7335102558136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79485869407654</t>
+    <t xml:space="preserve">3.73350977897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79485845565796</t>
   </si>
   <si>
     <t xml:space="preserve">3.89126396179199</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03148984909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93508434295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86059021949768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92193841934204</t>
+    <t xml:space="preserve">4.03148937225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93508362770081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8605899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92193794250488</t>
   </si>
   <si>
     <t xml:space="preserve">3.85620784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76856708526611</t>
+    <t xml:space="preserve">3.76856684684753</t>
   </si>
   <si>
     <t xml:space="preserve">3.80800485610962</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78609490394592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67216157913208</t>
+    <t xml:space="preserve">3.78609442710876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6721613407135</t>
   </si>
   <si>
     <t xml:space="preserve">3.82991504669189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72474575042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79924082756042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86497139930725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72036385536194</t>
+    <t xml:space="preserve">3.72474551200867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.799241065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86497116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72036361694336</t>
   </si>
   <si>
     <t xml:space="preserve">3.74227428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74665641784668</t>
+    <t xml:space="preserve">3.74665594100952</t>
   </si>
   <si>
     <t xml:space="preserve">3.68968963623047</t>
@@ -1856,19 +1856,19 @@
     <t xml:space="preserve">3.64586877822876</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71598196029663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72912812232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70283555984497</t>
+    <t xml:space="preserve">3.71598148345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72912764549255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70283532142639</t>
   </si>
   <si>
     <t xml:space="preserve">4.04901790618896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03587198257446</t>
+    <t xml:space="preserve">4.0358715057373</t>
   </si>
   <si>
     <t xml:space="preserve">3.97890496253967</t>
@@ -1880,37 +1880,37 @@
     <t xml:space="preserve">4.0972204208374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18047952651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22429990768433</t>
+    <t xml:space="preserve">4.18048000335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22430038452148</t>
   </si>
   <si>
     <t xml:space="preserve">4.32946920394897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33385181427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52227973937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51351547241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6800332069397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67126893997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58362865447998</t>
+    <t xml:space="preserve">4.33385133743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52227926254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51351594924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68003416061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67126941680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58362817764282</t>
   </si>
   <si>
     <t xml:space="preserve">4.64497709274292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57486391067505</t>
+    <t xml:space="preserve">4.57486438751221</t>
   </si>
   <si>
     <t xml:space="preserve">4.62744903564453</t>
@@ -1919,31 +1919,31 @@
     <t xml:space="preserve">4.68879747390747</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87284374237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9079008102417</t>
+    <t xml:space="preserve">4.87284421920776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90790033340454</t>
   </si>
   <si>
     <t xml:space="preserve">4.79396677017212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74138212203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82025909423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81149482727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78520250320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77643823623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80273103713989</t>
+    <t xml:space="preserve">4.74138164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82025957107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81149530410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7852029800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77643871307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80273056030273</t>
   </si>
   <si>
     <t xml:space="preserve">4.76767492294312</t>
@@ -1958,10 +1958,10 @@
     <t xml:space="preserve">4.63621282577515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60115623474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6186842918396</t>
+    <t xml:space="preserve">4.60115671157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61868476867676</t>
   </si>
   <si>
     <t xml:space="preserve">4.86407995223999</t>
@@ -1970,34 +1970,34 @@
     <t xml:space="preserve">4.75891017913818</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70632553100586</t>
+    <t xml:space="preserve">4.70632600784302</t>
   </si>
   <si>
     <t xml:space="preserve">4.82902336120605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73261785507202</t>
+    <t xml:space="preserve">4.73261833190918</t>
   </si>
   <si>
     <t xml:space="preserve">4.3207049369812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24182796478271</t>
+    <t xml:space="preserve">4.24182844161987</t>
   </si>
   <si>
     <t xml:space="preserve">4.28564882278442</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45216655731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6975622177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19800758361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82553291320801</t>
+    <t xml:space="preserve">4.45216703414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69756174087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19800806045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82553267478943</t>
   </si>
   <si>
     <t xml:space="preserve">3.54069948196411</t>
@@ -2006,19 +2006,19 @@
     <t xml:space="preserve">3.43114829063416</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37856340408325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22957348823547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28654050827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86148142814636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97541451454163</t>
+    <t xml:space="preserve">3.37856364250183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22957372665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28654026985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86148118972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97541475296021</t>
   </si>
   <si>
     <t xml:space="preserve">2.92283010482788</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">2.78698658943176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7212553024292</t>
+    <t xml:space="preserve">2.72125554084778</t>
   </si>
   <si>
     <t xml:space="preserve">2.8570990562439</t>
@@ -2042,16 +2042,16 @@
     <t xml:space="preserve">2.77822208404541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97979688644409</t>
+    <t xml:space="preserve">2.97979664802551</t>
   </si>
   <si>
     <t xml:space="preserve">2.87024521827698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75631189346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71249127388</t>
+    <t xml:space="preserve">2.75631165504456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71249151229858</t>
   </si>
   <si>
     <t xml:space="preserve">2.90091967582703</t>
@@ -2060,13 +2060,13 @@
     <t xml:space="preserve">2.82204270362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84395313262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7606942653656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76507592201233</t>
+    <t xml:space="preserve">2.84395289421082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76069402694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76507616043091</t>
   </si>
   <si>
     <t xml:space="preserve">2.90968370437622</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">2.94912242889404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98856067657471</t>
+    <t xml:space="preserve">2.98856091499329</t>
   </si>
   <si>
     <t xml:space="preserve">3.06743764877319</t>
@@ -2084,37 +2084,37 @@
     <t xml:space="preserve">3.02361702919006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9973247051239</t>
+    <t xml:space="preserve">2.99732494354248</t>
   </si>
   <si>
     <t xml:space="preserve">3.00170683860779</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04114532470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07181978225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00608897209167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03676319122314</t>
+    <t xml:space="preserve">3.04114556312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07182002067566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00608921051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03676342964172</t>
   </si>
   <si>
     <t xml:space="preserve">3.01047086715698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16822481155396</t>
+    <t xml:space="preserve">3.16822504997253</t>
   </si>
   <si>
     <t xml:space="preserve">3.10249400138855</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11125802993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1463143825531</t>
+    <t xml:space="preserve">3.11125826835632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14631462097168</t>
   </si>
   <si>
     <t xml:space="preserve">3.19451713562012</t>
@@ -2126,25 +2126,25 @@
     <t xml:space="preserve">3.15507888793945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25586605072021</t>
+    <t xml:space="preserve">3.25586581230164</t>
   </si>
   <si>
     <t xml:space="preserve">3.31283283233643</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22519135475159</t>
+    <t xml:space="preserve">3.22519159317017</t>
   </si>
   <si>
     <t xml:space="preserve">3.21204543113708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24710202217102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19889950752258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18137097358704</t>
+    <t xml:space="preserve">3.24710178375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19889974594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18137121200562</t>
   </si>
   <si>
     <t xml:space="preserve">3.37418127059937</t>
@@ -2156,40 +2156,40 @@
     <t xml:space="preserve">3.50564312934875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55384564399719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5319356918335</t>
+    <t xml:space="preserve">3.55384540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53193545341492</t>
   </si>
   <si>
     <t xml:space="preserve">3.54946374893188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38294577598572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36103558540344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26024770736694</t>
+    <t xml:space="preserve">3.38294553756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36103534698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2602481842041</t>
   </si>
   <si>
     <t xml:space="preserve">3.44867634773254</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44429445266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41800236701965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43991255760193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49687933921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51002550125122</t>
+    <t xml:space="preserve">3.44429421424866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41800212860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43991231918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49687910079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51002526283264</t>
   </si>
   <si>
     <t xml:space="preserve">3.51440739631653</t>
@@ -2210,37 +2210,37 @@
     <t xml:space="preserve">3.59045577049255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57241320610046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50024318695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51828598976135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4280731678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45513701438904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48671126365662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38747763633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40552020072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38296699523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33786058425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34688186645508</t>
+    <t xml:space="preserve">3.57241296768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50024342536926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51828575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42807292938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45513677597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48671102523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38747787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40551996231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38296675682068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33786082267761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34688210487366</t>
   </si>
   <si>
     <t xml:space="preserve">3.29275465011597</t>
@@ -2249,10 +2249,10 @@
     <t xml:space="preserve">3.15743565559387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24764823913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31981801986694</t>
+    <t xml:space="preserve">3.24764800071716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31981825828552</t>
   </si>
   <si>
     <t xml:space="preserve">3.27020144462585</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">3.20254182815552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16645669937134</t>
+    <t xml:space="preserve">3.16645693778992</t>
   </si>
   <si>
     <t xml:space="preserve">3.16194653511047</t>
@@ -2276,22 +2276,22 @@
     <t xml:space="preserve">3.10330843925476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10781860351562</t>
+    <t xml:space="preserve">3.1078188419342</t>
   </si>
   <si>
     <t xml:space="preserve">3.13939332962036</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12135076522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04015946388245</t>
+    <t xml:space="preserve">3.12135100364685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04015970230103</t>
   </si>
   <si>
     <t xml:space="preserve">3.02211713790894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00407457351685</t>
+    <t xml:space="preserve">3.00407433509827</t>
   </si>
   <si>
     <t xml:space="preserve">2.9950532913208</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">3.15292525291443</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13037204742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11684036254883</t>
+    <t xml:space="preserve">3.1303722858429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11684012413025</t>
   </si>
   <si>
     <t xml:space="preserve">3.04467034339905</t>
@@ -2312,25 +2312,25 @@
     <t xml:space="preserve">2.9634792804718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89130926132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92739415168762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85973453521729</t>
+    <t xml:space="preserve">2.89130902290344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92739391326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85973477363586</t>
   </si>
   <si>
     <t xml:space="preserve">2.83267116546631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86875629425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90484094619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88679838180542</t>
+    <t xml:space="preserve">2.86875605583191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90484118461609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.886798620224</t>
   </si>
   <si>
     <t xml:space="preserve">2.85071349143982</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">2.85522413253784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86424541473389</t>
+    <t xml:space="preserve">2.86424517631531</t>
   </si>
   <si>
     <t xml:space="preserve">2.81462836265564</t>
@@ -2354,13 +2354,13 @@
     <t xml:space="preserve">2.77854347229004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76952219009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.737948179245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68833112716675</t>
+    <t xml:space="preserve">2.76952242851257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73794794082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68833088874817</t>
   </si>
   <si>
     <t xml:space="preserve">2.67028880119324</t>
@@ -2369,13 +2369,13 @@
     <t xml:space="preserve">2.63420343399048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59811854362488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61616110801697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60262894630432</t>
+    <t xml:space="preserve">2.59811878204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61616134643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6026291847229</t>
   </si>
   <si>
     <t xml:space="preserve">2.54399085044861</t>
@@ -2384,10 +2384,10 @@
     <t xml:space="preserve">2.62518239021301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03113842010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01309561729431</t>
+    <t xml:space="preserve">3.0311381816864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01309585571289</t>
   </si>
   <si>
     <t xml:space="preserve">3.06271266937256</t>
@@ -2405,16 +2405,16 @@
     <t xml:space="preserve">3.35590291023254</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36492443084717</t>
+    <t xml:space="preserve">3.36492466926575</t>
   </si>
   <si>
     <t xml:space="preserve">3.54986000061035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48220086097717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55437088012695</t>
+    <t xml:space="preserve">3.48220062255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55437064170837</t>
   </si>
   <si>
     <t xml:space="preserve">3.52730703353882</t>
@@ -2426,25 +2426,25 @@
     <t xml:space="preserve">3.58143424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51377511024475</t>
+    <t xml:space="preserve">3.51377487182617</t>
   </si>
   <si>
     <t xml:space="preserve">3.49573278427124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62654066085815</t>
+    <t xml:space="preserve">3.62654042243958</t>
   </si>
   <si>
     <t xml:space="preserve">3.75283789634705</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79794454574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82500815391541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87913608551025</t>
+    <t xml:space="preserve">3.79794430732727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82500767707825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791356086731</t>
   </si>
   <si>
     <t xml:space="preserve">3.73028516769409</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">3.72577428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69871020317078</t>
+    <t xml:space="preserve">3.69871044158936</t>
   </si>
   <si>
     <t xml:space="preserve">3.68066811561584</t>
@@ -2477,25 +2477,25 @@
     <t xml:space="preserve">3.66262555122375</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64909386634827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82049775123596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81598663330078</t>
+    <t xml:space="preserve">3.64909362792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8204972743988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8159863948822</t>
   </si>
   <si>
     <t xml:space="preserve">3.80696558952332</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77990221977234</t>
+    <t xml:space="preserve">3.77990174293518</t>
   </si>
   <si>
     <t xml:space="preserve">3.85207200050354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91522097587585</t>
+    <t xml:space="preserve">3.91522073745728</t>
   </si>
   <si>
     <t xml:space="preserve">3.75734853744507</t>
@@ -2504,16 +2504,16 @@
     <t xml:space="preserve">3.8430507183075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85658264160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83854007720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84756135940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79343366622925</t>
+    <t xml:space="preserve">3.8565821647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83853983879089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84756112098694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79343342781067</t>
   </si>
   <si>
     <t xml:space="preserve">3.76185917854309</t>
@@ -2525,28 +2525,28 @@
     <t xml:space="preserve">3.73930597305298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7844123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86109328269958</t>
+    <t xml:space="preserve">3.78441262245178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86109280586243</t>
   </si>
   <si>
     <t xml:space="preserve">4.00543308258057</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01896524429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07760286331177</t>
+    <t xml:space="preserve">4.01896476745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07760238647461</t>
   </si>
   <si>
     <t xml:space="preserve">4.09131669998169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17817163467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25588417053223</t>
+    <t xml:space="preserve">4.17817115783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25588369369507</t>
   </si>
   <si>
     <t xml:space="preserve">4.24674081802368</t>
@@ -2561,13 +2561,13 @@
     <t xml:space="preserve">4.22388458251953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18731355667114</t>
+    <t xml:space="preserve">4.1873140335083</t>
   </si>
   <si>
     <t xml:space="preserve">4.15074348449707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11417293548584</t>
+    <t xml:space="preserve">4.114173412323</t>
   </si>
   <si>
     <t xml:space="preserve">4.05931758880615</t>
@@ -2576,16 +2576,16 @@
     <t xml:space="preserve">4.1096019744873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13703012466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16902875900269</t>
+    <t xml:space="preserve">4.13702964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16902828216553</t>
   </si>
   <si>
     <t xml:space="preserve">4.05474615097046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0821738243103</t>
+    <t xml:space="preserve">4.08217430114746</t>
   </si>
   <si>
     <t xml:space="preserve">4.09588813781738</t>
@@ -2594,16 +2594,16 @@
     <t xml:space="preserve">4.04103231430054</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06845951080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03188991546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04560375213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12331628799438</t>
+    <t xml:space="preserve">4.06845998764038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03188943862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04560327529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12331581115723</t>
   </si>
   <si>
     <t xml:space="preserve">4.15988636016846</t>
@@ -2618,34 +2618,34 @@
     <t xml:space="preserve">4.19645690917969</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19188547134399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14160060882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27873945236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29702520370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23302698135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20559883117676</t>
+    <t xml:space="preserve">4.19188499450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1416015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27873992919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29702472686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23302745819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20559930801392</t>
   </si>
   <si>
     <t xml:space="preserve">4.11874437332153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10045909881592</t>
+    <t xml:space="preserve">4.10045957565308</t>
   </si>
   <si>
     <t xml:space="preserve">4.14617204666138</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2924542427063</t>
+    <t xml:space="preserve">4.29245376586914</t>
   </si>
   <si>
     <t xml:space="preserve">4.31531047821045</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">4.28788280487061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00446224212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98617696762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95874905586243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95417737960815</t>
+    <t xml:space="preserve">4.00446176528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98617672920227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95874857902527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95417714118958</t>
   </si>
   <si>
     <t xml:space="preserve">3.88560795783997</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">3.78961062431335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7393262386322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90846467018127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01360416412354</t>
+    <t xml:space="preserve">3.73932647705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9084644317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01360464096069</t>
   </si>
   <si>
     <t xml:space="preserve">4.02274703979492</t>
@@ -2690,10 +2690,10 @@
     <t xml:space="preserve">4.12788677215576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07303142547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.063889503479</t>
+    <t xml:space="preserve">4.07303094863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06388902664185</t>
   </si>
   <si>
     <t xml:space="preserve">4.10503053665161</t>
@@ -2702,37 +2702,37 @@
     <t xml:space="preserve">3.931321144104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.009033203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05017518997192</t>
+    <t xml:space="preserve">4.00903367996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05017423629761</t>
   </si>
   <si>
     <t xml:space="preserve">4.18274259567261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23759841918945</t>
+    <t xml:space="preserve">4.23759889602661</t>
   </si>
   <si>
     <t xml:space="preserve">4.17359972000122</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31073904037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35188150405884</t>
+    <t xml:space="preserve">4.31073951721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35188102722168</t>
   </si>
   <si>
     <t xml:space="preserve">4.32902479171753</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21474170684814</t>
+    <t xml:space="preserve">4.2147421836853</t>
   </si>
   <si>
     <t xml:space="preserve">4.21017074584961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33359527587891</t>
+    <t xml:space="preserve">4.33359575271606</t>
   </si>
   <si>
     <t xml:space="preserve">4.27416896820068</t>
@@ -2747,37 +2747,37 @@
     <t xml:space="preserve">4.52558994293213</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57130336761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62615966796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64444398880005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65358734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59873104095459</t>
+    <t xml:space="preserve">4.5713038444519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62615919113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64444446563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65358686447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59873151779175</t>
   </si>
   <si>
     <t xml:space="preserve">4.5438756942749</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52101945877075</t>
+    <t xml:space="preserve">4.52101898193359</t>
   </si>
   <si>
     <t xml:space="preserve">4.58958864212036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58044672012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60787391662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7267279624939</t>
+    <t xml:space="preserve">4.58044624328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60787343978882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72672748565674</t>
   </si>
   <si>
     <t xml:space="preserve">4.69015741348267</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">4.56673192977905</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66272926330566</t>
+    <t xml:space="preserve">4.66272974014282</t>
   </si>
   <si>
     <t xml:space="preserve">4.70844268798828</t>
@@ -2798,13 +2798,13 @@
     <t xml:space="preserve">4.47987747192383</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53930425643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36102342605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68101501464844</t>
+    <t xml:space="preserve">4.53930473327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36102390289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68101453781128</t>
   </si>
   <si>
     <t xml:space="preserve">4.75415563583374</t>
@@ -2822,13 +2822,13 @@
     <t xml:space="preserve">4.86386680603027</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99186325073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01929140090942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98272037506104</t>
+    <t xml:space="preserve">4.99186372756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01929092407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98272085189819</t>
   </si>
   <si>
     <t xml:space="preserve">5.1564302444458</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">5.11985969543457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24785566329956</t>
+    <t xml:space="preserve">5.24785614013672</t>
   </si>
   <si>
     <t xml:space="preserve">5.42156600952148</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">5.48556423187256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4672794342041</t>
+    <t xml:space="preserve">5.46727895736694</t>
   </si>
   <si>
     <t xml:space="preserve">5.26614189147949</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">5.62270355224609</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58613252639771</t>
+    <t xml:space="preserve">5.58613300323486</t>
   </si>
   <si>
     <t xml:space="preserve">5.61356067657471</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">5.40328073501587</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30271244049072</t>
+    <t xml:space="preserve">5.30271196365356</t>
   </si>
   <si>
     <t xml:space="preserve">5.28442716598511</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">4.93700790405273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07414722442627</t>
+    <t xml:space="preserve">5.07414674758911</t>
   </si>
   <si>
     <t xml:space="preserve">5.00100564956665</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">5.13814544677734</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0558614730835</t>
+    <t xml:space="preserve">5.05586194992065</t>
   </si>
   <si>
     <t xml:space="preserve">4.89129495620728</t>
@@ -2933,13 +2933,13 @@
     <t xml:space="preserve">4.50730514526367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45244932174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32445287704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95529317855835</t>
+    <t xml:space="preserve">4.45244979858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32445335388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95529270172119</t>
   </si>
   <si>
     <t xml:space="preserve">5.0101490020752</t>
@@ -2954,10 +2954,10 @@
     <t xml:space="preserve">5.33014011383057</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41242361068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53127765655518</t>
+    <t xml:space="preserve">5.4124231338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53127717971802</t>
   </si>
   <si>
     <t xml:space="preserve">5.39413785934448</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">5.63184547424316</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73241472244263</t>
+    <t xml:space="preserve">5.73241424560547</t>
   </si>
   <si>
     <t xml:space="preserve">5.65013074874878</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">5.4823055267334</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5848650932312</t>
+    <t xml:space="preserve">5.58486557006836</t>
   </si>
   <si>
     <t xml:space="preserve">5.57554197311401</t>
@@ -3008,7 +3008,7 @@
     <t xml:space="preserve">5.73404407501221</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51960039138794</t>
+    <t xml:space="preserve">5.51959991455078</t>
   </si>
   <si>
     <t xml:space="preserve">5.51027631759644</t>
@@ -3038,19 +3038,19 @@
     <t xml:space="preserve">6.09766626358032</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07901859283447</t>
+    <t xml:space="preserve">6.07901906967163</t>
   </si>
   <si>
     <t xml:space="preserve">6.1629319190979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99510622024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20022678375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03240013122559</t>
+    <t xml:space="preserve">5.9951057434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20022630691528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03240060806274</t>
   </si>
   <si>
     <t xml:space="preserve">5.79930925369263</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">5.90186977386475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84592723846436</t>
+    <t xml:space="preserve">5.84592771530151</t>
   </si>
   <si>
     <t xml:space="preserve">5.78998565673828</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">5.78066205978394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53824710845947</t>
+    <t xml:space="preserve">5.53824758529663</t>
   </si>
   <si>
     <t xml:space="preserve">5.52892351150513</t>
@@ -3086,16 +3086,16 @@
     <t xml:space="preserve">5.4543342590332</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41703987121582</t>
+    <t xml:space="preserve">5.41703939437866</t>
   </si>
   <si>
     <t xml:space="preserve">5.50095272064209</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47298192977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38906908035278</t>
+    <t xml:space="preserve">5.47298145294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38906955718994</t>
   </si>
   <si>
     <t xml:space="preserve">5.33312702178955</t>
@@ -3104,13 +3104,13 @@
     <t xml:space="preserve">5.32380342483521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25853729248047</t>
+    <t xml:space="preserve">5.25853776931763</t>
   </si>
   <si>
     <t xml:space="preserve">5.20259571075439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21191930770874</t>
+    <t xml:space="preserve">5.2119197845459</t>
   </si>
   <si>
     <t xml:space="preserve">5.1839485168457</t>
@@ -3122,34 +3122,34 @@
     <t xml:space="preserve">5.11868286132812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22124338150024</t>
+    <t xml:space="preserve">5.22124290466309</t>
   </si>
   <si>
     <t xml:space="preserve">5.23989057540894</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17462539672852</t>
+    <t xml:space="preserve">5.17462491989136</t>
   </si>
   <si>
     <t xml:space="preserve">5.12800693511963</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14665412902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09071207046509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10935926437378</t>
+    <t xml:space="preserve">5.14665365219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09071254730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10935974121094</t>
   </si>
   <si>
     <t xml:space="preserve">5.15597772598267</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55689430236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26786184310913</t>
+    <t xml:space="preserve">5.55689477920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26786136627197</t>
   </si>
   <si>
     <t xml:space="preserve">5.24921417236328</t>
@@ -3164,7 +3164,7 @@
     <t xml:space="preserve">4.99747562408447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97882890701294</t>
+    <t xml:space="preserve">4.97882843017578</t>
   </si>
   <si>
     <t xml:space="preserve">4.95085716247559</t>
@@ -3182,10 +3182,10 @@
     <t xml:space="preserve">4.79235553741455</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6711483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81100225448608</t>
+    <t xml:space="preserve">4.67114782333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81100273132324</t>
   </si>
   <si>
     <t xml:space="preserve">4.7737078666687</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">4.78303194046021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76438426971436</t>
+    <t xml:space="preserve">4.76438474655151</t>
   </si>
   <si>
     <t xml:space="preserve">4.73641347885132</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">4.72708988189697</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65250062942505</t>
+    <t xml:space="preserve">4.65250015258789</t>
   </si>
   <si>
     <t xml:space="preserve">4.68047142028809</t>
@@ -3242,411 +3242,414 @@
     <t xml:space="preserve">4.49399900436401</t>
   </si>
   <si>
+    <t xml:space="preserve">4.52196979522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54527902603149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45670413970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3774528503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28887844085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56858825683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57324981689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89491510391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96950435638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93220996856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27718496322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43568706512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29583215713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36109828948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49162864685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0720648765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28650903701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9135627746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10003566741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06274127960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19327211380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08138847351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02544641494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16530132293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40771627426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30515623092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23056697845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3424506187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37974548339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42636346817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37825775146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33977270126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35901498794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12810564041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09924268722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11848497390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27242422103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24356031417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29166650772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34939384460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46484804153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50333309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40712118148804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43598461151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30128812789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36863613128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48409080505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28204488754272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3205304145813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20507526397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25318193435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19545459747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22431802749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17621231079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1377272605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16659069061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0511360168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03189373016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99340915679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01265144348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00302982330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86833333969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8587121963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82022714614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06075763702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9549241065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89719676971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60856056213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59893941879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64704513549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63742446899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71439409255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63261365890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65666675567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61818170547485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65185594558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56526470184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56045436859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57488632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54602241516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68553018569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59412860870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60374975204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72882556915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75287866592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71920442581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73844718933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7721209526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81060600280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72401475906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79136371612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80579519271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82984828948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69515132904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66628789901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51234865188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46424198150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4305682182312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50272703170776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48348474502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58450746536255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53640174865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46905279159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45462131500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42575740814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34878778457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36803007125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41613626480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41132545471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3968939781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37284088134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35840940475464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31992387771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19484853744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17079544067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13712120056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19003772735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11787891387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93988609313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08901500701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07939338684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15636348724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18522691726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21890163421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.310302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23814392089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26700735092163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36321926116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37765169143677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54121160507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30549240112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33435583114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35359859466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47867441177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45943212509155</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.52196931838989</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54527902603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45670413970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37745332717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28887796401978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56858777999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57324981689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89491558074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96950435638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93221044540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27718496322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43568706512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29583215713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36109781265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49162864685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0720648765564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28650903701782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9135627746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10003566741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06274080276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19327259063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08138847351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02544689178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16530132293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40771627426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30515575408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23056697845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3424506187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37974548339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42636394500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37825775146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33977270126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35901498794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12810564041138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09924268722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11848497390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27242422103882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24356031417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29166650772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34939384460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46484804153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50333309173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40712118148804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43598461151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30128812789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36863613128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48409080505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28204488754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3205304145813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20507526397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25318193435669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19545459747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22431802749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17621231079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1377272605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16659069061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0511360168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03189373016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99340915679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01265144348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00302982330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86833333969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8587121963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82022714614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06075763702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9549241065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89719676971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60856056213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59893941879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64704513549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63742446899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71439409255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63261365890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65666675567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61818170547485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65185594558716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56526470184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56045436859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57488632202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54602241516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68553018569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59412860870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60374975204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72882556915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75287866592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71920442581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73844718933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7721209526062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81060600280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72401475906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79136371612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80579519271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82984828948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69515132904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66628789901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51234865188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46424198150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4305682182312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50272703170776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48348474502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58450746536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53640174865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46905279159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45462131500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42575740814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34878778457642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36803007125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41613626480103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41132545471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3968939781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37284088134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35840940475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31992387771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19484853744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17079544067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13712120056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19003772735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11787891387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93988609313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08901500701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07939338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15636348724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18522691726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21890163421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.310302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23814392089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26700735092163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36321926116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37765169143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54121160507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30549240112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33435583114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35359859466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47867441177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45943212509155</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.44499969482422</t>
   </si>
   <si>
@@ -3927,6 +3930,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.97000002861023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
 </sst>
 </file>
@@ -57040,7 +57046,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G2030" t="s">
-        <v>1076</v>
+        <v>1211</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57066,7 +57072,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2031" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57118,7 +57124,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2033" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57248,7 +57254,7 @@
         <v>4.61499977111816</v>
       </c>
       <c r="G2038" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57274,7 +57280,7 @@
         <v>4.55499982833862</v>
       </c>
       <c r="G2039" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57300,7 +57306,7 @@
         <v>4.88500022888184</v>
       </c>
       <c r="G2040" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57352,7 +57358,7 @@
         <v>4.75</v>
       </c>
       <c r="G2042" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57404,7 +57410,7 @@
         <v>4.75</v>
       </c>
       <c r="G2044" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57482,7 +57488,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G2047" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57508,7 +57514,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G2048" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57534,7 +57540,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57586,7 +57592,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G2051" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57898,7 +57904,7 @@
         <v>4.5</v>
       </c>
       <c r="G2063" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57924,7 +57930,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G2064" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57976,7 +57982,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G2066" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58002,7 +58008,7 @@
         <v>4.5</v>
       </c>
       <c r="G2067" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58028,7 +58034,7 @@
         <v>4.49499988555908</v>
       </c>
       <c r="G2068" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58106,7 +58112,7 @@
         <v>4.45499992370605</v>
       </c>
       <c r="G2071" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58132,7 +58138,7 @@
         <v>4.375</v>
       </c>
       <c r="G2072" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58158,7 +58164,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G2073" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58210,7 +58216,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G2075" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58314,7 +58320,7 @@
         <v>4.16499996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58366,7 +58372,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G2081" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58392,7 +58398,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2082" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58470,7 +58476,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G2085" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58496,7 +58502,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G2086" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58548,7 +58554,7 @@
         <v>4.30499982833862</v>
       </c>
       <c r="G2088" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58574,7 +58580,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G2089" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58600,7 +58606,7 @@
         <v>4.13500022888184</v>
       </c>
       <c r="G2090" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58626,7 +58632,7 @@
         <v>4.17999982833862</v>
       </c>
       <c r="G2091" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58652,7 +58658,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G2092" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58678,7 +58684,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G2093" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58704,7 +58710,7 @@
         <v>4.15500020980835</v>
       </c>
       <c r="G2094" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58730,7 +58736,7 @@
         <v>4.15500020980835</v>
       </c>
       <c r="G2095" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -58756,7 +58762,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G2096" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58782,7 +58788,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G2097" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -58808,7 +58814,7 @@
         <v>4.11499977111816</v>
       </c>
       <c r="G2098" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -58834,7 +58840,7 @@
         <v>4.07499980926514</v>
       </c>
       <c r="G2099" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -58860,7 +58866,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G2100" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -58886,7 +58892,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G2101" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58912,7 +58918,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G2102" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58938,7 +58944,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G2103" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58964,7 +58970,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G2104" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58990,7 +58996,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G2105" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59016,7 +59022,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G2106" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59042,7 +59048,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G2107" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59068,7 +59074,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G2108" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59094,7 +59100,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G2109" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59120,7 +59126,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G2110" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59146,7 +59152,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G2111" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59172,7 +59178,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G2112" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59198,7 +59204,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G2113" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59224,7 +59230,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G2114" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59250,7 +59256,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G2115" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59276,7 +59282,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G2116" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59302,7 +59308,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G2117" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59328,7 +59334,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G2118" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59354,7 +59360,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G2119" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59380,7 +59386,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G2120" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59406,7 +59412,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G2121" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59432,7 +59438,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G2122" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59458,7 +59464,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G2123" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59484,7 +59490,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G2124" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59510,7 +59516,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G2125" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59536,7 +59542,7 @@
         <v>3.75</v>
       </c>
       <c r="G2126" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59562,7 +59568,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G2127" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59588,7 +59594,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2128" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59614,7 +59620,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G2129" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59640,7 +59646,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G2130" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59666,7 +59672,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2131" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59692,7 +59698,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G2132" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59718,7 +59724,7 @@
         <v>3.75</v>
       </c>
       <c r="G2133" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59744,7 +59750,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2134" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -59770,7 +59776,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G2135" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -59796,7 +59802,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -59822,7 +59828,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2137" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -59848,7 +59854,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2138" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -59874,7 +59880,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2139" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59900,7 +59906,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2140" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59926,7 +59932,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G2141" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59952,7 +59958,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59978,7 +59984,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G2143" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60004,7 +60010,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2144" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60030,7 +60036,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G2145" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60056,7 +60062,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G2146" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60082,7 +60088,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2147" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60108,7 +60114,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2148" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60134,7 +60140,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G2149" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60160,7 +60166,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2150" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60186,7 +60192,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G2151" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60212,7 +60218,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G2152" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -60238,7 +60244,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G2153" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -60264,7 +60270,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G2154" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -60290,7 +60296,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G2155" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -60316,7 +60322,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G2156" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -60342,7 +60348,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G2157" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -60368,7 +60374,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G2158" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -60394,7 +60400,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G2159" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -60420,7 +60426,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G2160" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -60446,7 +60452,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G2161" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -60472,7 +60478,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G2162" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -60498,7 +60504,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G2163" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -60524,7 +60530,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G2164" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -60550,7 +60556,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G2165" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -60576,7 +60582,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G2166" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -60602,7 +60608,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G2167" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -60628,7 +60634,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G2168" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -60654,7 +60660,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G2169" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -60680,7 +60686,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G2170" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -60706,7 +60712,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G2171" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -60732,7 +60738,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G2172" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -60758,7 +60764,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G2173" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -60784,7 +60790,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G2174" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -60810,7 +60816,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G2175" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -60836,7 +60842,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G2176" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -60862,7 +60868,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G2177" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -60888,7 +60894,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G2178" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -60914,7 +60920,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G2179" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -60940,7 +60946,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G2180" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -60966,7 +60972,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G2181" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -60992,7 +60998,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G2182" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -61018,7 +61024,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G2183" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -61044,7 +61050,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2184" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -61070,7 +61076,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2185" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -61096,7 +61102,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G2186" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -61122,7 +61128,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2187" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -61148,7 +61154,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G2188" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -61174,7 +61180,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G2189" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -61200,7 +61206,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2190" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -61226,7 +61232,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2191" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -61252,7 +61258,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2192" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -61278,7 +61284,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2193" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -61304,7 +61310,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2194" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -61330,7 +61336,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G2195" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -61356,7 +61362,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2196" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -61382,7 +61388,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2197" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -61408,7 +61414,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2198" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -61434,7 +61440,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2199" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H2199" t="s">
         <v>9</v>
@@ -61460,7 +61466,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2200" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H2200" t="s">
         <v>9</v>
@@ -61486,7 +61492,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2201" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H2201" t="s">
         <v>9</v>
@@ -61512,7 +61518,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2202" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H2202" t="s">
         <v>9</v>
@@ -61538,7 +61544,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2203" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H2203" t="s">
         <v>9</v>
@@ -61564,7 +61570,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2204" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2204" t="s">
         <v>9</v>
@@ -61590,7 +61596,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G2205" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H2205" t="s">
         <v>9</v>
@@ -61616,7 +61622,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2206" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H2206" t="s">
         <v>9</v>
@@ -61642,7 +61648,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2207" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H2207" t="s">
         <v>9</v>
@@ -61668,7 +61674,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G2208" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H2208" t="s">
         <v>9</v>
@@ -61694,7 +61700,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2209" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H2209" t="s">
         <v>9</v>
@@ -61720,7 +61726,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2210" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2210" t="s">
         <v>9</v>
@@ -61746,7 +61752,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2211" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2211" t="s">
         <v>9</v>
@@ -61772,7 +61778,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2212" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2212" t="s">
         <v>9</v>
@@ -61798,7 +61804,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2213" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H2213" t="s">
         <v>9</v>
@@ -61824,7 +61830,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2214" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H2214" t="s">
         <v>9</v>
@@ -61850,7 +61856,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G2215" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H2215" t="s">
         <v>9</v>
@@ -61876,7 +61882,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2216" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H2216" t="s">
         <v>9</v>
@@ -61902,7 +61908,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G2217" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H2217" t="s">
         <v>9</v>
@@ -61928,7 +61934,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G2218" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H2218" t="s">
         <v>9</v>
@@ -61936,7 +61942,7 @@
     </row>
     <row r="2219">
       <c r="A2219" s="1" t="n">
-        <v>45553.649375</v>
+        <v>45553.2916666667</v>
       </c>
       <c r="B2219" t="n">
         <v>20797</v>
@@ -61954,9 +61960,35 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G2219" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H2219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" s="1" t="n">
+        <v>45554.649525463</v>
+      </c>
+      <c r="B2220" t="n">
+        <v>28761</v>
+      </c>
+      <c r="C2220" t="n">
+        <v>3.00999999046326</v>
+      </c>
+      <c r="D2220" t="n">
+        <v>2.95000004768372</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2220" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H2220" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BAN.MI.xlsx
+++ b/data/BAN.MI.xlsx
@@ -38,70 +38,70 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74278926849365</t>
+    <t xml:space="preserve">3.74278879165649</t>
   </si>
   <si>
     <t xml:space="preserve">BAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75724649429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66247200965881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53235697746277</t>
+    <t xml:space="preserve">3.75724601745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6624710559845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53235721588135</t>
   </si>
   <si>
     <t xml:space="preserve">3.48737931251526</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42473149299622</t>
+    <t xml:space="preserve">3.42473196983337</t>
   </si>
   <si>
     <t xml:space="preserve">3.51468753814697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53396344184875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5211124420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50022983551025</t>
+    <t xml:space="preserve">3.53396391868591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52111268043518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50023007392883</t>
   </si>
   <si>
     <t xml:space="preserve">3.45203971862793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47774147987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17896056175232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30586242675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35726571083069</t>
+    <t xml:space="preserve">3.47774171829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17896103858948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30586266517639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35726499557495</t>
   </si>
   <si>
     <t xml:space="preserve">3.27694797515869</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33317017555237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25767230987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19663047790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29301118850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23036360740662</t>
+    <t xml:space="preserve">3.33317041397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25767207145691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19663095474243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29301142692566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2303638458252</t>
   </si>
   <si>
     <t xml:space="preserve">3.23678970336914</t>
@@ -110,52 +110,52 @@
     <t xml:space="preserve">3.13237714767456</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2126944065094</t>
+    <t xml:space="preserve">3.21269369125366</t>
   </si>
   <si>
     <t xml:space="preserve">3.11149430274963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98780584335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97174215316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89142465591431</t>
+    <t xml:space="preserve">2.98780536651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97174191474915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89142489433289</t>
   </si>
   <si>
     <t xml:space="preserve">2.88339304924011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80789470672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80950117111206</t>
+    <t xml:space="preserve">2.80789494514465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8095006942749</t>
   </si>
   <si>
     <t xml:space="preserve">2.81110739707947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95246601104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04242157936096</t>
+    <t xml:space="preserve">2.95246624946594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04242134094238</t>
   </si>
   <si>
     <t xml:space="preserve">3.02153873443604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05366611480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12113213539124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17253565788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13077044487</t>
+    <t xml:space="preserve">3.05366587638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12113261222839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17253518104553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13077068328857</t>
   </si>
   <si>
     <t xml:space="preserve">3.02314496040344</t>
@@ -164,43 +164,43 @@
     <t xml:space="preserve">3.05205941200256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06812334060669</t>
+    <t xml:space="preserve">3.06812286376953</t>
   </si>
   <si>
     <t xml:space="preserve">3.03599572181702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12434506416321</t>
+    <t xml:space="preserve">3.12434530258179</t>
   </si>
   <si>
     <t xml:space="preserve">3.18056750297546</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24482083320618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16450357437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19984340667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29783082008362</t>
+    <t xml:space="preserve">3.24482131004333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16450381278992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19984364509583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29783034324646</t>
   </si>
   <si>
     <t xml:space="preserve">3.40545558929443</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37332844734192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30907511711121</t>
+    <t xml:space="preserve">3.3733286857605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30907487869263</t>
   </si>
   <si>
     <t xml:space="preserve">3.30746865272522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1885986328125</t>
+    <t xml:space="preserve">3.18859887123108</t>
   </si>
   <si>
     <t xml:space="preserve">3.26088452339172</t>
@@ -209,25 +209,25 @@
     <t xml:space="preserve">3.26730966567993</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16611003875732</t>
+    <t xml:space="preserve">3.16610980033875</t>
   </si>
   <si>
     <t xml:space="preserve">3.1757481098175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20466232299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10828161239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06009078025818</t>
+    <t xml:space="preserve">3.20466256141663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10828137397766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06009101867676</t>
   </si>
   <si>
     <t xml:space="preserve">3.01993250846863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15647220611572</t>
+    <t xml:space="preserve">3.15647196769714</t>
   </si>
   <si>
     <t xml:space="preserve">3.02796459197998</t>
@@ -236,19 +236,19 @@
     <t xml:space="preserve">2.92033910751343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93158316612244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96852946281433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0456337928772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06169748306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07615494728088</t>
+    <t xml:space="preserve">2.93158364295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96852970123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04563450813293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06169724464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0761547088623</t>
   </si>
   <si>
     <t xml:space="preserve">2.98619914054871</t>
@@ -263,19 +263,19 @@
     <t xml:space="preserve">2.87054204940796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89785027503967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85769176483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78379964828491</t>
+    <t xml:space="preserve">2.89784979820251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85769128799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78379940986633</t>
   </si>
   <si>
     <t xml:space="preserve">2.70508861541748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73560905456543</t>
+    <t xml:space="preserve">2.73560881614685</t>
   </si>
   <si>
     <t xml:space="preserve">2.76934218406677</t>
@@ -284,19 +284,19 @@
     <t xml:space="preserve">2.81913900375366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83520269393921</t>
+    <t xml:space="preserve">2.83520245552063</t>
   </si>
   <si>
     <t xml:space="preserve">2.77898049354553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64244079589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58621859550476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54445385932922</t>
+    <t xml:space="preserve">2.64244103431702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58621907234192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54445362091064</t>
   </si>
   <si>
     <t xml:space="preserve">2.52999687194824</t>
@@ -308,37 +308,37 @@
     <t xml:space="preserve">2.65803813934326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6397979259491</t>
+    <t xml:space="preserve">2.63979816436768</t>
   </si>
   <si>
     <t xml:space="preserve">2.61160969734192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61326718330383</t>
+    <t xml:space="preserve">2.61326766014099</t>
   </si>
   <si>
     <t xml:space="preserve">2.66135406494141</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64477300643921</t>
+    <t xml:space="preserve">2.64477252960205</t>
   </si>
   <si>
     <t xml:space="preserve">2.63316559791565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65306353569031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77576804161072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87691569328308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8603343963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73597168922424</t>
+    <t xml:space="preserve">2.65306377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77576780319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87691617012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86033415794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7359721660614</t>
   </si>
   <si>
     <t xml:space="preserve">2.76913499832153</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">2.55357360839844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52538514137268</t>
+    <t xml:space="preserve">2.52538466453552</t>
   </si>
   <si>
     <t xml:space="preserve">2.57844591140747</t>
@@ -365,19 +365,19 @@
     <t xml:space="preserve">2.45408391952515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23852252960205</t>
+    <t xml:space="preserve">2.23852229118347</t>
   </si>
   <si>
     <t xml:space="preserve">2.27997660636902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34132838249207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31977224349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4043390750885</t>
+    <t xml:space="preserve">2.34132862091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31977272033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40433883666992</t>
   </si>
   <si>
     <t xml:space="preserve">2.42092061042786</t>
@@ -386,31 +386,31 @@
     <t xml:space="preserve">2.33801198005676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23686408996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27002739906311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32972145080566</t>
+    <t xml:space="preserve">2.23686385154724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27002763748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32972121238708</t>
   </si>
   <si>
     <t xml:space="preserve">2.35127735137939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37780833244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38278269767761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37946629524231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36620116233826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42921161651611</t>
+    <t xml:space="preserve">2.37780857086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38278293609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37946653366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36620092391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42921137809753</t>
   </si>
   <si>
     <t xml:space="preserve">2.58673691749573</t>
@@ -425,13 +425,13 @@
     <t xml:space="preserve">2.95484948158264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89515590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8686249256134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64808917045593</t>
+    <t xml:space="preserve">2.89515566825867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86862516403198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64808869361877</t>
   </si>
   <si>
     <t xml:space="preserve">2.6281909942627</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">2.62487483024597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61824202537537</t>
+    <t xml:space="preserve">2.61824226379395</t>
   </si>
   <si>
     <t xml:space="preserve">2.583420753479</t>
@@ -452,16 +452,16 @@
     <t xml:space="preserve">2.6895432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68291044235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69949197769165</t>
+    <t xml:space="preserve">2.68291091918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69949173927307</t>
   </si>
   <si>
     <t xml:space="preserve">2.70612478256226</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69120121002197</t>
+    <t xml:space="preserve">2.69120144844055</t>
   </si>
   <si>
     <t xml:space="preserve">2.69451785087585</t>
@@ -470,22 +470,22 @@
     <t xml:space="preserve">2.74592089653015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81224727630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84872698783875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81888008117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78571653366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70778298377991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71109914779663</t>
+    <t xml:space="preserve">2.81224751472473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84872722625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81887984275818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78571677207947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70778322219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71109938621521</t>
   </si>
   <si>
     <t xml:space="preserve">2.79732418060303</t>
@@ -497,22 +497,22 @@
     <t xml:space="preserve">2.76084399223328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78240036964417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7956657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82551288604736</t>
+    <t xml:space="preserve">2.78240013122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79566597938538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82551240921021</t>
   </si>
   <si>
     <t xml:space="preserve">2.85701775550842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7492368221283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72104811668396</t>
+    <t xml:space="preserve">2.74923706054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72104835510254</t>
   </si>
   <si>
     <t xml:space="preserve">2.7011501789093</t>
@@ -530,22 +530,22 @@
     <t xml:space="preserve">2.71939015388489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68622708320618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74260473251343</t>
+    <t xml:space="preserve">2.6862268447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74260497093201</t>
   </si>
   <si>
     <t xml:space="preserve">2.65472173690796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73099756240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76416063308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8105890750885</t>
+    <t xml:space="preserve">2.73099732398987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76416087150574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81058931350708</t>
   </si>
   <si>
     <t xml:space="preserve">2.78074216842651</t>
@@ -554,19 +554,19 @@
     <t xml:space="preserve">2.77742576599121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88520669937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7989821434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81722164154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79400730133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7591860294342</t>
+    <t xml:space="preserve">2.88520622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79898190498352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81722187995911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79400753974915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75918626785278</t>
   </si>
   <si>
     <t xml:space="preserve">2.7442626953125</t>
@@ -578,10 +578,10 @@
     <t xml:space="preserve">2.78737497329712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72933888435364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67627763748169</t>
+    <t xml:space="preserve">2.72933912277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67627787590027</t>
   </si>
   <si>
     <t xml:space="preserve">2.64643096923828</t>
@@ -599,16 +599,16 @@
     <t xml:space="preserve">2.51709413528442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55191564559937</t>
+    <t xml:space="preserve">2.55191540718079</t>
   </si>
   <si>
     <t xml:space="preserve">2.63648223876953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68456864356995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70944118499756</t>
+    <t xml:space="preserve">2.68456888198853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70944094657898</t>
   </si>
   <si>
     <t xml:space="preserve">2.72270631790161</t>
@@ -617,22 +617,22 @@
     <t xml:space="preserve">2.77908396720886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83877825737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82717108726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83380341529846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75421190261841</t>
+    <t xml:space="preserve">2.83877849578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82717084884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83380365371704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75421166419983</t>
   </si>
   <si>
     <t xml:space="preserve">2.82882905006409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82053804397583</t>
+    <t xml:space="preserve">2.82053828239441</t>
   </si>
   <si>
     <t xml:space="preserve">2.77245163917542</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">2.80064034461975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83546185493469</t>
+    <t xml:space="preserve">2.83546161651611</t>
   </si>
   <si>
     <t xml:space="preserve">2.8022985458374</t>
@@ -650,25 +650,25 @@
     <t xml:space="preserve">2.65637993812561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67959427833557</t>
+    <t xml:space="preserve">2.67959451675415</t>
   </si>
   <si>
     <t xml:space="preserve">2.70280838012695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74757862091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75255370140076</t>
+    <t xml:space="preserve">2.74757885932922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7525532245636</t>
   </si>
   <si>
     <t xml:space="preserve">2.98138022422791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94324207305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05931377410889</t>
+    <t xml:space="preserve">2.94324231147766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05931401252747</t>
   </si>
   <si>
     <t xml:space="preserve">3.03444147109985</t>
@@ -683,19 +683,19 @@
     <t xml:space="preserve">3.00127792358398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99298739433289</t>
+    <t xml:space="preserve">2.99298763275146</t>
   </si>
   <si>
     <t xml:space="preserve">2.95650768280029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94987535476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93660974502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93329358100891</t>
+    <t xml:space="preserve">2.94987487792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93660950660706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93329334259033</t>
   </si>
   <si>
     <t xml:space="preserve">2.90178823471069</t>
@@ -716,16 +716,16 @@
     <t xml:space="preserve">3.05102324485779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97308921813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97474765777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01786017417908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01620173454285</t>
+    <t xml:space="preserve">2.97308945655823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9747474193573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0178599357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01620149612427</t>
   </si>
   <si>
     <t xml:space="preserve">3.01122713088989</t>
@@ -737,40 +737,40 @@
     <t xml:space="preserve">3.11734962463379</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05599784851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03941583633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06760478019714</t>
+    <t xml:space="preserve">3.05599737167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03941559791565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06760454177856</t>
   </si>
   <si>
     <t xml:space="preserve">3.15862154960632</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17884755134583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23278307914734</t>
+    <t xml:space="preserve">3.17884802818298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2327835559845</t>
   </si>
   <si>
     <t xml:space="preserve">3.20244455337524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20750069618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25300908088684</t>
+    <t xml:space="preserve">3.20750093460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25300931930542</t>
   </si>
   <si>
     <t xml:space="preserve">3.24458169937134</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31368732452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.281662940979</t>
+    <t xml:space="preserve">3.31368708610535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28166317939758</t>
   </si>
   <si>
     <t xml:space="preserve">3.23109817504883</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">3.21761417388916</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23446893692017</t>
+    <t xml:space="preserve">3.23446917533875</t>
   </si>
   <si>
     <t xml:space="preserve">3.13839554786682</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">3.13671016693115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04232239723206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11985492706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1265971660614</t>
+    <t xml:space="preserve">3.04232215881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11985516548157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12659692764282</t>
   </si>
   <si>
     <t xml:space="preserve">3.0945725440979</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">3.01535439491272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14176630973816</t>
+    <t xml:space="preserve">3.14176678657532</t>
   </si>
   <si>
     <t xml:space="preserve">3.15019416809082</t>
@@ -830,31 +830,31 @@
     <t xml:space="preserve">3.17042016983032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17379117012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21087193489075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22772717475891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.269864320755</t>
+    <t xml:space="preserve">3.17379140853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21087217330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22772693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26986455917358</t>
   </si>
   <si>
     <t xml:space="preserve">3.27829194068909</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29514718055725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29851770401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31874394416809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36088109016418</t>
+    <t xml:space="preserve">3.29514694213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29851794242859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31874370574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36088132858276</t>
   </si>
   <si>
     <t xml:space="preserve">3.37436532974243</t>
@@ -863,19 +863,19 @@
     <t xml:space="preserve">3.33728432655334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36256670951843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28840470314026</t>
+    <t xml:space="preserve">3.36256694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28840494155884</t>
   </si>
   <si>
     <t xml:space="preserve">3.31537294387817</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25806617736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32885670661926</t>
+    <t xml:space="preserve">3.25806593894958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32885646820068</t>
   </si>
   <si>
     <t xml:space="preserve">3.16030716896057</t>
@@ -899,16 +899,16 @@
     <t xml:space="preserve">3.11816954612732</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14682292938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19064593315125</t>
+    <t xml:space="preserve">3.1468231678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19064617156982</t>
   </si>
   <si>
     <t xml:space="preserve">3.09288740158081</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15693640708923</t>
+    <t xml:space="preserve">3.15693616867065</t>
   </si>
   <si>
     <t xml:space="preserve">3.1350245475769</t>
@@ -923,10 +923,10 @@
     <t xml:space="preserve">3.17210555076599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16704869270325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18390393257141</t>
+    <t xml:space="preserve">3.16704893112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18390417098999</t>
   </si>
   <si>
     <t xml:space="preserve">3.19907379150391</t>
@@ -935,28 +935,28 @@
     <t xml:space="preserve">3.20918655395508</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19233202934265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20413017272949</t>
+    <t xml:space="preserve">3.19233131408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20412993431091</t>
   </si>
   <si>
     <t xml:space="preserve">3.2209849357605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24795317649841</t>
+    <t xml:space="preserve">3.24795269966125</t>
   </si>
   <si>
     <t xml:space="preserve">3.16873455047607</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14345216751099</t>
+    <t xml:space="preserve">3.14345192909241</t>
   </si>
   <si>
     <t xml:space="preserve">3.16367793083191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16536355018616</t>
+    <t xml:space="preserve">3.16536378860474</t>
   </si>
   <si>
     <t xml:space="preserve">3.18558955192566</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">2.9917573928833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89399838447571</t>
+    <t xml:space="preserve">2.89399862289429</t>
   </si>
   <si>
     <t xml:space="preserve">2.93950700759888</t>
@@ -980,13 +980,13 @@
     <t xml:space="preserve">2.96647500991821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96984553337097</t>
+    <t xml:space="preserve">2.96984601020813</t>
   </si>
   <si>
     <t xml:space="preserve">3.00524139404297</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0001847743988</t>
+    <t xml:space="preserve">3.00018501281738</t>
   </si>
   <si>
     <t xml:space="preserve">3.02546739578247</t>
@@ -998,19 +998,19 @@
     <t xml:space="preserve">2.8973696231842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88557100296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86871647834778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93782114982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80635285377502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86534523963928</t>
+    <t xml:space="preserve">2.88557124137878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86871600151062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93782138824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80635261535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8653450012207</t>
   </si>
   <si>
     <t xml:space="preserve">2.8484902381897</t>
@@ -1028,19 +1028,19 @@
     <t xml:space="preserve">3.03052377700806</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07603216171265</t>
+    <t xml:space="preserve">3.07603240013123</t>
   </si>
   <si>
     <t xml:space="preserve">3.11648416519165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10131502151489</t>
+    <t xml:space="preserve">3.10131478309631</t>
   </si>
   <si>
     <t xml:space="preserve">3.13165354728699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12491154670715</t>
+    <t xml:space="preserve">3.12491178512573</t>
   </si>
   <si>
     <t xml:space="preserve">3.08445978164673</t>
@@ -1049,10 +1049,10 @@
     <t xml:space="preserve">3.09794425964355</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08951640129089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1147985458374</t>
+    <t xml:space="preserve">3.08951616287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11479878425598</t>
   </si>
   <si>
     <t xml:space="preserve">3.14008092880249</t>
@@ -1064,64 +1064,64 @@
     <t xml:space="preserve">3.13081073760986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21929979324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28250575065613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24036836624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25722312927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32042908668518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28671956062317</t>
+    <t xml:space="preserve">3.21929931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28250551223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24036812782288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25722336769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32042932510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28671979904175</t>
   </si>
   <si>
     <t xml:space="preserve">3.02125358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03810858726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98333024978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93276500701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1982307434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13923835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11395597457886</t>
+    <t xml:space="preserve">3.03810834884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9833300113678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93276476860046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19823098182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13923859596252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11395573616028</t>
   </si>
   <si>
     <t xml:space="preserve">3.09710073471069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97911620140076</t>
+    <t xml:space="preserve">2.97911643981934</t>
   </si>
   <si>
     <t xml:space="preserve">3.14766597747803</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08024597167969</t>
+    <t xml:space="preserve">3.08024573326111</t>
   </si>
   <si>
     <t xml:space="preserve">3.08867335319519</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1097424030304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10552859306335</t>
+    <t xml:space="preserve">3.10974216461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10552835464478</t>
   </si>
   <si>
     <t xml:space="preserve">3.21508574485779</t>
@@ -1133,10 +1133,10 @@
     <t xml:space="preserve">3.31621551513672</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34149813652039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34992575645447</t>
+    <t xml:space="preserve">3.34149789810181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34992527961731</t>
   </si>
   <si>
     <t xml:space="preserve">3.31200194358826</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">3.30885696411133</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26605153083801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27461266517639</t>
+    <t xml:space="preserve">3.26605129241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27461242675781</t>
   </si>
   <si>
     <t xml:space="preserve">3.25320982933044</t>
@@ -1160,25 +1160,25 @@
     <t xml:space="preserve">3.2874538898468</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22752666473389</t>
+    <t xml:space="preserve">3.22752690315247</t>
   </si>
   <si>
     <t xml:space="preserve">3.15047693252563</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18472146987915</t>
+    <t xml:space="preserve">3.18472123146057</t>
   </si>
   <si>
     <t xml:space="preserve">3.20612382888794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27033185958862</t>
+    <t xml:space="preserve">3.27033162117004</t>
   </si>
   <si>
     <t xml:space="preserve">3.32169842720032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31313753128052</t>
+    <t xml:space="preserve">3.31313729286194</t>
   </si>
   <si>
     <t xml:space="preserve">3.16759896278381</t>
@@ -1187,19 +1187,19 @@
     <t xml:space="preserve">3.13335466384888</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24892926216125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17616009712219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18900156021118</t>
+    <t xml:space="preserve">3.24892950057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17615985870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18900179862976</t>
   </si>
   <si>
     <t xml:space="preserve">3.20184350013733</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21040415763855</t>
+    <t xml:space="preserve">3.21040439605713</t>
   </si>
   <si>
     <t xml:space="preserve">3.21896553039551</t>
@@ -1217,34 +1217,34 @@
     <t xml:space="preserve">3.23180723190308</t>
   </si>
   <si>
-    <t xml:space="preserve">3.171879529953</t>
+    <t xml:space="preserve">3.17187976837158</t>
   </si>
   <si>
     <t xml:space="preserve">3.2232460975647</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25749039649963</t>
+    <t xml:space="preserve">3.25749063491821</t>
   </si>
   <si>
     <t xml:space="preserve">3.27889323234558</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30029582977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33025932312012</t>
+    <t xml:space="preserve">3.30029559135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3302595615387</t>
   </si>
   <si>
     <t xml:space="preserve">3.39018726348877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37734532356262</t>
+    <t xml:space="preserve">3.37734508514404</t>
   </si>
   <si>
     <t xml:space="preserve">3.34310102462769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42443132400513</t>
+    <t xml:space="preserve">3.42443108558655</t>
   </si>
   <si>
     <t xml:space="preserve">3.492919921875</t>
@@ -1253,22 +1253,22 @@
     <t xml:space="preserve">3.56140875816345</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50148105621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61277461051941</t>
+    <t xml:space="preserve">3.50148129463196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61277508735657</t>
   </si>
   <si>
     <t xml:space="preserve">3.51860356330872</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55284738540649</t>
+    <t xml:space="preserve">3.55284762382507</t>
   </si>
   <si>
     <t xml:space="preserve">3.58709192276001</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54428648948669</t>
+    <t xml:space="preserve">3.54428672790527</t>
   </si>
   <si>
     <t xml:space="preserve">3.52716422080994</t>
@@ -1286,16 +1286,16 @@
     <t xml:space="preserve">3.36878442764282</t>
   </si>
   <si>
-    <t xml:space="preserve">3.385906457901</t>
+    <t xml:space="preserve">3.38590669631958</t>
   </si>
   <si>
     <t xml:space="preserve">3.36450386047363</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40730905532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33882069587708</t>
+    <t xml:space="preserve">3.40730929374695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33882093429565</t>
   </si>
   <si>
     <t xml:space="preserve">3.34738183021545</t>
@@ -1304,43 +1304,43 @@
     <t xml:space="preserve">3.46723699569702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64701986312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65986108779907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62133622169495</t>
+    <t xml:space="preserve">3.64701962471008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65986084938049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62133598327637</t>
   </si>
   <si>
     <t xml:space="preserve">3.65129995346069</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65558052062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73691034317017</t>
+    <t xml:space="preserve">3.65558075904846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73691058158875</t>
   </si>
   <si>
     <t xml:space="preserve">3.62989687919617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63845825195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69410538673401</t>
+    <t xml:space="preserve">3.63845801353455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69410562515259</t>
   </si>
   <si>
     <t xml:space="preserve">3.85676622390747</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96377873420715</t>
+    <t xml:space="preserve">3.96377921104431</t>
   </si>
   <si>
     <t xml:space="preserve">3.79683828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83964395523071</t>
+    <t xml:space="preserve">3.83964347839355</t>
   </si>
   <si>
     <t xml:space="preserve">3.75831317901611</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">3.87388825416565</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90385174751282</t>
+    <t xml:space="preserve">3.90385127067566</t>
   </si>
   <si>
     <t xml:space="preserve">3.87816858291626</t>
@@ -1361,28 +1361,28 @@
     <t xml:space="preserve">3.99802374839783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98946285247803</t>
+    <t xml:space="preserve">3.98946237564087</t>
   </si>
   <si>
     <t xml:space="preserve">4.02370643615723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1478419303894</t>
+    <t xml:space="preserve">4.14784240722656</t>
   </si>
   <si>
     <t xml:space="preserve">4.10075664520264</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00658464431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94665813446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89529061317444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93809533119202</t>
+    <t xml:space="preserve">4.00658512115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94665765762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8952910900116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93809580802917</t>
   </si>
   <si>
     <t xml:space="preserve">3.86960768699646</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">3.920973777771</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76687455177307</t>
+    <t xml:space="preserve">3.76687479019165</t>
   </si>
   <si>
     <t xml:space="preserve">3.98090124130249</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">4.07079315185547</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08363485336304</t>
+    <t xml:space="preserve">4.08363437652588</t>
   </si>
   <si>
     <t xml:space="preserve">3.99374270439148</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">3.95093750953674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92953515052795</t>
+    <t xml:space="preserve">3.9295346736908</t>
   </si>
   <si>
     <t xml:space="preserve">3.74119114875793</t>
@@ -1430,10 +1430,10 @@
     <t xml:space="preserve">3.74975228309631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66414189338684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60421419143677</t>
+    <t xml:space="preserve">3.66414141654968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60421442985535</t>
   </si>
   <si>
     <t xml:space="preserve">3.77971625328064</t>
@@ -1448,22 +1448,22 @@
     <t xml:space="preserve">3.79255795478821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71978831291199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77543592453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75403308868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88244843482971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86104679107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77115511894226</t>
+    <t xml:space="preserve">3.71978807449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77543544769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7540328502655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88244891166687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86104583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77115535736084</t>
   </si>
   <si>
     <t xml:space="preserve">3.8053994178772</t>
@@ -1472,13 +1472,13 @@
     <t xml:space="preserve">3.82252168655396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72406911849976</t>
+    <t xml:space="preserve">3.72406888008118</t>
   </si>
   <si>
     <t xml:space="preserve">3.73263049125671</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93381547927856</t>
+    <t xml:space="preserve">3.93381500244141</t>
   </si>
   <si>
     <t xml:space="preserve">3.97234034538269</t>
@@ -1499,22 +1499,22 @@
     <t xml:space="preserve">4.25485563278198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28053903579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32334470748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2719783782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18208694458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17780637741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16068458557129</t>
+    <t xml:space="preserve">4.28053951263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32334518432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27197790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18208742141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17780590057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16068410873413</t>
   </si>
   <si>
     <t xml:space="preserve">4.22917318344116</t>
@@ -1529,22 +1529,22 @@
     <t xml:space="preserve">4.14356231689453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34902811050415</t>
+    <t xml:space="preserve">4.34902763366699</t>
   </si>
   <si>
     <t xml:space="preserve">4.4860053062439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61442089080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58873796463013</t>
+    <t xml:space="preserve">4.61442041397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58873844146729</t>
   </si>
   <si>
     <t xml:space="preserve">4.6743483543396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57161664962769</t>
+    <t xml:space="preserve">4.57161569595337</t>
   </si>
   <si>
     <t xml:space="preserve">4.71715450286865</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">4.7942042350769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77708148956299</t>
+    <t xml:space="preserve">4.77708196640015</t>
   </si>
   <si>
     <t xml:space="preserve">4.75995969772339</t>
@@ -1565,10 +1565,10 @@
     <t xml:space="preserve">4.72571516036987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53737163543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52881097793579</t>
+    <t xml:space="preserve">4.53737211227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52881050109863</t>
   </si>
   <si>
     <t xml:space="preserve">4.56305456161499</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">4.58017683029175</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6401047706604</t>
+    <t xml:space="preserve">4.64010524749756</t>
   </si>
   <si>
     <t xml:space="preserve">4.69147062301636</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">4.49456596374512</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6229829788208</t>
+    <t xml:space="preserve">4.62298250198364</t>
   </si>
   <si>
     <t xml:space="preserve">4.85413217544556</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">4.90549802780151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83700942993164</t>
+    <t xml:space="preserve">4.83700895309448</t>
   </si>
   <si>
     <t xml:space="preserve">4.78564262390137</t>
@@ -1610,10 +1610,10 @@
     <t xml:space="preserve">4.75139856338501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59729909896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63154315948486</t>
+    <t xml:space="preserve">4.59729957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63154363632202</t>
   </si>
   <si>
     <t xml:space="preserve">4.55449390411377</t>
@@ -1622,13 +1622,13 @@
     <t xml:space="preserve">4.50312757492065</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47744417190552</t>
+    <t xml:space="preserve">4.47744464874268</t>
   </si>
   <si>
     <t xml:space="preserve">4.46888256072998</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43463850021362</t>
+    <t xml:space="preserve">4.43463802337646</t>
   </si>
   <si>
     <t xml:space="preserve">4.55733585357666</t>
@@ -1637,10 +1637,10 @@
     <t xml:space="preserve">4.60992097854614</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48722267150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46093130111694</t>
+    <t xml:space="preserve">4.48722314834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46093082427979</t>
   </si>
   <si>
     <t xml:space="preserve">4.39081811904907</t>
@@ -1649,13 +1649,13 @@
     <t xml:space="preserve">4.35576152801514</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41711091995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39958190917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4696946144104</t>
+    <t xml:space="preserve">4.41711044311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39958143234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46969509124756</t>
   </si>
   <si>
     <t xml:space="preserve">4.53104400634766</t>
@@ -1667,19 +1667,19 @@
     <t xml:space="preserve">4.4434027671814</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47845888137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53980779647827</t>
+    <t xml:space="preserve">4.47845935821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53980731964111</t>
   </si>
   <si>
     <t xml:space="preserve">4.50475120544434</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31632375717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35137891769409</t>
+    <t xml:space="preserve">4.31632280349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35137939453125</t>
   </si>
   <si>
     <t xml:space="preserve">4.21553564071655</t>
@@ -1691,13 +1691,13 @@
     <t xml:space="preserve">4.16733360290527</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06216430664062</t>
+    <t xml:space="preserve">4.06216478347778</t>
   </si>
   <si>
     <t xml:space="preserve">4.11474847793579</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02710771560669</t>
+    <t xml:space="preserve">4.02710723876953</t>
   </si>
   <si>
     <t xml:space="preserve">4.07092809677124</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">4.06654596328735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0227255821228</t>
+    <t xml:space="preserve">4.02272510528564</t>
   </si>
   <si>
     <t xml:space="preserve">4.04463529586792</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04025459289551</t>
+    <t xml:space="preserve">4.04025411605835</t>
   </si>
   <si>
     <t xml:space="preserve">4.09283828735352</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">4.00519752502441</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15418672561646</t>
+    <t xml:space="preserve">4.15418720245361</t>
   </si>
   <si>
     <t xml:space="preserve">4.171715259552</t>
@@ -1730,31 +1730,31 @@
     <t xml:space="preserve">4.19362545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34699773788452</t>
+    <t xml:space="preserve">4.34699726104736</t>
   </si>
   <si>
     <t xml:space="preserve">4.40834617614746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3820538520813</t>
+    <t xml:space="preserve">4.38205432891846</t>
   </si>
   <si>
     <t xml:space="preserve">4.11036682128906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91755604743958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95261311531067</t>
+    <t xml:space="preserve">3.91755652427673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95261216163635</t>
   </si>
   <si>
     <t xml:space="preserve">3.96575903892517</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08407497406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10160207748413</t>
+    <t xml:space="preserve">4.0840744972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10160255432129</t>
   </si>
   <si>
     <t xml:space="preserve">4.01396131515503</t>
@@ -1769,22 +1769,22 @@
     <t xml:space="preserve">3.79047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77733039855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75103855133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75980234146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78171253204346</t>
+    <t xml:space="preserve">3.77733063697815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75103807449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7598021030426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78171277046204</t>
   </si>
   <si>
     <t xml:space="preserve">3.73789191246033</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73351049423218</t>
+    <t xml:space="preserve">3.7335102558136</t>
   </si>
   <si>
     <t xml:space="preserve">3.79485869407654</t>
@@ -1793,28 +1793,28 @@
     <t xml:space="preserve">3.89126372337341</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03148889541626</t>
+    <t xml:space="preserve">4.03148937225342</t>
   </si>
   <si>
     <t xml:space="preserve">3.93508386611938</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86058950424194</t>
+    <t xml:space="preserve">3.86058974266052</t>
   </si>
   <si>
     <t xml:space="preserve">3.92193841934204</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85620760917664</t>
+    <t xml:space="preserve">3.85620784759521</t>
   </si>
   <si>
     <t xml:space="preserve">3.76856660842896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80800461769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78609466552734</t>
+    <t xml:space="preserve">3.80800437927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78609490394592</t>
   </si>
   <si>
     <t xml:space="preserve">3.67216110229492</t>
@@ -1823,25 +1823,25 @@
     <t xml:space="preserve">3.82991504669189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72474551200867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79924058914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86497187614441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72036385536194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74227380752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7466561794281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68968939781189</t>
+    <t xml:space="preserve">3.72474527359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79924082756042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86497139930725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72036361694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74227428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74665594100952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68968963623047</t>
   </si>
   <si>
     <t xml:space="preserve">3.64586877822876</t>
@@ -1850,10 +1850,10 @@
     <t xml:space="preserve">3.71598148345947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72912764549255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70283555984497</t>
+    <t xml:space="preserve">3.72912812232971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70283532142639</t>
   </si>
   <si>
     <t xml:space="preserve">4.04901790618896</t>
@@ -1862,16 +1862,16 @@
     <t xml:space="preserve">4.0358715057373</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97890448570251</t>
+    <t xml:space="preserve">3.97890496253967</t>
   </si>
   <si>
     <t xml:space="preserve">4.00957918167114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09722089767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18048000335693</t>
+    <t xml:space="preserve">4.0972204208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18047952651978</t>
   </si>
   <si>
     <t xml:space="preserve">4.22429990768433</t>
@@ -1883,28 +1883,28 @@
     <t xml:space="preserve">4.33385181427002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52227926254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51351594924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68003416061401</t>
+    <t xml:space="preserve">4.52227973937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51351547241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6800332069397</t>
   </si>
   <si>
     <t xml:space="preserve">4.67126893997192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58362817764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64497709274292</t>
+    <t xml:space="preserve">4.58362865447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64497756958008</t>
   </si>
   <si>
     <t xml:space="preserve">4.57486391067505</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62744855880737</t>
+    <t xml:space="preserve">4.62744903564453</t>
   </si>
   <si>
     <t xml:space="preserve">4.68879795074463</t>
@@ -1916,10 +1916,10 @@
     <t xml:space="preserve">4.9079008102417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79396677017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74138164520264</t>
+    <t xml:space="preserve">4.79396724700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74138212203979</t>
   </si>
   <si>
     <t xml:space="preserve">4.82025909423828</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">4.78520250320435</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77643871307373</t>
+    <t xml:space="preserve">4.77643823623657</t>
   </si>
   <si>
     <t xml:space="preserve">4.80273103713989</t>
@@ -1940,19 +1940,19 @@
     <t xml:space="preserve">4.76767492294312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65374088287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59239292144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6362133026123</t>
+    <t xml:space="preserve">4.65374135971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5923924446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63621282577515</t>
   </si>
   <si>
     <t xml:space="preserve">4.60115623474121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61868476867676</t>
+    <t xml:space="preserve">4.6186842918396</t>
   </si>
   <si>
     <t xml:space="preserve">4.86407995223999</t>
@@ -1961,16 +1961,16 @@
     <t xml:space="preserve">4.75891017913818</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70632553100586</t>
+    <t xml:space="preserve">4.70632600784302</t>
   </si>
   <si>
     <t xml:space="preserve">4.82902383804321</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73261880874634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3207049369812</t>
+    <t xml:space="preserve">4.73261833190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32070541381836</t>
   </si>
   <si>
     <t xml:space="preserve">4.24182844161987</t>
@@ -1979,55 +1979,55 @@
     <t xml:space="preserve">4.28564882278442</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45216703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69756174087524</t>
+    <t xml:space="preserve">4.45216655731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6975622177124</t>
   </si>
   <si>
     <t xml:space="preserve">4.19800758361816</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82553267478943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54069924354553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.431147813797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37856364250183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22957372665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28654026985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86148118972778</t>
+    <t xml:space="preserve">3.82553291320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54069948196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43114805221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37856340408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22957348823547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28654050827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86148142814636</t>
   </si>
   <si>
     <t xml:space="preserve">2.97541451454163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9228298664093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94474005699158</t>
+    <t xml:space="preserve">2.92283010482788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94474029541016</t>
   </si>
   <si>
     <t xml:space="preserve">2.78698635101318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72125554084778</t>
+    <t xml:space="preserve">2.7212553024292</t>
   </si>
   <si>
     <t xml:space="preserve">2.8570990562439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66428875923157</t>
+    <t xml:space="preserve">2.66428852081299</t>
   </si>
   <si>
     <t xml:space="preserve">2.77822232246399</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">2.71249127388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90091943740845</t>
+    <t xml:space="preserve">2.90091967582703</t>
   </si>
   <si>
     <t xml:space="preserve">2.82204270362854</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">2.7606942653656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76507568359375</t>
+    <t xml:space="preserve">2.76507592201233</t>
   </si>
   <si>
     <t xml:space="preserve">2.90968370437622</t>
@@ -2072,49 +2072,49 @@
     <t xml:space="preserve">3.06743764877319</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02361726760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99732494354248</t>
+    <t xml:space="preserve">3.02361702919006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9973247051239</t>
   </si>
   <si>
     <t xml:space="preserve">3.00170683860779</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04114508628845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07182002067566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00608897209167</t>
+    <t xml:space="preserve">3.04114556312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07181978225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00608921051025</t>
   </si>
   <si>
     <t xml:space="preserve">3.03676319122314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01047086715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16822481155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10249447822571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11125802993774</t>
+    <t xml:space="preserve">3.01047110557556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16822504997253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10249423980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11125826835632</t>
   </si>
   <si>
     <t xml:space="preserve">3.14631462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19451713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09373021125793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15507864952087</t>
+    <t xml:space="preserve">3.1945173740387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09372997283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15507888793945</t>
   </si>
   <si>
     <t xml:space="preserve">3.25586605072021</t>
@@ -2129,40 +2129,40 @@
     <t xml:space="preserve">3.21204543113708</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24710178375244</t>
+    <t xml:space="preserve">3.24710202217102</t>
   </si>
   <si>
     <t xml:space="preserve">3.19889950752258</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18137121200562</t>
+    <t xml:space="preserve">3.18137097358704</t>
   </si>
   <si>
     <t xml:space="preserve">3.37418127059937</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45305824279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50564312934875</t>
+    <t xml:space="preserve">3.45305848121643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50564289093018</t>
   </si>
   <si>
     <t xml:space="preserve">3.55384564399719</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53193545341492</t>
+    <t xml:space="preserve">3.5319356918335</t>
   </si>
   <si>
     <t xml:space="preserve">3.54946374893188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38294529914856</t>
+    <t xml:space="preserve">3.38294553756714</t>
   </si>
   <si>
     <t xml:space="preserve">3.36103534698486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2602481842041</t>
+    <t xml:space="preserve">3.26024794578552</t>
   </si>
   <si>
     <t xml:space="preserve">3.44867634773254</t>
@@ -2171,25 +2171,25 @@
     <t xml:space="preserve">3.44429445266724</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41800212860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43991231918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49687910079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51002526283264</t>
+    <t xml:space="preserve">3.41800236701965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43991255760193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49687933921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51002550125122</t>
   </si>
   <si>
     <t xml:space="preserve">3.51440739631653</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83402895927429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78892254829407</t>
+    <t xml:space="preserve">3.83402872085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78892278671265</t>
   </si>
   <si>
     <t xml:space="preserve">3.70322108268738</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">3.65360450744629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59045553207397</t>
+    <t xml:space="preserve">3.59045577049255</t>
   </si>
   <si>
     <t xml:space="preserve">3.57241320610046</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">3.50024318695068</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51828575134277</t>
+    <t xml:space="preserve">3.51828598976135</t>
   </si>
   <si>
     <t xml:space="preserve">3.4280731678009</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">3.40552020072937</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38296675682068</t>
+    <t xml:space="preserve">3.38296699523926</t>
   </si>
   <si>
     <t xml:space="preserve">3.33786058425903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34688210487366</t>
+    <t xml:space="preserve">3.34688186645508</t>
   </si>
   <si>
     <t xml:space="preserve">3.29275465011597</t>
@@ -2240,37 +2240,37 @@
     <t xml:space="preserve">3.15743565559387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24764800071716</t>
+    <t xml:space="preserve">3.24764823913574</t>
   </si>
   <si>
     <t xml:space="preserve">3.31981825828552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27020120620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22960591316223</t>
+    <t xml:space="preserve">3.27020144462585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22960567474365</t>
   </si>
   <si>
     <t xml:space="preserve">3.22058439254761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20254182815552</t>
+    <t xml:space="preserve">3.2025420665741</t>
   </si>
   <si>
     <t xml:space="preserve">3.16645693778992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16194677352905</t>
+    <t xml:space="preserve">3.16194653511047</t>
   </si>
   <si>
     <t xml:space="preserve">3.10330843925476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1078188419342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13939332962036</t>
+    <t xml:space="preserve">3.10781860351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13939309120178</t>
   </si>
   <si>
     <t xml:space="preserve">3.12135100364685</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">3.04015946388245</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02211713790894</t>
+    <t xml:space="preserve">3.02211689949036</t>
   </si>
   <si>
     <t xml:space="preserve">3.00407457351685</t>
@@ -2288,10 +2288,10 @@
     <t xml:space="preserve">2.9950532913208</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15292501449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13037180900574</t>
+    <t xml:space="preserve">3.15292525291443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1303722858429</t>
   </si>
   <si>
     <t xml:space="preserve">3.11684012413025</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">3.04467010498047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96347904205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89130902290344</t>
+    <t xml:space="preserve">2.9634792804718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89130926132202</t>
   </si>
   <si>
     <t xml:space="preserve">2.92739391326904</t>
@@ -2321,19 +2321,19 @@
     <t xml:space="preserve">2.90484094619751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.886798620224</t>
+    <t xml:space="preserve">2.88679838180542</t>
   </si>
   <si>
     <t xml:space="preserve">2.85071349143982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97701096534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87777733802795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85522413253784</t>
+    <t xml:space="preserve">2.97701120376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87777709960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85522389411926</t>
   </si>
   <si>
     <t xml:space="preserve">2.86424541473389</t>
@@ -2348,19 +2348,19 @@
     <t xml:space="preserve">2.76952219009399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.737948179245</t>
+    <t xml:space="preserve">2.73794794082642</t>
   </si>
   <si>
     <t xml:space="preserve">2.68833088874817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67028880119324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63420343399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59811878204346</t>
+    <t xml:space="preserve">2.67028856277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63420367240906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59811854362488</t>
   </si>
   <si>
     <t xml:space="preserve">2.61616110801697</t>
@@ -2369,22 +2369,22 @@
     <t xml:space="preserve">2.6026291847229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54399108886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62518262863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0311381816864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01309585571289</t>
+    <t xml:space="preserve">2.54399085044861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62518239021301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03113842010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01309561729431</t>
   </si>
   <si>
     <t xml:space="preserve">3.06271266937256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2431378364563</t>
+    <t xml:space="preserve">3.24313759803772</t>
   </si>
   <si>
     <t xml:space="preserve">3.23411655426025</t>
@@ -2393,43 +2393,43 @@
     <t xml:space="preserve">3.25666952133179</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3559033870697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36492466926575</t>
+    <t xml:space="preserve">3.35590314865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36492443084717</t>
   </si>
   <si>
     <t xml:space="preserve">3.54986000061035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48220038414001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55437040328979</t>
+    <t xml:space="preserve">3.48220062255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55437064170837</t>
   </si>
   <si>
     <t xml:space="preserve">3.52730703353882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56339192390442</t>
+    <t xml:space="preserve">3.56339168548584</t>
   </si>
   <si>
     <t xml:space="preserve">3.58143424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51377511024475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49573254585266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62654066085815</t>
+    <t xml:space="preserve">3.51377487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49573278427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62654042243958</t>
   </si>
   <si>
     <t xml:space="preserve">3.75283789634705</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79794430732727</t>
+    <t xml:space="preserve">3.79794454574585</t>
   </si>
   <si>
     <t xml:space="preserve">3.82500767707825</t>
@@ -2441,49 +2441,49 @@
     <t xml:space="preserve">3.73028492927551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73479533195496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72577452659607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69871068000793</t>
+    <t xml:space="preserve">3.73479557037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72577428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69871020317078</t>
   </si>
   <si>
     <t xml:space="preserve">3.68066787719727</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61751961708069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60849809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64458274841309</t>
+    <t xml:space="preserve">3.61751937866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60849785804749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64458298683167</t>
   </si>
   <si>
     <t xml:space="preserve">3.57692360877991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66262555122375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64909386634827</t>
+    <t xml:space="preserve">3.66262578964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64909362792969</t>
   </si>
   <si>
     <t xml:space="preserve">3.82049751281738</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81598663330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80696511268616</t>
+    <t xml:space="preserve">3.8159863948822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80696558952332</t>
   </si>
   <si>
     <t xml:space="preserve">3.77990174293518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85207152366638</t>
+    <t xml:space="preserve">3.85207200050354</t>
   </si>
   <si>
     <t xml:space="preserve">3.9152204990387</t>
@@ -2492,13 +2492,13 @@
     <t xml:space="preserve">3.75734877586365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84305095672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85658240318298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83853960037231</t>
+    <t xml:space="preserve">3.8430507183075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8565821647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83854007720947</t>
   </si>
   <si>
     <t xml:space="preserve">3.84756112098694</t>
@@ -2510,16 +2510,16 @@
     <t xml:space="preserve">3.76185917854309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67164707183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73930621147156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78441262245178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86109328269958</t>
+    <t xml:space="preserve">3.6716468334198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7393057346344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7844123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86109280586243</t>
   </si>
   <si>
     <t xml:space="preserve">4.00543260574341</t>
@@ -2537,13 +2537,13 @@
     <t xml:space="preserve">4.17817163467407</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25588369369507</t>
+    <t xml:space="preserve">4.25588417053223</t>
   </si>
   <si>
     <t xml:space="preserve">4.24674081802368</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21931266784668</t>
+    <t xml:space="preserve">4.21931314468384</t>
   </si>
   <si>
     <t xml:space="preserve">4.28331136703491</t>
@@ -2552,19 +2552,19 @@
     <t xml:space="preserve">4.22388458251953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18731355667114</t>
+    <t xml:space="preserve">4.1873140335083</t>
   </si>
   <si>
     <t xml:space="preserve">4.15074348449707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11417293548584</t>
+    <t xml:space="preserve">4.114173412323</t>
   </si>
   <si>
     <t xml:space="preserve">4.05931758880615</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1096019744873</t>
+    <t xml:space="preserve">4.10960149765015</t>
   </si>
   <si>
     <t xml:space="preserve">4.13703012466431</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">4.09588813781738</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04103231430054</t>
+    <t xml:space="preserve">4.0410327911377</t>
   </si>
   <si>
     <t xml:space="preserve">4.06845998764038</t>
@@ -2597,19 +2597,19 @@
     <t xml:space="preserve">4.12331628799438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1598858833313</t>
+    <t xml:space="preserve">4.15988683700562</t>
   </si>
   <si>
     <t xml:space="preserve">4.20102787017822</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26045513153076</t>
+    <t xml:space="preserve">4.2604546546936</t>
   </si>
   <si>
     <t xml:space="preserve">4.19645690917969</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19188499450684</t>
+    <t xml:space="preserve">4.19188547134399</t>
   </si>
   <si>
     <t xml:space="preserve">4.14160108566284</t>
@@ -2618,22 +2618,22 @@
     <t xml:space="preserve">4.27873992919922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29702472686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23302698135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20559883117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11874485015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10045909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14617204666138</t>
+    <t xml:space="preserve">4.29702568054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23302745819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20559930801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11874437332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10045957565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14617252349854</t>
   </si>
   <si>
     <t xml:space="preserve">4.2924542427063</t>
@@ -2642,31 +2642,31 @@
     <t xml:space="preserve">4.31531047821045</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34273815155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28788280487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00446224212646</t>
+    <t xml:space="preserve">4.34273767471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28788328170776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00446176528931</t>
   </si>
   <si>
     <t xml:space="preserve">3.98617696762085</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95874881744385</t>
+    <t xml:space="preserve">3.95874857902527</t>
   </si>
   <si>
     <t xml:space="preserve">3.95417737960815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88560771942139</t>
+    <t xml:space="preserve">3.88560795783997</t>
   </si>
   <si>
     <t xml:space="preserve">3.78961062431335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7393262386322</t>
+    <t xml:space="preserve">3.73932647705078</t>
   </si>
   <si>
     <t xml:space="preserve">3.90846467018127</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">4.02274703979492</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12788677215576</t>
+    <t xml:space="preserve">4.12788724899292</t>
   </si>
   <si>
     <t xml:space="preserve">4.07303142547607</t>
@@ -2687,13 +2687,13 @@
     <t xml:space="preserve">4.06388902664185</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10503005981445</t>
+    <t xml:space="preserve">4.10503053665161</t>
   </si>
   <si>
     <t xml:space="preserve">3.931321144104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.009033203125</t>
+    <t xml:space="preserve">4.00903367996216</t>
   </si>
   <si>
     <t xml:space="preserve">4.05017471313477</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">4.17360019683838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31073951721191</t>
+    <t xml:space="preserve">4.31073904037476</t>
   </si>
   <si>
     <t xml:space="preserve">4.35188102722168</t>
@@ -2717,16 +2717,16 @@
     <t xml:space="preserve">4.32902431488037</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2147421836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21017026901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33359575271606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27416896820068</t>
+    <t xml:space="preserve">4.21474170684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21017074584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33359527587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27416944503784</t>
   </si>
   <si>
     <t xml:space="preserve">4.37930870056152</t>
@@ -2744,19 +2744,19 @@
     <t xml:space="preserve">4.62615919113159</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64444446563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65358734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59873151779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54387521743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52101898193359</t>
+    <t xml:space="preserve">4.64444398880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65358686447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59873104095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5438756942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52101945877075</t>
   </si>
   <si>
     <t xml:space="preserve">4.58958864212036</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">4.58044624328613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60787391662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7267279624939</t>
+    <t xml:space="preserve">4.60787343978882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72672748565674</t>
   </si>
   <si>
     <t xml:space="preserve">4.69015741348267</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">4.70844268798828</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73587036132812</t>
+    <t xml:space="preserve">4.73586988449097</t>
   </si>
   <si>
     <t xml:space="preserve">4.47987747192383</t>
@@ -2792,10 +2792,10 @@
     <t xml:space="preserve">4.53930425643921</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36102390289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68101453781128</t>
+    <t xml:space="preserve">4.36102342605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68101501464844</t>
   </si>
   <si>
     <t xml:space="preserve">4.75415563583374</t>
@@ -2804,34 +2804,34 @@
     <t xml:space="preserve">4.74501323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80901145935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85472393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86386728286743</t>
+    <t xml:space="preserve">4.80901193618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85472440719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86386680603027</t>
   </si>
   <si>
     <t xml:space="preserve">4.99186325073242</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01929092407227</t>
+    <t xml:space="preserve">5.01929140090942</t>
   </si>
   <si>
     <t xml:space="preserve">4.98272085189819</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15642976760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11986017227173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24785566329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42156600952148</t>
+    <t xml:space="preserve">5.1564302444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11985969543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24785614013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42156553268433</t>
   </si>
   <si>
     <t xml:space="preserve">5.48556423187256</t>
@@ -2843,13 +2843,13 @@
     <t xml:space="preserve">5.26614189147949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14728784561157</t>
+    <t xml:space="preserve">5.14728832244873</t>
   </si>
   <si>
     <t xml:space="preserve">5.25699901580811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3667106628418</t>
+    <t xml:space="preserve">5.36671018600464</t>
   </si>
   <si>
     <t xml:space="preserve">5.3849949836731</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">5.62270355224609</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58613300323486</t>
+    <t xml:space="preserve">5.58613252639771</t>
   </si>
   <si>
     <t xml:space="preserve">5.61356067657471</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">5.17471551895142</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19300031661987</t>
+    <t xml:space="preserve">5.19300079345703</t>
   </si>
   <si>
     <t xml:space="preserve">5.09243249893188</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">4.9004373550415</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02843427658081</t>
+    <t xml:space="preserve">5.02843379974365</t>
   </si>
   <si>
     <t xml:space="preserve">4.93700790405273</t>
@@ -2897,22 +2897,22 @@
     <t xml:space="preserve">5.07414722442627</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00100612640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96443510055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13814496994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0558614730835</t>
+    <t xml:space="preserve">5.00100564956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96443557739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13814544677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05586194992065</t>
   </si>
   <si>
     <t xml:space="preserve">4.89129495620728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83643960952759</t>
+    <t xml:space="preserve">4.83643913269043</t>
   </si>
   <si>
     <t xml:space="preserve">4.7998685836792</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">4.50730514526367</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45244979858398</t>
+    <t xml:space="preserve">4.45244932174683</t>
   </si>
   <si>
     <t xml:space="preserve">4.32445287704468</t>
@@ -2933,25 +2933,25 @@
     <t xml:space="preserve">4.95529317855835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01014852523804</t>
+    <t xml:space="preserve">5.0101490020752</t>
   </si>
   <si>
     <t xml:space="preserve">5.06500434875488</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22042846679688</t>
+    <t xml:space="preserve">5.22042894363403</t>
   </si>
   <si>
     <t xml:space="preserve">5.33013963699341</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41242361068726</t>
+    <t xml:space="preserve">5.4124231338501</t>
   </si>
   <si>
     <t xml:space="preserve">5.53127765655518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39413833618164</t>
+    <t xml:space="preserve">5.39413785934448</t>
   </si>
   <si>
     <t xml:space="preserve">5.54041957855225</t>
@@ -2966,10 +2966,10 @@
     <t xml:space="preserve">5.63184547424316</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73241424560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65013122558594</t>
+    <t xml:space="preserve">5.73241472244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65013074874878</t>
   </si>
   <si>
     <t xml:space="preserve">5.4823055267334</t>
@@ -62011,7 +62011,7 @@
     </row>
     <row r="2222">
       <c r="A2222" s="1" t="n">
-        <v>45558.607025463</v>
+        <v>45558.2916666667</v>
       </c>
       <c r="B2222" t="n">
         <v>11723</v>
@@ -62032,6 +62032,32 @@
         <v>1283</v>
       </c>
       <c r="H2222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="1" t="n">
+        <v>45559.6495717593</v>
+      </c>
+      <c r="B2223" t="n">
+        <v>12296</v>
+      </c>
+      <c r="C2223" t="n">
+        <v>3.10999989509583</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>3.05999994277954</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>3.07999992370605</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>3.07999992370605</v>
+      </c>
+      <c r="G2223" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H2223" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BAN.MI.xlsx
+++ b/data/BAN.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74278855323792</t>
+    <t xml:space="preserve">3.74278879165649</t>
   </si>
   <si>
     <t xml:space="preserve">BAN.MI</t>
@@ -47,16 +47,16 @@
     <t xml:space="preserve">3.7572455406189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66247177124023</t>
+    <t xml:space="preserve">3.6624710559845</t>
   </si>
   <si>
     <t xml:space="preserve">3.53235721588135</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48737931251526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42473149299622</t>
+    <t xml:space="preserve">3.48737978935242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42473173141479</t>
   </si>
   <si>
     <t xml:space="preserve">3.51468729972839</t>
@@ -71,55 +71,55 @@
     <t xml:space="preserve">3.50023007392883</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45203971862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47774171829224</t>
+    <t xml:space="preserve">3.45203995704651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47774124145508</t>
   </si>
   <si>
     <t xml:space="preserve">3.1789608001709</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30586242675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35726547241211</t>
+    <t xml:space="preserve">3.30586266517639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35726571083069</t>
   </si>
   <si>
     <t xml:space="preserve">3.27694797515869</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33316993713379</t>
+    <t xml:space="preserve">3.33317065238953</t>
   </si>
   <si>
     <t xml:space="preserve">3.25767230987549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19663071632385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29301142692566</t>
+    <t xml:space="preserve">3.19663047790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29301118850708</t>
   </si>
   <si>
     <t xml:space="preserve">3.23036360740662</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23678922653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1323766708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21269392967224</t>
+    <t xml:space="preserve">3.23678970336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13237714767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21269416809082</t>
   </si>
   <si>
     <t xml:space="preserve">3.11149454116821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98780584335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97174215316772</t>
+    <t xml:space="preserve">2.98780560493469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9717423915863</t>
   </si>
   <si>
     <t xml:space="preserve">2.89142465591431</t>
@@ -128,31 +128,31 @@
     <t xml:space="preserve">2.88339304924011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80789470672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80950117111206</t>
+    <t xml:space="preserve">2.80789494514465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80950093269348</t>
   </si>
   <si>
     <t xml:space="preserve">2.81110739707947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95246624946594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04242157936096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02153921127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05366611480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12113189697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17253589630127</t>
+    <t xml:space="preserve">2.95246601104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04242134094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02153897285461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05366539955139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12113213539124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17253565788269</t>
   </si>
   <si>
     <t xml:space="preserve">3.13077044487</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">3.05205941200256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06812310218811</t>
+    <t xml:space="preserve">3.06812286376953</t>
   </si>
   <si>
     <t xml:space="preserve">3.0359959602356</t>
@@ -182,79 +182,79 @@
     <t xml:space="preserve">3.16450381278992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19984340667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29783058166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40545582771301</t>
+    <t xml:space="preserve">3.19984364509583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29783034324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40545558929443</t>
   </si>
   <si>
     <t xml:space="preserve">3.3733286857605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30907464027405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3074688911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18859958648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2608847618103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26730990409851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1661102771759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1757481098175</t>
+    <t xml:space="preserve">3.30907511711121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30746865272522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18859887123108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26088452339172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26730966567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16611003875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17574834823608</t>
   </si>
   <si>
     <t xml:space="preserve">3.20466256141663</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10828185081482</t>
+    <t xml:space="preserve">3.10828161239624</t>
   </si>
   <si>
     <t xml:space="preserve">3.06009125709534</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01993250846863</t>
+    <t xml:space="preserve">3.01993227005005</t>
   </si>
   <si>
     <t xml:space="preserve">3.15647220611572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02796411514282</t>
+    <t xml:space="preserve">3.0279643535614</t>
   </si>
   <si>
     <t xml:space="preserve">2.92033886909485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93158340454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96852946281433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04563403129578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06169748306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07615494728088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98619914054871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97977375984192</t>
+    <t xml:space="preserve">2.93158364295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96852970123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04563426971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06169772148132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0761547088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98619937896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9797739982605</t>
   </si>
   <si>
     <t xml:space="preserve">2.91552019119263</t>
@@ -263,10 +263,10 @@
     <t xml:space="preserve">2.87054228782654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89785051345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85769176483154</t>
+    <t xml:space="preserve">2.89785027503967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85769152641296</t>
   </si>
   <si>
     <t xml:space="preserve">2.78379940986633</t>
@@ -275,79 +275,79 @@
     <t xml:space="preserve">2.7050883769989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73560881614685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76934218406677</t>
+    <t xml:space="preserve">2.73560905456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76934242248535</t>
   </si>
   <si>
     <t xml:space="preserve">2.81913900375366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83520245552063</t>
+    <t xml:space="preserve">2.83520269393921</t>
   </si>
   <si>
     <t xml:space="preserve">2.77898049354553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64244103431702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58621859550476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54445385932922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52999663352966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57015538215637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65803790092468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6397979259491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6116099357605</t>
+    <t xml:space="preserve">2.64244055747986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58621883392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54445362091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52999687194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57015514373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65803837776184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63979840278625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61160969734192</t>
   </si>
   <si>
     <t xml:space="preserve">2.61326766014099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66135430335999</t>
+    <t xml:space="preserve">2.66135454177856</t>
   </si>
   <si>
     <t xml:space="preserve">2.64477300643921</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63316559791565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65306353569031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77576780319214</t>
+    <t xml:space="preserve">2.63316583633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65306377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77576756477356</t>
   </si>
   <si>
     <t xml:space="preserve">2.87691593170166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86033415794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73597168922424</t>
+    <t xml:space="preserve">2.86033391952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73597192764282</t>
   </si>
   <si>
     <t xml:space="preserve">2.76913499832153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49553799629211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44579315185547</t>
+    <t xml:space="preserve">2.49553775787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44579291343689</t>
   </si>
   <si>
     <t xml:space="preserve">2.55357360839844</t>
@@ -371,43 +371,43 @@
     <t xml:space="preserve">2.27997660636902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34132838249207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31977248191833</t>
+    <t xml:space="preserve">2.34132862091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31977224349976</t>
   </si>
   <si>
     <t xml:space="preserve">2.40433883666992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42092037200928</t>
+    <t xml:space="preserve">2.4209201335907</t>
   </si>
   <si>
     <t xml:space="preserve">2.33801245689392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2368643283844</t>
+    <t xml:space="preserve">2.23686408996582</t>
   </si>
   <si>
     <t xml:space="preserve">2.27002763748169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32972121238708</t>
+    <t xml:space="preserve">2.32972145080566</t>
   </si>
   <si>
     <t xml:space="preserve">2.35127758979797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37780833244324</t>
+    <t xml:space="preserve">2.37780857086182</t>
   </si>
   <si>
     <t xml:space="preserve">2.38278293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37946581840515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36620092391968</t>
+    <t xml:space="preserve">2.37946629524231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36620140075684</t>
   </si>
   <si>
     <t xml:space="preserve">2.42921137809753</t>
@@ -416,43 +416,43 @@
     <t xml:space="preserve">2.58673667907715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59502792358398</t>
+    <t xml:space="preserve">2.59502768516541</t>
   </si>
   <si>
     <t xml:space="preserve">2.61989998817444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95484948158264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89515590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8686249256134</t>
+    <t xml:space="preserve">2.95484924316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89515566825867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86862468719482</t>
   </si>
   <si>
     <t xml:space="preserve">2.64808893203735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62819123268127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62487506866455</t>
+    <t xml:space="preserve">2.62819147109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62487483024597</t>
   </si>
   <si>
     <t xml:space="preserve">2.61824226379395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58342051506042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58839511871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68954300880432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68291091918945</t>
+    <t xml:space="preserve">2.583420753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58839535713196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6895432472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68291068077087</t>
   </si>
   <si>
     <t xml:space="preserve">2.69949197769165</t>
@@ -482,10 +482,10 @@
     <t xml:space="preserve">2.78571653366089</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70778322219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71109962463379</t>
+    <t xml:space="preserve">2.70778298377991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71109938621521</t>
   </si>
   <si>
     <t xml:space="preserve">2.79732394218445</t>
@@ -497,16 +497,16 @@
     <t xml:space="preserve">2.76084423065186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78240060806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7956657409668</t>
+    <t xml:space="preserve">2.78240036964417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79566550254822</t>
   </si>
   <si>
     <t xml:space="preserve">2.82551288604736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.857017993927</t>
+    <t xml:space="preserve">2.85701775550842</t>
   </si>
   <si>
     <t xml:space="preserve">2.74923706054688</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">2.72104811668396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70115041732788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67793607711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.649747133255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66964507102966</t>
+    <t xml:space="preserve">2.7011501789093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6779363155365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64974737167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66964530944824</t>
   </si>
   <si>
     <t xml:space="preserve">2.71938991546631</t>
@@ -539,19 +539,19 @@
     <t xml:space="preserve">2.65472149848938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73099756240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76416063308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81058931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78074264526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77742576599121</t>
+    <t xml:space="preserve">2.73099732398987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76416087150574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81058979034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78074216842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77742600440979</t>
   </si>
   <si>
     <t xml:space="preserve">2.88520693778992</t>
@@ -560,25 +560,25 @@
     <t xml:space="preserve">2.7989821434021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81722164154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79400777816772</t>
+    <t xml:space="preserve">2.81722211837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79400730133057</t>
   </si>
   <si>
     <t xml:space="preserve">2.7591860294342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7442626953125</t>
+    <t xml:space="preserve">2.74426245689392</t>
   </si>
   <si>
     <t xml:space="preserve">2.66467094421387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78737497329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72933888435364</t>
+    <t xml:space="preserve">2.78737473487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72933912277222</t>
   </si>
   <si>
     <t xml:space="preserve">2.67627763748169</t>
@@ -587,22 +587,22 @@
     <t xml:space="preserve">2.64643049240112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60497689247131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60166049003601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56352257728577</t>
+    <t xml:space="preserve">2.60497713088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60166025161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56352281570435</t>
   </si>
   <si>
     <t xml:space="preserve">2.51709413528442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55191564559937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63648176193237</t>
+    <t xml:space="preserve">2.55191588401794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63648223876953</t>
   </si>
   <si>
     <t xml:space="preserve">2.68456864356995</t>
@@ -614,67 +614,67 @@
     <t xml:space="preserve">2.72270631790161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77908396720886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83877801895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82717061042786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83380341529846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75421166419983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82882881164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82053828239441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77245163917542</t>
+    <t xml:space="preserve">2.77908420562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83877825737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82717084884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83380365371704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75421190261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82882905006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82053780555725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77245140075684</t>
   </si>
   <si>
     <t xml:space="preserve">2.80064034461975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83546161651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80229878425598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65638017654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67959427833557</t>
+    <t xml:space="preserve">2.83546185493469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8022985458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65637993812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67959451675415</t>
   </si>
   <si>
     <t xml:space="preserve">2.70280861854553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74757862091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75255298614502</t>
+    <t xml:space="preserve">2.74757885932922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7525532245636</t>
   </si>
   <si>
     <t xml:space="preserve">2.98137998580933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94324231147766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05931401252747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03444170951843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02946710586548</t>
+    <t xml:space="preserve">2.94324207305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05931377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03444147109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0294668674469</t>
   </si>
   <si>
     <t xml:space="preserve">3.02283430099487</t>
@@ -701,10 +701,10 @@
     <t xml:space="preserve">2.90178823471069</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87857413291931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90676236152649</t>
+    <t xml:space="preserve">2.87857389450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90676259994507</t>
   </si>
   <si>
     <t xml:space="preserve">2.97806406021118</t>
@@ -713,10 +713,10 @@
     <t xml:space="preserve">2.98469662666321</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05102348327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97308921813965</t>
+    <t xml:space="preserve">3.05102324485779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97308897972107</t>
   </si>
   <si>
     <t xml:space="preserve">2.97474765777588</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">3.11071729660034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11734986305237</t>
+    <t xml:space="preserve">3.11734962463379</t>
   </si>
   <si>
     <t xml:space="preserve">3.05599761009216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03941583633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06760478019714</t>
+    <t xml:space="preserve">3.03941607475281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06760454177856</t>
   </si>
   <si>
     <t xml:space="preserve">3.15862131118774</t>
@@ -764,22 +764,22 @@
     <t xml:space="preserve">3.253009557724</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24458169937134</t>
+    <t xml:space="preserve">3.24458146095276</t>
   </si>
   <si>
     <t xml:space="preserve">3.31368732452393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28166317939758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23109817504883</t>
+    <t xml:space="preserve">3.281662940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23109841346741</t>
   </si>
   <si>
     <t xml:space="preserve">3.21761393547058</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23446893692017</t>
+    <t xml:space="preserve">3.23446917533875</t>
   </si>
   <si>
     <t xml:space="preserve">3.13839530944824</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">3.0423219203949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11985540390015</t>
+    <t xml:space="preserve">3.11985516548157</t>
   </si>
   <si>
     <t xml:space="preserve">3.1265971660614</t>
@@ -803,16 +803,16 @@
     <t xml:space="preserve">3.08614540100098</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05412077903748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05074954032898</t>
+    <t xml:space="preserve">3.05412101745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05074977874756</t>
   </si>
   <si>
     <t xml:space="preserve">3.05917763710022</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99681401252747</t>
+    <t xml:space="preserve">2.99681377410889</t>
   </si>
   <si>
     <t xml:space="preserve">3.01535439491272</t>
@@ -830,10 +830,10 @@
     <t xml:space="preserve">3.17042016983032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17379117012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21087217330933</t>
+    <t xml:space="preserve">3.17379093170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21087193489075</t>
   </si>
   <si>
     <t xml:space="preserve">3.22772693634033</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">3.37436532974243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33728432655334</t>
+    <t xml:space="preserve">3.33728456497192</t>
   </si>
   <si>
     <t xml:space="preserve">3.36256718635559</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">3.32885670661926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16030716896057</t>
+    <t xml:space="preserve">3.16030740737915</t>
   </si>
   <si>
     <t xml:space="preserve">3.22267031669617</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">3.21424317359924</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11311340332031</t>
+    <t xml:space="preserve">3.11311316490173</t>
   </si>
   <si>
     <t xml:space="preserve">3.1181697845459</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">3.14682292938232</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19064617156982</t>
+    <t xml:space="preserve">3.19064593315125</t>
   </si>
   <si>
     <t xml:space="preserve">3.09288740158081</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">3.15693616867065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1350245475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15356516838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19401717185974</t>
+    <t xml:space="preserve">3.13502478599548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15356540679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19401693344116</t>
   </si>
   <si>
     <t xml:space="preserve">3.17210555076599</t>
@@ -926,13 +926,13 @@
     <t xml:space="preserve">3.16704869270325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18390440940857</t>
+    <t xml:space="preserve">3.18390417098999</t>
   </si>
   <si>
     <t xml:space="preserve">3.19907331466675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20918655395508</t>
+    <t xml:space="preserve">3.2091863155365</t>
   </si>
   <si>
     <t xml:space="preserve">3.19233155250549</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">3.20413017272949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2209849357605</t>
+    <t xml:space="preserve">3.22098517417908</t>
   </si>
   <si>
     <t xml:space="preserve">3.24795293807983</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">3.16873455047607</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14345216751099</t>
+    <t xml:space="preserve">3.14345240592957</t>
   </si>
   <si>
     <t xml:space="preserve">3.16367793083191</t>
@@ -971,13 +971,13 @@
     <t xml:space="preserve">2.99175715446472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89399862289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93950700759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96647453308105</t>
+    <t xml:space="preserve">2.89399838447571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9395067691803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96647477149963</t>
   </si>
   <si>
     <t xml:space="preserve">2.96984601020813</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">3.02546739578247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94287824630737</t>
+    <t xml:space="preserve">2.94287800788879</t>
   </si>
   <si>
     <t xml:space="preserve">2.89736986160278</t>
@@ -1016,13 +1016,13 @@
     <t xml:space="preserve">2.84849047660828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87040138244629</t>
+    <t xml:space="preserve">2.87040162086487</t>
   </si>
   <si>
     <t xml:space="preserve">2.91591000556946</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03389501571655</t>
+    <t xml:space="preserve">3.03389477729797</t>
   </si>
   <si>
     <t xml:space="preserve">3.03052377700806</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">3.10131502151489</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13165378570557</t>
+    <t xml:space="preserve">3.13165402412415</t>
   </si>
   <si>
     <t xml:space="preserve">3.12491178512573</t>
@@ -1046,19 +1046,19 @@
     <t xml:space="preserve">3.08446002006531</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09794402122498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08951616287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11479878425598</t>
+    <t xml:space="preserve">3.0979437828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08951640129089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1147985458374</t>
   </si>
   <si>
     <t xml:space="preserve">3.14008092880249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17294812202454</t>
+    <t xml:space="preserve">3.17294836044312</t>
   </si>
   <si>
     <t xml:space="preserve">3.13081073760986</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">3.21929931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28250575065613</t>
+    <t xml:space="preserve">3.28250598907471</t>
   </si>
   <si>
     <t xml:space="preserve">3.24036836624146</t>
@@ -1076,16 +1076,16 @@
     <t xml:space="preserve">3.25722336769104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3204288482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28671956062317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02125334739685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03810858726501</t>
+    <t xml:space="preserve">3.32042908668518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28671932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02125358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03810882568359</t>
   </si>
   <si>
     <t xml:space="preserve">2.9833300113678</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">3.19823098182678</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13923835754395</t>
+    <t xml:space="preserve">3.13923811912537</t>
   </si>
   <si>
     <t xml:space="preserve">3.11395573616028</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">3.08867311477661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1097424030304</t>
+    <t xml:space="preserve">3.10974216461182</t>
   </si>
   <si>
     <t xml:space="preserve">3.10552835464478</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">3.40470409393311</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3162157535553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34149813652039</t>
+    <t xml:space="preserve">3.31621551513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34149789810181</t>
   </si>
   <si>
     <t xml:space="preserve">3.34992527961731</t>
@@ -1148,7 +1148,7 @@
     <t xml:space="preserve">3.30885696411133</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26605105400085</t>
+    <t xml:space="preserve">3.26605129241943</t>
   </si>
   <si>
     <t xml:space="preserve">3.27461266517639</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">3.15047717094421</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18472099304199</t>
+    <t xml:space="preserve">3.18472123146057</t>
   </si>
   <si>
     <t xml:space="preserve">3.20612382888794</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">3.17616009712219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18900179862976</t>
+    <t xml:space="preserve">3.18900156021118</t>
   </si>
   <si>
     <t xml:space="preserve">3.20184326171875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21040439605713</t>
+    <t xml:space="preserve">3.21040463447571</t>
   </si>
   <si>
     <t xml:space="preserve">3.21896553039551</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">3.2318069934845</t>
   </si>
   <si>
-    <t xml:space="preserve">3.171879529953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22324585914612</t>
+    <t xml:space="preserve">3.17187929153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2232460975647</t>
   </si>
   <si>
     <t xml:space="preserve">3.25749063491821</t>
@@ -1238,13 +1238,13 @@
     <t xml:space="preserve">3.3302595615387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39018702507019</t>
+    <t xml:space="preserve">3.39018726348877</t>
   </si>
   <si>
     <t xml:space="preserve">3.37734532356262</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34310078620911</t>
+    <t xml:space="preserve">3.34310102462769</t>
   </si>
   <si>
     <t xml:space="preserve">3.42443132400513</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">3.61277508735657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51860356330872</t>
+    <t xml:space="preserve">3.51860332489014</t>
   </si>
   <si>
     <t xml:space="preserve">3.55284762382507</t>
@@ -1283,13 +1283,13 @@
     <t xml:space="preserve">3.44583439826965</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5400059223175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36878442764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.385906457901</t>
+    <t xml:space="preserve">3.54000616073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36878418922424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38590621948242</t>
   </si>
   <si>
     <t xml:space="preserve">3.36450386047363</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">3.40730905532837</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33882069587708</t>
+    <t xml:space="preserve">3.3388204574585</t>
   </si>
   <si>
     <t xml:space="preserve">3.34738183021545</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">3.46723699569702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64701962471008</t>
+    <t xml:space="preserve">3.64701986312866</t>
   </si>
   <si>
     <t xml:space="preserve">3.65986108779907</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">3.65558052062988</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73691010475159</t>
+    <t xml:space="preserve">3.73691034317017</t>
   </si>
   <si>
     <t xml:space="preserve">3.62989687919617</t>
@@ -1331,19 +1331,19 @@
     <t xml:space="preserve">3.63845825195312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69410514831543</t>
+    <t xml:space="preserve">3.69410538673401</t>
   </si>
   <si>
     <t xml:space="preserve">3.85676598548889</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96377897262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79683828353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83964371681213</t>
+    <t xml:space="preserve">3.96377944946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79683804512024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83964395523071</t>
   </si>
   <si>
     <t xml:space="preserve">3.75831294059753</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">3.9038519859314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87816786766052</t>
+    <t xml:space="preserve">3.87816834449768</t>
   </si>
   <si>
     <t xml:space="preserve">3.91669368743896</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">3.99802398681641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98946213722229</t>
+    <t xml:space="preserve">3.98946261405945</t>
   </si>
   <si>
     <t xml:space="preserve">4.02370643615723</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">3.94665765762329</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89529037475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93809628486633</t>
+    <t xml:space="preserve">3.89529085159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93809580802917</t>
   </si>
   <si>
     <t xml:space="preserve">3.8696072101593</t>
@@ -1400,16 +1400,16 @@
     <t xml:space="preserve">3.80967974662781</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92097401618958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76687431335449</t>
+    <t xml:space="preserve">3.92097353935242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76687407493591</t>
   </si>
   <si>
     <t xml:space="preserve">3.98090147972107</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03226804733276</t>
+    <t xml:space="preserve">4.03226757049561</t>
   </si>
   <si>
     <t xml:space="preserve">4.07079315185547</t>
@@ -1424,25 +1424,25 @@
     <t xml:space="preserve">3.9509379863739</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92953515052795</t>
+    <t xml:space="preserve">3.92953562736511</t>
   </si>
   <si>
     <t xml:space="preserve">3.74119114875793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74975299835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66414189338684</t>
+    <t xml:space="preserve">3.74975323677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66414213180542</t>
   </si>
   <si>
     <t xml:space="preserve">3.60421395301819</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7797155380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71550846099854</t>
+    <t xml:space="preserve">3.77971601486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71550822257996</t>
   </si>
   <si>
     <t xml:space="preserve">3.85248517990112</t>
@@ -1463,16 +1463,16 @@
     <t xml:space="preserve">3.88244891166687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86104702949524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77115511894226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8053994178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82252168655396</t>
+    <t xml:space="preserve">3.86104655265808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77115488052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80539965629578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82252144813538</t>
   </si>
   <si>
     <t xml:space="preserve">3.72406888008118</t>
@@ -1487,10 +1487,10 @@
     <t xml:space="preserve">3.97233986854553</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01514625549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08791494369507</t>
+    <t xml:space="preserve">4.01514577865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08791542053223</t>
   </si>
   <si>
     <t xml:space="preserve">4.16924476623535</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">4.25485563278198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28053951263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32334470748901</t>
+    <t xml:space="preserve">4.28053903579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32334518432617</t>
   </si>
   <si>
     <t xml:space="preserve">4.27197790145874</t>
@@ -1514,13 +1514,13 @@
     <t xml:space="preserve">4.18208694458008</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17780590057373</t>
+    <t xml:space="preserve">4.17780637741089</t>
   </si>
   <si>
     <t xml:space="preserve">4.16068458557129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.229172706604</t>
+    <t xml:space="preserve">4.22917318344116</t>
   </si>
   <si>
     <t xml:space="preserve">4.17352533340454</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">4.16496467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14356184005737</t>
+    <t xml:space="preserve">4.14356231689453</t>
   </si>
   <si>
     <t xml:space="preserve">4.34902763366699</t>
@@ -1547,13 +1547,13 @@
     <t xml:space="preserve">4.67434930801392</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57161617279053</t>
+    <t xml:space="preserve">4.57161664962769</t>
   </si>
   <si>
     <t xml:space="preserve">4.71715402603149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76852178573608</t>
+    <t xml:space="preserve">4.76852130889893</t>
   </si>
   <si>
     <t xml:space="preserve">4.79420375823975</t>
@@ -1571,13 +1571,13 @@
     <t xml:space="preserve">4.53737163543701</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52881097793579</t>
+    <t xml:space="preserve">4.52881050109863</t>
   </si>
   <si>
     <t xml:space="preserve">4.56305456161499</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58017683029175</t>
+    <t xml:space="preserve">4.58017635345459</t>
   </si>
   <si>
     <t xml:space="preserve">4.6401047706604</t>
@@ -1592,19 +1592,19 @@
     <t xml:space="preserve">4.70003175735474</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49456644058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62298202514648</t>
+    <t xml:space="preserve">4.49456596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62298250198364</t>
   </si>
   <si>
     <t xml:space="preserve">4.8541316986084</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90549755096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83700942993164</t>
+    <t xml:space="preserve">4.90549802780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8370099067688</t>
   </si>
   <si>
     <t xml:space="preserve">4.78564262390137</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">4.4774432182312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46888303756714</t>
+    <t xml:space="preserve">4.46888256072998</t>
   </si>
   <si>
     <t xml:space="preserve">4.43463897705078</t>
@@ -62066,7 +62066,7 @@
     </row>
     <row r="2224">
       <c r="A2224" s="1" t="n">
-        <v>45560.6296875</v>
+        <v>45560.2916666667</v>
       </c>
       <c r="B2224" t="n">
         <v>18415</v>
@@ -62087,6 +62087,32 @@
         <v>1294</v>
       </c>
       <c r="H2224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" s="1" t="n">
+        <v>45561.6226388889</v>
+      </c>
+      <c r="B2225" t="n">
+        <v>16160</v>
+      </c>
+      <c r="C2225" t="n">
+        <v>3.19000005722046</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>3.07999992370605</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>3.14000010490417</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="G2225" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H2225" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BAN.MI.xlsx
+++ b/data/BAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1315">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74278855323792</t>
+    <t xml:space="preserve">3.74278807640076</t>
   </si>
   <si>
     <t xml:space="preserve">BAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75724577903748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66247153282166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53235673904419</t>
+    <t xml:space="preserve">3.75724601745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6624710559845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53235721588135</t>
   </si>
   <si>
     <t xml:space="preserve">3.48737955093384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42473173141479</t>
+    <t xml:space="preserve">3.42473149299622</t>
   </si>
   <si>
     <t xml:space="preserve">3.51468706130981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53396368026733</t>
+    <t xml:space="preserve">3.53396320343018</t>
   </si>
   <si>
     <t xml:space="preserve">3.5211124420166</t>
@@ -71,46 +71,46 @@
     <t xml:space="preserve">3.50022983551025</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45204019546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47774124145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17896103858948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30586242675781</t>
+    <t xml:space="preserve">3.45203971862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47774171829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1789608001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30586266517639</t>
   </si>
   <si>
     <t xml:space="preserve">3.35726523399353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27694797515869</t>
+    <t xml:space="preserve">3.27694821357727</t>
   </si>
   <si>
     <t xml:space="preserve">3.33317017555237</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25767207145691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19663095474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2930109500885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2303638458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23678922653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13237690925598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21269392967224</t>
+    <t xml:space="preserve">3.25767230987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19663047790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29301142692566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23036360740662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23678994178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13237714767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21269416809082</t>
   </si>
   <si>
     <t xml:space="preserve">3.11149454116821</t>
@@ -125,13 +125,13 @@
     <t xml:space="preserve">2.89142465591431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88339281082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80789494514465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80950117111206</t>
+    <t xml:space="preserve">2.88339304924011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80789470672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80950093269348</t>
   </si>
   <si>
     <t xml:space="preserve">2.81110739707947</t>
@@ -140,28 +140,28 @@
     <t xml:space="preserve">2.95246601104736</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04242134094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02153897285461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05366635322571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12113213539124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17253541946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13077020645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02314496040344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05205965042114</t>
+    <t xml:space="preserve">3.0424211025238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02153873443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05366611480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12113237380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17253565788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13077068328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314519882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05205941200256</t>
   </si>
   <si>
     <t xml:space="preserve">3.06812310218811</t>
@@ -173,43 +173,43 @@
     <t xml:space="preserve">3.12434530258179</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18056702613831</t>
+    <t xml:space="preserve">3.18056726455688</t>
   </si>
   <si>
     <t xml:space="preserve">3.24482107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16450381278992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19984340667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29783034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40545558929443</t>
+    <t xml:space="preserve">3.16450357437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19984316825867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29783058166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40545582771301</t>
   </si>
   <si>
     <t xml:space="preserve">3.3733286857605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30907487869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30746841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18859910964966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2608847618103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26730990409851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16611003875732</t>
+    <t xml:space="preserve">3.30907535552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30746865272522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18859887123108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26088452339172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26731014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16610980033875</t>
   </si>
   <si>
     <t xml:space="preserve">3.1757481098175</t>
@@ -218,10 +218,10 @@
     <t xml:space="preserve">3.20466232299805</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10828137397766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06009125709534</t>
+    <t xml:space="preserve">3.10828161239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06009101867676</t>
   </si>
   <si>
     <t xml:space="preserve">3.01993250846863</t>
@@ -233,40 +233,40 @@
     <t xml:space="preserve">3.0279643535614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92033886909485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93158340454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96852946281433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04563403129578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06169772148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07615447044373</t>
+    <t xml:space="preserve">2.92033910751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93158316612244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96852993965149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0456337928772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06169724464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0761547088623</t>
   </si>
   <si>
     <t xml:space="preserve">2.98619937896729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97977375984192</t>
+    <t xml:space="preserve">2.9797739982605</t>
   </si>
   <si>
     <t xml:space="preserve">2.91552019119263</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87054252624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89785027503967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85769176483154</t>
+    <t xml:space="preserve">2.87054228782654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89785003662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85769152641296</t>
   </si>
   <si>
     <t xml:space="preserve">2.78379964828491</t>
@@ -275,10 +275,10 @@
     <t xml:space="preserve">2.7050883769989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73560905456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76934218406677</t>
+    <t xml:space="preserve">2.73560929298401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76934242248535</t>
   </si>
   <si>
     <t xml:space="preserve">2.81913924217224</t>
@@ -293,16 +293,16 @@
     <t xml:space="preserve">2.64244055747986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58621859550476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54445385932922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52999663352966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57015538215637</t>
+    <t xml:space="preserve">2.58621883392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54445362091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52999687194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57015562057495</t>
   </si>
   <si>
     <t xml:space="preserve">2.65803837776184</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">2.63979840278625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61160922050476</t>
+    <t xml:space="preserve">2.61160969734192</t>
   </si>
   <si>
     <t xml:space="preserve">2.61326742172241</t>
@@ -320,10 +320,10 @@
     <t xml:space="preserve">2.66135454177856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64477276802063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63316583633423</t>
+    <t xml:space="preserve">2.64477300643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63316559791565</t>
   </si>
   <si>
     <t xml:space="preserve">2.65306377410889</t>
@@ -338,19 +338,19 @@
     <t xml:space="preserve">2.86033415794373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73597168922424</t>
+    <t xml:space="preserve">2.73597192764282</t>
   </si>
   <si>
     <t xml:space="preserve">2.76913499832153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49553775787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44579315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55357336997986</t>
+    <t xml:space="preserve">2.49553799629211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44579291343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55357360839844</t>
   </si>
   <si>
     <t xml:space="preserve">2.5253849029541</t>
@@ -377,46 +377,46 @@
     <t xml:space="preserve">2.34132838249207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31977272033691</t>
+    <t xml:space="preserve">2.31977248191833</t>
   </si>
   <si>
     <t xml:space="preserve">2.40433883666992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42092037200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33801221847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23686408996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27002739906311</t>
+    <t xml:space="preserve">2.42092061042786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33801245689392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23686456680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27002763748169</t>
   </si>
   <si>
     <t xml:space="preserve">2.32972145080566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35127758979797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37780809402466</t>
+    <t xml:space="preserve">2.35127735137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37780833244324</t>
   </si>
   <si>
     <t xml:space="preserve">2.38278293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37946629524231</t>
+    <t xml:space="preserve">2.37946653366089</t>
   </si>
   <si>
     <t xml:space="preserve">2.36620116233826</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42921137809753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58673691749573</t>
+    <t xml:space="preserve">2.42921113967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58673667907715</t>
   </si>
   <si>
     <t xml:space="preserve">2.59502792358398</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">2.61990022659302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95484924316406</t>
+    <t xml:space="preserve">2.95484948158264</t>
   </si>
   <si>
     <t xml:space="preserve">2.89515566825867</t>
@@ -434,76 +434,76 @@
     <t xml:space="preserve">2.8686249256134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64808917045593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6281909942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62487459182739</t>
+    <t xml:space="preserve">2.64808940887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62819123268127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62487483024597</t>
   </si>
   <si>
     <t xml:space="preserve">2.61824226379395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58342027664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58839535713196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6895432472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68291044235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69949197769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70612478256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69120121002197</t>
+    <t xml:space="preserve">2.58342051506042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58839511871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68954348564148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68291068077087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69949221611023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70612454414368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69120144844055</t>
   </si>
   <si>
     <t xml:space="preserve">2.69451761245728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74592113494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81224727630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84872722625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81888055801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78571629524231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70778274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71109962463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79732370376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82385444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76084399223328</t>
+    <t xml:space="preserve">2.74592089653015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81224751472473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84872698783875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81888031959534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78571653366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70778298377991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71109914779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79732418060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82385468482971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76084423065186</t>
   </si>
   <si>
     <t xml:space="preserve">2.78240036964417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79566550254822</t>
+    <t xml:space="preserve">2.7956657409668</t>
   </si>
   <si>
     <t xml:space="preserve">2.82551264762878</t>
@@ -515,70 +515,70 @@
     <t xml:space="preserve">2.74923706054688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72104859352112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70115041732788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6779363155365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64974761009216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66964507102966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71939015388489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68622708320618</t>
+    <t xml:space="preserve">2.72104811668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7011501789093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67793607711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64974737167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66964530944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71938991546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6862268447876</t>
   </si>
   <si>
     <t xml:space="preserve">2.74260449409485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65472149848938</t>
+    <t xml:space="preserve">2.65472173690796</t>
   </si>
   <si>
     <t xml:space="preserve">2.73099732398987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76416110992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81058931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78074240684509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77742576599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88520646095276</t>
+    <t xml:space="preserve">2.76416063308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81058955192566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78074216842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77742600440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88520693778992</t>
   </si>
   <si>
     <t xml:space="preserve">2.7989821434021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81722164154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79400753974915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75918626785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7442626953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66467046737671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78737473487854</t>
+    <t xml:space="preserve">2.81722187995911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79400730133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7591860294342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74426245689392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66467070579529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78737497329712</t>
   </si>
   <si>
     <t xml:space="preserve">2.72933888435364</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">2.67627787590027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64643049240112</t>
+    <t xml:space="preserve">2.6464307308197</t>
   </si>
   <si>
     <t xml:space="preserve">2.60497689247131</t>
@@ -599,16 +599,16 @@
     <t xml:space="preserve">2.56352257728577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.517094373703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55191564559937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63648176193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68456816673279</t>
+    <t xml:space="preserve">2.51709389686584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55191588401794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63648200035095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68456888198853</t>
   </si>
   <si>
     <t xml:space="preserve">2.70944118499756</t>
@@ -620,19 +620,19 @@
     <t xml:space="preserve">2.77908396720886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83877825737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82717132568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83380341529846</t>
+    <t xml:space="preserve">2.83877801895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82717084884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83380365371704</t>
   </si>
   <si>
     <t xml:space="preserve">2.75421166419983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82882881164551</t>
+    <t xml:space="preserve">2.82882905006409</t>
   </si>
   <si>
     <t xml:space="preserve">2.82053804397583</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">2.77245140075684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80064010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83546209335327</t>
+    <t xml:space="preserve">2.80064058303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83546137809753</t>
   </si>
   <si>
     <t xml:space="preserve">2.8022985458374</t>
@@ -656,13 +656,13 @@
     <t xml:space="preserve">2.67959427833557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70280861854553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7475790977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75255298614502</t>
+    <t xml:space="preserve">2.70280838012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74757885932922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75255346298218</t>
   </si>
   <si>
     <t xml:space="preserve">2.98138022422791</t>
@@ -671,37 +671,37 @@
     <t xml:space="preserve">2.94324231147766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05931353569031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03444170951843</t>
+    <t xml:space="preserve">3.05931401252747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03444123268127</t>
   </si>
   <si>
     <t xml:space="preserve">3.0294668674469</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02283453941345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00127792358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99298739433289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95650744438171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94987535476685</t>
+    <t xml:space="preserve">3.02283430099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00127768516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99298691749573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95650768280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94987511634827</t>
   </si>
   <si>
     <t xml:space="preserve">2.93660998344421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93329358100891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90178799629211</t>
+    <t xml:space="preserve">2.93329334259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90178823471069</t>
   </si>
   <si>
     <t xml:space="preserve">2.87857389450073</t>
@@ -710,31 +710,31 @@
     <t xml:space="preserve">2.90676307678223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9780638217926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98469662666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05102300643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97308921813965</t>
+    <t xml:space="preserve">2.97806358337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98469638824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05102324485779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97308945655823</t>
   </si>
   <si>
     <t xml:space="preserve">2.97474718093872</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0178599357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01620149612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01122713088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11071729660034</t>
+    <t xml:space="preserve">3.01786017417908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01620173454285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01122689247131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11071705818176</t>
   </si>
   <si>
     <t xml:space="preserve">3.11734962463379</t>
@@ -752,55 +752,55 @@
     <t xml:space="preserve">3.15862154960632</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1788477897644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23278379440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20244455337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20750117301941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.253009557724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24458193778992</t>
+    <t xml:space="preserve">3.17884755134583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2327835559845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20244431495667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20750093460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25300931930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24458169937134</t>
   </si>
   <si>
     <t xml:space="preserve">3.31368732452393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28166270256042</t>
+    <t xml:space="preserve">3.281662940979</t>
   </si>
   <si>
     <t xml:space="preserve">3.23109793663025</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21761417388916</t>
+    <t xml:space="preserve">3.21761393547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.23446917533875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13839530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13670992851257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04232239723206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11985540390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1265971660614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09457278251648</t>
+    <t xml:space="preserve">3.13839554786682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13671016693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04232215881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11985516548157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12659692764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0945725440979</t>
   </si>
   <si>
     <t xml:space="preserve">3.08614540100098</t>
@@ -812,16 +812,16 @@
     <t xml:space="preserve">3.05074954032898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05917716026306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99681401252747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01535415649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14176654815674</t>
+    <t xml:space="preserve">3.05917739868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99681377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01535439491272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14176630973816</t>
   </si>
   <si>
     <t xml:space="preserve">3.15019392967224</t>
@@ -830,10 +830,10 @@
     <t xml:space="preserve">3.14850854873657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17042016983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17379117012024</t>
+    <t xml:space="preserve">3.1704204082489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17379093170166</t>
   </si>
   <si>
     <t xml:space="preserve">3.21087217330933</t>
@@ -845,37 +845,37 @@
     <t xml:space="preserve">3.269864320755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27829217910767</t>
+    <t xml:space="preserve">3.27829194068909</t>
   </si>
   <si>
     <t xml:space="preserve">3.29514694213867</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29851770401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31874346733093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36088085174561</t>
+    <t xml:space="preserve">3.29851794242859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31874370574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36088109016418</t>
   </si>
   <si>
     <t xml:space="preserve">3.37436532974243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33728456497192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36256670951843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28840494155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31537270545959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25806570053101</t>
+    <t xml:space="preserve">3.33728432655334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36256694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28840470314026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31537294387817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25806593894958</t>
   </si>
   <si>
     <t xml:space="preserve">3.32885670661926</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">3.22267031669617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23615455627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23783993721008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21424269676208</t>
+    <t xml:space="preserve">3.23615431785583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23784017562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21424317359924</t>
   </si>
   <si>
     <t xml:space="preserve">3.11311292648315</t>
@@ -911,43 +911,43 @@
     <t xml:space="preserve">3.09288716316223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15693616867065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13502478599548</t>
+    <t xml:space="preserve">3.15693640708923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1350245475769</t>
   </si>
   <si>
     <t xml:space="preserve">3.15356516838074</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19401669502258</t>
+    <t xml:space="preserve">3.19401717185974</t>
   </si>
   <si>
     <t xml:space="preserve">3.17210555076599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16704916954041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18390393257141</t>
+    <t xml:space="preserve">3.16704893112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18390417098999</t>
   </si>
   <si>
     <t xml:space="preserve">3.19907355308533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2091863155365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19233179092407</t>
+    <t xml:space="preserve">3.20918655395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19233155250549</t>
   </si>
   <si>
     <t xml:space="preserve">3.20413017272949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22098517417908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24795293807983</t>
+    <t xml:space="preserve">3.2209849357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24795317649841</t>
   </si>
   <si>
     <t xml:space="preserve">3.16873455047607</t>
@@ -959,31 +959,31 @@
     <t xml:space="preserve">3.16367793083191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16536378860474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18558931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15187978744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00861215591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9917573928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89399838447571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93950700759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96647500991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96984577178955</t>
+    <t xml:space="preserve">3.16536355018616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18558955192566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15187954902649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00861239433289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99175715446472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89399862289429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93950653076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96647477149963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96984601020813</t>
   </si>
   <si>
     <t xml:space="preserve">3.00524139404297</t>
@@ -992,13 +992,13 @@
     <t xml:space="preserve">3.0001847743988</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02546715736389</t>
+    <t xml:space="preserve">3.02546691894531</t>
   </si>
   <si>
     <t xml:space="preserve">2.94287824630737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89736938476562</t>
+    <t xml:space="preserve">2.8973696231842</t>
   </si>
   <si>
     <t xml:space="preserve">2.88557100296021</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">2.86534523963928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84848976135254</t>
+    <t xml:space="preserve">2.8484902381897</t>
   </si>
   <si>
     <t xml:space="preserve">2.87040138244629</t>
@@ -1028,181 +1028,181 @@
     <t xml:space="preserve">3.03389477729797</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03052401542664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07603216171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11648368835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10131502151489</t>
+    <t xml:space="preserve">3.03052377700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07603240013123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11648416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10131430625916</t>
   </si>
   <si>
     <t xml:space="preserve">3.13165378570557</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12491130828857</t>
+    <t xml:space="preserve">3.12491154670715</t>
   </si>
   <si>
     <t xml:space="preserve">3.08446002006531</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0979437828064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08951640129089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11479902267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14008116722107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17294812202454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13081073760986</t>
+    <t xml:space="preserve">3.09794402122498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08951592445374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1147985458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14008092880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17294859886169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13081097602844</t>
   </si>
   <si>
     <t xml:space="preserve">3.21929931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28250527381897</t>
+    <t xml:space="preserve">3.28250575065613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24036836624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25722312927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32042956352234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28671979904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02125382423401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03810858726501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9833300113678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93276500701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19823122024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13923835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11395573616028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09710121154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97911643981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14766573905945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08024573326111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08867359161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1097424030304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10552835464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21508574485779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40470385551453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3162157535553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34149813652039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34992527961731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31200170516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24879598617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30885672569275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26605153083801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27461266517639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25320959091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2874538898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22752666473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15047645568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18472099304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20612382888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27033185958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32169842720032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31313729286194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16759920120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13335490226746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24892973899841</t>
   </si>
   <si>
     <t xml:space="preserve">3.24036812782288</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25722336769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32042956352234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28671932220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02125358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03810882568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98332977294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93276524543762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1982307434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13923835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11395573616028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09710073471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97911596298218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14766573905945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08024573326111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08867311477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10974216461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10552835464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21508574485779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40470409393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3162157535553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34149813652039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34992527961731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31200194358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24879574775696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30885696411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26605129241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27461242675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25320982933044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28745412826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22752666473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15047717094421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18472123146057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20612359046936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27033185958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32169818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31313729286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16759920120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13335490226746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24892926216125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2403678894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17616009712219</t>
+    <t xml:space="preserve">3.17615985870361</t>
   </si>
   <si>
     <t xml:space="preserve">3.18900179862976</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20184350013733</t>
+    <t xml:space="preserve">3.20184326171875</t>
   </si>
   <si>
     <t xml:space="preserve">3.21040415763855</t>
@@ -1211,10 +1211,10 @@
     <t xml:space="preserve">3.21896553039551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23608732223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14619612693787</t>
+    <t xml:space="preserve">3.23608756065369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14619660377502</t>
   </si>
   <si>
     <t xml:space="preserve">3.19756269454956</t>
@@ -1223,10 +1223,10 @@
     <t xml:space="preserve">3.23180723190308</t>
   </si>
   <si>
-    <t xml:space="preserve">3.171879529953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2232460975647</t>
+    <t xml:space="preserve">3.17187976837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22324633598328</t>
   </si>
   <si>
     <t xml:space="preserve">3.25749039649963</t>
@@ -1235,16 +1235,16 @@
     <t xml:space="preserve">3.278892993927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30029582977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33025979995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39018726348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37734508514404</t>
+    <t xml:space="preserve">3.30029606819153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3302595615387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39018702507019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37734532356262</t>
   </si>
   <si>
     <t xml:space="preserve">3.34310102462769</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">3.50148153305054</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61277484893799</t>
+    <t xml:space="preserve">3.61277508735657</t>
   </si>
   <si>
     <t xml:space="preserve">3.51860332489014</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">3.55284762382507</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58709192276001</t>
+    <t xml:space="preserve">3.58709216117859</t>
   </si>
   <si>
     <t xml:space="preserve">3.54428648948669</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">3.44583415985107</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54000568389893</t>
+    <t xml:space="preserve">3.54000616073608</t>
   </si>
   <si>
     <t xml:space="preserve">3.36878442764282</t>
@@ -1295,16 +1295,16 @@
     <t xml:space="preserve">3.385906457901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36450409889221</t>
+    <t xml:space="preserve">3.36450362205505</t>
   </si>
   <si>
     <t xml:space="preserve">3.40730929374695</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33882069587708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34738159179688</t>
+    <t xml:space="preserve">3.33882093429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34738183021545</t>
   </si>
   <si>
     <t xml:space="preserve">3.46723699569702</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">3.64701962471008</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65986108779907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62133646011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65129971504211</t>
+    <t xml:space="preserve">3.65986084938049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62133598327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65129995346069</t>
   </si>
   <si>
     <t xml:space="preserve">3.65558075904846</t>
@@ -1328,13 +1328,13 @@
     <t xml:space="preserve">3.73691034317017</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62989664077759</t>
+    <t xml:space="preserve">3.62989711761475</t>
   </si>
   <si>
     <t xml:space="preserve">3.63845825195312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69410538673401</t>
+    <t xml:space="preserve">3.69410562515259</t>
   </si>
   <si>
     <t xml:space="preserve">3.85676598548889</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">3.96377897262573</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79683828353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83964371681213</t>
+    <t xml:space="preserve">3.79683780670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83964323997498</t>
   </si>
   <si>
     <t xml:space="preserve">3.75831317901611</t>
@@ -1361,37 +1361,37 @@
     <t xml:space="preserve">3.87816882133484</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91669321060181</t>
+    <t xml:space="preserve">3.91669368743896</t>
   </si>
   <si>
     <t xml:space="preserve">3.99802350997925</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98946213722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02370691299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14784288406372</t>
+    <t xml:space="preserve">3.98946261405945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02370643615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14784240722656</t>
   </si>
   <si>
     <t xml:space="preserve">4.10075664520264</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00658464431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94665670394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89529037475586</t>
+    <t xml:space="preserve">4.00658416748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94665765762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89529085159302</t>
   </si>
   <si>
     <t xml:space="preserve">3.93809580802917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86960768699646</t>
+    <t xml:space="preserve">3.8696072101593</t>
   </si>
   <si>
     <t xml:space="preserve">3.94237685203552</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">3.95521783828735</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80967974662781</t>
+    <t xml:space="preserve">3.80967950820923</t>
   </si>
   <si>
     <t xml:space="preserve">3.92097401618958</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">4.08363437652588</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99374294281006</t>
+    <t xml:space="preserve">3.99374341964722</t>
   </si>
   <si>
     <t xml:space="preserve">3.95093750953674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92953515052795</t>
+    <t xml:space="preserve">3.9295346736908</t>
   </si>
   <si>
     <t xml:space="preserve">3.74119114875793</t>
@@ -1439,25 +1439,25 @@
     <t xml:space="preserve">3.66414189338684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60421419143677</t>
+    <t xml:space="preserve">3.60421395301819</t>
   </si>
   <si>
     <t xml:space="preserve">3.77971601486206</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71550846099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85248565673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79255747795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71978855133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77543520927429</t>
+    <t xml:space="preserve">3.71550798416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85248517990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79255795478821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71978878974915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77543568611145</t>
   </si>
   <si>
     <t xml:space="preserve">3.75403308868408</t>
@@ -1466,28 +1466,28 @@
     <t xml:space="preserve">3.88244891166687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86104702949524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77115488052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80539965629578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82252192497253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72406911849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73263025283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93381547927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97234034538269</t>
+    <t xml:space="preserve">3.86104607582092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77115535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80539989471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82252168655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72406935691833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73263049125671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93381500244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97234082221985</t>
   </si>
   <si>
     <t xml:space="preserve">4.01514577865601</t>
@@ -1499,52 +1499,52 @@
     <t xml:space="preserve">4.16924476623535</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19492816925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25485563278198</t>
+    <t xml:space="preserve">4.19492864608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25485610961914</t>
   </si>
   <si>
     <t xml:space="preserve">4.28053951263428</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32334423065186</t>
+    <t xml:space="preserve">4.32334470748901</t>
   </si>
   <si>
     <t xml:space="preserve">4.27197790145874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18208742141724</t>
+    <t xml:space="preserve">4.18208694458008</t>
   </si>
   <si>
     <t xml:space="preserve">4.17780637741089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16068410873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.229172706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17352533340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16496467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14356231689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34902715682983</t>
+    <t xml:space="preserve">4.16068458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22917318344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1735258102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16496419906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14356184005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34902811050415</t>
   </si>
   <si>
     <t xml:space="preserve">4.4860053062439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61442089080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58873796463013</t>
+    <t xml:space="preserve">4.61442184448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58873844146729</t>
   </si>
   <si>
     <t xml:space="preserve">4.67434883117676</t>
@@ -1553,16 +1553,16 @@
     <t xml:space="preserve">4.57161617279053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71715450286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76852035522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79420375823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77708148956299</t>
+    <t xml:space="preserve">4.71715402603149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76852083206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7942042350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77708196640015</t>
   </si>
   <si>
     <t xml:space="preserve">4.75995969772339</t>
@@ -1577,19 +1577,19 @@
     <t xml:space="preserve">4.52881002426147</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56305456161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58017683029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64010429382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69147109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70859336853027</t>
+    <t xml:space="preserve">4.56305503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58017635345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6401047706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69147062301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70859384536743</t>
   </si>
   <si>
     <t xml:space="preserve">4.70003175735474</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">4.49456644058228</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62298250198364</t>
+    <t xml:space="preserve">4.62298202514648</t>
   </si>
   <si>
     <t xml:space="preserve">4.85413122177124</t>
@@ -1607,13 +1607,13 @@
     <t xml:space="preserve">4.90549802780151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83700895309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78564310073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75139808654785</t>
+    <t xml:space="preserve">4.83700942993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78564262390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75139904022217</t>
   </si>
   <si>
     <t xml:space="preserve">4.59729909896851</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">4.63154315948486</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55449342727661</t>
+    <t xml:space="preserve">4.55449438095093</t>
   </si>
   <si>
     <t xml:space="preserve">4.50312805175781</t>
@@ -1634,61 +1634,64 @@
     <t xml:space="preserve">4.46888256072998</t>
   </si>
   <si>
+    <t xml:space="preserve">4.43463897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55733585357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60992050170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48722314834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46093082427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39081811904907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35576152801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41711044311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39958238601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46969509124756</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.43463850021362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55733585357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60992097854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48722314834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46093130111694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39081859588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35576152801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41711044311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39958238601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46969509124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53104400634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54857206344604</t>
+    <t xml:space="preserve">4.5310435295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54857158660889</t>
   </si>
   <si>
     <t xml:space="preserve">4.4434027671814</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47845983505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53980731964111</t>
+    <t xml:space="preserve">4.47845935821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53980779647827</t>
   </si>
   <si>
     <t xml:space="preserve">4.50475120544434</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31632280349731</t>
+    <t xml:space="preserve">4.31632328033447</t>
   </si>
   <si>
     <t xml:space="preserve">4.35137939453125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21553564071655</t>
+    <t xml:space="preserve">4.21553611755371</t>
   </si>
   <si>
     <t xml:space="preserve">4.12789487838745</t>
@@ -1697,7 +1700,7 @@
     <t xml:space="preserve">4.16733360290527</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06216382980347</t>
+    <t xml:space="preserve">4.06216430664062</t>
   </si>
   <si>
     <t xml:space="preserve">4.11474847793579</t>
@@ -1712,13 +1715,13 @@
     <t xml:space="preserve">4.06654596328735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02272605895996</t>
+    <t xml:space="preserve">4.0227255821228</t>
   </si>
   <si>
     <t xml:space="preserve">4.04463529586792</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04025363922119</t>
+    <t xml:space="preserve">4.04025411605835</t>
   </si>
   <si>
     <t xml:space="preserve">4.09283828735352</t>
@@ -1751,7 +1754,7 @@
     <t xml:space="preserve">3.91755604743958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95261335372925</t>
+    <t xml:space="preserve">3.95261240005493</t>
   </si>
   <si>
     <t xml:space="preserve">3.96575903892517</t>
@@ -1763,16 +1766,16 @@
     <t xml:space="preserve">4.10160255432129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01396179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9438488483429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84744310379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79047656059265</t>
+    <t xml:space="preserve">4.01396131515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94384860992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84744358062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79047703742981</t>
   </si>
   <si>
     <t xml:space="preserve">3.77733063697815</t>
@@ -1781,13 +1784,13 @@
     <t xml:space="preserve">3.75103831291199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75980186462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78171253204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73789191246033</t>
+    <t xml:space="preserve">3.7598021030426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78171277046204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73789215087891</t>
   </si>
   <si>
     <t xml:space="preserve">3.7335102558136</t>
@@ -1805,25 +1808,25 @@
     <t xml:space="preserve">3.93508410453796</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86058950424194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92193794250488</t>
+    <t xml:space="preserve">3.86059045791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92193841934204</t>
   </si>
   <si>
     <t xml:space="preserve">3.85620784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76856637001038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80800461769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78609490394592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67216110229492</t>
+    <t xml:space="preserve">3.76856684684753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80800485610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78609466552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67216157913208</t>
   </si>
   <si>
     <t xml:space="preserve">3.82991504669189</t>
@@ -1832,16 +1835,16 @@
     <t xml:space="preserve">3.72474575042725</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79924130439758</t>
+    <t xml:space="preserve">3.79924082756042</t>
   </si>
   <si>
     <t xml:space="preserve">3.86497139930725</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72036385536194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74227452278137</t>
+    <t xml:space="preserve">3.72036409378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74227428436279</t>
   </si>
   <si>
     <t xml:space="preserve">3.74665641784668</t>
@@ -1853,19 +1856,19 @@
     <t xml:space="preserve">3.64586877822876</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71598124504089</t>
+    <t xml:space="preserve">3.71598172187805</t>
   </si>
   <si>
     <t xml:space="preserve">3.72912812232971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70283532142639</t>
+    <t xml:space="preserve">3.70283555984497</t>
   </si>
   <si>
     <t xml:space="preserve">4.04901742935181</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0358715057373</t>
+    <t xml:space="preserve">4.03587198257446</t>
   </si>
   <si>
     <t xml:space="preserve">3.97890496253967</t>
@@ -1874,7 +1877,7 @@
     <t xml:space="preserve">4.00957918167114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09722089767456</t>
+    <t xml:space="preserve">4.0972204208374</t>
   </si>
   <si>
     <t xml:space="preserve">4.18047952651978</t>
@@ -1883,7 +1886,7 @@
     <t xml:space="preserve">4.22429990768433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32946920394897</t>
+    <t xml:space="preserve">4.32946968078613</t>
   </si>
   <si>
     <t xml:space="preserve">4.33385133743286</t>
@@ -1895,16 +1898,16 @@
     <t xml:space="preserve">4.51351547241211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68003416061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67126893997192</t>
+    <t xml:space="preserve">4.68003368377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67126941680908</t>
   </si>
   <si>
     <t xml:space="preserve">4.58362817764282</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64497756958008</t>
+    <t xml:space="preserve">4.64497709274292</t>
   </si>
   <si>
     <t xml:space="preserve">4.57486391067505</t>
@@ -1913,10 +1916,10 @@
     <t xml:space="preserve">4.62744903564453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68879795074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87284374237061</t>
+    <t xml:space="preserve">4.68879747390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87284326553345</t>
   </si>
   <si>
     <t xml:space="preserve">4.90790033340454</t>
@@ -1925,7 +1928,7 @@
     <t xml:space="preserve">4.79396677017212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74138164520264</t>
+    <t xml:space="preserve">4.74138212203979</t>
   </si>
   <si>
     <t xml:space="preserve">4.82025909423828</t>
@@ -1940,13 +1943,13 @@
     <t xml:space="preserve">4.77643871307373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80273103713989</t>
+    <t xml:space="preserve">4.80273056030273</t>
   </si>
   <si>
     <t xml:space="preserve">4.76767444610596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65374088287354</t>
+    <t xml:space="preserve">4.65374135971069</t>
   </si>
   <si>
     <t xml:space="preserve">4.5923924446106</t>
@@ -1958,13 +1961,13 @@
     <t xml:space="preserve">4.60115623474121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61868476867676</t>
+    <t xml:space="preserve">4.6186842918396</t>
   </si>
   <si>
     <t xml:space="preserve">4.86407995223999</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75891065597534</t>
+    <t xml:space="preserve">4.75891017913818</t>
   </si>
   <si>
     <t xml:space="preserve">4.70632600784302</t>
@@ -1973,52 +1976,52 @@
     <t xml:space="preserve">4.82902336120605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73261833190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32070541381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24182891845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28564834594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45216608047485</t>
+    <t xml:space="preserve">4.73261785507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3207049369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24182796478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28564882278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45216655731201</t>
   </si>
   <si>
     <t xml:space="preserve">4.69756174087524</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19800806045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82553267478943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54069948196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43114805221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37856340408325</t>
+    <t xml:space="preserve">4.19800758361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82553291320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54069972038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43114852905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37856364250183</t>
   </si>
   <si>
     <t xml:space="preserve">3.22957348823547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28654026985168</t>
+    <t xml:space="preserve">3.28654050827026</t>
   </si>
   <si>
     <t xml:space="preserve">2.86148118972778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97541451454163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9228298664093</t>
+    <t xml:space="preserve">2.97541427612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92283010482788</t>
   </si>
   <si>
     <t xml:space="preserve">2.94474029541016</t>
@@ -2030,7 +2033,7 @@
     <t xml:space="preserve">2.72125554084778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85709953308105</t>
+    <t xml:space="preserve">2.85709929466248</t>
   </si>
   <si>
     <t xml:space="preserve">2.66428875923157</t>
@@ -2042,13 +2045,13 @@
     <t xml:space="preserve">2.97979688644409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87024545669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75631213188171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71249175071716</t>
+    <t xml:space="preserve">2.87024521827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75631189346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71249151229858</t>
   </si>
   <si>
     <t xml:space="preserve">2.90091991424561</t>
@@ -2057,7 +2060,7 @@
     <t xml:space="preserve">2.82204294204712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84395289421082</t>
+    <t xml:space="preserve">2.84395313262939</t>
   </si>
   <si>
     <t xml:space="preserve">2.76069402694702</t>
@@ -2078,67 +2081,67 @@
     <t xml:space="preserve">3.06743741035461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02361750602722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99732494354248</t>
+    <t xml:space="preserve">3.02361726760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9973247051239</t>
   </si>
   <si>
     <t xml:space="preserve">3.00170707702637</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04114556312561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07181978225708</t>
+    <t xml:space="preserve">3.04114532470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07182002067566</t>
   </si>
   <si>
     <t xml:space="preserve">3.00608897209167</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03676319122314</t>
+    <t xml:space="preserve">3.03676342964172</t>
   </si>
   <si>
     <t xml:space="preserve">3.01047086715698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16822481155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10249423980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11125802993774</t>
+    <t xml:space="preserve">3.16822457313538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10249400138855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11125779151917</t>
   </si>
   <si>
     <t xml:space="preserve">3.14631462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1945173740387</t>
+    <t xml:space="preserve">3.19451713562012</t>
   </si>
   <si>
     <t xml:space="preserve">3.09372997283936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15507864952087</t>
+    <t xml:space="preserve">3.15507888793945</t>
   </si>
   <si>
     <t xml:space="preserve">3.25586581230164</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31283235549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22519183158875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21204519271851</t>
+    <t xml:space="preserve">3.31283283233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22519159317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21204543113708</t>
   </si>
   <si>
     <t xml:space="preserve">3.24710178375244</t>
   </si>
   <si>
-    <t xml:space="preserve">3.198899269104</t>
+    <t xml:space="preserve">3.19889950752258</t>
   </si>
   <si>
     <t xml:space="preserve">3.18137121200562</t>
@@ -2153,7 +2156,7 @@
     <t xml:space="preserve">3.50564312934875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55384588241577</t>
+    <t xml:space="preserve">3.55384564399719</t>
   </si>
   <si>
     <t xml:space="preserve">3.53193593025208</t>
@@ -2162,31 +2165,31 @@
     <t xml:space="preserve">3.54946374893188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38294553756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36103534698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2602481842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44867658615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44429445266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41800212860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43991231918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49687910079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51002526283264</t>
+    <t xml:space="preserve">3.38294577598572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36103582382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26024794578552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44867634773254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44429421424866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41800236701965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43991255760193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49687933921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51002550125122</t>
   </si>
   <si>
     <t xml:space="preserve">3.51440739631653</t>
@@ -2195,7 +2198,7 @@
     <t xml:space="preserve">3.83402919769287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78892254829407</t>
+    <t xml:space="preserve">3.78892278671265</t>
   </si>
   <si>
     <t xml:space="preserve">3.70322108268738</t>
@@ -2204,7 +2207,7 @@
     <t xml:space="preserve">3.65360450744629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59045553207397</t>
+    <t xml:space="preserve">3.59045577049255</t>
   </si>
   <si>
     <t xml:space="preserve">3.57241320610046</t>
@@ -2213,16 +2216,16 @@
     <t xml:space="preserve">3.50024318695068</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51828575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42807340621948</t>
+    <t xml:space="preserve">3.51828598976135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4280731678009</t>
   </si>
   <si>
     <t xml:space="preserve">3.45513701438904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4867115020752</t>
+    <t xml:space="preserve">3.48671126365662</t>
   </si>
   <si>
     <t xml:space="preserve">3.38747763633728</t>
@@ -2234,7 +2237,7 @@
     <t xml:space="preserve">3.38296699523926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33786082267761</t>
+    <t xml:space="preserve">3.33786058425903</t>
   </si>
   <si>
     <t xml:space="preserve">3.34688186645508</t>
@@ -2246,10 +2249,10 @@
     <t xml:space="preserve">3.15743565559387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24764800071716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3198184967041</t>
+    <t xml:space="preserve">3.24764823913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31981801986694</t>
   </si>
   <si>
     <t xml:space="preserve">3.27020144462585</t>
@@ -2258,49 +2261,49 @@
     <t xml:space="preserve">3.22960567474365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22058415412903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2025420665741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16645693778992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16194629669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10330820083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1078188419342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13939309120178</t>
+    <t xml:space="preserve">3.22058439254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20254182815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16645669937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16194653511047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10330843925476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10781860351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13939332962036</t>
   </si>
   <si>
     <t xml:space="preserve">3.12135076522827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04015970230103</t>
+    <t xml:space="preserve">3.04015946388245</t>
   </si>
   <si>
     <t xml:space="preserve">3.02211713790894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00407481193542</t>
+    <t xml:space="preserve">3.00407457351685</t>
   </si>
   <si>
     <t xml:space="preserve">2.9950532913208</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15292501449585</t>
+    <t xml:space="preserve">3.15292525291443</t>
   </si>
   <si>
     <t xml:space="preserve">3.13037204742432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11684012413025</t>
+    <t xml:space="preserve">3.11684036254883</t>
   </si>
   <si>
     <t xml:space="preserve">3.04467034339905</t>
@@ -2309,10 +2312,10 @@
     <t xml:space="preserve">2.9634792804718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89130902290344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92739391326904</t>
+    <t xml:space="preserve">2.89130926132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92739415168762</t>
   </si>
   <si>
     <t xml:space="preserve">2.85973453521729</t>
@@ -2321,7 +2324,7 @@
     <t xml:space="preserve">2.83267116546631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86875605583191</t>
+    <t xml:space="preserve">2.86875629425049</t>
   </si>
   <si>
     <t xml:space="preserve">2.90484094619751</t>
@@ -2345,7 +2348,7 @@
     <t xml:space="preserve">2.86424541473389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81462860107422</t>
+    <t xml:space="preserve">2.81462836265564</t>
   </si>
   <si>
     <t xml:space="preserve">2.77854347229004</t>
@@ -2354,28 +2357,28 @@
     <t xml:space="preserve">2.76952219009399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73794794082642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68833088874817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67028856277466</t>
+    <t xml:space="preserve">2.737948179245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68833112716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67028880119324</t>
   </si>
   <si>
     <t xml:space="preserve">2.63420343399048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59811878204346</t>
+    <t xml:space="preserve">2.59811854362488</t>
   </si>
   <si>
     <t xml:space="preserve">2.61616110801697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60262942314148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54399108886719</t>
+    <t xml:space="preserve">2.60262894630432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54399085044861</t>
   </si>
   <si>
     <t xml:space="preserve">2.62518239021301</t>
@@ -2384,10 +2387,10 @@
     <t xml:space="preserve">3.03113842010498</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01309585571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06271290779114</t>
+    <t xml:space="preserve">3.01309561729431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06271266937256</t>
   </si>
   <si>
     <t xml:space="preserve">3.24313759803772</t>
@@ -2399,7 +2402,7 @@
     <t xml:space="preserve">3.25666952133179</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35590314865112</t>
+    <t xml:space="preserve">3.35590291023254</t>
   </si>
   <si>
     <t xml:space="preserve">3.36492443084717</t>
@@ -2408,16 +2411,16 @@
     <t xml:space="preserve">3.54986000061035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48220062255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55437064170837</t>
+    <t xml:space="preserve">3.48220086097717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55437088012695</t>
   </si>
   <si>
     <t xml:space="preserve">3.52730703353882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56339168548584</t>
+    <t xml:space="preserve">3.56339192390442</t>
   </si>
   <si>
     <t xml:space="preserve">3.58143424987793</t>
@@ -2426,31 +2429,31 @@
     <t xml:space="preserve">3.51377511024475</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49573254585266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62654042243958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75283765792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79794430732727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82500767707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791356086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73028492927551</t>
+    <t xml:space="preserve">3.49573278427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62654066085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75283789634705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79794454574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82500815391541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87913608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73028516769409</t>
   </si>
   <si>
     <t xml:space="preserve">3.73479557037354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72577452659607</t>
+    <t xml:space="preserve">3.72577428817749</t>
   </si>
   <si>
     <t xml:space="preserve">3.69871020317078</t>
@@ -2462,40 +2465,40 @@
     <t xml:space="preserve">3.61751937866211</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60849785804749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64458274841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57692360877991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66262531280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64909362792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82049751281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81598687171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80696535110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7799015045166</t>
+    <t xml:space="preserve">3.60849809646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64458298683167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57692384719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66262555122375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64909386634827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82049775123596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81598663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80696558952332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77990221977234</t>
   </si>
   <si>
     <t xml:space="preserve">3.85207200050354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9152204990387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734829902649</t>
+    <t xml:space="preserve">3.91522097587585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734853744507</t>
   </si>
   <si>
     <t xml:space="preserve">3.8430507183075</t>
@@ -2507,10 +2510,10 @@
     <t xml:space="preserve">3.83854007720947</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84756088256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79343390464783</t>
+    <t xml:space="preserve">3.84756135940552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79343366622925</t>
   </si>
   <si>
     <t xml:space="preserve">3.76185917854309</t>
@@ -2519,10 +2522,10 @@
     <t xml:space="preserve">3.6716468334198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73930621147156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78441262245178</t>
+    <t xml:space="preserve">3.73930597305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7844123840332</t>
   </si>
   <si>
     <t xml:space="preserve">3.86109328269958</t>
@@ -2531,10 +2534,10 @@
     <t xml:space="preserve">4.00543308258057</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01896476745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07760238647461</t>
+    <t xml:space="preserve">4.01896524429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07760286331177</t>
   </si>
   <si>
     <t xml:space="preserve">4.09131669998169</t>
@@ -2549,7 +2552,7 @@
     <t xml:space="preserve">4.24674081802368</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21931314468384</t>
+    <t xml:space="preserve">4.21931266784668</t>
   </si>
   <si>
     <t xml:space="preserve">4.28331136703491</t>
@@ -2558,40 +2561,40 @@
     <t xml:space="preserve">4.22388458251953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1873140335083</t>
+    <t xml:space="preserve">4.18731355667114</t>
   </si>
   <si>
     <t xml:space="preserve">4.15074348449707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.114173412323</t>
+    <t xml:space="preserve">4.11417293548584</t>
   </si>
   <si>
     <t xml:space="preserve">4.05931758880615</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10960149765015</t>
+    <t xml:space="preserve">4.1096019744873</t>
   </si>
   <si>
     <t xml:space="preserve">4.13703012466431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16902923583984</t>
+    <t xml:space="preserve">4.16902875900269</t>
   </si>
   <si>
     <t xml:space="preserve">4.05474615097046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08217430114746</t>
+    <t xml:space="preserve">4.0821738243103</t>
   </si>
   <si>
     <t xml:space="preserve">4.09588813781738</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0410327911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06845998764038</t>
+    <t xml:space="preserve">4.04103231430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06845951080322</t>
   </si>
   <si>
     <t xml:space="preserve">4.03188991546631</t>
@@ -2603,7 +2606,7 @@
     <t xml:space="preserve">4.12331628799438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15988683700562</t>
+    <t xml:space="preserve">4.15988636016846</t>
   </si>
   <si>
     <t xml:space="preserve">4.20102787017822</t>
@@ -2618,28 +2621,28 @@
     <t xml:space="preserve">4.19188547134399</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14160108566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27873992919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29702568054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23302745819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20559930801392</t>
+    <t xml:space="preserve">4.14160060882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27873945236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29702520370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23302698135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20559883117676</t>
   </si>
   <si>
     <t xml:space="preserve">4.11874437332153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10045957565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14617252349854</t>
+    <t xml:space="preserve">4.10045909881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14617204666138</t>
   </si>
   <si>
     <t xml:space="preserve">4.2924542427063</t>
@@ -2648,19 +2651,19 @@
     <t xml:space="preserve">4.31531047821045</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34273767471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28788328170776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00446176528931</t>
+    <t xml:space="preserve">4.34273815155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28788280487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00446224212646</t>
   </si>
   <si>
     <t xml:space="preserve">3.98617696762085</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95874857902527</t>
+    <t xml:space="preserve">3.95874905586243</t>
   </si>
   <si>
     <t xml:space="preserve">3.95417737960815</t>
@@ -2672,7 +2675,7 @@
     <t xml:space="preserve">3.78961062431335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73932647705078</t>
+    <t xml:space="preserve">3.7393262386322</t>
   </si>
   <si>
     <t xml:space="preserve">3.90846467018127</t>
@@ -2681,19 +2684,16 @@
     <t xml:space="preserve">4.01360416412354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07760286331177</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.02274703979492</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12788724899292</t>
+    <t xml:space="preserve">4.12788677215576</t>
   </si>
   <si>
     <t xml:space="preserve">4.07303142547607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06388902664185</t>
+    <t xml:space="preserve">4.063889503479</t>
   </si>
   <si>
     <t xml:space="preserve">4.10503053665161</t>
@@ -2702,10 +2702,10 @@
     <t xml:space="preserve">3.931321144104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00903367996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05017471313477</t>
+    <t xml:space="preserve">4.009033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05017518997192</t>
   </si>
   <si>
     <t xml:space="preserve">4.18274259567261</t>
@@ -2714,16 +2714,16 @@
     <t xml:space="preserve">4.23759841918945</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17360019683838</t>
+    <t xml:space="preserve">4.17359972000122</t>
   </si>
   <si>
     <t xml:space="preserve">4.31073904037476</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35188102722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32902431488037</t>
+    <t xml:space="preserve">4.35188150405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32902479171753</t>
   </si>
   <si>
     <t xml:space="preserve">4.21474170684814</t>
@@ -2735,13 +2735,13 @@
     <t xml:space="preserve">4.33359527587891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27416944503784</t>
+    <t xml:space="preserve">4.27416896820068</t>
   </si>
   <si>
     <t xml:space="preserve">4.37930870056152</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49359083175659</t>
+    <t xml:space="preserve">4.49359130859375</t>
   </si>
   <si>
     <t xml:space="preserve">4.52558994293213</t>
@@ -2750,13 +2750,13 @@
     <t xml:space="preserve">4.57130336761475</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62615919113159</t>
+    <t xml:space="preserve">4.62615966796875</t>
   </si>
   <si>
     <t xml:space="preserve">4.64444398880005</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65358686447144</t>
+    <t xml:space="preserve">4.65358734130859</t>
   </si>
   <si>
     <t xml:space="preserve">4.59873104095459</t>
@@ -2771,13 +2771,13 @@
     <t xml:space="preserve">4.58958864212036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58044624328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60787343978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72672748565674</t>
+    <t xml:space="preserve">4.58044672012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60787391662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7267279624939</t>
   </si>
   <si>
     <t xml:space="preserve">4.69015741348267</t>
@@ -2813,10 +2813,10 @@
     <t xml:space="preserve">4.74501323699951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80901193618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85472440719604</t>
+    <t xml:space="preserve">4.80901145935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85472393035889</t>
   </si>
   <si>
     <t xml:space="preserve">4.86386680603027</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">5.01929140090942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98272085189819</t>
+    <t xml:space="preserve">4.98272037506104</t>
   </si>
   <si>
     <t xml:space="preserve">5.1564302444458</t>
@@ -2837,22 +2837,22 @@
     <t xml:space="preserve">5.11985969543457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24785614013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42156553268433</t>
+    <t xml:space="preserve">5.24785566329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42156600952148</t>
   </si>
   <si>
     <t xml:space="preserve">5.48556423187256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46727895736694</t>
+    <t xml:space="preserve">5.4672794342041</t>
   </si>
   <si>
     <t xml:space="preserve">5.26614189147949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14728832244873</t>
+    <t xml:space="preserve">5.14728784561157</t>
   </si>
   <si>
     <t xml:space="preserve">5.25699901580811</t>
@@ -2876,16 +2876,16 @@
     <t xml:space="preserve">5.40328073501587</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30271196365356</t>
+    <t xml:space="preserve">5.30271244049072</t>
   </si>
   <si>
     <t xml:space="preserve">5.28442716598511</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17471551895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19300079345703</t>
+    <t xml:space="preserve">5.17471504211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19300031661987</t>
   </si>
   <si>
     <t xml:space="preserve">5.09243249893188</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">5.13814544677734</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05586194992065</t>
+    <t xml:space="preserve">5.0558614730835</t>
   </si>
   <si>
     <t xml:space="preserve">4.89129495620728</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">5.06500434875488</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22042894363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33013963699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4124231338501</t>
+    <t xml:space="preserve">5.22042846679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33014011383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41242361068726</t>
   </si>
   <si>
     <t xml:space="preserve">5.53127765655518</t>
@@ -2963,10 +2963,10 @@
     <t xml:space="preserve">5.39413785934448</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54041957855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66841602325439</t>
+    <t xml:space="preserve">5.5404200553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66841650009155</t>
   </si>
   <si>
     <t xml:space="preserve">5.74155759811401</t>
@@ -3954,6 +3954,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.36999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46000003814697</t>
   </si>
 </sst>
 </file>
@@ -26907,7 +26910,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G870" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26933,7 +26936,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G871" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26959,7 +26962,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G872" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27063,7 +27066,7 @@
         <v>5.07000017166138</v>
       </c>
       <c r="G876" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27089,7 +27092,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G877" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27115,7 +27118,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G878" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27167,7 +27170,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G880" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27193,7 +27196,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G881" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27245,7 +27248,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G883" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27271,7 +27274,7 @@
         <v>4.92500019073486</v>
       </c>
       <c r="G884" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27297,7 +27300,7 @@
         <v>4.96500015258789</v>
       </c>
       <c r="G885" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27323,7 +27326,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G886" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27349,7 +27352,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G887" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27375,7 +27378,7 @@
         <v>4.75500011444092</v>
       </c>
       <c r="G888" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27401,7 +27404,7 @@
         <v>4.63500022888184</v>
       </c>
       <c r="G889" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27427,7 +27430,7 @@
         <v>4.69500017166138</v>
       </c>
       <c r="G890" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27453,7 +27456,7 @@
         <v>4.59499979019165</v>
       </c>
       <c r="G891" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27479,7 +27482,7 @@
         <v>4.64499998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27505,7 +27508,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G893" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27531,7 +27534,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G894" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27557,7 +27560,7 @@
         <v>4.61499977111816</v>
       </c>
       <c r="G895" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27583,7 +27586,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G896" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27609,7 +27612,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G897" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27635,7 +27638,7 @@
         <v>4.64499998092651</v>
       </c>
       <c r="G898" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -27661,7 +27664,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G899" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -27687,7 +27690,7 @@
         <v>4.59499979019165</v>
       </c>
       <c r="G900" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -27713,7 +27716,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G901" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -27739,7 +27742,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G902" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -27765,7 +27768,7 @@
         <v>4.78499984741211</v>
       </c>
       <c r="G903" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -27817,7 +27820,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -27843,7 +27846,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G906" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27869,7 +27872,7 @@
         <v>5</v>
       </c>
       <c r="G907" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27895,7 +27898,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G908" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27921,7 +27924,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G909" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27947,7 +27950,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G910" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27973,7 +27976,7 @@
         <v>4.52500009536743</v>
       </c>
       <c r="G911" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27999,7 +28002,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G912" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28025,7 +28028,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G913" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28051,7 +28054,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G914" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28077,7 +28080,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G915" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28103,7 +28106,7 @@
         <v>4.52500009536743</v>
       </c>
       <c r="G916" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28129,7 +28132,7 @@
         <v>4.5</v>
       </c>
       <c r="G917" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28155,7 +28158,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G918" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28181,7 +28184,7 @@
         <v>4.32499980926514</v>
       </c>
       <c r="G919" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28207,7 +28210,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G920" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28233,7 +28236,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G921" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28259,7 +28262,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28285,7 +28288,7 @@
         <v>4.31500005722046</v>
       </c>
       <c r="G923" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28311,7 +28314,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G924" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28337,7 +28340,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G925" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28363,7 +28366,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G926" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28389,7 +28392,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G927" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -28415,7 +28418,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G928" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28441,7 +28444,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G929" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28467,7 +28470,7 @@
         <v>4.40500020980835</v>
       </c>
       <c r="G930" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28493,7 +28496,7 @@
         <v>4.47499990463257</v>
       </c>
       <c r="G931" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28519,7 +28522,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G932" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -28545,7 +28548,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G933" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28571,7 +28574,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G934" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -28597,7 +28600,7 @@
         <v>4.34499979019165</v>
       </c>
       <c r="G935" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28623,7 +28626,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G936" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28649,7 +28652,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G937" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28675,7 +28678,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G938" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -28701,7 +28704,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G939" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -28727,7 +28730,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G940" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -28753,7 +28756,7 @@
         <v>4.25</v>
       </c>
       <c r="G941" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -28779,7 +28782,7 @@
         <v>4.25</v>
       </c>
       <c r="G942" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28805,7 +28808,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G943" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -28831,7 +28834,7 @@
         <v>4.33500003814697</v>
       </c>
       <c r="G944" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -28857,7 +28860,7 @@
         <v>4.47499990463257</v>
       </c>
       <c r="G945" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -28883,7 +28886,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G946" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28909,7 +28912,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G947" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28935,7 +28938,7 @@
         <v>4.24499988555908</v>
       </c>
       <c r="G948" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28961,7 +28964,7 @@
         <v>4.25</v>
       </c>
       <c r="G949" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -28987,7 +28990,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G950" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29013,7 +29016,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G951" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29039,7 +29042,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G952" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29065,7 +29068,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G953" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29091,7 +29094,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G954" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29117,7 +29120,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G955" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29143,7 +29146,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G956" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29169,7 +29172,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G957" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29195,7 +29198,7 @@
         <v>4.25500011444092</v>
       </c>
       <c r="G958" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29221,7 +29224,7 @@
         <v>4.33500003814697</v>
       </c>
       <c r="G959" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29247,7 +29250,7 @@
         <v>4.22499990463257</v>
       </c>
       <c r="G960" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29273,7 +29276,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G961" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29299,7 +29302,7 @@
         <v>4.34499979019165</v>
       </c>
       <c r="G962" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29325,7 +29328,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G963" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29351,7 +29354,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G964" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29377,7 +29380,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G965" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29403,7 +29406,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G966" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29429,7 +29432,7 @@
         <v>4.60500001907349</v>
       </c>
       <c r="G967" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29455,7 +29458,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G968" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29481,7 +29484,7 @@
         <v>4.57499980926514</v>
       </c>
       <c r="G969" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29507,7 +29510,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G970" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29533,7 +29536,7 @@
         <v>4.61499977111816</v>
       </c>
       <c r="G971" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29559,7 +29562,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G972" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29585,7 +29588,7 @@
         <v>4.67500019073486</v>
       </c>
       <c r="G973" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29611,7 +29614,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G974" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -29637,7 +29640,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G975" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -29663,7 +29666,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G976" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -29689,7 +29692,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G977" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -29715,7 +29718,7 @@
         <v>4.94500017166138</v>
       </c>
       <c r="G978" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -29741,7 +29744,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G979" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -29767,7 +29770,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G980" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -29819,7 +29822,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G982" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -29871,7 +29874,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G984" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29897,7 +29900,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G985" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29923,7 +29926,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G986" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30001,7 +30004,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G989" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30027,7 +30030,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G990" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30053,7 +30056,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G991" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30079,7 +30082,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G992" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30105,7 +30108,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G993" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30131,7 +30134,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G994" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30157,7 +30160,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G995" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30183,7 +30186,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G996" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30209,7 +30212,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G997" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30235,7 +30238,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G998" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30261,7 +30264,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G999" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30287,7 +30290,7 @@
         <v>5.5</v>
       </c>
       <c r="G1000" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30313,7 +30316,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G1001" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30339,7 +30342,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1002" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30365,7 +30368,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30391,7 +30394,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G1004" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30417,7 +30420,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1005" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30443,7 +30446,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G1006" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30469,7 +30472,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G1007" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30495,7 +30498,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1008" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30521,7 +30524,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1009" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30547,7 +30550,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1010" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30573,7 +30576,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G1011" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30599,7 +30602,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1012" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30625,7 +30628,7 @@
         <v>5.25</v>
       </c>
       <c r="G1013" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -30651,7 +30654,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1014" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -30703,7 +30706,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1016" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -30729,7 +30732,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -30755,7 +30758,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1018" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -30781,7 +30784,7 @@
         <v>5.26999998092651</v>
       </c>
       <c r="G1019" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -30833,7 +30836,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1021" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30859,7 +30862,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1022" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -30885,7 +30888,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1023" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30911,7 +30914,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1024" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30937,7 +30940,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1025" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30963,7 +30966,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G1026" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30989,7 +30992,7 @@
         <v>5.5</v>
       </c>
       <c r="G1027" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31015,7 +31018,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1028" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31041,7 +31044,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G1029" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31067,7 +31070,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G1030" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31093,7 +31096,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1031" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31119,7 +31122,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1032" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31145,7 +31148,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1033" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31171,7 +31174,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1034" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31197,7 +31200,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1035" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31223,7 +31226,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1036" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31249,7 +31252,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G1037" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31275,7 +31278,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G1038" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31301,7 +31304,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G1039" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31353,7 +31356,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G1041" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31379,7 +31382,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G1042" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31405,7 +31408,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1043" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31457,7 +31460,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1045" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31483,7 +31486,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1046" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31509,7 +31512,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1047" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31535,7 +31538,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1048" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31561,7 +31564,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1049" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31587,7 +31590,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G1050" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31613,7 +31616,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1051" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -31639,7 +31642,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1052" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -31665,7 +31668,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1053" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -31691,7 +31694,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1054" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -31717,7 +31720,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1055" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -31743,7 +31746,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G1056" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -31769,7 +31772,7 @@
         <v>4.5</v>
       </c>
       <c r="G1057" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -31795,7 +31798,7 @@
         <v>4.5</v>
       </c>
       <c r="G1058" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -31821,7 +31824,7 @@
         <v>4.36499977111816</v>
       </c>
       <c r="G1059" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -31847,7 +31850,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G1060" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -31873,7 +31876,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1061" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -31899,7 +31902,7 @@
         <v>3.91499996185303</v>
       </c>
       <c r="G1062" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -31925,7 +31928,7 @@
         <v>3.85500001907349</v>
       </c>
       <c r="G1063" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -31951,7 +31954,7 @@
         <v>3.68499994277954</v>
       </c>
       <c r="G1064" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31977,7 +31980,7 @@
         <v>3.75</v>
       </c>
       <c r="G1065" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32003,7 +32006,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G1066" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32029,7 +32032,7 @@
         <v>3.39499998092651</v>
       </c>
       <c r="G1067" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32055,7 +32058,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G1068" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32081,7 +32084,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1069" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32107,7 +32110,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1070" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32133,7 +32136,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G1071" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32159,7 +32162,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1072" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32185,7 +32188,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1073" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32211,7 +32214,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1074" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32237,7 +32240,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1075" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32263,7 +32266,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G1076" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32289,7 +32292,7 @@
         <v>3.14499998092651</v>
       </c>
       <c r="G1077" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32315,7 +32318,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G1078" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32341,7 +32344,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1079" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32367,7 +32370,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1080" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32393,7 +32396,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G1081" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32419,7 +32422,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1082" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32445,7 +32448,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G1083" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32471,7 +32474,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1084" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32497,7 +32500,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G1085" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32523,7 +32526,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1086" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32549,7 +32552,7 @@
         <v>3.5</v>
       </c>
       <c r="G1087" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32575,7 +32578,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1088" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32601,7 +32604,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1089" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -32627,7 +32630,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1090" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -32653,7 +32656,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G1091" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -32679,7 +32682,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1092" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -32705,7 +32708,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1093" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -32731,7 +32734,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1094" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -32757,7 +32760,7 @@
         <v>3.50500011444092</v>
       </c>
       <c r="G1095" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -32783,7 +32786,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G1096" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -32809,7 +32812,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1097" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -32835,7 +32838,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1098" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -32861,7 +32864,7 @@
         <v>3.46499991416931</v>
       </c>
       <c r="G1099" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -32887,7 +32890,7 @@
         <v>3.43499994277954</v>
       </c>
       <c r="G1100" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32913,7 +32916,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G1101" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32939,7 +32942,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G1102" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32965,7 +32968,7 @@
         <v>3.61500000953674</v>
       </c>
       <c r="G1103" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32991,7 +32994,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1104" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33017,7 +33020,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1105" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33043,7 +33046,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1106" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33069,7 +33072,7 @@
         <v>3.64499998092651</v>
       </c>
       <c r="G1107" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33095,7 +33098,7 @@
         <v>3.5</v>
       </c>
       <c r="G1108" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33121,7 +33124,7 @@
         <v>3.5</v>
       </c>
       <c r="G1109" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33147,7 +33150,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1110" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33173,7 +33176,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1111" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33199,7 +33202,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1112" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33225,7 +33228,7 @@
         <v>3.71499991416931</v>
       </c>
       <c r="G1113" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33251,7 +33254,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1114" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33277,7 +33280,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1115" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33303,7 +33306,7 @@
         <v>3.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33329,7 +33332,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G1117" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33355,7 +33358,7 @@
         <v>3.70499992370605</v>
       </c>
       <c r="G1118" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33381,7 +33384,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1119" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33407,7 +33410,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1120" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33433,7 +33436,7 @@
         <v>3.75</v>
       </c>
       <c r="G1121" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33459,7 +33462,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1122" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33485,7 +33488,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1123" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33511,7 +33514,7 @@
         <v>4</v>
       </c>
       <c r="G1124" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33537,7 +33540,7 @@
         <v>4.05499982833862</v>
       </c>
       <c r="G1125" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33563,7 +33566,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1126" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33589,7 +33592,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1127" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33615,7 +33618,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1128" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -33641,7 +33644,7 @@
         <v>3.83500003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -33667,7 +33670,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1130" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -33693,7 +33696,7 @@
         <v>3.91499996185303</v>
       </c>
       <c r="G1131" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -33719,7 +33722,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G1132" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -33745,7 +33748,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1133" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -33771,7 +33774,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1134" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -33797,7 +33800,7 @@
         <v>3.92499995231628</v>
       </c>
       <c r="G1135" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -33823,7 +33826,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1136" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -33849,7 +33852,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G1137" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -33875,7 +33878,7 @@
         <v>3.91499996185303</v>
       </c>
       <c r="G1138" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -33901,7 +33904,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1139" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33927,7 +33930,7 @@
         <v>4.00500011444092</v>
       </c>
       <c r="G1140" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33953,7 +33956,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1141" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33979,7 +33982,7 @@
         <v>4</v>
       </c>
       <c r="G1142" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34005,7 +34008,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1143" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34031,7 +34034,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34057,7 +34060,7 @@
         <v>4.25</v>
       </c>
       <c r="G1145" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34083,7 +34086,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1146" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34109,7 +34112,7 @@
         <v>4.10500001907349</v>
       </c>
       <c r="G1147" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34135,7 +34138,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1148" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34161,7 +34164,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1149" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34187,7 +34190,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1150" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34213,7 +34216,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1151" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34239,7 +34242,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1152" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34265,7 +34268,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1153" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34291,7 +34294,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1154" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34317,7 +34320,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1155" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34343,7 +34346,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G1156" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34369,7 +34372,7 @@
         <v>3.75500011444092</v>
       </c>
       <c r="G1157" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34395,7 +34398,7 @@
         <v>3.77500009536743</v>
       </c>
       <c r="G1158" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34421,7 +34424,7 @@
         <v>3.75</v>
       </c>
       <c r="G1159" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34447,7 +34450,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1160" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34473,7 +34476,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1161" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34499,7 +34502,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1162" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34525,7 +34528,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1163" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34551,7 +34554,7 @@
         <v>3.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34577,7 +34580,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1165" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34603,7 +34606,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1166" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -34629,7 +34632,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1167" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -34655,7 +34658,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1168" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -34681,7 +34684,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1169" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -34707,7 +34710,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1170" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -34733,7 +34736,7 @@
         <v>3.625</v>
       </c>
       <c r="G1171" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -34759,7 +34762,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1172" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -34785,7 +34788,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1173" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -34811,7 +34814,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1174" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -34837,7 +34840,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1175" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -34863,7 +34866,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1176" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -34889,7 +34892,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1177" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34915,7 +34918,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1178" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34941,7 +34944,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1179" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34967,7 +34970,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1180" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34993,7 +34996,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1181" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35019,7 +35022,7 @@
         <v>3.50500011444092</v>
       </c>
       <c r="G1182" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35045,7 +35048,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1183" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35071,7 +35074,7 @@
         <v>3.5</v>
       </c>
       <c r="G1184" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35097,7 +35100,7 @@
         <v>3.4449999332428</v>
       </c>
       <c r="G1185" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35123,7 +35126,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1186" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35149,7 +35152,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1187" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35175,7 +35178,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1188" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35201,7 +35204,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1189" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35227,7 +35230,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1190" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35253,7 +35256,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1191" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35279,7 +35282,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1192" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35305,7 +35308,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1193" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35331,7 +35334,7 @@
         <v>3.49499988555908</v>
       </c>
       <c r="G1194" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35357,7 +35360,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1195" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35383,7 +35386,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1196" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35409,7 +35412,7 @@
         <v>3.45499992370605</v>
       </c>
       <c r="G1197" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35435,7 +35438,7 @@
         <v>3.375</v>
       </c>
       <c r="G1198" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35461,7 +35464,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G1199" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35487,7 +35490,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G1200" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35513,7 +35516,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G1201" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35539,7 +35542,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G1202" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35565,7 +35568,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1203" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35591,7 +35594,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1204" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35617,7 +35620,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1205" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -35643,7 +35646,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1206" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -35669,7 +35672,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1207" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -35695,7 +35698,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1208" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -35721,7 +35724,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1209" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -35747,7 +35750,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1210" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -35773,7 +35776,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1211" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -35799,7 +35802,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1212" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -35825,7 +35828,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1213" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -35851,7 +35854,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1214" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -35877,7 +35880,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1215" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35903,7 +35906,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1216" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35929,7 +35932,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1217" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35955,7 +35958,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1218" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35981,7 +35984,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1219" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -36007,7 +36010,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36033,7 +36036,7 @@
         <v>3.17499995231628</v>
       </c>
       <c r="G1221" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36059,7 +36062,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1222" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36085,7 +36088,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1223" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36111,7 +36114,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1224" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36137,7 +36140,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G1225" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36163,7 +36166,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1226" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36189,7 +36192,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1227" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36215,7 +36218,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1228" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36241,7 +36244,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1229" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36267,7 +36270,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1230" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36293,7 +36296,7 @@
         <v>2.88499999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36319,7 +36322,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1232" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36345,7 +36348,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1233" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36371,7 +36374,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1234" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36397,7 +36400,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36423,7 +36426,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1236" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36449,7 +36452,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1237" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36475,7 +36478,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1238" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36501,7 +36504,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1239" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36527,7 +36530,7 @@
         <v>3.39499998092651</v>
       </c>
       <c r="G1240" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36553,7 +36556,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1241" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36579,7 +36582,7 @@
         <v>3.625</v>
       </c>
       <c r="G1242" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36605,7 +36608,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1243" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -36631,7 +36634,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1244" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -36657,7 +36660,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1245" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -36683,7 +36686,7 @@
         <v>3.59500002861023</v>
       </c>
       <c r="G1246" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -36709,7 +36712,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1247" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -36735,7 +36738,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G1248" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -36761,7 +36764,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G1249" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -36787,7 +36790,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1250" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -36813,7 +36816,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1251" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -36839,7 +36842,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1252" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -36865,7 +36868,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1253" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -36891,7 +36894,7 @@
         <v>3.75</v>
       </c>
       <c r="G1254" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -36917,7 +36920,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1255" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -36943,7 +36946,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G1256" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -36969,7 +36972,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1257" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -36995,7 +36998,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1258" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -37021,7 +37024,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1259" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -37047,7 +37050,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1260" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37073,7 +37076,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1261" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37099,7 +37102,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1262" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37125,7 +37128,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1263" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37151,7 +37154,7 @@
         <v>3.89499998092651</v>
       </c>
       <c r="G1264" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37177,7 +37180,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1265" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37203,7 +37206,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1266" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37229,7 +37232,7 @@
         <v>3.875</v>
       </c>
       <c r="G1267" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37255,7 +37258,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1268" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37281,7 +37284,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1269" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37307,7 +37310,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1270" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37333,7 +37336,7 @@
         <v>4.25</v>
       </c>
       <c r="G1271" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37359,7 +37362,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1272" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37385,7 +37388,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1273" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37411,7 +37414,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1274" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37437,7 +37440,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1275" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37463,7 +37466,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1276" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37489,7 +37492,7 @@
         <v>4.13500022888184</v>
       </c>
       <c r="G1277" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37515,7 +37518,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1278" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37541,7 +37544,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1279" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37567,7 +37570,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1280" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37593,7 +37596,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1281" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37619,7 +37622,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1282" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -37645,7 +37648,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1283" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -37671,7 +37674,7 @@
         <v>4</v>
       </c>
       <c r="G1284" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -37697,7 +37700,7 @@
         <v>4</v>
       </c>
       <c r="G1285" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -37723,7 +37726,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1286" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -37749,7 +37752,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1287" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -37775,7 +37778,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1288" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -37801,7 +37804,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1289" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -37827,7 +37830,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1290" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -37853,7 +37856,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1291" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -37879,7 +37882,7 @@
         <v>4</v>
       </c>
       <c r="G1292" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -37905,7 +37908,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1293" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -37931,7 +37934,7 @@
         <v>4</v>
       </c>
       <c r="G1294" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -37957,7 +37960,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G1295" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -37983,7 +37986,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1296" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -38009,7 +38012,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1297" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -38035,7 +38038,7 @@
         <v>4.04500007629395</v>
       </c>
       <c r="G1298" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38061,7 +38064,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1299" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38087,7 +38090,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1300" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38113,7 +38116,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1301" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38139,7 +38142,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1302" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38165,7 +38168,7 @@
         <v>4</v>
       </c>
       <c r="G1303" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38191,7 +38194,7 @@
         <v>4.04500007629395</v>
       </c>
       <c r="G1304" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38217,7 +38220,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1305" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38243,7 +38246,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1306" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38269,7 +38272,7 @@
         <v>4.2350001335144</v>
       </c>
       <c r="G1307" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38295,7 +38298,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1308" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38321,7 +38324,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1309" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38347,7 +38350,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1310" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38373,7 +38376,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1311" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38399,7 +38402,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1312" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38425,7 +38428,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1313" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38451,7 +38454,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1314" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38477,7 +38480,7 @@
         <v>4.16499996185303</v>
       </c>
       <c r="G1315" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38503,7 +38506,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1316" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38529,7 +38532,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1317" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38555,7 +38558,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1318" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38581,7 +38584,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G1319" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38607,7 +38610,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G1320" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38633,7 +38636,7 @@
         <v>4.25500011444092</v>
       </c>
       <c r="G1321" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -38659,7 +38662,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G1322" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -38685,7 +38688,7 @@
         <v>4.20499992370605</v>
       </c>
       <c r="G1323" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -38711,7 +38714,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1324" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -38737,7 +38740,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1325" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -38763,7 +38766,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1326" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -38789,7 +38792,7 @@
         <v>4.25500011444092</v>
       </c>
       <c r="G1327" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -38815,7 +38818,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1328" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -38841,7 +38844,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1329" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -38867,7 +38870,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1330" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -38893,7 +38896,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1331" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -38919,7 +38922,7 @@
         <v>4.07000017166138</v>
       </c>
       <c r="G1332" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -38945,7 +38948,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1333" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -38971,7 +38974,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1334" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -38997,7 +39000,7 @@
         <v>4.14499998092651</v>
       </c>
       <c r="G1335" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -39023,7 +39026,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1336" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -39049,7 +39052,7 @@
         <v>4.19500017166138</v>
       </c>
       <c r="G1337" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -39075,7 +39078,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1338" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39101,7 +39104,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G1339" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -39127,7 +39130,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1340" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -39153,7 +39156,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1341" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -39179,7 +39182,7 @@
         <v>4.45499992370605</v>
       </c>
       <c r="G1342" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -39205,7 +39208,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G1343" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -39231,7 +39234,7 @@
         <v>4.47499990463257</v>
       </c>
       <c r="G1344" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -39257,7 +39260,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1345" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -39283,7 +39286,7 @@
         <v>4.65500020980835</v>
       </c>
       <c r="G1346" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -39309,7 +39312,7 @@
         <v>4.64499998092651</v>
       </c>
       <c r="G1347" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -39335,7 +39338,7 @@
         <v>4.61499977111816</v>
       </c>
       <c r="G1348" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -39361,7 +39364,7 @@
         <v>4.68499994277954</v>
       </c>
       <c r="G1349" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -39387,7 +39390,7 @@
         <v>4.61499977111816</v>
       </c>
       <c r="G1350" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -39413,7 +39416,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G1351" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -39439,7 +39442,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1352" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -39465,7 +39468,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1353" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -39491,7 +39494,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G1354" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -39517,7 +39520,7 @@
         <v>4.5</v>
       </c>
       <c r="G1355" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -39543,7 +39546,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1356" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -39569,7 +39572,7 @@
         <v>4.49499988555908</v>
       </c>
       <c r="G1357" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -39595,7 +39598,7 @@
         <v>4.52500009536743</v>
       </c>
       <c r="G1358" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -39621,7 +39624,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G1359" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -39647,7 +39650,7 @@
         <v>4.5</v>
       </c>
       <c r="G1360" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -39673,7 +39676,7 @@
         <v>4.5</v>
       </c>
       <c r="G1361" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -39699,7 +39702,7 @@
         <v>4.5</v>
       </c>
       <c r="G1362" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -39725,7 +39728,7 @@
         <v>4.43499994277954</v>
       </c>
       <c r="G1363" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -39751,7 +39754,7 @@
         <v>4.46500015258789</v>
       </c>
       <c r="G1364" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -39777,7 +39780,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1365" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -39803,7 +39806,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1366" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -39829,7 +39832,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1367" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -39855,7 +39858,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1368" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -39881,7 +39884,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G1369" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -39907,7 +39910,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G1370" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -39933,7 +39936,7 @@
         <v>4.42500019073486</v>
       </c>
       <c r="G1371" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -39959,7 +39962,7 @@
         <v>4.42500019073486</v>
       </c>
       <c r="G1372" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -39985,7 +39988,7 @@
         <v>4.47499990463257</v>
       </c>
       <c r="G1373" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -40011,7 +40014,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1374" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -40037,7 +40040,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1375" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -40063,7 +40066,7 @@
         <v>4.59499979019165</v>
       </c>
       <c r="G1376" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -40089,7 +40092,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G1377" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -40115,7 +40118,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1378" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -40141,7 +40144,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1379" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -40167,7 +40170,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G1380" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -40193,7 +40196,7 @@
         <v>4.58500003814697</v>
       </c>
       <c r="G1381" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -40219,7 +40222,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G1382" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -40245,7 +40248,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G1383" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -40271,7 +40274,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1384" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -40297,7 +40300,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1385" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -40323,7 +40326,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1386" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -40349,7 +40352,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1387" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -40375,7 +40378,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1388" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -40401,7 +40404,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1389" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -40427,7 +40430,7 @@
         <v>4.59499979019165</v>
       </c>
       <c r="G1390" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -40453,7 +40456,7 @@
         <v>4.50500011444092</v>
       </c>
       <c r="G1391" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -40479,7 +40482,7 @@
         <v>4.4850001335144</v>
       </c>
       <c r="G1392" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -40505,7 +40508,7 @@
         <v>4.53499984741211</v>
       </c>
       <c r="G1393" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -40531,7 +40534,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G1394" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -40557,7 +40560,7 @@
         <v>4.69500017166138</v>
       </c>
       <c r="G1395" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -40583,7 +40586,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1396" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -40609,7 +40612,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1397" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -40635,7 +40638,7 @@
         <v>4.75</v>
       </c>
       <c r="G1398" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -40661,7 +40664,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1399" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -40687,7 +40690,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1400" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -40713,7 +40716,7 @@
         <v>4.69500017166138</v>
       </c>
       <c r="G1401" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -40739,7 +40742,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G1402" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -40765,7 +40768,7 @@
         <v>4.5</v>
       </c>
       <c r="G1403" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -40791,7 +40794,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G1404" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -40817,7 +40820,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1405" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -40843,7 +40846,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1406" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -40869,7 +40872,7 @@
         <v>4.32499980926514</v>
       </c>
       <c r="G1407" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -40895,7 +40898,7 @@
         <v>4.25</v>
       </c>
       <c r="G1408" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -40921,7 +40924,7 @@
         <v>4.14499998092651</v>
       </c>
       <c r="G1409" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -40947,7 +40950,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1410" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -40973,7 +40976,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G1411" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -40999,7 +41002,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G1412" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -41025,7 +41028,7 @@
         <v>4.5</v>
       </c>
       <c r="G1413" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -41051,7 +41054,7 @@
         <v>4.46000003814697</v>
       </c>
       <c r="G1414" t="s">
-        <v>889</v>
+        <v>841</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -41077,7 +41080,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G1415" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -41181,7 +41184,7 @@
         <v>4.5</v>
       </c>
       <c r="G1419" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -41207,7 +41210,7 @@
         <v>4.50500011444092</v>
       </c>
       <c r="G1420" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -41233,7 +41236,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1421" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -41259,7 +41262,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1422" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -41311,7 +41314,7 @@
         <v>4.5</v>
       </c>
       <c r="G1424" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -41337,7 +41340,7 @@
         <v>4.46500015258789</v>
       </c>
       <c r="G1425" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -41389,7 +41392,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1427" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -41415,7 +41418,7 @@
         <v>4.5</v>
       </c>
       <c r="G1428" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -41441,7 +41444,7 @@
         <v>4.43499994277954</v>
       </c>
       <c r="G1429" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -41467,7 +41470,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G1430" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -41493,7 +41496,7 @@
         <v>4.42500019073486</v>
       </c>
       <c r="G1431" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -41519,7 +41522,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G1432" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -41649,7 +41652,7 @@
         <v>4.49499988555908</v>
       </c>
       <c r="G1437" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -41701,7 +41704,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G1439" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -41727,7 +41730,7 @@
         <v>4.48000001907349</v>
       </c>
       <c r="G1440" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -41805,7 +41808,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G1443" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -41831,7 +41834,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1444" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -41857,7 +41860,7 @@
         <v>4.61499977111816</v>
       </c>
       <c r="G1445" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -41883,7 +41886,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1446" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -41909,7 +41912,7 @@
         <v>4.4850001335144</v>
       </c>
       <c r="G1447" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -41935,7 +41938,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G1448" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -41961,7 +41964,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G1449" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -42013,7 +42016,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G1451" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -42065,7 +42068,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1453" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -42117,7 +42120,7 @@
         <v>4.58500003814697</v>
       </c>
       <c r="G1455" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -42247,7 +42250,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G1460" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -42325,7 +42328,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G1463" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -42351,7 +42354,7 @@
         <v>4.58500003814697</v>
       </c>
       <c r="G1464" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -42377,7 +42380,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G1465" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -42429,7 +42432,7 @@
         <v>4.69500017166138</v>
       </c>
       <c r="G1467" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -42455,7 +42458,7 @@
         <v>4.68499994277954</v>
       </c>
       <c r="G1468" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -42533,7 +42536,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1471" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -42559,7 +42562,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1472" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -45159,7 +45162,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="G1572" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -62561,7 +62564,7 @@
     </row>
     <row r="2242">
       <c r="A2242" s="1" t="n">
-        <v>45586.6495717593</v>
+        <v>45586.2916666667</v>
       </c>
       <c r="B2242" t="n">
         <v>34236</v>
@@ -62582,6 +62585,32 @@
         <v>1312</v>
       </c>
       <c r="H2242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" s="1" t="n">
+        <v>45587.6494444444</v>
+      </c>
+      <c r="B2243" t="n">
+        <v>53733</v>
+      </c>
+      <c r="C2243" t="n">
+        <v>3.54999995231628</v>
+      </c>
+      <c r="D2243" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="E2243" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="G2243" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H2243" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BAN.MI.xlsx
+++ b/data/BAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1319">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74278831481934</t>
+    <t xml:space="preserve">3.74278903007507</t>
   </si>
   <si>
     <t xml:space="preserve">BAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75724625587463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66247177124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53235697746277</t>
+    <t xml:space="preserve">3.75724530220032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66247153282166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53235745429993</t>
   </si>
   <si>
     <t xml:space="preserve">3.48737931251526</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42473173141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51468706130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53396391868591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52111291885376</t>
+    <t xml:space="preserve">3.42473196983337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51468682289124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53396344184875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52111268043518</t>
   </si>
   <si>
     <t xml:space="preserve">3.50023031234741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45203924179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47774171829224</t>
+    <t xml:space="preserve">3.45203971862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47774147987366</t>
   </si>
   <si>
     <t xml:space="preserve">3.17896103858948</t>
@@ -89,10 +89,10 @@
     <t xml:space="preserve">3.27694797515869</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33316993713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25767207145691</t>
+    <t xml:space="preserve">3.33317041397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25767183303833</t>
   </si>
   <si>
     <t xml:space="preserve">3.19663071632385</t>
@@ -104,25 +104,25 @@
     <t xml:space="preserve">3.2303638458252</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23678994178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13237714767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21269416809082</t>
+    <t xml:space="preserve">3.23678946495056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1323766708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21269392967224</t>
   </si>
   <si>
     <t xml:space="preserve">3.11149430274963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98780512809753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97174191474915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89142513275146</t>
+    <t xml:space="preserve">2.98780584335327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9717423915863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89142489433289</t>
   </si>
   <si>
     <t xml:space="preserve">2.88339281082153</t>
@@ -131,19 +131,19 @@
     <t xml:space="preserve">2.8078944683075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80950140953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81110739707947</t>
+    <t xml:space="preserve">2.80950117111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81110787391663</t>
   </si>
   <si>
     <t xml:space="preserve">2.95246601104736</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04242086410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02153897285461</t>
+    <t xml:space="preserve">3.04242134094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02153873443604</t>
   </si>
   <si>
     <t xml:space="preserve">3.05366587638855</t>
@@ -155,64 +155,64 @@
     <t xml:space="preserve">3.17253541946411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13077044487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02314496040344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05205965042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06812310218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03599572181702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12434506416321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18056702613831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24482107162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1645040512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19984316825867</t>
+    <t xml:space="preserve">3.13077068328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314519882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05205917358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06812286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0359959602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12434530258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18056726455688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24482131004333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16450381278992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19984364509583</t>
   </si>
   <si>
     <t xml:space="preserve">3.29783034324646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40545606613159</t>
+    <t xml:space="preserve">3.40545582771301</t>
   </si>
   <si>
     <t xml:space="preserve">3.3733286857605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30907464027405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3074688911438</t>
+    <t xml:space="preserve">3.30907511711121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30746865272522</t>
   </si>
   <si>
     <t xml:space="preserve">3.18859887123108</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26088500022888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26731014251709</t>
+    <t xml:space="preserve">3.2608847618103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26730990409851</t>
   </si>
   <si>
     <t xml:space="preserve">3.16611003875732</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1757481098175</t>
+    <t xml:space="preserve">3.17574858665466</t>
   </si>
   <si>
     <t xml:space="preserve">3.20466256141663</t>
@@ -221,25 +221,25 @@
     <t xml:space="preserve">3.10828161239624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06009125709534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01993274688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15647172927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0279643535614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92033886909485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93158340454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96852946281433</t>
+    <t xml:space="preserve">3.06009101867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01993227005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15647220611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02796411514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92033910751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93158364295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96852922439575</t>
   </si>
   <si>
     <t xml:space="preserve">3.04563403129578</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">3.0761547088623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98619890213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97977352142334</t>
+    <t xml:space="preserve">2.98619914054871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9797739982605</t>
   </si>
   <si>
     <t xml:space="preserve">2.91551995277405</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">2.87054252624512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89785051345825</t>
+    <t xml:space="preserve">2.89785027503967</t>
   </si>
   <si>
     <t xml:space="preserve">2.85769128799438</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">2.78379964828491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70508861541748</t>
+    <t xml:space="preserve">2.7050883769989</t>
   </si>
   <si>
     <t xml:space="preserve">2.73560905456543</t>
@@ -281,34 +281,34 @@
     <t xml:space="preserve">2.76934218406677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81913900375366</t>
+    <t xml:space="preserve">2.81913924217224</t>
   </si>
   <si>
     <t xml:space="preserve">2.83520293235779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77898025512695</t>
+    <t xml:space="preserve">2.77898049354553</t>
   </si>
   <si>
     <t xml:space="preserve">2.64244103431702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58621859550476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54445385932922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52999663352966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57015562057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65803790092468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63979816436768</t>
+    <t xml:space="preserve">2.58621907234192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54445362091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52999687194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57015514373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65803813934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63979840278625</t>
   </si>
   <si>
     <t xml:space="preserve">2.61160969734192</t>
@@ -317,40 +317,40 @@
     <t xml:space="preserve">2.61326766014099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66135454177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64477276802063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63316535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65306377410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77576780319214</t>
+    <t xml:space="preserve">2.66135430335999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64477300643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63316559791565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65306353569031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77576804161072</t>
   </si>
   <si>
     <t xml:space="preserve">2.87691593170166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8603343963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73597192764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76913499832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49553799629211</t>
+    <t xml:space="preserve">2.86033415794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7359721660614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76913547515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49553775787354</t>
   </si>
   <si>
     <t xml:space="preserve">2.44579291343689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55357336997986</t>
+    <t xml:space="preserve">2.55357360839844</t>
   </si>
   <si>
     <t xml:space="preserve">2.5253849029541</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">2.45408391952515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23852205276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27997660636902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34132838249207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31977248191833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4043390750885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42092061042786</t>
+    <t xml:space="preserve">2.23852252960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2799768447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34132862091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31977272033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40433931350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42092037200928</t>
   </si>
   <si>
     <t xml:space="preserve">2.33801221847534</t>
@@ -395,22 +395,22 @@
     <t xml:space="preserve">2.27002763748169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32972145080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35127758979797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37780833244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38278293609619</t>
+    <t xml:space="preserve">2.32972168922424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35127735137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37780809402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38278245925903</t>
   </si>
   <si>
     <t xml:space="preserve">2.37946629524231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36620140075684</t>
+    <t xml:space="preserve">2.36620116233826</t>
   </si>
   <si>
     <t xml:space="preserve">2.42921113967896</t>
@@ -419,25 +419,25 @@
     <t xml:space="preserve">2.58673667907715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59502816200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61990022659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95484948158264</t>
+    <t xml:space="preserve">2.59502792358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6199004650116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95484924316406</t>
   </si>
   <si>
     <t xml:space="preserve">2.89515590667725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86862468719482</t>
+    <t xml:space="preserve">2.86862516403198</t>
   </si>
   <si>
     <t xml:space="preserve">2.64808917045593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62819075584412</t>
+    <t xml:space="preserve">2.6281909942627</t>
   </si>
   <si>
     <t xml:space="preserve">2.62487483024597</t>
@@ -446,19 +446,19 @@
     <t xml:space="preserve">2.61824226379395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.583420753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58839535713196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6895432472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68291091918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69949197769165</t>
+    <t xml:space="preserve">2.58342051506042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58839511871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68954300880432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68291068077087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69949221611023</t>
   </si>
   <si>
     <t xml:space="preserve">2.70612502098083</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">2.69451761245728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74592041969299</t>
+    <t xml:space="preserve">2.74592113494873</t>
   </si>
   <si>
     <t xml:space="preserve">2.81224703788757</t>
@@ -479,31 +479,31 @@
     <t xml:space="preserve">2.84872698783875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81888031959534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78571677207947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70778298377991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71109914779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79732394218445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82385468482971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76084399223328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78240036964417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79566597938538</t>
+    <t xml:space="preserve">2.81887984275818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78571653366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70778322219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71109962463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79732370376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82385444641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76084423065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78240013122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79566550254822</t>
   </si>
   <si>
     <t xml:space="preserve">2.82551264762878</t>
@@ -512,31 +512,31 @@
     <t xml:space="preserve">2.857017993927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74923729896545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72104811668396</t>
+    <t xml:space="preserve">2.7492368221283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72104859352112</t>
   </si>
   <si>
     <t xml:space="preserve">2.7011501789093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67793607711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64974737167358</t>
+    <t xml:space="preserve">2.67793583869934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64974761009216</t>
   </si>
   <si>
     <t xml:space="preserve">2.66964530944824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71939015388489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68622708320618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74260449409485</t>
+    <t xml:space="preserve">2.71939039230347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6862268447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74260473251343</t>
   </si>
   <si>
     <t xml:space="preserve">2.65472173690796</t>
@@ -548,13 +548,13 @@
     <t xml:space="preserve">2.76416063308716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81058955192566</t>
+    <t xml:space="preserve">2.8105890750885</t>
   </si>
   <si>
     <t xml:space="preserve">2.78074216842651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77742624282837</t>
+    <t xml:space="preserve">2.77742600440979</t>
   </si>
   <si>
     <t xml:space="preserve">2.88520669937134</t>
@@ -563,40 +563,40 @@
     <t xml:space="preserve">2.79898190498352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81722164154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79400730133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7591860294342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74426221847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66467070579529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78737497329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72933888435364</t>
+    <t xml:space="preserve">2.81722140312195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79400706291199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75918626785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7442626953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66467094421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78737473487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72933912277222</t>
   </si>
   <si>
     <t xml:space="preserve">2.67627787590027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6464307308197</t>
+    <t xml:space="preserve">2.64643120765686</t>
   </si>
   <si>
     <t xml:space="preserve">2.60497641563416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60166049003601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56352257728577</t>
+    <t xml:space="preserve">2.60166025161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56352281570435</t>
   </si>
   <si>
     <t xml:space="preserve">2.51709389686584</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">2.55191540718079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63648200035095</t>
+    <t xml:space="preserve">2.63648176193237</t>
   </si>
   <si>
     <t xml:space="preserve">2.68456888198853</t>
@@ -617,13 +617,13 @@
     <t xml:space="preserve">2.72270631790161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77908420562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83877801895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82717108726501</t>
+    <t xml:space="preserve">2.77908396720886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83877825737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82717061042786</t>
   </si>
   <si>
     <t xml:space="preserve">2.83380341529846</t>
@@ -632,40 +632,40 @@
     <t xml:space="preserve">2.75421190261841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82882905006409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82053852081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77245187759399</t>
+    <t xml:space="preserve">2.82882881164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82053828239441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77245163917542</t>
   </si>
   <si>
     <t xml:space="preserve">2.80064034461975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83546137809753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8022985458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65637946128845</t>
+    <t xml:space="preserve">2.83546161651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80229830741882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65637993812561</t>
   </si>
   <si>
     <t xml:space="preserve">2.67959451675415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70280838012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74757885932922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7525532245636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98138022422791</t>
+    <t xml:space="preserve">2.70280861854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74757862091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75255346298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98138046264648</t>
   </si>
   <si>
     <t xml:space="preserve">2.94324231147766</t>
@@ -674,13 +674,13 @@
     <t xml:space="preserve">3.05931377410889</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03444147109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02946710586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02283406257629</t>
+    <t xml:space="preserve">3.03444170951843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0294668674469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02283453941345</t>
   </si>
   <si>
     <t xml:space="preserve">3.00127792358398</t>
@@ -689,43 +689,43 @@
     <t xml:space="preserve">2.99298715591431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95650768280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94987535476685</t>
+    <t xml:space="preserve">2.95650792121887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94987511634827</t>
   </si>
   <si>
     <t xml:space="preserve">2.93660950660706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93329358100891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90178847312927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87857413291931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90676283836365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9780638217926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98469662666321</t>
+    <t xml:space="preserve">2.93329334259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90178823471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87857389450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90676259994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97806358337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98469638824463</t>
   </si>
   <si>
     <t xml:space="preserve">3.05102324485779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97308921813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97474765777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01786017417908</t>
+    <t xml:space="preserve">2.97308945655823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9747474193573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0178599357605</t>
   </si>
   <si>
     <t xml:space="preserve">3.01620149612427</t>
@@ -740,40 +740,40 @@
     <t xml:space="preserve">3.11734962463379</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05599784851074</t>
+    <t xml:space="preserve">3.05599761009216</t>
   </si>
   <si>
     <t xml:space="preserve">3.03941583633423</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06760478019714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15862131118774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17884755134583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23278331756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20244431495667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20750069618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.253009557724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2445821762085</t>
+    <t xml:space="preserve">3.06760501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1586217880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1788477897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2327835559845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20244455337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20750093460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25300931930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24458193778992</t>
   </si>
   <si>
     <t xml:space="preserve">3.31368732452393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.281662940979</t>
+    <t xml:space="preserve">3.28166317939758</t>
   </si>
   <si>
     <t xml:space="preserve">3.23109817504883</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">3.21761417388916</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23446917533875</t>
+    <t xml:space="preserve">3.23446893692017</t>
   </si>
   <si>
     <t xml:space="preserve">3.1383957862854</t>
@@ -791,22 +791,22 @@
     <t xml:space="preserve">3.13671016693115</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04232215881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11985540390015</t>
+    <t xml:space="preserve">3.0423219203949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11985516548157</t>
   </si>
   <si>
     <t xml:space="preserve">3.1265971660614</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09457278251648</t>
+    <t xml:space="preserve">3.09457230567932</t>
   </si>
   <si>
     <t xml:space="preserve">3.08614540100098</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05412077903748</t>
+    <t xml:space="preserve">3.05412101745605</t>
   </si>
   <si>
     <t xml:space="preserve">3.05074954032898</t>
@@ -821,22 +821,22 @@
     <t xml:space="preserve">3.01535439491272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14176654815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15019392967224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14850878715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1704204082489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17379117012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21087217330933</t>
+    <t xml:space="preserve">3.14176678657532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15019416809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14850854873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17042016983032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17379140853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21087169647217</t>
   </si>
   <si>
     <t xml:space="preserve">3.22772693634033</t>
@@ -848,16 +848,16 @@
     <t xml:space="preserve">3.27829194068909</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29514718055725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29851770401001</t>
+    <t xml:space="preserve">3.29514694213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29851794242859</t>
   </si>
   <si>
     <t xml:space="preserve">3.31874394416809</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36088132858276</t>
+    <t xml:space="preserve">3.36088109016418</t>
   </si>
   <si>
     <t xml:space="preserve">3.37436532974243</t>
@@ -866,25 +866,25 @@
     <t xml:space="preserve">3.33728432655334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36256670951843</t>
+    <t xml:space="preserve">3.36256694793701</t>
   </si>
   <si>
     <t xml:space="preserve">3.28840470314026</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31537294387817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25806617736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32885694503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16030716896057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22267055511475</t>
+    <t xml:space="preserve">3.31537318229675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25806546211243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32885670661926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16030693054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22267031669617</t>
   </si>
   <si>
     <t xml:space="preserve">3.23615431785583</t>
@@ -893,34 +893,34 @@
     <t xml:space="preserve">3.23784017562866</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21424293518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11311340332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1181697845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1468231678009</t>
+    <t xml:space="preserve">3.21424317359924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11311316490173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11817002296448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14682292938232</t>
   </si>
   <si>
     <t xml:space="preserve">3.19064617156982</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09288716316223</t>
+    <t xml:space="preserve">3.09288763999939</t>
   </si>
   <si>
     <t xml:space="preserve">3.15693616867065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1350245475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15356516838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19401693344116</t>
+    <t xml:space="preserve">3.13502478599548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15356540679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19401717185974</t>
   </si>
   <si>
     <t xml:space="preserve">3.17210555076599</t>
@@ -932,22 +932,22 @@
     <t xml:space="preserve">3.18390417098999</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19907355308533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2091863155365</t>
+    <t xml:space="preserve">3.19907379150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20918679237366</t>
   </si>
   <si>
     <t xml:space="preserve">3.19233155250549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20412993431091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22098517417908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24795341491699</t>
+    <t xml:space="preserve">3.20413017272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2209849357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24795317649841</t>
   </si>
   <si>
     <t xml:space="preserve">3.16873455047607</t>
@@ -971,34 +971,34 @@
     <t xml:space="preserve">3.00861215591431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99175715446472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89399886131287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9395067691803</t>
+    <t xml:space="preserve">2.9917573928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89399862289429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93950724601746</t>
   </si>
   <si>
     <t xml:space="preserve">2.96647477149963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96984601020813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00524115562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00018453598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02546691894531</t>
+    <t xml:space="preserve">2.96984553337097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00524163246155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0001847743988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02546739578247</t>
   </si>
   <si>
     <t xml:space="preserve">2.94287824630737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8973696231842</t>
+    <t xml:space="preserve">2.89736938476562</t>
   </si>
   <si>
     <t xml:space="preserve">2.88557124137878</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">2.86871600151062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93782162666321</t>
+    <t xml:space="preserve">2.93782114982605</t>
   </si>
   <si>
     <t xml:space="preserve">2.80635261535645</t>
@@ -1016,19 +1016,19 @@
     <t xml:space="preserve">2.8653450012207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8484902381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87040138244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91591000556946</t>
+    <t xml:space="preserve">2.84848999977112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87040162086487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91591024398804</t>
   </si>
   <si>
     <t xml:space="preserve">3.03389453887939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03052353858948</t>
+    <t xml:space="preserve">3.03052401542664</t>
   </si>
   <si>
     <t xml:space="preserve">3.07603240013123</t>
@@ -1037,73 +1037,73 @@
     <t xml:space="preserve">3.11648416519165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10131430625916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13165378570557</t>
+    <t xml:space="preserve">3.10131478309631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13165354728699</t>
   </si>
   <si>
     <t xml:space="preserve">3.12491154670715</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08445978164673</t>
+    <t xml:space="preserve">3.08446002006531</t>
   </si>
   <si>
     <t xml:space="preserve">3.0979437828064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08951640129089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11479878425598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14008092880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17294859886169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13081097602844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21929979324341</t>
+    <t xml:space="preserve">3.08951616287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11479830741882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14008140563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17294836044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13081073760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21929955482483</t>
   </si>
   <si>
     <t xml:space="preserve">3.28250551223755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24036860466003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25722312927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32042956352234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28671979904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02125382423401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03810834884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98332977294922</t>
+    <t xml:space="preserve">3.24036836624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25722336769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32042908668518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28671956062317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02125358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03810858726501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9833300113678</t>
   </si>
   <si>
     <t xml:space="preserve">2.93276500701904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19823122024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13923835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11395597457886</t>
+    <t xml:space="preserve">3.1982307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13923811912537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11395573616028</t>
   </si>
   <si>
     <t xml:space="preserve">3.09710097312927</t>
@@ -1121,91 +1121,88 @@
     <t xml:space="preserve">3.08867335319519</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1097424030304</t>
+    <t xml:space="preserve">3.10974216461182</t>
   </si>
   <si>
     <t xml:space="preserve">3.10552835464478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21508574485779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40470409393311</t>
+    <t xml:space="preserve">3.21508598327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40470433235168</t>
   </si>
   <si>
     <t xml:space="preserve">3.31621551513672</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34149813652039</t>
+    <t xml:space="preserve">3.34149789810181</t>
   </si>
   <si>
     <t xml:space="preserve">3.34992527961731</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31200170516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24879598617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30885648727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26605153083801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27461242675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25320959091187</t>
+    <t xml:space="preserve">3.31200218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24879574775696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30885696411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26605129241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27461266517639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25320982933044</t>
   </si>
   <si>
     <t xml:space="preserve">3.2874538898468</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22752666473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15047669410706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18472099304199</t>
+    <t xml:space="preserve">3.22752642631531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15047693252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18472123146057</t>
   </si>
   <si>
     <t xml:space="preserve">3.20612382888794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2703320980072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3216986656189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31313729286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16759920120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13335466384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24892973899841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24036836624146</t>
+    <t xml:space="preserve">3.27033185958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32169842720032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31313753128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16759943962097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13335514068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24892926216125</t>
   </si>
   <si>
     <t xml:space="preserve">3.17616009712219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18900179862976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20184326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21040439605713</t>
+    <t xml:space="preserve">3.18900156021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20184373855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21040415763855</t>
   </si>
   <si>
     <t xml:space="preserve">3.21896553039551</t>
@@ -1214,28 +1211,28 @@
     <t xml:space="preserve">3.23608779907227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14619636535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19756293296814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23180723190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.171879529953</t>
+    <t xml:space="preserve">3.14619660377502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19756245613098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23180675506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17187976837158</t>
   </si>
   <si>
     <t xml:space="preserve">3.22324633598328</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25749063491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.278892993927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30029582977295</t>
+    <t xml:space="preserve">3.25749039649963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27889323234558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30029559135437</t>
   </si>
   <si>
     <t xml:space="preserve">3.3302595615387</t>
@@ -1253,34 +1250,34 @@
     <t xml:space="preserve">3.42443132400513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.492919921875</t>
+    <t xml:space="preserve">3.49292016029358</t>
   </si>
   <si>
     <t xml:space="preserve">3.56140851974487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50148153305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61277508735657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51860356330872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55284738540649</t>
+    <t xml:space="preserve">3.50148105621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61277461051941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51860332489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55284762382507</t>
   </si>
   <si>
     <t xml:space="preserve">3.58709192276001</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54428672790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52716422080994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45439529418945</t>
+    <t xml:space="preserve">3.54428625106812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52716469764709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45439505577087</t>
   </si>
   <si>
     <t xml:space="preserve">3.44583415985107</t>
@@ -1295,88 +1292,88 @@
     <t xml:space="preserve">3.385906457901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36450386047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40730929374695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33882093429565</t>
+    <t xml:space="preserve">3.36450409889221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40730905532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33882069587708</t>
   </si>
   <si>
     <t xml:space="preserve">3.34738206863403</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46723675727844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6470193862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65986084938049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62133574485779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65130019187927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65558075904846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73691058158875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62989711761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63845801353455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69410538673401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85676598548889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96377897262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79683804512024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83964323997498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87388825416565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90385150909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87816882133484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91669321060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99802350997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98946213722229</t>
+    <t xml:space="preserve">3.46723699569702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64701962471008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65986108779907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62133598327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65129995346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65558052062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73691034317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62989735603333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6384584903717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69410562515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85676550865173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96377921104431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79683828353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83964371681213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831294059753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87388801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90385127067566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87816905975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91669297218323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99802374839783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98946285247803</t>
   </si>
   <si>
     <t xml:space="preserve">4.02370643615723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14784240722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10075712203979</t>
+    <t xml:space="preserve">4.1478419303894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10075616836548</t>
   </si>
   <si>
     <t xml:space="preserve">4.00658464431763</t>
@@ -1385,58 +1382,58 @@
     <t xml:space="preserve">3.94665718078613</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89529085159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9380955696106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86960697174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94237661361694</t>
+    <t xml:space="preserve">3.8952910900116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93809628486633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86960768699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94237637519836</t>
   </si>
   <si>
     <t xml:space="preserve">3.95521783828735</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80967974662781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.920973777771</t>
+    <t xml:space="preserve">3.80967950820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92097425460815</t>
   </si>
   <si>
     <t xml:space="preserve">3.76687455177307</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98090124130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03226757049561</t>
+    <t xml:space="preserve">3.98090219497681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03226804733276</t>
   </si>
   <si>
     <t xml:space="preserve">4.07079315185547</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08363485336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99374341964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95093703269958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92953515052795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74119138717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74975228309631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66414165496826</t>
+    <t xml:space="preserve">4.08363437652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99374318122864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9509379863739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92953562736511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74119091033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74975252151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66414189338684</t>
   </si>
   <si>
     <t xml:space="preserve">3.60421395301819</t>
@@ -1445,16 +1442,16 @@
     <t xml:space="preserve">3.77971601486206</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71550798416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85248494148254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79255795478821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71978878974915</t>
+    <t xml:space="preserve">3.7155077457428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8524854183197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79255747795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71978831291199</t>
   </si>
   <si>
     <t xml:space="preserve">3.77543544769287</t>
@@ -1463,7 +1460,7 @@
     <t xml:space="preserve">3.7540328502655</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88244843482971</t>
+    <t xml:space="preserve">3.88244915008545</t>
   </si>
   <si>
     <t xml:space="preserve">3.86104607582092</t>
@@ -1472,19 +1469,19 @@
     <t xml:space="preserve">3.77115535736084</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80539989471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82252168655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72406935691833</t>
+    <t xml:space="preserve">3.80539917945862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82252144813538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72406911849976</t>
   </si>
   <si>
     <t xml:space="preserve">3.73263049125671</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93381476402283</t>
+    <t xml:space="preserve">3.93381547927856</t>
   </si>
   <si>
     <t xml:space="preserve">3.97234034538269</t>
@@ -1496,13 +1493,13 @@
     <t xml:space="preserve">4.08791494369507</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16924524307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1949291229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25485610961914</t>
+    <t xml:space="preserve">4.16924476623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19492864608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25485563278198</t>
   </si>
   <si>
     <t xml:space="preserve">4.28053951263428</t>
@@ -1511,13 +1508,13 @@
     <t xml:space="preserve">4.32334470748901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27197790145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18208646774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17780637741089</t>
+    <t xml:space="preserve">4.2719783782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18208694458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17780590057373</t>
   </si>
   <si>
     <t xml:space="preserve">4.16068410873413</t>
@@ -1526,28 +1523,28 @@
     <t xml:space="preserve">4.22917318344116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17352676391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16496467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14356231689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34902811050415</t>
+    <t xml:space="preserve">4.17352628707886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16496419906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14356184005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34902763366699</t>
   </si>
   <si>
     <t xml:space="preserve">4.48600482940674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61442184448242</t>
+    <t xml:space="preserve">4.61442136764526</t>
   </si>
   <si>
     <t xml:space="preserve">4.58873844146729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67434883117676</t>
+    <t xml:space="preserve">4.67434930801392</t>
   </si>
   <si>
     <t xml:space="preserve">4.57161617279053</t>
@@ -1556,10 +1553,10 @@
     <t xml:space="preserve">4.71715402603149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76852083206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7942042350769</t>
+    <t xml:space="preserve">4.76852130889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79420328140259</t>
   </si>
   <si>
     <t xml:space="preserve">4.77708148956299</t>
@@ -1574,10 +1571,10 @@
     <t xml:space="preserve">4.53737163543701</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52881050109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56305503845215</t>
+    <t xml:space="preserve">4.52881002426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56305551528931</t>
   </si>
   <si>
     <t xml:space="preserve">4.58017683029175</t>
@@ -1589,73 +1586,73 @@
     <t xml:space="preserve">4.69147062301636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70859384536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70003175735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49456644058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62298202514648</t>
+    <t xml:space="preserve">4.70859336853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70003223419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49456596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6229829788208</t>
   </si>
   <si>
     <t xml:space="preserve">4.8541316986084</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90549802780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83700942993164</t>
+    <t xml:space="preserve">4.90549850463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83700895309448</t>
   </si>
   <si>
     <t xml:space="preserve">4.78564262390137</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75139904022217</t>
+    <t xml:space="preserve">4.75139856338501</t>
   </si>
   <si>
     <t xml:space="preserve">4.59729909896851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63154315948486</t>
+    <t xml:space="preserve">4.63154363632202</t>
   </si>
   <si>
     <t xml:space="preserve">4.55449390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50312805175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47744417190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46888208389282</t>
+    <t xml:space="preserve">4.5031270980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47744464874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46888256072998</t>
   </si>
   <si>
     <t xml:space="preserve">4.43463850021362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55733585357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60992050170898</t>
+    <t xml:space="preserve">4.55733633041382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60992097854614</t>
   </si>
   <si>
     <t xml:space="preserve">4.48722314834595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46093082427979</t>
+    <t xml:space="preserve">4.46093130111694</t>
   </si>
   <si>
     <t xml:space="preserve">4.39081811904907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35576152801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41710996627808</t>
+    <t xml:space="preserve">4.35576105117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41711044311523</t>
   </si>
   <si>
     <t xml:space="preserve">4.39958190917969</t>
@@ -1664,37 +1661,37 @@
     <t xml:space="preserve">4.4696946144104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5310435295105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54857158660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4434027671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47845935821533</t>
+    <t xml:space="preserve">4.53104400634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54857206344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44340229034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47845888137817</t>
   </si>
   <si>
     <t xml:space="preserve">4.53980779647827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50475120544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31632328033447</t>
+    <t xml:space="preserve">4.50475168228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31632375717163</t>
   </si>
   <si>
     <t xml:space="preserve">4.35137939453125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21553564071655</t>
+    <t xml:space="preserve">4.21553611755371</t>
   </si>
   <si>
     <t xml:space="preserve">4.12789487838745</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16733312606812</t>
+    <t xml:space="preserve">4.16733360290527</t>
   </si>
   <si>
     <t xml:space="preserve">4.06216430664062</t>
@@ -1703,13 +1700,13 @@
     <t xml:space="preserve">4.11474895477295</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02710723876953</t>
+    <t xml:space="preserve">4.02710771560669</t>
   </si>
   <si>
     <t xml:space="preserve">4.07092809677124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06654644012451</t>
+    <t xml:space="preserve">4.0665454864502</t>
   </si>
   <si>
     <t xml:space="preserve">4.0227255821228</t>
@@ -1718,10 +1715,10 @@
     <t xml:space="preserve">4.04463529586792</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04025363922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09283876419067</t>
+    <t xml:space="preserve">4.04025411605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09283828735352</t>
   </si>
   <si>
     <t xml:space="preserve">4.00519752502441</t>
@@ -1736,46 +1733,46 @@
     <t xml:space="preserve">4.19362545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34699726104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40834665298462</t>
+    <t xml:space="preserve">4.34699773788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40834617614746</t>
   </si>
   <si>
     <t xml:space="preserve">4.3820538520813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11036729812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91755628585815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95261287689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96575927734375</t>
+    <t xml:space="preserve">4.11036682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91755604743958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95261311531067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96575903892517</t>
   </si>
   <si>
     <t xml:space="preserve">4.0840744972229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10160255432129</t>
+    <t xml:space="preserve">4.10160207748413</t>
   </si>
   <si>
     <t xml:space="preserve">4.01396131515503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94384860992432</t>
+    <t xml:space="preserve">3.94384837150574</t>
   </si>
   <si>
     <t xml:space="preserve">3.84744310379028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79047679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77733039855957</t>
+    <t xml:space="preserve">3.79047632217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77733063697815</t>
   </si>
   <si>
     <t xml:space="preserve">3.75103855133057</t>
@@ -1784,10 +1781,10 @@
     <t xml:space="preserve">3.75980234146118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78171253204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73789215087891</t>
+    <t xml:space="preserve">3.78171229362488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73789191246033</t>
   </si>
   <si>
     <t xml:space="preserve">3.73351049423218</t>
@@ -1796,79 +1793,79 @@
     <t xml:space="preserve">3.79485869407654</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89126372337341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03148937225342</t>
+    <t xml:space="preserve">3.89126396179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03148889541626</t>
   </si>
   <si>
     <t xml:space="preserve">3.93508386611938</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86059021949768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92193865776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85620808601379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76856684684753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80800485610962</t>
+    <t xml:space="preserve">3.8605899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92193841934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85620760917664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76856660842896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80800437927246</t>
   </si>
   <si>
     <t xml:space="preserve">3.78609490394592</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67216157913208</t>
+    <t xml:space="preserve">3.67216110229492</t>
   </si>
   <si>
     <t xml:space="preserve">3.82991504669189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72474575042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79924082756042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86497139930725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72036409378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74227452278137</t>
+    <t xml:space="preserve">3.72474551200867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79924058914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86497163772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72036361694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74227380752563</t>
   </si>
   <si>
     <t xml:space="preserve">3.7466561794281</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68968963623047</t>
+    <t xml:space="preserve">3.68968939781189</t>
   </si>
   <si>
     <t xml:space="preserve">3.64586877822876</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71598172187805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72912812232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70283532142639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04901742935181</t>
+    <t xml:space="preserve">3.71598148345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72912764549255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70283555984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04901790618896</t>
   </si>
   <si>
     <t xml:space="preserve">4.0358715057373</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97890472412109</t>
+    <t xml:space="preserve">3.97890496253967</t>
   </si>
   <si>
     <t xml:space="preserve">4.00957918167114</t>
@@ -1877,10 +1874,10 @@
     <t xml:space="preserve">4.09722089767456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18047952651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22430038452148</t>
+    <t xml:space="preserve">4.18048000335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22429990768433</t>
   </si>
   <si>
     <t xml:space="preserve">4.32946920394897</t>
@@ -1889,43 +1886,43 @@
     <t xml:space="preserve">4.33385133743286</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52227973937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51351594924927</t>
+    <t xml:space="preserve">4.52227926254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51351547241211</t>
   </si>
   <si>
     <t xml:space="preserve">4.68003368377686</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67126941680908</t>
+    <t xml:space="preserve">4.67126893997192</t>
   </si>
   <si>
     <t xml:space="preserve">4.58362817764282</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64497756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57486343383789</t>
+    <t xml:space="preserve">4.64497709274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57486391067505</t>
   </si>
   <si>
     <t xml:space="preserve">4.62744903564453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68879747390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87284326553345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90790033340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79396677017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74138164520264</t>
+    <t xml:space="preserve">4.68879795074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87284374237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9079008102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79396724700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74138212203979</t>
   </si>
   <si>
     <t xml:space="preserve">4.82025957107544</t>
@@ -1940,16 +1937,16 @@
     <t xml:space="preserve">4.77643871307373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80273056030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76767444610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65374135971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59239196777344</t>
+    <t xml:space="preserve">4.80273103713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76767492294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65374088287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59239292144775</t>
   </si>
   <si>
     <t xml:space="preserve">4.6362133026123</t>
@@ -1958,25 +1955,25 @@
     <t xml:space="preserve">4.60115623474121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6186842918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86407995223999</t>
+    <t xml:space="preserve">4.61868476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86408042907715</t>
   </si>
   <si>
     <t xml:space="preserve">4.75891017913818</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70632600784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82902336120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73261785507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3207049369812</t>
+    <t xml:space="preserve">4.70632553100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82902383804321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73261833190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32070541381836</t>
   </si>
   <si>
     <t xml:space="preserve">4.24182844161987</t>
@@ -1994,22 +1991,22 @@
     <t xml:space="preserve">4.19800758361816</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82553291320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54069972038269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43114829063416</t>
+    <t xml:space="preserve">3.82553267478943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54069948196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.431147813797</t>
   </si>
   <si>
     <t xml:space="preserve">3.37856364250183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22957348823547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28654050827026</t>
+    <t xml:space="preserve">3.22957372665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28654026985168</t>
   </si>
   <si>
     <t xml:space="preserve">2.86148118972778</t>
@@ -2018,61 +2015,61 @@
     <t xml:space="preserve">2.97541451454163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92283010482788</t>
+    <t xml:space="preserve">2.9228298664093</t>
   </si>
   <si>
     <t xml:space="preserve">2.94474005699158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78698658943176</t>
+    <t xml:space="preserve">2.78698635101318</t>
   </si>
   <si>
     <t xml:space="preserve">2.72125554084778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85709929466248</t>
+    <t xml:space="preserve">2.8570990562439</t>
   </si>
   <si>
     <t xml:space="preserve">2.66428875923157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77822208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97979688644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87024521827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75631165504456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71249151229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90091967582703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82204294204712</t>
+    <t xml:space="preserve">2.77822232246399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97979664802551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87024545669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75631189346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71249127388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90091943740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82204270362854</t>
   </si>
   <si>
     <t xml:space="preserve">2.84395289421082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76069402694702</t>
+    <t xml:space="preserve">2.7606942653656</t>
   </si>
   <si>
     <t xml:space="preserve">2.76507592201233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90968370437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94912219047546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98856091499329</t>
+    <t xml:space="preserve">2.9096839427948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94912242889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98856067657471</t>
   </si>
   <si>
     <t xml:space="preserve">3.06743764877319</t>
@@ -2081,7 +2078,7 @@
     <t xml:space="preserve">3.02361702919006</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99732494354248</t>
+    <t xml:space="preserve">2.9973247051239</t>
   </si>
   <si>
     <t xml:space="preserve">3.00170683860779</t>
@@ -2093,7 +2090,7 @@
     <t xml:space="preserve">3.07182002067566</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00608921051025</t>
+    <t xml:space="preserve">3.00608897209167</t>
   </si>
   <si>
     <t xml:space="preserve">3.03676319122314</t>
@@ -2105,19 +2102,19 @@
     <t xml:space="preserve">3.16822481155396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10249400138855</t>
+    <t xml:space="preserve">3.10249423980713</t>
   </si>
   <si>
     <t xml:space="preserve">3.11125802993774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1463143825531</t>
+    <t xml:space="preserve">3.14631485939026</t>
   </si>
   <si>
     <t xml:space="preserve">3.19451713562012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09372997283936</t>
+    <t xml:space="preserve">3.09373021125793</t>
   </si>
   <si>
     <t xml:space="preserve">3.15507864952087</t>
@@ -2126,10 +2123,10 @@
     <t xml:space="preserve">3.25586605072021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31283283233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22519135475159</t>
+    <t xml:space="preserve">3.31283259391785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22519183158875</t>
   </si>
   <si>
     <t xml:space="preserve">3.21204543113708</t>
@@ -2144,43 +2141,43 @@
     <t xml:space="preserve">3.18137121200562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37418127059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45305895805359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50564312934875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55384564399719</t>
+    <t xml:space="preserve">3.37418150901794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45305848121643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50564336776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55384540557861</t>
   </si>
   <si>
     <t xml:space="preserve">3.5319356918335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54946398735046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38294577598572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36103558540344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2602481842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44867658615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44429421424866</t>
+    <t xml:space="preserve">3.54946374893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38294529914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36103534698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26024794578552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44867610931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44429445266724</t>
   </si>
   <si>
     <t xml:space="preserve">3.41800212860107</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43991208076477</t>
+    <t xml:space="preserve">3.43991231918335</t>
   </si>
   <si>
     <t xml:space="preserve">3.49687910079956</t>
@@ -2189,13 +2186,13 @@
     <t xml:space="preserve">3.51002526283264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51440715789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83402919769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78892278671265</t>
+    <t xml:space="preserve">3.51440739631653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83402895927429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78892254829407</t>
   </si>
   <si>
     <t xml:space="preserve">3.70322108268738</t>
@@ -2204,58 +2201,58 @@
     <t xml:space="preserve">3.65360450744629</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59045577049255</t>
+    <t xml:space="preserve">3.59045553207397</t>
   </si>
   <si>
     <t xml:space="preserve">3.57241320610046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50024342536926</t>
+    <t xml:space="preserve">3.50024318695068</t>
   </si>
   <si>
     <t xml:space="preserve">3.51828575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4280731678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45513701438904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4867115020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3874773979187</t>
+    <t xml:space="preserve">3.42807292938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45513677597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48671126365662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38747763633728</t>
   </si>
   <si>
     <t xml:space="preserve">3.40552020072937</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38296699523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33786058425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34688186645508</t>
+    <t xml:space="preserve">3.38296675682068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33786082267761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34688210487366</t>
   </si>
   <si>
     <t xml:space="preserve">3.29275465011597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15743589401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24764823913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31981801986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27020144462585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22960567474365</t>
+    <t xml:space="preserve">3.15743565559387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24764800071716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3198184967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27020120620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22960591316223</t>
   </si>
   <si>
     <t xml:space="preserve">3.22058439254761</t>
@@ -2264,10 +2261,10 @@
     <t xml:space="preserve">3.20254182815552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16645669937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16194653511047</t>
+    <t xml:space="preserve">3.16645693778992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16194677352905</t>
   </si>
   <si>
     <t xml:space="preserve">3.10330843925476</t>
@@ -2282,16 +2279,16 @@
     <t xml:space="preserve">3.12135076522827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04015946388245</t>
+    <t xml:space="preserve">3.04015922546387</t>
   </si>
   <si>
     <t xml:space="preserve">3.02211713790894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00407457351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9950532913208</t>
+    <t xml:space="preserve">3.00407481193542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99505352973938</t>
   </si>
   <si>
     <t xml:space="preserve">3.15292501449585</t>
@@ -2300,22 +2297,22 @@
     <t xml:space="preserve">3.13037204742432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11684012413025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04467010498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9634792804718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89130902290344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92739415168762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85973453521729</t>
+    <t xml:space="preserve">3.11684036254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04467034339905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96347904205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89130878448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92739391326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85973477363586</t>
   </si>
   <si>
     <t xml:space="preserve">2.83267116546631</t>
@@ -2324,37 +2321,37 @@
     <t xml:space="preserve">2.86875605583191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90484118461609</t>
+    <t xml:space="preserve">2.90484094619751</t>
   </si>
   <si>
     <t xml:space="preserve">2.886798620224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8507137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97701096534729</t>
+    <t xml:space="preserve">2.85071325302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97701120376587</t>
   </si>
   <si>
     <t xml:space="preserve">2.87777733802795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85522413253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86424541473389</t>
+    <t xml:space="preserve">2.85522437095642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86424517631531</t>
   </si>
   <si>
     <t xml:space="preserve">2.81462836265564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77854347229004</t>
+    <t xml:space="preserve">2.77854323387146</t>
   </si>
   <si>
     <t xml:space="preserve">2.76952219009399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73794794082642</t>
+    <t xml:space="preserve">2.737948179245</t>
   </si>
   <si>
     <t xml:space="preserve">2.68833112716675</t>
@@ -2372,19 +2369,19 @@
     <t xml:space="preserve">2.61616110801697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60262894630432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54399108886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62518239021301</t>
+    <t xml:space="preserve">2.6026291847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54399085044861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62518262863159</t>
   </si>
   <si>
     <t xml:space="preserve">3.0311381816864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01309561729431</t>
+    <t xml:space="preserve">3.01309585571289</t>
   </si>
   <si>
     <t xml:space="preserve">3.06271266937256</t>
@@ -2393,7 +2390,7 @@
     <t xml:space="preserve">3.24313759803772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23411655426025</t>
+    <t xml:space="preserve">3.23411631584167</t>
   </si>
   <si>
     <t xml:space="preserve">3.25666952133179</t>
@@ -2405,13 +2402,13 @@
     <t xml:space="preserve">3.36492443084717</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54986000061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48220062255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55437088012695</t>
+    <t xml:space="preserve">3.54985976219177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48220038414001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55437064170837</t>
   </si>
   <si>
     <t xml:space="preserve">3.52730703353882</t>
@@ -2420,7 +2417,7 @@
     <t xml:space="preserve">3.56339192390442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58143424987793</t>
+    <t xml:space="preserve">3.58143448829651</t>
   </si>
   <si>
     <t xml:space="preserve">3.51377511024475</t>
@@ -2429,28 +2426,28 @@
     <t xml:space="preserve">3.49573254585266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62654042243958</t>
+    <t xml:space="preserve">3.62654066085815</t>
   </si>
   <si>
     <t xml:space="preserve">3.75283789634705</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79794454574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82500791549683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87913608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73028516769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73479557037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72577428817749</t>
+    <t xml:space="preserve">3.79794430732727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82500767707825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791356086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73028492927551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73479533195496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72577452659607</t>
   </si>
   <si>
     <t xml:space="preserve">3.69871044158936</t>
@@ -2459,37 +2456,37 @@
     <t xml:space="preserve">3.68066787719727</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61751937866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60849809646606</t>
+    <t xml:space="preserve">3.61751961708069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60849833488464</t>
   </si>
   <si>
     <t xml:space="preserve">3.64458298683167</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57692384719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66262578964233</t>
+    <t xml:space="preserve">3.57692337036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66262555122375</t>
   </si>
   <si>
     <t xml:space="preserve">3.64909386634827</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82049775123596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81598663330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80696582794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77990198135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85207200050354</t>
+    <t xml:space="preserve">3.8204972743988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81598687171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80696511268616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77990174293518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85207152366638</t>
   </si>
   <si>
     <t xml:space="preserve">3.9152204990387</t>
@@ -2504,7 +2501,7 @@
     <t xml:space="preserve">3.85658240318298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83854007720947</t>
+    <t xml:space="preserve">3.83853960037231</t>
   </si>
   <si>
     <t xml:space="preserve">3.84756112098694</t>
@@ -2516,10 +2513,13 @@
     <t xml:space="preserve">3.76185917854309</t>
   </si>
   <si>
+    <t xml:space="preserve">3.68968915939331</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.6716468334198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73930597305298</t>
+    <t xml:space="preserve">3.73930621147156</t>
   </si>
   <si>
     <t xml:space="preserve">3.78441262245178</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">3.86109328269958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00543260574341</t>
+    <t xml:space="preserve">4.00543308258057</t>
   </si>
   <si>
     <t xml:space="preserve">4.01896476745605</t>
@@ -3966,6 +3966,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.32000017166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26000022888184</t>
   </si>
 </sst>
 </file>
@@ -20549,7 +20552,7 @@
         <v>3.78500008583069</v>
       </c>
       <c r="G625" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20575,7 +20578,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20601,7 +20604,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G627" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20627,7 +20630,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G628" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20653,7 +20656,7 @@
         <v>3.75</v>
       </c>
       <c r="G629" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20679,7 +20682,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G630" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20705,7 +20708,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G631" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20731,7 +20734,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G632" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20757,7 +20760,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G633" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20809,7 +20812,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G635" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20835,7 +20838,7 @@
         <v>3.73499989509583</v>
       </c>
       <c r="G636" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20861,7 +20864,7 @@
         <v>3.77500009536743</v>
       </c>
       <c r="G637" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20887,7 +20890,7 @@
         <v>3.70499992370605</v>
       </c>
       <c r="G638" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20913,7 +20916,7 @@
         <v>3.76500010490417</v>
       </c>
       <c r="G639" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20939,7 +20942,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G640" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20965,7 +20968,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G641" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20991,7 +20994,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G642" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21017,7 +21020,7 @@
         <v>3.75</v>
       </c>
       <c r="G643" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21069,7 +21072,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G645" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21095,7 +21098,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G646" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21147,7 +21150,7 @@
         <v>3.8050000667572</v>
       </c>
       <c r="G648" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21199,7 +21202,7 @@
         <v>3.85500001907349</v>
       </c>
       <c r="G650" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21225,7 +21228,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G651" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21251,7 +21254,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G652" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21277,7 +21280,7 @@
         <v>3.9449999332428</v>
       </c>
       <c r="G653" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21303,7 +21306,7 @@
         <v>3.90499997138977</v>
       </c>
       <c r="G654" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21329,7 +21332,7 @@
         <v>4</v>
       </c>
       <c r="G655" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21355,7 +21358,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G656" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21381,7 +21384,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G657" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21407,7 +21410,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21433,7 +21436,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G659" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21459,7 +21462,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G660" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21485,7 +21488,7 @@
         <v>4.1100001335144</v>
       </c>
       <c r="G661" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21511,7 +21514,7 @@
         <v>4.15000009536743</v>
       </c>
       <c r="G662" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21537,7 +21540,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G663" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21563,7 +21566,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G664" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21589,7 +21592,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G665" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21615,7 +21618,7 @@
         <v>4.11999988555908</v>
       </c>
       <c r="G666" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21641,7 +21644,7 @@
         <v>4.03499984741211</v>
       </c>
       <c r="G667" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21667,7 +21670,7 @@
         <v>4</v>
       </c>
       <c r="G668" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21693,7 +21696,7 @@
         <v>4.02500009536743</v>
       </c>
       <c r="G669" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21719,7 +21722,7 @@
         <v>4.13500022888184</v>
       </c>
       <c r="G670" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21745,7 +21748,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G671" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21771,7 +21774,7 @@
         <v>3.9449999332428</v>
       </c>
       <c r="G672" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21797,7 +21800,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G673" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21823,7 +21826,7 @@
         <v>3.95499992370605</v>
       </c>
       <c r="G674" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21849,7 +21852,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G675" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21875,7 +21878,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G676" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21901,7 +21904,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G677" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21927,7 +21930,7 @@
         <v>3.95499992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21953,7 +21956,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G679" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21979,7 +21982,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G680" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22005,7 +22008,7 @@
         <v>4</v>
       </c>
       <c r="G681" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22031,7 +22034,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G682" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22057,7 +22060,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G683" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22083,7 +22086,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G684" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22109,7 +22112,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G685" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22135,7 +22138,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G686" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22161,7 +22164,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G687" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22187,7 +22190,7 @@
         <v>4.36499977111816</v>
       </c>
       <c r="G688" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22213,7 +22216,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G689" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22239,7 +22242,7 @@
         <v>4.25</v>
       </c>
       <c r="G690" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22265,7 +22268,7 @@
         <v>4.31500005722046</v>
       </c>
       <c r="G691" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22291,7 +22294,7 @@
         <v>4.50500011444092</v>
       </c>
       <c r="G692" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22317,7 +22320,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G693" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22343,7 +22346,7 @@
         <v>4.43499994277954</v>
       </c>
       <c r="G694" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22369,7 +22372,7 @@
         <v>4.4850001335144</v>
       </c>
       <c r="G695" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22395,7 +22398,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G696" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22421,7 +22424,7 @@
         <v>4.52500009536743</v>
       </c>
       <c r="G697" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22447,7 +22450,7 @@
         <v>4.50500011444092</v>
       </c>
       <c r="G698" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22473,7 +22476,7 @@
         <v>4.55999994277954</v>
       </c>
       <c r="G699" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22499,7 +22502,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G700" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22525,7 +22528,7 @@
         <v>4.57499980926514</v>
       </c>
       <c r="G701" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22551,7 +22554,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G702" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22577,7 +22580,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G703" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22603,7 +22606,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G704" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22629,7 +22632,7 @@
         <v>4.84499979019165</v>
       </c>
       <c r="G705" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22655,7 +22658,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G706" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22681,7 +22684,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G707" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -22707,7 +22710,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G708" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22733,7 +22736,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G709" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22759,7 +22762,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G710" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -22785,7 +22788,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G711" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -22811,7 +22814,7 @@
         <v>4.51999998092651</v>
       </c>
       <c r="G712" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22837,7 +22840,7 @@
         <v>4.60500001907349</v>
       </c>
       <c r="G713" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22863,7 +22866,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G714" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22889,7 +22892,7 @@
         <v>4.57499980926514</v>
       </c>
       <c r="G715" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22915,7 +22918,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G716" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22941,7 +22944,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G717" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22967,7 +22970,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G718" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22993,7 +22996,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G719" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23019,7 +23022,7 @@
         <v>4.4850001335144</v>
       </c>
       <c r="G720" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23045,7 +23048,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G721" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23071,7 +23074,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G722" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23097,7 +23100,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G723" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23123,7 +23126,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G724" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23149,7 +23152,7 @@
         <v>4.75500011444092</v>
       </c>
       <c r="G725" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23175,7 +23178,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G726" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23201,7 +23204,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G727" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23227,7 +23230,7 @@
         <v>4.66499996185303</v>
       </c>
       <c r="G728" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23253,7 +23256,7 @@
         <v>4.61499977111816</v>
       </c>
       <c r="G729" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23279,7 +23282,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G730" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23305,7 +23308,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G731" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23331,7 +23334,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G732" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23357,7 +23360,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G733" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23383,7 +23386,7 @@
         <v>4.4850001335144</v>
       </c>
       <c r="G734" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23409,7 +23412,7 @@
         <v>4.43499994277954</v>
       </c>
       <c r="G735" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23435,7 +23438,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G736" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23461,7 +23464,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G737" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23487,7 +23490,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G738" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23513,7 +23516,7 @@
         <v>4.25</v>
       </c>
       <c r="G739" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23539,7 +23542,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G740" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23565,7 +23568,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G741" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23591,7 +23594,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G742" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23617,7 +23620,7 @@
         <v>4.41499996185303</v>
       </c>
       <c r="G743" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23643,7 +23646,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G744" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23669,7 +23672,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G745" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23695,7 +23698,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G746" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23721,7 +23724,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G747" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23747,7 +23750,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G748" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -23773,7 +23776,7 @@
         <v>4.5</v>
       </c>
       <c r="G749" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23799,7 +23802,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G750" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23825,7 +23828,7 @@
         <v>4.41499996185303</v>
       </c>
       <c r="G751" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23851,7 +23854,7 @@
         <v>4.34499979019165</v>
       </c>
       <c r="G752" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23877,7 +23880,7 @@
         <v>4.43499994277954</v>
       </c>
       <c r="G753" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23903,7 +23906,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G754" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23929,7 +23932,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G755" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23955,7 +23958,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G756" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23981,7 +23984,7 @@
         <v>4.38500022888184</v>
       </c>
       <c r="G757" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24007,7 +24010,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G758" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24033,7 +24036,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G759" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24059,7 +24062,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G760" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24085,7 +24088,7 @@
         <v>4.38000011444092</v>
       </c>
       <c r="G761" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24111,7 +24114,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G762" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24137,7 +24140,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G763" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24163,7 +24166,7 @@
         <v>4.55000019073486</v>
       </c>
       <c r="G764" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24189,7 +24192,7 @@
         <v>4.53499984741211</v>
       </c>
       <c r="G765" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24215,7 +24218,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G766" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24241,7 +24244,7 @@
         <v>4.40500020980835</v>
       </c>
       <c r="G767" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24267,7 +24270,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G768" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24293,7 +24296,7 @@
         <v>4.44999980926514</v>
       </c>
       <c r="G769" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24319,7 +24322,7 @@
         <v>4.44500017166138</v>
       </c>
       <c r="G770" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24345,7 +24348,7 @@
         <v>4.46500015258789</v>
       </c>
       <c r="G771" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24371,7 +24374,7 @@
         <v>4.42999982833862</v>
       </c>
       <c r="G772" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24397,7 +24400,7 @@
         <v>4.34999990463257</v>
       </c>
       <c r="G773" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24423,7 +24426,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G774" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24449,7 +24452,7 @@
         <v>4.3600001335144</v>
       </c>
       <c r="G775" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24475,7 +24478,7 @@
         <v>4.5</v>
       </c>
       <c r="G776" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24501,7 +24504,7 @@
         <v>4.63000011444092</v>
       </c>
       <c r="G777" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24527,7 +24530,7 @@
         <v>4.59499979019165</v>
       </c>
       <c r="G778" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24553,7 +24556,7 @@
         <v>4.65000009536743</v>
       </c>
       <c r="G779" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24579,7 +24582,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G780" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24605,7 +24608,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G781" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24631,7 +24634,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G782" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24657,7 +24660,7 @@
         <v>4.77500009536743</v>
       </c>
       <c r="G783" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24683,7 +24686,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G784" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24709,7 +24712,7 @@
         <v>4.86999988555908</v>
       </c>
       <c r="G785" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -24735,7 +24738,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G786" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24761,7 +24764,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G787" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24787,7 +24790,7 @@
         <v>5</v>
       </c>
       <c r="G788" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24813,7 +24816,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G789" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24839,7 +24842,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G790" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24865,7 +24868,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G791" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24891,7 +24894,7 @@
         <v>4.88500022888184</v>
       </c>
       <c r="G792" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24917,7 +24920,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G793" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24943,7 +24946,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G794" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24969,7 +24972,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G795" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24995,7 +24998,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G796" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25021,7 +25024,7 @@
         <v>4.88000011444092</v>
       </c>
       <c r="G797" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25047,7 +25050,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G798" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25073,7 +25076,7 @@
         <v>4.88500022888184</v>
       </c>
       <c r="G799" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25099,7 +25102,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G800" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25125,7 +25128,7 @@
         <v>4.875</v>
       </c>
       <c r="G801" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25151,7 +25154,7 @@
         <v>4.86499977111816</v>
       </c>
       <c r="G802" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25177,7 +25180,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G803" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25203,7 +25206,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G804" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25229,7 +25232,7 @@
         <v>4.8600001335144</v>
       </c>
       <c r="G805" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25255,7 +25258,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G806" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25281,7 +25284,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G807" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25307,7 +25310,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G808" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25333,7 +25336,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G809" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25359,7 +25362,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G810" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25385,7 +25388,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G811" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25411,7 +25414,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G812" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25437,7 +25440,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G813" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25463,7 +25466,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G814" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25489,7 +25492,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G815" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25515,7 +25518,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G816" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25541,7 +25544,7 @@
         <v>5.57000017166138</v>
       </c>
       <c r="G817" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25567,7 +25570,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G818" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25593,7 +25596,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G819" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25619,7 +25622,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G820" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25645,7 +25648,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G821" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25671,7 +25674,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G822" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -25697,7 +25700,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G823" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25723,7 +25726,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G824" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25749,7 +25752,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G825" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -25775,7 +25778,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G826" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -25801,7 +25804,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G827" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -25827,7 +25830,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G828" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -25853,7 +25856,7 @@
         <v>5.5</v>
       </c>
       <c r="G829" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25879,7 +25882,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G830" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -25905,7 +25908,7 @@
         <v>5.5</v>
       </c>
       <c r="G831" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25931,7 +25934,7 @@
         <v>5.5</v>
       </c>
       <c r="G832" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25957,7 +25960,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G833" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25983,7 +25986,7 @@
         <v>5.25</v>
       </c>
       <c r="G834" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26009,7 +26012,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G835" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26035,7 +26038,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G836" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26061,7 +26064,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G837" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26087,7 +26090,7 @@
         <v>5.67000007629395</v>
       </c>
       <c r="G838" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26113,7 +26116,7 @@
         <v>5.73000001907349</v>
       </c>
       <c r="G839" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26139,7 +26142,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G840" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26165,7 +26168,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G841" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26191,7 +26194,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G842" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26217,7 +26220,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G843" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26243,7 +26246,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G844" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26269,7 +26272,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G845" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26295,7 +26298,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G846" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26321,7 +26324,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G847" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26347,7 +26350,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G848" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26373,7 +26376,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G849" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26399,7 +26402,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G850" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26425,7 +26428,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G851" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26451,7 +26454,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G852" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26477,7 +26480,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G853" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26503,7 +26506,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G854" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26529,7 +26532,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G855" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26555,7 +26558,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G856" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26581,7 +26584,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G857" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26607,7 +26610,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G858" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26633,7 +26636,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G859" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26659,7 +26662,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G860" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26685,7 +26688,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G861" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26711,7 +26714,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G862" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26737,7 +26740,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G863" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26763,7 +26766,7 @@
         <v>5.09000015258789</v>
       </c>
       <c r="G864" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -26789,7 +26792,7 @@
         <v>5.01000022888184</v>
       </c>
       <c r="G865" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26815,7 +26818,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G866" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26841,7 +26844,7 @@
         <v>5.03999996185303</v>
       </c>
       <c r="G867" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26867,7 +26870,7 @@
         <v>5.01999998092651</v>
       </c>
       <c r="G868" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26893,7 +26896,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G869" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26919,7 +26922,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G870" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26945,7 +26948,7 @@
         <v>5.17000007629395</v>
       </c>
       <c r="G871" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26971,7 +26974,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G872" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26997,7 +27000,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G873" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27023,7 +27026,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G874" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27049,7 +27052,7 @@
         <v>5.09000015258789</v>
       </c>
       <c r="G875" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27075,7 +27078,7 @@
         <v>5.07000017166138</v>
       </c>
       <c r="G876" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27101,7 +27104,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G877" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27127,7 +27130,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G878" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27153,7 +27156,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G879" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27179,7 +27182,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G880" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27205,7 +27208,7 @@
         <v>5.1399998664856</v>
       </c>
       <c r="G881" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27231,7 +27234,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G882" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27257,7 +27260,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G883" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27283,7 +27286,7 @@
         <v>4.92500019073486</v>
       </c>
       <c r="G884" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27309,7 +27312,7 @@
         <v>4.96500015258789</v>
       </c>
       <c r="G885" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27335,7 +27338,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G886" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27361,7 +27364,7 @@
         <v>4.71000003814697</v>
       </c>
       <c r="G887" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27387,7 +27390,7 @@
         <v>4.75500011444092</v>
       </c>
       <c r="G888" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27413,7 +27416,7 @@
         <v>4.63500022888184</v>
       </c>
       <c r="G889" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27439,7 +27442,7 @@
         <v>4.69500017166138</v>
       </c>
       <c r="G890" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27465,7 +27468,7 @@
         <v>4.59499979019165</v>
       </c>
       <c r="G891" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27491,7 +27494,7 @@
         <v>4.64499998092651</v>
       </c>
       <c r="G892" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27517,7 +27520,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G893" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27543,7 +27546,7 @@
         <v>4.59000015258789</v>
       </c>
       <c r="G894" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27569,7 +27572,7 @@
         <v>4.61499977111816</v>
       </c>
       <c r="G895" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27595,7 +27598,7 @@
         <v>4.6100001335144</v>
       </c>
       <c r="G896" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27621,7 +27624,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G897" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27647,7 +27650,7 @@
         <v>4.64499998092651</v>
       </c>
       <c r="G898" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -27673,7 +27676,7 @@
         <v>4.57000017166138</v>
       </c>
       <c r="G899" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -27699,7 +27702,7 @@
         <v>4.59499979019165</v>
       </c>
       <c r="G900" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -27725,7 +27728,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G901" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -27751,7 +27754,7 @@
         <v>4.76000022888184</v>
       </c>
       <c r="G902" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -27777,7 +27780,7 @@
         <v>4.78499984741211</v>
       </c>
       <c r="G903" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -27803,7 +27806,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G904" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -27829,7 +27832,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G905" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -27855,7 +27858,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G906" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27881,7 +27884,7 @@
         <v>5</v>
       </c>
       <c r="G907" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27907,7 +27910,7 @@
         <v>4.69000005722046</v>
       </c>
       <c r="G908" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27933,7 +27936,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="G909" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27959,7 +27962,7 @@
         <v>4.51000022888184</v>
       </c>
       <c r="G910" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27985,7 +27988,7 @@
         <v>4.52500009536743</v>
       </c>
       <c r="G911" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28011,7 +28014,7 @@
         <v>4.73999977111816</v>
       </c>
       <c r="G912" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28037,7 +28040,7 @@
         <v>4.65999984741211</v>
       </c>
       <c r="G913" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28063,7 +28066,7 @@
         <v>4.67999982833862</v>
       </c>
       <c r="G914" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28089,7 +28092,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G915" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28115,7 +28118,7 @@
         <v>4.52500009536743</v>
       </c>
       <c r="G916" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28141,7 +28144,7 @@
         <v>4.5</v>
       </c>
       <c r="G917" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28167,7 +28170,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G918" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28193,7 +28196,7 @@
         <v>4.32499980926514</v>
       </c>
       <c r="G919" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28219,7 +28222,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G920" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28245,7 +28248,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G921" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28271,7 +28274,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28297,7 +28300,7 @@
         <v>4.31500005722046</v>
       </c>
       <c r="G923" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28323,7 +28326,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G924" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28349,7 +28352,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G925" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28375,7 +28378,7 @@
         <v>4.32999992370605</v>
       </c>
       <c r="G926" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28401,7 +28404,7 @@
         <v>4.44000005722046</v>
       </c>
       <c r="G927" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -28427,7 +28430,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G928" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28453,7 +28456,7 @@
         <v>4.48999977111816</v>
       </c>
       <c r="G929" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28479,7 +28482,7 @@
         <v>4.40500020980835</v>
       </c>
       <c r="G930" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28505,7 +28508,7 @@
         <v>4.47499990463257</v>
       </c>
       <c r="G931" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28531,7 +28534,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G932" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -28557,7 +28560,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G933" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28583,7 +28586,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G934" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -28609,7 +28612,7 @@
         <v>4.34499979019165</v>
       </c>
       <c r="G935" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28635,7 +28638,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G936" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28661,7 +28664,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G937" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28687,7 +28690,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G938" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -28713,7 +28716,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G939" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -28739,7 +28742,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G940" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -28765,7 +28768,7 @@
         <v>4.25</v>
       </c>
       <c r="G941" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -28791,7 +28794,7 @@
         <v>4.25</v>
       </c>
       <c r="G942" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28817,7 +28820,7 @@
         <v>4.30999994277954</v>
       </c>
       <c r="G943" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -28843,7 +28846,7 @@
         <v>4.33500003814697</v>
       </c>
       <c r="G944" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -28869,7 +28872,7 @@
         <v>4.47499990463257</v>
       </c>
       <c r="G945" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -28895,7 +28898,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G946" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28921,7 +28924,7 @@
         <v>4.40999984741211</v>
       </c>
       <c r="G947" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28947,7 +28950,7 @@
         <v>4.24499988555908</v>
       </c>
       <c r="G948" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28973,7 +28976,7 @@
         <v>4.25</v>
       </c>
       <c r="G949" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -28999,7 +29002,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G950" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29025,7 +29028,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G951" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29051,7 +29054,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G952" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29077,7 +29080,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G953" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29103,7 +29106,7 @@
         <v>4.32000017166138</v>
       </c>
       <c r="G954" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29129,7 +29132,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G955" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29155,7 +29158,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G956" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29181,7 +29184,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G957" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29207,7 +29210,7 @@
         <v>4.25500011444092</v>
       </c>
       <c r="G958" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29233,7 +29236,7 @@
         <v>4.33500003814697</v>
       </c>
       <c r="G959" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29259,7 +29262,7 @@
         <v>4.22499990463257</v>
       </c>
       <c r="G960" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29285,7 +29288,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G961" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29311,7 +29314,7 @@
         <v>4.34499979019165</v>
       </c>
       <c r="G962" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29337,7 +29340,7 @@
         <v>4.28999996185303</v>
       </c>
       <c r="G963" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29363,7 +29366,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G964" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29389,7 +29392,7 @@
         <v>4.40000009536743</v>
       </c>
       <c r="G965" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29415,7 +29418,7 @@
         <v>4.61999988555908</v>
       </c>
       <c r="G966" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29441,7 +29444,7 @@
         <v>4.60500001907349</v>
       </c>
       <c r="G967" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29467,7 +29470,7 @@
         <v>4.53999996185303</v>
       </c>
       <c r="G968" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29493,7 +29496,7 @@
         <v>4.57499980926514</v>
       </c>
       <c r="G969" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29519,7 +29522,7 @@
         <v>4.57999992370605</v>
       </c>
       <c r="G970" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29545,7 +29548,7 @@
         <v>4.61499977111816</v>
       </c>
       <c r="G971" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29571,7 +29574,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G972" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29597,7 +29600,7 @@
         <v>4.67500019073486</v>
       </c>
       <c r="G973" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29623,7 +29626,7 @@
         <v>4.67000007629395</v>
       </c>
       <c r="G974" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -29649,7 +29652,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G975" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -29675,7 +29678,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G976" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -29701,7 +29704,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G977" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -29727,7 +29730,7 @@
         <v>4.94500017166138</v>
       </c>
       <c r="G978" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -29753,7 +29756,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G979" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -29779,7 +29782,7 @@
         <v>5.05999994277954</v>
       </c>
       <c r="G980" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -29805,7 +29808,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G981" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -29831,7 +29834,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G982" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -29857,7 +29860,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G983" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -29883,7 +29886,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G984" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29909,7 +29912,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G985" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29935,7 +29938,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G986" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29961,7 +29964,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G987" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -29987,7 +29990,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G988" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30013,7 +30016,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G989" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30039,7 +30042,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G990" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30065,7 +30068,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G991" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30091,7 +30094,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G992" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30117,7 +30120,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G993" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30143,7 +30146,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G994" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30169,7 +30172,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G995" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30195,7 +30198,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G996" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30221,7 +30224,7 @@
         <v>5.59999990463257</v>
       </c>
       <c r="G997" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30247,7 +30250,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G998" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30273,7 +30276,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G999" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30299,7 +30302,7 @@
         <v>5.5</v>
       </c>
       <c r="G1000" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30325,7 +30328,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G1001" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30351,7 +30354,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1002" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30377,7 +30380,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1003" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30403,7 +30406,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G1004" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30429,7 +30432,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1005" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30455,7 +30458,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G1006" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30481,7 +30484,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G1007" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30507,7 +30510,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G1008" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30533,7 +30536,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1009" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30559,7 +30562,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1010" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30585,7 +30588,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G1011" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30611,7 +30614,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1012" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30637,7 +30640,7 @@
         <v>5.25</v>
       </c>
       <c r="G1013" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -30663,7 +30666,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1014" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -30689,7 +30692,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1015" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -30715,7 +30718,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1016" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -30741,7 +30744,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -30767,7 +30770,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1018" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -30793,7 +30796,7 @@
         <v>5.26999998092651</v>
       </c>
       <c r="G1019" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -30819,7 +30822,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1020" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30845,7 +30848,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1021" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30871,7 +30874,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1022" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -30897,7 +30900,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1023" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30923,7 +30926,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G1024" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30949,7 +30952,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1025" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30975,7 +30978,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G1026" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31001,7 +31004,7 @@
         <v>5.5</v>
       </c>
       <c r="G1027" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31027,7 +31030,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1028" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31053,7 +31056,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G1029" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31079,7 +31082,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G1030" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31105,7 +31108,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1031" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31131,7 +31134,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1032" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31157,7 +31160,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1033" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31183,7 +31186,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1034" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31209,7 +31212,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1035" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31235,7 +31238,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1036" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31261,7 +31264,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G1037" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31287,7 +31290,7 @@
         <v>4.8899998664856</v>
       </c>
       <c r="G1038" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31313,7 +31316,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G1039" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31339,7 +31342,7 @@
         <v>5.01000022888184</v>
       </c>
       <c r="G1040" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31365,7 +31368,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G1041" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31391,7 +31394,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G1042" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31417,7 +31420,7 @@
         <v>4.92999982833862</v>
       </c>
       <c r="G1043" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31443,7 +31446,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G1044" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -31469,7 +31472,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1045" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31495,7 +31498,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1046" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31521,7 +31524,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1047" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31547,7 +31550,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1048" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31573,7 +31576,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1049" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31599,7 +31602,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G1050" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31625,7 +31628,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1051" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -31651,7 +31654,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1052" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -31677,7 +31680,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1053" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -31703,7 +31706,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G1054" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -31729,7 +31732,7 @@
         <v>4.80999994277954</v>
       </c>
       <c r="G1055" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -31755,7 +31758,7 @@
         <v>4.6399998664856</v>
       </c>
       <c r="G1056" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -31781,7 +31784,7 @@
         <v>4.5</v>
       </c>
       <c r="G1057" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -31807,7 +31810,7 @@
         <v>4.5</v>
       </c>
       <c r="G1058" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -31833,7 +31836,7 @@
         <v>4.36499977111816</v>
       </c>
       <c r="G1059" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -31859,7 +31862,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G1060" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -31885,7 +31888,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1061" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -31911,7 +31914,7 @@
         <v>3.91499996185303</v>
       </c>
       <c r="G1062" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -31937,7 +31940,7 @@
         <v>3.85500001907349</v>
       </c>
       <c r="G1063" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -31963,7 +31966,7 @@
         <v>3.68499994277954</v>
       </c>
       <c r="G1064" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31989,7 +31992,7 @@
         <v>3.75</v>
       </c>
       <c r="G1065" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32015,7 +32018,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G1066" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32041,7 +32044,7 @@
         <v>3.39499998092651</v>
       </c>
       <c r="G1067" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32067,7 +32070,7 @@
         <v>3.33500003814697</v>
       </c>
       <c r="G1068" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32093,7 +32096,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1069" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32119,7 +32122,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1070" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32145,7 +32148,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G1071" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32171,7 +32174,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1072" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32197,7 +32200,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1073" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32223,7 +32226,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1074" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32249,7 +32252,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1075" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32275,7 +32278,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G1076" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32301,7 +32304,7 @@
         <v>3.14499998092651</v>
       </c>
       <c r="G1077" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32327,7 +32330,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G1078" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32353,7 +32356,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1079" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32379,7 +32382,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1080" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32405,7 +32408,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G1081" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32431,7 +32434,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1082" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32457,7 +32460,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G1083" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32483,7 +32486,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1084" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32509,7 +32512,7 @@
         <v>3.36500000953674</v>
       </c>
       <c r="G1085" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32535,7 +32538,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1086" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32561,7 +32564,7 @@
         <v>3.5</v>
       </c>
       <c r="G1087" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32587,7 +32590,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1088" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32613,7 +32616,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1089" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -32639,7 +32642,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1090" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -32665,7 +32668,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G1091" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -32691,7 +32694,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1092" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -32717,7 +32720,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1093" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -32743,7 +32746,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1094" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -32769,7 +32772,7 @@
         <v>3.50500011444092</v>
       </c>
       <c r="G1095" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -32795,7 +32798,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G1096" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -32821,7 +32824,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1097" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -32847,7 +32850,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1098" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -32873,7 +32876,7 @@
         <v>3.46499991416931</v>
       </c>
       <c r="G1099" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -32899,7 +32902,7 @@
         <v>3.43499994277954</v>
       </c>
       <c r="G1100" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32925,7 +32928,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G1101" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32951,7 +32954,7 @@
         <v>3.42499995231628</v>
       </c>
       <c r="G1102" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32977,7 +32980,7 @@
         <v>3.61500000953674</v>
       </c>
       <c r="G1103" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33003,7 +33006,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1104" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33029,7 +33032,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1105" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33055,7 +33058,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G1106" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33081,7 +33084,7 @@
         <v>3.64499998092651</v>
       </c>
       <c r="G1107" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33107,7 +33110,7 @@
         <v>3.5</v>
       </c>
       <c r="G1108" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33133,7 +33136,7 @@
         <v>3.5</v>
       </c>
       <c r="G1109" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33159,7 +33162,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1110" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33185,7 +33188,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33211,7 +33214,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1112" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33237,7 +33240,7 @@
         <v>3.71499991416931</v>
       </c>
       <c r="G1113" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33263,7 +33266,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1114" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33289,7 +33292,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1115" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33315,7 +33318,7 @@
         <v>3.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33341,7 +33344,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G1117" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33367,7 +33370,7 @@
         <v>3.70499992370605</v>
       </c>
       <c r="G1118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33393,7 +33396,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1119" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33419,7 +33422,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G1120" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33445,7 +33448,7 @@
         <v>3.75</v>
       </c>
       <c r="G1121" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33471,7 +33474,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G1122" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33497,7 +33500,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1123" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33523,7 +33526,7 @@
         <v>4</v>
       </c>
       <c r="G1124" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33549,7 +33552,7 @@
         <v>4.05499982833862</v>
       </c>
       <c r="G1125" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33575,7 +33578,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="G1126" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33601,7 +33604,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1127" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33627,7 +33630,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1128" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -33653,7 +33656,7 @@
         <v>3.83500003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -33679,7 +33682,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1130" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -33705,7 +33708,7 @@
         <v>3.91499996185303</v>
       </c>
       <c r="G1131" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -33731,7 +33734,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G1132" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -33757,7 +33760,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G1133" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -33783,7 +33786,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1134" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -33809,7 +33812,7 @@
         <v>3.92499995231628</v>
       </c>
       <c r="G1135" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -33835,7 +33838,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1136" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -33861,7 +33864,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G1137" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -33887,7 +33890,7 @@
         <v>3.91499996185303</v>
       </c>
       <c r="G1138" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -33913,7 +33916,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G1139" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33939,7 +33942,7 @@
         <v>4.00500011444092</v>
       </c>
       <c r="G1140" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33965,7 +33968,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1141" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33991,7 +33994,7 @@
         <v>4</v>
       </c>
       <c r="G1142" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34017,7 +34020,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1143" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34043,7 +34046,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1144" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34069,7 +34072,7 @@
         <v>4.25</v>
       </c>
       <c r="G1145" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34095,7 +34098,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1146" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34121,7 +34124,7 @@
         <v>4.10500001907349</v>
       </c>
       <c r="G1147" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34147,7 +34150,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1148" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34173,7 +34176,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1149" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34199,7 +34202,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1150" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34225,7 +34228,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1151" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34251,7 +34254,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G1152" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34277,7 +34280,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1153" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34303,7 +34306,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1154" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34329,7 +34332,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1155" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34355,7 +34358,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G1156" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34381,7 +34384,7 @@
         <v>3.75500011444092</v>
       </c>
       <c r="G1157" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34407,7 +34410,7 @@
         <v>3.77500009536743</v>
       </c>
       <c r="G1158" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34433,7 +34436,7 @@
         <v>3.75</v>
       </c>
       <c r="G1159" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34459,7 +34462,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1160" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34485,7 +34488,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G1161" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34511,7 +34514,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1162" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34537,7 +34540,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G1163" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34563,7 +34566,7 @@
         <v>3.5</v>
       </c>
       <c r="G1164" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34589,7 +34592,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1165" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34615,7 +34618,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1166" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -34641,7 +34644,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1167" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -34667,7 +34670,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1168" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -34693,7 +34696,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1169" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -34719,7 +34722,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1170" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -34745,7 +34748,7 @@
         <v>3.625</v>
       </c>
       <c r="G1171" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -34771,7 +34774,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1172" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -34797,7 +34800,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1173" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -34823,7 +34826,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1174" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -34849,7 +34852,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1175" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -34875,7 +34878,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1176" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -34901,7 +34904,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1177" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34927,7 +34930,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1178" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34953,7 +34956,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1179" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34979,7 +34982,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1180" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35005,7 +35008,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1181" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35031,7 +35034,7 @@
         <v>3.50500011444092</v>
       </c>
       <c r="G1182" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35057,7 +35060,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1183" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35083,7 +35086,7 @@
         <v>3.5</v>
       </c>
       <c r="G1184" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35109,7 +35112,7 @@
         <v>3.4449999332428</v>
       </c>
       <c r="G1185" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35135,7 +35138,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1186" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35161,7 +35164,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1187" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35187,7 +35190,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1188" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35213,7 +35216,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1189" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35239,7 +35242,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1190" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35265,7 +35268,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1191" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35291,7 +35294,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1192" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35317,7 +35320,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1193" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35343,7 +35346,7 @@
         <v>3.49499988555908</v>
       </c>
       <c r="G1194" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35369,7 +35372,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1195" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35395,7 +35398,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1196" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35421,7 +35424,7 @@
         <v>3.45499992370605</v>
       </c>
       <c r="G1197" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35447,7 +35450,7 @@
         <v>3.375</v>
       </c>
       <c r="G1198" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35473,7 +35476,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G1199" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35499,7 +35502,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G1200" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35525,7 +35528,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G1201" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35551,7 +35554,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G1202" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35577,7 +35580,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1203" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35603,7 +35606,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1204" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35629,7 +35632,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1205" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -35655,7 +35658,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1206" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -35681,7 +35684,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1207" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -35707,7 +35710,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1208" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -35733,7 +35736,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1209" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -35759,7 +35762,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1210" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -35785,7 +35788,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1211" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -35811,7 +35814,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1212" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -35837,7 +35840,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1213" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -35863,7 +35866,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1214" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -35889,7 +35892,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1215" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35915,7 +35918,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1216" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35941,7 +35944,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1217" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35967,7 +35970,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1218" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35993,7 +35996,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1219" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -36019,7 +36022,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36045,7 +36048,7 @@
         <v>3.17499995231628</v>
       </c>
       <c r="G1221" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36071,7 +36074,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1222" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36097,7 +36100,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1223" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36123,7 +36126,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1224" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36149,7 +36152,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G1225" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36175,7 +36178,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1226" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36201,7 +36204,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1227" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36227,7 +36230,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1228" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36253,7 +36256,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1229" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36279,7 +36282,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1230" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36305,7 +36308,7 @@
         <v>2.88499999046326</v>
       </c>
       <c r="G1231" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36331,7 +36334,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1232" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36357,7 +36360,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36383,7 +36386,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1234" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36409,7 +36412,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1235" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36435,7 +36438,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1236" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36461,7 +36464,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1237" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36487,7 +36490,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1238" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36513,7 +36516,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1239" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36539,7 +36542,7 @@
         <v>3.39499998092651</v>
       </c>
       <c r="G1240" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36565,7 +36568,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1241" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36591,7 +36594,7 @@
         <v>3.625</v>
       </c>
       <c r="G1242" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36617,7 +36620,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1243" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -36643,7 +36646,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1244" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -36669,7 +36672,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1245" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -36695,7 +36698,7 @@
         <v>3.59500002861023</v>
       </c>
       <c r="G1246" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -36721,7 +36724,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1247" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -36747,7 +36750,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G1248" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -36773,7 +36776,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G1249" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -36799,7 +36802,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1250" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -36825,7 +36828,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1251" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -36851,7 +36854,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1252" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -36877,7 +36880,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G1253" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -36903,7 +36906,7 @@
         <v>3.75</v>
       </c>
       <c r="G1254" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -36929,7 +36932,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G1255" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -36955,7 +36958,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G1256" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -36981,7 +36984,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1257" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -37007,7 +37010,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1258" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -37033,7 +37036,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1259" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -37059,7 +37062,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1260" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37085,7 +37088,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G1261" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37111,7 +37114,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1262" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37137,7 +37140,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1263" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37163,7 +37166,7 @@
         <v>3.89499998092651</v>
       </c>
       <c r="G1264" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37189,7 +37192,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1265" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37215,7 +37218,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G1266" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37241,7 +37244,7 @@
         <v>3.875</v>
       </c>
       <c r="G1267" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37267,7 +37270,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1268" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37293,7 +37296,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1269" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37319,7 +37322,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1270" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37345,7 +37348,7 @@
         <v>4.25</v>
       </c>
       <c r="G1271" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37371,7 +37374,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1272" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37397,7 +37400,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1273" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37423,7 +37426,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1274" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37449,7 +37452,7 @@
         <v>4.30000019073486</v>
       </c>
       <c r="G1275" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37475,7 +37478,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1276" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37501,7 +37504,7 @@
         <v>4.13500022888184</v>
       </c>
       <c r="G1277" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37527,7 +37530,7 @@
         <v>4.1399998664856</v>
       </c>
       <c r="G1278" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37553,7 +37556,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1279" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37579,7 +37582,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1280" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37605,7 +37608,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1281" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37631,7 +37634,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1282" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -37657,7 +37660,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1283" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -37683,7 +37686,7 @@
         <v>4</v>
       </c>
       <c r="G1284" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -37709,7 +37712,7 @@
         <v>4</v>
       </c>
       <c r="G1285" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -37735,7 +37738,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1286" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -37761,7 +37764,7 @@
         <v>3.97000002861023</v>
       </c>
       <c r="G1287" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -37787,7 +37790,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1288" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -37813,7 +37816,7 @@
         <v>3.98000001907349</v>
       </c>
       <c r="G1289" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -37839,7 +37842,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1290" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -37865,7 +37868,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1291" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -37891,7 +37894,7 @@
         <v>4</v>
       </c>
       <c r="G1292" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -37917,7 +37920,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1293" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -37943,7 +37946,7 @@
         <v>4</v>
       </c>
       <c r="G1294" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -37969,7 +37972,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G1295" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -37995,7 +37998,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1296" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -38021,7 +38024,7 @@
         <v>4.05999994277954</v>
       </c>
       <c r="G1297" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -38047,7 +38050,7 @@
         <v>4.04500007629395</v>
       </c>
       <c r="G1298" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38073,7 +38076,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G1299" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38099,7 +38102,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1300" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38125,7 +38128,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1301" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38151,7 +38154,7 @@
         <v>4.05000019073486</v>
       </c>
       <c r="G1302" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38177,7 +38180,7 @@
         <v>4</v>
       </c>
       <c r="G1303" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38203,7 +38206,7 @@
         <v>4.04500007629395</v>
       </c>
       <c r="G1304" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38229,7 +38232,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1305" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38255,7 +38258,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1306" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38281,7 +38284,7 @@
         <v>4.2350001335144</v>
       </c>
       <c r="G1307" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38307,7 +38310,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1308" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38333,7 +38336,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G1309" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38359,7 +38362,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1310" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38385,7 +38388,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1311" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38411,7 +38414,7 @@
         <v>4.26999998092651</v>
       </c>
       <c r="G1312" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38437,7 +38440,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1313" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38463,7 +38466,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1314" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38489,7 +38492,7 @@
         <v>4.16499996185303</v>
       </c>
       <c r="G1315" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38515,7 +38518,7 @@
         <v>4.23999977111816</v>
       </c>
       <c r="G1316" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38541,7 +38544,7 @@
         <v>4.26000022888184</v>
       </c>
       <c r="G1317" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38567,7 +38570,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G1318" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38593,7 +38596,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G1319" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38619,7 +38622,7 @@
         <v>4.27500009536743</v>
       </c>
       <c r="G1320" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38645,7 +38648,7 @@
         <v>4.25500011444092</v>
       </c>
       <c r="G1321" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -38671,7 +38674,7 @@
         <v>4.2649998664856</v>
       </c>
       <c r="G1322" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -38697,7 +38700,7 @@
         <v>4.20499992370605</v>
       </c>
       <c r="G1323" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -38723,7 +38726,7 @@
         <v>4.19999980926514</v>
       </c>
       <c r="G1324" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -38749,7 +38752,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1325" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -38775,7 +38778,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1326" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -38801,7 +38804,7 @@
         <v>4.25500011444092</v>
       </c>
       <c r="G1327" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -38827,7 +38830,7 @@
         <v>4.13000011444092</v>
       </c>
       <c r="G1328" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -38853,7 +38856,7 @@
         <v>4.09000015258789</v>
       </c>
       <c r="G1329" t="s">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -38879,7 +38882,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G1330" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -38905,7 +38908,7 @@
         <v>4.01000022888184</v>
       </c>
       <c r="G1331" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -38957,7 +38960,7 @@
         <v>4.19000005722046</v>
       </c>
       <c r="G1333" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -38983,7 +38986,7 @@
         <v>4.21000003814697</v>
       </c>
       <c r="G1334" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -39035,7 +39038,7 @@
         <v>4.15999984741211</v>
       </c>
       <c r="G1336" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -39087,7 +39090,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1338" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39139,7 +39142,7 @@
         <v>4.34000015258789</v>
       </c>
       <c r="G1340" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -62755,7 +62758,7 @@
     </row>
     <row r="2249">
       <c r="A2249" s="1" t="n">
-        <v>45595.6912152778</v>
+        <v>45595.3333333333</v>
       </c>
       <c r="B2249" t="n">
         <v>124918</v>
@@ -62776,6 +62779,32 @@
         <v>1317</v>
       </c>
       <c r="H2249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" s="1" t="n">
+        <v>45596.6912615741</v>
+      </c>
+      <c r="B2250" t="n">
+        <v>99072</v>
+      </c>
+      <c r="C2250" t="n">
+        <v>5.46000003814697</v>
+      </c>
+      <c r="D2250" t="n">
+        <v>5.23999977111816</v>
+      </c>
+      <c r="E2250" t="n">
+        <v>5.30000019073486</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>5.26000022888184</v>
+      </c>
+      <c r="G2250" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H2250" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BAN.MI.xlsx
+++ b/data/BAN.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1321">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,64 +38,64 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74278903007507</t>
+    <t xml:space="preserve">3.74278879165649</t>
   </si>
   <si>
     <t xml:space="preserve">BAN.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75724530220032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66247153282166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53235745429993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48737931251526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42473196983337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51468682289124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53396344184875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52111268043518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50023031234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45203971862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47774147987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17896103858948</t>
+    <t xml:space="preserve">3.7572455406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66247177124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53235721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48737978935242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42473173141479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51468706130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53396320343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52111291885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50022983551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45203995704651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47774124145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1789608001709</t>
   </si>
   <si>
     <t xml:space="preserve">3.30586242675781</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35726499557495</t>
+    <t xml:space="preserve">3.35726571083069</t>
   </si>
   <si>
     <t xml:space="preserve">3.27694797515869</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33317041397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25767183303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19663071632385</t>
+    <t xml:space="preserve">3.33317017555237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25767207145691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19663047790527</t>
   </si>
   <si>
     <t xml:space="preserve">3.29301142692566</t>
@@ -104,28 +104,28 @@
     <t xml:space="preserve">3.2303638458252</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23678946495056</t>
+    <t xml:space="preserve">3.2367889881134</t>
   </si>
   <si>
     <t xml:space="preserve">3.1323766708374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21269392967224</t>
+    <t xml:space="preserve">3.21269416809082</t>
   </si>
   <si>
     <t xml:space="preserve">3.11149430274963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98780584335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9717423915863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89142489433289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88339281082153</t>
+    <t xml:space="preserve">2.98780560493469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97174215316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89142465591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88339304924011</t>
   </si>
   <si>
     <t xml:space="preserve">2.8078944683075</t>
@@ -134,64 +134,64 @@
     <t xml:space="preserve">2.80950117111206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81110787391663</t>
+    <t xml:space="preserve">2.81110715866089</t>
   </si>
   <si>
     <t xml:space="preserve">2.95246601104736</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04242134094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02153873443604</t>
+    <t xml:space="preserve">3.04242157936096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02153897285461</t>
   </si>
   <si>
     <t xml:space="preserve">3.05366587638855</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12113213539124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17253541946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13077068328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02314519882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05205917358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06812286376953</t>
+    <t xml:space="preserve">3.12113237380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17253565788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13077044487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02314496040344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05205965042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06812334060669</t>
   </si>
   <si>
     <t xml:space="preserve">3.0359959602356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12434530258179</t>
+    <t xml:space="preserve">3.12434506416321</t>
   </si>
   <si>
     <t xml:space="preserve">3.18056726455688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24482131004333</t>
+    <t xml:space="preserve">3.24482107162476</t>
   </si>
   <si>
     <t xml:space="preserve">3.16450381278992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19984364509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29783034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40545582771301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3733286857605</t>
+    <t xml:space="preserve">3.19984340667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29783058166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40545535087585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37332844734192</t>
   </si>
   <si>
     <t xml:space="preserve">3.30907511711121</t>
@@ -200,37 +200,37 @@
     <t xml:space="preserve">3.30746865272522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18859887123108</t>
+    <t xml:space="preserve">3.18859910964966</t>
   </si>
   <si>
     <t xml:space="preserve">3.2608847618103</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26730990409851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16611003875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17574858665466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20466256141663</t>
+    <t xml:space="preserve">3.26730966567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16610980033875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1757481098175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20466232299805</t>
   </si>
   <si>
     <t xml:space="preserve">3.10828161239624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06009101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01993227005005</t>
+    <t xml:space="preserve">3.06009125709534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01993250846863</t>
   </si>
   <si>
     <t xml:space="preserve">3.15647220611572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02796411514282</t>
+    <t xml:space="preserve">3.0279643535614</t>
   </si>
   <si>
     <t xml:space="preserve">2.92033910751343</t>
@@ -239,61 +239,61 @@
     <t xml:space="preserve">2.93158364295959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96852922439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04563403129578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06169748306274</t>
+    <t xml:space="preserve">2.96852946281433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04563426971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06169724464417</t>
   </si>
   <si>
     <t xml:space="preserve">3.0761547088623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98619914054871</t>
+    <t xml:space="preserve">2.98619937896729</t>
   </si>
   <si>
     <t xml:space="preserve">2.9797739982605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91551995277405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87054252624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89785027503967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85769128799438</t>
+    <t xml:space="preserve">2.91552019119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87054204940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89785051345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85769152641296</t>
   </si>
   <si>
     <t xml:space="preserve">2.78379964828491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7050883769989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73560905456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76934218406677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81913924217224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83520293235779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77898049354553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64244103431702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58621907234192</t>
+    <t xml:space="preserve">2.70508885383606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73560929298401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76934242248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81913948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83520269393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77898025512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6424412727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58621883392334</t>
   </si>
   <si>
     <t xml:space="preserve">2.54445362091064</t>
@@ -302,13 +302,13 @@
     <t xml:space="preserve">2.52999687194824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57015514373779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65803813934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63979840278625</t>
+    <t xml:space="preserve">2.57015562057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65803790092468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63979816436768</t>
   </si>
   <si>
     <t xml:space="preserve">2.61160969734192</t>
@@ -317,19 +317,19 @@
     <t xml:space="preserve">2.61326766014099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66135430335999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64477300643921</t>
+    <t xml:space="preserve">2.66135454177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64477252960205</t>
   </si>
   <si>
     <t xml:space="preserve">2.63316559791565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65306353569031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77576804161072</t>
+    <t xml:space="preserve">2.65306377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77576756477356</t>
   </si>
   <si>
     <t xml:space="preserve">2.87691593170166</t>
@@ -341,10 +341,10 @@
     <t xml:space="preserve">2.7359721660614</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76913547515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49553775787354</t>
+    <t xml:space="preserve">2.76913499832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49553823471069</t>
   </si>
   <si>
     <t xml:space="preserve">2.44579291343689</t>
@@ -356,82 +356,79 @@
     <t xml:space="preserve">2.5253849029541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57015538215637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57844614982605</t>
+    <t xml:space="preserve">2.57844591140747</t>
   </si>
   <si>
     <t xml:space="preserve">2.55854821205139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45408391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23852252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2799768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34132862091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31977272033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40433931350708</t>
+    <t xml:space="preserve">2.45408415794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23852276802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27997660636902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34132838249207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31977248191833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40433883666992</t>
   </si>
   <si>
     <t xml:space="preserve">2.42092037200928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33801221847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23686408996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27002763748169</t>
+    <t xml:space="preserve">2.33801198005676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23686385154724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27002739906311</t>
   </si>
   <si>
     <t xml:space="preserve">2.32972168922424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35127735137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37780809402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38278245925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37946629524231</t>
+    <t xml:space="preserve">2.35127782821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37780833244324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38278293609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37946605682373</t>
   </si>
   <si>
     <t xml:space="preserve">2.36620116233826</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42921113967896</t>
+    <t xml:space="preserve">2.42921137809753</t>
   </si>
   <si>
     <t xml:space="preserve">2.58673667907715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59502792358398</t>
+    <t xml:space="preserve">2.59502768516541</t>
   </si>
   <si>
     <t xml:space="preserve">2.6199004650116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95484924316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89515590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86862516403198</t>
+    <t xml:space="preserve">2.95484948158264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89515566825867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8686249256134</t>
   </si>
   <si>
     <t xml:space="preserve">2.64808917045593</t>
@@ -443,34 +440,34 @@
     <t xml:space="preserve">2.62487483024597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61824226379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58342051506042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58839511871338</t>
+    <t xml:space="preserve">2.61824250221252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.583420753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58839535713196</t>
   </si>
   <si>
     <t xml:space="preserve">2.68954300880432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68291068077087</t>
+    <t xml:space="preserve">2.68291091918945</t>
   </si>
   <si>
     <t xml:space="preserve">2.69949221611023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70612502098083</t>
+    <t xml:space="preserve">2.70612478256226</t>
   </si>
   <si>
     <t xml:space="preserve">2.69120144844055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69451761245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74592113494873</t>
+    <t xml:space="preserve">2.69451808929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74592089653015</t>
   </si>
   <si>
     <t xml:space="preserve">2.81224703788757</t>
@@ -479,64 +476,64 @@
     <t xml:space="preserve">2.84872698783875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81887984275818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78571653366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70778322219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71109962463379</t>
+    <t xml:space="preserve">2.81888008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78571677207947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70778274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71109914779663</t>
   </si>
   <si>
     <t xml:space="preserve">2.79732370376587</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82385444641113</t>
+    <t xml:space="preserve">2.82385468482971</t>
   </si>
   <si>
     <t xml:space="preserve">2.76084423065186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78240013122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79566550254822</t>
+    <t xml:space="preserve">2.78240036964417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79566597938538</t>
   </si>
   <si>
     <t xml:space="preserve">2.82551264762878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.857017993927</t>
+    <t xml:space="preserve">2.85701775550842</t>
   </si>
   <si>
     <t xml:space="preserve">2.7492368221283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72104859352112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7011501789093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67793583869934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64974761009216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66964530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71939039230347</t>
+    <t xml:space="preserve">2.72104811668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70115041732788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67793607711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64974737167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66964507102966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71939015388489</t>
   </si>
   <si>
     <t xml:space="preserve">2.6862268447876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74260473251343</t>
+    <t xml:space="preserve">2.74260449409485</t>
   </si>
   <si>
     <t xml:space="preserve">2.65472173690796</t>
@@ -545,73 +542,73 @@
     <t xml:space="preserve">2.73099732398987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76416063308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8105890750885</t>
+    <t xml:space="preserve">2.76416087150574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81058931350708</t>
   </si>
   <si>
     <t xml:space="preserve">2.78074216842651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77742600440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88520669937134</t>
+    <t xml:space="preserve">2.77742576599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88520646095276</t>
   </si>
   <si>
     <t xml:space="preserve">2.79898190498352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81722140312195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79400706291199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75918626785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7442626953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66467094421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78737473487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72933912277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67627787590027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64643120765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60497641563416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60166025161743</t>
+    <t xml:space="preserve">2.81722164154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79400730133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7591860294342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74426245689392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66467070579529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78737497329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7293393611908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67627763748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6464307308197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60497689247131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60166049003601</t>
   </si>
   <si>
     <t xml:space="preserve">2.56352281570435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51709389686584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55191540718079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63648176193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68456888198853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70944094657898</t>
+    <t xml:space="preserve">2.51709413528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55191564559937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63648223876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68456864356995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70944142341614</t>
   </si>
   <si>
     <t xml:space="preserve">2.72270631790161</t>
@@ -623,7 +620,7 @@
     <t xml:space="preserve">2.83877825737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82717061042786</t>
+    <t xml:space="preserve">2.82717108726501</t>
   </si>
   <si>
     <t xml:space="preserve">2.83380341529846</t>
@@ -635,7 +632,7 @@
     <t xml:space="preserve">2.82882881164551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82053828239441</t>
+    <t xml:space="preserve">2.82053804397583</t>
   </si>
   <si>
     <t xml:space="preserve">2.77245163917542</t>
@@ -644,28 +641,28 @@
     <t xml:space="preserve">2.80064034461975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83546161651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80229830741882</t>
+    <t xml:space="preserve">2.83546185493469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80229878425598</t>
   </si>
   <si>
     <t xml:space="preserve">2.65637993812561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67959451675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70280861854553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74757862091064</t>
+    <t xml:space="preserve">2.67959427833557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70280838012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74757885932922</t>
   </si>
   <si>
     <t xml:space="preserve">2.75255346298218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98138046264648</t>
+    <t xml:space="preserve">2.98137998580933</t>
   </si>
   <si>
     <t xml:space="preserve">2.94324231147766</t>
@@ -674,31 +671,31 @@
     <t xml:space="preserve">3.05931377410889</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03444170951843</t>
+    <t xml:space="preserve">3.03444147109985</t>
   </si>
   <si>
     <t xml:space="preserve">3.0294668674469</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02283453941345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00127792358398</t>
+    <t xml:space="preserve">3.02283430099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00127816200256</t>
   </si>
   <si>
     <t xml:space="preserve">2.99298715591431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95650792121887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94987511634827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93660950660706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93329334259033</t>
+    <t xml:space="preserve">2.95650768280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94987535476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93660974502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93329358100891</t>
   </si>
   <si>
     <t xml:space="preserve">2.90178823471069</t>
@@ -707,25 +704,25 @@
     <t xml:space="preserve">2.87857389450073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90676259994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97806358337402</t>
+    <t xml:space="preserve">2.90676283836365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9780638217926</t>
   </si>
   <si>
     <t xml:space="preserve">2.98469638824463</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05102324485779</t>
+    <t xml:space="preserve">3.05102300643921</t>
   </si>
   <si>
     <t xml:space="preserve">2.97308945655823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9747474193573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0178599357605</t>
+    <t xml:space="preserve">2.97474765777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01785945892334</t>
   </si>
   <si>
     <t xml:space="preserve">3.01620149612427</t>
@@ -734,13 +731,13 @@
     <t xml:space="preserve">3.01122713088989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11071705818176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11734962463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05599761009216</t>
+    <t xml:space="preserve">3.11071729660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11734986305237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05599784851074</t>
   </si>
   <si>
     <t xml:space="preserve">3.03941583633423</t>
@@ -749,10 +746,10 @@
     <t xml:space="preserve">3.06760501861572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1586217880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1788477897644</t>
+    <t xml:space="preserve">3.15862154960632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17884755134583</t>
   </si>
   <si>
     <t xml:space="preserve">3.2327835559845</t>
@@ -767,13 +764,13 @@
     <t xml:space="preserve">3.25300931930542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24458193778992</t>
+    <t xml:space="preserve">3.24458169937134</t>
   </si>
   <si>
     <t xml:space="preserve">3.31368732452393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28166317939758</t>
+    <t xml:space="preserve">3.281662940979</t>
   </si>
   <si>
     <t xml:space="preserve">3.23109817504883</t>
@@ -782,46 +779,46 @@
     <t xml:space="preserve">3.21761417388916</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23446893692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1383957862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13671016693115</t>
+    <t xml:space="preserve">3.23446917533875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13839554786682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13670992851257</t>
   </si>
   <si>
     <t xml:space="preserve">3.0423219203949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11985516548157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1265971660614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09457230567932</t>
+    <t xml:space="preserve">3.11985492706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12659740447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09457278251648</t>
   </si>
   <si>
     <t xml:space="preserve">3.08614540100098</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05412101745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05074954032898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05917716026306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99681401252747</t>
+    <t xml:space="preserve">3.05412125587463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05074977874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05917739868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99681353569031</t>
   </si>
   <si>
     <t xml:space="preserve">3.01535439491272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14176678657532</t>
+    <t xml:space="preserve">3.14176630973816</t>
   </si>
   <si>
     <t xml:space="preserve">3.15019416809082</t>
@@ -833,10 +830,10 @@
     <t xml:space="preserve">3.17042016983032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17379140853882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21087169647217</t>
+    <t xml:space="preserve">3.17379093170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21087193489075</t>
   </si>
   <si>
     <t xml:space="preserve">3.22772693634033</t>
@@ -845,19 +842,19 @@
     <t xml:space="preserve">3.26986455917358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27829194068909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29514694213867</t>
+    <t xml:space="preserve">3.27829170227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29514718055725</t>
   </si>
   <si>
     <t xml:space="preserve">3.29851794242859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31874394416809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36088109016418</t>
+    <t xml:space="preserve">3.31874370574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36088085174561</t>
   </si>
   <si>
     <t xml:space="preserve">3.37436532974243</t>
@@ -866,16 +863,16 @@
     <t xml:space="preserve">3.33728432655334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36256694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28840470314026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31537318229675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25806546211243</t>
+    <t xml:space="preserve">3.36256647109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28840494155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31537270545959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25806593894958</t>
   </si>
   <si>
     <t xml:space="preserve">3.32885670661926</t>
@@ -893,22 +890,22 @@
     <t xml:space="preserve">3.23784017562866</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21424317359924</t>
+    <t xml:space="preserve">3.21424293518066</t>
   </si>
   <si>
     <t xml:space="preserve">3.11311316490173</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11817002296448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14682292938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19064617156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09288763999939</t>
+    <t xml:space="preserve">3.1181697845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14682340621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19064569473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09288740158081</t>
   </si>
   <si>
     <t xml:space="preserve">3.15693616867065</t>
@@ -917,37 +914,37 @@
     <t xml:space="preserve">3.13502478599548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15356540679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19401717185974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17210555076599</t>
+    <t xml:space="preserve">3.15356516838074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19401669502258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17210531234741</t>
   </si>
   <si>
     <t xml:space="preserve">3.16704893112183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18390417098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19907379150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20918679237366</t>
+    <t xml:space="preserve">3.18390393257141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19907355308533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2091863155365</t>
   </si>
   <si>
     <t xml:space="preserve">3.19233155250549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20413017272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2209849357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24795317649841</t>
+    <t xml:space="preserve">3.20412993431091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22098517417908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24795293807983</t>
   </si>
   <si>
     <t xml:space="preserve">3.16873455047607</t>
@@ -956,7 +953,7 @@
     <t xml:space="preserve">3.14345216751099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16367793083191</t>
+    <t xml:space="preserve">3.16367816925049</t>
   </si>
   <si>
     <t xml:space="preserve">3.16536355018616</t>
@@ -965,28 +962,28 @@
     <t xml:space="preserve">3.18558955192566</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15187978744507</t>
+    <t xml:space="preserve">3.15187931060791</t>
   </si>
   <si>
     <t xml:space="preserve">3.00861215591431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9917573928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89399862289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93950724601746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96647477149963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96984553337097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00524163246155</t>
+    <t xml:space="preserve">2.99175715446472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89399838447571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93950700759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96647500991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96984601020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00524139404297</t>
   </si>
   <si>
     <t xml:space="preserve">3.0001847743988</t>
@@ -998,40 +995,40 @@
     <t xml:space="preserve">2.94287824630737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89736938476562</t>
+    <t xml:space="preserve">2.8973696231842</t>
   </si>
   <si>
     <t xml:space="preserve">2.88557124137878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86871600151062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93782114982605</t>
+    <t xml:space="preserve">2.8687162399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93782162666321</t>
   </si>
   <si>
     <t xml:space="preserve">2.80635261535645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8653450012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84848999977112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87040162086487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91591024398804</t>
+    <t xml:space="preserve">2.86534523963928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8484902381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87040138244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91591000556946</t>
   </si>
   <si>
     <t xml:space="preserve">3.03389453887939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03052401542664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07603240013123</t>
+    <t xml:space="preserve">3.03052377700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0760326385498</t>
   </si>
   <si>
     <t xml:space="preserve">3.11648416519165</t>
@@ -1040,13 +1037,13 @@
     <t xml:space="preserve">3.10131478309631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13165354728699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12491154670715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08446002006531</t>
+    <t xml:space="preserve">3.13165402412415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12491178512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08445978164673</t>
   </si>
   <si>
     <t xml:space="preserve">3.0979437828064</t>
@@ -1055,154 +1052,157 @@
     <t xml:space="preserve">3.08951616287231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11479830741882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14008140563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17294836044312</t>
+    <t xml:space="preserve">3.11479902267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14008092880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17294812202454</t>
   </si>
   <si>
     <t xml:space="preserve">3.13081073760986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21929955482483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28250551223755</t>
+    <t xml:space="preserve">3.21929979324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28250575065613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24036860466003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25722312927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32042932510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28671932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02125358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03810858726501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9833300113678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93276476860046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19823098182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13923811912537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11395597457886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09710097312927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97911643981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14766597747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08024621009827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08867359161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10974216461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10552859306335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21508574485779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40470433235168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31621551513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34149765968323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34992551803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31200194358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24879598617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30885672569275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26605153083801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27461242675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25320982933044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2874538898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22752642631531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15047693252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18472123146057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20612359046936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2703320980072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3216986656189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31313729286194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16759920120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13335466384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24892950057983</t>
   </si>
   <si>
     <t xml:space="preserve">3.24036836624146</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25722336769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32042908668518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28671956062317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02125358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03810858726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9833300113678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93276500701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1982307434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13923811912537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11395573616028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09710097312927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97911620140076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14766573905945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08024573326111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08867335319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10974216461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10552835464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21508598327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40470433235168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31621551513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34149789810181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34992527961731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31200218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24879574775696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30885696411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26605129241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27461266517639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25320982933044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2874538898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22752642631531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15047693252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18472123146057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20612382888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27033185958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32169842720032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31313753128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16759943962097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13335514068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24892926216125</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.17616009712219</t>
   </si>
   <si>
     <t xml:space="preserve">3.18900156021118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20184373855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21040415763855</t>
+    <t xml:space="preserve">3.20184302330017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21040439605713</t>
   </si>
   <si>
     <t xml:space="preserve">3.21896553039551</t>
@@ -1211,28 +1211,28 @@
     <t xml:space="preserve">3.23608779907227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14619660377502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19756245613098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23180675506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17187976837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22324633598328</t>
+    <t xml:space="preserve">3.14619612693787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19756293296814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23180723190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17187929153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2232460975647</t>
   </si>
   <si>
     <t xml:space="preserve">3.25749039649963</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27889323234558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30029559135437</t>
+    <t xml:space="preserve">3.278892993927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30029582977295</t>
   </si>
   <si>
     <t xml:space="preserve">3.3302595615387</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">3.39018702507019</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37734532356262</t>
+    <t xml:space="preserve">3.3773455619812</t>
   </si>
   <si>
     <t xml:space="preserve">3.34310102462769</t>
@@ -1250,55 +1250,55 @@
     <t xml:space="preserve">3.42443132400513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49292016029358</t>
+    <t xml:space="preserve">3.49291968345642</t>
   </si>
   <si>
     <t xml:space="preserve">3.56140851974487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50148105621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61277461051941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51860332489014</t>
+    <t xml:space="preserve">3.50148129463196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61277484893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51860356330872</t>
   </si>
   <si>
     <t xml:space="preserve">3.55284762382507</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58709192276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54428625106812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52716469764709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45439505577087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44583415985107</t>
+    <t xml:space="preserve">3.58709144592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54428648948669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52716445922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45439529418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44583439826965</t>
   </si>
   <si>
     <t xml:space="preserve">3.54000616073608</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36878442764282</t>
+    <t xml:space="preserve">3.36878418922424</t>
   </si>
   <si>
     <t xml:space="preserve">3.385906457901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36450409889221</t>
+    <t xml:space="preserve">3.36450386047363</t>
   </si>
   <si>
     <t xml:space="preserve">3.40730905532837</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33882069587708</t>
+    <t xml:space="preserve">3.3388204574585</t>
   </si>
   <si>
     <t xml:space="preserve">3.34738206863403</t>
@@ -1307,232 +1307,232 @@
     <t xml:space="preserve">3.46723699569702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64701962471008</t>
+    <t xml:space="preserve">3.64701986312866</t>
   </si>
   <si>
     <t xml:space="preserve">3.65986108779907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62133598327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65129995346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65558052062988</t>
+    <t xml:space="preserve">3.62133646011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65130043029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6555802822113</t>
   </si>
   <si>
     <t xml:space="preserve">3.73691034317017</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62989735603333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6384584903717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69410562515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85676550865173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96377921104431</t>
+    <t xml:space="preserve">3.62989687919617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63845825195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69410514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85676574707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96377944946289</t>
   </si>
   <si>
     <t xml:space="preserve">3.79683828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83964371681213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831294059753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87388801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90385127067566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87816905975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91669297218323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99802374839783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98946285247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02370643615723</t>
+    <t xml:space="preserve">3.83964419364929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831341743469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87388825416565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90385222434998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87816882133484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91669344902039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99802350997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98946261405945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02370691299438</t>
   </si>
   <si>
     <t xml:space="preserve">4.1478419303894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10075616836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00658464431763</t>
+    <t xml:space="preserve">4.10075712203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00658416748047</t>
   </si>
   <si>
     <t xml:space="preserve">3.94665718078613</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8952910900116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93809628486633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86960768699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94237637519836</t>
+    <t xml:space="preserve">3.89529085159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93809604644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86960744857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9423770904541</t>
   </si>
   <si>
     <t xml:space="preserve">3.95521783828735</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80967950820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92097425460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76687455177307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98090219497681</t>
+    <t xml:space="preserve">3.80967926979065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.920973777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76687407493591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98090171813965</t>
   </si>
   <si>
     <t xml:space="preserve">4.03226804733276</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07079315185547</t>
+    <t xml:space="preserve">4.07079267501831</t>
   </si>
   <si>
     <t xml:space="preserve">4.08363437652588</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99374318122864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9509379863739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92953562736511</t>
+    <t xml:space="preserve">3.99374294281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95093750953674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92953515052795</t>
   </si>
   <si>
     <t xml:space="preserve">3.74119091033936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74975252151489</t>
+    <t xml:space="preserve">3.74975299835205</t>
   </si>
   <si>
     <t xml:space="preserve">3.66414189338684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60421395301819</t>
+    <t xml:space="preserve">3.60421419143677</t>
   </si>
   <si>
     <t xml:space="preserve">3.77971601486206</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7155077457428</t>
+    <t xml:space="preserve">3.71550846099854</t>
   </si>
   <si>
     <t xml:space="preserve">3.8524854183197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79255747795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71978831291199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77543544769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7540328502655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88244915008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86104607582092</t>
+    <t xml:space="preserve">3.79255819320679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71978855133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77543520927429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75403308868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88244867324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8610463142395</t>
   </si>
   <si>
     <t xml:space="preserve">3.77115535736084</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80539917945862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82252144813538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72406911849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73263049125671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93381547927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97234034538269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01514577865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08791494369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16924476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19492864608765</t>
+    <t xml:space="preserve">3.80539965629578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8225212097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72406888008118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73263072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93381524085999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97233986854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01514625549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08791542053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16924524307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19492816925049</t>
   </si>
   <si>
     <t xml:space="preserve">4.25485563278198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28053951263428</t>
+    <t xml:space="preserve">4.28053903579712</t>
   </si>
   <si>
     <t xml:space="preserve">4.32334470748901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2719783782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18208694458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17780590057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16068410873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22917318344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17352628707886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16496419906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14356184005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34902763366699</t>
+    <t xml:space="preserve">4.27197742462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18208646774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17780637741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16068363189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.229172706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1735258102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16496467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14356231689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34902811050415</t>
   </si>
   <si>
     <t xml:space="preserve">4.48600482940674</t>
@@ -1541,49 +1541,49 @@
     <t xml:space="preserve">4.61442136764526</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58873844146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67434930801392</t>
+    <t xml:space="preserve">4.58873796463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67434883117676</t>
   </si>
   <si>
     <t xml:space="preserve">4.57161617279053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71715402603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76852130889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79420328140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77708148956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75995969772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72571516036987</t>
+    <t xml:space="preserve">4.71715354919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76852083206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7942042350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77708196640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75995922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72571563720703</t>
   </si>
   <si>
     <t xml:space="preserve">4.53737163543701</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52881002426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56305551528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58017683029175</t>
+    <t xml:space="preserve">4.52881050109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56305503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58017730712891</t>
   </si>
   <si>
     <t xml:space="preserve">4.6401047706604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69147062301636</t>
+    <t xml:space="preserve">4.69147109985352</t>
   </si>
   <si>
     <t xml:space="preserve">4.70859336853027</t>
@@ -1601,31 +1601,31 @@
     <t xml:space="preserve">4.8541316986084</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90549850463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83700895309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78564262390137</t>
+    <t xml:space="preserve">4.90549802780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83700942993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78564310073853</t>
   </si>
   <si>
     <t xml:space="preserve">4.75139856338501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59729909896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63154363632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55449390411377</t>
+    <t xml:space="preserve">4.59729957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63154268264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55449342727661</t>
   </si>
   <si>
     <t xml:space="preserve">4.5031270980835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47744464874268</t>
+    <t xml:space="preserve">4.47744417190552</t>
   </si>
   <si>
     <t xml:space="preserve">4.46888256072998</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">4.43463850021362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55733633041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60992097854614</t>
+    <t xml:space="preserve">4.55733585357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60992050170898</t>
   </si>
   <si>
     <t xml:space="preserve">4.48722314834595</t>
@@ -1646,10 +1646,10 @@
     <t xml:space="preserve">4.46093130111694</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39081811904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35576105117798</t>
+    <t xml:space="preserve">4.39081859588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35576152801514</t>
   </si>
   <si>
     <t xml:space="preserve">4.41711044311523</t>
@@ -1658,19 +1658,19 @@
     <t xml:space="preserve">4.39958190917969</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4696946144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53104400634766</t>
+    <t xml:space="preserve">4.46969509124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5310435295105</t>
   </si>
   <si>
     <t xml:space="preserve">4.54857206344604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44340229034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47845888137817</t>
+    <t xml:space="preserve">4.4434027671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47845935821533</t>
   </si>
   <si>
     <t xml:space="preserve">4.53980779647827</t>
@@ -1679,52 +1679,52 @@
     <t xml:space="preserve">4.50475168228149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31632375717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35137939453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21553611755371</t>
+    <t xml:space="preserve">4.31632328033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35137987136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21553564071655</t>
   </si>
   <si>
     <t xml:space="preserve">4.12789487838745</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16733360290527</t>
+    <t xml:space="preserve">4.16733312606812</t>
   </si>
   <si>
     <t xml:space="preserve">4.06216430664062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11474895477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02710771560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07092809677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0665454864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0227255821228</t>
+    <t xml:space="preserve">4.11474943161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02710676193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07092905044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06654596328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02272510528564</t>
   </si>
   <si>
     <t xml:space="preserve">4.04463529586792</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04025411605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09283828735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00519752502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15418720245361</t>
+    <t xml:space="preserve">4.04025363922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09283876419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00519704818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15418672561646</t>
   </si>
   <si>
     <t xml:space="preserve">4.171715259552</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">4.19362545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34699773788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40834617614746</t>
+    <t xml:space="preserve">4.34699821472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4083456993103</t>
   </si>
   <si>
     <t xml:space="preserve">4.3820538520813</t>
@@ -1748,10 +1748,10 @@
     <t xml:space="preserve">3.91755604743958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95261311531067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96575903892517</t>
+    <t xml:space="preserve">3.95261287689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96575927734375</t>
   </si>
   <si>
     <t xml:space="preserve">4.0840744972229</t>
@@ -1760,16 +1760,16 @@
     <t xml:space="preserve">4.10160207748413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01396131515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94384837150574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84744310379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79047632217407</t>
+    <t xml:space="preserve">4.01396083831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94384860992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84744334220886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79047608375549</t>
   </si>
   <si>
     <t xml:space="preserve">3.77733063697815</t>
@@ -1778,745 +1778,745 @@
     <t xml:space="preserve">3.75103855133057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75980234146118</t>
+    <t xml:space="preserve">3.7598021030426</t>
   </si>
   <si>
     <t xml:space="preserve">3.78171229362488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73789191246033</t>
+    <t xml:space="preserve">3.73789238929749</t>
   </si>
   <si>
     <t xml:space="preserve">3.73351049423218</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79485869407654</t>
+    <t xml:space="preserve">3.79485845565796</t>
   </si>
   <si>
     <t xml:space="preserve">3.89126396179199</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03148889541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93508386611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8605899810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92193841934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85620760917664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76856660842896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80800437927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78609490394592</t>
+    <t xml:space="preserve">4.03148937225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93508434295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86058974266052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92193818092346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85620713233948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76856637001038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80800485610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78609442710876</t>
   </si>
   <si>
     <t xml:space="preserve">3.67216110229492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82991504669189</t>
+    <t xml:space="preserve">3.82991480827332</t>
   </si>
   <si>
     <t xml:space="preserve">3.72474551200867</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79924058914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86497163772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72036361694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74227380752563</t>
+    <t xml:space="preserve">3.79924082756042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86497139930725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72036337852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74227404594421</t>
   </si>
   <si>
     <t xml:space="preserve">3.7466561794281</t>
   </si>
   <si>
+    <t xml:space="preserve">3.68968963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64586877822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71598124504089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72912788391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70283532142639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04901742935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0358715057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97890472412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00957918167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09722089767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18047904968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22430038452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32946920394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33385133743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52227926254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51351547241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68003368377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67126941680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58362817764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64497756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57486391067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62744903564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68879795074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87284326553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90790033340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79396677017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74138164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82025957107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81149530410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78520250320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77643871307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80273103713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76767492294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65374135971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59239196777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6362133026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60115623474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61868476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86407995223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75891017913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70632600784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82902336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73261833190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32070446014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24182844161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28564882278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45216655731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69756174087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19800806045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82553267478943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54069972038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43114805221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37856388092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22957372665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28654026985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86148118972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97541451454163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9228298664093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94474005699158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78698658943176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7212553024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85709881782532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66428875923157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77822208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97979688644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87024521827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75631189346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71249151229858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90091943740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82204270362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84395289421082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76069402694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76507592201233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90968370437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94912242889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98856091499329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06743764877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02361726760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99732494354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00170683860779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04114556312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07182002067566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00608897209167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03676319122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01047086715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16822504997253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10249423980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11125802993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14631462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1945173740387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09373021125793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15507841110229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25586605072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31283283233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22519159317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21204543113708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24710178375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19889950752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18137145042419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37418150901794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45305871963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50564312934875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55384540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53193545341492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54946398735046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38294553756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36103534698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2602481842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44867658615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44429445266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4180018901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43991208076477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49687886238098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51002502441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51440715789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83402919769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78892230987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70322108268738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65360450744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59045553207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57241320610046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50024318695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51828551292419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4280731678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45513701438904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4867115020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38747763633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40552020072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38296675682068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33786058425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34688210487366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29275465011597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15743589401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24764823913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31981825828552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27020144462585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22960591316223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22058439254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20254182815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16645693778992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16194653511047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10330843925476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10781908035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13939332962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12135076522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04015946388245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02211689949036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00407457351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9950532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15292501449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13037204742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11684012413025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04466986656189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96347904205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89130902290344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92739415168762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85973453521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83267116546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86875605583191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90484094619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.886798620224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8507137298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97701096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87777733802795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85522413253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86424541473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81462836265564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77854347229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76952219009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73794794082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68833088874817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67028880119324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63420367240906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59811878204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61616110801697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6026291847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54399108886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62518239021301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0311381816864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01309585571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06271266937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24313759803772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23411655426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25666952133179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3559033870697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36492466926575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54986000061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48220038414001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55437064170837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52730703353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56339192390442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58143424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51377511024475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49573230743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62654066085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75283789634705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79794454574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82500743865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8791356086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73028492927551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73479533195496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72577452659607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69871044158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68066763877869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61751937866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60849809646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64458298683167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57692360877991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66262578964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64909386634827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8204972743988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81598663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80696535110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7799015045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85207152366638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9152204990387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734877586365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84305095672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85658240318298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83854007720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84756112098694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79343366622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76185941696167</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.68968939781189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64586877822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71598148345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72912764549255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70283555984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04901790618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0358715057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97890496253967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00957918167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09722089767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18048000335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22429990768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32946920394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33385133743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52227926254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51351547241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68003368377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67126893997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58362817764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64497709274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57486391067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62744903564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68879795074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87284374237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9079008102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79396724700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74138212203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82025957107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81149482727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78520250320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77643871307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80273103713989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76767492294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65374088287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59239292144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6362133026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60115623474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61868476867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86408042907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75891017913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70632553100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82902383804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73261833190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32070541381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24182844161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28564882278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45216703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69756174087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19800758361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82553267478943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54069948196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.431147813797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37856364250183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22957372665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28654026985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86148118972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97541451454163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9228298664093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94474005699158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78698635101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72125554084778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8570990562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66428875923157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77822232246399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97979664802551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87024545669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75631189346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71249127388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90091943740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82204270362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84395289421082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7606942653656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76507592201233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9096839427948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94912242889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98856067657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06743764877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02361702919006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9973247051239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00170683860779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04114532470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07182002067566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00608897209167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03676319122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01047086715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16822481155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10249423980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11125802993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14631485939026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19451713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09373021125793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15507864952087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25586605072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31283259391785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22519183158875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21204543113708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24710178375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19889950752258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18137121200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37418150901794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45305848121643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50564336776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55384540557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5319356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54946374893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38294529914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36103534698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26024794578552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44867610931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44429445266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41800212860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43991231918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49687910079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51002526283264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51440739631653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83402895927429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78892254829407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70322108268738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65360450744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59045553207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57241320610046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50024318695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51828575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42807292938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45513677597046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48671126365662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38747763633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40552020072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38296675682068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33786082267761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34688210487366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29275465011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15743565559387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24764800071716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3198184967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27020120620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22960591316223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22058439254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20254182815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16645693778992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16194677352905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10330843925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1078188419342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13939332962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12135076522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04015922546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02211713790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00407481193542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99505352973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15292501449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13037204742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11684036254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04467034339905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96347904205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89130878448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92739391326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85973477363586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83267116546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86875605583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90484094619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.886798620224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85071325302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97701120376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87777733802795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85522437095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86424517631531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81462836265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77854323387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76952219009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.737948179245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68833112716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67028880119324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63420367240906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59811878204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61616110801697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6026291847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54399085044861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62518262863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0311381816864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01309585571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06271266937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24313759803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23411631584167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25666952133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35590314865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36492443084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54985976219177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48220038414001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55437064170837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52730703353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56339192390442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58143448829651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51377511024475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49573254585266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62654066085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75283789634705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79794430732727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82500767707825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8791356086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73028492927551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73479533195496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72577452659607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69871044158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68066787719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61751961708069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60849833488464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64458298683167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57692337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66262555122375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64909386634827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8204972743988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81598687171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80696511268616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77990174293518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85207152366638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9152204990387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734877586365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84305095672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85658240318298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83853960037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84756112098694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79343366622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76185917854309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68968915939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6716468334198</t>
+    <t xml:space="preserve">3.67164707183838</t>
   </si>
   <si>
     <t xml:space="preserve">3.73930621147156</t>
@@ -2528,10 +2528,10 @@
     <t xml:space="preserve">3.86109328269958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00543308258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01896476745605</t>
+    <t xml:space="preserve">4.00543260574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0189642906189</t>
   </si>
   <si>
     <t xml:space="preserve">4.07760286331177</t>
@@ -3969,6 +3969,12 @@
   </si>
   <si>
     <t xml:space="preserve">5.26000022888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34000015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6399998664856</t>
   </si>
 </sst>
 </file>
@@ -7448,7 +7454,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G121" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -7474,7 +7480,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -7500,7 +7506,7 @@
         <v>3.08599996566772</v>
       </c>
       <c r="G123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>
@@ -7526,7 +7532,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H124" t="s">
         <v>9</v>
@@ -7552,7 +7558,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H125" t="s">
         <v>9</v>
@@ -7578,7 +7584,7 @@
         <v>2.75</v>
       </c>
       <c r="G126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H126" t="s">
         <v>9</v>
@@ -7604,7 +7610,7 @@
         <v>2.82399988174438</v>
       </c>
       <c r="G127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H127" t="s">
         <v>9</v>
@@ -7630,7 +7636,7 @@
         <v>2.79800009727478</v>
       </c>
       <c r="G128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H128" t="s">
         <v>9</v>
@@ -7656,7 +7662,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
@@ -7682,7 +7688,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
@@ -7708,7 +7714,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
@@ -7734,7 +7740,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
@@ -7760,7 +7766,7 @@
         <v>2.73799991607666</v>
       </c>
       <c r="G133" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H133" t="s">
         <v>9</v>
@@ -7786,7 +7792,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
@@ -7812,7 +7818,7 @@
         <v>2.83599996566772</v>
       </c>
       <c r="G135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H135" t="s">
         <v>9</v>
@@ -7838,7 +7844,7 @@
         <v>2.86800003051758</v>
       </c>
       <c r="G136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
@@ -7864,7 +7870,7 @@
         <v>2.87400007247925</v>
       </c>
       <c r="G137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H137" t="s">
         <v>9</v>
@@ -7890,7 +7896,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H138" t="s">
         <v>9</v>
@@ -7916,7 +7922,7 @@
         <v>2.85400009155273</v>
       </c>
       <c r="G139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
@@ -7942,7 +7948,7 @@
         <v>2.85400009155273</v>
       </c>
       <c r="G140" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H140" t="s">
         <v>9</v>
@@ -7968,7 +7974,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G141" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H141" t="s">
         <v>9</v>
@@ -7994,7 +8000,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G142" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H142" t="s">
         <v>9</v>
@@ -8020,7 +8026,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G143" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H143" t="s">
         <v>9</v>
@@ -8046,7 +8052,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H144" t="s">
         <v>9</v>
@@ -8098,7 +8104,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G146" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8124,7 +8130,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G147" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8176,7 +8182,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G149" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8202,7 +8208,7 @@
         <v>3.19400000572205</v>
       </c>
       <c r="G150" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8228,7 +8234,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G151" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
@@ -8332,7 +8338,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -8358,7 +8364,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G156" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -8384,7 +8390,7 @@
         <v>3.16599988937378</v>
       </c>
       <c r="G157" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -8410,7 +8416,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G158" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -8436,7 +8442,7 @@
         <v>3.15799999237061</v>
       </c>
       <c r="G159" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -8462,7 +8468,7 @@
         <v>3.1159999370575</v>
       </c>
       <c r="G160" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
@@ -8488,7 +8494,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G161" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -8514,7 +8520,7 @@
         <v>3.12199997901917</v>
       </c>
       <c r="G162" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -8540,7 +8546,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G163" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -8566,7 +8572,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G164" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -8592,7 +8598,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G165" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -8618,7 +8624,7 @@
         <v>3.24399995803833</v>
       </c>
       <c r="G166" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -8644,7 +8650,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G167" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -8670,7 +8676,7 @@
         <v>3.24399995803833</v>
       </c>
       <c r="G168" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -8696,7 +8702,7 @@
         <v>3.25600004196167</v>
       </c>
       <c r="G169" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H169" t="s">
         <v>9</v>
@@ -8722,7 +8728,7 @@
         <v>3.26399993896484</v>
       </c>
       <c r="G170" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -8748,7 +8754,7 @@
         <v>3.24600005149841</v>
       </c>
       <c r="G171" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -8774,7 +8780,7 @@
         <v>3.25</v>
       </c>
       <c r="G172" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -8800,7 +8806,7 @@
         <v>3.31200003623962</v>
       </c>
       <c r="G173" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -8826,7 +8832,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G174" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -8852,7 +8858,7 @@
         <v>3.43600010871887</v>
       </c>
       <c r="G175" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H175" t="s">
         <v>9</v>
@@ -8878,7 +8884,7 @@
         <v>3.43600010871887</v>
       </c>
       <c r="G176" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -8930,7 +8936,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G178" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H178" t="s">
         <v>9</v>
@@ -8956,7 +8962,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G179" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
@@ -8982,7 +8988,7 @@
         <v>3.26600003242493</v>
       </c>
       <c r="G180" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -9008,7 +9014,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G181" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -9034,7 +9040,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G182" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H182" t="s">
         <v>9</v>
@@ -9060,7 +9066,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G183" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -9086,7 +9092,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G184" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9112,7 +9118,7 @@
         <v>3.35599994659424</v>
       </c>
       <c r="G185" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -9138,7 +9144,7 @@
         <v>3.37199997901917</v>
       </c>
       <c r="G186" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H186" t="s">
         <v>9</v>
@@ -9164,7 +9170,7 @@
         <v>3.40799999237061</v>
       </c>
       <c r="G187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9190,7 +9196,7 @@
         <v>3.44600009918213</v>
       </c>
       <c r="G188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9216,7 +9222,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G189" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9242,7 +9248,7 @@
         <v>3.31599998474121</v>
       </c>
       <c r="G190" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9268,7 +9274,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G191" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -9294,7 +9300,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G192" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -9320,7 +9326,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G193" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -9346,7 +9352,7 @@
         <v>3.19600009918213</v>
       </c>
       <c r="G194" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -9398,7 +9404,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G196" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -9476,7 +9482,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G199" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -9502,7 +9508,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -9528,7 +9534,7 @@
         <v>3.30800008773804</v>
       </c>
       <c r="G201" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -9554,7 +9560,7 @@
         <v>3.20199990272522</v>
       </c>
       <c r="G202" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -9580,7 +9586,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G203" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -9606,7 +9612,7 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G204" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -9632,7 +9638,7 @@
         <v>3.33400011062622</v>
       </c>
       <c r="G205" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -9658,7 +9664,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G206" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -9684,7 +9690,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G207" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -9710,7 +9716,7 @@
         <v>3.35400009155273</v>
       </c>
       <c r="G208" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -9736,7 +9742,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G209" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9762,7 +9768,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G210" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9788,7 +9794,7 @@
         <v>3.37599992752075</v>
       </c>
       <c r="G211" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9814,7 +9820,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G212" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9840,7 +9846,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G213" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9866,7 +9872,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G214" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -9892,7 +9898,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G215" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -9918,7 +9924,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G216" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -9944,7 +9950,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G217" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -9970,7 +9976,7 @@
         <v>3.25</v>
       </c>
       <c r="G218" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -9996,7 +10002,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G219" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10022,7 +10028,7 @@
         <v>3.21399998664856</v>
       </c>
       <c r="G220" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10048,7 +10054,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G221" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10074,7 +10080,7 @@
         <v>3.36199998855591</v>
       </c>
       <c r="G222" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10126,7 +10132,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G224" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10152,7 +10158,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G225" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10178,7 +10184,7 @@
         <v>3.2279999256134</v>
       </c>
       <c r="G226" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10204,7 +10210,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G227" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10230,7 +10236,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G228" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10308,7 +10314,7 @@
         <v>3.14199995994568</v>
       </c>
       <c r="G231" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10334,7 +10340,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G232" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10360,7 +10366,7 @@
         <v>3.13800001144409</v>
       </c>
       <c r="G233" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10386,7 +10392,7 @@
         <v>3.09200000762939</v>
       </c>
       <c r="G234" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10412,7 +10418,7 @@
         <v>3.03600001335144</v>
       </c>
       <c r="G235" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10438,7 +10444,7 @@
         <v>3.03600001335144</v>
       </c>
       <c r="G236" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10464,7 +10470,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G237" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10490,7 +10496,7 @@
         <v>3.07800006866455</v>
       </c>
       <c r="G238" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10542,7 +10548,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G240" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10594,7 +10600,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G242" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10620,7 +10626,7 @@
         <v>3.19199991226196</v>
       </c>
       <c r="G243" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -10646,7 +10652,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G244" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10672,7 +10678,7 @@
         <v>3.23799991607666</v>
       </c>
       <c r="G245" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10698,7 +10704,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G246" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10724,7 +10730,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G247" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -10750,7 +10756,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G248" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10776,7 +10782,7 @@
         <v>3.25</v>
       </c>
       <c r="G249" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -10828,7 +10834,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G251" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10854,7 +10860,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G252" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -10880,7 +10886,7 @@
         <v>3.26799988746643</v>
       </c>
       <c r="G253" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -10906,7 +10912,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G254" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -10932,7 +10938,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G255" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -10958,7 +10964,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G256" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -10984,7 +10990,7 @@
         <v>3.35199999809265</v>
       </c>
       <c r="G257" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11010,7 +11016,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G258" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11036,7 +11042,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G259" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11062,7 +11068,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G260" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11088,7 +11094,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G261" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11114,7 +11120,7 @@
         <v>3.41799998283386</v>
       </c>
       <c r="G262" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11140,7 +11146,7 @@
         <v>3.32200002670288</v>
       </c>
       <c r="G263" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11166,7 +11172,7 @@
         <v>3.35199999809265</v>
       </c>
       <c r="G264" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11192,7 +11198,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G265" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11218,7 +11224,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G266" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11244,7 +11250,7 @@
         <v>3.41199994087219</v>
       </c>
       <c r="G267" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11270,7 +11276,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G268" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11296,7 +11302,7 @@
         <v>3.40199995040894</v>
       </c>
       <c r="G269" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11322,7 +11328,7 @@
         <v>3.34400010108948</v>
       </c>
       <c r="G270" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11374,7 +11380,7 @@
         <v>3.30800008773804</v>
       </c>
       <c r="G272" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11478,7 +11484,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G276" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11504,7 +11510,7 @@
         <v>3.23600006103516</v>
       </c>
       <c r="G277" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11530,7 +11536,7 @@
         <v>3.25</v>
       </c>
       <c r="G278" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11556,7 +11562,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G279" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11582,7 +11588,7 @@
         <v>3.25799989700317</v>
       </c>
       <c r="G280" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11660,7 +11666,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G283" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11686,7 +11692,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G284" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -11712,7 +11718,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G285" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11738,7 +11744,7 @@
         <v>3.37800002098083</v>
       </c>
       <c r="G286" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11764,7 +11770,7 @@
         <v>3.37400007247925</v>
       </c>
       <c r="G287" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11790,7 +11796,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G288" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11816,7 +11822,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G289" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11842,7 +11848,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G290" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11894,7 +11900,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G292" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -11920,7 +11926,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G293" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -11946,7 +11952,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G294" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -11972,7 +11978,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G295" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -11998,7 +12004,7 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G296" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12050,7 +12056,7 @@
         <v>3.24600005149841</v>
       </c>
       <c r="G298" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12102,7 +12108,7 @@
         <v>3.2039999961853</v>
       </c>
       <c r="G300" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12128,7 +12134,7 @@
         <v>3.23200011253357</v>
       </c>
       <c r="G301" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12154,7 +12160,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G302" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12180,7 +12186,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G303" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12206,7 +12212,7 @@
         <v>3.25</v>
       </c>
       <c r="G304" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12232,7 +12238,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G305" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12258,7 +12264,7 @@
         <v>3.31399989128113</v>
       </c>
       <c r="G306" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12284,7 +12290,7 @@
         <v>3.31599998474121</v>
       </c>
       <c r="G307" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12310,7 +12316,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G308" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12336,7 +12342,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G309" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12362,7 +12368,7 @@
         <v>3.29399991035461</v>
       </c>
       <c r="G310" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12388,7 +12394,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G311" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12414,7 +12420,7 @@
         <v>3.35400009155273</v>
       </c>
       <c r="G312" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12466,7 +12472,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G314" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12492,7 +12498,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G315" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12518,7 +12524,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G316" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12544,7 +12550,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G317" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12570,7 +12576,7 @@
         <v>3.65400004386902</v>
       </c>
       <c r="G318" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12596,7 +12602,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G319" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12622,7 +12628,7 @@
         <v>3.64599990844727</v>
       </c>
       <c r="G320" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12648,7 +12654,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G321" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12674,7 +12680,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G322" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12700,7 +12706,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G323" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12726,7 +12732,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G324" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12752,7 +12758,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G325" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12778,7 +12784,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G326" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12804,7 +12810,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G327" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12830,7 +12836,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G328" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12856,7 +12862,7 @@
         <v>3.54200005531311</v>
       </c>
       <c r="G329" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12882,7 +12888,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G330" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -12908,7 +12914,7 @@
         <v>3.5</v>
       </c>
       <c r="G331" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -12934,7 +12940,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G332" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -12960,7 +12966,7 @@
         <v>3.50600004196167</v>
       </c>
       <c r="G333" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -12986,7 +12992,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G334" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13012,7 +13018,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G335" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13038,7 +13044,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G336" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13064,7 +13070,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G337" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13090,7 +13096,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G338" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13116,7 +13122,7 @@
         <v>3.59200000762939</v>
       </c>
       <c r="G339" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13142,7 +13148,7 @@
         <v>3.58599996566772</v>
       </c>
       <c r="G340" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13168,7 +13174,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G341" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13194,7 +13200,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G342" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13220,7 +13226,7 @@
         <v>3.58800005912781</v>
       </c>
       <c r="G343" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13246,7 +13252,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G344" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13272,7 +13278,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G345" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13298,7 +13304,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G346" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13324,7 +13330,7 @@
         <v>3.63199996948242</v>
       </c>
       <c r="G347" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13350,7 +13356,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G348" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13376,7 +13382,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G349" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13402,7 +13408,7 @@
         <v>3.75200009346008</v>
       </c>
       <c r="G350" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13428,7 +13434,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G351" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13454,7 +13460,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G352" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13480,7 +13486,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G353" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13506,7 +13512,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G354" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13532,7 +13538,7 @@
         <v>3.74799990653992</v>
       </c>
       <c r="G355" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13558,7 +13564,7 @@
         <v>3.7720000743866</v>
       </c>
       <c r="G356" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13584,7 +13590,7 @@
         <v>3.83599996566772</v>
       </c>
       <c r="G357" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13610,7 +13616,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G358" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13636,7 +13642,7 @@
         <v>3.80599999427795</v>
       </c>
       <c r="G359" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13662,7 +13668,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G360" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13688,7 +13694,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G361" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13714,7 +13720,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G362" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13740,7 +13746,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G363" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13766,7 +13772,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G364" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13792,7 +13798,7 @@
         <v>3.93199992179871</v>
       </c>
       <c r="G365" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13818,7 +13824,7 @@
         <v>3.89400005340576</v>
       </c>
       <c r="G366" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13844,7 +13850,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G367" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13870,7 +13876,7 @@
         <v>3.83400011062622</v>
       </c>
       <c r="G368" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -13896,7 +13902,7 @@
         <v>3.81800007820129</v>
       </c>
       <c r="G369" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -13922,7 +13928,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G370" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -13948,7 +13954,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G371" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13974,7 +13980,7 @@
         <v>3.72399997711182</v>
       </c>
       <c r="G372" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14000,7 +14006,7 @@
         <v>3.72199988365173</v>
       </c>
       <c r="G373" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14026,7 +14032,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G374" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14052,7 +14058,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G375" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14078,7 +14084,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G376" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14104,7 +14110,7 @@
         <v>3.67199993133545</v>
       </c>
       <c r="G377" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14130,7 +14136,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G378" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14156,7 +14162,7 @@
         <v>3.62400007247925</v>
       </c>
       <c r="G379" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14182,7 +14188,7 @@
         <v>3.66199994087219</v>
       </c>
       <c r="G380" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14208,7 +14214,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G381" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14234,7 +14240,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G382" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14260,7 +14266,7 @@
         <v>3.55599999427795</v>
       </c>
       <c r="G383" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14286,7 +14292,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G384" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14312,7 +14318,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G385" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14338,7 +14344,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G386" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14364,7 +14370,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G387" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14390,7 +14396,7 @@
         <v>3.76200008392334</v>
       </c>
       <c r="G388" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14416,7 +14422,7 @@
         <v>3.76600003242493</v>
       </c>
       <c r="G389" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14442,7 +14448,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G390" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14468,7 +14474,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G391" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14494,7 +14500,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G392" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14520,7 +14526,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G393" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14546,7 +14552,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G394" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14572,7 +14578,7 @@
         <v>3.91400003433228</v>
       </c>
       <c r="G395" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14598,7 +14604,7 @@
         <v>3.93799996376038</v>
       </c>
       <c r="G396" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14624,7 +14630,7 @@
         <v>3.98799991607666</v>
       </c>
       <c r="G397" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14650,7 +14656,7 @@
         <v>4.00400018692017</v>
       </c>
       <c r="G398" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14676,7 +14682,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G399" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14702,7 +14708,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G400" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14728,7 +14734,7 @@
         <v>3.90199995040894</v>
       </c>
       <c r="G401" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14754,7 +14760,7 @@
         <v>3.93400001525879</v>
       </c>
       <c r="G402" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14780,7 +14786,7 @@
         <v>3.8659999370575</v>
       </c>
       <c r="G403" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14806,7 +14812,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G404" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14832,7 +14838,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G405" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14858,7 +14864,7 @@
         <v>3.75</v>
       </c>
       <c r="G406" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14884,7 +14890,7 @@
         <v>3.82399988174438</v>
       </c>
       <c r="G407" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14910,7 +14916,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G408" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14936,7 +14942,7 @@
         <v>3.84200000762939</v>
       </c>
       <c r="G409" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14962,7 +14968,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G410" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14988,7 +14994,7 @@
         <v>3.75</v>
       </c>
       <c r="G411" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15014,7 +15020,7 @@
         <v>3.75</v>
       </c>
       <c r="G412" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15040,7 +15046,7 @@
         <v>3.69400000572205</v>
       </c>
       <c r="G413" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15066,7 +15072,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G414" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15092,7 +15098,7 @@
         <v>3.73399996757507</v>
       </c>
       <c r="G415" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15118,7 +15124,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G416" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15144,7 +15150,7 @@
         <v>3.78600001335144</v>
       </c>
       <c r="G417" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15170,7 +15176,7 @@
         <v>3.7720000743866</v>
       </c>
       <c r="G418" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15196,7 +15202,7 @@
         <v>3.76600003242493</v>
       </c>
       <c r="G419" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15222,7 +15228,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G420" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15248,7 +15254,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G421" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15274,7 +15280,7 @@
         <v>3.69400000572205</v>
       </c>
       <c r="G422" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15300,7 +15306,7 @@
         <v>3.74600005149841</v>
       </c>
       <c r="G423" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15326,7 +15332,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G424" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15352,7 +15358,7 @@
         <v>3.74200010299683</v>
       </c>
       <c r="G425" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15378,7 +15384,7 @@
         <v>3.7279999256134</v>
       </c>
       <c r="G426" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15404,7 +15410,7 @@
         <v>3.75</v>
       </c>
       <c r="G427" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15430,7 +15436,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G428" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15456,7 +15462,7 @@
         <v>3.76399993896484</v>
       </c>
       <c r="G429" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15482,7 +15488,7 @@
         <v>3.75799989700317</v>
       </c>
       <c r="G430" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15508,7 +15514,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G431" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15534,7 +15540,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G432" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15560,7 +15566,7 @@
         <v>3.7960000038147</v>
       </c>
       <c r="G433" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15586,7 +15592,7 @@
         <v>3.80800008773804</v>
       </c>
       <c r="G434" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15612,7 +15618,7 @@
         <v>3.78800010681152</v>
       </c>
       <c r="G435" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15638,7 +15644,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G436" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15664,7 +15670,7 @@
         <v>3.80200004577637</v>
       </c>
       <c r="G437" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15690,7 +15696,7 @@
         <v>3.82200002670288</v>
       </c>
       <c r="G438" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15716,7 +15722,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G439" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15742,7 +15748,7 @@
         <v>3.89000010490417</v>
       </c>
       <c r="G440" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15768,7 +15774,7 @@
         <v>3.83800005912781</v>
       </c>
       <c r="G441" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15794,7 +15800,7 @@
         <v>3.81800007820129</v>
       </c>
       <c r="G442" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15820,7 +15826,7 @@
         <v>3.85400009155273</v>
       </c>
       <c r="G443" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15846,7 +15852,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G444" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15872,7 +15878,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G445" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15898,7 +15904,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G446" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15924,7 +15930,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G447" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15950,7 +15956,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G448" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15976,7 +15982,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G449" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16002,7 +16008,7 @@
         <v>3.75399994850159</v>
       </c>
       <c r="G450" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16028,7 +16034,7 @@
         <v>3.75600004196167</v>
       </c>
       <c r="G451" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16054,7 +16060,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G452" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16080,7 +16086,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G453" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16106,7 +16112,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G454" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16132,7 +16138,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G455" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16158,7 +16164,7 @@
         <v>3.73399996757507</v>
       </c>
       <c r="G456" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16184,7 +16190,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G457" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16210,7 +16216,7 @@
         <v>3.77800011634827</v>
       </c>
       <c r="G458" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16236,7 +16242,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G459" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16262,7 +16268,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G460" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16288,7 +16294,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G461" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16314,7 +16320,7 @@
         <v>3.75</v>
       </c>
       <c r="G462" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16340,7 +16346,7 @@
         <v>3.75</v>
       </c>
       <c r="G463" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16366,7 +16372,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G464" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16392,7 +16398,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G465" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16418,7 +16424,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G466" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16444,7 +16450,7 @@
         <v>3.43400001525879</v>
       </c>
       <c r="G467" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16470,7 +16476,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G468" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16496,7 +16502,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G469" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16522,7 +16528,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G470" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16548,7 +16554,7 @@
         <v>3.5239999294281</v>
       </c>
       <c r="G471" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16574,7 +16580,7 @@
         <v>3.57800006866455</v>
       </c>
       <c r="G472" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16600,7 +16606,7 @@
         <v>3.56599998474121</v>
       </c>
       <c r="G473" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16626,7 +16632,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G474" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16652,7 +16658,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G475" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16678,7 +16684,7 @@
         <v>3.49200010299683</v>
       </c>
       <c r="G476" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16704,7 +16710,7 @@
         <v>3.43799996376038</v>
       </c>
       <c r="G477" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16730,7 +16736,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G478" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16756,7 +16762,7 @@
         <v>3.40400004386902</v>
       </c>
       <c r="G479" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16782,7 +16788,7 @@
         <v>3.48600006103516</v>
       </c>
       <c r="G480" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16808,7 +16814,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16834,7 +16840,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G482" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16860,7 +16866,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G483" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16886,7 +16892,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G484" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16912,7 +16918,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G485" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16938,7 +16944,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G486" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16964,7 +16970,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G487" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16990,7 +16996,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G488" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17016,7 +17022,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G489" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17042,7 +17048,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G490" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17068,7 +17074,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G491" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17094,7 +17100,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G492" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17120,7 +17126,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G493" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17146,7 +17152,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G494" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17172,7 +17178,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G495" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17198,7 +17204,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G496" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17224,7 +17230,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G497" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17250,7 +17256,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G498" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17276,7 +17282,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G499" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17302,7 +17308,7 @@
         <v>3.70199990272522</v>
       </c>
       <c r="G500" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17328,7 +17334,7 @@
         <v>3.71600008010864</v>
       </c>
       <c r="G501" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17354,7 +17360,7 @@
         <v>3.70799994468689</v>
       </c>
       <c r="G502" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17380,7 +17386,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G503" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17406,7 +17412,7 @@
         <v>3.67600011825562</v>
       </c>
       <c r="G504" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17432,7 +17438,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G505" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17458,7 +17464,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G506" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17484,7 +17490,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G507" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17510,7 +17516,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G508" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17536,7 +17542,7 @@
         <v>3.69600009918213</v>
       </c>
       <c r="G509" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17562,7 +17568,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G510" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17588,7 +17594,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G511" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17614,7 +17620,7 @@
         <v>3.7260000705719</v>
       </c>
       <c r="G512" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17640,7 +17646,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G513" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17666,7 +17672,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G514" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17692,7 +17698,7 @@
         <v>3.76500010490417</v>
       </c>
       <c r="G515" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17718,7 +17724,7 @@
         <v>3.71499991416931</v>
       </c>
       <c r="G516" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17744,7 +17750,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G517" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17770,7 +17776,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G518" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17796,7 +17802,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G519" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17822,7 +17828,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G520" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17848,7 +17854,7 @@
         <v>3.91000008583069</v>
       </c>
       <c r="G521" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17874,7 +17880,7 @@
         <v>3.89499998092651</v>
       </c>
       <c r="G522" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17900,7 +17906,7 @@
         <v>3.82999992370605</v>
       </c>
       <c r="G523" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17926,7 +17932,7 @@
         <v>3.84999990463257</v>
       </c>
       <c r="G524" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17952,7 +17958,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G525" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17978,7 +17984,7 @@
         <v>3.84500002861023</v>
       </c>
       <c r="G526" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18004,7 +18010,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G527" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18030,7 +18036,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G528" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18056,7 +18062,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G529" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18082,7 +18088,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G530" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18108,7 +18114,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G531" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18134,7 +18140,7 @@
         <v>3.71000003814697</v>
       </c>
       <c r="G532" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18160,7 +18166,7 @@
         <v>3.75</v>
       </c>
       <c r="G533" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18186,7 +18192,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G534" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18212,7 +18218,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G535" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18238,7 +18244,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G536" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18264,7 +18270,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G537" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18290,7 +18296,7 @@
         <v>3.60500001907349</v>
       </c>
       <c r="G538" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18316,7 +18322,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G539" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18342,7 +18348,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G540" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18368,7 +18374,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G541" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18394,7 +18400,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18420,7 +18426,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G543" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18446,7 +18452,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G544" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18472,7 +18478,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G545" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18498,7 +18504,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G546" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18524,7 +18530,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G547" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18550,7 +18556,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G548" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18576,7 +18582,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G549" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18602,7 +18608,7 @@
         <v>3.72499990463257</v>
       </c>
       <c r="G550" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18628,7 +18634,7 @@
         <v>3.6949999332428</v>
       </c>
       <c r="G551" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18654,7 +18660,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G552" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18680,7 +18686,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G553" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18706,7 +18712,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G554" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18732,7 +18738,7 @@
         <v>3.53500008583069</v>
       </c>
       <c r="G555" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18758,7 +18764,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G556" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18784,7 +18790,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G557" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18810,7 +18816,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G558" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18836,7 +18842,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G559" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18862,7 +18868,7 @@
         <v>3.73499989509583</v>
       </c>
       <c r="G560" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18888,7 +18894,7 @@
         <v>3.73000001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18914,7 +18920,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G562" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18940,7 +18946,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G563" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18966,7 +18972,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G564" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18992,7 +18998,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G565" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19018,7 +19024,7 @@
         <v>3.71499991416931</v>
       </c>
       <c r="G566" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19044,7 +19050,7 @@
         <v>3.66499996185303</v>
       </c>
       <c r="G567" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19070,7 +19076,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G568" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19096,7 +19102,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G569" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19122,7 +19128,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G570" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19148,7 +19154,7 @@
         <v>3.68499994277954</v>
       </c>
       <c r="G571" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19174,7 +19180,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G572" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19200,7 +19206,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G573" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19226,7 +19232,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G574" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19252,7 +19258,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G575" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19278,7 +19284,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G576" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19304,7 +19310,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G577" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19330,7 +19336,7 @@
         <v>3.73499989509583</v>
       </c>
       <c r="G578" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19356,7 +19362,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G579" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19382,7 +19388,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G580" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19408,7 +19414,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G581" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19434,7 +19440,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G582" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19460,7 +19466,7 @@
         <v>3.80999994277954</v>
       </c>
       <c r="G583" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19486,7 +19492,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G584" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19512,7 +19518,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G585" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19538,7 +19544,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G586" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19564,7 +19570,7 @@
         <v>3.78999996185303</v>
       </c>
       <c r="G587" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19590,7 +19596,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G588" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19616,7 +19622,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G589" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19642,7 +19648,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G590" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19668,7 +19674,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G591" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19694,7 +19700,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G592" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19720,7 +19726,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G593" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19746,7 +19752,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G594" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19772,7 +19778,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G595" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19798,7 +19804,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G596" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19824,7 +19830,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G597" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19850,7 +19856,7 @@
         <v>4.03999996185303</v>
       </c>
       <c r="G598" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19876,7 +19882,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G599" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19902,7 +19908,7 @@
         <v>3.93499994277954</v>
       </c>
       <c r="G600" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19928,7 +19934,7 @@
         <v>3.96499991416931</v>
       </c>
       <c r="G601" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19954,7 +19960,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G602" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19980,7 +19986,7 @@
         <v>3.97499990463257</v>
       </c>
       <c r="G603" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20006,7 +20012,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G604" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20032,7 +20038,7 @@
         <v>3.85500001907349</v>
       </c>
       <c r="G605" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20058,7 +20064,7 @@
         <v>3.9300000667572</v>
       </c>
       <c r="G606" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20084,7 +20090,7 @@
         <v>3.84500002861023</v>
       </c>
       <c r="G607" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20110,7 +20116,7 @@
         <v>3.86500000953674</v>
       </c>
       <c r="G608" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20136,7 +20142,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G609" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20162,7 +20168,7 @@
         <v>3.82500004768372</v>
       </c>
       <c r="G610" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20188,7 +20194,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G611" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20214,7 +20220,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G612" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20240,7 +20246,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G613" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20266,7 +20272,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G614" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20292,7 +20298,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G615" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20318,7 +20324,7 @@
         <v>3.74499988555908</v>
       </c>
       <c r="G616" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20344,7 +20350,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G617" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20370,7 +20376,7 @@
         <v>3.88000011444092</v>
       </c>
       <c r="G618" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20396,7 +20402,7 @@
         <v>3.86999988555908</v>
       </c>
       <c r="G619" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20422,7 +20428,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G620" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20448,7 +20454,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G621" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20474,7 +20480,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G622" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20500,7 +20506,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20526,7 +20532,7 @@
         <v>3.79500007629395</v>
       </c>
       <c r="G624" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20552,7 +20558,7 @@
         <v>3.78500008583069</v>
       </c>
       <c r="G625" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20786,7 +20792,7 @@
         <v>3.76999998092651</v>
       </c>
       <c r="G634" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21046,7 +21052,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G644" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21124,7 +21130,7 @@
         <v>3.81500005722046</v>
       </c>
       <c r="G647" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21176,7 +21182,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G649" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -62784,7 +62790,7 @@
     </row>
     <row r="2250">
       <c r="A2250" s="1" t="n">
-        <v>45596.6912615741</v>
+        <v>45596.3333333333</v>
       </c>
       <c r="B2250" t="n">
         <v>99072</v>
@@ -62805,6 +62811,58 @@
         <v>1318</v>
       </c>
       <c r="H2250" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" s="1" t="n">
+        <v>45597.3333333333</v>
+      </c>
+      <c r="B2251" t="n">
+        <v>65702</v>
+      </c>
+      <c r="C2251" t="n">
+        <v>5.42000007629395</v>
+      </c>
+      <c r="D2251" t="n">
+        <v>5.1399998664856</v>
+      </c>
+      <c r="E2251" t="n">
+        <v>5.26000022888184</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>5.34000015258789</v>
+      </c>
+      <c r="G2251" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H2251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" s="1" t="n">
+        <v>45600.6912847222</v>
+      </c>
+      <c r="B2252" t="n">
+        <v>193491</v>
+      </c>
+      <c r="C2252" t="n">
+        <v>5.80000019073486</v>
+      </c>
+      <c r="D2252" t="n">
+        <v>5.23999977111816</v>
+      </c>
+      <c r="E2252" t="n">
+        <v>5.34000015258789</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>5.6399998664856</v>
+      </c>
+      <c r="G2252" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H2252" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BAN.MI.xlsx
+++ b/data/BAN.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74278831481934</t>
+    <t xml:space="preserve">3.74278855323792</t>
   </si>
   <si>
     <t xml:space="preserve">BAN.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">3.7572455406189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66247129440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53235721588135</t>
+    <t xml:space="preserve">3.66247153282166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53235697746277</t>
   </si>
   <si>
     <t xml:space="preserve">3.48737955093384</t>
@@ -59,61 +59,61 @@
     <t xml:space="preserve">3.42473220825195</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51468729972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53396344184875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52111220359802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50023031234741</t>
+    <t xml:space="preserve">3.51468658447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53396368026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52111268043518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50023007392883</t>
   </si>
   <si>
     <t xml:space="preserve">3.45203971862793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47774147987366</t>
+    <t xml:space="preserve">3.4777410030365</t>
   </si>
   <si>
     <t xml:space="preserve">3.17896103858948</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30586194992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35726523399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27694797515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33317041397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25767207145691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19663047790527</t>
+    <t xml:space="preserve">3.30586266517639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35726547241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27694749832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33317017555237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25767230987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19663095474243</t>
   </si>
   <si>
     <t xml:space="preserve">3.29301142692566</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23036408424377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23678970336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13237714767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21269392967224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11149406433105</t>
+    <t xml:space="preserve">3.2303638458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23678946495056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13237690925598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2126944065094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11149430274963</t>
   </si>
   <si>
     <t xml:space="preserve">2.98780560493469</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">2.97174215316772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89142441749573</t>
+    <t xml:space="preserve">2.89142489433289</t>
   </si>
   <si>
     <t xml:space="preserve">2.88339304924011</t>
@@ -131,31 +131,31 @@
     <t xml:space="preserve">2.80789470672607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80950045585632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81110739707947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95246601104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04242157936096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02153921127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05366563796997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12113261222839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17253518104553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13077044487</t>
+    <t xml:space="preserve">2.80950117111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81110763549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95246624946594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0424211025238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02153873443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05366587638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12113237380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17253565788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13077068328857</t>
   </si>
   <si>
     <t xml:space="preserve">3.02314519882202</t>
@@ -164,61 +164,61 @@
     <t xml:space="preserve">3.05205941200256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06812286376953</t>
+    <t xml:space="preserve">3.06812334060669</t>
   </si>
   <si>
     <t xml:space="preserve">3.0359959602356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12434506416321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18056726455688</t>
+    <t xml:space="preserve">3.12434530258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18056750297546</t>
   </si>
   <si>
     <t xml:space="preserve">3.24482107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16450428962708</t>
+    <t xml:space="preserve">3.16450381278992</t>
   </si>
   <si>
     <t xml:space="preserve">3.19984340667725</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29783034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40545511245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37332892417908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30907487869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30746865272522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18859934806824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26088452339172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26731014251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16611003875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17574834823608</t>
+    <t xml:space="preserve">3.29783082008362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40545535087585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3733286857605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30907511711121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30746912956238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18859910964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26088428497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26730966567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16610980033875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1757481098175</t>
   </si>
   <si>
     <t xml:space="preserve">3.20466256141663</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10828137397766</t>
+    <t xml:space="preserve">3.10828185081482</t>
   </si>
   <si>
     <t xml:space="preserve">3.06009101867676</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">3.01993250846863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15647196769714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02796411514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92033863067627</t>
+    <t xml:space="preserve">3.1564724445343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0279643535614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92033886909485</t>
   </si>
   <si>
     <t xml:space="preserve">2.93158340454102</t>
@@ -242,82 +242,82 @@
     <t xml:space="preserve">2.96852946281433</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04563426971436</t>
+    <t xml:space="preserve">3.0456337928772</t>
   </si>
   <si>
     <t xml:space="preserve">3.06169748306274</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07615494728088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98619914054871</t>
+    <t xml:space="preserve">3.0761547088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98619937896729</t>
   </si>
   <si>
     <t xml:space="preserve">2.9797739982605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91552042961121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87054228782654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89785003662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85769176483154</t>
+    <t xml:space="preserve">2.91552019119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87054204940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89785051345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85769152641296</t>
   </si>
   <si>
     <t xml:space="preserve">2.78379940986633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7050883769989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73560929298401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76934242248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81913900375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83520245552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77898073196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64244079589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58621859550476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54445385932922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52999687194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57015538215637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65803790092468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63979816436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6116099357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61326742172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66135430335999</t>
+    <t xml:space="preserve">2.70508861541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73560881614685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76934266090393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81913924217224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83520269393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77898025512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64244103431702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58621907234192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54445362091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52999639511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57015562057495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65803813934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63979864120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61160945892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61326766014099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66135454177856</t>
   </si>
   <si>
     <t xml:space="preserve">2.64477276802063</t>
@@ -326,19 +326,19 @@
     <t xml:space="preserve">2.63316535949707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65306353569031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77576804161072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87691569328308</t>
+    <t xml:space="preserve">2.65306377410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77576756477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87691617012024</t>
   </si>
   <si>
     <t xml:space="preserve">2.86033415794373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73597145080566</t>
+    <t xml:space="preserve">2.73597192764282</t>
   </si>
   <si>
     <t xml:space="preserve">2.76913523674011</t>
@@ -347,37 +347,40 @@
     <t xml:space="preserve">2.49553775787354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44579291343689</t>
+    <t xml:space="preserve">2.44579315185547</t>
   </si>
   <si>
     <t xml:space="preserve">2.55357360839844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52538514137268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57844591140747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55854821205139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45408368110657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23852252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27997660636902</t>
+    <t xml:space="preserve">2.52538466453552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57015514373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57844614982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55854845046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45408344268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23852276802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27997708320618</t>
   </si>
   <si>
     <t xml:space="preserve">2.34132838249207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31977248191833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40433931350708</t>
+    <t xml:space="preserve">2.31977272033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40433883666992</t>
   </si>
   <si>
     <t xml:space="preserve">2.42092037200928</t>
@@ -386,49 +389,49 @@
     <t xml:space="preserve">2.33801221847534</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2368643283844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27002763748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32972145080566</t>
+    <t xml:space="preserve">2.23686456680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27002787590027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32972192764282</t>
   </si>
   <si>
     <t xml:space="preserve">2.35127735137939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37780857086182</t>
+    <t xml:space="preserve">2.37780833244324</t>
   </si>
   <si>
     <t xml:space="preserve">2.38278269767761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37946629524231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36620116233826</t>
+    <t xml:space="preserve">2.37946653366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36620092391968</t>
   </si>
   <si>
     <t xml:space="preserve">2.42921161651611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58673691749573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59502792358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61990070343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95484972000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89515614509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86862516403198</t>
+    <t xml:space="preserve">2.58673667907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59502816200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61990022659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95484948158264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89515566825867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8686249256134</t>
   </si>
   <si>
     <t xml:space="preserve">2.64808917045593</t>
@@ -437,43 +440,43 @@
     <t xml:space="preserve">2.6281909942627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62487459182739</t>
+    <t xml:space="preserve">2.62487483024597</t>
   </si>
   <si>
     <t xml:space="preserve">2.61824202537537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.583420753479</t>
+    <t xml:space="preserve">2.58342027664185</t>
   </si>
   <si>
     <t xml:space="preserve">2.5883948802948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68954300880432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68291068077087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69949197769165</t>
+    <t xml:space="preserve">2.6895432472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68291044235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69949245452881</t>
   </si>
   <si>
     <t xml:space="preserve">2.70612478256226</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69120121002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69451761245728</t>
+    <t xml:space="preserve">2.69120144844055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69451785087585</t>
   </si>
   <si>
     <t xml:space="preserve">2.74592113494873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81224703788757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84872722625732</t>
+    <t xml:space="preserve">2.81224727630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84872698783875</t>
   </si>
   <si>
     <t xml:space="preserve">2.81888008117676</t>
@@ -482,19 +485,19 @@
     <t xml:space="preserve">2.78571677207947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70778298377991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71109914779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79732394218445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82385444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76084423065186</t>
+    <t xml:space="preserve">2.70778322219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71109938621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79732370376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82385468482971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76084399223328</t>
   </si>
   <si>
     <t xml:space="preserve">2.78240060806274</t>
@@ -515,13 +518,13 @@
     <t xml:space="preserve">2.72104835510254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7011501789093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67793607711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64974761009216</t>
+    <t xml:space="preserve">2.70114994049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67793583869934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64974737167358</t>
   </si>
   <si>
     <t xml:space="preserve">2.66964507102966</t>
@@ -530,13 +533,13 @@
     <t xml:space="preserve">2.71938991546631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6862268447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74260449409485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6547212600708</t>
+    <t xml:space="preserve">2.68622708320618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74260425567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65472173690796</t>
   </si>
   <si>
     <t xml:space="preserve">2.73099732398987</t>
@@ -545,91 +548,91 @@
     <t xml:space="preserve">2.76416063308716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8105890750885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78074169158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77742600440979</t>
+    <t xml:space="preserve">2.81058931350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78074240684509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77742576599121</t>
   </si>
   <si>
     <t xml:space="preserve">2.88520669937134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7989821434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81722164154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79400753974915</t>
+    <t xml:space="preserve">2.79898190498352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81722187995911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79400730133057</t>
   </si>
   <si>
     <t xml:space="preserve">2.7591860294342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7442626953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66467094421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78737473487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7293393611908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67627811431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64643049240112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60497665405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60166001319885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56352257728577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.517094373703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55191564559937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63648200035095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68456864356995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70944142341614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72270631790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77908396720886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83877825737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82717108726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83380341529846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75421142578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82882905006409</t>
+    <t xml:space="preserve">2.74426245689392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66467070579529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78737497329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72933912277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67627787590027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64643096923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60497689247131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60166049003601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56352305412292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51709413528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55191540718079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63648176193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68456888198853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70944118499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72270655632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77908420562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83877801895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82717084884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83380317687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75421166419983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82882928848267</t>
   </si>
   <si>
     <t xml:space="preserve">2.82053804397583</t>
@@ -638,31 +641,31 @@
     <t xml:space="preserve">2.77245140075684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80064010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83546209335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80229878425598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65638017654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67959451675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70280861854553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74757885932922</t>
+    <t xml:space="preserve">2.80064034461975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83546185493469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8022985458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65637993812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67959427833557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70280838012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74757862091064</t>
   </si>
   <si>
     <t xml:space="preserve">2.7525532245636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98138022422791</t>
+    <t xml:space="preserve">2.98137998580933</t>
   </si>
   <si>
     <t xml:space="preserve">2.94324207305908</t>
@@ -671,22 +674,22 @@
     <t xml:space="preserve">3.05931401252747</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03444194793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0294668674469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02283453941345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00127792358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99298739433289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95650768280029</t>
+    <t xml:space="preserve">3.03444147109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02946710586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02283430099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00127816200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99298715591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95650815963745</t>
   </si>
   <si>
     <t xml:space="preserve">2.94987511634827</t>
@@ -695,25 +698,25 @@
     <t xml:space="preserve">2.93660974502563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93329334259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90178847312927</t>
+    <t xml:space="preserve">2.93329381942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90178823471069</t>
   </si>
   <si>
     <t xml:space="preserve">2.87857365608215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90676212310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97806406021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98469662666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05102324485779</t>
+    <t xml:space="preserve">2.90676283836365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9780638217926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98469638824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05102348327637</t>
   </si>
   <si>
     <t xml:space="preserve">2.97308921813965</t>
@@ -722,16 +725,16 @@
     <t xml:space="preserve">2.97474765777588</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0178599357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01620173454285</t>
+    <t xml:space="preserve">3.01785969734192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01620197296143</t>
   </si>
   <si>
     <t xml:space="preserve">3.01122713088989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11071705818176</t>
+    <t xml:space="preserve">3.11071729660034</t>
   </si>
   <si>
     <t xml:space="preserve">3.11734962463379</t>
@@ -740,22 +743,22 @@
     <t xml:space="preserve">3.05599761009216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03941559791565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06760478019714</t>
+    <t xml:space="preserve">3.03941607475281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06760501861572</t>
   </si>
   <si>
     <t xml:space="preserve">3.15862154960632</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17884802818298</t>
+    <t xml:space="preserve">3.17884755134583</t>
   </si>
   <si>
     <t xml:space="preserve">3.2327835559845</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20244455337524</t>
+    <t xml:space="preserve">3.20244431495667</t>
   </si>
   <si>
     <t xml:space="preserve">3.20750093460083</t>
@@ -773,31 +776,31 @@
     <t xml:space="preserve">3.281662940979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23109817504883</t>
+    <t xml:space="preserve">3.23109793663025</t>
   </si>
   <si>
     <t xml:space="preserve">3.21761417388916</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23446917533875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13839554786682</t>
+    <t xml:space="preserve">3.23446893692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1383957862854</t>
   </si>
   <si>
     <t xml:space="preserve">3.13670992851257</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0423219203949</t>
+    <t xml:space="preserve">3.04232215881348</t>
   </si>
   <si>
     <t xml:space="preserve">3.11985492706299</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1265971660614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0945725440979</t>
+    <t xml:space="preserve">3.12659740447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09457230567932</t>
   </si>
   <si>
     <t xml:space="preserve">3.0861451625824</t>
@@ -806,7 +809,7 @@
     <t xml:space="preserve">3.05412077903748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05074977874756</t>
+    <t xml:space="preserve">3.05074954032898</t>
   </si>
   <si>
     <t xml:space="preserve">3.05917716026306</t>
@@ -821,37 +824,37 @@
     <t xml:space="preserve">3.14176654815674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15019392967224</t>
+    <t xml:space="preserve">3.15019416809082</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850878715515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17042016983032</t>
+    <t xml:space="preserve">3.17041993141174</t>
   </si>
   <si>
     <t xml:space="preserve">3.17379117012024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21087193489075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22772669792175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26986455917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27829170227051</t>
+    <t xml:space="preserve">3.21087169647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22772693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26986479759216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27829194068909</t>
   </si>
   <si>
     <t xml:space="preserve">3.29514718055725</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29851770401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31874394416809</t>
+    <t xml:space="preserve">3.29851794242859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31874370574951</t>
   </si>
   <si>
     <t xml:space="preserve">3.36088109016418</t>
@@ -860,10 +863,10 @@
     <t xml:space="preserve">3.37436532974243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33728408813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36256694793701</t>
+    <t xml:space="preserve">3.33728456497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36256670951843</t>
   </si>
   <si>
     <t xml:space="preserve">3.28840494155884</t>
@@ -875,46 +878,46 @@
     <t xml:space="preserve">3.25806570053101</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32885670661926</t>
+    <t xml:space="preserve">3.32885694503784</t>
   </si>
   <si>
     <t xml:space="preserve">3.16030716896057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22267031669617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23615431785583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2378396987915</t>
+    <t xml:space="preserve">3.22267055511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23615455627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23783993721008</t>
   </si>
   <si>
     <t xml:space="preserve">3.21424293518066</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11311340332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11817002296448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14682292938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19064593315125</t>
+    <t xml:space="preserve">3.11311316490173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1181697845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1468231678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19064617156982</t>
   </si>
   <si>
     <t xml:space="preserve">3.09288740158081</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15693640708923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1350245475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15356540679932</t>
+    <t xml:space="preserve">3.15693616867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13502478599548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15356492996216</t>
   </si>
   <si>
     <t xml:space="preserve">3.19401717185974</t>
@@ -926,22 +929,22 @@
     <t xml:space="preserve">3.16704893112183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18390393257141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19907355308533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20918679237366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19233202934265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20412993431091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2209849357605</t>
+    <t xml:space="preserve">3.18390417098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19907379150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20918703079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19233155250549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20413017272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22098469734192</t>
   </si>
   <si>
     <t xml:space="preserve">3.24795293807983</t>
@@ -950,49 +953,49 @@
     <t xml:space="preserve">3.16873455047607</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14345192909241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16367769241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16536402702332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18558955192566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15187954902649</t>
+    <t xml:space="preserve">3.14345216751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16367840766907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16536355018616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18558979034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15187978744507</t>
   </si>
   <si>
     <t xml:space="preserve">3.00861239433289</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9917573928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89399814605713</t>
+    <t xml:space="preserve">2.99175715446472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89399886131287</t>
   </si>
   <si>
     <t xml:space="preserve">2.93950700759888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96647500991821</t>
+    <t xml:space="preserve">2.96647477149963</t>
   </si>
   <si>
     <t xml:space="preserve">2.96984577178955</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00524139404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00018501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02546739578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94287824630737</t>
+    <t xml:space="preserve">3.00524163246155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0001847743988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02546715736389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94287800788879</t>
   </si>
   <si>
     <t xml:space="preserve">2.89736938476562</t>
@@ -1001,13 +1004,13 @@
     <t xml:space="preserve">2.88557100296021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8687162399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93782138824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80635261535645</t>
+    <t xml:space="preserve">2.86871576309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93782162666321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80635237693787</t>
   </si>
   <si>
     <t xml:space="preserve">2.8653450012207</t>
@@ -1016,31 +1019,31 @@
     <t xml:space="preserve">2.8484902381897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87040138244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91591024398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03389453887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03052401542664</t>
+    <t xml:space="preserve">2.87040162086487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91590976715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03389477729797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03052377700806</t>
   </si>
   <si>
     <t xml:space="preserve">3.07603216171265</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11648392677307</t>
+    <t xml:space="preserve">3.11648440361023</t>
   </si>
   <si>
     <t xml:space="preserve">3.10131502151489</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13165378570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12491178512573</t>
+    <t xml:space="preserve">3.13165354728699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12491154670715</t>
   </si>
   <si>
     <t xml:space="preserve">3.08445978164673</t>
@@ -1049,22 +1052,22 @@
     <t xml:space="preserve">3.09794402122498</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08951616287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11479878425598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14008140563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17294836044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13081097602844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21929955482483</t>
+    <t xml:space="preserve">3.08951640129089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11479902267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14008116722107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17294859886169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13081073760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21929979324341</t>
   </si>
   <si>
     <t xml:space="preserve">3.28250551223755</t>
@@ -1076,67 +1079,67 @@
     <t xml:space="preserve">3.25722336769104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32042932510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28671956062317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02125358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03810858726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9833300113678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93276476860046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1982307434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1392388343811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11395597457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09710073471069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97911620140076</t>
+    <t xml:space="preserve">3.32042956352234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28671932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02125382423401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03810834884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98332977294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93276500701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19823098182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13923835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11395573616028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09710097312927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97911596298218</t>
   </si>
   <si>
     <t xml:space="preserve">3.14766597747803</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08024573326111</t>
+    <t xml:space="preserve">3.08024597167969</t>
   </si>
   <si>
     <t xml:space="preserve">3.08867335319519</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1097424030304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10552835464478</t>
+    <t xml:space="preserve">3.10974216461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10552859306335</t>
   </si>
   <si>
     <t xml:space="preserve">3.21508574485779</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40470409393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31621527671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34149813652039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34992575645447</t>
+    <t xml:space="preserve">3.40470433235168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3162157535553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34149789810181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34992551803589</t>
   </si>
   <si>
     <t xml:space="preserve">3.31200218200684</t>
@@ -1145,7 +1148,7 @@
     <t xml:space="preserve">3.24879574775696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30885720252991</t>
+    <t xml:space="preserve">3.30885672569275</t>
   </si>
   <si>
     <t xml:space="preserve">3.26605153083801</t>
@@ -1154,31 +1157,31 @@
     <t xml:space="preserve">3.27461266517639</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25320959091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2874538898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22752618789673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15047717094421</t>
+    <t xml:space="preserve">3.25320982933044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28745412826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22752666473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15047693252563</t>
   </si>
   <si>
     <t xml:space="preserve">3.18472123146057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20612359046936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27033185958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3216986656189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31313753128052</t>
+    <t xml:space="preserve">3.20612382888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27033233642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32169890403748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31313729286194</t>
   </si>
   <si>
     <t xml:space="preserve">3.16759920120239</t>
@@ -1187,34 +1190,31 @@
     <t xml:space="preserve">3.13335490226746</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24892926216125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24036812782288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17616009712219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18900203704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20184350013733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21040415763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21896553039551</t>
+    <t xml:space="preserve">3.24892950057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17616033554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18900156021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20184326171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21040439605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21896529197693</t>
   </si>
   <si>
     <t xml:space="preserve">3.23608779907227</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14619612693787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19756269454956</t>
+    <t xml:space="preserve">3.14619660377502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19756293296814</t>
   </si>
   <si>
     <t xml:space="preserve">3.23180723190308</t>
@@ -1226,40 +1226,40 @@
     <t xml:space="preserve">3.2232460975647</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25749063491821</t>
+    <t xml:space="preserve">3.25749015808105</t>
   </si>
   <si>
     <t xml:space="preserve">3.278892993927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30029582977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33025932312012</t>
+    <t xml:space="preserve">3.30029559135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3302595615387</t>
   </si>
   <si>
     <t xml:space="preserve">3.39018726348877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37734508514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34310102462769</t>
+    <t xml:space="preserve">3.37734532356262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34310126304626</t>
   </si>
   <si>
     <t xml:space="preserve">3.42443156242371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.492919921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56140851974487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5014808177948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61277461051941</t>
+    <t xml:space="preserve">3.49291968345642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56140828132629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50148153305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61277484893799</t>
   </si>
   <si>
     <t xml:space="preserve">3.51860332489014</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">3.55284762382507</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58709168434143</t>
+    <t xml:space="preserve">3.58709216117859</t>
   </si>
   <si>
     <t xml:space="preserve">3.54428648948669</t>
@@ -1280,19 +1280,19 @@
     <t xml:space="preserve">3.45439481735229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4458339214325</t>
+    <t xml:space="preserve">3.44583415985107</t>
   </si>
   <si>
     <t xml:space="preserve">3.54000616073608</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36878418922424</t>
+    <t xml:space="preserve">3.36878442764282</t>
   </si>
   <si>
     <t xml:space="preserve">3.385906457901</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36450386047363</t>
+    <t xml:space="preserve">3.36450409889221</t>
   </si>
   <si>
     <t xml:space="preserve">3.40730929374695</t>
@@ -1304,73 +1304,73 @@
     <t xml:space="preserve">3.34738183021545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46723699569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64701986312866</t>
+    <t xml:space="preserve">3.4672372341156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64701962471008</t>
   </si>
   <si>
     <t xml:space="preserve">3.65986108779907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62133646011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65129995346069</t>
+    <t xml:space="preserve">3.62133598327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65129971504211</t>
   </si>
   <si>
     <t xml:space="preserve">3.65558052062988</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73691082000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62989664077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6384584903717</t>
+    <t xml:space="preserve">3.73691034317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62989687919617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63845825195312</t>
   </si>
   <si>
     <t xml:space="preserve">3.69410562515259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85676574707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96377968788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79683828353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83964347839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75831317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87388825416565</t>
+    <t xml:space="preserve">3.85676598548889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96377921104431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79683780670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83964443206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75831270217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87388801574707</t>
   </si>
   <si>
     <t xml:space="preserve">3.90385174751282</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87816905975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91669344902039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99802327156067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98946237564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02370595932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14784240722656</t>
+    <t xml:space="preserve">3.87816882133484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91669321060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99802374839783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98946213722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02370691299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1478419303894</t>
   </si>
   <si>
     <t xml:space="preserve">4.10075664520264</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">4.00658464431763</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94665765762329</t>
+    <t xml:space="preserve">3.94665694236755</t>
   </si>
   <si>
     <t xml:space="preserve">3.8952910900116</t>
@@ -1388,52 +1388,52 @@
     <t xml:space="preserve">3.93809580802917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86960768699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94237685203552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95521831512451</t>
+    <t xml:space="preserve">3.86960744857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94237661361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95521807670593</t>
   </si>
   <si>
     <t xml:space="preserve">3.80967974662781</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92097425460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76687407493591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98090219497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03226804733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07079315185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08363485336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99374222755432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95093750953674</t>
+    <t xml:space="preserve">3.92097401618958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76687455177307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98090147972107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03226852416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07079267501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08363437652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99374341964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95093727111816</t>
   </si>
   <si>
     <t xml:space="preserve">3.92953515052795</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74119162559509</t>
+    <t xml:space="preserve">3.74119114875793</t>
   </si>
   <si>
     <t xml:space="preserve">3.74975228309631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66414189338684</t>
+    <t xml:space="preserve">3.66414165496826</t>
   </si>
   <si>
     <t xml:space="preserve">3.60421419143677</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">3.77971625328064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71550869941711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85248589515686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79255700111389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71978855133057</t>
+    <t xml:space="preserve">3.7155077457428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85248494148254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79255747795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71978807449341</t>
   </si>
   <si>
     <t xml:space="preserve">3.77543544769287</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">3.7540328502655</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88244891166687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8610463142395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77115511894226</t>
+    <t xml:space="preserve">3.88244915008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86104583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77115559577942</t>
   </si>
   <si>
     <t xml:space="preserve">3.8053994178772</t>
@@ -1475,70 +1475,70 @@
     <t xml:space="preserve">3.82252168655396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72406911849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73263049125671</t>
+    <t xml:space="preserve">3.72406935691833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73263072967529</t>
   </si>
   <si>
     <t xml:space="preserve">3.93381547927856</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97233986854553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01514625549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08791446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16924571990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1949291229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25485515594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28053903579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32334470748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27197742462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18208694458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17780590057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16068458557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22917318344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17352628707886</t>
+    <t xml:space="preserve">3.97234034538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01514577865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08791494369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16924524307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19492864608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25485610961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28053951263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32334518432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2719783782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18208646774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17780685424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16068410873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.229172706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17352533340454</t>
   </si>
   <si>
     <t xml:space="preserve">4.16496467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14356231689453</t>
+    <t xml:space="preserve">4.14356184005737</t>
   </si>
   <si>
     <t xml:space="preserve">4.34902811050415</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4860053062439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61442089080811</t>
+    <t xml:space="preserve">4.48600482940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61442136764526</t>
   </si>
   <si>
     <t xml:space="preserve">4.58873796463013</t>
@@ -1547,25 +1547,25 @@
     <t xml:space="preserve">4.67434883117676</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57161569595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71715450286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76852083206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79420375823975</t>
+    <t xml:space="preserve">4.57161617279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71715497970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76852035522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7942042350769</t>
   </si>
   <si>
     <t xml:space="preserve">4.77708148956299</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75995922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72571468353271</t>
+    <t xml:space="preserve">4.75995969772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72571516036987</t>
   </si>
   <si>
     <t xml:space="preserve">4.53737163543701</t>
@@ -1574,25 +1574,25 @@
     <t xml:space="preserve">4.52881050109863</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56305456161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58017683029175</t>
+    <t xml:space="preserve">4.56305503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58017730712891</t>
   </si>
   <si>
     <t xml:space="preserve">4.6401047706604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69147109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70859336853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70003223419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49456548690796</t>
+    <t xml:space="preserve">4.6914701461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70859384536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70003128051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49456596374512</t>
   </si>
   <si>
     <t xml:space="preserve">4.62298250198364</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">4.8541316986084</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90549755096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83700847625732</t>
+    <t xml:space="preserve">4.90549802780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83700895309448</t>
   </si>
   <si>
     <t xml:space="preserve">4.78564310073853</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">4.75139856338501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59729909896851</t>
+    <t xml:space="preserve">4.59729862213135</t>
   </si>
   <si>
     <t xml:space="preserve">4.63154363632202</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">4.46888303756714</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43463850021362</t>
+    <t xml:space="preserve">4.43463897705078</t>
   </si>
   <si>
     <t xml:space="preserve">4.55733633041382</t>
@@ -1646,10 +1646,10 @@
     <t xml:space="preserve">4.46093082427979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39081764221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35576105117798</t>
+    <t xml:space="preserve">4.39081811904907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35576152801514</t>
   </si>
   <si>
     <t xml:space="preserve">4.41710996627808</t>
@@ -1658,16 +1658,16 @@
     <t xml:space="preserve">4.39958190917969</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4696946144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53104400634766</t>
+    <t xml:space="preserve">4.46969509124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5310435295105</t>
   </si>
   <si>
     <t xml:space="preserve">4.54857206344604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44340229034424</t>
+    <t xml:space="preserve">4.4434027671814</t>
   </si>
   <si>
     <t xml:space="preserve">4.47845935821533</t>
@@ -1676,55 +1676,55 @@
     <t xml:space="preserve">4.53980779647827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50475168228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31632375717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35137939453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21553611755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12789487838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16733360290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06216478347778</t>
+    <t xml:space="preserve">4.50475072860718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31632280349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35137987136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21553564071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12789440155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16733407974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06216430664062</t>
   </si>
   <si>
     <t xml:space="preserve">4.11474847793579</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02710771560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07092809677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0665454864502</t>
+    <t xml:space="preserve">4.02710723876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07092761993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06654596328735</t>
   </si>
   <si>
     <t xml:space="preserve">4.0227255821228</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04463529586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04025411605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09283781051636</t>
+    <t xml:space="preserve">4.04463577270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04025316238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09283876419067</t>
   </si>
   <si>
     <t xml:space="preserve">4.00519752502441</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15418720245361</t>
+    <t xml:space="preserve">4.15418672561646</t>
   </si>
   <si>
     <t xml:space="preserve">4.171715259552</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">4.19362545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34699726104736</t>
+    <t xml:space="preserve">4.34699773788452</t>
   </si>
   <si>
     <t xml:space="preserve">4.40834617614746</t>
@@ -1748,10 +1748,10 @@
     <t xml:space="preserve">3.91755604743958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95261263847351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96575903892517</t>
+    <t xml:space="preserve">3.95261287689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96575856208801</t>
   </si>
   <si>
     <t xml:space="preserve">4.08407402038574</t>
@@ -1760,73 +1760,73 @@
     <t xml:space="preserve">4.10160207748413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01396179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9438488483429</t>
+    <t xml:space="preserve">4.01396131515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94384837150574</t>
   </si>
   <si>
     <t xml:space="preserve">3.84744310379028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79047632217407</t>
+    <t xml:space="preserve">3.79047656059265</t>
   </si>
   <si>
     <t xml:space="preserve">3.77733063697815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75103855133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75980257987976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78171277046204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73789191246033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73351049423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79485869407654</t>
+    <t xml:space="preserve">3.75103878974915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75980234146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78171229362488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73789143562317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73351001739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79485821723938</t>
   </si>
   <si>
     <t xml:space="preserve">3.89126396179199</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03148937225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93508386611938</t>
+    <t xml:space="preserve">4.03148984909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93508410453796</t>
   </si>
   <si>
     <t xml:space="preserve">3.86058950424194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92193841934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85620713233948</t>
+    <t xml:space="preserve">3.92193794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85620737075806</t>
   </si>
   <si>
     <t xml:space="preserve">3.76856660842896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80800485610962</t>
+    <t xml:space="preserve">3.8080050945282</t>
   </si>
   <si>
     <t xml:space="preserve">3.78609490394592</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67216086387634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82991552352905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72474575042725</t>
+    <t xml:space="preserve">3.6721613407135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82991528511047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72474598884583</t>
   </si>
   <si>
     <t xml:space="preserve">3.799241065979</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">3.72036361694336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74227380752563</t>
+    <t xml:space="preserve">3.74227404594421</t>
   </si>
   <si>
     <t xml:space="preserve">3.7466561794281</t>
@@ -1847,19 +1847,19 @@
     <t xml:space="preserve">3.68968939781189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64586853981018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71598124504089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72912788391113</t>
+    <t xml:space="preserve">3.6458683013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71598148345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72912812232971</t>
   </si>
   <si>
     <t xml:space="preserve">3.70283555984497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04901790618896</t>
+    <t xml:space="preserve">4.04901742935181</t>
   </si>
   <si>
     <t xml:space="preserve">4.03587198257446</t>
@@ -1874,43 +1874,43 @@
     <t xml:space="preserve">4.0972204208374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18048000335693</t>
+    <t xml:space="preserve">4.18047952651978</t>
   </si>
   <si>
     <t xml:space="preserve">4.22429990768433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32946920394897</t>
+    <t xml:space="preserve">4.32946872711182</t>
   </si>
   <si>
     <t xml:space="preserve">4.33385133743286</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52227973937988</t>
+    <t xml:space="preserve">4.52227926254272</t>
   </si>
   <si>
     <t xml:space="preserve">4.51351547241211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6800332069397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67126893997192</t>
+    <t xml:space="preserve">4.68003368377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67126941680908</t>
   </si>
   <si>
     <t xml:space="preserve">4.58362817764282</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64497709274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57486438751221</t>
+    <t xml:space="preserve">4.64497756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57486391067505</t>
   </si>
   <si>
     <t xml:space="preserve">4.62744903564453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68879795074463</t>
+    <t xml:space="preserve">4.68879747390747</t>
   </si>
   <si>
     <t xml:space="preserve">4.87284374237061</t>
@@ -1919,16 +1919,16 @@
     <t xml:space="preserve">4.90790033340454</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79396724700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74138212203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82025957107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81149482727051</t>
+    <t xml:space="preserve">4.79396677017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74138164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82025909423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81149530410767</t>
   </si>
   <si>
     <t xml:space="preserve">4.7852029800415</t>
@@ -1937,31 +1937,31 @@
     <t xml:space="preserve">4.77643871307373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80273151397705</t>
+    <t xml:space="preserve">4.80273103713989</t>
   </si>
   <si>
     <t xml:space="preserve">4.76767492294312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65374088287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5923924446106</t>
+    <t xml:space="preserve">4.65374135971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59239196777344</t>
   </si>
   <si>
     <t xml:space="preserve">4.63621282577515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60115623474121</t>
+    <t xml:space="preserve">4.60115671157837</t>
   </si>
   <si>
     <t xml:space="preserve">4.61868476867676</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86407995223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75891065597534</t>
+    <t xml:space="preserve">4.86407947540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75891017913818</t>
   </si>
   <si>
     <t xml:space="preserve">4.70632553100586</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">4.82902383804321</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73261833190918</t>
+    <t xml:space="preserve">4.73261880874634</t>
   </si>
   <si>
     <t xml:space="preserve">4.32070541381836</t>
@@ -1979,25 +1979,25 @@
     <t xml:space="preserve">4.24182844161987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28564882278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45216703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69756174087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19800758361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82553315162659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54069948196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.431147813797</t>
+    <t xml:space="preserve">4.28564834594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45216655731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69756126403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19800806045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82553291320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54069924354553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43114829063416</t>
   </si>
   <si>
     <t xml:space="preserve">3.37856364250183</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">3.22957372665405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28654026985168</t>
+    <t xml:space="preserve">3.28654050827026</t>
   </si>
   <si>
     <t xml:space="preserve">2.86148118972778</t>
@@ -2018,22 +2018,22 @@
     <t xml:space="preserve">2.9228298664093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94474005699158</t>
+    <t xml:space="preserve">2.94474029541016</t>
   </si>
   <si>
     <t xml:space="preserve">2.78698635101318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72125554084778</t>
+    <t xml:space="preserve">2.7212553024292</t>
   </si>
   <si>
     <t xml:space="preserve">2.85709929466248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66428852081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77822232246399</t>
+    <t xml:space="preserve">2.66428875923157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77822208404541</t>
   </si>
   <si>
     <t xml:space="preserve">2.97979664802551</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">2.87024545669556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75631189346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71249127388</t>
+    <t xml:space="preserve">2.75631213188171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71249151229858</t>
   </si>
   <si>
     <t xml:space="preserve">2.90091967582703</t>
@@ -2057,25 +2057,25 @@
     <t xml:space="preserve">2.84395289421082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7606942653656</t>
+    <t xml:space="preserve">2.76069402694702</t>
   </si>
   <si>
     <t xml:space="preserve">2.76507616043091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9096839427948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94912242889404</t>
+    <t xml:space="preserve">2.90968370437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94912219047546</t>
   </si>
   <si>
     <t xml:space="preserve">2.98856067657471</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06743788719177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02361702919006</t>
+    <t xml:space="preserve">3.06743741035461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02361726760864</t>
   </si>
   <si>
     <t xml:space="preserve">2.99732494354248</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">3.00170683860779</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04114532470703</t>
+    <t xml:space="preserve">3.04114556312561</t>
   </si>
   <si>
     <t xml:space="preserve">3.07181978225708</t>
@@ -2093,10 +2093,10 @@
     <t xml:space="preserve">3.00608897209167</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03676295280457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01047110557556</t>
+    <t xml:space="preserve">3.03676342964172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01047086715698</t>
   </si>
   <si>
     <t xml:space="preserve">3.16822481155396</t>
@@ -2114,16 +2114,16 @@
     <t xml:space="preserve">3.19451713562012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09372997283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15507888793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25586605072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31283259391785</t>
+    <t xml:space="preserve">3.09372973442078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15507864952087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25586581230164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31283283233643</t>
   </si>
   <si>
     <t xml:space="preserve">3.22519183158875</t>
@@ -2138,22 +2138,22 @@
     <t xml:space="preserve">3.19889950752258</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18137121200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37418150901794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45305871963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50564336776733</t>
+    <t xml:space="preserve">3.18137097358704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37418127059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45305848121643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50564312934875</t>
   </si>
   <si>
     <t xml:space="preserve">3.55384540557861</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5319356918335</t>
+    <t xml:space="preserve">3.53193545341492</t>
   </si>
   <si>
     <t xml:space="preserve">3.54946374893188</t>
@@ -2162,16 +2162,16 @@
     <t xml:space="preserve">3.38294553756714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36103534698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26024794578552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44867610931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44429445266724</t>
+    <t xml:space="preserve">3.36103510856628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2602481842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44867634773254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44429421424866</t>
   </si>
   <si>
     <t xml:space="preserve">3.41800212860107</t>
@@ -2180,22 +2180,22 @@
     <t xml:space="preserve">3.43991231918335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49687933921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51002550125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51440739631653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83402919769287</t>
+    <t xml:space="preserve">3.49687910079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51002526283264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51440763473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83402943611145</t>
   </si>
   <si>
     <t xml:space="preserve">3.78892278671265</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70322108268738</t>
+    <t xml:space="preserve">3.70322132110596</t>
   </si>
   <si>
     <t xml:space="preserve">3.65360450744629</t>
@@ -2213,16 +2213,16 @@
     <t xml:space="preserve">3.51828575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42807292938232</t>
+    <t xml:space="preserve">3.4280731678009</t>
   </si>
   <si>
     <t xml:space="preserve">3.45513677597046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4867115020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3874773979187</t>
+    <t xml:space="preserve">3.48671126365662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38747763633728</t>
   </si>
   <si>
     <t xml:space="preserve">3.40552020072937</t>
@@ -2234,16 +2234,16 @@
     <t xml:space="preserve">3.33786082267761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34688210487366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29275465011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15743589401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24764823913574</t>
+    <t xml:space="preserve">3.34688186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29275441169739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15743565559387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24764800071716</t>
   </si>
   <si>
     <t xml:space="preserve">3.3198184967041</t>
@@ -2252,34 +2252,34 @@
     <t xml:space="preserve">3.27020120620728</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22960591316223</t>
+    <t xml:space="preserve">3.22960567474365</t>
   </si>
   <si>
     <t xml:space="preserve">3.22058439254761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2025420665741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16645693778992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16194653511047</t>
+    <t xml:space="preserve">3.20254182815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1664571762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16194629669189</t>
   </si>
   <si>
     <t xml:space="preserve">3.10330843925476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10781908035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13939309120178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12135076522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04015922546387</t>
+    <t xml:space="preserve">3.1078188419342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13939332962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12135100364685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04015970230103</t>
   </si>
   <si>
     <t xml:space="preserve">3.02211713790894</t>
@@ -2288,34 +2288,34 @@
     <t xml:space="preserve">3.00407457351685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99505352973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15292501449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13037204742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11684036254883</t>
+    <t xml:space="preserve">2.9950532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15292525291443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1303722858429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11684012413025</t>
   </si>
   <si>
     <t xml:space="preserve">3.04467034339905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9634792804718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89130878448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92739391326904</t>
+    <t xml:space="preserve">2.96347904205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89130902290344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92739415168762</t>
   </si>
   <si>
     <t xml:space="preserve">2.85973477363586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83267116546631</t>
+    <t xml:space="preserve">2.83267092704773</t>
   </si>
   <si>
     <t xml:space="preserve">2.86875605583191</t>
@@ -2330,49 +2330,49 @@
     <t xml:space="preserve">2.85071349143982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97701120376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87777709960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85522437095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86424517631531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81462836265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77854323387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76952219009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73794794082642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68833136558533</t>
+    <t xml:space="preserve">2.97701096534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87777733802795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85522413253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86424541473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81462860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77854347229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76952242851257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73794770240784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68833112716675</t>
   </si>
   <si>
     <t xml:space="preserve">2.67028856277466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63420367240906</t>
+    <t xml:space="preserve">2.63420343399048</t>
   </si>
   <si>
     <t xml:space="preserve">2.59811878204346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61616110801697</t>
+    <t xml:space="preserve">2.61616134643555</t>
   </si>
   <si>
     <t xml:space="preserve">2.6026291847229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54399108886719</t>
+    <t xml:space="preserve">2.54399085044861</t>
   </si>
   <si>
     <t xml:space="preserve">2.62518239021301</t>
@@ -2384,31 +2384,31 @@
     <t xml:space="preserve">3.01309585571289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06271290779114</t>
+    <t xml:space="preserve">3.06271266937256</t>
   </si>
   <si>
     <t xml:space="preserve">3.24313759803772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23411631584167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25666928291321</t>
+    <t xml:space="preserve">3.23411655426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25666952133179</t>
   </si>
   <si>
     <t xml:space="preserve">3.35590314865112</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36492443084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54985976219177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48220062255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55437088012695</t>
+    <t xml:space="preserve">3.36492466926575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54986000061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48220038414001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55437064170837</t>
   </si>
   <si>
     <t xml:space="preserve">3.52730703353882</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">3.56339192390442</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58143448829651</t>
+    <t xml:space="preserve">3.58143424987793</t>
   </si>
   <si>
     <t xml:space="preserve">3.51377487182617</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">3.49573254585266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62654066085815</t>
+    <t xml:space="preserve">3.62654042243958</t>
   </si>
   <si>
     <t xml:space="preserve">3.75283765792847</t>
@@ -2435,34 +2435,34 @@
     <t xml:space="preserve">3.79794430732727</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82500743865967</t>
+    <t xml:space="preserve">3.82500767707825</t>
   </si>
   <si>
     <t xml:space="preserve">3.8791356086731</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73028516769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73479533195496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72577428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69871020317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68066787719727</t>
+    <t xml:space="preserve">3.73028492927551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73479557037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72577452659607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69871044158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68066811561584</t>
   </si>
   <si>
     <t xml:space="preserve">3.61751961708069</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60849833488464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64458298683167</t>
+    <t xml:space="preserve">3.60849809646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64458274841309</t>
   </si>
   <si>
     <t xml:space="preserve">3.57692360877991</t>
@@ -2471,49 +2471,49 @@
     <t xml:space="preserve">3.66262531280518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64909386634827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82049751281738</t>
+    <t xml:space="preserve">3.64909362792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8204972743988</t>
   </si>
   <si>
     <t xml:space="preserve">3.81598687171936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80696511268616</t>
+    <t xml:space="preserve">3.80696535110474</t>
   </si>
   <si>
     <t xml:space="preserve">3.7799015045166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85207152366638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91522097587585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75734853744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84305095672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85658240318298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83853983879089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84756112098694</t>
+    <t xml:space="preserve">3.85207200050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91522073745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75734806060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8430507183075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8565821647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83854007720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84756088256836</t>
   </si>
   <si>
     <t xml:space="preserve">3.79343366622925</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76185917854309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68968915939331</t>
+    <t xml:space="preserve">3.76185941696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68968963623047</t>
   </si>
   <si>
     <t xml:space="preserve">3.6716468334198</t>
@@ -2522,10 +2522,10 @@
     <t xml:space="preserve">3.73930621147156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7844123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86109328269958</t>
+    <t xml:space="preserve">3.78441286087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86109352111816</t>
   </si>
   <si>
     <t xml:space="preserve">4.00543308258057</t>
@@ -2534,157 +2534,157 @@
     <t xml:space="preserve">4.0189642906189</t>
   </si>
   <si>
+    <t xml:space="preserve">4.07760238647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09131669998169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17817115783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25588369369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24674081802368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21931314468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28331089019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22388410568237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18731355667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15074348449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.114173412323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05931758880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10960149765015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13702964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16902875900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05474615097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08217430114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09588813781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04103231430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06845998764038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03188943862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04560375213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12331628799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15988636016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20102787017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2604546546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19645690917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19188499450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14160108566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27873992919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29702520370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23302698135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20559930801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11874437332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10045957565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14617252349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29245376586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31531047821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34273815155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28788280487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00446176528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98617672920227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95874857902527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95417761802673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88560795783997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78961062431335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73932671546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9084644317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01360416412354</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.07760286331177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09131669998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17817163467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25588369369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24674081802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21931266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28331136703491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22388458251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1873140335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15074348449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.114173412323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05931758880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1096019744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13703012466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16902875900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05474615097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08217430114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09588766098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04103231430054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06845998764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03188943862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04560327529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12331581115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15988636016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20102787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2604546546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19645690917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19188499450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1416015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27873992919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29702472686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23302745819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20559930801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11874437332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10045909881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14617204666138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29245376586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31531000137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34273815155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28788280487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00446176528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98617696762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95874881744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95417737960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88560795783997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78961062431335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7393262386322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90846467018127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01360416412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07760238647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02274656295776</t>
+    <t xml:space="preserve">4.02274703979492</t>
   </si>
   <si>
     <t xml:space="preserve">4.12788677215576</t>
@@ -2693,25 +2693,25 @@
     <t xml:space="preserve">4.07303094863892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06388902664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10503005981445</t>
+    <t xml:space="preserve">4.06388854980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10503053665161</t>
   </si>
   <si>
     <t xml:space="preserve">3.931321144104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.009033203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05017423629761</t>
+    <t xml:space="preserve">4.00903367996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05017471313477</t>
   </si>
   <si>
     <t xml:space="preserve">4.18274259567261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23759889602661</t>
+    <t xml:space="preserve">4.23759841918945</t>
   </si>
   <si>
     <t xml:space="preserve">4.17360019683838</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">4.32902431488037</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2147421836853</t>
+    <t xml:space="preserve">4.21474170684814</t>
   </si>
   <si>
     <t xml:space="preserve">4.21017074584961</t>
@@ -2735,13 +2735,13 @@
     <t xml:space="preserve">4.33359575271606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27416849136353</t>
+    <t xml:space="preserve">4.27416896820068</t>
   </si>
   <si>
     <t xml:space="preserve">4.37930870056152</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49359130859375</t>
+    <t xml:space="preserve">4.49359083175659</t>
   </si>
   <si>
     <t xml:space="preserve">4.52558994293213</t>
@@ -2756,13 +2756,13 @@
     <t xml:space="preserve">4.64444446563721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65358686447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59873151779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54387521743774</t>
+    <t xml:space="preserve">4.65358734130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59873104095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5438756942749</t>
   </si>
   <si>
     <t xml:space="preserve">4.52101898193359</t>
@@ -2771,67 +2771,67 @@
     <t xml:space="preserve">4.58958864212036</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58044576644897</t>
+    <t xml:space="preserve">4.58044624328613</t>
   </si>
   <si>
     <t xml:space="preserve">4.60787343978882</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7267279624939</t>
+    <t xml:space="preserve">4.72672748565674</t>
   </si>
   <si>
     <t xml:space="preserve">4.69015741348267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56673192977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66272926330566</t>
+    <t xml:space="preserve">4.56673240661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66272974014282</t>
   </si>
   <si>
     <t xml:space="preserve">4.70844268798828</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73587036132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47987794876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53930425643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36102390289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68101453781128</t>
+    <t xml:space="preserve">4.73586988449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47987747192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53930473327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36102342605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68101501464844</t>
   </si>
   <si>
     <t xml:space="preserve">4.75415563583374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74501323699951</t>
+    <t xml:space="preserve">4.74501276016235</t>
   </si>
   <si>
     <t xml:space="preserve">4.80901145935059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85472393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86386728286743</t>
+    <t xml:space="preserve">4.85472440719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86386680603027</t>
   </si>
   <si>
     <t xml:space="preserve">4.99186372756958</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01929092407227</t>
+    <t xml:space="preserve">5.01929140090942</t>
   </si>
   <si>
     <t xml:space="preserve">4.98272085189819</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1564302444458</t>
+    <t xml:space="preserve">5.15642976760864</t>
   </si>
   <si>
     <t xml:space="preserve">5.11985969543457</t>
@@ -2855,13 +2855,13 @@
     <t xml:space="preserve">5.14728784561157</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25699949264526</t>
+    <t xml:space="preserve">5.25699901580811</t>
   </si>
   <si>
     <t xml:space="preserve">5.36671018600464</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3849949836731</t>
+    <t xml:space="preserve">5.38499546051025</t>
   </si>
   <si>
     <t xml:space="preserve">5.62270355224609</t>
@@ -2879,16 +2879,16 @@
     <t xml:space="preserve">5.30271196365356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28442764282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17471551895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19300031661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09243202209473</t>
+    <t xml:space="preserve">5.28442668914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17471504211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19300079345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09243249893188</t>
   </si>
   <si>
     <t xml:space="preserve">4.84558200836182</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">4.9004373550415</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02843427658081</t>
+    <t xml:space="preserve">5.02843379974365</t>
   </si>
   <si>
     <t xml:space="preserve">4.93700790405273</t>
@@ -2909,13 +2909,13 @@
     <t xml:space="preserve">5.00100612640381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96443557739258</t>
+    <t xml:space="preserve">4.96443510055542</t>
   </si>
   <si>
     <t xml:space="preserve">5.13814496994019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0558614730835</t>
+    <t xml:space="preserve">5.05586194992065</t>
   </si>
   <si>
     <t xml:space="preserve">4.89129495620728</t>
@@ -2924,22 +2924,22 @@
     <t xml:space="preserve">4.83643913269043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79986810684204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61701679229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50730562210083</t>
+    <t xml:space="preserve">4.7998685836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61701631546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50730514526367</t>
   </si>
   <si>
     <t xml:space="preserve">4.45244979858398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32445287704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95529317855835</t>
+    <t xml:space="preserve">4.32445335388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95529270172119</t>
   </si>
   <si>
     <t xml:space="preserve">5.0101490020752</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">5.06500434875488</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22042846679688</t>
+    <t xml:space="preserve">5.22042894363403</t>
   </si>
   <si>
     <t xml:space="preserve">5.33013963699341</t>
@@ -2957,28 +2957,28 @@
     <t xml:space="preserve">5.4124231338501</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53127765655518</t>
+    <t xml:space="preserve">5.53127717971802</t>
   </si>
   <si>
     <t xml:space="preserve">5.39413833618164</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5404200553894</t>
+    <t xml:space="preserve">5.54041957855225</t>
   </si>
   <si>
     <t xml:space="preserve">5.66841602325439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74155759811401</t>
+    <t xml:space="preserve">5.74155712127686</t>
   </si>
   <si>
     <t xml:space="preserve">5.63184547424316</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73241472244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65013074874878</t>
+    <t xml:space="preserve">5.73241424560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65013122558594</t>
   </si>
   <si>
     <t xml:space="preserve">5.4823055267334</t>
@@ -7517,7 +7517,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G121" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="H121" t="s">
         <v>9</v>
@@ -7543,7 +7543,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G122" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H122" t="s">
         <v>9</v>
@@ -7569,7 +7569,7 @@
         <v>3.08599996566772</v>
       </c>
       <c r="G123" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H123" t="s">
         <v>9</v>